--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:AMP6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" outlineLevelRow="5"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -1236,8 +1236,8 @@
   <sheetPr/>
   <dimension ref="A1:AMP6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" outlineLevelRow="5"/>
@@ -3540,7 +3540,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -3587,6 +3587,9 @@
       <c r="N6" s="6">
         <f>I6-I5</f>
         <v>0.00719999999999998</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13305" tabRatio="993"/>
+    <workbookView windowWidth="20385" windowHeight="8625" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="特征选取" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <r>
       <rPr>
@@ -41,6 +41,9 @@
       </rPr>
       <t>操作说明</t>
     </r>
+  </si>
+  <si>
+    <t>特征数目</t>
   </si>
   <si>
     <t>train-logloss</t>
@@ -157,9 +160,6 @@
     </r>
   </si>
   <si>
-    <t>特征数目</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -176,6 +176,9 @@
       </rPr>
       <t>合并用户基本信息</t>
     </r>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>0.685363</t>
@@ -197,9 +200,6 @@
   </si>
   <si>
     <t>0.443926</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>action_type_ratio</t>
@@ -254,6 +254,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>基本特征</t>
     </r>
     <r>
@@ -268,6 +273,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>往前</t>
@@ -283,6 +289,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的计数特征</t>
@@ -293,6 +300,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>往前</t>
     </r>
     <r>
@@ -306,6 +318,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的计数特征</t>
@@ -322,6 +335,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>只保留</t>
@@ -338,6 +352,40 @@
   <si>
     <t>55</t>
   </si>
+  <si>
+    <t>2016_order_count
+ 2017_order_count</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2017_checkname_diff_count
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2016</t>
+    </r>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>both_year_has_order</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
 </sst>
 </file>
 
@@ -346,11 +394,11 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="178" formatCode="0.000000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -369,10 +417,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -381,9 +425,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,6 +471,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -405,7 +496,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,53 +525,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,23 +541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,9 +554,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -538,8 +582,12 @@
       <name val="方正行楷_GBK"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +608,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -572,31 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,7 +650,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +734,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,79 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,25 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +827,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,6 +862,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -807,191 +905,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,22 +1082,25 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -1364,28 +1421,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMP9"/>
+  <dimension ref="A1:AMP12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:N9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7166666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.0166666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.51666666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.325" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.6166666666667" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.1333333333333" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.4916666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.325" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.0166666666667" style="4" customWidth="1"/>
-    <col min="11" max="12" width="13.65" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.0166666666667" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.0916666666667" style="7" customWidth="1"/>
-    <col min="15" max="15" width="8.775" style="1"/>
+    <col min="1" max="1" width="31.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.775" style="1"/>
+    <col min="3" max="3" width="11.7166666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.0166666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.51666666666667" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.325" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.6166666666667" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.1333333333333" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.4916666666667" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.325" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.0166666666667" style="4" customWidth="1"/>
+    <col min="12" max="13" width="13.65" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.0166666666667" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.0916666666667" style="7" customWidth="1"/>
     <col min="16" max="1030" width="8.775" style="8"/>
     <col min="1031" max="16384" width="9" style="2"/>
   </cols>
@@ -1394,13 +1451,13 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1412,13 +1469,13 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -1430,10 +1487,10 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="8"/>
@@ -2456,13 +2513,13 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -2474,14 +2531,14 @@
       <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="6">
         <v>0.53609</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
@@ -2492,11 +2549,11 @@
       <c r="M2" s="4">
         <v>0</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="4">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
+      <c r="O2" s="7">
+        <v>0</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -3518,1379 +3575,2487 @@
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.349149</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>0.509732</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>0.8755114</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>0.6642752</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>0.3273982</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>0.5140871</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.265681</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <v>0.68769</v>
       </c>
-      <c r="J3" s="4">
-        <f>C3-C2</f>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K9" si="0">D3-D2</f>
         <v>-0.178034</v>
       </c>
-      <c r="K3" s="4">
-        <f>G3-G2</f>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L9" si="1">H3-H2</f>
         <v>-0.1716225</v>
       </c>
-      <c r="L3" s="4">
-        <f>D3-D2</f>
+      <c r="M3" s="4">
+        <f t="shared" ref="M3:M9" si="2">E3-E2</f>
         <v>0.3205418</v>
       </c>
-      <c r="M3" s="4">
-        <f>E3-E2</f>
+      <c r="N3" s="4">
+        <f t="shared" ref="N3:N9" si="3">F3-F2</f>
         <v>0.1247861</v>
       </c>
-      <c r="N3" s="7">
-        <f>I3-I2</f>
+      <c r="O3" s="7">
+        <f t="shared" ref="O3:O9" si="4">J3-J2</f>
         <v>0.1516</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.259827</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>0.460232</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>0.9252566</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>0.6805996</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>0.2397405</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>0.4615553</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.235709</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>0.6959</v>
       </c>
-      <c r="J4" s="4">
-        <f>C4-C3</f>
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
         <v>-0.0495</v>
       </c>
-      <c r="K4" s="4">
-        <f>G4-G3</f>
+      <c r="L4" s="4">
+        <f t="shared" si="1"/>
         <v>-0.0525318</v>
       </c>
-      <c r="L4" s="4">
-        <f>D4-D3</f>
+      <c r="M4" s="4">
+        <f t="shared" si="2"/>
         <v>0.0497451999999999</v>
       </c>
-      <c r="M4" s="4">
-        <f>E4-E3</f>
+      <c r="N4" s="4">
+        <f t="shared" si="3"/>
         <v>0.0163244</v>
       </c>
-      <c r="N4" s="7">
-        <f>I4-I3</f>
+      <c r="O4" s="7">
+        <f t="shared" si="4"/>
         <v>0.00820999999999994</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1" spans="1:15">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.239907</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>0.454952</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>0.9348424</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>0.6772783</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>0.2432963</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>0.4569235</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.237297</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.69669</v>
       </c>
-      <c r="J5" s="4">
-        <f>C5-C4</f>
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
         <v>-0.00527999999999995</v>
       </c>
-      <c r="K5" s="4">
-        <f>G5-G4</f>
+      <c r="L5" s="4">
+        <f t="shared" si="1"/>
         <v>-0.00463180000000002</v>
       </c>
-      <c r="L5" s="4">
-        <f>D5-D4</f>
+      <c r="M5" s="4">
+        <f t="shared" si="2"/>
         <v>0.00958579999999998</v>
       </c>
-      <c r="M5" s="4">
-        <f>E5-E4</f>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
         <v>-0.00332129999999997</v>
       </c>
-      <c r="N5" s="7">
-        <f>I5-I4</f>
+      <c r="O5" s="7">
+        <f t="shared" si="4"/>
         <v>0.000790000000000068</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4">
         <v>0.239907</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>0.454952</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>0.9194515</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>0.6938443</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>0.2432963</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>0.4569235</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.315006</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>0.70389</v>
       </c>
-      <c r="J6" s="4">
-        <f>C6-C5</f>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
-        <f>G6-G5</f>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="4">
-        <f>D6-D5</f>
+      <c r="M6" s="4">
+        <f t="shared" si="2"/>
         <v>-0.0153909</v>
       </c>
-      <c r="M6" s="4">
-        <f>E6-E5</f>
+      <c r="N6" s="4">
+        <f t="shared" si="3"/>
         <v>0.016566</v>
       </c>
-      <c r="N6" s="7">
-        <f>I6-I5</f>
+      <c r="O6" s="7">
+        <f t="shared" si="4"/>
         <v>0.00719999999999998</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" ht="21" spans="1:15">
       <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.201674</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>0.402392</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>0.9372657</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>0.7198666</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>0.1978404</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>0.4036588</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.274017</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>0.7203</v>
       </c>
-      <c r="J7" s="4">
-        <f>C7-C6</f>
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
         <v>-0.05256</v>
       </c>
-      <c r="K7" s="4">
-        <f>G7-G6</f>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
         <v>-0.0532647</v>
       </c>
-      <c r="L7" s="4">
-        <f>D7-D6</f>
+      <c r="M7" s="4">
+        <f t="shared" si="2"/>
         <v>0.0178142</v>
       </c>
-      <c r="M7" s="4">
-        <f>E7-E6</f>
+      <c r="N7" s="4">
+        <f t="shared" si="3"/>
         <v>0.0260223000000001</v>
       </c>
-      <c r="N7" s="7">
-        <f>I7-I6</f>
+      <c r="O7" s="7">
+        <f t="shared" si="4"/>
         <v>0.01641</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="21" spans="1:1030">
       <c r="A8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14">
         <v>0.205852</v>
       </c>
-      <c r="C8" s="13">
+      <c r="D8" s="14">
         <v>0.395261</v>
       </c>
-      <c r="D8" s="14">
+      <c r="E8" s="17">
         <v>0.9329254</v>
       </c>
-      <c r="E8" s="14">
+      <c r="F8" s="17">
         <v>0.7266976</v>
       </c>
-      <c r="F8" s="14">
+      <c r="G8" s="17">
         <v>0.2136964</v>
       </c>
-      <c r="G8" s="14">
+      <c r="H8" s="17">
         <v>0.3982393</v>
       </c>
-      <c r="H8" s="13">
+      <c r="I8" s="14">
         <v>0.290195</v>
       </c>
-      <c r="I8" s="16">
+      <c r="J8" s="18">
         <v>0.7336</v>
       </c>
-      <c r="J8" s="13">
-        <f>C8-C7</f>
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
         <v>-0.00713100000000005</v>
       </c>
-      <c r="K8" s="13">
-        <f>G8-G7</f>
+      <c r="L8" s="14">
+        <f t="shared" si="1"/>
         <v>-0.00541949999999997</v>
       </c>
-      <c r="L8" s="13">
-        <f>D8-D7</f>
+      <c r="M8" s="14">
+        <f t="shared" si="2"/>
         <v>-0.00434029999999996</v>
       </c>
-      <c r="M8" s="13">
-        <f>E8-E7</f>
+      <c r="N8" s="14">
+        <f t="shared" si="3"/>
         <v>0.00683100000000003</v>
       </c>
-      <c r="N8" s="16">
-        <f>I8-I7</f>
+      <c r="O8" s="18">
+        <f t="shared" si="4"/>
         <v>0.0133</v>
       </c>
-      <c r="O8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18"/>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="18"/>
-      <c r="AQ8" s="18"/>
-      <c r="AR8" s="18"/>
-      <c r="AS8" s="18"/>
-      <c r="AT8" s="18"/>
-      <c r="AU8" s="18"/>
-      <c r="AV8" s="18"/>
-      <c r="AW8" s="18"/>
-      <c r="AX8" s="18"/>
-      <c r="AY8" s="18"/>
-      <c r="AZ8" s="18"/>
-      <c r="BA8" s="18"/>
-      <c r="BB8" s="18"/>
-      <c r="BC8" s="18"/>
-      <c r="BD8" s="18"/>
-      <c r="BE8" s="18"/>
-      <c r="BF8" s="18"/>
-      <c r="BG8" s="18"/>
-      <c r="BH8" s="18"/>
-      <c r="BI8" s="18"/>
-      <c r="BJ8" s="18"/>
-      <c r="BK8" s="18"/>
-      <c r="BL8" s="18"/>
-      <c r="BM8" s="18"/>
-      <c r="BN8" s="18"/>
-      <c r="BO8" s="18"/>
-      <c r="BP8" s="18"/>
-      <c r="BQ8" s="18"/>
-      <c r="BR8" s="18"/>
-      <c r="BS8" s="18"/>
-      <c r="BT8" s="18"/>
-      <c r="BU8" s="18"/>
-      <c r="BV8" s="18"/>
-      <c r="BW8" s="18"/>
-      <c r="BX8" s="18"/>
-      <c r="BY8" s="18"/>
-      <c r="BZ8" s="18"/>
-      <c r="CA8" s="18"/>
-      <c r="CB8" s="18"/>
-      <c r="CC8" s="18"/>
-      <c r="CD8" s="18"/>
-      <c r="CE8" s="18"/>
-      <c r="CF8" s="18"/>
-      <c r="CG8" s="18"/>
-      <c r="CH8" s="18"/>
-      <c r="CI8" s="18"/>
-      <c r="CJ8" s="18"/>
-      <c r="CK8" s="18"/>
-      <c r="CL8" s="18"/>
-      <c r="CM8" s="18"/>
-      <c r="CN8" s="18"/>
-      <c r="CO8" s="18"/>
-      <c r="CP8" s="18"/>
-      <c r="CQ8" s="18"/>
-      <c r="CR8" s="18"/>
-      <c r="CS8" s="18"/>
-      <c r="CT8" s="18"/>
-      <c r="CU8" s="18"/>
-      <c r="CV8" s="18"/>
-      <c r="CW8" s="18"/>
-      <c r="CX8" s="18"/>
-      <c r="CY8" s="18"/>
-      <c r="CZ8" s="18"/>
-      <c r="DA8" s="18"/>
-      <c r="DB8" s="18"/>
-      <c r="DC8" s="18"/>
-      <c r="DD8" s="18"/>
-      <c r="DE8" s="18"/>
-      <c r="DF8" s="18"/>
-      <c r="DG8" s="18"/>
-      <c r="DH8" s="18"/>
-      <c r="DI8" s="18"/>
-      <c r="DJ8" s="18"/>
-      <c r="DK8" s="18"/>
-      <c r="DL8" s="18"/>
-      <c r="DM8" s="18"/>
-      <c r="DN8" s="18"/>
-      <c r="DO8" s="18"/>
-      <c r="DP8" s="18"/>
-      <c r="DQ8" s="18"/>
-      <c r="DR8" s="18"/>
-      <c r="DS8" s="18"/>
-      <c r="DT8" s="18"/>
-      <c r="DU8" s="18"/>
-      <c r="DV8" s="18"/>
-      <c r="DW8" s="18"/>
-      <c r="DX8" s="18"/>
-      <c r="DY8" s="18"/>
-      <c r="DZ8" s="18"/>
-      <c r="EA8" s="18"/>
-      <c r="EB8" s="18"/>
-      <c r="EC8" s="18"/>
-      <c r="ED8" s="18"/>
-      <c r="EE8" s="18"/>
-      <c r="EF8" s="18"/>
-      <c r="EG8" s="18"/>
-      <c r="EH8" s="18"/>
-      <c r="EI8" s="18"/>
-      <c r="EJ8" s="18"/>
-      <c r="EK8" s="18"/>
-      <c r="EL8" s="18"/>
-      <c r="EM8" s="18"/>
-      <c r="EN8" s="18"/>
-      <c r="EO8" s="18"/>
-      <c r="EP8" s="18"/>
-      <c r="EQ8" s="18"/>
-      <c r="ER8" s="18"/>
-      <c r="ES8" s="18"/>
-      <c r="ET8" s="18"/>
-      <c r="EU8" s="18"/>
-      <c r="EV8" s="18"/>
-      <c r="EW8" s="18"/>
-      <c r="EX8" s="18"/>
-      <c r="EY8" s="18"/>
-      <c r="EZ8" s="18"/>
-      <c r="FA8" s="18"/>
-      <c r="FB8" s="18"/>
-      <c r="FC8" s="18"/>
-      <c r="FD8" s="18"/>
-      <c r="FE8" s="18"/>
-      <c r="FF8" s="18"/>
-      <c r="FG8" s="18"/>
-      <c r="FH8" s="18"/>
-      <c r="FI8" s="18"/>
-      <c r="FJ8" s="18"/>
-      <c r="FK8" s="18"/>
-      <c r="FL8" s="18"/>
-      <c r="FM8" s="18"/>
-      <c r="FN8" s="18"/>
-      <c r="FO8" s="18"/>
-      <c r="FP8" s="18"/>
-      <c r="FQ8" s="18"/>
-      <c r="FR8" s="18"/>
-      <c r="FS8" s="18"/>
-      <c r="FT8" s="18"/>
-      <c r="FU8" s="18"/>
-      <c r="FV8" s="18"/>
-      <c r="FW8" s="18"/>
-      <c r="FX8" s="18"/>
-      <c r="FY8" s="18"/>
-      <c r="FZ8" s="18"/>
-      <c r="GA8" s="18"/>
-      <c r="GB8" s="18"/>
-      <c r="GC8" s="18"/>
-      <c r="GD8" s="18"/>
-      <c r="GE8" s="18"/>
-      <c r="GF8" s="18"/>
-      <c r="GG8" s="18"/>
-      <c r="GH8" s="18"/>
-      <c r="GI8" s="18"/>
-      <c r="GJ8" s="18"/>
-      <c r="GK8" s="18"/>
-      <c r="GL8" s="18"/>
-      <c r="GM8" s="18"/>
-      <c r="GN8" s="18"/>
-      <c r="GO8" s="18"/>
-      <c r="GP8" s="18"/>
-      <c r="GQ8" s="18"/>
-      <c r="GR8" s="18"/>
-      <c r="GS8" s="18"/>
-      <c r="GT8" s="18"/>
-      <c r="GU8" s="18"/>
-      <c r="GV8" s="18"/>
-      <c r="GW8" s="18"/>
-      <c r="GX8" s="18"/>
-      <c r="GY8" s="18"/>
-      <c r="GZ8" s="18"/>
-      <c r="HA8" s="18"/>
-      <c r="HB8" s="18"/>
-      <c r="HC8" s="18"/>
-      <c r="HD8" s="18"/>
-      <c r="HE8" s="18"/>
-      <c r="HF8" s="18"/>
-      <c r="HG8" s="18"/>
-      <c r="HH8" s="18"/>
-      <c r="HI8" s="18"/>
-      <c r="HJ8" s="18"/>
-      <c r="HK8" s="18"/>
-      <c r="HL8" s="18"/>
-      <c r="HM8" s="18"/>
-      <c r="HN8" s="18"/>
-      <c r="HO8" s="18"/>
-      <c r="HP8" s="18"/>
-      <c r="HQ8" s="18"/>
-      <c r="HR8" s="18"/>
-      <c r="HS8" s="18"/>
-      <c r="HT8" s="18"/>
-      <c r="HU8" s="18"/>
-      <c r="HV8" s="18"/>
-      <c r="HW8" s="18"/>
-      <c r="HX8" s="18"/>
-      <c r="HY8" s="18"/>
-      <c r="HZ8" s="18"/>
-      <c r="IA8" s="18"/>
-      <c r="IB8" s="18"/>
-      <c r="IC8" s="18"/>
-      <c r="ID8" s="18"/>
-      <c r="IE8" s="18"/>
-      <c r="IF8" s="18"/>
-      <c r="IG8" s="18"/>
-      <c r="IH8" s="18"/>
-      <c r="II8" s="18"/>
-      <c r="IJ8" s="18"/>
-      <c r="IK8" s="18"/>
-      <c r="IL8" s="18"/>
-      <c r="IM8" s="18"/>
-      <c r="IN8" s="18"/>
-      <c r="IO8" s="18"/>
-      <c r="IP8" s="18"/>
-      <c r="IQ8" s="18"/>
-      <c r="IR8" s="18"/>
-      <c r="IS8" s="18"/>
-      <c r="IT8" s="18"/>
-      <c r="IU8" s="18"/>
-      <c r="IV8" s="18"/>
-      <c r="IW8" s="18"/>
-      <c r="IX8" s="18"/>
-      <c r="IY8" s="18"/>
-      <c r="IZ8" s="18"/>
-      <c r="JA8" s="18"/>
-      <c r="JB8" s="18"/>
-      <c r="JC8" s="18"/>
-      <c r="JD8" s="18"/>
-      <c r="JE8" s="18"/>
-      <c r="JF8" s="18"/>
-      <c r="JG8" s="18"/>
-      <c r="JH8" s="18"/>
-      <c r="JI8" s="18"/>
-      <c r="JJ8" s="18"/>
-      <c r="JK8" s="18"/>
-      <c r="JL8" s="18"/>
-      <c r="JM8" s="18"/>
-      <c r="JN8" s="18"/>
-      <c r="JO8" s="18"/>
-      <c r="JP8" s="18"/>
-      <c r="JQ8" s="18"/>
-      <c r="JR8" s="18"/>
-      <c r="JS8" s="18"/>
-      <c r="JT8" s="18"/>
-      <c r="JU8" s="18"/>
-      <c r="JV8" s="18"/>
-      <c r="JW8" s="18"/>
-      <c r="JX8" s="18"/>
-      <c r="JY8" s="18"/>
-      <c r="JZ8" s="18"/>
-      <c r="KA8" s="18"/>
-      <c r="KB8" s="18"/>
-      <c r="KC8" s="18"/>
-      <c r="KD8" s="18"/>
-      <c r="KE8" s="18"/>
-      <c r="KF8" s="18"/>
-      <c r="KG8" s="18"/>
-      <c r="KH8" s="18"/>
-      <c r="KI8" s="18"/>
-      <c r="KJ8" s="18"/>
-      <c r="KK8" s="18"/>
-      <c r="KL8" s="18"/>
-      <c r="KM8" s="18"/>
-      <c r="KN8" s="18"/>
-      <c r="KO8" s="18"/>
-      <c r="KP8" s="18"/>
-      <c r="KQ8" s="18"/>
-      <c r="KR8" s="18"/>
-      <c r="KS8" s="18"/>
-      <c r="KT8" s="18"/>
-      <c r="KU8" s="18"/>
-      <c r="KV8" s="18"/>
-      <c r="KW8" s="18"/>
-      <c r="KX8" s="18"/>
-      <c r="KY8" s="18"/>
-      <c r="KZ8" s="18"/>
-      <c r="LA8" s="18"/>
-      <c r="LB8" s="18"/>
-      <c r="LC8" s="18"/>
-      <c r="LD8" s="18"/>
-      <c r="LE8" s="18"/>
-      <c r="LF8" s="18"/>
-      <c r="LG8" s="18"/>
-      <c r="LH8" s="18"/>
-      <c r="LI8" s="18"/>
-      <c r="LJ8" s="18"/>
-      <c r="LK8" s="18"/>
-      <c r="LL8" s="18"/>
-      <c r="LM8" s="18"/>
-      <c r="LN8" s="18"/>
-      <c r="LO8" s="18"/>
-      <c r="LP8" s="18"/>
-      <c r="LQ8" s="18"/>
-      <c r="LR8" s="18"/>
-      <c r="LS8" s="18"/>
-      <c r="LT8" s="18"/>
-      <c r="LU8" s="18"/>
-      <c r="LV8" s="18"/>
-      <c r="LW8" s="18"/>
-      <c r="LX8" s="18"/>
-      <c r="LY8" s="18"/>
-      <c r="LZ8" s="18"/>
-      <c r="MA8" s="18"/>
-      <c r="MB8" s="18"/>
-      <c r="MC8" s="18"/>
-      <c r="MD8" s="18"/>
-      <c r="ME8" s="18"/>
-      <c r="MF8" s="18"/>
-      <c r="MG8" s="18"/>
-      <c r="MH8" s="18"/>
-      <c r="MI8" s="18"/>
-      <c r="MJ8" s="18"/>
-      <c r="MK8" s="18"/>
-      <c r="ML8" s="18"/>
-      <c r="MM8" s="18"/>
-      <c r="MN8" s="18"/>
-      <c r="MO8" s="18"/>
-      <c r="MP8" s="18"/>
-      <c r="MQ8" s="18"/>
-      <c r="MR8" s="18"/>
-      <c r="MS8" s="18"/>
-      <c r="MT8" s="18"/>
-      <c r="MU8" s="18"/>
-      <c r="MV8" s="18"/>
-      <c r="MW8" s="18"/>
-      <c r="MX8" s="18"/>
-      <c r="MY8" s="18"/>
-      <c r="MZ8" s="18"/>
-      <c r="NA8" s="18"/>
-      <c r="NB8" s="18"/>
-      <c r="NC8" s="18"/>
-      <c r="ND8" s="18"/>
-      <c r="NE8" s="18"/>
-      <c r="NF8" s="18"/>
-      <c r="NG8" s="18"/>
-      <c r="NH8" s="18"/>
-      <c r="NI8" s="18"/>
-      <c r="NJ8" s="18"/>
-      <c r="NK8" s="18"/>
-      <c r="NL8" s="18"/>
-      <c r="NM8" s="18"/>
-      <c r="NN8" s="18"/>
-      <c r="NO8" s="18"/>
-      <c r="NP8" s="18"/>
-      <c r="NQ8" s="18"/>
-      <c r="NR8" s="18"/>
-      <c r="NS8" s="18"/>
-      <c r="NT8" s="18"/>
-      <c r="NU8" s="18"/>
-      <c r="NV8" s="18"/>
-      <c r="NW8" s="18"/>
-      <c r="NX8" s="18"/>
-      <c r="NY8" s="18"/>
-      <c r="NZ8" s="18"/>
-      <c r="OA8" s="18"/>
-      <c r="OB8" s="18"/>
-      <c r="OC8" s="18"/>
-      <c r="OD8" s="18"/>
-      <c r="OE8" s="18"/>
-      <c r="OF8" s="18"/>
-      <c r="OG8" s="18"/>
-      <c r="OH8" s="18"/>
-      <c r="OI8" s="18"/>
-      <c r="OJ8" s="18"/>
-      <c r="OK8" s="18"/>
-      <c r="OL8" s="18"/>
-      <c r="OM8" s="18"/>
-      <c r="ON8" s="18"/>
-      <c r="OO8" s="18"/>
-      <c r="OP8" s="18"/>
-      <c r="OQ8" s="18"/>
-      <c r="OR8" s="18"/>
-      <c r="OS8" s="18"/>
-      <c r="OT8" s="18"/>
-      <c r="OU8" s="18"/>
-      <c r="OV8" s="18"/>
-      <c r="OW8" s="18"/>
-      <c r="OX8" s="18"/>
-      <c r="OY8" s="18"/>
-      <c r="OZ8" s="18"/>
-      <c r="PA8" s="18"/>
-      <c r="PB8" s="18"/>
-      <c r="PC8" s="18"/>
-      <c r="PD8" s="18"/>
-      <c r="PE8" s="18"/>
-      <c r="PF8" s="18"/>
-      <c r="PG8" s="18"/>
-      <c r="PH8" s="18"/>
-      <c r="PI8" s="18"/>
-      <c r="PJ8" s="18"/>
-      <c r="PK8" s="18"/>
-      <c r="PL8" s="18"/>
-      <c r="PM8" s="18"/>
-      <c r="PN8" s="18"/>
-      <c r="PO8" s="18"/>
-      <c r="PP8" s="18"/>
-      <c r="PQ8" s="18"/>
-      <c r="PR8" s="18"/>
-      <c r="PS8" s="18"/>
-      <c r="PT8" s="18"/>
-      <c r="PU8" s="18"/>
-      <c r="PV8" s="18"/>
-      <c r="PW8" s="18"/>
-      <c r="PX8" s="18"/>
-      <c r="PY8" s="18"/>
-      <c r="PZ8" s="18"/>
-      <c r="QA8" s="18"/>
-      <c r="QB8" s="18"/>
-      <c r="QC8" s="18"/>
-      <c r="QD8" s="18"/>
-      <c r="QE8" s="18"/>
-      <c r="QF8" s="18"/>
-      <c r="QG8" s="18"/>
-      <c r="QH8" s="18"/>
-      <c r="QI8" s="18"/>
-      <c r="QJ8" s="18"/>
-      <c r="QK8" s="18"/>
-      <c r="QL8" s="18"/>
-      <c r="QM8" s="18"/>
-      <c r="QN8" s="18"/>
-      <c r="QO8" s="18"/>
-      <c r="QP8" s="18"/>
-      <c r="QQ8" s="18"/>
-      <c r="QR8" s="18"/>
-      <c r="QS8" s="18"/>
-      <c r="QT8" s="18"/>
-      <c r="QU8" s="18"/>
-      <c r="QV8" s="18"/>
-      <c r="QW8" s="18"/>
-      <c r="QX8" s="18"/>
-      <c r="QY8" s="18"/>
-      <c r="QZ8" s="18"/>
-      <c r="RA8" s="18"/>
-      <c r="RB8" s="18"/>
-      <c r="RC8" s="18"/>
-      <c r="RD8" s="18"/>
-      <c r="RE8" s="18"/>
-      <c r="RF8" s="18"/>
-      <c r="RG8" s="18"/>
-      <c r="RH8" s="18"/>
-      <c r="RI8" s="18"/>
-      <c r="RJ8" s="18"/>
-      <c r="RK8" s="18"/>
-      <c r="RL8" s="18"/>
-      <c r="RM8" s="18"/>
-      <c r="RN8" s="18"/>
-      <c r="RO8" s="18"/>
-      <c r="RP8" s="18"/>
-      <c r="RQ8" s="18"/>
-      <c r="RR8" s="18"/>
-      <c r="RS8" s="18"/>
-      <c r="RT8" s="18"/>
-      <c r="RU8" s="18"/>
-      <c r="RV8" s="18"/>
-      <c r="RW8" s="18"/>
-      <c r="RX8" s="18"/>
-      <c r="RY8" s="18"/>
-      <c r="RZ8" s="18"/>
-      <c r="SA8" s="18"/>
-      <c r="SB8" s="18"/>
-      <c r="SC8" s="18"/>
-      <c r="SD8" s="18"/>
-      <c r="SE8" s="18"/>
-      <c r="SF8" s="18"/>
-      <c r="SG8" s="18"/>
-      <c r="SH8" s="18"/>
-      <c r="SI8" s="18"/>
-      <c r="SJ8" s="18"/>
-      <c r="SK8" s="18"/>
-      <c r="SL8" s="18"/>
-      <c r="SM8" s="18"/>
-      <c r="SN8" s="18"/>
-      <c r="SO8" s="18"/>
-      <c r="SP8" s="18"/>
-      <c r="SQ8" s="18"/>
-      <c r="SR8" s="18"/>
-      <c r="SS8" s="18"/>
-      <c r="ST8" s="18"/>
-      <c r="SU8" s="18"/>
-      <c r="SV8" s="18"/>
-      <c r="SW8" s="18"/>
-      <c r="SX8" s="18"/>
-      <c r="SY8" s="18"/>
-      <c r="SZ8" s="18"/>
-      <c r="TA8" s="18"/>
-      <c r="TB8" s="18"/>
-      <c r="TC8" s="18"/>
-      <c r="TD8" s="18"/>
-      <c r="TE8" s="18"/>
-      <c r="TF8" s="18"/>
-      <c r="TG8" s="18"/>
-      <c r="TH8" s="18"/>
-      <c r="TI8" s="18"/>
-      <c r="TJ8" s="18"/>
-      <c r="TK8" s="18"/>
-      <c r="TL8" s="18"/>
-      <c r="TM8" s="18"/>
-      <c r="TN8" s="18"/>
-      <c r="TO8" s="18"/>
-      <c r="TP8" s="18"/>
-      <c r="TQ8" s="18"/>
-      <c r="TR8" s="18"/>
-      <c r="TS8" s="18"/>
-      <c r="TT8" s="18"/>
-      <c r="TU8" s="18"/>
-      <c r="TV8" s="18"/>
-      <c r="TW8" s="18"/>
-      <c r="TX8" s="18"/>
-      <c r="TY8" s="18"/>
-      <c r="TZ8" s="18"/>
-      <c r="UA8" s="18"/>
-      <c r="UB8" s="18"/>
-      <c r="UC8" s="18"/>
-      <c r="UD8" s="18"/>
-      <c r="UE8" s="18"/>
-      <c r="UF8" s="18"/>
-      <c r="UG8" s="18"/>
-      <c r="UH8" s="18"/>
-      <c r="UI8" s="18"/>
-      <c r="UJ8" s="18"/>
-      <c r="UK8" s="18"/>
-      <c r="UL8" s="18"/>
-      <c r="UM8" s="18"/>
-      <c r="UN8" s="18"/>
-      <c r="UO8" s="18"/>
-      <c r="UP8" s="18"/>
-      <c r="UQ8" s="18"/>
-      <c r="UR8" s="18"/>
-      <c r="US8" s="18"/>
-      <c r="UT8" s="18"/>
-      <c r="UU8" s="18"/>
-      <c r="UV8" s="18"/>
-      <c r="UW8" s="18"/>
-      <c r="UX8" s="18"/>
-      <c r="UY8" s="18"/>
-      <c r="UZ8" s="18"/>
-      <c r="VA8" s="18"/>
-      <c r="VB8" s="18"/>
-      <c r="VC8" s="18"/>
-      <c r="VD8" s="18"/>
-      <c r="VE8" s="18"/>
-      <c r="VF8" s="18"/>
-      <c r="VG8" s="18"/>
-      <c r="VH8" s="18"/>
-      <c r="VI8" s="18"/>
-      <c r="VJ8" s="18"/>
-      <c r="VK8" s="18"/>
-      <c r="VL8" s="18"/>
-      <c r="VM8" s="18"/>
-      <c r="VN8" s="18"/>
-      <c r="VO8" s="18"/>
-      <c r="VP8" s="18"/>
-      <c r="VQ8" s="18"/>
-      <c r="VR8" s="18"/>
-      <c r="VS8" s="18"/>
-      <c r="VT8" s="18"/>
-      <c r="VU8" s="18"/>
-      <c r="VV8" s="18"/>
-      <c r="VW8" s="18"/>
-      <c r="VX8" s="18"/>
-      <c r="VY8" s="18"/>
-      <c r="VZ8" s="18"/>
-      <c r="WA8" s="18"/>
-      <c r="WB8" s="18"/>
-      <c r="WC8" s="18"/>
-      <c r="WD8" s="18"/>
-      <c r="WE8" s="18"/>
-      <c r="WF8" s="18"/>
-      <c r="WG8" s="18"/>
-      <c r="WH8" s="18"/>
-      <c r="WI8" s="18"/>
-      <c r="WJ8" s="18"/>
-      <c r="WK8" s="18"/>
-      <c r="WL8" s="18"/>
-      <c r="WM8" s="18"/>
-      <c r="WN8" s="18"/>
-      <c r="WO8" s="18"/>
-      <c r="WP8" s="18"/>
-      <c r="WQ8" s="18"/>
-      <c r="WR8" s="18"/>
-      <c r="WS8" s="18"/>
-      <c r="WT8" s="18"/>
-      <c r="WU8" s="18"/>
-      <c r="WV8" s="18"/>
-      <c r="WW8" s="18"/>
-      <c r="WX8" s="18"/>
-      <c r="WY8" s="18"/>
-      <c r="WZ8" s="18"/>
-      <c r="XA8" s="18"/>
-      <c r="XB8" s="18"/>
-      <c r="XC8" s="18"/>
-      <c r="XD8" s="18"/>
-      <c r="XE8" s="18"/>
-      <c r="XF8" s="18"/>
-      <c r="XG8" s="18"/>
-      <c r="XH8" s="18"/>
-      <c r="XI8" s="18"/>
-      <c r="XJ8" s="18"/>
-      <c r="XK8" s="18"/>
-      <c r="XL8" s="18"/>
-      <c r="XM8" s="18"/>
-      <c r="XN8" s="18"/>
-      <c r="XO8" s="18"/>
-      <c r="XP8" s="18"/>
-      <c r="XQ8" s="18"/>
-      <c r="XR8" s="18"/>
-      <c r="XS8" s="18"/>
-      <c r="XT8" s="18"/>
-      <c r="XU8" s="18"/>
-      <c r="XV8" s="18"/>
-      <c r="XW8" s="18"/>
-      <c r="XX8" s="18"/>
-      <c r="XY8" s="18"/>
-      <c r="XZ8" s="18"/>
-      <c r="YA8" s="18"/>
-      <c r="YB8" s="18"/>
-      <c r="YC8" s="18"/>
-      <c r="YD8" s="18"/>
-      <c r="YE8" s="18"/>
-      <c r="YF8" s="18"/>
-      <c r="YG8" s="18"/>
-      <c r="YH8" s="18"/>
-      <c r="YI8" s="18"/>
-      <c r="YJ8" s="18"/>
-      <c r="YK8" s="18"/>
-      <c r="YL8" s="18"/>
-      <c r="YM8" s="18"/>
-      <c r="YN8" s="18"/>
-      <c r="YO8" s="18"/>
-      <c r="YP8" s="18"/>
-      <c r="YQ8" s="18"/>
-      <c r="YR8" s="18"/>
-      <c r="YS8" s="18"/>
-      <c r="YT8" s="18"/>
-      <c r="YU8" s="18"/>
-      <c r="YV8" s="18"/>
-      <c r="YW8" s="18"/>
-      <c r="YX8" s="18"/>
-      <c r="YY8" s="18"/>
-      <c r="YZ8" s="18"/>
-      <c r="ZA8" s="18"/>
-      <c r="ZB8" s="18"/>
-      <c r="ZC8" s="18"/>
-      <c r="ZD8" s="18"/>
-      <c r="ZE8" s="18"/>
-      <c r="ZF8" s="18"/>
-      <c r="ZG8" s="18"/>
-      <c r="ZH8" s="18"/>
-      <c r="ZI8" s="18"/>
-      <c r="ZJ8" s="18"/>
-      <c r="ZK8" s="18"/>
-      <c r="ZL8" s="18"/>
-      <c r="ZM8" s="18"/>
-      <c r="ZN8" s="18"/>
-      <c r="ZO8" s="18"/>
-      <c r="ZP8" s="18"/>
-      <c r="ZQ8" s="18"/>
-      <c r="ZR8" s="18"/>
-      <c r="ZS8" s="18"/>
-      <c r="ZT8" s="18"/>
-      <c r="ZU8" s="18"/>
-      <c r="ZV8" s="18"/>
-      <c r="ZW8" s="18"/>
-      <c r="ZX8" s="18"/>
-      <c r="ZY8" s="18"/>
-      <c r="ZZ8" s="18"/>
-      <c r="AAA8" s="18"/>
-      <c r="AAB8" s="18"/>
-      <c r="AAC8" s="18"/>
-      <c r="AAD8" s="18"/>
-      <c r="AAE8" s="18"/>
-      <c r="AAF8" s="18"/>
-      <c r="AAG8" s="18"/>
-      <c r="AAH8" s="18"/>
-      <c r="AAI8" s="18"/>
-      <c r="AAJ8" s="18"/>
-      <c r="AAK8" s="18"/>
-      <c r="AAL8" s="18"/>
-      <c r="AAM8" s="18"/>
-      <c r="AAN8" s="18"/>
-      <c r="AAO8" s="18"/>
-      <c r="AAP8" s="18"/>
-      <c r="AAQ8" s="18"/>
-      <c r="AAR8" s="18"/>
-      <c r="AAS8" s="18"/>
-      <c r="AAT8" s="18"/>
-      <c r="AAU8" s="18"/>
-      <c r="AAV8" s="18"/>
-      <c r="AAW8" s="18"/>
-      <c r="AAX8" s="18"/>
-      <c r="AAY8" s="18"/>
-      <c r="AAZ8" s="18"/>
-      <c r="ABA8" s="18"/>
-      <c r="ABB8" s="18"/>
-      <c r="ABC8" s="18"/>
-      <c r="ABD8" s="18"/>
-      <c r="ABE8" s="18"/>
-      <c r="ABF8" s="18"/>
-      <c r="ABG8" s="18"/>
-      <c r="ABH8" s="18"/>
-      <c r="ABI8" s="18"/>
-      <c r="ABJ8" s="18"/>
-      <c r="ABK8" s="18"/>
-      <c r="ABL8" s="18"/>
-      <c r="ABM8" s="18"/>
-      <c r="ABN8" s="18"/>
-      <c r="ABO8" s="18"/>
-      <c r="ABP8" s="18"/>
-      <c r="ABQ8" s="18"/>
-      <c r="ABR8" s="18"/>
-      <c r="ABS8" s="18"/>
-      <c r="ABT8" s="18"/>
-      <c r="ABU8" s="18"/>
-      <c r="ABV8" s="18"/>
-      <c r="ABW8" s="18"/>
-      <c r="ABX8" s="18"/>
-      <c r="ABY8" s="18"/>
-      <c r="ABZ8" s="18"/>
-      <c r="ACA8" s="18"/>
-      <c r="ACB8" s="18"/>
-      <c r="ACC8" s="18"/>
-      <c r="ACD8" s="18"/>
-      <c r="ACE8" s="18"/>
-      <c r="ACF8" s="18"/>
-      <c r="ACG8" s="18"/>
-      <c r="ACH8" s="18"/>
-      <c r="ACI8" s="18"/>
-      <c r="ACJ8" s="18"/>
-      <c r="ACK8" s="18"/>
-      <c r="ACL8" s="18"/>
-      <c r="ACM8" s="18"/>
-      <c r="ACN8" s="18"/>
-      <c r="ACO8" s="18"/>
-      <c r="ACP8" s="18"/>
-      <c r="ACQ8" s="18"/>
-      <c r="ACR8" s="18"/>
-      <c r="ACS8" s="18"/>
-      <c r="ACT8" s="18"/>
-      <c r="ACU8" s="18"/>
-      <c r="ACV8" s="18"/>
-      <c r="ACW8" s="18"/>
-      <c r="ACX8" s="18"/>
-      <c r="ACY8" s="18"/>
-      <c r="ACZ8" s="18"/>
-      <c r="ADA8" s="18"/>
-      <c r="ADB8" s="18"/>
-      <c r="ADC8" s="18"/>
-      <c r="ADD8" s="18"/>
-      <c r="ADE8" s="18"/>
-      <c r="ADF8" s="18"/>
-      <c r="ADG8" s="18"/>
-      <c r="ADH8" s="18"/>
-      <c r="ADI8" s="18"/>
-      <c r="ADJ8" s="18"/>
-      <c r="ADK8" s="18"/>
-      <c r="ADL8" s="18"/>
-      <c r="ADM8" s="18"/>
-      <c r="ADN8" s="18"/>
-      <c r="ADO8" s="18"/>
-      <c r="ADP8" s="18"/>
-      <c r="ADQ8" s="18"/>
-      <c r="ADR8" s="18"/>
-      <c r="ADS8" s="18"/>
-      <c r="ADT8" s="18"/>
-      <c r="ADU8" s="18"/>
-      <c r="ADV8" s="18"/>
-      <c r="ADW8" s="18"/>
-      <c r="ADX8" s="18"/>
-      <c r="ADY8" s="18"/>
-      <c r="ADZ8" s="18"/>
-      <c r="AEA8" s="18"/>
-      <c r="AEB8" s="18"/>
-      <c r="AEC8" s="18"/>
-      <c r="AED8" s="18"/>
-      <c r="AEE8" s="18"/>
-      <c r="AEF8" s="18"/>
-      <c r="AEG8" s="18"/>
-      <c r="AEH8" s="18"/>
-      <c r="AEI8" s="18"/>
-      <c r="AEJ8" s="18"/>
-      <c r="AEK8" s="18"/>
-      <c r="AEL8" s="18"/>
-      <c r="AEM8" s="18"/>
-      <c r="AEN8" s="18"/>
-      <c r="AEO8" s="18"/>
-      <c r="AEP8" s="18"/>
-      <c r="AEQ8" s="18"/>
-      <c r="AER8" s="18"/>
-      <c r="AES8" s="18"/>
-      <c r="AET8" s="18"/>
-      <c r="AEU8" s="18"/>
-      <c r="AEV8" s="18"/>
-      <c r="AEW8" s="18"/>
-      <c r="AEX8" s="18"/>
-      <c r="AEY8" s="18"/>
-      <c r="AEZ8" s="18"/>
-      <c r="AFA8" s="18"/>
-      <c r="AFB8" s="18"/>
-      <c r="AFC8" s="18"/>
-      <c r="AFD8" s="18"/>
-      <c r="AFE8" s="18"/>
-      <c r="AFF8" s="18"/>
-      <c r="AFG8" s="18"/>
-      <c r="AFH8" s="18"/>
-      <c r="AFI8" s="18"/>
-      <c r="AFJ8" s="18"/>
-      <c r="AFK8" s="18"/>
-      <c r="AFL8" s="18"/>
-      <c r="AFM8" s="18"/>
-      <c r="AFN8" s="18"/>
-      <c r="AFO8" s="18"/>
-      <c r="AFP8" s="18"/>
-      <c r="AFQ8" s="18"/>
-      <c r="AFR8" s="18"/>
-      <c r="AFS8" s="18"/>
-      <c r="AFT8" s="18"/>
-      <c r="AFU8" s="18"/>
-      <c r="AFV8" s="18"/>
-      <c r="AFW8" s="18"/>
-      <c r="AFX8" s="18"/>
-      <c r="AFY8" s="18"/>
-      <c r="AFZ8" s="18"/>
-      <c r="AGA8" s="18"/>
-      <c r="AGB8" s="18"/>
-      <c r="AGC8" s="18"/>
-      <c r="AGD8" s="18"/>
-      <c r="AGE8" s="18"/>
-      <c r="AGF8" s="18"/>
-      <c r="AGG8" s="18"/>
-      <c r="AGH8" s="18"/>
-      <c r="AGI8" s="18"/>
-      <c r="AGJ8" s="18"/>
-      <c r="AGK8" s="18"/>
-      <c r="AGL8" s="18"/>
-      <c r="AGM8" s="18"/>
-      <c r="AGN8" s="18"/>
-      <c r="AGO8" s="18"/>
-      <c r="AGP8" s="18"/>
-      <c r="AGQ8" s="18"/>
-      <c r="AGR8" s="18"/>
-      <c r="AGS8" s="18"/>
-      <c r="AGT8" s="18"/>
-      <c r="AGU8" s="18"/>
-      <c r="AGV8" s="18"/>
-      <c r="AGW8" s="18"/>
-      <c r="AGX8" s="18"/>
-      <c r="AGY8" s="18"/>
-      <c r="AGZ8" s="18"/>
-      <c r="AHA8" s="18"/>
-      <c r="AHB8" s="18"/>
-      <c r="AHC8" s="18"/>
-      <c r="AHD8" s="18"/>
-      <c r="AHE8" s="18"/>
-      <c r="AHF8" s="18"/>
-      <c r="AHG8" s="18"/>
-      <c r="AHH8" s="18"/>
-      <c r="AHI8" s="18"/>
-      <c r="AHJ8" s="18"/>
-      <c r="AHK8" s="18"/>
-      <c r="AHL8" s="18"/>
-      <c r="AHM8" s="18"/>
-      <c r="AHN8" s="18"/>
-      <c r="AHO8" s="18"/>
-      <c r="AHP8" s="18"/>
-      <c r="AHQ8" s="18"/>
-      <c r="AHR8" s="18"/>
-      <c r="AHS8" s="18"/>
-      <c r="AHT8" s="18"/>
-      <c r="AHU8" s="18"/>
-      <c r="AHV8" s="18"/>
-      <c r="AHW8" s="18"/>
-      <c r="AHX8" s="18"/>
-      <c r="AHY8" s="18"/>
-      <c r="AHZ8" s="18"/>
-      <c r="AIA8" s="18"/>
-      <c r="AIB8" s="18"/>
-      <c r="AIC8" s="18"/>
-      <c r="AID8" s="18"/>
-      <c r="AIE8" s="18"/>
-      <c r="AIF8" s="18"/>
-      <c r="AIG8" s="18"/>
-      <c r="AIH8" s="18"/>
-      <c r="AII8" s="18"/>
-      <c r="AIJ8" s="18"/>
-      <c r="AIK8" s="18"/>
-      <c r="AIL8" s="18"/>
-      <c r="AIM8" s="18"/>
-      <c r="AIN8" s="18"/>
-      <c r="AIO8" s="18"/>
-      <c r="AIP8" s="18"/>
-      <c r="AIQ8" s="18"/>
-      <c r="AIR8" s="18"/>
-      <c r="AIS8" s="18"/>
-      <c r="AIT8" s="18"/>
-      <c r="AIU8" s="18"/>
-      <c r="AIV8" s="18"/>
-      <c r="AIW8" s="18"/>
-      <c r="AIX8" s="18"/>
-      <c r="AIY8" s="18"/>
-      <c r="AIZ8" s="18"/>
-      <c r="AJA8" s="18"/>
-      <c r="AJB8" s="18"/>
-      <c r="AJC8" s="18"/>
-      <c r="AJD8" s="18"/>
-      <c r="AJE8" s="18"/>
-      <c r="AJF8" s="18"/>
-      <c r="AJG8" s="18"/>
-      <c r="AJH8" s="18"/>
-      <c r="AJI8" s="18"/>
-      <c r="AJJ8" s="18"/>
-      <c r="AJK8" s="18"/>
-      <c r="AJL8" s="18"/>
-      <c r="AJM8" s="18"/>
-      <c r="AJN8" s="18"/>
-      <c r="AJO8" s="18"/>
-      <c r="AJP8" s="18"/>
-      <c r="AJQ8" s="18"/>
-      <c r="AJR8" s="18"/>
-      <c r="AJS8" s="18"/>
-      <c r="AJT8" s="18"/>
-      <c r="AJU8" s="18"/>
-      <c r="AJV8" s="18"/>
-      <c r="AJW8" s="18"/>
-      <c r="AJX8" s="18"/>
-      <c r="AJY8" s="18"/>
-      <c r="AJZ8" s="18"/>
-      <c r="AKA8" s="18"/>
-      <c r="AKB8" s="18"/>
-      <c r="AKC8" s="18"/>
-      <c r="AKD8" s="18"/>
-      <c r="AKE8" s="18"/>
-      <c r="AKF8" s="18"/>
-      <c r="AKG8" s="18"/>
-      <c r="AKH8" s="18"/>
-      <c r="AKI8" s="18"/>
-      <c r="AKJ8" s="18"/>
-      <c r="AKK8" s="18"/>
-      <c r="AKL8" s="18"/>
-      <c r="AKM8" s="18"/>
-      <c r="AKN8" s="18"/>
-      <c r="AKO8" s="18"/>
-      <c r="AKP8" s="18"/>
-      <c r="AKQ8" s="18"/>
-      <c r="AKR8" s="18"/>
-      <c r="AKS8" s="18"/>
-      <c r="AKT8" s="18"/>
-      <c r="AKU8" s="18"/>
-      <c r="AKV8" s="18"/>
-      <c r="AKW8" s="18"/>
-      <c r="AKX8" s="18"/>
-      <c r="AKY8" s="18"/>
-      <c r="AKZ8" s="18"/>
-      <c r="ALA8" s="18"/>
-      <c r="ALB8" s="18"/>
-      <c r="ALC8" s="18"/>
-      <c r="ALD8" s="18"/>
-      <c r="ALE8" s="18"/>
-      <c r="ALF8" s="18"/>
-      <c r="ALG8" s="18"/>
-      <c r="ALH8" s="18"/>
-      <c r="ALI8" s="18"/>
-      <c r="ALJ8" s="18"/>
-      <c r="ALK8" s="18"/>
-      <c r="ALL8" s="18"/>
-      <c r="ALM8" s="18"/>
-      <c r="ALN8" s="18"/>
-      <c r="ALO8" s="18"/>
-      <c r="ALP8" s="18"/>
-      <c r="ALQ8" s="18"/>
-      <c r="ALR8" s="18"/>
-      <c r="ALS8" s="18"/>
-      <c r="ALT8" s="18"/>
-      <c r="ALU8" s="18"/>
-      <c r="ALV8" s="18"/>
-      <c r="ALW8" s="18"/>
-      <c r="ALX8" s="18"/>
-      <c r="ALY8" s="18"/>
-      <c r="ALZ8" s="18"/>
-      <c r="AMA8" s="18"/>
-      <c r="AMB8" s="18"/>
-      <c r="AMC8" s="18"/>
-      <c r="AMD8" s="18"/>
-      <c r="AME8" s="18"/>
-      <c r="AMF8" s="18"/>
-      <c r="AMG8" s="18"/>
-      <c r="AMH8" s="18"/>
-      <c r="AMI8" s="18"/>
-      <c r="AMJ8" s="18"/>
-      <c r="AMK8" s="18"/>
-      <c r="AML8" s="18"/>
-      <c r="AMM8" s="18"/>
-      <c r="AMN8" s="18"/>
-      <c r="AMO8" s="18"/>
-      <c r="AMP8" s="18"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="19"/>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="19"/>
+      <c r="BD8" s="19"/>
+      <c r="BE8" s="19"/>
+      <c r="BF8" s="19"/>
+      <c r="BG8" s="19"/>
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="19"/>
+      <c r="BJ8" s="19"/>
+      <c r="BK8" s="19"/>
+      <c r="BL8" s="19"/>
+      <c r="BM8" s="19"/>
+      <c r="BN8" s="19"/>
+      <c r="BO8" s="19"/>
+      <c r="BP8" s="19"/>
+      <c r="BQ8" s="19"/>
+      <c r="BR8" s="19"/>
+      <c r="BS8" s="19"/>
+      <c r="BT8" s="19"/>
+      <c r="BU8" s="19"/>
+      <c r="BV8" s="19"/>
+      <c r="BW8" s="19"/>
+      <c r="BX8" s="19"/>
+      <c r="BY8" s="19"/>
+      <c r="BZ8" s="19"/>
+      <c r="CA8" s="19"/>
+      <c r="CB8" s="19"/>
+      <c r="CC8" s="19"/>
+      <c r="CD8" s="19"/>
+      <c r="CE8" s="19"/>
+      <c r="CF8" s="19"/>
+      <c r="CG8" s="19"/>
+      <c r="CH8" s="19"/>
+      <c r="CI8" s="19"/>
+      <c r="CJ8" s="19"/>
+      <c r="CK8" s="19"/>
+      <c r="CL8" s="19"/>
+      <c r="CM8" s="19"/>
+      <c r="CN8" s="19"/>
+      <c r="CO8" s="19"/>
+      <c r="CP8" s="19"/>
+      <c r="CQ8" s="19"/>
+      <c r="CR8" s="19"/>
+      <c r="CS8" s="19"/>
+      <c r="CT8" s="19"/>
+      <c r="CU8" s="19"/>
+      <c r="CV8" s="19"/>
+      <c r="CW8" s="19"/>
+      <c r="CX8" s="19"/>
+      <c r="CY8" s="19"/>
+      <c r="CZ8" s="19"/>
+      <c r="DA8" s="19"/>
+      <c r="DB8" s="19"/>
+      <c r="DC8" s="19"/>
+      <c r="DD8" s="19"/>
+      <c r="DE8" s="19"/>
+      <c r="DF8" s="19"/>
+      <c r="DG8" s="19"/>
+      <c r="DH8" s="19"/>
+      <c r="DI8" s="19"/>
+      <c r="DJ8" s="19"/>
+      <c r="DK8" s="19"/>
+      <c r="DL8" s="19"/>
+      <c r="DM8" s="19"/>
+      <c r="DN8" s="19"/>
+      <c r="DO8" s="19"/>
+      <c r="DP8" s="19"/>
+      <c r="DQ8" s="19"/>
+      <c r="DR8" s="19"/>
+      <c r="DS8" s="19"/>
+      <c r="DT8" s="19"/>
+      <c r="DU8" s="19"/>
+      <c r="DV8" s="19"/>
+      <c r="DW8" s="19"/>
+      <c r="DX8" s="19"/>
+      <c r="DY8" s="19"/>
+      <c r="DZ8" s="19"/>
+      <c r="EA8" s="19"/>
+      <c r="EB8" s="19"/>
+      <c r="EC8" s="19"/>
+      <c r="ED8" s="19"/>
+      <c r="EE8" s="19"/>
+      <c r="EF8" s="19"/>
+      <c r="EG8" s="19"/>
+      <c r="EH8" s="19"/>
+      <c r="EI8" s="19"/>
+      <c r="EJ8" s="19"/>
+      <c r="EK8" s="19"/>
+      <c r="EL8" s="19"/>
+      <c r="EM8" s="19"/>
+      <c r="EN8" s="19"/>
+      <c r="EO8" s="19"/>
+      <c r="EP8" s="19"/>
+      <c r="EQ8" s="19"/>
+      <c r="ER8" s="19"/>
+      <c r="ES8" s="19"/>
+      <c r="ET8" s="19"/>
+      <c r="EU8" s="19"/>
+      <c r="EV8" s="19"/>
+      <c r="EW8" s="19"/>
+      <c r="EX8" s="19"/>
+      <c r="EY8" s="19"/>
+      <c r="EZ8" s="19"/>
+      <c r="FA8" s="19"/>
+      <c r="FB8" s="19"/>
+      <c r="FC8" s="19"/>
+      <c r="FD8" s="19"/>
+      <c r="FE8" s="19"/>
+      <c r="FF8" s="19"/>
+      <c r="FG8" s="19"/>
+      <c r="FH8" s="19"/>
+      <c r="FI8" s="19"/>
+      <c r="FJ8" s="19"/>
+      <c r="FK8" s="19"/>
+      <c r="FL8" s="19"/>
+      <c r="FM8" s="19"/>
+      <c r="FN8" s="19"/>
+      <c r="FO8" s="19"/>
+      <c r="FP8" s="19"/>
+      <c r="FQ8" s="19"/>
+      <c r="FR8" s="19"/>
+      <c r="FS8" s="19"/>
+      <c r="FT8" s="19"/>
+      <c r="FU8" s="19"/>
+      <c r="FV8" s="19"/>
+      <c r="FW8" s="19"/>
+      <c r="FX8" s="19"/>
+      <c r="FY8" s="19"/>
+      <c r="FZ8" s="19"/>
+      <c r="GA8" s="19"/>
+      <c r="GB8" s="19"/>
+      <c r="GC8" s="19"/>
+      <c r="GD8" s="19"/>
+      <c r="GE8" s="19"/>
+      <c r="GF8" s="19"/>
+      <c r="GG8" s="19"/>
+      <c r="GH8" s="19"/>
+      <c r="GI8" s="19"/>
+      <c r="GJ8" s="19"/>
+      <c r="GK8" s="19"/>
+      <c r="GL8" s="19"/>
+      <c r="GM8" s="19"/>
+      <c r="GN8" s="19"/>
+      <c r="GO8" s="19"/>
+      <c r="GP8" s="19"/>
+      <c r="GQ8" s="19"/>
+      <c r="GR8" s="19"/>
+      <c r="GS8" s="19"/>
+      <c r="GT8" s="19"/>
+      <c r="GU8" s="19"/>
+      <c r="GV8" s="19"/>
+      <c r="GW8" s="19"/>
+      <c r="GX8" s="19"/>
+      <c r="GY8" s="19"/>
+      <c r="GZ8" s="19"/>
+      <c r="HA8" s="19"/>
+      <c r="HB8" s="19"/>
+      <c r="HC8" s="19"/>
+      <c r="HD8" s="19"/>
+      <c r="HE8" s="19"/>
+      <c r="HF8" s="19"/>
+      <c r="HG8" s="19"/>
+      <c r="HH8" s="19"/>
+      <c r="HI8" s="19"/>
+      <c r="HJ8" s="19"/>
+      <c r="HK8" s="19"/>
+      <c r="HL8" s="19"/>
+      <c r="HM8" s="19"/>
+      <c r="HN8" s="19"/>
+      <c r="HO8" s="19"/>
+      <c r="HP8" s="19"/>
+      <c r="HQ8" s="19"/>
+      <c r="HR8" s="19"/>
+      <c r="HS8" s="19"/>
+      <c r="HT8" s="19"/>
+      <c r="HU8" s="19"/>
+      <c r="HV8" s="19"/>
+      <c r="HW8" s="19"/>
+      <c r="HX8" s="19"/>
+      <c r="HY8" s="19"/>
+      <c r="HZ8" s="19"/>
+      <c r="IA8" s="19"/>
+      <c r="IB8" s="19"/>
+      <c r="IC8" s="19"/>
+      <c r="ID8" s="19"/>
+      <c r="IE8" s="19"/>
+      <c r="IF8" s="19"/>
+      <c r="IG8" s="19"/>
+      <c r="IH8" s="19"/>
+      <c r="II8" s="19"/>
+      <c r="IJ8" s="19"/>
+      <c r="IK8" s="19"/>
+      <c r="IL8" s="19"/>
+      <c r="IM8" s="19"/>
+      <c r="IN8" s="19"/>
+      <c r="IO8" s="19"/>
+      <c r="IP8" s="19"/>
+      <c r="IQ8" s="19"/>
+      <c r="IR8" s="19"/>
+      <c r="IS8" s="19"/>
+      <c r="IT8" s="19"/>
+      <c r="IU8" s="19"/>
+      <c r="IV8" s="19"/>
+      <c r="IW8" s="19"/>
+      <c r="IX8" s="19"/>
+      <c r="IY8" s="19"/>
+      <c r="IZ8" s="19"/>
+      <c r="JA8" s="19"/>
+      <c r="JB8" s="19"/>
+      <c r="JC8" s="19"/>
+      <c r="JD8" s="19"/>
+      <c r="JE8" s="19"/>
+      <c r="JF8" s="19"/>
+      <c r="JG8" s="19"/>
+      <c r="JH8" s="19"/>
+      <c r="JI8" s="19"/>
+      <c r="JJ8" s="19"/>
+      <c r="JK8" s="19"/>
+      <c r="JL8" s="19"/>
+      <c r="JM8" s="19"/>
+      <c r="JN8" s="19"/>
+      <c r="JO8" s="19"/>
+      <c r="JP8" s="19"/>
+      <c r="JQ8" s="19"/>
+      <c r="JR8" s="19"/>
+      <c r="JS8" s="19"/>
+      <c r="JT8" s="19"/>
+      <c r="JU8" s="19"/>
+      <c r="JV8" s="19"/>
+      <c r="JW8" s="19"/>
+      <c r="JX8" s="19"/>
+      <c r="JY8" s="19"/>
+      <c r="JZ8" s="19"/>
+      <c r="KA8" s="19"/>
+      <c r="KB8" s="19"/>
+      <c r="KC8" s="19"/>
+      <c r="KD8" s="19"/>
+      <c r="KE8" s="19"/>
+      <c r="KF8" s="19"/>
+      <c r="KG8" s="19"/>
+      <c r="KH8" s="19"/>
+      <c r="KI8" s="19"/>
+      <c r="KJ8" s="19"/>
+      <c r="KK8" s="19"/>
+      <c r="KL8" s="19"/>
+      <c r="KM8" s="19"/>
+      <c r="KN8" s="19"/>
+      <c r="KO8" s="19"/>
+      <c r="KP8" s="19"/>
+      <c r="KQ8" s="19"/>
+      <c r="KR8" s="19"/>
+      <c r="KS8" s="19"/>
+      <c r="KT8" s="19"/>
+      <c r="KU8" s="19"/>
+      <c r="KV8" s="19"/>
+      <c r="KW8" s="19"/>
+      <c r="KX8" s="19"/>
+      <c r="KY8" s="19"/>
+      <c r="KZ8" s="19"/>
+      <c r="LA8" s="19"/>
+      <c r="LB8" s="19"/>
+      <c r="LC8" s="19"/>
+      <c r="LD8" s="19"/>
+      <c r="LE8" s="19"/>
+      <c r="LF8" s="19"/>
+      <c r="LG8" s="19"/>
+      <c r="LH8" s="19"/>
+      <c r="LI8" s="19"/>
+      <c r="LJ8" s="19"/>
+      <c r="LK8" s="19"/>
+      <c r="LL8" s="19"/>
+      <c r="LM8" s="19"/>
+      <c r="LN8" s="19"/>
+      <c r="LO8" s="19"/>
+      <c r="LP8" s="19"/>
+      <c r="LQ8" s="19"/>
+      <c r="LR8" s="19"/>
+      <c r="LS8" s="19"/>
+      <c r="LT8" s="19"/>
+      <c r="LU8" s="19"/>
+      <c r="LV8" s="19"/>
+      <c r="LW8" s="19"/>
+      <c r="LX8" s="19"/>
+      <c r="LY8" s="19"/>
+      <c r="LZ8" s="19"/>
+      <c r="MA8" s="19"/>
+      <c r="MB8" s="19"/>
+      <c r="MC8" s="19"/>
+      <c r="MD8" s="19"/>
+      <c r="ME8" s="19"/>
+      <c r="MF8" s="19"/>
+      <c r="MG8" s="19"/>
+      <c r="MH8" s="19"/>
+      <c r="MI8" s="19"/>
+      <c r="MJ8" s="19"/>
+      <c r="MK8" s="19"/>
+      <c r="ML8" s="19"/>
+      <c r="MM8" s="19"/>
+      <c r="MN8" s="19"/>
+      <c r="MO8" s="19"/>
+      <c r="MP8" s="19"/>
+      <c r="MQ8" s="19"/>
+      <c r="MR8" s="19"/>
+      <c r="MS8" s="19"/>
+      <c r="MT8" s="19"/>
+      <c r="MU8" s="19"/>
+      <c r="MV8" s="19"/>
+      <c r="MW8" s="19"/>
+      <c r="MX8" s="19"/>
+      <c r="MY8" s="19"/>
+      <c r="MZ8" s="19"/>
+      <c r="NA8" s="19"/>
+      <c r="NB8" s="19"/>
+      <c r="NC8" s="19"/>
+      <c r="ND8" s="19"/>
+      <c r="NE8" s="19"/>
+      <c r="NF8" s="19"/>
+      <c r="NG8" s="19"/>
+      <c r="NH8" s="19"/>
+      <c r="NI8" s="19"/>
+      <c r="NJ8" s="19"/>
+      <c r="NK8" s="19"/>
+      <c r="NL8" s="19"/>
+      <c r="NM8" s="19"/>
+      <c r="NN8" s="19"/>
+      <c r="NO8" s="19"/>
+      <c r="NP8" s="19"/>
+      <c r="NQ8" s="19"/>
+      <c r="NR8" s="19"/>
+      <c r="NS8" s="19"/>
+      <c r="NT8" s="19"/>
+      <c r="NU8" s="19"/>
+      <c r="NV8" s="19"/>
+      <c r="NW8" s="19"/>
+      <c r="NX8" s="19"/>
+      <c r="NY8" s="19"/>
+      <c r="NZ8" s="19"/>
+      <c r="OA8" s="19"/>
+      <c r="OB8" s="19"/>
+      <c r="OC8" s="19"/>
+      <c r="OD8" s="19"/>
+      <c r="OE8" s="19"/>
+      <c r="OF8" s="19"/>
+      <c r="OG8" s="19"/>
+      <c r="OH8" s="19"/>
+      <c r="OI8" s="19"/>
+      <c r="OJ8" s="19"/>
+      <c r="OK8" s="19"/>
+      <c r="OL8" s="19"/>
+      <c r="OM8" s="19"/>
+      <c r="ON8" s="19"/>
+      <c r="OO8" s="19"/>
+      <c r="OP8" s="19"/>
+      <c r="OQ8" s="19"/>
+      <c r="OR8" s="19"/>
+      <c r="OS8" s="19"/>
+      <c r="OT8" s="19"/>
+      <c r="OU8" s="19"/>
+      <c r="OV8" s="19"/>
+      <c r="OW8" s="19"/>
+      <c r="OX8" s="19"/>
+      <c r="OY8" s="19"/>
+      <c r="OZ8" s="19"/>
+      <c r="PA8" s="19"/>
+      <c r="PB8" s="19"/>
+      <c r="PC8" s="19"/>
+      <c r="PD8" s="19"/>
+      <c r="PE8" s="19"/>
+      <c r="PF8" s="19"/>
+      <c r="PG8" s="19"/>
+      <c r="PH8" s="19"/>
+      <c r="PI8" s="19"/>
+      <c r="PJ8" s="19"/>
+      <c r="PK8" s="19"/>
+      <c r="PL8" s="19"/>
+      <c r="PM8" s="19"/>
+      <c r="PN8" s="19"/>
+      <c r="PO8" s="19"/>
+      <c r="PP8" s="19"/>
+      <c r="PQ8" s="19"/>
+      <c r="PR8" s="19"/>
+      <c r="PS8" s="19"/>
+      <c r="PT8" s="19"/>
+      <c r="PU8" s="19"/>
+      <c r="PV8" s="19"/>
+      <c r="PW8" s="19"/>
+      <c r="PX8" s="19"/>
+      <c r="PY8" s="19"/>
+      <c r="PZ8" s="19"/>
+      <c r="QA8" s="19"/>
+      <c r="QB8" s="19"/>
+      <c r="QC8" s="19"/>
+      <c r="QD8" s="19"/>
+      <c r="QE8" s="19"/>
+      <c r="QF8" s="19"/>
+      <c r="QG8" s="19"/>
+      <c r="QH8" s="19"/>
+      <c r="QI8" s="19"/>
+      <c r="QJ8" s="19"/>
+      <c r="QK8" s="19"/>
+      <c r="QL8" s="19"/>
+      <c r="QM8" s="19"/>
+      <c r="QN8" s="19"/>
+      <c r="QO8" s="19"/>
+      <c r="QP8" s="19"/>
+      <c r="QQ8" s="19"/>
+      <c r="QR8" s="19"/>
+      <c r="QS8" s="19"/>
+      <c r="QT8" s="19"/>
+      <c r="QU8" s="19"/>
+      <c r="QV8" s="19"/>
+      <c r="QW8" s="19"/>
+      <c r="QX8" s="19"/>
+      <c r="QY8" s="19"/>
+      <c r="QZ8" s="19"/>
+      <c r="RA8" s="19"/>
+      <c r="RB8" s="19"/>
+      <c r="RC8" s="19"/>
+      <c r="RD8" s="19"/>
+      <c r="RE8" s="19"/>
+      <c r="RF8" s="19"/>
+      <c r="RG8" s="19"/>
+      <c r="RH8" s="19"/>
+      <c r="RI8" s="19"/>
+      <c r="RJ8" s="19"/>
+      <c r="RK8" s="19"/>
+      <c r="RL8" s="19"/>
+      <c r="RM8" s="19"/>
+      <c r="RN8" s="19"/>
+      <c r="RO8" s="19"/>
+      <c r="RP8" s="19"/>
+      <c r="RQ8" s="19"/>
+      <c r="RR8" s="19"/>
+      <c r="RS8" s="19"/>
+      <c r="RT8" s="19"/>
+      <c r="RU8" s="19"/>
+      <c r="RV8" s="19"/>
+      <c r="RW8" s="19"/>
+      <c r="RX8" s="19"/>
+      <c r="RY8" s="19"/>
+      <c r="RZ8" s="19"/>
+      <c r="SA8" s="19"/>
+      <c r="SB8" s="19"/>
+      <c r="SC8" s="19"/>
+      <c r="SD8" s="19"/>
+      <c r="SE8" s="19"/>
+      <c r="SF8" s="19"/>
+      <c r="SG8" s="19"/>
+      <c r="SH8" s="19"/>
+      <c r="SI8" s="19"/>
+      <c r="SJ8" s="19"/>
+      <c r="SK8" s="19"/>
+      <c r="SL8" s="19"/>
+      <c r="SM8" s="19"/>
+      <c r="SN8" s="19"/>
+      <c r="SO8" s="19"/>
+      <c r="SP8" s="19"/>
+      <c r="SQ8" s="19"/>
+      <c r="SR8" s="19"/>
+      <c r="SS8" s="19"/>
+      <c r="ST8" s="19"/>
+      <c r="SU8" s="19"/>
+      <c r="SV8" s="19"/>
+      <c r="SW8" s="19"/>
+      <c r="SX8" s="19"/>
+      <c r="SY8" s="19"/>
+      <c r="SZ8" s="19"/>
+      <c r="TA8" s="19"/>
+      <c r="TB8" s="19"/>
+      <c r="TC8" s="19"/>
+      <c r="TD8" s="19"/>
+      <c r="TE8" s="19"/>
+      <c r="TF8" s="19"/>
+      <c r="TG8" s="19"/>
+      <c r="TH8" s="19"/>
+      <c r="TI8" s="19"/>
+      <c r="TJ8" s="19"/>
+      <c r="TK8" s="19"/>
+      <c r="TL8" s="19"/>
+      <c r="TM8" s="19"/>
+      <c r="TN8" s="19"/>
+      <c r="TO8" s="19"/>
+      <c r="TP8" s="19"/>
+      <c r="TQ8" s="19"/>
+      <c r="TR8" s="19"/>
+      <c r="TS8" s="19"/>
+      <c r="TT8" s="19"/>
+      <c r="TU8" s="19"/>
+      <c r="TV8" s="19"/>
+      <c r="TW8" s="19"/>
+      <c r="TX8" s="19"/>
+      <c r="TY8" s="19"/>
+      <c r="TZ8" s="19"/>
+      <c r="UA8" s="19"/>
+      <c r="UB8" s="19"/>
+      <c r="UC8" s="19"/>
+      <c r="UD8" s="19"/>
+      <c r="UE8" s="19"/>
+      <c r="UF8" s="19"/>
+      <c r="UG8" s="19"/>
+      <c r="UH8" s="19"/>
+      <c r="UI8" s="19"/>
+      <c r="UJ8" s="19"/>
+      <c r="UK8" s="19"/>
+      <c r="UL8" s="19"/>
+      <c r="UM8" s="19"/>
+      <c r="UN8" s="19"/>
+      <c r="UO8" s="19"/>
+      <c r="UP8" s="19"/>
+      <c r="UQ8" s="19"/>
+      <c r="UR8" s="19"/>
+      <c r="US8" s="19"/>
+      <c r="UT8" s="19"/>
+      <c r="UU8" s="19"/>
+      <c r="UV8" s="19"/>
+      <c r="UW8" s="19"/>
+      <c r="UX8" s="19"/>
+      <c r="UY8" s="19"/>
+      <c r="UZ8" s="19"/>
+      <c r="VA8" s="19"/>
+      <c r="VB8" s="19"/>
+      <c r="VC8" s="19"/>
+      <c r="VD8" s="19"/>
+      <c r="VE8" s="19"/>
+      <c r="VF8" s="19"/>
+      <c r="VG8" s="19"/>
+      <c r="VH8" s="19"/>
+      <c r="VI8" s="19"/>
+      <c r="VJ8" s="19"/>
+      <c r="VK8" s="19"/>
+      <c r="VL8" s="19"/>
+      <c r="VM8" s="19"/>
+      <c r="VN8" s="19"/>
+      <c r="VO8" s="19"/>
+      <c r="VP8" s="19"/>
+      <c r="VQ8" s="19"/>
+      <c r="VR8" s="19"/>
+      <c r="VS8" s="19"/>
+      <c r="VT8" s="19"/>
+      <c r="VU8" s="19"/>
+      <c r="VV8" s="19"/>
+      <c r="VW8" s="19"/>
+      <c r="VX8" s="19"/>
+      <c r="VY8" s="19"/>
+      <c r="VZ8" s="19"/>
+      <c r="WA8" s="19"/>
+      <c r="WB8" s="19"/>
+      <c r="WC8" s="19"/>
+      <c r="WD8" s="19"/>
+      <c r="WE8" s="19"/>
+      <c r="WF8" s="19"/>
+      <c r="WG8" s="19"/>
+      <c r="WH8" s="19"/>
+      <c r="WI8" s="19"/>
+      <c r="WJ8" s="19"/>
+      <c r="WK8" s="19"/>
+      <c r="WL8" s="19"/>
+      <c r="WM8" s="19"/>
+      <c r="WN8" s="19"/>
+      <c r="WO8" s="19"/>
+      <c r="WP8" s="19"/>
+      <c r="WQ8" s="19"/>
+      <c r="WR8" s="19"/>
+      <c r="WS8" s="19"/>
+      <c r="WT8" s="19"/>
+      <c r="WU8" s="19"/>
+      <c r="WV8" s="19"/>
+      <c r="WW8" s="19"/>
+      <c r="WX8" s="19"/>
+      <c r="WY8" s="19"/>
+      <c r="WZ8" s="19"/>
+      <c r="XA8" s="19"/>
+      <c r="XB8" s="19"/>
+      <c r="XC8" s="19"/>
+      <c r="XD8" s="19"/>
+      <c r="XE8" s="19"/>
+      <c r="XF8" s="19"/>
+      <c r="XG8" s="19"/>
+      <c r="XH8" s="19"/>
+      <c r="XI8" s="19"/>
+      <c r="XJ8" s="19"/>
+      <c r="XK8" s="19"/>
+      <c r="XL8" s="19"/>
+      <c r="XM8" s="19"/>
+      <c r="XN8" s="19"/>
+      <c r="XO8" s="19"/>
+      <c r="XP8" s="19"/>
+      <c r="XQ8" s="19"/>
+      <c r="XR8" s="19"/>
+      <c r="XS8" s="19"/>
+      <c r="XT8" s="19"/>
+      <c r="XU8" s="19"/>
+      <c r="XV8" s="19"/>
+      <c r="XW8" s="19"/>
+      <c r="XX8" s="19"/>
+      <c r="XY8" s="19"/>
+      <c r="XZ8" s="19"/>
+      <c r="YA8" s="19"/>
+      <c r="YB8" s="19"/>
+      <c r="YC8" s="19"/>
+      <c r="YD8" s="19"/>
+      <c r="YE8" s="19"/>
+      <c r="YF8" s="19"/>
+      <c r="YG8" s="19"/>
+      <c r="YH8" s="19"/>
+      <c r="YI8" s="19"/>
+      <c r="YJ8" s="19"/>
+      <c r="YK8" s="19"/>
+      <c r="YL8" s="19"/>
+      <c r="YM8" s="19"/>
+      <c r="YN8" s="19"/>
+      <c r="YO8" s="19"/>
+      <c r="YP8" s="19"/>
+      <c r="YQ8" s="19"/>
+      <c r="YR8" s="19"/>
+      <c r="YS8" s="19"/>
+      <c r="YT8" s="19"/>
+      <c r="YU8" s="19"/>
+      <c r="YV8" s="19"/>
+      <c r="YW8" s="19"/>
+      <c r="YX8" s="19"/>
+      <c r="YY8" s="19"/>
+      <c r="YZ8" s="19"/>
+      <c r="ZA8" s="19"/>
+      <c r="ZB8" s="19"/>
+      <c r="ZC8" s="19"/>
+      <c r="ZD8" s="19"/>
+      <c r="ZE8" s="19"/>
+      <c r="ZF8" s="19"/>
+      <c r="ZG8" s="19"/>
+      <c r="ZH8" s="19"/>
+      <c r="ZI8" s="19"/>
+      <c r="ZJ8" s="19"/>
+      <c r="ZK8" s="19"/>
+      <c r="ZL8" s="19"/>
+      <c r="ZM8" s="19"/>
+      <c r="ZN8" s="19"/>
+      <c r="ZO8" s="19"/>
+      <c r="ZP8" s="19"/>
+      <c r="ZQ8" s="19"/>
+      <c r="ZR8" s="19"/>
+      <c r="ZS8" s="19"/>
+      <c r="ZT8" s="19"/>
+      <c r="ZU8" s="19"/>
+      <c r="ZV8" s="19"/>
+      <c r="ZW8" s="19"/>
+      <c r="ZX8" s="19"/>
+      <c r="ZY8" s="19"/>
+      <c r="ZZ8" s="19"/>
+      <c r="AAA8" s="19"/>
+      <c r="AAB8" s="19"/>
+      <c r="AAC8" s="19"/>
+      <c r="AAD8" s="19"/>
+      <c r="AAE8" s="19"/>
+      <c r="AAF8" s="19"/>
+      <c r="AAG8" s="19"/>
+      <c r="AAH8" s="19"/>
+      <c r="AAI8" s="19"/>
+      <c r="AAJ8" s="19"/>
+      <c r="AAK8" s="19"/>
+      <c r="AAL8" s="19"/>
+      <c r="AAM8" s="19"/>
+      <c r="AAN8" s="19"/>
+      <c r="AAO8" s="19"/>
+      <c r="AAP8" s="19"/>
+      <c r="AAQ8" s="19"/>
+      <c r="AAR8" s="19"/>
+      <c r="AAS8" s="19"/>
+      <c r="AAT8" s="19"/>
+      <c r="AAU8" s="19"/>
+      <c r="AAV8" s="19"/>
+      <c r="AAW8" s="19"/>
+      <c r="AAX8" s="19"/>
+      <c r="AAY8" s="19"/>
+      <c r="AAZ8" s="19"/>
+      <c r="ABA8" s="19"/>
+      <c r="ABB8" s="19"/>
+      <c r="ABC8" s="19"/>
+      <c r="ABD8" s="19"/>
+      <c r="ABE8" s="19"/>
+      <c r="ABF8" s="19"/>
+      <c r="ABG8" s="19"/>
+      <c r="ABH8" s="19"/>
+      <c r="ABI8" s="19"/>
+      <c r="ABJ8" s="19"/>
+      <c r="ABK8" s="19"/>
+      <c r="ABL8" s="19"/>
+      <c r="ABM8" s="19"/>
+      <c r="ABN8" s="19"/>
+      <c r="ABO8" s="19"/>
+      <c r="ABP8" s="19"/>
+      <c r="ABQ8" s="19"/>
+      <c r="ABR8" s="19"/>
+      <c r="ABS8" s="19"/>
+      <c r="ABT8" s="19"/>
+      <c r="ABU8" s="19"/>
+      <c r="ABV8" s="19"/>
+      <c r="ABW8" s="19"/>
+      <c r="ABX8" s="19"/>
+      <c r="ABY8" s="19"/>
+      <c r="ABZ8" s="19"/>
+      <c r="ACA8" s="19"/>
+      <c r="ACB8" s="19"/>
+      <c r="ACC8" s="19"/>
+      <c r="ACD8" s="19"/>
+      <c r="ACE8" s="19"/>
+      <c r="ACF8" s="19"/>
+      <c r="ACG8" s="19"/>
+      <c r="ACH8" s="19"/>
+      <c r="ACI8" s="19"/>
+      <c r="ACJ8" s="19"/>
+      <c r="ACK8" s="19"/>
+      <c r="ACL8" s="19"/>
+      <c r="ACM8" s="19"/>
+      <c r="ACN8" s="19"/>
+      <c r="ACO8" s="19"/>
+      <c r="ACP8" s="19"/>
+      <c r="ACQ8" s="19"/>
+      <c r="ACR8" s="19"/>
+      <c r="ACS8" s="19"/>
+      <c r="ACT8" s="19"/>
+      <c r="ACU8" s="19"/>
+      <c r="ACV8" s="19"/>
+      <c r="ACW8" s="19"/>
+      <c r="ACX8" s="19"/>
+      <c r="ACY8" s="19"/>
+      <c r="ACZ8" s="19"/>
+      <c r="ADA8" s="19"/>
+      <c r="ADB8" s="19"/>
+      <c r="ADC8" s="19"/>
+      <c r="ADD8" s="19"/>
+      <c r="ADE8" s="19"/>
+      <c r="ADF8" s="19"/>
+      <c r="ADG8" s="19"/>
+      <c r="ADH8" s="19"/>
+      <c r="ADI8" s="19"/>
+      <c r="ADJ8" s="19"/>
+      <c r="ADK8" s="19"/>
+      <c r="ADL8" s="19"/>
+      <c r="ADM8" s="19"/>
+      <c r="ADN8" s="19"/>
+      <c r="ADO8" s="19"/>
+      <c r="ADP8" s="19"/>
+      <c r="ADQ8" s="19"/>
+      <c r="ADR8" s="19"/>
+      <c r="ADS8" s="19"/>
+      <c r="ADT8" s="19"/>
+      <c r="ADU8" s="19"/>
+      <c r="ADV8" s="19"/>
+      <c r="ADW8" s="19"/>
+      <c r="ADX8" s="19"/>
+      <c r="ADY8" s="19"/>
+      <c r="ADZ8" s="19"/>
+      <c r="AEA8" s="19"/>
+      <c r="AEB8" s="19"/>
+      <c r="AEC8" s="19"/>
+      <c r="AED8" s="19"/>
+      <c r="AEE8" s="19"/>
+      <c r="AEF8" s="19"/>
+      <c r="AEG8" s="19"/>
+      <c r="AEH8" s="19"/>
+      <c r="AEI8" s="19"/>
+      <c r="AEJ8" s="19"/>
+      <c r="AEK8" s="19"/>
+      <c r="AEL8" s="19"/>
+      <c r="AEM8" s="19"/>
+      <c r="AEN8" s="19"/>
+      <c r="AEO8" s="19"/>
+      <c r="AEP8" s="19"/>
+      <c r="AEQ8" s="19"/>
+      <c r="AER8" s="19"/>
+      <c r="AES8" s="19"/>
+      <c r="AET8" s="19"/>
+      <c r="AEU8" s="19"/>
+      <c r="AEV8" s="19"/>
+      <c r="AEW8" s="19"/>
+      <c r="AEX8" s="19"/>
+      <c r="AEY8" s="19"/>
+      <c r="AEZ8" s="19"/>
+      <c r="AFA8" s="19"/>
+      <c r="AFB8" s="19"/>
+      <c r="AFC8" s="19"/>
+      <c r="AFD8" s="19"/>
+      <c r="AFE8" s="19"/>
+      <c r="AFF8" s="19"/>
+      <c r="AFG8" s="19"/>
+      <c r="AFH8" s="19"/>
+      <c r="AFI8" s="19"/>
+      <c r="AFJ8" s="19"/>
+      <c r="AFK8" s="19"/>
+      <c r="AFL8" s="19"/>
+      <c r="AFM8" s="19"/>
+      <c r="AFN8" s="19"/>
+      <c r="AFO8" s="19"/>
+      <c r="AFP8" s="19"/>
+      <c r="AFQ8" s="19"/>
+      <c r="AFR8" s="19"/>
+      <c r="AFS8" s="19"/>
+      <c r="AFT8" s="19"/>
+      <c r="AFU8" s="19"/>
+      <c r="AFV8" s="19"/>
+      <c r="AFW8" s="19"/>
+      <c r="AFX8" s="19"/>
+      <c r="AFY8" s="19"/>
+      <c r="AFZ8" s="19"/>
+      <c r="AGA8" s="19"/>
+      <c r="AGB8" s="19"/>
+      <c r="AGC8" s="19"/>
+      <c r="AGD8" s="19"/>
+      <c r="AGE8" s="19"/>
+      <c r="AGF8" s="19"/>
+      <c r="AGG8" s="19"/>
+      <c r="AGH8" s="19"/>
+      <c r="AGI8" s="19"/>
+      <c r="AGJ8" s="19"/>
+      <c r="AGK8" s="19"/>
+      <c r="AGL8" s="19"/>
+      <c r="AGM8" s="19"/>
+      <c r="AGN8" s="19"/>
+      <c r="AGO8" s="19"/>
+      <c r="AGP8" s="19"/>
+      <c r="AGQ8" s="19"/>
+      <c r="AGR8" s="19"/>
+      <c r="AGS8" s="19"/>
+      <c r="AGT8" s="19"/>
+      <c r="AGU8" s="19"/>
+      <c r="AGV8" s="19"/>
+      <c r="AGW8" s="19"/>
+      <c r="AGX8" s="19"/>
+      <c r="AGY8" s="19"/>
+      <c r="AGZ8" s="19"/>
+      <c r="AHA8" s="19"/>
+      <c r="AHB8" s="19"/>
+      <c r="AHC8" s="19"/>
+      <c r="AHD8" s="19"/>
+      <c r="AHE8" s="19"/>
+      <c r="AHF8" s="19"/>
+      <c r="AHG8" s="19"/>
+      <c r="AHH8" s="19"/>
+      <c r="AHI8" s="19"/>
+      <c r="AHJ8" s="19"/>
+      <c r="AHK8" s="19"/>
+      <c r="AHL8" s="19"/>
+      <c r="AHM8" s="19"/>
+      <c r="AHN8" s="19"/>
+      <c r="AHO8" s="19"/>
+      <c r="AHP8" s="19"/>
+      <c r="AHQ8" s="19"/>
+      <c r="AHR8" s="19"/>
+      <c r="AHS8" s="19"/>
+      <c r="AHT8" s="19"/>
+      <c r="AHU8" s="19"/>
+      <c r="AHV8" s="19"/>
+      <c r="AHW8" s="19"/>
+      <c r="AHX8" s="19"/>
+      <c r="AHY8" s="19"/>
+      <c r="AHZ8" s="19"/>
+      <c r="AIA8" s="19"/>
+      <c r="AIB8" s="19"/>
+      <c r="AIC8" s="19"/>
+      <c r="AID8" s="19"/>
+      <c r="AIE8" s="19"/>
+      <c r="AIF8" s="19"/>
+      <c r="AIG8" s="19"/>
+      <c r="AIH8" s="19"/>
+      <c r="AII8" s="19"/>
+      <c r="AIJ8" s="19"/>
+      <c r="AIK8" s="19"/>
+      <c r="AIL8" s="19"/>
+      <c r="AIM8" s="19"/>
+      <c r="AIN8" s="19"/>
+      <c r="AIO8" s="19"/>
+      <c r="AIP8" s="19"/>
+      <c r="AIQ8" s="19"/>
+      <c r="AIR8" s="19"/>
+      <c r="AIS8" s="19"/>
+      <c r="AIT8" s="19"/>
+      <c r="AIU8" s="19"/>
+      <c r="AIV8" s="19"/>
+      <c r="AIW8" s="19"/>
+      <c r="AIX8" s="19"/>
+      <c r="AIY8" s="19"/>
+      <c r="AIZ8" s="19"/>
+      <c r="AJA8" s="19"/>
+      <c r="AJB8" s="19"/>
+      <c r="AJC8" s="19"/>
+      <c r="AJD8" s="19"/>
+      <c r="AJE8" s="19"/>
+      <c r="AJF8" s="19"/>
+      <c r="AJG8" s="19"/>
+      <c r="AJH8" s="19"/>
+      <c r="AJI8" s="19"/>
+      <c r="AJJ8" s="19"/>
+      <c r="AJK8" s="19"/>
+      <c r="AJL8" s="19"/>
+      <c r="AJM8" s="19"/>
+      <c r="AJN8" s="19"/>
+      <c r="AJO8" s="19"/>
+      <c r="AJP8" s="19"/>
+      <c r="AJQ8" s="19"/>
+      <c r="AJR8" s="19"/>
+      <c r="AJS8" s="19"/>
+      <c r="AJT8" s="19"/>
+      <c r="AJU8" s="19"/>
+      <c r="AJV8" s="19"/>
+      <c r="AJW8" s="19"/>
+      <c r="AJX8" s="19"/>
+      <c r="AJY8" s="19"/>
+      <c r="AJZ8" s="19"/>
+      <c r="AKA8" s="19"/>
+      <c r="AKB8" s="19"/>
+      <c r="AKC8" s="19"/>
+      <c r="AKD8" s="19"/>
+      <c r="AKE8" s="19"/>
+      <c r="AKF8" s="19"/>
+      <c r="AKG8" s="19"/>
+      <c r="AKH8" s="19"/>
+      <c r="AKI8" s="19"/>
+      <c r="AKJ8" s="19"/>
+      <c r="AKK8" s="19"/>
+      <c r="AKL8" s="19"/>
+      <c r="AKM8" s="19"/>
+      <c r="AKN8" s="19"/>
+      <c r="AKO8" s="19"/>
+      <c r="AKP8" s="19"/>
+      <c r="AKQ8" s="19"/>
+      <c r="AKR8" s="19"/>
+      <c r="AKS8" s="19"/>
+      <c r="AKT8" s="19"/>
+      <c r="AKU8" s="19"/>
+      <c r="AKV8" s="19"/>
+      <c r="AKW8" s="19"/>
+      <c r="AKX8" s="19"/>
+      <c r="AKY8" s="19"/>
+      <c r="AKZ8" s="19"/>
+      <c r="ALA8" s="19"/>
+      <c r="ALB8" s="19"/>
+      <c r="ALC8" s="19"/>
+      <c r="ALD8" s="19"/>
+      <c r="ALE8" s="19"/>
+      <c r="ALF8" s="19"/>
+      <c r="ALG8" s="19"/>
+      <c r="ALH8" s="19"/>
+      <c r="ALI8" s="19"/>
+      <c r="ALJ8" s="19"/>
+      <c r="ALK8" s="19"/>
+      <c r="ALL8" s="19"/>
+      <c r="ALM8" s="19"/>
+      <c r="ALN8" s="19"/>
+      <c r="ALO8" s="19"/>
+      <c r="ALP8" s="19"/>
+      <c r="ALQ8" s="19"/>
+      <c r="ALR8" s="19"/>
+      <c r="ALS8" s="19"/>
+      <c r="ALT8" s="19"/>
+      <c r="ALU8" s="19"/>
+      <c r="ALV8" s="19"/>
+      <c r="ALW8" s="19"/>
+      <c r="ALX8" s="19"/>
+      <c r="ALY8" s="19"/>
+      <c r="ALZ8" s="19"/>
+      <c r="AMA8" s="19"/>
+      <c r="AMB8" s="19"/>
+      <c r="AMC8" s="19"/>
+      <c r="AMD8" s="19"/>
+      <c r="AME8" s="19"/>
+      <c r="AMF8" s="19"/>
+      <c r="AMG8" s="19"/>
+      <c r="AMH8" s="19"/>
+      <c r="AMI8" s="19"/>
+      <c r="AMJ8" s="19"/>
+      <c r="AMK8" s="19"/>
+      <c r="AML8" s="19"/>
+      <c r="AMM8" s="19"/>
+      <c r="AMN8" s="19"/>
+      <c r="AMO8" s="19"/>
+      <c r="AMP8" s="19"/>
     </row>
     <row r="9" ht="31.5" spans="1:15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4">
         <v>0.222732</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>0.398422</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>0.9258175</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>0.730057</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>0.1968337</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>0.3975768</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>0.275705</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>0.72139</v>
       </c>
-      <c r="J9" s="4">
-        <f>C9-C8</f>
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
         <v>0.00316100000000002</v>
       </c>
-      <c r="K9" s="4">
-        <f>G9-G8</f>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
         <v>-0.00066250000000001</v>
       </c>
-      <c r="L9" s="4">
-        <f>D9-D8</f>
+      <c r="M9" s="4">
+        <f t="shared" si="2"/>
         <v>-0.00710790000000006</v>
       </c>
-      <c r="M9" s="4">
-        <f>E9-E8</f>
+      <c r="N9" s="4">
+        <f t="shared" si="3"/>
         <v>0.0033593999999999</v>
       </c>
-      <c r="N9" s="16">
-        <f>I9-I8</f>
+      <c r="O9" s="18">
+        <f t="shared" si="4"/>
         <v>-0.0122100000000001</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>36</v>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="21" spans="1:1030">
+      <c r="A10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14">
+        <v>0.214293</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.395766</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.9299294</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.7297463</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.2088415</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.3980869</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.285728</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0.7389</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="19"/>
+      <c r="BG10" s="19"/>
+      <c r="BH10" s="19"/>
+      <c r="BI10" s="19"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="19"/>
+      <c r="BL10" s="19"/>
+      <c r="BM10" s="19"/>
+      <c r="BN10" s="19"/>
+      <c r="BO10" s="19"/>
+      <c r="BP10" s="19"/>
+      <c r="BQ10" s="19"/>
+      <c r="BR10" s="19"/>
+      <c r="BS10" s="19"/>
+      <c r="BT10" s="19"/>
+      <c r="BU10" s="19"/>
+      <c r="BV10" s="19"/>
+      <c r="BW10" s="19"/>
+      <c r="BX10" s="19"/>
+      <c r="BY10" s="19"/>
+      <c r="BZ10" s="19"/>
+      <c r="CA10" s="19"/>
+      <c r="CB10" s="19"/>
+      <c r="CC10" s="19"/>
+      <c r="CD10" s="19"/>
+      <c r="CE10" s="19"/>
+      <c r="CF10" s="19"/>
+      <c r="CG10" s="19"/>
+      <c r="CH10" s="19"/>
+      <c r="CI10" s="19"/>
+      <c r="CJ10" s="19"/>
+      <c r="CK10" s="19"/>
+      <c r="CL10" s="19"/>
+      <c r="CM10" s="19"/>
+      <c r="CN10" s="19"/>
+      <c r="CO10" s="19"/>
+      <c r="CP10" s="19"/>
+      <c r="CQ10" s="19"/>
+      <c r="CR10" s="19"/>
+      <c r="CS10" s="19"/>
+      <c r="CT10" s="19"/>
+      <c r="CU10" s="19"/>
+      <c r="CV10" s="19"/>
+      <c r="CW10" s="19"/>
+      <c r="CX10" s="19"/>
+      <c r="CY10" s="19"/>
+      <c r="CZ10" s="19"/>
+      <c r="DA10" s="19"/>
+      <c r="DB10" s="19"/>
+      <c r="DC10" s="19"/>
+      <c r="DD10" s="19"/>
+      <c r="DE10" s="19"/>
+      <c r="DF10" s="19"/>
+      <c r="DG10" s="19"/>
+      <c r="DH10" s="19"/>
+      <c r="DI10" s="19"/>
+      <c r="DJ10" s="19"/>
+      <c r="DK10" s="19"/>
+      <c r="DL10" s="19"/>
+      <c r="DM10" s="19"/>
+      <c r="DN10" s="19"/>
+      <c r="DO10" s="19"/>
+      <c r="DP10" s="19"/>
+      <c r="DQ10" s="19"/>
+      <c r="DR10" s="19"/>
+      <c r="DS10" s="19"/>
+      <c r="DT10" s="19"/>
+      <c r="DU10" s="19"/>
+      <c r="DV10" s="19"/>
+      <c r="DW10" s="19"/>
+      <c r="DX10" s="19"/>
+      <c r="DY10" s="19"/>
+      <c r="DZ10" s="19"/>
+      <c r="EA10" s="19"/>
+      <c r="EB10" s="19"/>
+      <c r="EC10" s="19"/>
+      <c r="ED10" s="19"/>
+      <c r="EE10" s="19"/>
+      <c r="EF10" s="19"/>
+      <c r="EG10" s="19"/>
+      <c r="EH10" s="19"/>
+      <c r="EI10" s="19"/>
+      <c r="EJ10" s="19"/>
+      <c r="EK10" s="19"/>
+      <c r="EL10" s="19"/>
+      <c r="EM10" s="19"/>
+      <c r="EN10" s="19"/>
+      <c r="EO10" s="19"/>
+      <c r="EP10" s="19"/>
+      <c r="EQ10" s="19"/>
+      <c r="ER10" s="19"/>
+      <c r="ES10" s="19"/>
+      <c r="ET10" s="19"/>
+      <c r="EU10" s="19"/>
+      <c r="EV10" s="19"/>
+      <c r="EW10" s="19"/>
+      <c r="EX10" s="19"/>
+      <c r="EY10" s="19"/>
+      <c r="EZ10" s="19"/>
+      <c r="FA10" s="19"/>
+      <c r="FB10" s="19"/>
+      <c r="FC10" s="19"/>
+      <c r="FD10" s="19"/>
+      <c r="FE10" s="19"/>
+      <c r="FF10" s="19"/>
+      <c r="FG10" s="19"/>
+      <c r="FH10" s="19"/>
+      <c r="FI10" s="19"/>
+      <c r="FJ10" s="19"/>
+      <c r="FK10" s="19"/>
+      <c r="FL10" s="19"/>
+      <c r="FM10" s="19"/>
+      <c r="FN10" s="19"/>
+      <c r="FO10" s="19"/>
+      <c r="FP10" s="19"/>
+      <c r="FQ10" s="19"/>
+      <c r="FR10" s="19"/>
+      <c r="FS10" s="19"/>
+      <c r="FT10" s="19"/>
+      <c r="FU10" s="19"/>
+      <c r="FV10" s="19"/>
+      <c r="FW10" s="19"/>
+      <c r="FX10" s="19"/>
+      <c r="FY10" s="19"/>
+      <c r="FZ10" s="19"/>
+      <c r="GA10" s="19"/>
+      <c r="GB10" s="19"/>
+      <c r="GC10" s="19"/>
+      <c r="GD10" s="19"/>
+      <c r="GE10" s="19"/>
+      <c r="GF10" s="19"/>
+      <c r="GG10" s="19"/>
+      <c r="GH10" s="19"/>
+      <c r="GI10" s="19"/>
+      <c r="GJ10" s="19"/>
+      <c r="GK10" s="19"/>
+      <c r="GL10" s="19"/>
+      <c r="GM10" s="19"/>
+      <c r="GN10" s="19"/>
+      <c r="GO10" s="19"/>
+      <c r="GP10" s="19"/>
+      <c r="GQ10" s="19"/>
+      <c r="GR10" s="19"/>
+      <c r="GS10" s="19"/>
+      <c r="GT10" s="19"/>
+      <c r="GU10" s="19"/>
+      <c r="GV10" s="19"/>
+      <c r="GW10" s="19"/>
+      <c r="GX10" s="19"/>
+      <c r="GY10" s="19"/>
+      <c r="GZ10" s="19"/>
+      <c r="HA10" s="19"/>
+      <c r="HB10" s="19"/>
+      <c r="HC10" s="19"/>
+      <c r="HD10" s="19"/>
+      <c r="HE10" s="19"/>
+      <c r="HF10" s="19"/>
+      <c r="HG10" s="19"/>
+      <c r="HH10" s="19"/>
+      <c r="HI10" s="19"/>
+      <c r="HJ10" s="19"/>
+      <c r="HK10" s="19"/>
+      <c r="HL10" s="19"/>
+      <c r="HM10" s="19"/>
+      <c r="HN10" s="19"/>
+      <c r="HO10" s="19"/>
+      <c r="HP10" s="19"/>
+      <c r="HQ10" s="19"/>
+      <c r="HR10" s="19"/>
+      <c r="HS10" s="19"/>
+      <c r="HT10" s="19"/>
+      <c r="HU10" s="19"/>
+      <c r="HV10" s="19"/>
+      <c r="HW10" s="19"/>
+      <c r="HX10" s="19"/>
+      <c r="HY10" s="19"/>
+      <c r="HZ10" s="19"/>
+      <c r="IA10" s="19"/>
+      <c r="IB10" s="19"/>
+      <c r="IC10" s="19"/>
+      <c r="ID10" s="19"/>
+      <c r="IE10" s="19"/>
+      <c r="IF10" s="19"/>
+      <c r="IG10" s="19"/>
+      <c r="IH10" s="19"/>
+      <c r="II10" s="19"/>
+      <c r="IJ10" s="19"/>
+      <c r="IK10" s="19"/>
+      <c r="IL10" s="19"/>
+      <c r="IM10" s="19"/>
+      <c r="IN10" s="19"/>
+      <c r="IO10" s="19"/>
+      <c r="IP10" s="19"/>
+      <c r="IQ10" s="19"/>
+      <c r="IR10" s="19"/>
+      <c r="IS10" s="19"/>
+      <c r="IT10" s="19"/>
+      <c r="IU10" s="19"/>
+      <c r="IV10" s="19"/>
+      <c r="IW10" s="19"/>
+      <c r="IX10" s="19"/>
+      <c r="IY10" s="19"/>
+      <c r="IZ10" s="19"/>
+      <c r="JA10" s="19"/>
+      <c r="JB10" s="19"/>
+      <c r="JC10" s="19"/>
+      <c r="JD10" s="19"/>
+      <c r="JE10" s="19"/>
+      <c r="JF10" s="19"/>
+      <c r="JG10" s="19"/>
+      <c r="JH10" s="19"/>
+      <c r="JI10" s="19"/>
+      <c r="JJ10" s="19"/>
+      <c r="JK10" s="19"/>
+      <c r="JL10" s="19"/>
+      <c r="JM10" s="19"/>
+      <c r="JN10" s="19"/>
+      <c r="JO10" s="19"/>
+      <c r="JP10" s="19"/>
+      <c r="JQ10" s="19"/>
+      <c r="JR10" s="19"/>
+      <c r="JS10" s="19"/>
+      <c r="JT10" s="19"/>
+      <c r="JU10" s="19"/>
+      <c r="JV10" s="19"/>
+      <c r="JW10" s="19"/>
+      <c r="JX10" s="19"/>
+      <c r="JY10" s="19"/>
+      <c r="JZ10" s="19"/>
+      <c r="KA10" s="19"/>
+      <c r="KB10" s="19"/>
+      <c r="KC10" s="19"/>
+      <c r="KD10" s="19"/>
+      <c r="KE10" s="19"/>
+      <c r="KF10" s="19"/>
+      <c r="KG10" s="19"/>
+      <c r="KH10" s="19"/>
+      <c r="KI10" s="19"/>
+      <c r="KJ10" s="19"/>
+      <c r="KK10" s="19"/>
+      <c r="KL10" s="19"/>
+      <c r="KM10" s="19"/>
+      <c r="KN10" s="19"/>
+      <c r="KO10" s="19"/>
+      <c r="KP10" s="19"/>
+      <c r="KQ10" s="19"/>
+      <c r="KR10" s="19"/>
+      <c r="KS10" s="19"/>
+      <c r="KT10" s="19"/>
+      <c r="KU10" s="19"/>
+      <c r="KV10" s="19"/>
+      <c r="KW10" s="19"/>
+      <c r="KX10" s="19"/>
+      <c r="KY10" s="19"/>
+      <c r="KZ10" s="19"/>
+      <c r="LA10" s="19"/>
+      <c r="LB10" s="19"/>
+      <c r="LC10" s="19"/>
+      <c r="LD10" s="19"/>
+      <c r="LE10" s="19"/>
+      <c r="LF10" s="19"/>
+      <c r="LG10" s="19"/>
+      <c r="LH10" s="19"/>
+      <c r="LI10" s="19"/>
+      <c r="LJ10" s="19"/>
+      <c r="LK10" s="19"/>
+      <c r="LL10" s="19"/>
+      <c r="LM10" s="19"/>
+      <c r="LN10" s="19"/>
+      <c r="LO10" s="19"/>
+      <c r="LP10" s="19"/>
+      <c r="LQ10" s="19"/>
+      <c r="LR10" s="19"/>
+      <c r="LS10" s="19"/>
+      <c r="LT10" s="19"/>
+      <c r="LU10" s="19"/>
+      <c r="LV10" s="19"/>
+      <c r="LW10" s="19"/>
+      <c r="LX10" s="19"/>
+      <c r="LY10" s="19"/>
+      <c r="LZ10" s="19"/>
+      <c r="MA10" s="19"/>
+      <c r="MB10" s="19"/>
+      <c r="MC10" s="19"/>
+      <c r="MD10" s="19"/>
+      <c r="ME10" s="19"/>
+      <c r="MF10" s="19"/>
+      <c r="MG10" s="19"/>
+      <c r="MH10" s="19"/>
+      <c r="MI10" s="19"/>
+      <c r="MJ10" s="19"/>
+      <c r="MK10" s="19"/>
+      <c r="ML10" s="19"/>
+      <c r="MM10" s="19"/>
+      <c r="MN10" s="19"/>
+      <c r="MO10" s="19"/>
+      <c r="MP10" s="19"/>
+      <c r="MQ10" s="19"/>
+      <c r="MR10" s="19"/>
+      <c r="MS10" s="19"/>
+      <c r="MT10" s="19"/>
+      <c r="MU10" s="19"/>
+      <c r="MV10" s="19"/>
+      <c r="MW10" s="19"/>
+      <c r="MX10" s="19"/>
+      <c r="MY10" s="19"/>
+      <c r="MZ10" s="19"/>
+      <c r="NA10" s="19"/>
+      <c r="NB10" s="19"/>
+      <c r="NC10" s="19"/>
+      <c r="ND10" s="19"/>
+      <c r="NE10" s="19"/>
+      <c r="NF10" s="19"/>
+      <c r="NG10" s="19"/>
+      <c r="NH10" s="19"/>
+      <c r="NI10" s="19"/>
+      <c r="NJ10" s="19"/>
+      <c r="NK10" s="19"/>
+      <c r="NL10" s="19"/>
+      <c r="NM10" s="19"/>
+      <c r="NN10" s="19"/>
+      <c r="NO10" s="19"/>
+      <c r="NP10" s="19"/>
+      <c r="NQ10" s="19"/>
+      <c r="NR10" s="19"/>
+      <c r="NS10" s="19"/>
+      <c r="NT10" s="19"/>
+      <c r="NU10" s="19"/>
+      <c r="NV10" s="19"/>
+      <c r="NW10" s="19"/>
+      <c r="NX10" s="19"/>
+      <c r="NY10" s="19"/>
+      <c r="NZ10" s="19"/>
+      <c r="OA10" s="19"/>
+      <c r="OB10" s="19"/>
+      <c r="OC10" s="19"/>
+      <c r="OD10" s="19"/>
+      <c r="OE10" s="19"/>
+      <c r="OF10" s="19"/>
+      <c r="OG10" s="19"/>
+      <c r="OH10" s="19"/>
+      <c r="OI10" s="19"/>
+      <c r="OJ10" s="19"/>
+      <c r="OK10" s="19"/>
+      <c r="OL10" s="19"/>
+      <c r="OM10" s="19"/>
+      <c r="ON10" s="19"/>
+      <c r="OO10" s="19"/>
+      <c r="OP10" s="19"/>
+      <c r="OQ10" s="19"/>
+      <c r="OR10" s="19"/>
+      <c r="OS10" s="19"/>
+      <c r="OT10" s="19"/>
+      <c r="OU10" s="19"/>
+      <c r="OV10" s="19"/>
+      <c r="OW10" s="19"/>
+      <c r="OX10" s="19"/>
+      <c r="OY10" s="19"/>
+      <c r="OZ10" s="19"/>
+      <c r="PA10" s="19"/>
+      <c r="PB10" s="19"/>
+      <c r="PC10" s="19"/>
+      <c r="PD10" s="19"/>
+      <c r="PE10" s="19"/>
+      <c r="PF10" s="19"/>
+      <c r="PG10" s="19"/>
+      <c r="PH10" s="19"/>
+      <c r="PI10" s="19"/>
+      <c r="PJ10" s="19"/>
+      <c r="PK10" s="19"/>
+      <c r="PL10" s="19"/>
+      <c r="PM10" s="19"/>
+      <c r="PN10" s="19"/>
+      <c r="PO10" s="19"/>
+      <c r="PP10" s="19"/>
+      <c r="PQ10" s="19"/>
+      <c r="PR10" s="19"/>
+      <c r="PS10" s="19"/>
+      <c r="PT10" s="19"/>
+      <c r="PU10" s="19"/>
+      <c r="PV10" s="19"/>
+      <c r="PW10" s="19"/>
+      <c r="PX10" s="19"/>
+      <c r="PY10" s="19"/>
+      <c r="PZ10" s="19"/>
+      <c r="QA10" s="19"/>
+      <c r="QB10" s="19"/>
+      <c r="QC10" s="19"/>
+      <c r="QD10" s="19"/>
+      <c r="QE10" s="19"/>
+      <c r="QF10" s="19"/>
+      <c r="QG10" s="19"/>
+      <c r="QH10" s="19"/>
+      <c r="QI10" s="19"/>
+      <c r="QJ10" s="19"/>
+      <c r="QK10" s="19"/>
+      <c r="QL10" s="19"/>
+      <c r="QM10" s="19"/>
+      <c r="QN10" s="19"/>
+      <c r="QO10" s="19"/>
+      <c r="QP10" s="19"/>
+      <c r="QQ10" s="19"/>
+      <c r="QR10" s="19"/>
+      <c r="QS10" s="19"/>
+      <c r="QT10" s="19"/>
+      <c r="QU10" s="19"/>
+      <c r="QV10" s="19"/>
+      <c r="QW10" s="19"/>
+      <c r="QX10" s="19"/>
+      <c r="QY10" s="19"/>
+      <c r="QZ10" s="19"/>
+      <c r="RA10" s="19"/>
+      <c r="RB10" s="19"/>
+      <c r="RC10" s="19"/>
+      <c r="RD10" s="19"/>
+      <c r="RE10" s="19"/>
+      <c r="RF10" s="19"/>
+      <c r="RG10" s="19"/>
+      <c r="RH10" s="19"/>
+      <c r="RI10" s="19"/>
+      <c r="RJ10" s="19"/>
+      <c r="RK10" s="19"/>
+      <c r="RL10" s="19"/>
+      <c r="RM10" s="19"/>
+      <c r="RN10" s="19"/>
+      <c r="RO10" s="19"/>
+      <c r="RP10" s="19"/>
+      <c r="RQ10" s="19"/>
+      <c r="RR10" s="19"/>
+      <c r="RS10" s="19"/>
+      <c r="RT10" s="19"/>
+      <c r="RU10" s="19"/>
+      <c r="RV10" s="19"/>
+      <c r="RW10" s="19"/>
+      <c r="RX10" s="19"/>
+      <c r="RY10" s="19"/>
+      <c r="RZ10" s="19"/>
+      <c r="SA10" s="19"/>
+      <c r="SB10" s="19"/>
+      <c r="SC10" s="19"/>
+      <c r="SD10" s="19"/>
+      <c r="SE10" s="19"/>
+      <c r="SF10" s="19"/>
+      <c r="SG10" s="19"/>
+      <c r="SH10" s="19"/>
+      <c r="SI10" s="19"/>
+      <c r="SJ10" s="19"/>
+      <c r="SK10" s="19"/>
+      <c r="SL10" s="19"/>
+      <c r="SM10" s="19"/>
+      <c r="SN10" s="19"/>
+      <c r="SO10" s="19"/>
+      <c r="SP10" s="19"/>
+      <c r="SQ10" s="19"/>
+      <c r="SR10" s="19"/>
+      <c r="SS10" s="19"/>
+      <c r="ST10" s="19"/>
+      <c r="SU10" s="19"/>
+      <c r="SV10" s="19"/>
+      <c r="SW10" s="19"/>
+      <c r="SX10" s="19"/>
+      <c r="SY10" s="19"/>
+      <c r="SZ10" s="19"/>
+      <c r="TA10" s="19"/>
+      <c r="TB10" s="19"/>
+      <c r="TC10" s="19"/>
+      <c r="TD10" s="19"/>
+      <c r="TE10" s="19"/>
+      <c r="TF10" s="19"/>
+      <c r="TG10" s="19"/>
+      <c r="TH10" s="19"/>
+      <c r="TI10" s="19"/>
+      <c r="TJ10" s="19"/>
+      <c r="TK10" s="19"/>
+      <c r="TL10" s="19"/>
+      <c r="TM10" s="19"/>
+      <c r="TN10" s="19"/>
+      <c r="TO10" s="19"/>
+      <c r="TP10" s="19"/>
+      <c r="TQ10" s="19"/>
+      <c r="TR10" s="19"/>
+      <c r="TS10" s="19"/>
+      <c r="TT10" s="19"/>
+      <c r="TU10" s="19"/>
+      <c r="TV10" s="19"/>
+      <c r="TW10" s="19"/>
+      <c r="TX10" s="19"/>
+      <c r="TY10" s="19"/>
+      <c r="TZ10" s="19"/>
+      <c r="UA10" s="19"/>
+      <c r="UB10" s="19"/>
+      <c r="UC10" s="19"/>
+      <c r="UD10" s="19"/>
+      <c r="UE10" s="19"/>
+      <c r="UF10" s="19"/>
+      <c r="UG10" s="19"/>
+      <c r="UH10" s="19"/>
+      <c r="UI10" s="19"/>
+      <c r="UJ10" s="19"/>
+      <c r="UK10" s="19"/>
+      <c r="UL10" s="19"/>
+      <c r="UM10" s="19"/>
+      <c r="UN10" s="19"/>
+      <c r="UO10" s="19"/>
+      <c r="UP10" s="19"/>
+      <c r="UQ10" s="19"/>
+      <c r="UR10" s="19"/>
+      <c r="US10" s="19"/>
+      <c r="UT10" s="19"/>
+      <c r="UU10" s="19"/>
+      <c r="UV10" s="19"/>
+      <c r="UW10" s="19"/>
+      <c r="UX10" s="19"/>
+      <c r="UY10" s="19"/>
+      <c r="UZ10" s="19"/>
+      <c r="VA10" s="19"/>
+      <c r="VB10" s="19"/>
+      <c r="VC10" s="19"/>
+      <c r="VD10" s="19"/>
+      <c r="VE10" s="19"/>
+      <c r="VF10" s="19"/>
+      <c r="VG10" s="19"/>
+      <c r="VH10" s="19"/>
+      <c r="VI10" s="19"/>
+      <c r="VJ10" s="19"/>
+      <c r="VK10" s="19"/>
+      <c r="VL10" s="19"/>
+      <c r="VM10" s="19"/>
+      <c r="VN10" s="19"/>
+      <c r="VO10" s="19"/>
+      <c r="VP10" s="19"/>
+      <c r="VQ10" s="19"/>
+      <c r="VR10" s="19"/>
+      <c r="VS10" s="19"/>
+      <c r="VT10" s="19"/>
+      <c r="VU10" s="19"/>
+      <c r="VV10" s="19"/>
+      <c r="VW10" s="19"/>
+      <c r="VX10" s="19"/>
+      <c r="VY10" s="19"/>
+      <c r="VZ10" s="19"/>
+      <c r="WA10" s="19"/>
+      <c r="WB10" s="19"/>
+      <c r="WC10" s="19"/>
+      <c r="WD10" s="19"/>
+      <c r="WE10" s="19"/>
+      <c r="WF10" s="19"/>
+      <c r="WG10" s="19"/>
+      <c r="WH10" s="19"/>
+      <c r="WI10" s="19"/>
+      <c r="WJ10" s="19"/>
+      <c r="WK10" s="19"/>
+      <c r="WL10" s="19"/>
+      <c r="WM10" s="19"/>
+      <c r="WN10" s="19"/>
+      <c r="WO10" s="19"/>
+      <c r="WP10" s="19"/>
+      <c r="WQ10" s="19"/>
+      <c r="WR10" s="19"/>
+      <c r="WS10" s="19"/>
+      <c r="WT10" s="19"/>
+      <c r="WU10" s="19"/>
+      <c r="WV10" s="19"/>
+      <c r="WW10" s="19"/>
+      <c r="WX10" s="19"/>
+      <c r="WY10" s="19"/>
+      <c r="WZ10" s="19"/>
+      <c r="XA10" s="19"/>
+      <c r="XB10" s="19"/>
+      <c r="XC10" s="19"/>
+      <c r="XD10" s="19"/>
+      <c r="XE10" s="19"/>
+      <c r="XF10" s="19"/>
+      <c r="XG10" s="19"/>
+      <c r="XH10" s="19"/>
+      <c r="XI10" s="19"/>
+      <c r="XJ10" s="19"/>
+      <c r="XK10" s="19"/>
+      <c r="XL10" s="19"/>
+      <c r="XM10" s="19"/>
+      <c r="XN10" s="19"/>
+      <c r="XO10" s="19"/>
+      <c r="XP10" s="19"/>
+      <c r="XQ10" s="19"/>
+      <c r="XR10" s="19"/>
+      <c r="XS10" s="19"/>
+      <c r="XT10" s="19"/>
+      <c r="XU10" s="19"/>
+      <c r="XV10" s="19"/>
+      <c r="XW10" s="19"/>
+      <c r="XX10" s="19"/>
+      <c r="XY10" s="19"/>
+      <c r="XZ10" s="19"/>
+      <c r="YA10" s="19"/>
+      <c r="YB10" s="19"/>
+      <c r="YC10" s="19"/>
+      <c r="YD10" s="19"/>
+      <c r="YE10" s="19"/>
+      <c r="YF10" s="19"/>
+      <c r="YG10" s="19"/>
+      <c r="YH10" s="19"/>
+      <c r="YI10" s="19"/>
+      <c r="YJ10" s="19"/>
+      <c r="YK10" s="19"/>
+      <c r="YL10" s="19"/>
+      <c r="YM10" s="19"/>
+      <c r="YN10" s="19"/>
+      <c r="YO10" s="19"/>
+      <c r="YP10" s="19"/>
+      <c r="YQ10" s="19"/>
+      <c r="YR10" s="19"/>
+      <c r="YS10" s="19"/>
+      <c r="YT10" s="19"/>
+      <c r="YU10" s="19"/>
+      <c r="YV10" s="19"/>
+      <c r="YW10" s="19"/>
+      <c r="YX10" s="19"/>
+      <c r="YY10" s="19"/>
+      <c r="YZ10" s="19"/>
+      <c r="ZA10" s="19"/>
+      <c r="ZB10" s="19"/>
+      <c r="ZC10" s="19"/>
+      <c r="ZD10" s="19"/>
+      <c r="ZE10" s="19"/>
+      <c r="ZF10" s="19"/>
+      <c r="ZG10" s="19"/>
+      <c r="ZH10" s="19"/>
+      <c r="ZI10" s="19"/>
+      <c r="ZJ10" s="19"/>
+      <c r="ZK10" s="19"/>
+      <c r="ZL10" s="19"/>
+      <c r="ZM10" s="19"/>
+      <c r="ZN10" s="19"/>
+      <c r="ZO10" s="19"/>
+      <c r="ZP10" s="19"/>
+      <c r="ZQ10" s="19"/>
+      <c r="ZR10" s="19"/>
+      <c r="ZS10" s="19"/>
+      <c r="ZT10" s="19"/>
+      <c r="ZU10" s="19"/>
+      <c r="ZV10" s="19"/>
+      <c r="ZW10" s="19"/>
+      <c r="ZX10" s="19"/>
+      <c r="ZY10" s="19"/>
+      <c r="ZZ10" s="19"/>
+      <c r="AAA10" s="19"/>
+      <c r="AAB10" s="19"/>
+      <c r="AAC10" s="19"/>
+      <c r="AAD10" s="19"/>
+      <c r="AAE10" s="19"/>
+      <c r="AAF10" s="19"/>
+      <c r="AAG10" s="19"/>
+      <c r="AAH10" s="19"/>
+      <c r="AAI10" s="19"/>
+      <c r="AAJ10" s="19"/>
+      <c r="AAK10" s="19"/>
+      <c r="AAL10" s="19"/>
+      <c r="AAM10" s="19"/>
+      <c r="AAN10" s="19"/>
+      <c r="AAO10" s="19"/>
+      <c r="AAP10" s="19"/>
+      <c r="AAQ10" s="19"/>
+      <c r="AAR10" s="19"/>
+      <c r="AAS10" s="19"/>
+      <c r="AAT10" s="19"/>
+      <c r="AAU10" s="19"/>
+      <c r="AAV10" s="19"/>
+      <c r="AAW10" s="19"/>
+      <c r="AAX10" s="19"/>
+      <c r="AAY10" s="19"/>
+      <c r="AAZ10" s="19"/>
+      <c r="ABA10" s="19"/>
+      <c r="ABB10" s="19"/>
+      <c r="ABC10" s="19"/>
+      <c r="ABD10" s="19"/>
+      <c r="ABE10" s="19"/>
+      <c r="ABF10" s="19"/>
+      <c r="ABG10" s="19"/>
+      <c r="ABH10" s="19"/>
+      <c r="ABI10" s="19"/>
+      <c r="ABJ10" s="19"/>
+      <c r="ABK10" s="19"/>
+      <c r="ABL10" s="19"/>
+      <c r="ABM10" s="19"/>
+      <c r="ABN10" s="19"/>
+      <c r="ABO10" s="19"/>
+      <c r="ABP10" s="19"/>
+      <c r="ABQ10" s="19"/>
+      <c r="ABR10" s="19"/>
+      <c r="ABS10" s="19"/>
+      <c r="ABT10" s="19"/>
+      <c r="ABU10" s="19"/>
+      <c r="ABV10" s="19"/>
+      <c r="ABW10" s="19"/>
+      <c r="ABX10" s="19"/>
+      <c r="ABY10" s="19"/>
+      <c r="ABZ10" s="19"/>
+      <c r="ACA10" s="19"/>
+      <c r="ACB10" s="19"/>
+      <c r="ACC10" s="19"/>
+      <c r="ACD10" s="19"/>
+      <c r="ACE10" s="19"/>
+      <c r="ACF10" s="19"/>
+      <c r="ACG10" s="19"/>
+      <c r="ACH10" s="19"/>
+      <c r="ACI10" s="19"/>
+      <c r="ACJ10" s="19"/>
+      <c r="ACK10" s="19"/>
+      <c r="ACL10" s="19"/>
+      <c r="ACM10" s="19"/>
+      <c r="ACN10" s="19"/>
+      <c r="ACO10" s="19"/>
+      <c r="ACP10" s="19"/>
+      <c r="ACQ10" s="19"/>
+      <c r="ACR10" s="19"/>
+      <c r="ACS10" s="19"/>
+      <c r="ACT10" s="19"/>
+      <c r="ACU10" s="19"/>
+      <c r="ACV10" s="19"/>
+      <c r="ACW10" s="19"/>
+      <c r="ACX10" s="19"/>
+      <c r="ACY10" s="19"/>
+      <c r="ACZ10" s="19"/>
+      <c r="ADA10" s="19"/>
+      <c r="ADB10" s="19"/>
+      <c r="ADC10" s="19"/>
+      <c r="ADD10" s="19"/>
+      <c r="ADE10" s="19"/>
+      <c r="ADF10" s="19"/>
+      <c r="ADG10" s="19"/>
+      <c r="ADH10" s="19"/>
+      <c r="ADI10" s="19"/>
+      <c r="ADJ10" s="19"/>
+      <c r="ADK10" s="19"/>
+      <c r="ADL10" s="19"/>
+      <c r="ADM10" s="19"/>
+      <c r="ADN10" s="19"/>
+      <c r="ADO10" s="19"/>
+      <c r="ADP10" s="19"/>
+      <c r="ADQ10" s="19"/>
+      <c r="ADR10" s="19"/>
+      <c r="ADS10" s="19"/>
+      <c r="ADT10" s="19"/>
+      <c r="ADU10" s="19"/>
+      <c r="ADV10" s="19"/>
+      <c r="ADW10" s="19"/>
+      <c r="ADX10" s="19"/>
+      <c r="ADY10" s="19"/>
+      <c r="ADZ10" s="19"/>
+      <c r="AEA10" s="19"/>
+      <c r="AEB10" s="19"/>
+      <c r="AEC10" s="19"/>
+      <c r="AED10" s="19"/>
+      <c r="AEE10" s="19"/>
+      <c r="AEF10" s="19"/>
+      <c r="AEG10" s="19"/>
+      <c r="AEH10" s="19"/>
+      <c r="AEI10" s="19"/>
+      <c r="AEJ10" s="19"/>
+      <c r="AEK10" s="19"/>
+      <c r="AEL10" s="19"/>
+      <c r="AEM10" s="19"/>
+      <c r="AEN10" s="19"/>
+      <c r="AEO10" s="19"/>
+      <c r="AEP10" s="19"/>
+      <c r="AEQ10" s="19"/>
+      <c r="AER10" s="19"/>
+      <c r="AES10" s="19"/>
+      <c r="AET10" s="19"/>
+      <c r="AEU10" s="19"/>
+      <c r="AEV10" s="19"/>
+      <c r="AEW10" s="19"/>
+      <c r="AEX10" s="19"/>
+      <c r="AEY10" s="19"/>
+      <c r="AEZ10" s="19"/>
+      <c r="AFA10" s="19"/>
+      <c r="AFB10" s="19"/>
+      <c r="AFC10" s="19"/>
+      <c r="AFD10" s="19"/>
+      <c r="AFE10" s="19"/>
+      <c r="AFF10" s="19"/>
+      <c r="AFG10" s="19"/>
+      <c r="AFH10" s="19"/>
+      <c r="AFI10" s="19"/>
+      <c r="AFJ10" s="19"/>
+      <c r="AFK10" s="19"/>
+      <c r="AFL10" s="19"/>
+      <c r="AFM10" s="19"/>
+      <c r="AFN10" s="19"/>
+      <c r="AFO10" s="19"/>
+      <c r="AFP10" s="19"/>
+      <c r="AFQ10" s="19"/>
+      <c r="AFR10" s="19"/>
+      <c r="AFS10" s="19"/>
+      <c r="AFT10" s="19"/>
+      <c r="AFU10" s="19"/>
+      <c r="AFV10" s="19"/>
+      <c r="AFW10" s="19"/>
+      <c r="AFX10" s="19"/>
+      <c r="AFY10" s="19"/>
+      <c r="AFZ10" s="19"/>
+      <c r="AGA10" s="19"/>
+      <c r="AGB10" s="19"/>
+      <c r="AGC10" s="19"/>
+      <c r="AGD10" s="19"/>
+      <c r="AGE10" s="19"/>
+      <c r="AGF10" s="19"/>
+      <c r="AGG10" s="19"/>
+      <c r="AGH10" s="19"/>
+      <c r="AGI10" s="19"/>
+      <c r="AGJ10" s="19"/>
+      <c r="AGK10" s="19"/>
+      <c r="AGL10" s="19"/>
+      <c r="AGM10" s="19"/>
+      <c r="AGN10" s="19"/>
+      <c r="AGO10" s="19"/>
+      <c r="AGP10" s="19"/>
+      <c r="AGQ10" s="19"/>
+      <c r="AGR10" s="19"/>
+      <c r="AGS10" s="19"/>
+      <c r="AGT10" s="19"/>
+      <c r="AGU10" s="19"/>
+      <c r="AGV10" s="19"/>
+      <c r="AGW10" s="19"/>
+      <c r="AGX10" s="19"/>
+      <c r="AGY10" s="19"/>
+      <c r="AGZ10" s="19"/>
+      <c r="AHA10" s="19"/>
+      <c r="AHB10" s="19"/>
+      <c r="AHC10" s="19"/>
+      <c r="AHD10" s="19"/>
+      <c r="AHE10" s="19"/>
+      <c r="AHF10" s="19"/>
+      <c r="AHG10" s="19"/>
+      <c r="AHH10" s="19"/>
+      <c r="AHI10" s="19"/>
+      <c r="AHJ10" s="19"/>
+      <c r="AHK10" s="19"/>
+      <c r="AHL10" s="19"/>
+      <c r="AHM10" s="19"/>
+      <c r="AHN10" s="19"/>
+      <c r="AHO10" s="19"/>
+      <c r="AHP10" s="19"/>
+      <c r="AHQ10" s="19"/>
+      <c r="AHR10" s="19"/>
+      <c r="AHS10" s="19"/>
+      <c r="AHT10" s="19"/>
+      <c r="AHU10" s="19"/>
+      <c r="AHV10" s="19"/>
+      <c r="AHW10" s="19"/>
+      <c r="AHX10" s="19"/>
+      <c r="AHY10" s="19"/>
+      <c r="AHZ10" s="19"/>
+      <c r="AIA10" s="19"/>
+      <c r="AIB10" s="19"/>
+      <c r="AIC10" s="19"/>
+      <c r="AID10" s="19"/>
+      <c r="AIE10" s="19"/>
+      <c r="AIF10" s="19"/>
+      <c r="AIG10" s="19"/>
+      <c r="AIH10" s="19"/>
+      <c r="AII10" s="19"/>
+      <c r="AIJ10" s="19"/>
+      <c r="AIK10" s="19"/>
+      <c r="AIL10" s="19"/>
+      <c r="AIM10" s="19"/>
+      <c r="AIN10" s="19"/>
+      <c r="AIO10" s="19"/>
+      <c r="AIP10" s="19"/>
+      <c r="AIQ10" s="19"/>
+      <c r="AIR10" s="19"/>
+      <c r="AIS10" s="19"/>
+      <c r="AIT10" s="19"/>
+      <c r="AIU10" s="19"/>
+      <c r="AIV10" s="19"/>
+      <c r="AIW10" s="19"/>
+      <c r="AIX10" s="19"/>
+      <c r="AIY10" s="19"/>
+      <c r="AIZ10" s="19"/>
+      <c r="AJA10" s="19"/>
+      <c r="AJB10" s="19"/>
+      <c r="AJC10" s="19"/>
+      <c r="AJD10" s="19"/>
+      <c r="AJE10" s="19"/>
+      <c r="AJF10" s="19"/>
+      <c r="AJG10" s="19"/>
+      <c r="AJH10" s="19"/>
+      <c r="AJI10" s="19"/>
+      <c r="AJJ10" s="19"/>
+      <c r="AJK10" s="19"/>
+      <c r="AJL10" s="19"/>
+      <c r="AJM10" s="19"/>
+      <c r="AJN10" s="19"/>
+      <c r="AJO10" s="19"/>
+      <c r="AJP10" s="19"/>
+      <c r="AJQ10" s="19"/>
+      <c r="AJR10" s="19"/>
+      <c r="AJS10" s="19"/>
+      <c r="AJT10" s="19"/>
+      <c r="AJU10" s="19"/>
+      <c r="AJV10" s="19"/>
+      <c r="AJW10" s="19"/>
+      <c r="AJX10" s="19"/>
+      <c r="AJY10" s="19"/>
+      <c r="AJZ10" s="19"/>
+      <c r="AKA10" s="19"/>
+      <c r="AKB10" s="19"/>
+      <c r="AKC10" s="19"/>
+      <c r="AKD10" s="19"/>
+      <c r="AKE10" s="19"/>
+      <c r="AKF10" s="19"/>
+      <c r="AKG10" s="19"/>
+      <c r="AKH10" s="19"/>
+      <c r="AKI10" s="19"/>
+      <c r="AKJ10" s="19"/>
+      <c r="AKK10" s="19"/>
+      <c r="AKL10" s="19"/>
+      <c r="AKM10" s="19"/>
+      <c r="AKN10" s="19"/>
+      <c r="AKO10" s="19"/>
+      <c r="AKP10" s="19"/>
+      <c r="AKQ10" s="19"/>
+      <c r="AKR10" s="19"/>
+      <c r="AKS10" s="19"/>
+      <c r="AKT10" s="19"/>
+      <c r="AKU10" s="19"/>
+      <c r="AKV10" s="19"/>
+      <c r="AKW10" s="19"/>
+      <c r="AKX10" s="19"/>
+      <c r="AKY10" s="19"/>
+      <c r="AKZ10" s="19"/>
+      <c r="ALA10" s="19"/>
+      <c r="ALB10" s="19"/>
+      <c r="ALC10" s="19"/>
+      <c r="ALD10" s="19"/>
+      <c r="ALE10" s="19"/>
+      <c r="ALF10" s="19"/>
+      <c r="ALG10" s="19"/>
+      <c r="ALH10" s="19"/>
+      <c r="ALI10" s="19"/>
+      <c r="ALJ10" s="19"/>
+      <c r="ALK10" s="19"/>
+      <c r="ALL10" s="19"/>
+      <c r="ALM10" s="19"/>
+      <c r="ALN10" s="19"/>
+      <c r="ALO10" s="19"/>
+      <c r="ALP10" s="19"/>
+      <c r="ALQ10" s="19"/>
+      <c r="ALR10" s="19"/>
+      <c r="ALS10" s="19"/>
+      <c r="ALT10" s="19"/>
+      <c r="ALU10" s="19"/>
+      <c r="ALV10" s="19"/>
+      <c r="ALW10" s="19"/>
+      <c r="ALX10" s="19"/>
+      <c r="ALY10" s="19"/>
+      <c r="ALZ10" s="19"/>
+      <c r="AMA10" s="19"/>
+      <c r="AMB10" s="19"/>
+      <c r="AMC10" s="19"/>
+      <c r="AMD10" s="19"/>
+      <c r="AME10" s="19"/>
+      <c r="AMF10" s="19"/>
+      <c r="AMG10" s="19"/>
+      <c r="AMH10" s="19"/>
+      <c r="AMI10" s="19"/>
+      <c r="AMJ10" s="19"/>
+      <c r="AMK10" s="19"/>
+      <c r="AML10" s="19"/>
+      <c r="AMM10" s="19"/>
+      <c r="AMN10" s="19"/>
+      <c r="AMO10" s="19"/>
+      <c r="AMP10" s="19"/>
+    </row>
+    <row r="11" ht="21" spans="1:9">
+      <c r="A11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.223235</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.395909</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.9254818</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.7301204</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.1974336</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.3965056</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.27769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.226201</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.396671</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.9234492</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.7339873</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.2011676</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.3968416</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.282156</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <r>
       <rPr>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>64</t>
+  </si>
+  <si>
+    <t>fix “return 2” bug</t>
   </si>
 </sst>
 </file>
@@ -1421,10 +1424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMP12"/>
+  <dimension ref="A1:AMP13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -6058,6 +6061,11 @@
         <v>0.282156</v>
       </c>
     </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8625" tabRatio="993"/>
+    <workbookView windowWidth="28695" windowHeight="13305" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="特征选取" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <r>
       <rPr>
@@ -358,12 +358,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">2017_checkname_diff_count
 </t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>去掉</t>
@@ -386,9 +392,6 @@
   <si>
     <t>64</t>
   </si>
-  <si>
-    <t>fix “return 2” bug</t>
-  </si>
 </sst>
 </file>
 
@@ -397,13 +400,13 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.000000_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -436,9 +439,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,121 +568,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,10 +586,6 @@
     <font>
       <sz val="8"/>
       <name val="方正行楷_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -629,7 +628,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +658,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,19 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,85 +754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,7 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,19 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,6 +835,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -846,21 +884,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,32 +902,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,130 +912,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1424,10 +1423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMP13"/>
+  <dimension ref="A1:AMP12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -4901,7 +4900,7 @@
       <c r="AMO8" s="19"/>
       <c r="AMP8" s="19"/>
     </row>
-    <row r="9" ht="31.5" spans="1:15">
+    <row r="9" ht="21" spans="1:15">
       <c r="A9" s="10" t="s">
         <v>35</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>0.27769</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="16" t="s">
         <v>40</v>
       </c>
@@ -6060,10 +6059,8 @@
       <c r="I12" s="4">
         <v>0.282156</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
+      <c r="J12" s="6">
+        <v>0.73979</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <r>
       <rPr>
@@ -483,6 +483,64 @@
   </si>
   <si>
     <t>77</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时不加这个特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>has_comment_flag</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计信息，只保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> std</t>
+    </r>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>raing1,2,3,4,_ratio</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>scale_pos_weight = 1</t>
   </si>
 </sst>
 </file>
@@ -1558,10 +1616,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMK20"/>
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -1571,7 +1629,7 @@
     <col min="3" max="3" width="9.51666666666667" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.325" style="6" customWidth="1"/>
     <col min="5" max="6" width="11.1333333333333" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.325" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="7" customWidth="1"/>
     <col min="8" max="8" width="13.65" style="8" customWidth="1"/>
     <col min="9" max="9" width="12.0166666666667" style="8" customWidth="1"/>
     <col min="10" max="10" width="10.0916666666667" style="9" customWidth="1"/>
@@ -9147,24 +9205,113 @@
       <c r="AMJ19" s="29"/>
       <c r="AMK19" s="29"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="21">
         <v>0.9265889</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="21">
         <v>0.8323145</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="21">
         <v>0.9253839</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="21">
         <v>0.8355919</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.9269827</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.8391829</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.9284143</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.8415312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0.9334632</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0.8392841</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.9282524</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.8414743</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.9318316</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.8393544</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.9302583</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.8415681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.9117557</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.8407492</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.9089489</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.8425299</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.859</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -586,7 +586,7 @@
     <t>scale_pos_weight = 1</t>
   </si>
   <si>
-    <t>last_two_order_days_delta</t>
+    <t>last_time_order_now_action_count</t>
   </si>
   <si>
     <t>76</t>
@@ -1736,7 +1736,7 @@
   <dimension ref="A1:AMK28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -10450,12 +10450,24 @@
       <c r="AMJ24" s="36"/>
       <c r="AMK24" s="36"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.9175871</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.8425249</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.9123228</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.84335</v>
       </c>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:1025">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <r>
       <rPr>
@@ -608,6 +608,27 @@
   <si>
     <t>26</t>
   </si>
+  <si>
+    <t>以往交易的类别属性的数目及比例</t>
+  </si>
+  <si>
+    <t>最近交易的时间差的统计特征</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>pre_last_two_order_delta</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>pre_order_mean_delta</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
 </sst>
 </file>
 
@@ -615,11 +636,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -642,9 +663,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,15 +672,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,24 +686,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,13 +705,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -728,37 +761,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,9 +783,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,6 +793,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,13 +868,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,19 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +922,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,25 +952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +970,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,49 +1018,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,31 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,16 +1062,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1061,32 +1082,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,17 +1110,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,142 +1144,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1363,10 +1384,10 @@
     <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1714,10 +1735,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH38"/>
+  <dimension ref="A1:AMH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -11393,7 +11414,7 @@
       <c r="AMH27" s="37"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="1"/>
@@ -11426,7 +11447,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -11469,7 +11490,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -11489,7 +11510,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -11512,7 +11533,7 @@
       </c>
     </row>
     <row r="38" s="3" customFormat="1" spans="1:1022">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -12549,6 +12570,89 @@
       <c r="AMG38" s="31"/>
       <c r="AMH38" s="31"/>
     </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.7279901</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.6947248</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.726884</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0.7005933</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.7241441</v>
+      </c>
+      <c r="D40" s="8">
+        <v>0.6949809</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0.7287087</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0.701508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0.730688</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.6959236</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.7267454</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0.7017671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.7248618</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.6946714</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.7298304</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0.7017839</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.6731</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A32:G32"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <r>
       <rPr>
@@ -628,6 +628,12 @@
   </si>
   <si>
     <t>34</t>
+  </si>
+  <si>
+    <t>pre_order_has_comment</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
 </sst>
 </file>
@@ -1735,10 +1741,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH42"/>
+  <dimension ref="A1:AMH43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -12653,6 +12659,29 @@
         <v>0.6731</v>
       </c>
     </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.7390101</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0.7139955</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.7450693</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.7191848</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.6641</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A32:G32"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <r>
       <rPr>
@@ -573,6 +573,12 @@
     <t>85</t>
   </si>
   <si>
+    <t>days_from_nows = range(1, 5)</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>扩大训练集之后</t>
   </si>
   <si>
@@ -634,6 +640,9 @@
   </si>
   <si>
     <t>35</t>
+  </si>
+  <si>
+    <t>back to 0.86799 baseline</t>
   </si>
 </sst>
 </file>
@@ -1741,10 +1750,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH43"/>
+  <dimension ref="A1:AMH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -11419,9 +11428,32 @@
       <c r="AMG27" s="37"/>
       <c r="AMH27" s="37"/>
     </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.9203679</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.848842</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.9157247</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.8505482</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.8678</v>
+      </c>
+    </row>
     <row r="32" spans="1:7">
       <c r="A32" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -11431,7 +11463,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
@@ -11454,10 +11486,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" s="8">
         <v>0.7168243</v>
@@ -11477,10 +11509,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C35" s="8">
         <v>0.7215203</v>
@@ -11497,10 +11529,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" s="8">
         <v>0.7355705</v>
@@ -11517,10 +11549,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C37" s="8">
         <v>0.7393779</v>
@@ -11540,10 +11572,10 @@
     </row>
     <row r="38" s="3" customFormat="1" spans="1:1022">
       <c r="A38" s="28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C38" s="17">
         <v>0.7051926</v>
@@ -12578,10 +12610,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C39" s="8">
         <v>0.7279901</v>
@@ -12598,10 +12630,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C40" s="8">
         <v>0.7241441</v>
@@ -12618,10 +12650,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C41" s="8">
         <v>0.730688</v>
@@ -12638,10 +12670,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C42" s="8">
         <v>0.7248618</v>
@@ -12661,10 +12693,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C43" s="8">
         <v>0.7390101</v>
@@ -12680,6 +12712,29 @@
       </c>
       <c r="G43" s="10">
         <v>0.6641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.9212036</v>
+      </c>
+      <c r="D47" s="8">
+        <v>0.8492135</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.9136246</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0.8507061</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.86799</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <r>
       <rPr>
@@ -643,6 +643,114 @@
   </si>
   <si>
     <t>back to 0.86799 baseline</t>
+  </si>
+  <si>
+    <r>
+      <t>距离最近的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> action type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时间距离</t>
+    </r>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <r>
+      <t>距离最近的倒数第二次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> action type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时间距离</t>
+    </r>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <r>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> actiontype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时间间隔统计特征</t>
+    </r>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <r>
+      <t>去掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> has_history_flag</t>
+    </r>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <r>
+      <t>距离上一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> action type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作到现在的统计特征</t>
+    </r>
+  </si>
+  <si>
+    <t>133</t>
   </si>
 </sst>
 </file>
@@ -1750,10 +1858,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH47"/>
+  <dimension ref="A1:AMH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -12737,6 +12845,112 @@
         <v>0.86799</v>
       </c>
     </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.9283044</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0.8586842</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0.9284514</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0.858238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.9315234</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0.8593163</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0.9301224</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0.8591702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.9438524</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0.8689212</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0.9483557</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.8730772</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.88249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.9491259</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0.8693983</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.9531236</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.8730827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.9607984</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0.8925001</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.9634279</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0.8972225</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0.90399</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A32:G32"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <r>
       <rPr>
@@ -751,6 +751,44 @@
   </si>
   <si>
     <t>133</t>
+  </si>
+  <si>
+    <r>
+      <t>距离上一次</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> pay money </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作到现在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> actiontype </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的比例</t>
+    </r>
+  </si>
+  <si>
+    <t>139</t>
   </si>
 </sst>
 </file>
@@ -1858,10 +1896,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH52"/>
+  <dimension ref="A1:AMH53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -12951,6 +12989,26 @@
         <v>0.90399</v>
       </c>
     </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.9604394</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.8951611</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.9613578</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0.9004432</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A32:G32"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <r>
       <rPr>
@@ -908,6 +908,12 @@
   </si>
   <si>
     <t>128</t>
+  </si>
+  <si>
+    <t>browse_product 1 2 3</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
 </sst>
 </file>
@@ -2030,10 +2036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH56"/>
+  <dimension ref="A1:AMH57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -15242,6 +15248,29 @@
       <c r="AMG56" s="34"/>
       <c r="AMH56" s="34"/>
     </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="9">
+        <v>0.9629211</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.8916464</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0.9606165</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0.8964465</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0.906</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A32:G32"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <r>
       <rPr>
@@ -944,11 +944,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>diff_action_type_time_delta</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -964,6 +970,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -982,11 +989,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>diff_action_type_time_delta</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1002,6 +1015,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1017,6 +1031,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1041,6 +1056,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>去掉</t>
     </r>
     <r>
@@ -1054,6 +1074,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1076,20 +1097,38 @@
   <si>
     <t>266</t>
   </si>
+  <si>
+    <t>last_-1_x_actiontype</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>last_time_x_actiontypr_mean</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>action_history_features6</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1106,51 +1145,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,7 +1169,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1179,6 +1184,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1186,9 +1199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1201,17 +1213,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1238,6 +1244,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1245,11 +1259,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1258,6 +1278,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1315,7 +1350,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,13 +1476,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,121 +1518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,31 +1530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,6 +1541,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1524,20 +1577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1557,6 +1607,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1571,164 +1641,120 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,16 +1763,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1774,16 +1809,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1804,7 +1839,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1819,7 +1854,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1828,13 +1863,13 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1846,40 +1881,40 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -1896,9 +1931,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2218,10 +2250,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH66"/>
+  <dimension ref="A1:AMH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -7536,7 +7568,7 @@
       <c r="AMH13" s="46"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -16580,7 +16612,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -16624,6 +16656,69 @@
       <c r="H66" s="12">
         <f>G66-F66</f>
         <v>0.000609500000000041</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0.9922934</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0.9592326</v>
+      </c>
+      <c r="E67" s="9">
+        <v>0.9938423</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0.9629728</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0.9938975</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0.9594736</v>
+      </c>
+      <c r="E68" s="9">
+        <v>0.9935888</v>
+      </c>
+      <c r="F68" s="10">
+        <v>0.9631246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="9">
+        <v>0.9926148</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0.9627011</v>
+      </c>
+      <c r="E69" s="9">
+        <v>0.9949329</v>
+      </c>
+      <c r="F69" s="10">
+        <v>0.9668181</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0.96749</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <r>
       <rPr>
@@ -1115,20 +1115,61 @@
   <si>
     <t>400</t>
   </si>
+  <si>
+    <t>fix action_history_features6 bug</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <r>
+      <t>去掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> importance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>很低的特征</t>
+    </r>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>有用！</t>
+  </si>
+  <si>
+    <t>过采样处理样本不均衡</t>
+  </si>
+  <si>
+    <t>没啥用啊</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1145,11 +1186,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1161,18 +1213,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1184,32 +1229,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1229,9 +1252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1244,14 +1266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1260,7 +1274,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1281,9 +1327,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,7 +1356,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1350,7 +1395,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,19 +1515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,13 +1533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,7 +1545,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,121 +1581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,7 +1599,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1557,7 +1623,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1577,32 +1658,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,17 +1674,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,142 +1697,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1809,16 +1860,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1839,7 +1890,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1854,7 +1905,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1863,13 +1914,13 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1881,40 +1932,40 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -1930,6 +1981,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -2250,10 +2313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH69"/>
+  <dimension ref="A1:AMH73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -7568,7 +7631,7 @@
       <c r="AMH13" s="46"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -16721,6 +16784,1116 @@
         <v>0.96749</v>
       </c>
     </row>
+    <row r="70" s="3" customFormat="1" spans="1:1022">
+      <c r="A70" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="19">
+        <v>0.9951934</v>
+      </c>
+      <c r="D70" s="19">
+        <v>0.9629157</v>
+      </c>
+      <c r="E70" s="19">
+        <v>0.9963413</v>
+      </c>
+      <c r="F70" s="19">
+        <v>0.966912</v>
+      </c>
+      <c r="G70" s="34">
+        <v>0.96789</v>
+      </c>
+      <c r="H70" s="35"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="45"/>
+      <c r="V70" s="45"/>
+      <c r="W70" s="45"/>
+      <c r="X70" s="45"/>
+      <c r="Y70" s="45"/>
+      <c r="Z70" s="45"/>
+      <c r="AA70" s="45"/>
+      <c r="AB70" s="45"/>
+      <c r="AC70" s="45"/>
+      <c r="AD70" s="45"/>
+      <c r="AE70" s="45"/>
+      <c r="AF70" s="45"/>
+      <c r="AG70" s="45"/>
+      <c r="AH70" s="45"/>
+      <c r="AI70" s="45"/>
+      <c r="AJ70" s="45"/>
+      <c r="AK70" s="45"/>
+      <c r="AL70" s="45"/>
+      <c r="AM70" s="45"/>
+      <c r="AN70" s="45"/>
+      <c r="AO70" s="45"/>
+      <c r="AP70" s="45"/>
+      <c r="AQ70" s="45"/>
+      <c r="AR70" s="45"/>
+      <c r="AS70" s="45"/>
+      <c r="AT70" s="45"/>
+      <c r="AU70" s="45"/>
+      <c r="AV70" s="45"/>
+      <c r="AW70" s="45"/>
+      <c r="AX70" s="45"/>
+      <c r="AY70" s="45"/>
+      <c r="AZ70" s="45"/>
+      <c r="BA70" s="45"/>
+      <c r="BB70" s="45"/>
+      <c r="BC70" s="45"/>
+      <c r="BD70" s="45"/>
+      <c r="BE70" s="45"/>
+      <c r="BF70" s="45"/>
+      <c r="BG70" s="45"/>
+      <c r="BH70" s="45"/>
+      <c r="BI70" s="45"/>
+      <c r="BJ70" s="45"/>
+      <c r="BK70" s="45"/>
+      <c r="BL70" s="45"/>
+      <c r="BM70" s="45"/>
+      <c r="BN70" s="45"/>
+      <c r="BO70" s="45"/>
+      <c r="BP70" s="45"/>
+      <c r="BQ70" s="45"/>
+      <c r="BR70" s="45"/>
+      <c r="BS70" s="45"/>
+      <c r="BT70" s="45"/>
+      <c r="BU70" s="45"/>
+      <c r="BV70" s="45"/>
+      <c r="BW70" s="45"/>
+      <c r="BX70" s="45"/>
+      <c r="BY70" s="45"/>
+      <c r="BZ70" s="45"/>
+      <c r="CA70" s="45"/>
+      <c r="CB70" s="45"/>
+      <c r="CC70" s="45"/>
+      <c r="CD70" s="45"/>
+      <c r="CE70" s="45"/>
+      <c r="CF70" s="45"/>
+      <c r="CG70" s="45"/>
+      <c r="CH70" s="45"/>
+      <c r="CI70" s="45"/>
+      <c r="CJ70" s="45"/>
+      <c r="CK70" s="45"/>
+      <c r="CL70" s="45"/>
+      <c r="CM70" s="45"/>
+      <c r="CN70" s="45"/>
+      <c r="CO70" s="45"/>
+      <c r="CP70" s="45"/>
+      <c r="CQ70" s="45"/>
+      <c r="CR70" s="45"/>
+      <c r="CS70" s="45"/>
+      <c r="CT70" s="45"/>
+      <c r="CU70" s="45"/>
+      <c r="CV70" s="45"/>
+      <c r="CW70" s="45"/>
+      <c r="CX70" s="45"/>
+      <c r="CY70" s="45"/>
+      <c r="CZ70" s="45"/>
+      <c r="DA70" s="45"/>
+      <c r="DB70" s="45"/>
+      <c r="DC70" s="45"/>
+      <c r="DD70" s="45"/>
+      <c r="DE70" s="45"/>
+      <c r="DF70" s="45"/>
+      <c r="DG70" s="45"/>
+      <c r="DH70" s="45"/>
+      <c r="DI70" s="45"/>
+      <c r="DJ70" s="45"/>
+      <c r="DK70" s="45"/>
+      <c r="DL70" s="45"/>
+      <c r="DM70" s="45"/>
+      <c r="DN70" s="45"/>
+      <c r="DO70" s="45"/>
+      <c r="DP70" s="45"/>
+      <c r="DQ70" s="45"/>
+      <c r="DR70" s="45"/>
+      <c r="DS70" s="45"/>
+      <c r="DT70" s="45"/>
+      <c r="DU70" s="45"/>
+      <c r="DV70" s="45"/>
+      <c r="DW70" s="45"/>
+      <c r="DX70" s="45"/>
+      <c r="DY70" s="45"/>
+      <c r="DZ70" s="45"/>
+      <c r="EA70" s="45"/>
+      <c r="EB70" s="45"/>
+      <c r="EC70" s="45"/>
+      <c r="ED70" s="45"/>
+      <c r="EE70" s="45"/>
+      <c r="EF70" s="45"/>
+      <c r="EG70" s="45"/>
+      <c r="EH70" s="45"/>
+      <c r="EI70" s="45"/>
+      <c r="EJ70" s="45"/>
+      <c r="EK70" s="45"/>
+      <c r="EL70" s="45"/>
+      <c r="EM70" s="45"/>
+      <c r="EN70" s="45"/>
+      <c r="EO70" s="45"/>
+      <c r="EP70" s="45"/>
+      <c r="EQ70" s="45"/>
+      <c r="ER70" s="45"/>
+      <c r="ES70" s="45"/>
+      <c r="ET70" s="45"/>
+      <c r="EU70" s="45"/>
+      <c r="EV70" s="45"/>
+      <c r="EW70" s="45"/>
+      <c r="EX70" s="45"/>
+      <c r="EY70" s="45"/>
+      <c r="EZ70" s="45"/>
+      <c r="FA70" s="45"/>
+      <c r="FB70" s="45"/>
+      <c r="FC70" s="45"/>
+      <c r="FD70" s="45"/>
+      <c r="FE70" s="45"/>
+      <c r="FF70" s="45"/>
+      <c r="FG70" s="45"/>
+      <c r="FH70" s="45"/>
+      <c r="FI70" s="45"/>
+      <c r="FJ70" s="45"/>
+      <c r="FK70" s="45"/>
+      <c r="FL70" s="45"/>
+      <c r="FM70" s="45"/>
+      <c r="FN70" s="45"/>
+      <c r="FO70" s="45"/>
+      <c r="FP70" s="45"/>
+      <c r="FQ70" s="45"/>
+      <c r="FR70" s="45"/>
+      <c r="FS70" s="45"/>
+      <c r="FT70" s="45"/>
+      <c r="FU70" s="45"/>
+      <c r="FV70" s="45"/>
+      <c r="FW70" s="45"/>
+      <c r="FX70" s="45"/>
+      <c r="FY70" s="45"/>
+      <c r="FZ70" s="45"/>
+      <c r="GA70" s="45"/>
+      <c r="GB70" s="45"/>
+      <c r="GC70" s="45"/>
+      <c r="GD70" s="45"/>
+      <c r="GE70" s="45"/>
+      <c r="GF70" s="45"/>
+      <c r="GG70" s="45"/>
+      <c r="GH70" s="45"/>
+      <c r="GI70" s="45"/>
+      <c r="GJ70" s="45"/>
+      <c r="GK70" s="45"/>
+      <c r="GL70" s="45"/>
+      <c r="GM70" s="45"/>
+      <c r="GN70" s="45"/>
+      <c r="GO70" s="45"/>
+      <c r="GP70" s="45"/>
+      <c r="GQ70" s="45"/>
+      <c r="GR70" s="45"/>
+      <c r="GS70" s="45"/>
+      <c r="GT70" s="45"/>
+      <c r="GU70" s="45"/>
+      <c r="GV70" s="45"/>
+      <c r="GW70" s="45"/>
+      <c r="GX70" s="45"/>
+      <c r="GY70" s="45"/>
+      <c r="GZ70" s="45"/>
+      <c r="HA70" s="45"/>
+      <c r="HB70" s="45"/>
+      <c r="HC70" s="45"/>
+      <c r="HD70" s="45"/>
+      <c r="HE70" s="45"/>
+      <c r="HF70" s="45"/>
+      <c r="HG70" s="45"/>
+      <c r="HH70" s="45"/>
+      <c r="HI70" s="45"/>
+      <c r="HJ70" s="45"/>
+      <c r="HK70" s="45"/>
+      <c r="HL70" s="45"/>
+      <c r="HM70" s="45"/>
+      <c r="HN70" s="45"/>
+      <c r="HO70" s="45"/>
+      <c r="HP70" s="45"/>
+      <c r="HQ70" s="45"/>
+      <c r="HR70" s="45"/>
+      <c r="HS70" s="45"/>
+      <c r="HT70" s="45"/>
+      <c r="HU70" s="45"/>
+      <c r="HV70" s="45"/>
+      <c r="HW70" s="45"/>
+      <c r="HX70" s="45"/>
+      <c r="HY70" s="45"/>
+      <c r="HZ70" s="45"/>
+      <c r="IA70" s="45"/>
+      <c r="IB70" s="45"/>
+      <c r="IC70" s="45"/>
+      <c r="ID70" s="45"/>
+      <c r="IE70" s="45"/>
+      <c r="IF70" s="45"/>
+      <c r="IG70" s="45"/>
+      <c r="IH70" s="45"/>
+      <c r="II70" s="45"/>
+      <c r="IJ70" s="45"/>
+      <c r="IK70" s="45"/>
+      <c r="IL70" s="45"/>
+      <c r="IM70" s="45"/>
+      <c r="IN70" s="45"/>
+      <c r="IO70" s="45"/>
+      <c r="IP70" s="45"/>
+      <c r="IQ70" s="45"/>
+      <c r="IR70" s="45"/>
+      <c r="IS70" s="45"/>
+      <c r="IT70" s="45"/>
+      <c r="IU70" s="45"/>
+      <c r="IV70" s="45"/>
+      <c r="IW70" s="45"/>
+      <c r="IX70" s="45"/>
+      <c r="IY70" s="45"/>
+      <c r="IZ70" s="45"/>
+      <c r="JA70" s="45"/>
+      <c r="JB70" s="45"/>
+      <c r="JC70" s="45"/>
+      <c r="JD70" s="45"/>
+      <c r="JE70" s="45"/>
+      <c r="JF70" s="45"/>
+      <c r="JG70" s="45"/>
+      <c r="JH70" s="45"/>
+      <c r="JI70" s="45"/>
+      <c r="JJ70" s="45"/>
+      <c r="JK70" s="45"/>
+      <c r="JL70" s="45"/>
+      <c r="JM70" s="45"/>
+      <c r="JN70" s="45"/>
+      <c r="JO70" s="45"/>
+      <c r="JP70" s="45"/>
+      <c r="JQ70" s="45"/>
+      <c r="JR70" s="45"/>
+      <c r="JS70" s="45"/>
+      <c r="JT70" s="45"/>
+      <c r="JU70" s="45"/>
+      <c r="JV70" s="45"/>
+      <c r="JW70" s="45"/>
+      <c r="JX70" s="45"/>
+      <c r="JY70" s="45"/>
+      <c r="JZ70" s="45"/>
+      <c r="KA70" s="45"/>
+      <c r="KB70" s="45"/>
+      <c r="KC70" s="45"/>
+      <c r="KD70" s="45"/>
+      <c r="KE70" s="45"/>
+      <c r="KF70" s="45"/>
+      <c r="KG70" s="45"/>
+      <c r="KH70" s="45"/>
+      <c r="KI70" s="45"/>
+      <c r="KJ70" s="45"/>
+      <c r="KK70" s="45"/>
+      <c r="KL70" s="45"/>
+      <c r="KM70" s="45"/>
+      <c r="KN70" s="45"/>
+      <c r="KO70" s="45"/>
+      <c r="KP70" s="45"/>
+      <c r="KQ70" s="45"/>
+      <c r="KR70" s="45"/>
+      <c r="KS70" s="45"/>
+      <c r="KT70" s="45"/>
+      <c r="KU70" s="45"/>
+      <c r="KV70" s="45"/>
+      <c r="KW70" s="45"/>
+      <c r="KX70" s="45"/>
+      <c r="KY70" s="45"/>
+      <c r="KZ70" s="45"/>
+      <c r="LA70" s="45"/>
+      <c r="LB70" s="45"/>
+      <c r="LC70" s="45"/>
+      <c r="LD70" s="45"/>
+      <c r="LE70" s="45"/>
+      <c r="LF70" s="45"/>
+      <c r="LG70" s="45"/>
+      <c r="LH70" s="45"/>
+      <c r="LI70" s="45"/>
+      <c r="LJ70" s="45"/>
+      <c r="LK70" s="45"/>
+      <c r="LL70" s="45"/>
+      <c r="LM70" s="45"/>
+      <c r="LN70" s="45"/>
+      <c r="LO70" s="45"/>
+      <c r="LP70" s="45"/>
+      <c r="LQ70" s="45"/>
+      <c r="LR70" s="45"/>
+      <c r="LS70" s="45"/>
+      <c r="LT70" s="45"/>
+      <c r="LU70" s="45"/>
+      <c r="LV70" s="45"/>
+      <c r="LW70" s="45"/>
+      <c r="LX70" s="45"/>
+      <c r="LY70" s="45"/>
+      <c r="LZ70" s="45"/>
+      <c r="MA70" s="45"/>
+      <c r="MB70" s="45"/>
+      <c r="MC70" s="45"/>
+      <c r="MD70" s="45"/>
+      <c r="ME70" s="45"/>
+      <c r="MF70" s="45"/>
+      <c r="MG70" s="45"/>
+      <c r="MH70" s="45"/>
+      <c r="MI70" s="45"/>
+      <c r="MJ70" s="45"/>
+      <c r="MK70" s="45"/>
+      <c r="ML70" s="45"/>
+      <c r="MM70" s="45"/>
+      <c r="MN70" s="45"/>
+      <c r="MO70" s="45"/>
+      <c r="MP70" s="45"/>
+      <c r="MQ70" s="45"/>
+      <c r="MR70" s="45"/>
+      <c r="MS70" s="45"/>
+      <c r="MT70" s="45"/>
+      <c r="MU70" s="45"/>
+      <c r="MV70" s="45"/>
+      <c r="MW70" s="45"/>
+      <c r="MX70" s="45"/>
+      <c r="MY70" s="45"/>
+      <c r="MZ70" s="45"/>
+      <c r="NA70" s="45"/>
+      <c r="NB70" s="45"/>
+      <c r="NC70" s="45"/>
+      <c r="ND70" s="45"/>
+      <c r="NE70" s="45"/>
+      <c r="NF70" s="45"/>
+      <c r="NG70" s="45"/>
+      <c r="NH70" s="45"/>
+      <c r="NI70" s="45"/>
+      <c r="NJ70" s="45"/>
+      <c r="NK70" s="45"/>
+      <c r="NL70" s="45"/>
+      <c r="NM70" s="45"/>
+      <c r="NN70" s="45"/>
+      <c r="NO70" s="45"/>
+      <c r="NP70" s="45"/>
+      <c r="NQ70" s="45"/>
+      <c r="NR70" s="45"/>
+      <c r="NS70" s="45"/>
+      <c r="NT70" s="45"/>
+      <c r="NU70" s="45"/>
+      <c r="NV70" s="45"/>
+      <c r="NW70" s="45"/>
+      <c r="NX70" s="45"/>
+      <c r="NY70" s="45"/>
+      <c r="NZ70" s="45"/>
+      <c r="OA70" s="45"/>
+      <c r="OB70" s="45"/>
+      <c r="OC70" s="45"/>
+      <c r="OD70" s="45"/>
+      <c r="OE70" s="45"/>
+      <c r="OF70" s="45"/>
+      <c r="OG70" s="45"/>
+      <c r="OH70" s="45"/>
+      <c r="OI70" s="45"/>
+      <c r="OJ70" s="45"/>
+      <c r="OK70" s="45"/>
+      <c r="OL70" s="45"/>
+      <c r="OM70" s="45"/>
+      <c r="ON70" s="45"/>
+      <c r="OO70" s="45"/>
+      <c r="OP70" s="45"/>
+      <c r="OQ70" s="45"/>
+      <c r="OR70" s="45"/>
+      <c r="OS70" s="45"/>
+      <c r="OT70" s="45"/>
+      <c r="OU70" s="45"/>
+      <c r="OV70" s="45"/>
+      <c r="OW70" s="45"/>
+      <c r="OX70" s="45"/>
+      <c r="OY70" s="45"/>
+      <c r="OZ70" s="45"/>
+      <c r="PA70" s="45"/>
+      <c r="PB70" s="45"/>
+      <c r="PC70" s="45"/>
+      <c r="PD70" s="45"/>
+      <c r="PE70" s="45"/>
+      <c r="PF70" s="45"/>
+      <c r="PG70" s="45"/>
+      <c r="PH70" s="45"/>
+      <c r="PI70" s="45"/>
+      <c r="PJ70" s="45"/>
+      <c r="PK70" s="45"/>
+      <c r="PL70" s="45"/>
+      <c r="PM70" s="45"/>
+      <c r="PN70" s="45"/>
+      <c r="PO70" s="45"/>
+      <c r="PP70" s="45"/>
+      <c r="PQ70" s="45"/>
+      <c r="PR70" s="45"/>
+      <c r="PS70" s="45"/>
+      <c r="PT70" s="45"/>
+      <c r="PU70" s="45"/>
+      <c r="PV70" s="45"/>
+      <c r="PW70" s="45"/>
+      <c r="PX70" s="45"/>
+      <c r="PY70" s="45"/>
+      <c r="PZ70" s="45"/>
+      <c r="QA70" s="45"/>
+      <c r="QB70" s="45"/>
+      <c r="QC70" s="45"/>
+      <c r="QD70" s="45"/>
+      <c r="QE70" s="45"/>
+      <c r="QF70" s="45"/>
+      <c r="QG70" s="45"/>
+      <c r="QH70" s="45"/>
+      <c r="QI70" s="45"/>
+      <c r="QJ70" s="45"/>
+      <c r="QK70" s="45"/>
+      <c r="QL70" s="45"/>
+      <c r="QM70" s="45"/>
+      <c r="QN70" s="45"/>
+      <c r="QO70" s="45"/>
+      <c r="QP70" s="45"/>
+      <c r="QQ70" s="45"/>
+      <c r="QR70" s="45"/>
+      <c r="QS70" s="45"/>
+      <c r="QT70" s="45"/>
+      <c r="QU70" s="45"/>
+      <c r="QV70" s="45"/>
+      <c r="QW70" s="45"/>
+      <c r="QX70" s="45"/>
+      <c r="QY70" s="45"/>
+      <c r="QZ70" s="45"/>
+      <c r="RA70" s="45"/>
+      <c r="RB70" s="45"/>
+      <c r="RC70" s="45"/>
+      <c r="RD70" s="45"/>
+      <c r="RE70" s="45"/>
+      <c r="RF70" s="45"/>
+      <c r="RG70" s="45"/>
+      <c r="RH70" s="45"/>
+      <c r="RI70" s="45"/>
+      <c r="RJ70" s="45"/>
+      <c r="RK70" s="45"/>
+      <c r="RL70" s="45"/>
+      <c r="RM70" s="45"/>
+      <c r="RN70" s="45"/>
+      <c r="RO70" s="45"/>
+      <c r="RP70" s="45"/>
+      <c r="RQ70" s="45"/>
+      <c r="RR70" s="45"/>
+      <c r="RS70" s="45"/>
+      <c r="RT70" s="45"/>
+      <c r="RU70" s="45"/>
+      <c r="RV70" s="45"/>
+      <c r="RW70" s="45"/>
+      <c r="RX70" s="45"/>
+      <c r="RY70" s="45"/>
+      <c r="RZ70" s="45"/>
+      <c r="SA70" s="45"/>
+      <c r="SB70" s="45"/>
+      <c r="SC70" s="45"/>
+      <c r="SD70" s="45"/>
+      <c r="SE70" s="45"/>
+      <c r="SF70" s="45"/>
+      <c r="SG70" s="45"/>
+      <c r="SH70" s="45"/>
+      <c r="SI70" s="45"/>
+      <c r="SJ70" s="45"/>
+      <c r="SK70" s="45"/>
+      <c r="SL70" s="45"/>
+      <c r="SM70" s="45"/>
+      <c r="SN70" s="45"/>
+      <c r="SO70" s="45"/>
+      <c r="SP70" s="45"/>
+      <c r="SQ70" s="45"/>
+      <c r="SR70" s="45"/>
+      <c r="SS70" s="45"/>
+      <c r="ST70" s="45"/>
+      <c r="SU70" s="45"/>
+      <c r="SV70" s="45"/>
+      <c r="SW70" s="45"/>
+      <c r="SX70" s="45"/>
+      <c r="SY70" s="45"/>
+      <c r="SZ70" s="45"/>
+      <c r="TA70" s="45"/>
+      <c r="TB70" s="45"/>
+      <c r="TC70" s="45"/>
+      <c r="TD70" s="45"/>
+      <c r="TE70" s="45"/>
+      <c r="TF70" s="45"/>
+      <c r="TG70" s="45"/>
+      <c r="TH70" s="45"/>
+      <c r="TI70" s="45"/>
+      <c r="TJ70" s="45"/>
+      <c r="TK70" s="45"/>
+      <c r="TL70" s="45"/>
+      <c r="TM70" s="45"/>
+      <c r="TN70" s="45"/>
+      <c r="TO70" s="45"/>
+      <c r="TP70" s="45"/>
+      <c r="TQ70" s="45"/>
+      <c r="TR70" s="45"/>
+      <c r="TS70" s="45"/>
+      <c r="TT70" s="45"/>
+      <c r="TU70" s="45"/>
+      <c r="TV70" s="45"/>
+      <c r="TW70" s="45"/>
+      <c r="TX70" s="45"/>
+      <c r="TY70" s="45"/>
+      <c r="TZ70" s="45"/>
+      <c r="UA70" s="45"/>
+      <c r="UB70" s="45"/>
+      <c r="UC70" s="45"/>
+      <c r="UD70" s="45"/>
+      <c r="UE70" s="45"/>
+      <c r="UF70" s="45"/>
+      <c r="UG70" s="45"/>
+      <c r="UH70" s="45"/>
+      <c r="UI70" s="45"/>
+      <c r="UJ70" s="45"/>
+      <c r="UK70" s="45"/>
+      <c r="UL70" s="45"/>
+      <c r="UM70" s="45"/>
+      <c r="UN70" s="45"/>
+      <c r="UO70" s="45"/>
+      <c r="UP70" s="45"/>
+      <c r="UQ70" s="45"/>
+      <c r="UR70" s="45"/>
+      <c r="US70" s="45"/>
+      <c r="UT70" s="45"/>
+      <c r="UU70" s="45"/>
+      <c r="UV70" s="45"/>
+      <c r="UW70" s="45"/>
+      <c r="UX70" s="45"/>
+      <c r="UY70" s="45"/>
+      <c r="UZ70" s="45"/>
+      <c r="VA70" s="45"/>
+      <c r="VB70" s="45"/>
+      <c r="VC70" s="45"/>
+      <c r="VD70" s="45"/>
+      <c r="VE70" s="45"/>
+      <c r="VF70" s="45"/>
+      <c r="VG70" s="45"/>
+      <c r="VH70" s="45"/>
+      <c r="VI70" s="45"/>
+      <c r="VJ70" s="45"/>
+      <c r="VK70" s="45"/>
+      <c r="VL70" s="45"/>
+      <c r="VM70" s="45"/>
+      <c r="VN70" s="45"/>
+      <c r="VO70" s="45"/>
+      <c r="VP70" s="45"/>
+      <c r="VQ70" s="45"/>
+      <c r="VR70" s="45"/>
+      <c r="VS70" s="45"/>
+      <c r="VT70" s="45"/>
+      <c r="VU70" s="45"/>
+      <c r="VV70" s="45"/>
+      <c r="VW70" s="45"/>
+      <c r="VX70" s="45"/>
+      <c r="VY70" s="45"/>
+      <c r="VZ70" s="45"/>
+      <c r="WA70" s="45"/>
+      <c r="WB70" s="45"/>
+      <c r="WC70" s="45"/>
+      <c r="WD70" s="45"/>
+      <c r="WE70" s="45"/>
+      <c r="WF70" s="45"/>
+      <c r="WG70" s="45"/>
+      <c r="WH70" s="45"/>
+      <c r="WI70" s="45"/>
+      <c r="WJ70" s="45"/>
+      <c r="WK70" s="45"/>
+      <c r="WL70" s="45"/>
+      <c r="WM70" s="45"/>
+      <c r="WN70" s="45"/>
+      <c r="WO70" s="45"/>
+      <c r="WP70" s="45"/>
+      <c r="WQ70" s="45"/>
+      <c r="WR70" s="45"/>
+      <c r="WS70" s="45"/>
+      <c r="WT70" s="45"/>
+      <c r="WU70" s="45"/>
+      <c r="WV70" s="45"/>
+      <c r="WW70" s="45"/>
+      <c r="WX70" s="45"/>
+      <c r="WY70" s="45"/>
+      <c r="WZ70" s="45"/>
+      <c r="XA70" s="45"/>
+      <c r="XB70" s="45"/>
+      <c r="XC70" s="45"/>
+      <c r="XD70" s="45"/>
+      <c r="XE70" s="45"/>
+      <c r="XF70" s="45"/>
+      <c r="XG70" s="45"/>
+      <c r="XH70" s="45"/>
+      <c r="XI70" s="45"/>
+      <c r="XJ70" s="45"/>
+      <c r="XK70" s="45"/>
+      <c r="XL70" s="45"/>
+      <c r="XM70" s="45"/>
+      <c r="XN70" s="45"/>
+      <c r="XO70" s="45"/>
+      <c r="XP70" s="45"/>
+      <c r="XQ70" s="45"/>
+      <c r="XR70" s="45"/>
+      <c r="XS70" s="45"/>
+      <c r="XT70" s="45"/>
+      <c r="XU70" s="45"/>
+      <c r="XV70" s="45"/>
+      <c r="XW70" s="45"/>
+      <c r="XX70" s="45"/>
+      <c r="XY70" s="45"/>
+      <c r="XZ70" s="45"/>
+      <c r="YA70" s="45"/>
+      <c r="YB70" s="45"/>
+      <c r="YC70" s="45"/>
+      <c r="YD70" s="45"/>
+      <c r="YE70" s="45"/>
+      <c r="YF70" s="45"/>
+      <c r="YG70" s="45"/>
+      <c r="YH70" s="45"/>
+      <c r="YI70" s="45"/>
+      <c r="YJ70" s="45"/>
+      <c r="YK70" s="45"/>
+      <c r="YL70" s="45"/>
+      <c r="YM70" s="45"/>
+      <c r="YN70" s="45"/>
+      <c r="YO70" s="45"/>
+      <c r="YP70" s="45"/>
+      <c r="YQ70" s="45"/>
+      <c r="YR70" s="45"/>
+      <c r="YS70" s="45"/>
+      <c r="YT70" s="45"/>
+      <c r="YU70" s="45"/>
+      <c r="YV70" s="45"/>
+      <c r="YW70" s="45"/>
+      <c r="YX70" s="45"/>
+      <c r="YY70" s="45"/>
+      <c r="YZ70" s="45"/>
+      <c r="ZA70" s="45"/>
+      <c r="ZB70" s="45"/>
+      <c r="ZC70" s="45"/>
+      <c r="ZD70" s="45"/>
+      <c r="ZE70" s="45"/>
+      <c r="ZF70" s="45"/>
+      <c r="ZG70" s="45"/>
+      <c r="ZH70" s="45"/>
+      <c r="ZI70" s="45"/>
+      <c r="ZJ70" s="45"/>
+      <c r="ZK70" s="45"/>
+      <c r="ZL70" s="45"/>
+      <c r="ZM70" s="45"/>
+      <c r="ZN70" s="45"/>
+      <c r="ZO70" s="45"/>
+      <c r="ZP70" s="45"/>
+      <c r="ZQ70" s="45"/>
+      <c r="ZR70" s="45"/>
+      <c r="ZS70" s="45"/>
+      <c r="ZT70" s="45"/>
+      <c r="ZU70" s="45"/>
+      <c r="ZV70" s="45"/>
+      <c r="ZW70" s="45"/>
+      <c r="ZX70" s="45"/>
+      <c r="ZY70" s="45"/>
+      <c r="ZZ70" s="45"/>
+      <c r="AAA70" s="45"/>
+      <c r="AAB70" s="45"/>
+      <c r="AAC70" s="45"/>
+      <c r="AAD70" s="45"/>
+      <c r="AAE70" s="45"/>
+      <c r="AAF70" s="45"/>
+      <c r="AAG70" s="45"/>
+      <c r="AAH70" s="45"/>
+      <c r="AAI70" s="45"/>
+      <c r="AAJ70" s="45"/>
+      <c r="AAK70" s="45"/>
+      <c r="AAL70" s="45"/>
+      <c r="AAM70" s="45"/>
+      <c r="AAN70" s="45"/>
+      <c r="AAO70" s="45"/>
+      <c r="AAP70" s="45"/>
+      <c r="AAQ70" s="45"/>
+      <c r="AAR70" s="45"/>
+      <c r="AAS70" s="45"/>
+      <c r="AAT70" s="45"/>
+      <c r="AAU70" s="45"/>
+      <c r="AAV70" s="45"/>
+      <c r="AAW70" s="45"/>
+      <c r="AAX70" s="45"/>
+      <c r="AAY70" s="45"/>
+      <c r="AAZ70" s="45"/>
+      <c r="ABA70" s="45"/>
+      <c r="ABB70" s="45"/>
+      <c r="ABC70" s="45"/>
+      <c r="ABD70" s="45"/>
+      <c r="ABE70" s="45"/>
+      <c r="ABF70" s="45"/>
+      <c r="ABG70" s="45"/>
+      <c r="ABH70" s="45"/>
+      <c r="ABI70" s="45"/>
+      <c r="ABJ70" s="45"/>
+      <c r="ABK70" s="45"/>
+      <c r="ABL70" s="45"/>
+      <c r="ABM70" s="45"/>
+      <c r="ABN70" s="45"/>
+      <c r="ABO70" s="45"/>
+      <c r="ABP70" s="45"/>
+      <c r="ABQ70" s="45"/>
+      <c r="ABR70" s="45"/>
+      <c r="ABS70" s="45"/>
+      <c r="ABT70" s="45"/>
+      <c r="ABU70" s="45"/>
+      <c r="ABV70" s="45"/>
+      <c r="ABW70" s="45"/>
+      <c r="ABX70" s="45"/>
+      <c r="ABY70" s="45"/>
+      <c r="ABZ70" s="45"/>
+      <c r="ACA70" s="45"/>
+      <c r="ACB70" s="45"/>
+      <c r="ACC70" s="45"/>
+      <c r="ACD70" s="45"/>
+      <c r="ACE70" s="45"/>
+      <c r="ACF70" s="45"/>
+      <c r="ACG70" s="45"/>
+      <c r="ACH70" s="45"/>
+      <c r="ACI70" s="45"/>
+      <c r="ACJ70" s="45"/>
+      <c r="ACK70" s="45"/>
+      <c r="ACL70" s="45"/>
+      <c r="ACM70" s="45"/>
+      <c r="ACN70" s="45"/>
+      <c r="ACO70" s="45"/>
+      <c r="ACP70" s="45"/>
+      <c r="ACQ70" s="45"/>
+      <c r="ACR70" s="45"/>
+      <c r="ACS70" s="45"/>
+      <c r="ACT70" s="45"/>
+      <c r="ACU70" s="45"/>
+      <c r="ACV70" s="45"/>
+      <c r="ACW70" s="45"/>
+      <c r="ACX70" s="45"/>
+      <c r="ACY70" s="45"/>
+      <c r="ACZ70" s="45"/>
+      <c r="ADA70" s="45"/>
+      <c r="ADB70" s="45"/>
+      <c r="ADC70" s="45"/>
+      <c r="ADD70" s="45"/>
+      <c r="ADE70" s="45"/>
+      <c r="ADF70" s="45"/>
+      <c r="ADG70" s="45"/>
+      <c r="ADH70" s="45"/>
+      <c r="ADI70" s="45"/>
+      <c r="ADJ70" s="45"/>
+      <c r="ADK70" s="45"/>
+      <c r="ADL70" s="45"/>
+      <c r="ADM70" s="45"/>
+      <c r="ADN70" s="45"/>
+      <c r="ADO70" s="45"/>
+      <c r="ADP70" s="45"/>
+      <c r="ADQ70" s="45"/>
+      <c r="ADR70" s="45"/>
+      <c r="ADS70" s="45"/>
+      <c r="ADT70" s="45"/>
+      <c r="ADU70" s="45"/>
+      <c r="ADV70" s="45"/>
+      <c r="ADW70" s="45"/>
+      <c r="ADX70" s="45"/>
+      <c r="ADY70" s="45"/>
+      <c r="ADZ70" s="45"/>
+      <c r="AEA70" s="45"/>
+      <c r="AEB70" s="45"/>
+      <c r="AEC70" s="45"/>
+      <c r="AED70" s="45"/>
+      <c r="AEE70" s="45"/>
+      <c r="AEF70" s="45"/>
+      <c r="AEG70" s="45"/>
+      <c r="AEH70" s="45"/>
+      <c r="AEI70" s="45"/>
+      <c r="AEJ70" s="45"/>
+      <c r="AEK70" s="45"/>
+      <c r="AEL70" s="45"/>
+      <c r="AEM70" s="45"/>
+      <c r="AEN70" s="45"/>
+      <c r="AEO70" s="45"/>
+      <c r="AEP70" s="45"/>
+      <c r="AEQ70" s="45"/>
+      <c r="AER70" s="45"/>
+      <c r="AES70" s="45"/>
+      <c r="AET70" s="45"/>
+      <c r="AEU70" s="45"/>
+      <c r="AEV70" s="45"/>
+      <c r="AEW70" s="45"/>
+      <c r="AEX70" s="45"/>
+      <c r="AEY70" s="45"/>
+      <c r="AEZ70" s="45"/>
+      <c r="AFA70" s="45"/>
+      <c r="AFB70" s="45"/>
+      <c r="AFC70" s="45"/>
+      <c r="AFD70" s="45"/>
+      <c r="AFE70" s="45"/>
+      <c r="AFF70" s="45"/>
+      <c r="AFG70" s="45"/>
+      <c r="AFH70" s="45"/>
+      <c r="AFI70" s="45"/>
+      <c r="AFJ70" s="45"/>
+      <c r="AFK70" s="45"/>
+      <c r="AFL70" s="45"/>
+      <c r="AFM70" s="45"/>
+      <c r="AFN70" s="45"/>
+      <c r="AFO70" s="45"/>
+      <c r="AFP70" s="45"/>
+      <c r="AFQ70" s="45"/>
+      <c r="AFR70" s="45"/>
+      <c r="AFS70" s="45"/>
+      <c r="AFT70" s="45"/>
+      <c r="AFU70" s="45"/>
+      <c r="AFV70" s="45"/>
+      <c r="AFW70" s="45"/>
+      <c r="AFX70" s="45"/>
+      <c r="AFY70" s="45"/>
+      <c r="AFZ70" s="45"/>
+      <c r="AGA70" s="45"/>
+      <c r="AGB70" s="45"/>
+      <c r="AGC70" s="45"/>
+      <c r="AGD70" s="45"/>
+      <c r="AGE70" s="45"/>
+      <c r="AGF70" s="45"/>
+      <c r="AGG70" s="45"/>
+      <c r="AGH70" s="45"/>
+      <c r="AGI70" s="45"/>
+      <c r="AGJ70" s="45"/>
+      <c r="AGK70" s="45"/>
+      <c r="AGL70" s="45"/>
+      <c r="AGM70" s="45"/>
+      <c r="AGN70" s="45"/>
+      <c r="AGO70" s="45"/>
+      <c r="AGP70" s="45"/>
+      <c r="AGQ70" s="45"/>
+      <c r="AGR70" s="45"/>
+      <c r="AGS70" s="45"/>
+      <c r="AGT70" s="45"/>
+      <c r="AGU70" s="45"/>
+      <c r="AGV70" s="45"/>
+      <c r="AGW70" s="45"/>
+      <c r="AGX70" s="45"/>
+      <c r="AGY70" s="45"/>
+      <c r="AGZ70" s="45"/>
+      <c r="AHA70" s="45"/>
+      <c r="AHB70" s="45"/>
+      <c r="AHC70" s="45"/>
+      <c r="AHD70" s="45"/>
+      <c r="AHE70" s="45"/>
+      <c r="AHF70" s="45"/>
+      <c r="AHG70" s="45"/>
+      <c r="AHH70" s="45"/>
+      <c r="AHI70" s="45"/>
+      <c r="AHJ70" s="45"/>
+      <c r="AHK70" s="45"/>
+      <c r="AHL70" s="45"/>
+      <c r="AHM70" s="45"/>
+      <c r="AHN70" s="45"/>
+      <c r="AHO70" s="45"/>
+      <c r="AHP70" s="45"/>
+      <c r="AHQ70" s="45"/>
+      <c r="AHR70" s="45"/>
+      <c r="AHS70" s="45"/>
+      <c r="AHT70" s="45"/>
+      <c r="AHU70" s="45"/>
+      <c r="AHV70" s="45"/>
+      <c r="AHW70" s="45"/>
+      <c r="AHX70" s="45"/>
+      <c r="AHY70" s="45"/>
+      <c r="AHZ70" s="45"/>
+      <c r="AIA70" s="45"/>
+      <c r="AIB70" s="45"/>
+      <c r="AIC70" s="45"/>
+      <c r="AID70" s="45"/>
+      <c r="AIE70" s="45"/>
+      <c r="AIF70" s="45"/>
+      <c r="AIG70" s="45"/>
+      <c r="AIH70" s="45"/>
+      <c r="AII70" s="45"/>
+      <c r="AIJ70" s="45"/>
+      <c r="AIK70" s="45"/>
+      <c r="AIL70" s="45"/>
+      <c r="AIM70" s="45"/>
+      <c r="AIN70" s="45"/>
+      <c r="AIO70" s="45"/>
+      <c r="AIP70" s="45"/>
+      <c r="AIQ70" s="45"/>
+      <c r="AIR70" s="45"/>
+      <c r="AIS70" s="45"/>
+      <c r="AIT70" s="45"/>
+      <c r="AIU70" s="45"/>
+      <c r="AIV70" s="45"/>
+      <c r="AIW70" s="45"/>
+      <c r="AIX70" s="45"/>
+      <c r="AIY70" s="45"/>
+      <c r="AIZ70" s="45"/>
+      <c r="AJA70" s="45"/>
+      <c r="AJB70" s="45"/>
+      <c r="AJC70" s="45"/>
+      <c r="AJD70" s="45"/>
+      <c r="AJE70" s="45"/>
+      <c r="AJF70" s="45"/>
+      <c r="AJG70" s="45"/>
+      <c r="AJH70" s="45"/>
+      <c r="AJI70" s="45"/>
+      <c r="AJJ70" s="45"/>
+      <c r="AJK70" s="45"/>
+      <c r="AJL70" s="45"/>
+      <c r="AJM70" s="45"/>
+      <c r="AJN70" s="45"/>
+      <c r="AJO70" s="45"/>
+      <c r="AJP70" s="45"/>
+      <c r="AJQ70" s="45"/>
+      <c r="AJR70" s="45"/>
+      <c r="AJS70" s="45"/>
+      <c r="AJT70" s="45"/>
+      <c r="AJU70" s="45"/>
+      <c r="AJV70" s="45"/>
+      <c r="AJW70" s="45"/>
+      <c r="AJX70" s="45"/>
+      <c r="AJY70" s="45"/>
+      <c r="AJZ70" s="45"/>
+      <c r="AKA70" s="45"/>
+      <c r="AKB70" s="45"/>
+      <c r="AKC70" s="45"/>
+      <c r="AKD70" s="45"/>
+      <c r="AKE70" s="45"/>
+      <c r="AKF70" s="45"/>
+      <c r="AKG70" s="45"/>
+      <c r="AKH70" s="45"/>
+      <c r="AKI70" s="45"/>
+      <c r="AKJ70" s="45"/>
+      <c r="AKK70" s="45"/>
+      <c r="AKL70" s="45"/>
+      <c r="AKM70" s="45"/>
+      <c r="AKN70" s="45"/>
+      <c r="AKO70" s="45"/>
+      <c r="AKP70" s="45"/>
+      <c r="AKQ70" s="45"/>
+      <c r="AKR70" s="45"/>
+      <c r="AKS70" s="45"/>
+      <c r="AKT70" s="45"/>
+      <c r="AKU70" s="45"/>
+      <c r="AKV70" s="45"/>
+      <c r="AKW70" s="45"/>
+      <c r="AKX70" s="45"/>
+      <c r="AKY70" s="45"/>
+      <c r="AKZ70" s="45"/>
+      <c r="ALA70" s="45"/>
+      <c r="ALB70" s="45"/>
+      <c r="ALC70" s="45"/>
+      <c r="ALD70" s="45"/>
+      <c r="ALE70" s="45"/>
+      <c r="ALF70" s="45"/>
+      <c r="ALG70" s="45"/>
+      <c r="ALH70" s="45"/>
+      <c r="ALI70" s="45"/>
+      <c r="ALJ70" s="45"/>
+      <c r="ALK70" s="45"/>
+      <c r="ALL70" s="45"/>
+      <c r="ALM70" s="45"/>
+      <c r="ALN70" s="45"/>
+      <c r="ALO70" s="45"/>
+      <c r="ALP70" s="45"/>
+      <c r="ALQ70" s="45"/>
+      <c r="ALR70" s="45"/>
+      <c r="ALS70" s="45"/>
+      <c r="ALT70" s="45"/>
+      <c r="ALU70" s="45"/>
+      <c r="ALV70" s="45"/>
+      <c r="ALW70" s="45"/>
+      <c r="ALX70" s="45"/>
+      <c r="ALY70" s="45"/>
+      <c r="ALZ70" s="45"/>
+      <c r="AMA70" s="45"/>
+      <c r="AMB70" s="45"/>
+      <c r="AMC70" s="45"/>
+      <c r="AMD70" s="45"/>
+      <c r="AME70" s="45"/>
+      <c r="AMF70" s="45"/>
+      <c r="AMG70" s="45"/>
+      <c r="AMH70" s="45"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="9">
+        <v>0.9940074</v>
+      </c>
+      <c r="D71" s="9">
+        <v>0.9631354</v>
+      </c>
+      <c r="E71" s="9">
+        <v>0.9951506</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0.9668159</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0.9676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="9">
+        <v>0.9947298</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0.9635241</v>
+      </c>
+      <c r="E72" s="9">
+        <v>0.9970105</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0.9671041</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0.96859</v>
+      </c>
+      <c r="H72" s="53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="9">
+        <v>0.995564</v>
+      </c>
+      <c r="D73" s="9">
+        <v>0.9686082</v>
+      </c>
+      <c r="E73" s="9">
+        <v>0.9962035</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0.9685502</v>
+      </c>
+      <c r="G73" s="11">
+        <v>0.9684</v>
+      </c>
+      <c r="H73" s="53" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A32:G32"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <r>
       <rPr>
@@ -1225,11 +1225,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>several_1</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1247,6 +1253,33 @@
   <si>
     <t>313</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0.96859 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础上添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> doc2vec, 
+size=100,window=2,min_count=2</t>
+    </r>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
 </sst>
 </file>
 
@@ -1254,9 +1287,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1279,12 +1312,17 @@
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="DejaVu Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1295,9 +1333,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,41 +1348,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1356,31 +1362,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1400,6 +1391,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1408,17 +1415,41 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1430,17 +1461,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1467,12 +1505,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1517,13 +1551,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,37 +1623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,31 +1641,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,85 +1731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,52 +1751,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,15 +1784,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1808,147 +1798,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2111,13 +2151,28 @@
     <xf numFmtId="177" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -2438,10 +2493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH76"/>
+  <dimension ref="A1:AMH80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -7756,7 +7811,7 @@
       <c r="AMH13" s="46"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="62" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -17992,7 +18047,7 @@
       <c r="G72" s="34">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="54" t="s">
+      <c r="H72" s="58" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="45"/>
@@ -19032,7 +19087,7 @@
       <c r="G73" s="11">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="55" t="s">
+      <c r="H73" s="59" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19080,7 +19135,7 @@
       </c>
     </row>
     <row r="76" ht="21" spans="1:7">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -19089,17 +19144,63 @@
       <c r="C76" s="9">
         <v>0.995618</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="19">
         <v>0.9638269</v>
       </c>
       <c r="E76" s="9">
         <v>0.995334</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="19">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="56">
+      <c r="G76" s="60">
         <v>0.9682</v>
+      </c>
+    </row>
+    <row r="78" ht="21" spans="1:7">
+      <c r="A78" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="56">
+        <v>0.9962574</v>
+      </c>
+      <c r="D78" s="56">
+        <v>0.9633916</v>
+      </c>
+      <c r="E78" s="56">
+        <v>0.9963877</v>
+      </c>
+      <c r="F78" s="56">
+        <v>0.9666471</v>
+      </c>
+      <c r="G78" s="61">
+        <v>0.9678</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="19">
+        <v>0.9947298</v>
+      </c>
+      <c r="D80" s="19">
+        <v>0.9635241</v>
+      </c>
+      <c r="E80" s="19">
+        <v>0.9970105</v>
+      </c>
+      <c r="F80" s="19">
+        <v>0.9671041</v>
+      </c>
+      <c r="G80" s="34">
+        <v>0.96859</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <r>
       <rPr>
@@ -1280,6 +1280,12 @@
   <si>
     <t>baseline</t>
   </si>
+  <si>
+    <t>feature_percentile = 0.95</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
 </sst>
 </file>
 
@@ -2493,10 +2499,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH80"/>
+  <dimension ref="A1:AMH81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -19203,6 +19209,29 @@
         <v>0.96859</v>
       </c>
     </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="9">
+        <v>0.9949835</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0.9636112</v>
+      </c>
+      <c r="E81" s="9">
+        <v>0.9953615</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0.9671736</v>
+      </c>
+      <c r="G81" s="11">
+        <v>0.96869</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A32:G32"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <r>
       <rPr>
@@ -1224,58 +1224,24 @@
     <t>325</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>several_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2days_had_action
+    <t>several_1，2days_had_action
 several_1days_had_action_lg_150</t>
-    </r>
   </si>
   <si>
     <t>313</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">0.96859 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <charset val="134"/>
-      </rPr>
-      <t>基础上添加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> doc2vec, 
+    <t>0.96859 基础上添加 doc2vec, 
 size=100,window=2,min_count=2</t>
-    </r>
   </si>
   <si>
     <t>410</t>
+  </si>
+  <si>
+    <t>保留所有特征的 baseline</t>
+  </si>
+  <si>
+    <t>320</t>
   </si>
   <si>
     <t>baseline</t>
@@ -1285,6 +1251,44 @@
   </si>
   <si>
     <t>285</t>
+  </si>
+  <si>
+    <r>
+      <t>去掉一些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>importance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的特征</t>
+    </r>
+  </si>
+  <si>
+    <t>306</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +1998,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2164,6 +2168,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2499,10 +2506,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH81"/>
+  <dimension ref="A1:AMH82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -7817,7 +7824,7 @@
       <c r="AMH13" s="46"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="63" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -18053,7 +18060,7 @@
       <c r="G72" s="34">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="58" t="s">
+      <c r="H72" s="59" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="45"/>
@@ -19093,7 +19100,7 @@
       <c r="G73" s="11">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="59" t="s">
+      <c r="H73" s="60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19159,7 +19166,7 @@
       <c r="F76" s="19">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="60">
+      <c r="G76" s="61">
         <v>0.9682</v>
       </c>
     </row>
@@ -19182,13 +19189,36 @@
       <c r="F78" s="56">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="61">
+      <c r="G78" s="62">
         <v>0.9678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="9">
+        <v>0.9942723</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0.9633743</v>
+      </c>
+      <c r="E79" s="9">
+        <v>0.9959016</v>
+      </c>
+      <c r="F79" s="10">
+        <v>0.9673051</v>
+      </c>
+      <c r="G79" s="11">
+        <v>0.9686</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="57" t="s">
-        <v>136</v>
+      <c r="A80" s="58" t="s">
+        <v>138</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>124</v>
@@ -19211,10 +19241,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C81" s="9">
         <v>0.9949835</v>
@@ -19230,6 +19260,29 @@
       </c>
       <c r="G81" s="11">
         <v>0.96869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="9">
+        <v>0.9957208</v>
+      </c>
+      <c r="D82" s="19">
+        <v>0.9638203</v>
+      </c>
+      <c r="E82" s="9">
+        <v>0.9953826</v>
+      </c>
+      <c r="F82" s="19">
+        <v>0.9672074</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0.9684</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -2549,7 +2549,7 @@
   <sheetPr/>
   <dimension ref="A1:AMH84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -1056,11 +1056,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>去掉</t>
     </r>
     <r>
@@ -1341,6 +1336,10 @@
     </font>
     <font>
       <sz val="8"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -1349,10 +1348,6 @@
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="DejaVu Sans Mono"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2024,7 +2019,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2178,7 +2173,10 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2187,7 +2185,7 @@
     <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2199,7 +2197,7 @@
     <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2549,8 +2547,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -7865,7 +7863,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -16909,7 +16907,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="51" t="s">
         <v>110</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -18101,7 +18099,7 @@
       <c r="G72" s="35">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="61" t="s">
+      <c r="H72" s="62" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="46"/>
@@ -19120,28 +19118,28 @@
       <c r="AMH72" s="46"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="51" t="s">
+      <c r="A73" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="53">
+      <c r="C73" s="54">
         <v>0.995564</v>
       </c>
-      <c r="D73" s="54">
+      <c r="D73" s="55">
         <v>0.9686082</v>
       </c>
-      <c r="E73" s="53">
+      <c r="E73" s="54">
         <v>0.9962035</v>
       </c>
-      <c r="F73" s="54">
+      <c r="F73" s="55">
         <v>0.9685502</v>
       </c>
       <c r="G73" s="12">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="62" t="s">
+      <c r="H73" s="63" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19207,30 +19205,30 @@
       <c r="F76" s="20">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="63">
+      <c r="G76" s="64">
         <v>0.9682</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:7">
-      <c r="A78" s="55" t="s">
+      <c r="A78" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="C78" s="57">
+      <c r="C78" s="58">
         <v>0.9962574</v>
       </c>
-      <c r="D78" s="57">
+      <c r="D78" s="58">
         <v>0.9633916</v>
       </c>
-      <c r="E78" s="57">
+      <c r="E78" s="58">
         <v>0.9963877</v>
       </c>
-      <c r="F78" s="57">
+      <c r="F78" s="58">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="64">
+      <c r="G78" s="65">
         <v>0.9678</v>
       </c>
     </row>
@@ -19327,1042 +19325,1042 @@
       </c>
     </row>
     <row r="84" s="9" customFormat="1" spans="1:1022">
-      <c r="A84" s="58" t="s">
+      <c r="A84" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="59" t="s">
+      <c r="B84" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="60">
+      <c r="C84" s="61">
         <v>0.9942723</v>
       </c>
-      <c r="D84" s="60">
+      <c r="D84" s="61">
         <v>0.9633743</v>
       </c>
-      <c r="E84" s="60">
+      <c r="E84" s="61">
         <v>0.9959016</v>
       </c>
-      <c r="F84" s="60">
+      <c r="F84" s="61">
         <v>0.9673051</v>
       </c>
-      <c r="G84" s="65">
+      <c r="G84" s="66">
         <v>0.9686</v>
       </c>
-      <c r="H84" s="66"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
-      <c r="O84" s="67"/>
-      <c r="P84" s="67"/>
-      <c r="Q84" s="67"/>
-      <c r="R84" s="67"/>
-      <c r="S84" s="67"/>
-      <c r="T84" s="67"/>
-      <c r="U84" s="67"/>
-      <c r="V84" s="67"/>
-      <c r="W84" s="67"/>
-      <c r="X84" s="67"/>
-      <c r="Y84" s="67"/>
-      <c r="Z84" s="67"/>
-      <c r="AA84" s="67"/>
-      <c r="AB84" s="67"/>
-      <c r="AC84" s="67"/>
-      <c r="AD84" s="67"/>
-      <c r="AE84" s="67"/>
-      <c r="AF84" s="67"/>
-      <c r="AG84" s="67"/>
-      <c r="AH84" s="67"/>
-      <c r="AI84" s="67"/>
-      <c r="AJ84" s="67"/>
-      <c r="AK84" s="67"/>
-      <c r="AL84" s="67"/>
-      <c r="AM84" s="67"/>
-      <c r="AN84" s="67"/>
-      <c r="AO84" s="67"/>
-      <c r="AP84" s="67"/>
-      <c r="AQ84" s="67"/>
-      <c r="AR84" s="67"/>
-      <c r="AS84" s="67"/>
-      <c r="AT84" s="67"/>
-      <c r="AU84" s="67"/>
-      <c r="AV84" s="67"/>
-      <c r="AW84" s="67"/>
-      <c r="AX84" s="67"/>
-      <c r="AY84" s="67"/>
-      <c r="AZ84" s="67"/>
-      <c r="BA84" s="67"/>
-      <c r="BB84" s="67"/>
-      <c r="BC84" s="67"/>
-      <c r="BD84" s="67"/>
-      <c r="BE84" s="67"/>
-      <c r="BF84" s="67"/>
-      <c r="BG84" s="67"/>
-      <c r="BH84" s="67"/>
-      <c r="BI84" s="67"/>
-      <c r="BJ84" s="67"/>
-      <c r="BK84" s="67"/>
-      <c r="BL84" s="67"/>
-      <c r="BM84" s="67"/>
-      <c r="BN84" s="67"/>
-      <c r="BO84" s="67"/>
-      <c r="BP84" s="67"/>
-      <c r="BQ84" s="67"/>
-      <c r="BR84" s="67"/>
-      <c r="BS84" s="67"/>
-      <c r="BT84" s="67"/>
-      <c r="BU84" s="67"/>
-      <c r="BV84" s="67"/>
-      <c r="BW84" s="67"/>
-      <c r="BX84" s="67"/>
-      <c r="BY84" s="67"/>
-      <c r="BZ84" s="67"/>
-      <c r="CA84" s="67"/>
-      <c r="CB84" s="67"/>
-      <c r="CC84" s="67"/>
-      <c r="CD84" s="67"/>
-      <c r="CE84" s="67"/>
-      <c r="CF84" s="67"/>
-      <c r="CG84" s="67"/>
-      <c r="CH84" s="67"/>
-      <c r="CI84" s="67"/>
-      <c r="CJ84" s="67"/>
-      <c r="CK84" s="67"/>
-      <c r="CL84" s="67"/>
-      <c r="CM84" s="67"/>
-      <c r="CN84" s="67"/>
-      <c r="CO84" s="67"/>
-      <c r="CP84" s="67"/>
-      <c r="CQ84" s="67"/>
-      <c r="CR84" s="67"/>
-      <c r="CS84" s="67"/>
-      <c r="CT84" s="67"/>
-      <c r="CU84" s="67"/>
-      <c r="CV84" s="67"/>
-      <c r="CW84" s="67"/>
-      <c r="CX84" s="67"/>
-      <c r="CY84" s="67"/>
-      <c r="CZ84" s="67"/>
-      <c r="DA84" s="67"/>
-      <c r="DB84" s="67"/>
-      <c r="DC84" s="67"/>
-      <c r="DD84" s="67"/>
-      <c r="DE84" s="67"/>
-      <c r="DF84" s="67"/>
-      <c r="DG84" s="67"/>
-      <c r="DH84" s="67"/>
-      <c r="DI84" s="67"/>
-      <c r="DJ84" s="67"/>
-      <c r="DK84" s="67"/>
-      <c r="DL84" s="67"/>
-      <c r="DM84" s="67"/>
-      <c r="DN84" s="67"/>
-      <c r="DO84" s="67"/>
-      <c r="DP84" s="67"/>
-      <c r="DQ84" s="67"/>
-      <c r="DR84" s="67"/>
-      <c r="DS84" s="67"/>
-      <c r="DT84" s="67"/>
-      <c r="DU84" s="67"/>
-      <c r="DV84" s="67"/>
-      <c r="DW84" s="67"/>
-      <c r="DX84" s="67"/>
-      <c r="DY84" s="67"/>
-      <c r="DZ84" s="67"/>
-      <c r="EA84" s="67"/>
-      <c r="EB84" s="67"/>
-      <c r="EC84" s="67"/>
-      <c r="ED84" s="67"/>
-      <c r="EE84" s="67"/>
-      <c r="EF84" s="67"/>
-      <c r="EG84" s="67"/>
-      <c r="EH84" s="67"/>
-      <c r="EI84" s="67"/>
-      <c r="EJ84" s="67"/>
-      <c r="EK84" s="67"/>
-      <c r="EL84" s="67"/>
-      <c r="EM84" s="67"/>
-      <c r="EN84" s="67"/>
-      <c r="EO84" s="67"/>
-      <c r="EP84" s="67"/>
-      <c r="EQ84" s="67"/>
-      <c r="ER84" s="67"/>
-      <c r="ES84" s="67"/>
-      <c r="ET84" s="67"/>
-      <c r="EU84" s="67"/>
-      <c r="EV84" s="67"/>
-      <c r="EW84" s="67"/>
-      <c r="EX84" s="67"/>
-      <c r="EY84" s="67"/>
-      <c r="EZ84" s="67"/>
-      <c r="FA84" s="67"/>
-      <c r="FB84" s="67"/>
-      <c r="FC84" s="67"/>
-      <c r="FD84" s="67"/>
-      <c r="FE84" s="67"/>
-      <c r="FF84" s="67"/>
-      <c r="FG84" s="67"/>
-      <c r="FH84" s="67"/>
-      <c r="FI84" s="67"/>
-      <c r="FJ84" s="67"/>
-      <c r="FK84" s="67"/>
-      <c r="FL84" s="67"/>
-      <c r="FM84" s="67"/>
-      <c r="FN84" s="67"/>
-      <c r="FO84" s="67"/>
-      <c r="FP84" s="67"/>
-      <c r="FQ84" s="67"/>
-      <c r="FR84" s="67"/>
-      <c r="FS84" s="67"/>
-      <c r="FT84" s="67"/>
-      <c r="FU84" s="67"/>
-      <c r="FV84" s="67"/>
-      <c r="FW84" s="67"/>
-      <c r="FX84" s="67"/>
-      <c r="FY84" s="67"/>
-      <c r="FZ84" s="67"/>
-      <c r="GA84" s="67"/>
-      <c r="GB84" s="67"/>
-      <c r="GC84" s="67"/>
-      <c r="GD84" s="67"/>
-      <c r="GE84" s="67"/>
-      <c r="GF84" s="67"/>
-      <c r="GG84" s="67"/>
-      <c r="GH84" s="67"/>
-      <c r="GI84" s="67"/>
-      <c r="GJ84" s="67"/>
-      <c r="GK84" s="67"/>
-      <c r="GL84" s="67"/>
-      <c r="GM84" s="67"/>
-      <c r="GN84" s="67"/>
-      <c r="GO84" s="67"/>
-      <c r="GP84" s="67"/>
-      <c r="GQ84" s="67"/>
-      <c r="GR84" s="67"/>
-      <c r="GS84" s="67"/>
-      <c r="GT84" s="67"/>
-      <c r="GU84" s="67"/>
-      <c r="GV84" s="67"/>
-      <c r="GW84" s="67"/>
-      <c r="GX84" s="67"/>
-      <c r="GY84" s="67"/>
-      <c r="GZ84" s="67"/>
-      <c r="HA84" s="67"/>
-      <c r="HB84" s="67"/>
-      <c r="HC84" s="67"/>
-      <c r="HD84" s="67"/>
-      <c r="HE84" s="67"/>
-      <c r="HF84" s="67"/>
-      <c r="HG84" s="67"/>
-      <c r="HH84" s="67"/>
-      <c r="HI84" s="67"/>
-      <c r="HJ84" s="67"/>
-      <c r="HK84" s="67"/>
-      <c r="HL84" s="67"/>
-      <c r="HM84" s="67"/>
-      <c r="HN84" s="67"/>
-      <c r="HO84" s="67"/>
-      <c r="HP84" s="67"/>
-      <c r="HQ84" s="67"/>
-      <c r="HR84" s="67"/>
-      <c r="HS84" s="67"/>
-      <c r="HT84" s="67"/>
-      <c r="HU84" s="67"/>
-      <c r="HV84" s="67"/>
-      <c r="HW84" s="67"/>
-      <c r="HX84" s="67"/>
-      <c r="HY84" s="67"/>
-      <c r="HZ84" s="67"/>
-      <c r="IA84" s="67"/>
-      <c r="IB84" s="67"/>
-      <c r="IC84" s="67"/>
-      <c r="ID84" s="67"/>
-      <c r="IE84" s="67"/>
-      <c r="IF84" s="67"/>
-      <c r="IG84" s="67"/>
-      <c r="IH84" s="67"/>
-      <c r="II84" s="67"/>
-      <c r="IJ84" s="67"/>
-      <c r="IK84" s="67"/>
-      <c r="IL84" s="67"/>
-      <c r="IM84" s="67"/>
-      <c r="IN84" s="67"/>
-      <c r="IO84" s="67"/>
-      <c r="IP84" s="67"/>
-      <c r="IQ84" s="67"/>
-      <c r="IR84" s="67"/>
-      <c r="IS84" s="67"/>
-      <c r="IT84" s="67"/>
-      <c r="IU84" s="67"/>
-      <c r="IV84" s="67"/>
-      <c r="IW84" s="67"/>
-      <c r="IX84" s="67"/>
-      <c r="IY84" s="67"/>
-      <c r="IZ84" s="67"/>
-      <c r="JA84" s="67"/>
-      <c r="JB84" s="67"/>
-      <c r="JC84" s="67"/>
-      <c r="JD84" s="67"/>
-      <c r="JE84" s="67"/>
-      <c r="JF84" s="67"/>
-      <c r="JG84" s="67"/>
-      <c r="JH84" s="67"/>
-      <c r="JI84" s="67"/>
-      <c r="JJ84" s="67"/>
-      <c r="JK84" s="67"/>
-      <c r="JL84" s="67"/>
-      <c r="JM84" s="67"/>
-      <c r="JN84" s="67"/>
-      <c r="JO84" s="67"/>
-      <c r="JP84" s="67"/>
-      <c r="JQ84" s="67"/>
-      <c r="JR84" s="67"/>
-      <c r="JS84" s="67"/>
-      <c r="JT84" s="67"/>
-      <c r="JU84" s="67"/>
-      <c r="JV84" s="67"/>
-      <c r="JW84" s="67"/>
-      <c r="JX84" s="67"/>
-      <c r="JY84" s="67"/>
-      <c r="JZ84" s="67"/>
-      <c r="KA84" s="67"/>
-      <c r="KB84" s="67"/>
-      <c r="KC84" s="67"/>
-      <c r="KD84" s="67"/>
-      <c r="KE84" s="67"/>
-      <c r="KF84" s="67"/>
-      <c r="KG84" s="67"/>
-      <c r="KH84" s="67"/>
-      <c r="KI84" s="67"/>
-      <c r="KJ84" s="67"/>
-      <c r="KK84" s="67"/>
-      <c r="KL84" s="67"/>
-      <c r="KM84" s="67"/>
-      <c r="KN84" s="67"/>
-      <c r="KO84" s="67"/>
-      <c r="KP84" s="67"/>
-      <c r="KQ84" s="67"/>
-      <c r="KR84" s="67"/>
-      <c r="KS84" s="67"/>
-      <c r="KT84" s="67"/>
-      <c r="KU84" s="67"/>
-      <c r="KV84" s="67"/>
-      <c r="KW84" s="67"/>
-      <c r="KX84" s="67"/>
-      <c r="KY84" s="67"/>
-      <c r="KZ84" s="67"/>
-      <c r="LA84" s="67"/>
-      <c r="LB84" s="67"/>
-      <c r="LC84" s="67"/>
-      <c r="LD84" s="67"/>
-      <c r="LE84" s="67"/>
-      <c r="LF84" s="67"/>
-      <c r="LG84" s="67"/>
-      <c r="LH84" s="67"/>
-      <c r="LI84" s="67"/>
-      <c r="LJ84" s="67"/>
-      <c r="LK84" s="67"/>
-      <c r="LL84" s="67"/>
-      <c r="LM84" s="67"/>
-      <c r="LN84" s="67"/>
-      <c r="LO84" s="67"/>
-      <c r="LP84" s="67"/>
-      <c r="LQ84" s="67"/>
-      <c r="LR84" s="67"/>
-      <c r="LS84" s="67"/>
-      <c r="LT84" s="67"/>
-      <c r="LU84" s="67"/>
-      <c r="LV84" s="67"/>
-      <c r="LW84" s="67"/>
-      <c r="LX84" s="67"/>
-      <c r="LY84" s="67"/>
-      <c r="LZ84" s="67"/>
-      <c r="MA84" s="67"/>
-      <c r="MB84" s="67"/>
-      <c r="MC84" s="67"/>
-      <c r="MD84" s="67"/>
-      <c r="ME84" s="67"/>
-      <c r="MF84" s="67"/>
-      <c r="MG84" s="67"/>
-      <c r="MH84" s="67"/>
-      <c r="MI84" s="67"/>
-      <c r="MJ84" s="67"/>
-      <c r="MK84" s="67"/>
-      <c r="ML84" s="67"/>
-      <c r="MM84" s="67"/>
-      <c r="MN84" s="67"/>
-      <c r="MO84" s="67"/>
-      <c r="MP84" s="67"/>
-      <c r="MQ84" s="67"/>
-      <c r="MR84" s="67"/>
-      <c r="MS84" s="67"/>
-      <c r="MT84" s="67"/>
-      <c r="MU84" s="67"/>
-      <c r="MV84" s="67"/>
-      <c r="MW84" s="67"/>
-      <c r="MX84" s="67"/>
-      <c r="MY84" s="67"/>
-      <c r="MZ84" s="67"/>
-      <c r="NA84" s="67"/>
-      <c r="NB84" s="67"/>
-      <c r="NC84" s="67"/>
-      <c r="ND84" s="67"/>
-      <c r="NE84" s="67"/>
-      <c r="NF84" s="67"/>
-      <c r="NG84" s="67"/>
-      <c r="NH84" s="67"/>
-      <c r="NI84" s="67"/>
-      <c r="NJ84" s="67"/>
-      <c r="NK84" s="67"/>
-      <c r="NL84" s="67"/>
-      <c r="NM84" s="67"/>
-      <c r="NN84" s="67"/>
-      <c r="NO84" s="67"/>
-      <c r="NP84" s="67"/>
-      <c r="NQ84" s="67"/>
-      <c r="NR84" s="67"/>
-      <c r="NS84" s="67"/>
-      <c r="NT84" s="67"/>
-      <c r="NU84" s="67"/>
-      <c r="NV84" s="67"/>
-      <c r="NW84" s="67"/>
-      <c r="NX84" s="67"/>
-      <c r="NY84" s="67"/>
-      <c r="NZ84" s="67"/>
-      <c r="OA84" s="67"/>
-      <c r="OB84" s="67"/>
-      <c r="OC84" s="67"/>
-      <c r="OD84" s="67"/>
-      <c r="OE84" s="67"/>
-      <c r="OF84" s="67"/>
-      <c r="OG84" s="67"/>
-      <c r="OH84" s="67"/>
-      <c r="OI84" s="67"/>
-      <c r="OJ84" s="67"/>
-      <c r="OK84" s="67"/>
-      <c r="OL84" s="67"/>
-      <c r="OM84" s="67"/>
-      <c r="ON84" s="67"/>
-      <c r="OO84" s="67"/>
-      <c r="OP84" s="67"/>
-      <c r="OQ84" s="67"/>
-      <c r="OR84" s="67"/>
-      <c r="OS84" s="67"/>
-      <c r="OT84" s="67"/>
-      <c r="OU84" s="67"/>
-      <c r="OV84" s="67"/>
-      <c r="OW84" s="67"/>
-      <c r="OX84" s="67"/>
-      <c r="OY84" s="67"/>
-      <c r="OZ84" s="67"/>
-      <c r="PA84" s="67"/>
-      <c r="PB84" s="67"/>
-      <c r="PC84" s="67"/>
-      <c r="PD84" s="67"/>
-      <c r="PE84" s="67"/>
-      <c r="PF84" s="67"/>
-      <c r="PG84" s="67"/>
-      <c r="PH84" s="67"/>
-      <c r="PI84" s="67"/>
-      <c r="PJ84" s="67"/>
-      <c r="PK84" s="67"/>
-      <c r="PL84" s="67"/>
-      <c r="PM84" s="67"/>
-      <c r="PN84" s="67"/>
-      <c r="PO84" s="67"/>
-      <c r="PP84" s="67"/>
-      <c r="PQ84" s="67"/>
-      <c r="PR84" s="67"/>
-      <c r="PS84" s="67"/>
-      <c r="PT84" s="67"/>
-      <c r="PU84" s="67"/>
-      <c r="PV84" s="67"/>
-      <c r="PW84" s="67"/>
-      <c r="PX84" s="67"/>
-      <c r="PY84" s="67"/>
-      <c r="PZ84" s="67"/>
-      <c r="QA84" s="67"/>
-      <c r="QB84" s="67"/>
-      <c r="QC84" s="67"/>
-      <c r="QD84" s="67"/>
-      <c r="QE84" s="67"/>
-      <c r="QF84" s="67"/>
-      <c r="QG84" s="67"/>
-      <c r="QH84" s="67"/>
-      <c r="QI84" s="67"/>
-      <c r="QJ84" s="67"/>
-      <c r="QK84" s="67"/>
-      <c r="QL84" s="67"/>
-      <c r="QM84" s="67"/>
-      <c r="QN84" s="67"/>
-      <c r="QO84" s="67"/>
-      <c r="QP84" s="67"/>
-      <c r="QQ84" s="67"/>
-      <c r="QR84" s="67"/>
-      <c r="QS84" s="67"/>
-      <c r="QT84" s="67"/>
-      <c r="QU84" s="67"/>
-      <c r="QV84" s="67"/>
-      <c r="QW84" s="67"/>
-      <c r="QX84" s="67"/>
-      <c r="QY84" s="67"/>
-      <c r="QZ84" s="67"/>
-      <c r="RA84" s="67"/>
-      <c r="RB84" s="67"/>
-      <c r="RC84" s="67"/>
-      <c r="RD84" s="67"/>
-      <c r="RE84" s="67"/>
-      <c r="RF84" s="67"/>
-      <c r="RG84" s="67"/>
-      <c r="RH84" s="67"/>
-      <c r="RI84" s="67"/>
-      <c r="RJ84" s="67"/>
-      <c r="RK84" s="67"/>
-      <c r="RL84" s="67"/>
-      <c r="RM84" s="67"/>
-      <c r="RN84" s="67"/>
-      <c r="RO84" s="67"/>
-      <c r="RP84" s="67"/>
-      <c r="RQ84" s="67"/>
-      <c r="RR84" s="67"/>
-      <c r="RS84" s="67"/>
-      <c r="RT84" s="67"/>
-      <c r="RU84" s="67"/>
-      <c r="RV84" s="67"/>
-      <c r="RW84" s="67"/>
-      <c r="RX84" s="67"/>
-      <c r="RY84" s="67"/>
-      <c r="RZ84" s="67"/>
-      <c r="SA84" s="67"/>
-      <c r="SB84" s="67"/>
-      <c r="SC84" s="67"/>
-      <c r="SD84" s="67"/>
-      <c r="SE84" s="67"/>
-      <c r="SF84" s="67"/>
-      <c r="SG84" s="67"/>
-      <c r="SH84" s="67"/>
-      <c r="SI84" s="67"/>
-      <c r="SJ84" s="67"/>
-      <c r="SK84" s="67"/>
-      <c r="SL84" s="67"/>
-      <c r="SM84" s="67"/>
-      <c r="SN84" s="67"/>
-      <c r="SO84" s="67"/>
-      <c r="SP84" s="67"/>
-      <c r="SQ84" s="67"/>
-      <c r="SR84" s="67"/>
-      <c r="SS84" s="67"/>
-      <c r="ST84" s="67"/>
-      <c r="SU84" s="67"/>
-      <c r="SV84" s="67"/>
-      <c r="SW84" s="67"/>
-      <c r="SX84" s="67"/>
-      <c r="SY84" s="67"/>
-      <c r="SZ84" s="67"/>
-      <c r="TA84" s="67"/>
-      <c r="TB84" s="67"/>
-      <c r="TC84" s="67"/>
-      <c r="TD84" s="67"/>
-      <c r="TE84" s="67"/>
-      <c r="TF84" s="67"/>
-      <c r="TG84" s="67"/>
-      <c r="TH84" s="67"/>
-      <c r="TI84" s="67"/>
-      <c r="TJ84" s="67"/>
-      <c r="TK84" s="67"/>
-      <c r="TL84" s="67"/>
-      <c r="TM84" s="67"/>
-      <c r="TN84" s="67"/>
-      <c r="TO84" s="67"/>
-      <c r="TP84" s="67"/>
-      <c r="TQ84" s="67"/>
-      <c r="TR84" s="67"/>
-      <c r="TS84" s="67"/>
-      <c r="TT84" s="67"/>
-      <c r="TU84" s="67"/>
-      <c r="TV84" s="67"/>
-      <c r="TW84" s="67"/>
-      <c r="TX84" s="67"/>
-      <c r="TY84" s="67"/>
-      <c r="TZ84" s="67"/>
-      <c r="UA84" s="67"/>
-      <c r="UB84" s="67"/>
-      <c r="UC84" s="67"/>
-      <c r="UD84" s="67"/>
-      <c r="UE84" s="67"/>
-      <c r="UF84" s="67"/>
-      <c r="UG84" s="67"/>
-      <c r="UH84" s="67"/>
-      <c r="UI84" s="67"/>
-      <c r="UJ84" s="67"/>
-      <c r="UK84" s="67"/>
-      <c r="UL84" s="67"/>
-      <c r="UM84" s="67"/>
-      <c r="UN84" s="67"/>
-      <c r="UO84" s="67"/>
-      <c r="UP84" s="67"/>
-      <c r="UQ84" s="67"/>
-      <c r="UR84" s="67"/>
-      <c r="US84" s="67"/>
-      <c r="UT84" s="67"/>
-      <c r="UU84" s="67"/>
-      <c r="UV84" s="67"/>
-      <c r="UW84" s="67"/>
-      <c r="UX84" s="67"/>
-      <c r="UY84" s="67"/>
-      <c r="UZ84" s="67"/>
-      <c r="VA84" s="67"/>
-      <c r="VB84" s="67"/>
-      <c r="VC84" s="67"/>
-      <c r="VD84" s="67"/>
-      <c r="VE84" s="67"/>
-      <c r="VF84" s="67"/>
-      <c r="VG84" s="67"/>
-      <c r="VH84" s="67"/>
-      <c r="VI84" s="67"/>
-      <c r="VJ84" s="67"/>
-      <c r="VK84" s="67"/>
-      <c r="VL84" s="67"/>
-      <c r="VM84" s="67"/>
-      <c r="VN84" s="67"/>
-      <c r="VO84" s="67"/>
-      <c r="VP84" s="67"/>
-      <c r="VQ84" s="67"/>
-      <c r="VR84" s="67"/>
-      <c r="VS84" s="67"/>
-      <c r="VT84" s="67"/>
-      <c r="VU84" s="67"/>
-      <c r="VV84" s="67"/>
-      <c r="VW84" s="67"/>
-      <c r="VX84" s="67"/>
-      <c r="VY84" s="67"/>
-      <c r="VZ84" s="67"/>
-      <c r="WA84" s="67"/>
-      <c r="WB84" s="67"/>
-      <c r="WC84" s="67"/>
-      <c r="WD84" s="67"/>
-      <c r="WE84" s="67"/>
-      <c r="WF84" s="67"/>
-      <c r="WG84" s="67"/>
-      <c r="WH84" s="67"/>
-      <c r="WI84" s="67"/>
-      <c r="WJ84" s="67"/>
-      <c r="WK84" s="67"/>
-      <c r="WL84" s="67"/>
-      <c r="WM84" s="67"/>
-      <c r="WN84" s="67"/>
-      <c r="WO84" s="67"/>
-      <c r="WP84" s="67"/>
-      <c r="WQ84" s="67"/>
-      <c r="WR84" s="67"/>
-      <c r="WS84" s="67"/>
-      <c r="WT84" s="67"/>
-      <c r="WU84" s="67"/>
-      <c r="WV84" s="67"/>
-      <c r="WW84" s="67"/>
-      <c r="WX84" s="67"/>
-      <c r="WY84" s="67"/>
-      <c r="WZ84" s="67"/>
-      <c r="XA84" s="67"/>
-      <c r="XB84" s="67"/>
-      <c r="XC84" s="67"/>
-      <c r="XD84" s="67"/>
-      <c r="XE84" s="67"/>
-      <c r="XF84" s="67"/>
-      <c r="XG84" s="67"/>
-      <c r="XH84" s="67"/>
-      <c r="XI84" s="67"/>
-      <c r="XJ84" s="67"/>
-      <c r="XK84" s="67"/>
-      <c r="XL84" s="67"/>
-      <c r="XM84" s="67"/>
-      <c r="XN84" s="67"/>
-      <c r="XO84" s="67"/>
-      <c r="XP84" s="67"/>
-      <c r="XQ84" s="67"/>
-      <c r="XR84" s="67"/>
-      <c r="XS84" s="67"/>
-      <c r="XT84" s="67"/>
-      <c r="XU84" s="67"/>
-      <c r="XV84" s="67"/>
-      <c r="XW84" s="67"/>
-      <c r="XX84" s="67"/>
-      <c r="XY84" s="67"/>
-      <c r="XZ84" s="67"/>
-      <c r="YA84" s="67"/>
-      <c r="YB84" s="67"/>
-      <c r="YC84" s="67"/>
-      <c r="YD84" s="67"/>
-      <c r="YE84" s="67"/>
-      <c r="YF84" s="67"/>
-      <c r="YG84" s="67"/>
-      <c r="YH84" s="67"/>
-      <c r="YI84" s="67"/>
-      <c r="YJ84" s="67"/>
-      <c r="YK84" s="67"/>
-      <c r="YL84" s="67"/>
-      <c r="YM84" s="67"/>
-      <c r="YN84" s="67"/>
-      <c r="YO84" s="67"/>
-      <c r="YP84" s="67"/>
-      <c r="YQ84" s="67"/>
-      <c r="YR84" s="67"/>
-      <c r="YS84" s="67"/>
-      <c r="YT84" s="67"/>
-      <c r="YU84" s="67"/>
-      <c r="YV84" s="67"/>
-      <c r="YW84" s="67"/>
-      <c r="YX84" s="67"/>
-      <c r="YY84" s="67"/>
-      <c r="YZ84" s="67"/>
-      <c r="ZA84" s="67"/>
-      <c r="ZB84" s="67"/>
-      <c r="ZC84" s="67"/>
-      <c r="ZD84" s="67"/>
-      <c r="ZE84" s="67"/>
-      <c r="ZF84" s="67"/>
-      <c r="ZG84" s="67"/>
-      <c r="ZH84" s="67"/>
-      <c r="ZI84" s="67"/>
-      <c r="ZJ84" s="67"/>
-      <c r="ZK84" s="67"/>
-      <c r="ZL84" s="67"/>
-      <c r="ZM84" s="67"/>
-      <c r="ZN84" s="67"/>
-      <c r="ZO84" s="67"/>
-      <c r="ZP84" s="67"/>
-      <c r="ZQ84" s="67"/>
-      <c r="ZR84" s="67"/>
-      <c r="ZS84" s="67"/>
-      <c r="ZT84" s="67"/>
-      <c r="ZU84" s="67"/>
-      <c r="ZV84" s="67"/>
-      <c r="ZW84" s="67"/>
-      <c r="ZX84" s="67"/>
-      <c r="ZY84" s="67"/>
-      <c r="ZZ84" s="67"/>
-      <c r="AAA84" s="67"/>
-      <c r="AAB84" s="67"/>
-      <c r="AAC84" s="67"/>
-      <c r="AAD84" s="67"/>
-      <c r="AAE84" s="67"/>
-      <c r="AAF84" s="67"/>
-      <c r="AAG84" s="67"/>
-      <c r="AAH84" s="67"/>
-      <c r="AAI84" s="67"/>
-      <c r="AAJ84" s="67"/>
-      <c r="AAK84" s="67"/>
-      <c r="AAL84" s="67"/>
-      <c r="AAM84" s="67"/>
-      <c r="AAN84" s="67"/>
-      <c r="AAO84" s="67"/>
-      <c r="AAP84" s="67"/>
-      <c r="AAQ84" s="67"/>
-      <c r="AAR84" s="67"/>
-      <c r="AAS84" s="67"/>
-      <c r="AAT84" s="67"/>
-      <c r="AAU84" s="67"/>
-      <c r="AAV84" s="67"/>
-      <c r="AAW84" s="67"/>
-      <c r="AAX84" s="67"/>
-      <c r="AAY84" s="67"/>
-      <c r="AAZ84" s="67"/>
-      <c r="ABA84" s="67"/>
-      <c r="ABB84" s="67"/>
-      <c r="ABC84" s="67"/>
-      <c r="ABD84" s="67"/>
-      <c r="ABE84" s="67"/>
-      <c r="ABF84" s="67"/>
-      <c r="ABG84" s="67"/>
-      <c r="ABH84" s="67"/>
-      <c r="ABI84" s="67"/>
-      <c r="ABJ84" s="67"/>
-      <c r="ABK84" s="67"/>
-      <c r="ABL84" s="67"/>
-      <c r="ABM84" s="67"/>
-      <c r="ABN84" s="67"/>
-      <c r="ABO84" s="67"/>
-      <c r="ABP84" s="67"/>
-      <c r="ABQ84" s="67"/>
-      <c r="ABR84" s="67"/>
-      <c r="ABS84" s="67"/>
-      <c r="ABT84" s="67"/>
-      <c r="ABU84" s="67"/>
-      <c r="ABV84" s="67"/>
-      <c r="ABW84" s="67"/>
-      <c r="ABX84" s="67"/>
-      <c r="ABY84" s="67"/>
-      <c r="ABZ84" s="67"/>
-      <c r="ACA84" s="67"/>
-      <c r="ACB84" s="67"/>
-      <c r="ACC84" s="67"/>
-      <c r="ACD84" s="67"/>
-      <c r="ACE84" s="67"/>
-      <c r="ACF84" s="67"/>
-      <c r="ACG84" s="67"/>
-      <c r="ACH84" s="67"/>
-      <c r="ACI84" s="67"/>
-      <c r="ACJ84" s="67"/>
-      <c r="ACK84" s="67"/>
-      <c r="ACL84" s="67"/>
-      <c r="ACM84" s="67"/>
-      <c r="ACN84" s="67"/>
-      <c r="ACO84" s="67"/>
-      <c r="ACP84" s="67"/>
-      <c r="ACQ84" s="67"/>
-      <c r="ACR84" s="67"/>
-      <c r="ACS84" s="67"/>
-      <c r="ACT84" s="67"/>
-      <c r="ACU84" s="67"/>
-      <c r="ACV84" s="67"/>
-      <c r="ACW84" s="67"/>
-      <c r="ACX84" s="67"/>
-      <c r="ACY84" s="67"/>
-      <c r="ACZ84" s="67"/>
-      <c r="ADA84" s="67"/>
-      <c r="ADB84" s="67"/>
-      <c r="ADC84" s="67"/>
-      <c r="ADD84" s="67"/>
-      <c r="ADE84" s="67"/>
-      <c r="ADF84" s="67"/>
-      <c r="ADG84" s="67"/>
-      <c r="ADH84" s="67"/>
-      <c r="ADI84" s="67"/>
-      <c r="ADJ84" s="67"/>
-      <c r="ADK84" s="67"/>
-      <c r="ADL84" s="67"/>
-      <c r="ADM84" s="67"/>
-      <c r="ADN84" s="67"/>
-      <c r="ADO84" s="67"/>
-      <c r="ADP84" s="67"/>
-      <c r="ADQ84" s="67"/>
-      <c r="ADR84" s="67"/>
-      <c r="ADS84" s="67"/>
-      <c r="ADT84" s="67"/>
-      <c r="ADU84" s="67"/>
-      <c r="ADV84" s="67"/>
-      <c r="ADW84" s="67"/>
-      <c r="ADX84" s="67"/>
-      <c r="ADY84" s="67"/>
-      <c r="ADZ84" s="67"/>
-      <c r="AEA84" s="67"/>
-      <c r="AEB84" s="67"/>
-      <c r="AEC84" s="67"/>
-      <c r="AED84" s="67"/>
-      <c r="AEE84" s="67"/>
-      <c r="AEF84" s="67"/>
-      <c r="AEG84" s="67"/>
-      <c r="AEH84" s="67"/>
-      <c r="AEI84" s="67"/>
-      <c r="AEJ84" s="67"/>
-      <c r="AEK84" s="67"/>
-      <c r="AEL84" s="67"/>
-      <c r="AEM84" s="67"/>
-      <c r="AEN84" s="67"/>
-      <c r="AEO84" s="67"/>
-      <c r="AEP84" s="67"/>
-      <c r="AEQ84" s="67"/>
-      <c r="AER84" s="67"/>
-      <c r="AES84" s="67"/>
-      <c r="AET84" s="67"/>
-      <c r="AEU84" s="67"/>
-      <c r="AEV84" s="67"/>
-      <c r="AEW84" s="67"/>
-      <c r="AEX84" s="67"/>
-      <c r="AEY84" s="67"/>
-      <c r="AEZ84" s="67"/>
-      <c r="AFA84" s="67"/>
-      <c r="AFB84" s="67"/>
-      <c r="AFC84" s="67"/>
-      <c r="AFD84" s="67"/>
-      <c r="AFE84" s="67"/>
-      <c r="AFF84" s="67"/>
-      <c r="AFG84" s="67"/>
-      <c r="AFH84" s="67"/>
-      <c r="AFI84" s="67"/>
-      <c r="AFJ84" s="67"/>
-      <c r="AFK84" s="67"/>
-      <c r="AFL84" s="67"/>
-      <c r="AFM84" s="67"/>
-      <c r="AFN84" s="67"/>
-      <c r="AFO84" s="67"/>
-      <c r="AFP84" s="67"/>
-      <c r="AFQ84" s="67"/>
-      <c r="AFR84" s="67"/>
-      <c r="AFS84" s="67"/>
-      <c r="AFT84" s="67"/>
-      <c r="AFU84" s="67"/>
-      <c r="AFV84" s="67"/>
-      <c r="AFW84" s="67"/>
-      <c r="AFX84" s="67"/>
-      <c r="AFY84" s="67"/>
-      <c r="AFZ84" s="67"/>
-      <c r="AGA84" s="67"/>
-      <c r="AGB84" s="67"/>
-      <c r="AGC84" s="67"/>
-      <c r="AGD84" s="67"/>
-      <c r="AGE84" s="67"/>
-      <c r="AGF84" s="67"/>
-      <c r="AGG84" s="67"/>
-      <c r="AGH84" s="67"/>
-      <c r="AGI84" s="67"/>
-      <c r="AGJ84" s="67"/>
-      <c r="AGK84" s="67"/>
-      <c r="AGL84" s="67"/>
-      <c r="AGM84" s="67"/>
-      <c r="AGN84" s="67"/>
-      <c r="AGO84" s="67"/>
-      <c r="AGP84" s="67"/>
-      <c r="AGQ84" s="67"/>
-      <c r="AGR84" s="67"/>
-      <c r="AGS84" s="67"/>
-      <c r="AGT84" s="67"/>
-      <c r="AGU84" s="67"/>
-      <c r="AGV84" s="67"/>
-      <c r="AGW84" s="67"/>
-      <c r="AGX84" s="67"/>
-      <c r="AGY84" s="67"/>
-      <c r="AGZ84" s="67"/>
-      <c r="AHA84" s="67"/>
-      <c r="AHB84" s="67"/>
-      <c r="AHC84" s="67"/>
-      <c r="AHD84" s="67"/>
-      <c r="AHE84" s="67"/>
-      <c r="AHF84" s="67"/>
-      <c r="AHG84" s="67"/>
-      <c r="AHH84" s="67"/>
-      <c r="AHI84" s="67"/>
-      <c r="AHJ84" s="67"/>
-      <c r="AHK84" s="67"/>
-      <c r="AHL84" s="67"/>
-      <c r="AHM84" s="67"/>
-      <c r="AHN84" s="67"/>
-      <c r="AHO84" s="67"/>
-      <c r="AHP84" s="67"/>
-      <c r="AHQ84" s="67"/>
-      <c r="AHR84" s="67"/>
-      <c r="AHS84" s="67"/>
-      <c r="AHT84" s="67"/>
-      <c r="AHU84" s="67"/>
-      <c r="AHV84" s="67"/>
-      <c r="AHW84" s="67"/>
-      <c r="AHX84" s="67"/>
-      <c r="AHY84" s="67"/>
-      <c r="AHZ84" s="67"/>
-      <c r="AIA84" s="67"/>
-      <c r="AIB84" s="67"/>
-      <c r="AIC84" s="67"/>
-      <c r="AID84" s="67"/>
-      <c r="AIE84" s="67"/>
-      <c r="AIF84" s="67"/>
-      <c r="AIG84" s="67"/>
-      <c r="AIH84" s="67"/>
-      <c r="AII84" s="67"/>
-      <c r="AIJ84" s="67"/>
-      <c r="AIK84" s="67"/>
-      <c r="AIL84" s="67"/>
-      <c r="AIM84" s="67"/>
-      <c r="AIN84" s="67"/>
-      <c r="AIO84" s="67"/>
-      <c r="AIP84" s="67"/>
-      <c r="AIQ84" s="67"/>
-      <c r="AIR84" s="67"/>
-      <c r="AIS84" s="67"/>
-      <c r="AIT84" s="67"/>
-      <c r="AIU84" s="67"/>
-      <c r="AIV84" s="67"/>
-      <c r="AIW84" s="67"/>
-      <c r="AIX84" s="67"/>
-      <c r="AIY84" s="67"/>
-      <c r="AIZ84" s="67"/>
-      <c r="AJA84" s="67"/>
-      <c r="AJB84" s="67"/>
-      <c r="AJC84" s="67"/>
-      <c r="AJD84" s="67"/>
-      <c r="AJE84" s="67"/>
-      <c r="AJF84" s="67"/>
-      <c r="AJG84" s="67"/>
-      <c r="AJH84" s="67"/>
-      <c r="AJI84" s="67"/>
-      <c r="AJJ84" s="67"/>
-      <c r="AJK84" s="67"/>
-      <c r="AJL84" s="67"/>
-      <c r="AJM84" s="67"/>
-      <c r="AJN84" s="67"/>
-      <c r="AJO84" s="67"/>
-      <c r="AJP84" s="67"/>
-      <c r="AJQ84" s="67"/>
-      <c r="AJR84" s="67"/>
-      <c r="AJS84" s="67"/>
-      <c r="AJT84" s="67"/>
-      <c r="AJU84" s="67"/>
-      <c r="AJV84" s="67"/>
-      <c r="AJW84" s="67"/>
-      <c r="AJX84" s="67"/>
-      <c r="AJY84" s="67"/>
-      <c r="AJZ84" s="67"/>
-      <c r="AKA84" s="67"/>
-      <c r="AKB84" s="67"/>
-      <c r="AKC84" s="67"/>
-      <c r="AKD84" s="67"/>
-      <c r="AKE84" s="67"/>
-      <c r="AKF84" s="67"/>
-      <c r="AKG84" s="67"/>
-      <c r="AKH84" s="67"/>
-      <c r="AKI84" s="67"/>
-      <c r="AKJ84" s="67"/>
-      <c r="AKK84" s="67"/>
-      <c r="AKL84" s="67"/>
-      <c r="AKM84" s="67"/>
-      <c r="AKN84" s="67"/>
-      <c r="AKO84" s="67"/>
-      <c r="AKP84" s="67"/>
-      <c r="AKQ84" s="67"/>
-      <c r="AKR84" s="67"/>
-      <c r="AKS84" s="67"/>
-      <c r="AKT84" s="67"/>
-      <c r="AKU84" s="67"/>
-      <c r="AKV84" s="67"/>
-      <c r="AKW84" s="67"/>
-      <c r="AKX84" s="67"/>
-      <c r="AKY84" s="67"/>
-      <c r="AKZ84" s="67"/>
-      <c r="ALA84" s="67"/>
-      <c r="ALB84" s="67"/>
-      <c r="ALC84" s="67"/>
-      <c r="ALD84" s="67"/>
-      <c r="ALE84" s="67"/>
-      <c r="ALF84" s="67"/>
-      <c r="ALG84" s="67"/>
-      <c r="ALH84" s="67"/>
-      <c r="ALI84" s="67"/>
-      <c r="ALJ84" s="67"/>
-      <c r="ALK84" s="67"/>
-      <c r="ALL84" s="67"/>
-      <c r="ALM84" s="67"/>
-      <c r="ALN84" s="67"/>
-      <c r="ALO84" s="67"/>
-      <c r="ALP84" s="67"/>
-      <c r="ALQ84" s="67"/>
-      <c r="ALR84" s="67"/>
-      <c r="ALS84" s="67"/>
-      <c r="ALT84" s="67"/>
-      <c r="ALU84" s="67"/>
-      <c r="ALV84" s="67"/>
-      <c r="ALW84" s="67"/>
-      <c r="ALX84" s="67"/>
-      <c r="ALY84" s="67"/>
-      <c r="ALZ84" s="67"/>
-      <c r="AMA84" s="67"/>
-      <c r="AMB84" s="67"/>
-      <c r="AMC84" s="67"/>
-      <c r="AMD84" s="67"/>
-      <c r="AME84" s="67"/>
-      <c r="AMF84" s="67"/>
-      <c r="AMG84" s="67"/>
-      <c r="AMH84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="68"/>
+      <c r="R84" s="68"/>
+      <c r="S84" s="68"/>
+      <c r="T84" s="68"/>
+      <c r="U84" s="68"/>
+      <c r="V84" s="68"/>
+      <c r="W84" s="68"/>
+      <c r="X84" s="68"/>
+      <c r="Y84" s="68"/>
+      <c r="Z84" s="68"/>
+      <c r="AA84" s="68"/>
+      <c r="AB84" s="68"/>
+      <c r="AC84" s="68"/>
+      <c r="AD84" s="68"/>
+      <c r="AE84" s="68"/>
+      <c r="AF84" s="68"/>
+      <c r="AG84" s="68"/>
+      <c r="AH84" s="68"/>
+      <c r="AI84" s="68"/>
+      <c r="AJ84" s="68"/>
+      <c r="AK84" s="68"/>
+      <c r="AL84" s="68"/>
+      <c r="AM84" s="68"/>
+      <c r="AN84" s="68"/>
+      <c r="AO84" s="68"/>
+      <c r="AP84" s="68"/>
+      <c r="AQ84" s="68"/>
+      <c r="AR84" s="68"/>
+      <c r="AS84" s="68"/>
+      <c r="AT84" s="68"/>
+      <c r="AU84" s="68"/>
+      <c r="AV84" s="68"/>
+      <c r="AW84" s="68"/>
+      <c r="AX84" s="68"/>
+      <c r="AY84" s="68"/>
+      <c r="AZ84" s="68"/>
+      <c r="BA84" s="68"/>
+      <c r="BB84" s="68"/>
+      <c r="BC84" s="68"/>
+      <c r="BD84" s="68"/>
+      <c r="BE84" s="68"/>
+      <c r="BF84" s="68"/>
+      <c r="BG84" s="68"/>
+      <c r="BH84" s="68"/>
+      <c r="BI84" s="68"/>
+      <c r="BJ84" s="68"/>
+      <c r="BK84" s="68"/>
+      <c r="BL84" s="68"/>
+      <c r="BM84" s="68"/>
+      <c r="BN84" s="68"/>
+      <c r="BO84" s="68"/>
+      <c r="BP84" s="68"/>
+      <c r="BQ84" s="68"/>
+      <c r="BR84" s="68"/>
+      <c r="BS84" s="68"/>
+      <c r="BT84" s="68"/>
+      <c r="BU84" s="68"/>
+      <c r="BV84" s="68"/>
+      <c r="BW84" s="68"/>
+      <c r="BX84" s="68"/>
+      <c r="BY84" s="68"/>
+      <c r="BZ84" s="68"/>
+      <c r="CA84" s="68"/>
+      <c r="CB84" s="68"/>
+      <c r="CC84" s="68"/>
+      <c r="CD84" s="68"/>
+      <c r="CE84" s="68"/>
+      <c r="CF84" s="68"/>
+      <c r="CG84" s="68"/>
+      <c r="CH84" s="68"/>
+      <c r="CI84" s="68"/>
+      <c r="CJ84" s="68"/>
+      <c r="CK84" s="68"/>
+      <c r="CL84" s="68"/>
+      <c r="CM84" s="68"/>
+      <c r="CN84" s="68"/>
+      <c r="CO84" s="68"/>
+      <c r="CP84" s="68"/>
+      <c r="CQ84" s="68"/>
+      <c r="CR84" s="68"/>
+      <c r="CS84" s="68"/>
+      <c r="CT84" s="68"/>
+      <c r="CU84" s="68"/>
+      <c r="CV84" s="68"/>
+      <c r="CW84" s="68"/>
+      <c r="CX84" s="68"/>
+      <c r="CY84" s="68"/>
+      <c r="CZ84" s="68"/>
+      <c r="DA84" s="68"/>
+      <c r="DB84" s="68"/>
+      <c r="DC84" s="68"/>
+      <c r="DD84" s="68"/>
+      <c r="DE84" s="68"/>
+      <c r="DF84" s="68"/>
+      <c r="DG84" s="68"/>
+      <c r="DH84" s="68"/>
+      <c r="DI84" s="68"/>
+      <c r="DJ84" s="68"/>
+      <c r="DK84" s="68"/>
+      <c r="DL84" s="68"/>
+      <c r="DM84" s="68"/>
+      <c r="DN84" s="68"/>
+      <c r="DO84" s="68"/>
+      <c r="DP84" s="68"/>
+      <c r="DQ84" s="68"/>
+      <c r="DR84" s="68"/>
+      <c r="DS84" s="68"/>
+      <c r="DT84" s="68"/>
+      <c r="DU84" s="68"/>
+      <c r="DV84" s="68"/>
+      <c r="DW84" s="68"/>
+      <c r="DX84" s="68"/>
+      <c r="DY84" s="68"/>
+      <c r="DZ84" s="68"/>
+      <c r="EA84" s="68"/>
+      <c r="EB84" s="68"/>
+      <c r="EC84" s="68"/>
+      <c r="ED84" s="68"/>
+      <c r="EE84" s="68"/>
+      <c r="EF84" s="68"/>
+      <c r="EG84" s="68"/>
+      <c r="EH84" s="68"/>
+      <c r="EI84" s="68"/>
+      <c r="EJ84" s="68"/>
+      <c r="EK84" s="68"/>
+      <c r="EL84" s="68"/>
+      <c r="EM84" s="68"/>
+      <c r="EN84" s="68"/>
+      <c r="EO84" s="68"/>
+      <c r="EP84" s="68"/>
+      <c r="EQ84" s="68"/>
+      <c r="ER84" s="68"/>
+      <c r="ES84" s="68"/>
+      <c r="ET84" s="68"/>
+      <c r="EU84" s="68"/>
+      <c r="EV84" s="68"/>
+      <c r="EW84" s="68"/>
+      <c r="EX84" s="68"/>
+      <c r="EY84" s="68"/>
+      <c r="EZ84" s="68"/>
+      <c r="FA84" s="68"/>
+      <c r="FB84" s="68"/>
+      <c r="FC84" s="68"/>
+      <c r="FD84" s="68"/>
+      <c r="FE84" s="68"/>
+      <c r="FF84" s="68"/>
+      <c r="FG84" s="68"/>
+      <c r="FH84" s="68"/>
+      <c r="FI84" s="68"/>
+      <c r="FJ84" s="68"/>
+      <c r="FK84" s="68"/>
+      <c r="FL84" s="68"/>
+      <c r="FM84" s="68"/>
+      <c r="FN84" s="68"/>
+      <c r="FO84" s="68"/>
+      <c r="FP84" s="68"/>
+      <c r="FQ84" s="68"/>
+      <c r="FR84" s="68"/>
+      <c r="FS84" s="68"/>
+      <c r="FT84" s="68"/>
+      <c r="FU84" s="68"/>
+      <c r="FV84" s="68"/>
+      <c r="FW84" s="68"/>
+      <c r="FX84" s="68"/>
+      <c r="FY84" s="68"/>
+      <c r="FZ84" s="68"/>
+      <c r="GA84" s="68"/>
+      <c r="GB84" s="68"/>
+      <c r="GC84" s="68"/>
+      <c r="GD84" s="68"/>
+      <c r="GE84" s="68"/>
+      <c r="GF84" s="68"/>
+      <c r="GG84" s="68"/>
+      <c r="GH84" s="68"/>
+      <c r="GI84" s="68"/>
+      <c r="GJ84" s="68"/>
+      <c r="GK84" s="68"/>
+      <c r="GL84" s="68"/>
+      <c r="GM84" s="68"/>
+      <c r="GN84" s="68"/>
+      <c r="GO84" s="68"/>
+      <c r="GP84" s="68"/>
+      <c r="GQ84" s="68"/>
+      <c r="GR84" s="68"/>
+      <c r="GS84" s="68"/>
+      <c r="GT84" s="68"/>
+      <c r="GU84" s="68"/>
+      <c r="GV84" s="68"/>
+      <c r="GW84" s="68"/>
+      <c r="GX84" s="68"/>
+      <c r="GY84" s="68"/>
+      <c r="GZ84" s="68"/>
+      <c r="HA84" s="68"/>
+      <c r="HB84" s="68"/>
+      <c r="HC84" s="68"/>
+      <c r="HD84" s="68"/>
+      <c r="HE84" s="68"/>
+      <c r="HF84" s="68"/>
+      <c r="HG84" s="68"/>
+      <c r="HH84" s="68"/>
+      <c r="HI84" s="68"/>
+      <c r="HJ84" s="68"/>
+      <c r="HK84" s="68"/>
+      <c r="HL84" s="68"/>
+      <c r="HM84" s="68"/>
+      <c r="HN84" s="68"/>
+      <c r="HO84" s="68"/>
+      <c r="HP84" s="68"/>
+      <c r="HQ84" s="68"/>
+      <c r="HR84" s="68"/>
+      <c r="HS84" s="68"/>
+      <c r="HT84" s="68"/>
+      <c r="HU84" s="68"/>
+      <c r="HV84" s="68"/>
+      <c r="HW84" s="68"/>
+      <c r="HX84" s="68"/>
+      <c r="HY84" s="68"/>
+      <c r="HZ84" s="68"/>
+      <c r="IA84" s="68"/>
+      <c r="IB84" s="68"/>
+      <c r="IC84" s="68"/>
+      <c r="ID84" s="68"/>
+      <c r="IE84" s="68"/>
+      <c r="IF84" s="68"/>
+      <c r="IG84" s="68"/>
+      <c r="IH84" s="68"/>
+      <c r="II84" s="68"/>
+      <c r="IJ84" s="68"/>
+      <c r="IK84" s="68"/>
+      <c r="IL84" s="68"/>
+      <c r="IM84" s="68"/>
+      <c r="IN84" s="68"/>
+      <c r="IO84" s="68"/>
+      <c r="IP84" s="68"/>
+      <c r="IQ84" s="68"/>
+      <c r="IR84" s="68"/>
+      <c r="IS84" s="68"/>
+      <c r="IT84" s="68"/>
+      <c r="IU84" s="68"/>
+      <c r="IV84" s="68"/>
+      <c r="IW84" s="68"/>
+      <c r="IX84" s="68"/>
+      <c r="IY84" s="68"/>
+      <c r="IZ84" s="68"/>
+      <c r="JA84" s="68"/>
+      <c r="JB84" s="68"/>
+      <c r="JC84" s="68"/>
+      <c r="JD84" s="68"/>
+      <c r="JE84" s="68"/>
+      <c r="JF84" s="68"/>
+      <c r="JG84" s="68"/>
+      <c r="JH84" s="68"/>
+      <c r="JI84" s="68"/>
+      <c r="JJ84" s="68"/>
+      <c r="JK84" s="68"/>
+      <c r="JL84" s="68"/>
+      <c r="JM84" s="68"/>
+      <c r="JN84" s="68"/>
+      <c r="JO84" s="68"/>
+      <c r="JP84" s="68"/>
+      <c r="JQ84" s="68"/>
+      <c r="JR84" s="68"/>
+      <c r="JS84" s="68"/>
+      <c r="JT84" s="68"/>
+      <c r="JU84" s="68"/>
+      <c r="JV84" s="68"/>
+      <c r="JW84" s="68"/>
+      <c r="JX84" s="68"/>
+      <c r="JY84" s="68"/>
+      <c r="JZ84" s="68"/>
+      <c r="KA84" s="68"/>
+      <c r="KB84" s="68"/>
+      <c r="KC84" s="68"/>
+      <c r="KD84" s="68"/>
+      <c r="KE84" s="68"/>
+      <c r="KF84" s="68"/>
+      <c r="KG84" s="68"/>
+      <c r="KH84" s="68"/>
+      <c r="KI84" s="68"/>
+      <c r="KJ84" s="68"/>
+      <c r="KK84" s="68"/>
+      <c r="KL84" s="68"/>
+      <c r="KM84" s="68"/>
+      <c r="KN84" s="68"/>
+      <c r="KO84" s="68"/>
+      <c r="KP84" s="68"/>
+      <c r="KQ84" s="68"/>
+      <c r="KR84" s="68"/>
+      <c r="KS84" s="68"/>
+      <c r="KT84" s="68"/>
+      <c r="KU84" s="68"/>
+      <c r="KV84" s="68"/>
+      <c r="KW84" s="68"/>
+      <c r="KX84" s="68"/>
+      <c r="KY84" s="68"/>
+      <c r="KZ84" s="68"/>
+      <c r="LA84" s="68"/>
+      <c r="LB84" s="68"/>
+      <c r="LC84" s="68"/>
+      <c r="LD84" s="68"/>
+      <c r="LE84" s="68"/>
+      <c r="LF84" s="68"/>
+      <c r="LG84" s="68"/>
+      <c r="LH84" s="68"/>
+      <c r="LI84" s="68"/>
+      <c r="LJ84" s="68"/>
+      <c r="LK84" s="68"/>
+      <c r="LL84" s="68"/>
+      <c r="LM84" s="68"/>
+      <c r="LN84" s="68"/>
+      <c r="LO84" s="68"/>
+      <c r="LP84" s="68"/>
+      <c r="LQ84" s="68"/>
+      <c r="LR84" s="68"/>
+      <c r="LS84" s="68"/>
+      <c r="LT84" s="68"/>
+      <c r="LU84" s="68"/>
+      <c r="LV84" s="68"/>
+      <c r="LW84" s="68"/>
+      <c r="LX84" s="68"/>
+      <c r="LY84" s="68"/>
+      <c r="LZ84" s="68"/>
+      <c r="MA84" s="68"/>
+      <c r="MB84" s="68"/>
+      <c r="MC84" s="68"/>
+      <c r="MD84" s="68"/>
+      <c r="ME84" s="68"/>
+      <c r="MF84" s="68"/>
+      <c r="MG84" s="68"/>
+      <c r="MH84" s="68"/>
+      <c r="MI84" s="68"/>
+      <c r="MJ84" s="68"/>
+      <c r="MK84" s="68"/>
+      <c r="ML84" s="68"/>
+      <c r="MM84" s="68"/>
+      <c r="MN84" s="68"/>
+      <c r="MO84" s="68"/>
+      <c r="MP84" s="68"/>
+      <c r="MQ84" s="68"/>
+      <c r="MR84" s="68"/>
+      <c r="MS84" s="68"/>
+      <c r="MT84" s="68"/>
+      <c r="MU84" s="68"/>
+      <c r="MV84" s="68"/>
+      <c r="MW84" s="68"/>
+      <c r="MX84" s="68"/>
+      <c r="MY84" s="68"/>
+      <c r="MZ84" s="68"/>
+      <c r="NA84" s="68"/>
+      <c r="NB84" s="68"/>
+      <c r="NC84" s="68"/>
+      <c r="ND84" s="68"/>
+      <c r="NE84" s="68"/>
+      <c r="NF84" s="68"/>
+      <c r="NG84" s="68"/>
+      <c r="NH84" s="68"/>
+      <c r="NI84" s="68"/>
+      <c r="NJ84" s="68"/>
+      <c r="NK84" s="68"/>
+      <c r="NL84" s="68"/>
+      <c r="NM84" s="68"/>
+      <c r="NN84" s="68"/>
+      <c r="NO84" s="68"/>
+      <c r="NP84" s="68"/>
+      <c r="NQ84" s="68"/>
+      <c r="NR84" s="68"/>
+      <c r="NS84" s="68"/>
+      <c r="NT84" s="68"/>
+      <c r="NU84" s="68"/>
+      <c r="NV84" s="68"/>
+      <c r="NW84" s="68"/>
+      <c r="NX84" s="68"/>
+      <c r="NY84" s="68"/>
+      <c r="NZ84" s="68"/>
+      <c r="OA84" s="68"/>
+      <c r="OB84" s="68"/>
+      <c r="OC84" s="68"/>
+      <c r="OD84" s="68"/>
+      <c r="OE84" s="68"/>
+      <c r="OF84" s="68"/>
+      <c r="OG84" s="68"/>
+      <c r="OH84" s="68"/>
+      <c r="OI84" s="68"/>
+      <c r="OJ84" s="68"/>
+      <c r="OK84" s="68"/>
+      <c r="OL84" s="68"/>
+      <c r="OM84" s="68"/>
+      <c r="ON84" s="68"/>
+      <c r="OO84" s="68"/>
+      <c r="OP84" s="68"/>
+      <c r="OQ84" s="68"/>
+      <c r="OR84" s="68"/>
+      <c r="OS84" s="68"/>
+      <c r="OT84" s="68"/>
+      <c r="OU84" s="68"/>
+      <c r="OV84" s="68"/>
+      <c r="OW84" s="68"/>
+      <c r="OX84" s="68"/>
+      <c r="OY84" s="68"/>
+      <c r="OZ84" s="68"/>
+      <c r="PA84" s="68"/>
+      <c r="PB84" s="68"/>
+      <c r="PC84" s="68"/>
+      <c r="PD84" s="68"/>
+      <c r="PE84" s="68"/>
+      <c r="PF84" s="68"/>
+      <c r="PG84" s="68"/>
+      <c r="PH84" s="68"/>
+      <c r="PI84" s="68"/>
+      <c r="PJ84" s="68"/>
+      <c r="PK84" s="68"/>
+      <c r="PL84" s="68"/>
+      <c r="PM84" s="68"/>
+      <c r="PN84" s="68"/>
+      <c r="PO84" s="68"/>
+      <c r="PP84" s="68"/>
+      <c r="PQ84" s="68"/>
+      <c r="PR84" s="68"/>
+      <c r="PS84" s="68"/>
+      <c r="PT84" s="68"/>
+      <c r="PU84" s="68"/>
+      <c r="PV84" s="68"/>
+      <c r="PW84" s="68"/>
+      <c r="PX84" s="68"/>
+      <c r="PY84" s="68"/>
+      <c r="PZ84" s="68"/>
+      <c r="QA84" s="68"/>
+      <c r="QB84" s="68"/>
+      <c r="QC84" s="68"/>
+      <c r="QD84" s="68"/>
+      <c r="QE84" s="68"/>
+      <c r="QF84" s="68"/>
+      <c r="QG84" s="68"/>
+      <c r="QH84" s="68"/>
+      <c r="QI84" s="68"/>
+      <c r="QJ84" s="68"/>
+      <c r="QK84" s="68"/>
+      <c r="QL84" s="68"/>
+      <c r="QM84" s="68"/>
+      <c r="QN84" s="68"/>
+      <c r="QO84" s="68"/>
+      <c r="QP84" s="68"/>
+      <c r="QQ84" s="68"/>
+      <c r="QR84" s="68"/>
+      <c r="QS84" s="68"/>
+      <c r="QT84" s="68"/>
+      <c r="QU84" s="68"/>
+      <c r="QV84" s="68"/>
+      <c r="QW84" s="68"/>
+      <c r="QX84" s="68"/>
+      <c r="QY84" s="68"/>
+      <c r="QZ84" s="68"/>
+      <c r="RA84" s="68"/>
+      <c r="RB84" s="68"/>
+      <c r="RC84" s="68"/>
+      <c r="RD84" s="68"/>
+      <c r="RE84" s="68"/>
+      <c r="RF84" s="68"/>
+      <c r="RG84" s="68"/>
+      <c r="RH84" s="68"/>
+      <c r="RI84" s="68"/>
+      <c r="RJ84" s="68"/>
+      <c r="RK84" s="68"/>
+      <c r="RL84" s="68"/>
+      <c r="RM84" s="68"/>
+      <c r="RN84" s="68"/>
+      <c r="RO84" s="68"/>
+      <c r="RP84" s="68"/>
+      <c r="RQ84" s="68"/>
+      <c r="RR84" s="68"/>
+      <c r="RS84" s="68"/>
+      <c r="RT84" s="68"/>
+      <c r="RU84" s="68"/>
+      <c r="RV84" s="68"/>
+      <c r="RW84" s="68"/>
+      <c r="RX84" s="68"/>
+      <c r="RY84" s="68"/>
+      <c r="RZ84" s="68"/>
+      <c r="SA84" s="68"/>
+      <c r="SB84" s="68"/>
+      <c r="SC84" s="68"/>
+      <c r="SD84" s="68"/>
+      <c r="SE84" s="68"/>
+      <c r="SF84" s="68"/>
+      <c r="SG84" s="68"/>
+      <c r="SH84" s="68"/>
+      <c r="SI84" s="68"/>
+      <c r="SJ84" s="68"/>
+      <c r="SK84" s="68"/>
+      <c r="SL84" s="68"/>
+      <c r="SM84" s="68"/>
+      <c r="SN84" s="68"/>
+      <c r="SO84" s="68"/>
+      <c r="SP84" s="68"/>
+      <c r="SQ84" s="68"/>
+      <c r="SR84" s="68"/>
+      <c r="SS84" s="68"/>
+      <c r="ST84" s="68"/>
+      <c r="SU84" s="68"/>
+      <c r="SV84" s="68"/>
+      <c r="SW84" s="68"/>
+      <c r="SX84" s="68"/>
+      <c r="SY84" s="68"/>
+      <c r="SZ84" s="68"/>
+      <c r="TA84" s="68"/>
+      <c r="TB84" s="68"/>
+      <c r="TC84" s="68"/>
+      <c r="TD84" s="68"/>
+      <c r="TE84" s="68"/>
+      <c r="TF84" s="68"/>
+      <c r="TG84" s="68"/>
+      <c r="TH84" s="68"/>
+      <c r="TI84" s="68"/>
+      <c r="TJ84" s="68"/>
+      <c r="TK84" s="68"/>
+      <c r="TL84" s="68"/>
+      <c r="TM84" s="68"/>
+      <c r="TN84" s="68"/>
+      <c r="TO84" s="68"/>
+      <c r="TP84" s="68"/>
+      <c r="TQ84" s="68"/>
+      <c r="TR84" s="68"/>
+      <c r="TS84" s="68"/>
+      <c r="TT84" s="68"/>
+      <c r="TU84" s="68"/>
+      <c r="TV84" s="68"/>
+      <c r="TW84" s="68"/>
+      <c r="TX84" s="68"/>
+      <c r="TY84" s="68"/>
+      <c r="TZ84" s="68"/>
+      <c r="UA84" s="68"/>
+      <c r="UB84" s="68"/>
+      <c r="UC84" s="68"/>
+      <c r="UD84" s="68"/>
+      <c r="UE84" s="68"/>
+      <c r="UF84" s="68"/>
+      <c r="UG84" s="68"/>
+      <c r="UH84" s="68"/>
+      <c r="UI84" s="68"/>
+      <c r="UJ84" s="68"/>
+      <c r="UK84" s="68"/>
+      <c r="UL84" s="68"/>
+      <c r="UM84" s="68"/>
+      <c r="UN84" s="68"/>
+      <c r="UO84" s="68"/>
+      <c r="UP84" s="68"/>
+      <c r="UQ84" s="68"/>
+      <c r="UR84" s="68"/>
+      <c r="US84" s="68"/>
+      <c r="UT84" s="68"/>
+      <c r="UU84" s="68"/>
+      <c r="UV84" s="68"/>
+      <c r="UW84" s="68"/>
+      <c r="UX84" s="68"/>
+      <c r="UY84" s="68"/>
+      <c r="UZ84" s="68"/>
+      <c r="VA84" s="68"/>
+      <c r="VB84" s="68"/>
+      <c r="VC84" s="68"/>
+      <c r="VD84" s="68"/>
+      <c r="VE84" s="68"/>
+      <c r="VF84" s="68"/>
+      <c r="VG84" s="68"/>
+      <c r="VH84" s="68"/>
+      <c r="VI84" s="68"/>
+      <c r="VJ84" s="68"/>
+      <c r="VK84" s="68"/>
+      <c r="VL84" s="68"/>
+      <c r="VM84" s="68"/>
+      <c r="VN84" s="68"/>
+      <c r="VO84" s="68"/>
+      <c r="VP84" s="68"/>
+      <c r="VQ84" s="68"/>
+      <c r="VR84" s="68"/>
+      <c r="VS84" s="68"/>
+      <c r="VT84" s="68"/>
+      <c r="VU84" s="68"/>
+      <c r="VV84" s="68"/>
+      <c r="VW84" s="68"/>
+      <c r="VX84" s="68"/>
+      <c r="VY84" s="68"/>
+      <c r="VZ84" s="68"/>
+      <c r="WA84" s="68"/>
+      <c r="WB84" s="68"/>
+      <c r="WC84" s="68"/>
+      <c r="WD84" s="68"/>
+      <c r="WE84" s="68"/>
+      <c r="WF84" s="68"/>
+      <c r="WG84" s="68"/>
+      <c r="WH84" s="68"/>
+      <c r="WI84" s="68"/>
+      <c r="WJ84" s="68"/>
+      <c r="WK84" s="68"/>
+      <c r="WL84" s="68"/>
+      <c r="WM84" s="68"/>
+      <c r="WN84" s="68"/>
+      <c r="WO84" s="68"/>
+      <c r="WP84" s="68"/>
+      <c r="WQ84" s="68"/>
+      <c r="WR84" s="68"/>
+      <c r="WS84" s="68"/>
+      <c r="WT84" s="68"/>
+      <c r="WU84" s="68"/>
+      <c r="WV84" s="68"/>
+      <c r="WW84" s="68"/>
+      <c r="WX84" s="68"/>
+      <c r="WY84" s="68"/>
+      <c r="WZ84" s="68"/>
+      <c r="XA84" s="68"/>
+      <c r="XB84" s="68"/>
+      <c r="XC84" s="68"/>
+      <c r="XD84" s="68"/>
+      <c r="XE84" s="68"/>
+      <c r="XF84" s="68"/>
+      <c r="XG84" s="68"/>
+      <c r="XH84" s="68"/>
+      <c r="XI84" s="68"/>
+      <c r="XJ84" s="68"/>
+      <c r="XK84" s="68"/>
+      <c r="XL84" s="68"/>
+      <c r="XM84" s="68"/>
+      <c r="XN84" s="68"/>
+      <c r="XO84" s="68"/>
+      <c r="XP84" s="68"/>
+      <c r="XQ84" s="68"/>
+      <c r="XR84" s="68"/>
+      <c r="XS84" s="68"/>
+      <c r="XT84" s="68"/>
+      <c r="XU84" s="68"/>
+      <c r="XV84" s="68"/>
+      <c r="XW84" s="68"/>
+      <c r="XX84" s="68"/>
+      <c r="XY84" s="68"/>
+      <c r="XZ84" s="68"/>
+      <c r="YA84" s="68"/>
+      <c r="YB84" s="68"/>
+      <c r="YC84" s="68"/>
+      <c r="YD84" s="68"/>
+      <c r="YE84" s="68"/>
+      <c r="YF84" s="68"/>
+      <c r="YG84" s="68"/>
+      <c r="YH84" s="68"/>
+      <c r="YI84" s="68"/>
+      <c r="YJ84" s="68"/>
+      <c r="YK84" s="68"/>
+      <c r="YL84" s="68"/>
+      <c r="YM84" s="68"/>
+      <c r="YN84" s="68"/>
+      <c r="YO84" s="68"/>
+      <c r="YP84" s="68"/>
+      <c r="YQ84" s="68"/>
+      <c r="YR84" s="68"/>
+      <c r="YS84" s="68"/>
+      <c r="YT84" s="68"/>
+      <c r="YU84" s="68"/>
+      <c r="YV84" s="68"/>
+      <c r="YW84" s="68"/>
+      <c r="YX84" s="68"/>
+      <c r="YY84" s="68"/>
+      <c r="YZ84" s="68"/>
+      <c r="ZA84" s="68"/>
+      <c r="ZB84" s="68"/>
+      <c r="ZC84" s="68"/>
+      <c r="ZD84" s="68"/>
+      <c r="ZE84" s="68"/>
+      <c r="ZF84" s="68"/>
+      <c r="ZG84" s="68"/>
+      <c r="ZH84" s="68"/>
+      <c r="ZI84" s="68"/>
+      <c r="ZJ84" s="68"/>
+      <c r="ZK84" s="68"/>
+      <c r="ZL84" s="68"/>
+      <c r="ZM84" s="68"/>
+      <c r="ZN84" s="68"/>
+      <c r="ZO84" s="68"/>
+      <c r="ZP84" s="68"/>
+      <c r="ZQ84" s="68"/>
+      <c r="ZR84" s="68"/>
+      <c r="ZS84" s="68"/>
+      <c r="ZT84" s="68"/>
+      <c r="ZU84" s="68"/>
+      <c r="ZV84" s="68"/>
+      <c r="ZW84" s="68"/>
+      <c r="ZX84" s="68"/>
+      <c r="ZY84" s="68"/>
+      <c r="ZZ84" s="68"/>
+      <c r="AAA84" s="68"/>
+      <c r="AAB84" s="68"/>
+      <c r="AAC84" s="68"/>
+      <c r="AAD84" s="68"/>
+      <c r="AAE84" s="68"/>
+      <c r="AAF84" s="68"/>
+      <c r="AAG84" s="68"/>
+      <c r="AAH84" s="68"/>
+      <c r="AAI84" s="68"/>
+      <c r="AAJ84" s="68"/>
+      <c r="AAK84" s="68"/>
+      <c r="AAL84" s="68"/>
+      <c r="AAM84" s="68"/>
+      <c r="AAN84" s="68"/>
+      <c r="AAO84" s="68"/>
+      <c r="AAP84" s="68"/>
+      <c r="AAQ84" s="68"/>
+      <c r="AAR84" s="68"/>
+      <c r="AAS84" s="68"/>
+      <c r="AAT84" s="68"/>
+      <c r="AAU84" s="68"/>
+      <c r="AAV84" s="68"/>
+      <c r="AAW84" s="68"/>
+      <c r="AAX84" s="68"/>
+      <c r="AAY84" s="68"/>
+      <c r="AAZ84" s="68"/>
+      <c r="ABA84" s="68"/>
+      <c r="ABB84" s="68"/>
+      <c r="ABC84" s="68"/>
+      <c r="ABD84" s="68"/>
+      <c r="ABE84" s="68"/>
+      <c r="ABF84" s="68"/>
+      <c r="ABG84" s="68"/>
+      <c r="ABH84" s="68"/>
+      <c r="ABI84" s="68"/>
+      <c r="ABJ84" s="68"/>
+      <c r="ABK84" s="68"/>
+      <c r="ABL84" s="68"/>
+      <c r="ABM84" s="68"/>
+      <c r="ABN84" s="68"/>
+      <c r="ABO84" s="68"/>
+      <c r="ABP84" s="68"/>
+      <c r="ABQ84" s="68"/>
+      <c r="ABR84" s="68"/>
+      <c r="ABS84" s="68"/>
+      <c r="ABT84" s="68"/>
+      <c r="ABU84" s="68"/>
+      <c r="ABV84" s="68"/>
+      <c r="ABW84" s="68"/>
+      <c r="ABX84" s="68"/>
+      <c r="ABY84" s="68"/>
+      <c r="ABZ84" s="68"/>
+      <c r="ACA84" s="68"/>
+      <c r="ACB84" s="68"/>
+      <c r="ACC84" s="68"/>
+      <c r="ACD84" s="68"/>
+      <c r="ACE84" s="68"/>
+      <c r="ACF84" s="68"/>
+      <c r="ACG84" s="68"/>
+      <c r="ACH84" s="68"/>
+      <c r="ACI84" s="68"/>
+      <c r="ACJ84" s="68"/>
+      <c r="ACK84" s="68"/>
+      <c r="ACL84" s="68"/>
+      <c r="ACM84" s="68"/>
+      <c r="ACN84" s="68"/>
+      <c r="ACO84" s="68"/>
+      <c r="ACP84" s="68"/>
+      <c r="ACQ84" s="68"/>
+      <c r="ACR84" s="68"/>
+      <c r="ACS84" s="68"/>
+      <c r="ACT84" s="68"/>
+      <c r="ACU84" s="68"/>
+      <c r="ACV84" s="68"/>
+      <c r="ACW84" s="68"/>
+      <c r="ACX84" s="68"/>
+      <c r="ACY84" s="68"/>
+      <c r="ACZ84" s="68"/>
+      <c r="ADA84" s="68"/>
+      <c r="ADB84" s="68"/>
+      <c r="ADC84" s="68"/>
+      <c r="ADD84" s="68"/>
+      <c r="ADE84" s="68"/>
+      <c r="ADF84" s="68"/>
+      <c r="ADG84" s="68"/>
+      <c r="ADH84" s="68"/>
+      <c r="ADI84" s="68"/>
+      <c r="ADJ84" s="68"/>
+      <c r="ADK84" s="68"/>
+      <c r="ADL84" s="68"/>
+      <c r="ADM84" s="68"/>
+      <c r="ADN84" s="68"/>
+      <c r="ADO84" s="68"/>
+      <c r="ADP84" s="68"/>
+      <c r="ADQ84" s="68"/>
+      <c r="ADR84" s="68"/>
+      <c r="ADS84" s="68"/>
+      <c r="ADT84" s="68"/>
+      <c r="ADU84" s="68"/>
+      <c r="ADV84" s="68"/>
+      <c r="ADW84" s="68"/>
+      <c r="ADX84" s="68"/>
+      <c r="ADY84" s="68"/>
+      <c r="ADZ84" s="68"/>
+      <c r="AEA84" s="68"/>
+      <c r="AEB84" s="68"/>
+      <c r="AEC84" s="68"/>
+      <c r="AED84" s="68"/>
+      <c r="AEE84" s="68"/>
+      <c r="AEF84" s="68"/>
+      <c r="AEG84" s="68"/>
+      <c r="AEH84" s="68"/>
+      <c r="AEI84" s="68"/>
+      <c r="AEJ84" s="68"/>
+      <c r="AEK84" s="68"/>
+      <c r="AEL84" s="68"/>
+      <c r="AEM84" s="68"/>
+      <c r="AEN84" s="68"/>
+      <c r="AEO84" s="68"/>
+      <c r="AEP84" s="68"/>
+      <c r="AEQ84" s="68"/>
+      <c r="AER84" s="68"/>
+      <c r="AES84" s="68"/>
+      <c r="AET84" s="68"/>
+      <c r="AEU84" s="68"/>
+      <c r="AEV84" s="68"/>
+      <c r="AEW84" s="68"/>
+      <c r="AEX84" s="68"/>
+      <c r="AEY84" s="68"/>
+      <c r="AEZ84" s="68"/>
+      <c r="AFA84" s="68"/>
+      <c r="AFB84" s="68"/>
+      <c r="AFC84" s="68"/>
+      <c r="AFD84" s="68"/>
+      <c r="AFE84" s="68"/>
+      <c r="AFF84" s="68"/>
+      <c r="AFG84" s="68"/>
+      <c r="AFH84" s="68"/>
+      <c r="AFI84" s="68"/>
+      <c r="AFJ84" s="68"/>
+      <c r="AFK84" s="68"/>
+      <c r="AFL84" s="68"/>
+      <c r="AFM84" s="68"/>
+      <c r="AFN84" s="68"/>
+      <c r="AFO84" s="68"/>
+      <c r="AFP84" s="68"/>
+      <c r="AFQ84" s="68"/>
+      <c r="AFR84" s="68"/>
+      <c r="AFS84" s="68"/>
+      <c r="AFT84" s="68"/>
+      <c r="AFU84" s="68"/>
+      <c r="AFV84" s="68"/>
+      <c r="AFW84" s="68"/>
+      <c r="AFX84" s="68"/>
+      <c r="AFY84" s="68"/>
+      <c r="AFZ84" s="68"/>
+      <c r="AGA84" s="68"/>
+      <c r="AGB84" s="68"/>
+      <c r="AGC84" s="68"/>
+      <c r="AGD84" s="68"/>
+      <c r="AGE84" s="68"/>
+      <c r="AGF84" s="68"/>
+      <c r="AGG84" s="68"/>
+      <c r="AGH84" s="68"/>
+      <c r="AGI84" s="68"/>
+      <c r="AGJ84" s="68"/>
+      <c r="AGK84" s="68"/>
+      <c r="AGL84" s="68"/>
+      <c r="AGM84" s="68"/>
+      <c r="AGN84" s="68"/>
+      <c r="AGO84" s="68"/>
+      <c r="AGP84" s="68"/>
+      <c r="AGQ84" s="68"/>
+      <c r="AGR84" s="68"/>
+      <c r="AGS84" s="68"/>
+      <c r="AGT84" s="68"/>
+      <c r="AGU84" s="68"/>
+      <c r="AGV84" s="68"/>
+      <c r="AGW84" s="68"/>
+      <c r="AGX84" s="68"/>
+      <c r="AGY84" s="68"/>
+      <c r="AGZ84" s="68"/>
+      <c r="AHA84" s="68"/>
+      <c r="AHB84" s="68"/>
+      <c r="AHC84" s="68"/>
+      <c r="AHD84" s="68"/>
+      <c r="AHE84" s="68"/>
+      <c r="AHF84" s="68"/>
+      <c r="AHG84" s="68"/>
+      <c r="AHH84" s="68"/>
+      <c r="AHI84" s="68"/>
+      <c r="AHJ84" s="68"/>
+      <c r="AHK84" s="68"/>
+      <c r="AHL84" s="68"/>
+      <c r="AHM84" s="68"/>
+      <c r="AHN84" s="68"/>
+      <c r="AHO84" s="68"/>
+      <c r="AHP84" s="68"/>
+      <c r="AHQ84" s="68"/>
+      <c r="AHR84" s="68"/>
+      <c r="AHS84" s="68"/>
+      <c r="AHT84" s="68"/>
+      <c r="AHU84" s="68"/>
+      <c r="AHV84" s="68"/>
+      <c r="AHW84" s="68"/>
+      <c r="AHX84" s="68"/>
+      <c r="AHY84" s="68"/>
+      <c r="AHZ84" s="68"/>
+      <c r="AIA84" s="68"/>
+      <c r="AIB84" s="68"/>
+      <c r="AIC84" s="68"/>
+      <c r="AID84" s="68"/>
+      <c r="AIE84" s="68"/>
+      <c r="AIF84" s="68"/>
+      <c r="AIG84" s="68"/>
+      <c r="AIH84" s="68"/>
+      <c r="AII84" s="68"/>
+      <c r="AIJ84" s="68"/>
+      <c r="AIK84" s="68"/>
+      <c r="AIL84" s="68"/>
+      <c r="AIM84" s="68"/>
+      <c r="AIN84" s="68"/>
+      <c r="AIO84" s="68"/>
+      <c r="AIP84" s="68"/>
+      <c r="AIQ84" s="68"/>
+      <c r="AIR84" s="68"/>
+      <c r="AIS84" s="68"/>
+      <c r="AIT84" s="68"/>
+      <c r="AIU84" s="68"/>
+      <c r="AIV84" s="68"/>
+      <c r="AIW84" s="68"/>
+      <c r="AIX84" s="68"/>
+      <c r="AIY84" s="68"/>
+      <c r="AIZ84" s="68"/>
+      <c r="AJA84" s="68"/>
+      <c r="AJB84" s="68"/>
+      <c r="AJC84" s="68"/>
+      <c r="AJD84" s="68"/>
+      <c r="AJE84" s="68"/>
+      <c r="AJF84" s="68"/>
+      <c r="AJG84" s="68"/>
+      <c r="AJH84" s="68"/>
+      <c r="AJI84" s="68"/>
+      <c r="AJJ84" s="68"/>
+      <c r="AJK84" s="68"/>
+      <c r="AJL84" s="68"/>
+      <c r="AJM84" s="68"/>
+      <c r="AJN84" s="68"/>
+      <c r="AJO84" s="68"/>
+      <c r="AJP84" s="68"/>
+      <c r="AJQ84" s="68"/>
+      <c r="AJR84" s="68"/>
+      <c r="AJS84" s="68"/>
+      <c r="AJT84" s="68"/>
+      <c r="AJU84" s="68"/>
+      <c r="AJV84" s="68"/>
+      <c r="AJW84" s="68"/>
+      <c r="AJX84" s="68"/>
+      <c r="AJY84" s="68"/>
+      <c r="AJZ84" s="68"/>
+      <c r="AKA84" s="68"/>
+      <c r="AKB84" s="68"/>
+      <c r="AKC84" s="68"/>
+      <c r="AKD84" s="68"/>
+      <c r="AKE84" s="68"/>
+      <c r="AKF84" s="68"/>
+      <c r="AKG84" s="68"/>
+      <c r="AKH84" s="68"/>
+      <c r="AKI84" s="68"/>
+      <c r="AKJ84" s="68"/>
+      <c r="AKK84" s="68"/>
+      <c r="AKL84" s="68"/>
+      <c r="AKM84" s="68"/>
+      <c r="AKN84" s="68"/>
+      <c r="AKO84" s="68"/>
+      <c r="AKP84" s="68"/>
+      <c r="AKQ84" s="68"/>
+      <c r="AKR84" s="68"/>
+      <c r="AKS84" s="68"/>
+      <c r="AKT84" s="68"/>
+      <c r="AKU84" s="68"/>
+      <c r="AKV84" s="68"/>
+      <c r="AKW84" s="68"/>
+      <c r="AKX84" s="68"/>
+      <c r="AKY84" s="68"/>
+      <c r="AKZ84" s="68"/>
+      <c r="ALA84" s="68"/>
+      <c r="ALB84" s="68"/>
+      <c r="ALC84" s="68"/>
+      <c r="ALD84" s="68"/>
+      <c r="ALE84" s="68"/>
+      <c r="ALF84" s="68"/>
+      <c r="ALG84" s="68"/>
+      <c r="ALH84" s="68"/>
+      <c r="ALI84" s="68"/>
+      <c r="ALJ84" s="68"/>
+      <c r="ALK84" s="68"/>
+      <c r="ALL84" s="68"/>
+      <c r="ALM84" s="68"/>
+      <c r="ALN84" s="68"/>
+      <c r="ALO84" s="68"/>
+      <c r="ALP84" s="68"/>
+      <c r="ALQ84" s="68"/>
+      <c r="ALR84" s="68"/>
+      <c r="ALS84" s="68"/>
+      <c r="ALT84" s="68"/>
+      <c r="ALU84" s="68"/>
+      <c r="ALV84" s="68"/>
+      <c r="ALW84" s="68"/>
+      <c r="ALX84" s="68"/>
+      <c r="ALY84" s="68"/>
+      <c r="ALZ84" s="68"/>
+      <c r="AMA84" s="68"/>
+      <c r="AMB84" s="68"/>
+      <c r="AMC84" s="68"/>
+      <c r="AMD84" s="68"/>
+      <c r="AME84" s="68"/>
+      <c r="AMF84" s="68"/>
+      <c r="AMG84" s="68"/>
+      <c r="AMH84" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
   <si>
     <r>
       <rPr>
@@ -1056,6 +1056,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>去掉</t>
     </r>
     <r>
@@ -1294,6 +1299,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>保留所有特征的</t>
     </r>
     <r>
@@ -1305,20 +1315,23 @@
       <t xml:space="preserve"> baseline</t>
     </r>
   </si>
+  <si>
+    <t>simple lightgbm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1332,10 +1345,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1359,31 +1368,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,14 +1377,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1413,66 +1391,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1488,8 +1413,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1503,7 +1504,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1588,61 +1597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,19 +1621,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,85 +1777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,54 +1788,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1848,8 +1809,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1869,6 +1845,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1884,142 +1893,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2050,16 +2059,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2080,7 +2089,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2095,7 +2104,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2104,13 +2113,13 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2122,40 +2131,40 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2173,19 +2182,16 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2194,34 +2200,34 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2545,10 +2551,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH84"/>
+  <dimension ref="A1:AMH85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -7863,7 +7869,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -16907,7 +16913,7 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -18099,7 +18105,7 @@
       <c r="G72" s="35">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="62" t="s">
+      <c r="H72" s="61" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="46"/>
@@ -19118,28 +19124,28 @@
       <c r="AMH72" s="46"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="54">
+      <c r="C73" s="53">
         <v>0.995564</v>
       </c>
-      <c r="D73" s="55">
+      <c r="D73" s="54">
         <v>0.9686082</v>
       </c>
-      <c r="E73" s="54">
+      <c r="E73" s="53">
         <v>0.9962035</v>
       </c>
-      <c r="F73" s="55">
+      <c r="F73" s="54">
         <v>0.9685502</v>
       </c>
       <c r="G73" s="12">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="63" t="s">
+      <c r="H73" s="62" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19205,30 +19211,30 @@
       <c r="F76" s="20">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="64">
+      <c r="G76" s="63">
         <v>0.9682</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:7">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="C78" s="58">
+      <c r="C78" s="57">
         <v>0.9962574</v>
       </c>
-      <c r="D78" s="58">
+      <c r="D78" s="57">
         <v>0.9633916</v>
       </c>
-      <c r="E78" s="58">
+      <c r="E78" s="57">
         <v>0.9963877</v>
       </c>
-      <c r="F78" s="58">
+      <c r="F78" s="57">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="65">
+      <c r="G78" s="64">
         <v>0.9678</v>
       </c>
     </row>
@@ -19325,1042 +19331,1056 @@
       </c>
     </row>
     <row r="84" s="9" customFormat="1" spans="1:1022">
-      <c r="A84" s="59" t="s">
+      <c r="A84" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="60" t="s">
+      <c r="B84" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="61">
+      <c r="C84" s="60">
         <v>0.9942723</v>
       </c>
-      <c r="D84" s="61">
+      <c r="D84" s="60">
         <v>0.9633743</v>
       </c>
-      <c r="E84" s="61">
+      <c r="E84" s="60">
         <v>0.9959016</v>
       </c>
-      <c r="F84" s="61">
+      <c r="F84" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="G84" s="66">
+      <c r="G84" s="65">
         <v>0.9686</v>
       </c>
-      <c r="H84" s="67"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
-      <c r="N84" s="68"/>
-      <c r="O84" s="68"/>
-      <c r="P84" s="68"/>
-      <c r="Q84" s="68"/>
-      <c r="R84" s="68"/>
-      <c r="S84" s="68"/>
-      <c r="T84" s="68"/>
-      <c r="U84" s="68"/>
-      <c r="V84" s="68"/>
-      <c r="W84" s="68"/>
-      <c r="X84" s="68"/>
-      <c r="Y84" s="68"/>
-      <c r="Z84" s="68"/>
-      <c r="AA84" s="68"/>
-      <c r="AB84" s="68"/>
-      <c r="AC84" s="68"/>
-      <c r="AD84" s="68"/>
-      <c r="AE84" s="68"/>
-      <c r="AF84" s="68"/>
-      <c r="AG84" s="68"/>
-      <c r="AH84" s="68"/>
-      <c r="AI84" s="68"/>
-      <c r="AJ84" s="68"/>
-      <c r="AK84" s="68"/>
-      <c r="AL84" s="68"/>
-      <c r="AM84" s="68"/>
-      <c r="AN84" s="68"/>
-      <c r="AO84" s="68"/>
-      <c r="AP84" s="68"/>
-      <c r="AQ84" s="68"/>
-      <c r="AR84" s="68"/>
-      <c r="AS84" s="68"/>
-      <c r="AT84" s="68"/>
-      <c r="AU84" s="68"/>
-      <c r="AV84" s="68"/>
-      <c r="AW84" s="68"/>
-      <c r="AX84" s="68"/>
-      <c r="AY84" s="68"/>
-      <c r="AZ84" s="68"/>
-      <c r="BA84" s="68"/>
-      <c r="BB84" s="68"/>
-      <c r="BC84" s="68"/>
-      <c r="BD84" s="68"/>
-      <c r="BE84" s="68"/>
-      <c r="BF84" s="68"/>
-      <c r="BG84" s="68"/>
-      <c r="BH84" s="68"/>
-      <c r="BI84" s="68"/>
-      <c r="BJ84" s="68"/>
-      <c r="BK84" s="68"/>
-      <c r="BL84" s="68"/>
-      <c r="BM84" s="68"/>
-      <c r="BN84" s="68"/>
-      <c r="BO84" s="68"/>
-      <c r="BP84" s="68"/>
-      <c r="BQ84" s="68"/>
-      <c r="BR84" s="68"/>
-      <c r="BS84" s="68"/>
-      <c r="BT84" s="68"/>
-      <c r="BU84" s="68"/>
-      <c r="BV84" s="68"/>
-      <c r="BW84" s="68"/>
-      <c r="BX84" s="68"/>
-      <c r="BY84" s="68"/>
-      <c r="BZ84" s="68"/>
-      <c r="CA84" s="68"/>
-      <c r="CB84" s="68"/>
-      <c r="CC84" s="68"/>
-      <c r="CD84" s="68"/>
-      <c r="CE84" s="68"/>
-      <c r="CF84" s="68"/>
-      <c r="CG84" s="68"/>
-      <c r="CH84" s="68"/>
-      <c r="CI84" s="68"/>
-      <c r="CJ84" s="68"/>
-      <c r="CK84" s="68"/>
-      <c r="CL84" s="68"/>
-      <c r="CM84" s="68"/>
-      <c r="CN84" s="68"/>
-      <c r="CO84" s="68"/>
-      <c r="CP84" s="68"/>
-      <c r="CQ84" s="68"/>
-      <c r="CR84" s="68"/>
-      <c r="CS84" s="68"/>
-      <c r="CT84" s="68"/>
-      <c r="CU84" s="68"/>
-      <c r="CV84" s="68"/>
-      <c r="CW84" s="68"/>
-      <c r="CX84" s="68"/>
-      <c r="CY84" s="68"/>
-      <c r="CZ84" s="68"/>
-      <c r="DA84" s="68"/>
-      <c r="DB84" s="68"/>
-      <c r="DC84" s="68"/>
-      <c r="DD84" s="68"/>
-      <c r="DE84" s="68"/>
-      <c r="DF84" s="68"/>
-      <c r="DG84" s="68"/>
-      <c r="DH84" s="68"/>
-      <c r="DI84" s="68"/>
-      <c r="DJ84" s="68"/>
-      <c r="DK84" s="68"/>
-      <c r="DL84" s="68"/>
-      <c r="DM84" s="68"/>
-      <c r="DN84" s="68"/>
-      <c r="DO84" s="68"/>
-      <c r="DP84" s="68"/>
-      <c r="DQ84" s="68"/>
-      <c r="DR84" s="68"/>
-      <c r="DS84" s="68"/>
-      <c r="DT84" s="68"/>
-      <c r="DU84" s="68"/>
-      <c r="DV84" s="68"/>
-      <c r="DW84" s="68"/>
-      <c r="DX84" s="68"/>
-      <c r="DY84" s="68"/>
-      <c r="DZ84" s="68"/>
-      <c r="EA84" s="68"/>
-      <c r="EB84" s="68"/>
-      <c r="EC84" s="68"/>
-      <c r="ED84" s="68"/>
-      <c r="EE84" s="68"/>
-      <c r="EF84" s="68"/>
-      <c r="EG84" s="68"/>
-      <c r="EH84" s="68"/>
-      <c r="EI84" s="68"/>
-      <c r="EJ84" s="68"/>
-      <c r="EK84" s="68"/>
-      <c r="EL84" s="68"/>
-      <c r="EM84" s="68"/>
-      <c r="EN84" s="68"/>
-      <c r="EO84" s="68"/>
-      <c r="EP84" s="68"/>
-      <c r="EQ84" s="68"/>
-      <c r="ER84" s="68"/>
-      <c r="ES84" s="68"/>
-      <c r="ET84" s="68"/>
-      <c r="EU84" s="68"/>
-      <c r="EV84" s="68"/>
-      <c r="EW84" s="68"/>
-      <c r="EX84" s="68"/>
-      <c r="EY84" s="68"/>
-      <c r="EZ84" s="68"/>
-      <c r="FA84" s="68"/>
-      <c r="FB84" s="68"/>
-      <c r="FC84" s="68"/>
-      <c r="FD84" s="68"/>
-      <c r="FE84" s="68"/>
-      <c r="FF84" s="68"/>
-      <c r="FG84" s="68"/>
-      <c r="FH84" s="68"/>
-      <c r="FI84" s="68"/>
-      <c r="FJ84" s="68"/>
-      <c r="FK84" s="68"/>
-      <c r="FL84" s="68"/>
-      <c r="FM84" s="68"/>
-      <c r="FN84" s="68"/>
-      <c r="FO84" s="68"/>
-      <c r="FP84" s="68"/>
-      <c r="FQ84" s="68"/>
-      <c r="FR84" s="68"/>
-      <c r="FS84" s="68"/>
-      <c r="FT84" s="68"/>
-      <c r="FU84" s="68"/>
-      <c r="FV84" s="68"/>
-      <c r="FW84" s="68"/>
-      <c r="FX84" s="68"/>
-      <c r="FY84" s="68"/>
-      <c r="FZ84" s="68"/>
-      <c r="GA84" s="68"/>
-      <c r="GB84" s="68"/>
-      <c r="GC84" s="68"/>
-      <c r="GD84" s="68"/>
-      <c r="GE84" s="68"/>
-      <c r="GF84" s="68"/>
-      <c r="GG84" s="68"/>
-      <c r="GH84" s="68"/>
-      <c r="GI84" s="68"/>
-      <c r="GJ84" s="68"/>
-      <c r="GK84" s="68"/>
-      <c r="GL84" s="68"/>
-      <c r="GM84" s="68"/>
-      <c r="GN84" s="68"/>
-      <c r="GO84" s="68"/>
-      <c r="GP84" s="68"/>
-      <c r="GQ84" s="68"/>
-      <c r="GR84" s="68"/>
-      <c r="GS84" s="68"/>
-      <c r="GT84" s="68"/>
-      <c r="GU84" s="68"/>
-      <c r="GV84" s="68"/>
-      <c r="GW84" s="68"/>
-      <c r="GX84" s="68"/>
-      <c r="GY84" s="68"/>
-      <c r="GZ84" s="68"/>
-      <c r="HA84" s="68"/>
-      <c r="HB84" s="68"/>
-      <c r="HC84" s="68"/>
-      <c r="HD84" s="68"/>
-      <c r="HE84" s="68"/>
-      <c r="HF84" s="68"/>
-      <c r="HG84" s="68"/>
-      <c r="HH84" s="68"/>
-      <c r="HI84" s="68"/>
-      <c r="HJ84" s="68"/>
-      <c r="HK84" s="68"/>
-      <c r="HL84" s="68"/>
-      <c r="HM84" s="68"/>
-      <c r="HN84" s="68"/>
-      <c r="HO84" s="68"/>
-      <c r="HP84" s="68"/>
-      <c r="HQ84" s="68"/>
-      <c r="HR84" s="68"/>
-      <c r="HS84" s="68"/>
-      <c r="HT84" s="68"/>
-      <c r="HU84" s="68"/>
-      <c r="HV84" s="68"/>
-      <c r="HW84" s="68"/>
-      <c r="HX84" s="68"/>
-      <c r="HY84" s="68"/>
-      <c r="HZ84" s="68"/>
-      <c r="IA84" s="68"/>
-      <c r="IB84" s="68"/>
-      <c r="IC84" s="68"/>
-      <c r="ID84" s="68"/>
-      <c r="IE84" s="68"/>
-      <c r="IF84" s="68"/>
-      <c r="IG84" s="68"/>
-      <c r="IH84" s="68"/>
-      <c r="II84" s="68"/>
-      <c r="IJ84" s="68"/>
-      <c r="IK84" s="68"/>
-      <c r="IL84" s="68"/>
-      <c r="IM84" s="68"/>
-      <c r="IN84" s="68"/>
-      <c r="IO84" s="68"/>
-      <c r="IP84" s="68"/>
-      <c r="IQ84" s="68"/>
-      <c r="IR84" s="68"/>
-      <c r="IS84" s="68"/>
-      <c r="IT84" s="68"/>
-      <c r="IU84" s="68"/>
-      <c r="IV84" s="68"/>
-      <c r="IW84" s="68"/>
-      <c r="IX84" s="68"/>
-      <c r="IY84" s="68"/>
-      <c r="IZ84" s="68"/>
-      <c r="JA84" s="68"/>
-      <c r="JB84" s="68"/>
-      <c r="JC84" s="68"/>
-      <c r="JD84" s="68"/>
-      <c r="JE84" s="68"/>
-      <c r="JF84" s="68"/>
-      <c r="JG84" s="68"/>
-      <c r="JH84" s="68"/>
-      <c r="JI84" s="68"/>
-      <c r="JJ84" s="68"/>
-      <c r="JK84" s="68"/>
-      <c r="JL84" s="68"/>
-      <c r="JM84" s="68"/>
-      <c r="JN84" s="68"/>
-      <c r="JO84" s="68"/>
-      <c r="JP84" s="68"/>
-      <c r="JQ84" s="68"/>
-      <c r="JR84" s="68"/>
-      <c r="JS84" s="68"/>
-      <c r="JT84" s="68"/>
-      <c r="JU84" s="68"/>
-      <c r="JV84" s="68"/>
-      <c r="JW84" s="68"/>
-      <c r="JX84" s="68"/>
-      <c r="JY84" s="68"/>
-      <c r="JZ84" s="68"/>
-      <c r="KA84" s="68"/>
-      <c r="KB84" s="68"/>
-      <c r="KC84" s="68"/>
-      <c r="KD84" s="68"/>
-      <c r="KE84" s="68"/>
-      <c r="KF84" s="68"/>
-      <c r="KG84" s="68"/>
-      <c r="KH84" s="68"/>
-      <c r="KI84" s="68"/>
-      <c r="KJ84" s="68"/>
-      <c r="KK84" s="68"/>
-      <c r="KL84" s="68"/>
-      <c r="KM84" s="68"/>
-      <c r="KN84" s="68"/>
-      <c r="KO84" s="68"/>
-      <c r="KP84" s="68"/>
-      <c r="KQ84" s="68"/>
-      <c r="KR84" s="68"/>
-      <c r="KS84" s="68"/>
-      <c r="KT84" s="68"/>
-      <c r="KU84" s="68"/>
-      <c r="KV84" s="68"/>
-      <c r="KW84" s="68"/>
-      <c r="KX84" s="68"/>
-      <c r="KY84" s="68"/>
-      <c r="KZ84" s="68"/>
-      <c r="LA84" s="68"/>
-      <c r="LB84" s="68"/>
-      <c r="LC84" s="68"/>
-      <c r="LD84" s="68"/>
-      <c r="LE84" s="68"/>
-      <c r="LF84" s="68"/>
-      <c r="LG84" s="68"/>
-      <c r="LH84" s="68"/>
-      <c r="LI84" s="68"/>
-      <c r="LJ84" s="68"/>
-      <c r="LK84" s="68"/>
-      <c r="LL84" s="68"/>
-      <c r="LM84" s="68"/>
-      <c r="LN84" s="68"/>
-      <c r="LO84" s="68"/>
-      <c r="LP84" s="68"/>
-      <c r="LQ84" s="68"/>
-      <c r="LR84" s="68"/>
-      <c r="LS84" s="68"/>
-      <c r="LT84" s="68"/>
-      <c r="LU84" s="68"/>
-      <c r="LV84" s="68"/>
-      <c r="LW84" s="68"/>
-      <c r="LX84" s="68"/>
-      <c r="LY84" s="68"/>
-      <c r="LZ84" s="68"/>
-      <c r="MA84" s="68"/>
-      <c r="MB84" s="68"/>
-      <c r="MC84" s="68"/>
-      <c r="MD84" s="68"/>
-      <c r="ME84" s="68"/>
-      <c r="MF84" s="68"/>
-      <c r="MG84" s="68"/>
-      <c r="MH84" s="68"/>
-      <c r="MI84" s="68"/>
-      <c r="MJ84" s="68"/>
-      <c r="MK84" s="68"/>
-      <c r="ML84" s="68"/>
-      <c r="MM84" s="68"/>
-      <c r="MN84" s="68"/>
-      <c r="MO84" s="68"/>
-      <c r="MP84" s="68"/>
-      <c r="MQ84" s="68"/>
-      <c r="MR84" s="68"/>
-      <c r="MS84" s="68"/>
-      <c r="MT84" s="68"/>
-      <c r="MU84" s="68"/>
-      <c r="MV84" s="68"/>
-      <c r="MW84" s="68"/>
-      <c r="MX84" s="68"/>
-      <c r="MY84" s="68"/>
-      <c r="MZ84" s="68"/>
-      <c r="NA84" s="68"/>
-      <c r="NB84" s="68"/>
-      <c r="NC84" s="68"/>
-      <c r="ND84" s="68"/>
-      <c r="NE84" s="68"/>
-      <c r="NF84" s="68"/>
-      <c r="NG84" s="68"/>
-      <c r="NH84" s="68"/>
-      <c r="NI84" s="68"/>
-      <c r="NJ84" s="68"/>
-      <c r="NK84" s="68"/>
-      <c r="NL84" s="68"/>
-      <c r="NM84" s="68"/>
-      <c r="NN84" s="68"/>
-      <c r="NO84" s="68"/>
-      <c r="NP84" s="68"/>
-      <c r="NQ84" s="68"/>
-      <c r="NR84" s="68"/>
-      <c r="NS84" s="68"/>
-      <c r="NT84" s="68"/>
-      <c r="NU84" s="68"/>
-      <c r="NV84" s="68"/>
-      <c r="NW84" s="68"/>
-      <c r="NX84" s="68"/>
-      <c r="NY84" s="68"/>
-      <c r="NZ84" s="68"/>
-      <c r="OA84" s="68"/>
-      <c r="OB84" s="68"/>
-      <c r="OC84" s="68"/>
-      <c r="OD84" s="68"/>
-      <c r="OE84" s="68"/>
-      <c r="OF84" s="68"/>
-      <c r="OG84" s="68"/>
-      <c r="OH84" s="68"/>
-      <c r="OI84" s="68"/>
-      <c r="OJ84" s="68"/>
-      <c r="OK84" s="68"/>
-      <c r="OL84" s="68"/>
-      <c r="OM84" s="68"/>
-      <c r="ON84" s="68"/>
-      <c r="OO84" s="68"/>
-      <c r="OP84" s="68"/>
-      <c r="OQ84" s="68"/>
-      <c r="OR84" s="68"/>
-      <c r="OS84" s="68"/>
-      <c r="OT84" s="68"/>
-      <c r="OU84" s="68"/>
-      <c r="OV84" s="68"/>
-      <c r="OW84" s="68"/>
-      <c r="OX84" s="68"/>
-      <c r="OY84" s="68"/>
-      <c r="OZ84" s="68"/>
-      <c r="PA84" s="68"/>
-      <c r="PB84" s="68"/>
-      <c r="PC84" s="68"/>
-      <c r="PD84" s="68"/>
-      <c r="PE84" s="68"/>
-      <c r="PF84" s="68"/>
-      <c r="PG84" s="68"/>
-      <c r="PH84" s="68"/>
-      <c r="PI84" s="68"/>
-      <c r="PJ84" s="68"/>
-      <c r="PK84" s="68"/>
-      <c r="PL84" s="68"/>
-      <c r="PM84" s="68"/>
-      <c r="PN84" s="68"/>
-      <c r="PO84" s="68"/>
-      <c r="PP84" s="68"/>
-      <c r="PQ84" s="68"/>
-      <c r="PR84" s="68"/>
-      <c r="PS84" s="68"/>
-      <c r="PT84" s="68"/>
-      <c r="PU84" s="68"/>
-      <c r="PV84" s="68"/>
-      <c r="PW84" s="68"/>
-      <c r="PX84" s="68"/>
-      <c r="PY84" s="68"/>
-      <c r="PZ84" s="68"/>
-      <c r="QA84" s="68"/>
-      <c r="QB84" s="68"/>
-      <c r="QC84" s="68"/>
-      <c r="QD84" s="68"/>
-      <c r="QE84" s="68"/>
-      <c r="QF84" s="68"/>
-      <c r="QG84" s="68"/>
-      <c r="QH84" s="68"/>
-      <c r="QI84" s="68"/>
-      <c r="QJ84" s="68"/>
-      <c r="QK84" s="68"/>
-      <c r="QL84" s="68"/>
-      <c r="QM84" s="68"/>
-      <c r="QN84" s="68"/>
-      <c r="QO84" s="68"/>
-      <c r="QP84" s="68"/>
-      <c r="QQ84" s="68"/>
-      <c r="QR84" s="68"/>
-      <c r="QS84" s="68"/>
-      <c r="QT84" s="68"/>
-      <c r="QU84" s="68"/>
-      <c r="QV84" s="68"/>
-      <c r="QW84" s="68"/>
-      <c r="QX84" s="68"/>
-      <c r="QY84" s="68"/>
-      <c r="QZ84" s="68"/>
-      <c r="RA84" s="68"/>
-      <c r="RB84" s="68"/>
-      <c r="RC84" s="68"/>
-      <c r="RD84" s="68"/>
-      <c r="RE84" s="68"/>
-      <c r="RF84" s="68"/>
-      <c r="RG84" s="68"/>
-      <c r="RH84" s="68"/>
-      <c r="RI84" s="68"/>
-      <c r="RJ84" s="68"/>
-      <c r="RK84" s="68"/>
-      <c r="RL84" s="68"/>
-      <c r="RM84" s="68"/>
-      <c r="RN84" s="68"/>
-      <c r="RO84" s="68"/>
-      <c r="RP84" s="68"/>
-      <c r="RQ84" s="68"/>
-      <c r="RR84" s="68"/>
-      <c r="RS84" s="68"/>
-      <c r="RT84" s="68"/>
-      <c r="RU84" s="68"/>
-      <c r="RV84" s="68"/>
-      <c r="RW84" s="68"/>
-      <c r="RX84" s="68"/>
-      <c r="RY84" s="68"/>
-      <c r="RZ84" s="68"/>
-      <c r="SA84" s="68"/>
-      <c r="SB84" s="68"/>
-      <c r="SC84" s="68"/>
-      <c r="SD84" s="68"/>
-      <c r="SE84" s="68"/>
-      <c r="SF84" s="68"/>
-      <c r="SG84" s="68"/>
-      <c r="SH84" s="68"/>
-      <c r="SI84" s="68"/>
-      <c r="SJ84" s="68"/>
-      <c r="SK84" s="68"/>
-      <c r="SL84" s="68"/>
-      <c r="SM84" s="68"/>
-      <c r="SN84" s="68"/>
-      <c r="SO84" s="68"/>
-      <c r="SP84" s="68"/>
-      <c r="SQ84" s="68"/>
-      <c r="SR84" s="68"/>
-      <c r="SS84" s="68"/>
-      <c r="ST84" s="68"/>
-      <c r="SU84" s="68"/>
-      <c r="SV84" s="68"/>
-      <c r="SW84" s="68"/>
-      <c r="SX84" s="68"/>
-      <c r="SY84" s="68"/>
-      <c r="SZ84" s="68"/>
-      <c r="TA84" s="68"/>
-      <c r="TB84" s="68"/>
-      <c r="TC84" s="68"/>
-      <c r="TD84" s="68"/>
-      <c r="TE84" s="68"/>
-      <c r="TF84" s="68"/>
-      <c r="TG84" s="68"/>
-      <c r="TH84" s="68"/>
-      <c r="TI84" s="68"/>
-      <c r="TJ84" s="68"/>
-      <c r="TK84" s="68"/>
-      <c r="TL84" s="68"/>
-      <c r="TM84" s="68"/>
-      <c r="TN84" s="68"/>
-      <c r="TO84" s="68"/>
-      <c r="TP84" s="68"/>
-      <c r="TQ84" s="68"/>
-      <c r="TR84" s="68"/>
-      <c r="TS84" s="68"/>
-      <c r="TT84" s="68"/>
-      <c r="TU84" s="68"/>
-      <c r="TV84" s="68"/>
-      <c r="TW84" s="68"/>
-      <c r="TX84" s="68"/>
-      <c r="TY84" s="68"/>
-      <c r="TZ84" s="68"/>
-      <c r="UA84" s="68"/>
-      <c r="UB84" s="68"/>
-      <c r="UC84" s="68"/>
-      <c r="UD84" s="68"/>
-      <c r="UE84" s="68"/>
-      <c r="UF84" s="68"/>
-      <c r="UG84" s="68"/>
-      <c r="UH84" s="68"/>
-      <c r="UI84" s="68"/>
-      <c r="UJ84" s="68"/>
-      <c r="UK84" s="68"/>
-      <c r="UL84" s="68"/>
-      <c r="UM84" s="68"/>
-      <c r="UN84" s="68"/>
-      <c r="UO84" s="68"/>
-      <c r="UP84" s="68"/>
-      <c r="UQ84" s="68"/>
-      <c r="UR84" s="68"/>
-      <c r="US84" s="68"/>
-      <c r="UT84" s="68"/>
-      <c r="UU84" s="68"/>
-      <c r="UV84" s="68"/>
-      <c r="UW84" s="68"/>
-      <c r="UX84" s="68"/>
-      <c r="UY84" s="68"/>
-      <c r="UZ84" s="68"/>
-      <c r="VA84" s="68"/>
-      <c r="VB84" s="68"/>
-      <c r="VC84" s="68"/>
-      <c r="VD84" s="68"/>
-      <c r="VE84" s="68"/>
-      <c r="VF84" s="68"/>
-      <c r="VG84" s="68"/>
-      <c r="VH84" s="68"/>
-      <c r="VI84" s="68"/>
-      <c r="VJ84" s="68"/>
-      <c r="VK84" s="68"/>
-      <c r="VL84" s="68"/>
-      <c r="VM84" s="68"/>
-      <c r="VN84" s="68"/>
-      <c r="VO84" s="68"/>
-      <c r="VP84" s="68"/>
-      <c r="VQ84" s="68"/>
-      <c r="VR84" s="68"/>
-      <c r="VS84" s="68"/>
-      <c r="VT84" s="68"/>
-      <c r="VU84" s="68"/>
-      <c r="VV84" s="68"/>
-      <c r="VW84" s="68"/>
-      <c r="VX84" s="68"/>
-      <c r="VY84" s="68"/>
-      <c r="VZ84" s="68"/>
-      <c r="WA84" s="68"/>
-      <c r="WB84" s="68"/>
-      <c r="WC84" s="68"/>
-      <c r="WD84" s="68"/>
-      <c r="WE84" s="68"/>
-      <c r="WF84" s="68"/>
-      <c r="WG84" s="68"/>
-      <c r="WH84" s="68"/>
-      <c r="WI84" s="68"/>
-      <c r="WJ84" s="68"/>
-      <c r="WK84" s="68"/>
-      <c r="WL84" s="68"/>
-      <c r="WM84" s="68"/>
-      <c r="WN84" s="68"/>
-      <c r="WO84" s="68"/>
-      <c r="WP84" s="68"/>
-      <c r="WQ84" s="68"/>
-      <c r="WR84" s="68"/>
-      <c r="WS84" s="68"/>
-      <c r="WT84" s="68"/>
-      <c r="WU84" s="68"/>
-      <c r="WV84" s="68"/>
-      <c r="WW84" s="68"/>
-      <c r="WX84" s="68"/>
-      <c r="WY84" s="68"/>
-      <c r="WZ84" s="68"/>
-      <c r="XA84" s="68"/>
-      <c r="XB84" s="68"/>
-      <c r="XC84" s="68"/>
-      <c r="XD84" s="68"/>
-      <c r="XE84" s="68"/>
-      <c r="XF84" s="68"/>
-      <c r="XG84" s="68"/>
-      <c r="XH84" s="68"/>
-      <c r="XI84" s="68"/>
-      <c r="XJ84" s="68"/>
-      <c r="XK84" s="68"/>
-      <c r="XL84" s="68"/>
-      <c r="XM84" s="68"/>
-      <c r="XN84" s="68"/>
-      <c r="XO84" s="68"/>
-      <c r="XP84" s="68"/>
-      <c r="XQ84" s="68"/>
-      <c r="XR84" s="68"/>
-      <c r="XS84" s="68"/>
-      <c r="XT84" s="68"/>
-      <c r="XU84" s="68"/>
-      <c r="XV84" s="68"/>
-      <c r="XW84" s="68"/>
-      <c r="XX84" s="68"/>
-      <c r="XY84" s="68"/>
-      <c r="XZ84" s="68"/>
-      <c r="YA84" s="68"/>
-      <c r="YB84" s="68"/>
-      <c r="YC84" s="68"/>
-      <c r="YD84" s="68"/>
-      <c r="YE84" s="68"/>
-      <c r="YF84" s="68"/>
-      <c r="YG84" s="68"/>
-      <c r="YH84" s="68"/>
-      <c r="YI84" s="68"/>
-      <c r="YJ84" s="68"/>
-      <c r="YK84" s="68"/>
-      <c r="YL84" s="68"/>
-      <c r="YM84" s="68"/>
-      <c r="YN84" s="68"/>
-      <c r="YO84" s="68"/>
-      <c r="YP84" s="68"/>
-      <c r="YQ84" s="68"/>
-      <c r="YR84" s="68"/>
-      <c r="YS84" s="68"/>
-      <c r="YT84" s="68"/>
-      <c r="YU84" s="68"/>
-      <c r="YV84" s="68"/>
-      <c r="YW84" s="68"/>
-      <c r="YX84" s="68"/>
-      <c r="YY84" s="68"/>
-      <c r="YZ84" s="68"/>
-      <c r="ZA84" s="68"/>
-      <c r="ZB84" s="68"/>
-      <c r="ZC84" s="68"/>
-      <c r="ZD84" s="68"/>
-      <c r="ZE84" s="68"/>
-      <c r="ZF84" s="68"/>
-      <c r="ZG84" s="68"/>
-      <c r="ZH84" s="68"/>
-      <c r="ZI84" s="68"/>
-      <c r="ZJ84" s="68"/>
-      <c r="ZK84" s="68"/>
-      <c r="ZL84" s="68"/>
-      <c r="ZM84" s="68"/>
-      <c r="ZN84" s="68"/>
-      <c r="ZO84" s="68"/>
-      <c r="ZP84" s="68"/>
-      <c r="ZQ84" s="68"/>
-      <c r="ZR84" s="68"/>
-      <c r="ZS84" s="68"/>
-      <c r="ZT84" s="68"/>
-      <c r="ZU84" s="68"/>
-      <c r="ZV84" s="68"/>
-      <c r="ZW84" s="68"/>
-      <c r="ZX84" s="68"/>
-      <c r="ZY84" s="68"/>
-      <c r="ZZ84" s="68"/>
-      <c r="AAA84" s="68"/>
-      <c r="AAB84" s="68"/>
-      <c r="AAC84" s="68"/>
-      <c r="AAD84" s="68"/>
-      <c r="AAE84" s="68"/>
-      <c r="AAF84" s="68"/>
-      <c r="AAG84" s="68"/>
-      <c r="AAH84" s="68"/>
-      <c r="AAI84" s="68"/>
-      <c r="AAJ84" s="68"/>
-      <c r="AAK84" s="68"/>
-      <c r="AAL84" s="68"/>
-      <c r="AAM84" s="68"/>
-      <c r="AAN84" s="68"/>
-      <c r="AAO84" s="68"/>
-      <c r="AAP84" s="68"/>
-      <c r="AAQ84" s="68"/>
-      <c r="AAR84" s="68"/>
-      <c r="AAS84" s="68"/>
-      <c r="AAT84" s="68"/>
-      <c r="AAU84" s="68"/>
-      <c r="AAV84" s="68"/>
-      <c r="AAW84" s="68"/>
-      <c r="AAX84" s="68"/>
-      <c r="AAY84" s="68"/>
-      <c r="AAZ84" s="68"/>
-      <c r="ABA84" s="68"/>
-      <c r="ABB84" s="68"/>
-      <c r="ABC84" s="68"/>
-      <c r="ABD84" s="68"/>
-      <c r="ABE84" s="68"/>
-      <c r="ABF84" s="68"/>
-      <c r="ABG84" s="68"/>
-      <c r="ABH84" s="68"/>
-      <c r="ABI84" s="68"/>
-      <c r="ABJ84" s="68"/>
-      <c r="ABK84" s="68"/>
-      <c r="ABL84" s="68"/>
-      <c r="ABM84" s="68"/>
-      <c r="ABN84" s="68"/>
-      <c r="ABO84" s="68"/>
-      <c r="ABP84" s="68"/>
-      <c r="ABQ84" s="68"/>
-      <c r="ABR84" s="68"/>
-      <c r="ABS84" s="68"/>
-      <c r="ABT84" s="68"/>
-      <c r="ABU84" s="68"/>
-      <c r="ABV84" s="68"/>
-      <c r="ABW84" s="68"/>
-      <c r="ABX84" s="68"/>
-      <c r="ABY84" s="68"/>
-      <c r="ABZ84" s="68"/>
-      <c r="ACA84" s="68"/>
-      <c r="ACB84" s="68"/>
-      <c r="ACC84" s="68"/>
-      <c r="ACD84" s="68"/>
-      <c r="ACE84" s="68"/>
-      <c r="ACF84" s="68"/>
-      <c r="ACG84" s="68"/>
-      <c r="ACH84" s="68"/>
-      <c r="ACI84" s="68"/>
-      <c r="ACJ84" s="68"/>
-      <c r="ACK84" s="68"/>
-      <c r="ACL84" s="68"/>
-      <c r="ACM84" s="68"/>
-      <c r="ACN84" s="68"/>
-      <c r="ACO84" s="68"/>
-      <c r="ACP84" s="68"/>
-      <c r="ACQ84" s="68"/>
-      <c r="ACR84" s="68"/>
-      <c r="ACS84" s="68"/>
-      <c r="ACT84" s="68"/>
-      <c r="ACU84" s="68"/>
-      <c r="ACV84" s="68"/>
-      <c r="ACW84" s="68"/>
-      <c r="ACX84" s="68"/>
-      <c r="ACY84" s="68"/>
-      <c r="ACZ84" s="68"/>
-      <c r="ADA84" s="68"/>
-      <c r="ADB84" s="68"/>
-      <c r="ADC84" s="68"/>
-      <c r="ADD84" s="68"/>
-      <c r="ADE84" s="68"/>
-      <c r="ADF84" s="68"/>
-      <c r="ADG84" s="68"/>
-      <c r="ADH84" s="68"/>
-      <c r="ADI84" s="68"/>
-      <c r="ADJ84" s="68"/>
-      <c r="ADK84" s="68"/>
-      <c r="ADL84" s="68"/>
-      <c r="ADM84" s="68"/>
-      <c r="ADN84" s="68"/>
-      <c r="ADO84" s="68"/>
-      <c r="ADP84" s="68"/>
-      <c r="ADQ84" s="68"/>
-      <c r="ADR84" s="68"/>
-      <c r="ADS84" s="68"/>
-      <c r="ADT84" s="68"/>
-      <c r="ADU84" s="68"/>
-      <c r="ADV84" s="68"/>
-      <c r="ADW84" s="68"/>
-      <c r="ADX84" s="68"/>
-      <c r="ADY84" s="68"/>
-      <c r="ADZ84" s="68"/>
-      <c r="AEA84" s="68"/>
-      <c r="AEB84" s="68"/>
-      <c r="AEC84" s="68"/>
-      <c r="AED84" s="68"/>
-      <c r="AEE84" s="68"/>
-      <c r="AEF84" s="68"/>
-      <c r="AEG84" s="68"/>
-      <c r="AEH84" s="68"/>
-      <c r="AEI84" s="68"/>
-      <c r="AEJ84" s="68"/>
-      <c r="AEK84" s="68"/>
-      <c r="AEL84" s="68"/>
-      <c r="AEM84" s="68"/>
-      <c r="AEN84" s="68"/>
-      <c r="AEO84" s="68"/>
-      <c r="AEP84" s="68"/>
-      <c r="AEQ84" s="68"/>
-      <c r="AER84" s="68"/>
-      <c r="AES84" s="68"/>
-      <c r="AET84" s="68"/>
-      <c r="AEU84" s="68"/>
-      <c r="AEV84" s="68"/>
-      <c r="AEW84" s="68"/>
-      <c r="AEX84" s="68"/>
-      <c r="AEY84" s="68"/>
-      <c r="AEZ84" s="68"/>
-      <c r="AFA84" s="68"/>
-      <c r="AFB84" s="68"/>
-      <c r="AFC84" s="68"/>
-      <c r="AFD84" s="68"/>
-      <c r="AFE84" s="68"/>
-      <c r="AFF84" s="68"/>
-      <c r="AFG84" s="68"/>
-      <c r="AFH84" s="68"/>
-      <c r="AFI84" s="68"/>
-      <c r="AFJ84" s="68"/>
-      <c r="AFK84" s="68"/>
-      <c r="AFL84" s="68"/>
-      <c r="AFM84" s="68"/>
-      <c r="AFN84" s="68"/>
-      <c r="AFO84" s="68"/>
-      <c r="AFP84" s="68"/>
-      <c r="AFQ84" s="68"/>
-      <c r="AFR84" s="68"/>
-      <c r="AFS84" s="68"/>
-      <c r="AFT84" s="68"/>
-      <c r="AFU84" s="68"/>
-      <c r="AFV84" s="68"/>
-      <c r="AFW84" s="68"/>
-      <c r="AFX84" s="68"/>
-      <c r="AFY84" s="68"/>
-      <c r="AFZ84" s="68"/>
-      <c r="AGA84" s="68"/>
-      <c r="AGB84" s="68"/>
-      <c r="AGC84" s="68"/>
-      <c r="AGD84" s="68"/>
-      <c r="AGE84" s="68"/>
-      <c r="AGF84" s="68"/>
-      <c r="AGG84" s="68"/>
-      <c r="AGH84" s="68"/>
-      <c r="AGI84" s="68"/>
-      <c r="AGJ84" s="68"/>
-      <c r="AGK84" s="68"/>
-      <c r="AGL84" s="68"/>
-      <c r="AGM84" s="68"/>
-      <c r="AGN84" s="68"/>
-      <c r="AGO84" s="68"/>
-      <c r="AGP84" s="68"/>
-      <c r="AGQ84" s="68"/>
-      <c r="AGR84" s="68"/>
-      <c r="AGS84" s="68"/>
-      <c r="AGT84" s="68"/>
-      <c r="AGU84" s="68"/>
-      <c r="AGV84" s="68"/>
-      <c r="AGW84" s="68"/>
-      <c r="AGX84" s="68"/>
-      <c r="AGY84" s="68"/>
-      <c r="AGZ84" s="68"/>
-      <c r="AHA84" s="68"/>
-      <c r="AHB84" s="68"/>
-      <c r="AHC84" s="68"/>
-      <c r="AHD84" s="68"/>
-      <c r="AHE84" s="68"/>
-      <c r="AHF84" s="68"/>
-      <c r="AHG84" s="68"/>
-      <c r="AHH84" s="68"/>
-      <c r="AHI84" s="68"/>
-      <c r="AHJ84" s="68"/>
-      <c r="AHK84" s="68"/>
-      <c r="AHL84" s="68"/>
-      <c r="AHM84" s="68"/>
-      <c r="AHN84" s="68"/>
-      <c r="AHO84" s="68"/>
-      <c r="AHP84" s="68"/>
-      <c r="AHQ84" s="68"/>
-      <c r="AHR84" s="68"/>
-      <c r="AHS84" s="68"/>
-      <c r="AHT84" s="68"/>
-      <c r="AHU84" s="68"/>
-      <c r="AHV84" s="68"/>
-      <c r="AHW84" s="68"/>
-      <c r="AHX84" s="68"/>
-      <c r="AHY84" s="68"/>
-      <c r="AHZ84" s="68"/>
-      <c r="AIA84" s="68"/>
-      <c r="AIB84" s="68"/>
-      <c r="AIC84" s="68"/>
-      <c r="AID84" s="68"/>
-      <c r="AIE84" s="68"/>
-      <c r="AIF84" s="68"/>
-      <c r="AIG84" s="68"/>
-      <c r="AIH84" s="68"/>
-      <c r="AII84" s="68"/>
-      <c r="AIJ84" s="68"/>
-      <c r="AIK84" s="68"/>
-      <c r="AIL84" s="68"/>
-      <c r="AIM84" s="68"/>
-      <c r="AIN84" s="68"/>
-      <c r="AIO84" s="68"/>
-      <c r="AIP84" s="68"/>
-      <c r="AIQ84" s="68"/>
-      <c r="AIR84" s="68"/>
-      <c r="AIS84" s="68"/>
-      <c r="AIT84" s="68"/>
-      <c r="AIU84" s="68"/>
-      <c r="AIV84" s="68"/>
-      <c r="AIW84" s="68"/>
-      <c r="AIX84" s="68"/>
-      <c r="AIY84" s="68"/>
-      <c r="AIZ84" s="68"/>
-      <c r="AJA84" s="68"/>
-      <c r="AJB84" s="68"/>
-      <c r="AJC84" s="68"/>
-      <c r="AJD84" s="68"/>
-      <c r="AJE84" s="68"/>
-      <c r="AJF84" s="68"/>
-      <c r="AJG84" s="68"/>
-      <c r="AJH84" s="68"/>
-      <c r="AJI84" s="68"/>
-      <c r="AJJ84" s="68"/>
-      <c r="AJK84" s="68"/>
-      <c r="AJL84" s="68"/>
-      <c r="AJM84" s="68"/>
-      <c r="AJN84" s="68"/>
-      <c r="AJO84" s="68"/>
-      <c r="AJP84" s="68"/>
-      <c r="AJQ84" s="68"/>
-      <c r="AJR84" s="68"/>
-      <c r="AJS84" s="68"/>
-      <c r="AJT84" s="68"/>
-      <c r="AJU84" s="68"/>
-      <c r="AJV84" s="68"/>
-      <c r="AJW84" s="68"/>
-      <c r="AJX84" s="68"/>
-      <c r="AJY84" s="68"/>
-      <c r="AJZ84" s="68"/>
-      <c r="AKA84" s="68"/>
-      <c r="AKB84" s="68"/>
-      <c r="AKC84" s="68"/>
-      <c r="AKD84" s="68"/>
-      <c r="AKE84" s="68"/>
-      <c r="AKF84" s="68"/>
-      <c r="AKG84" s="68"/>
-      <c r="AKH84" s="68"/>
-      <c r="AKI84" s="68"/>
-      <c r="AKJ84" s="68"/>
-      <c r="AKK84" s="68"/>
-      <c r="AKL84" s="68"/>
-      <c r="AKM84" s="68"/>
-      <c r="AKN84" s="68"/>
-      <c r="AKO84" s="68"/>
-      <c r="AKP84" s="68"/>
-      <c r="AKQ84" s="68"/>
-      <c r="AKR84" s="68"/>
-      <c r="AKS84" s="68"/>
-      <c r="AKT84" s="68"/>
-      <c r="AKU84" s="68"/>
-      <c r="AKV84" s="68"/>
-      <c r="AKW84" s="68"/>
-      <c r="AKX84" s="68"/>
-      <c r="AKY84" s="68"/>
-      <c r="AKZ84" s="68"/>
-      <c r="ALA84" s="68"/>
-      <c r="ALB84" s="68"/>
-      <c r="ALC84" s="68"/>
-      <c r="ALD84" s="68"/>
-      <c r="ALE84" s="68"/>
-      <c r="ALF84" s="68"/>
-      <c r="ALG84" s="68"/>
-      <c r="ALH84" s="68"/>
-      <c r="ALI84" s="68"/>
-      <c r="ALJ84" s="68"/>
-      <c r="ALK84" s="68"/>
-      <c r="ALL84" s="68"/>
-      <c r="ALM84" s="68"/>
-      <c r="ALN84" s="68"/>
-      <c r="ALO84" s="68"/>
-      <c r="ALP84" s="68"/>
-      <c r="ALQ84" s="68"/>
-      <c r="ALR84" s="68"/>
-      <c r="ALS84" s="68"/>
-      <c r="ALT84" s="68"/>
-      <c r="ALU84" s="68"/>
-      <c r="ALV84" s="68"/>
-      <c r="ALW84" s="68"/>
-      <c r="ALX84" s="68"/>
-      <c r="ALY84" s="68"/>
-      <c r="ALZ84" s="68"/>
-      <c r="AMA84" s="68"/>
-      <c r="AMB84" s="68"/>
-      <c r="AMC84" s="68"/>
-      <c r="AMD84" s="68"/>
-      <c r="AME84" s="68"/>
-      <c r="AMF84" s="68"/>
-      <c r="AMG84" s="68"/>
-      <c r="AMH84" s="68"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
+      <c r="O84" s="67"/>
+      <c r="P84" s="67"/>
+      <c r="Q84" s="67"/>
+      <c r="R84" s="67"/>
+      <c r="S84" s="67"/>
+      <c r="T84" s="67"/>
+      <c r="U84" s="67"/>
+      <c r="V84" s="67"/>
+      <c r="W84" s="67"/>
+      <c r="X84" s="67"/>
+      <c r="Y84" s="67"/>
+      <c r="Z84" s="67"/>
+      <c r="AA84" s="67"/>
+      <c r="AB84" s="67"/>
+      <c r="AC84" s="67"/>
+      <c r="AD84" s="67"/>
+      <c r="AE84" s="67"/>
+      <c r="AF84" s="67"/>
+      <c r="AG84" s="67"/>
+      <c r="AH84" s="67"/>
+      <c r="AI84" s="67"/>
+      <c r="AJ84" s="67"/>
+      <c r="AK84" s="67"/>
+      <c r="AL84" s="67"/>
+      <c r="AM84" s="67"/>
+      <c r="AN84" s="67"/>
+      <c r="AO84" s="67"/>
+      <c r="AP84" s="67"/>
+      <c r="AQ84" s="67"/>
+      <c r="AR84" s="67"/>
+      <c r="AS84" s="67"/>
+      <c r="AT84" s="67"/>
+      <c r="AU84" s="67"/>
+      <c r="AV84" s="67"/>
+      <c r="AW84" s="67"/>
+      <c r="AX84" s="67"/>
+      <c r="AY84" s="67"/>
+      <c r="AZ84" s="67"/>
+      <c r="BA84" s="67"/>
+      <c r="BB84" s="67"/>
+      <c r="BC84" s="67"/>
+      <c r="BD84" s="67"/>
+      <c r="BE84" s="67"/>
+      <c r="BF84" s="67"/>
+      <c r="BG84" s="67"/>
+      <c r="BH84" s="67"/>
+      <c r="BI84" s="67"/>
+      <c r="BJ84" s="67"/>
+      <c r="BK84" s="67"/>
+      <c r="BL84" s="67"/>
+      <c r="BM84" s="67"/>
+      <c r="BN84" s="67"/>
+      <c r="BO84" s="67"/>
+      <c r="BP84" s="67"/>
+      <c r="BQ84" s="67"/>
+      <c r="BR84" s="67"/>
+      <c r="BS84" s="67"/>
+      <c r="BT84" s="67"/>
+      <c r="BU84" s="67"/>
+      <c r="BV84" s="67"/>
+      <c r="BW84" s="67"/>
+      <c r="BX84" s="67"/>
+      <c r="BY84" s="67"/>
+      <c r="BZ84" s="67"/>
+      <c r="CA84" s="67"/>
+      <c r="CB84" s="67"/>
+      <c r="CC84" s="67"/>
+      <c r="CD84" s="67"/>
+      <c r="CE84" s="67"/>
+      <c r="CF84" s="67"/>
+      <c r="CG84" s="67"/>
+      <c r="CH84" s="67"/>
+      <c r="CI84" s="67"/>
+      <c r="CJ84" s="67"/>
+      <c r="CK84" s="67"/>
+      <c r="CL84" s="67"/>
+      <c r="CM84" s="67"/>
+      <c r="CN84" s="67"/>
+      <c r="CO84" s="67"/>
+      <c r="CP84" s="67"/>
+      <c r="CQ84" s="67"/>
+      <c r="CR84" s="67"/>
+      <c r="CS84" s="67"/>
+      <c r="CT84" s="67"/>
+      <c r="CU84" s="67"/>
+      <c r="CV84" s="67"/>
+      <c r="CW84" s="67"/>
+      <c r="CX84" s="67"/>
+      <c r="CY84" s="67"/>
+      <c r="CZ84" s="67"/>
+      <c r="DA84" s="67"/>
+      <c r="DB84" s="67"/>
+      <c r="DC84" s="67"/>
+      <c r="DD84" s="67"/>
+      <c r="DE84" s="67"/>
+      <c r="DF84" s="67"/>
+      <c r="DG84" s="67"/>
+      <c r="DH84" s="67"/>
+      <c r="DI84" s="67"/>
+      <c r="DJ84" s="67"/>
+      <c r="DK84" s="67"/>
+      <c r="DL84" s="67"/>
+      <c r="DM84" s="67"/>
+      <c r="DN84" s="67"/>
+      <c r="DO84" s="67"/>
+      <c r="DP84" s="67"/>
+      <c r="DQ84" s="67"/>
+      <c r="DR84" s="67"/>
+      <c r="DS84" s="67"/>
+      <c r="DT84" s="67"/>
+      <c r="DU84" s="67"/>
+      <c r="DV84" s="67"/>
+      <c r="DW84" s="67"/>
+      <c r="DX84" s="67"/>
+      <c r="DY84" s="67"/>
+      <c r="DZ84" s="67"/>
+      <c r="EA84" s="67"/>
+      <c r="EB84" s="67"/>
+      <c r="EC84" s="67"/>
+      <c r="ED84" s="67"/>
+      <c r="EE84" s="67"/>
+      <c r="EF84" s="67"/>
+      <c r="EG84" s="67"/>
+      <c r="EH84" s="67"/>
+      <c r="EI84" s="67"/>
+      <c r="EJ84" s="67"/>
+      <c r="EK84" s="67"/>
+      <c r="EL84" s="67"/>
+      <c r="EM84" s="67"/>
+      <c r="EN84" s="67"/>
+      <c r="EO84" s="67"/>
+      <c r="EP84" s="67"/>
+      <c r="EQ84" s="67"/>
+      <c r="ER84" s="67"/>
+      <c r="ES84" s="67"/>
+      <c r="ET84" s="67"/>
+      <c r="EU84" s="67"/>
+      <c r="EV84" s="67"/>
+      <c r="EW84" s="67"/>
+      <c r="EX84" s="67"/>
+      <c r="EY84" s="67"/>
+      <c r="EZ84" s="67"/>
+      <c r="FA84" s="67"/>
+      <c r="FB84" s="67"/>
+      <c r="FC84" s="67"/>
+      <c r="FD84" s="67"/>
+      <c r="FE84" s="67"/>
+      <c r="FF84" s="67"/>
+      <c r="FG84" s="67"/>
+      <c r="FH84" s="67"/>
+      <c r="FI84" s="67"/>
+      <c r="FJ84" s="67"/>
+      <c r="FK84" s="67"/>
+      <c r="FL84" s="67"/>
+      <c r="FM84" s="67"/>
+      <c r="FN84" s="67"/>
+      <c r="FO84" s="67"/>
+      <c r="FP84" s="67"/>
+      <c r="FQ84" s="67"/>
+      <c r="FR84" s="67"/>
+      <c r="FS84" s="67"/>
+      <c r="FT84" s="67"/>
+      <c r="FU84" s="67"/>
+      <c r="FV84" s="67"/>
+      <c r="FW84" s="67"/>
+      <c r="FX84" s="67"/>
+      <c r="FY84" s="67"/>
+      <c r="FZ84" s="67"/>
+      <c r="GA84" s="67"/>
+      <c r="GB84" s="67"/>
+      <c r="GC84" s="67"/>
+      <c r="GD84" s="67"/>
+      <c r="GE84" s="67"/>
+      <c r="GF84" s="67"/>
+      <c r="GG84" s="67"/>
+      <c r="GH84" s="67"/>
+      <c r="GI84" s="67"/>
+      <c r="GJ84" s="67"/>
+      <c r="GK84" s="67"/>
+      <c r="GL84" s="67"/>
+      <c r="GM84" s="67"/>
+      <c r="GN84" s="67"/>
+      <c r="GO84" s="67"/>
+      <c r="GP84" s="67"/>
+      <c r="GQ84" s="67"/>
+      <c r="GR84" s="67"/>
+      <c r="GS84" s="67"/>
+      <c r="GT84" s="67"/>
+      <c r="GU84" s="67"/>
+      <c r="GV84" s="67"/>
+      <c r="GW84" s="67"/>
+      <c r="GX84" s="67"/>
+      <c r="GY84" s="67"/>
+      <c r="GZ84" s="67"/>
+      <c r="HA84" s="67"/>
+      <c r="HB84" s="67"/>
+      <c r="HC84" s="67"/>
+      <c r="HD84" s="67"/>
+      <c r="HE84" s="67"/>
+      <c r="HF84" s="67"/>
+      <c r="HG84" s="67"/>
+      <c r="HH84" s="67"/>
+      <c r="HI84" s="67"/>
+      <c r="HJ84" s="67"/>
+      <c r="HK84" s="67"/>
+      <c r="HL84" s="67"/>
+      <c r="HM84" s="67"/>
+      <c r="HN84" s="67"/>
+      <c r="HO84" s="67"/>
+      <c r="HP84" s="67"/>
+      <c r="HQ84" s="67"/>
+      <c r="HR84" s="67"/>
+      <c r="HS84" s="67"/>
+      <c r="HT84" s="67"/>
+      <c r="HU84" s="67"/>
+      <c r="HV84" s="67"/>
+      <c r="HW84" s="67"/>
+      <c r="HX84" s="67"/>
+      <c r="HY84" s="67"/>
+      <c r="HZ84" s="67"/>
+      <c r="IA84" s="67"/>
+      <c r="IB84" s="67"/>
+      <c r="IC84" s="67"/>
+      <c r="ID84" s="67"/>
+      <c r="IE84" s="67"/>
+      <c r="IF84" s="67"/>
+      <c r="IG84" s="67"/>
+      <c r="IH84" s="67"/>
+      <c r="II84" s="67"/>
+      <c r="IJ84" s="67"/>
+      <c r="IK84" s="67"/>
+      <c r="IL84" s="67"/>
+      <c r="IM84" s="67"/>
+      <c r="IN84" s="67"/>
+      <c r="IO84" s="67"/>
+      <c r="IP84" s="67"/>
+      <c r="IQ84" s="67"/>
+      <c r="IR84" s="67"/>
+      <c r="IS84" s="67"/>
+      <c r="IT84" s="67"/>
+      <c r="IU84" s="67"/>
+      <c r="IV84" s="67"/>
+      <c r="IW84" s="67"/>
+      <c r="IX84" s="67"/>
+      <c r="IY84" s="67"/>
+      <c r="IZ84" s="67"/>
+      <c r="JA84" s="67"/>
+      <c r="JB84" s="67"/>
+      <c r="JC84" s="67"/>
+      <c r="JD84" s="67"/>
+      <c r="JE84" s="67"/>
+      <c r="JF84" s="67"/>
+      <c r="JG84" s="67"/>
+      <c r="JH84" s="67"/>
+      <c r="JI84" s="67"/>
+      <c r="JJ84" s="67"/>
+      <c r="JK84" s="67"/>
+      <c r="JL84" s="67"/>
+      <c r="JM84" s="67"/>
+      <c r="JN84" s="67"/>
+      <c r="JO84" s="67"/>
+      <c r="JP84" s="67"/>
+      <c r="JQ84" s="67"/>
+      <c r="JR84" s="67"/>
+      <c r="JS84" s="67"/>
+      <c r="JT84" s="67"/>
+      <c r="JU84" s="67"/>
+      <c r="JV84" s="67"/>
+      <c r="JW84" s="67"/>
+      <c r="JX84" s="67"/>
+      <c r="JY84" s="67"/>
+      <c r="JZ84" s="67"/>
+      <c r="KA84" s="67"/>
+      <c r="KB84" s="67"/>
+      <c r="KC84" s="67"/>
+      <c r="KD84" s="67"/>
+      <c r="KE84" s="67"/>
+      <c r="KF84" s="67"/>
+      <c r="KG84" s="67"/>
+      <c r="KH84" s="67"/>
+      <c r="KI84" s="67"/>
+      <c r="KJ84" s="67"/>
+      <c r="KK84" s="67"/>
+      <c r="KL84" s="67"/>
+      <c r="KM84" s="67"/>
+      <c r="KN84" s="67"/>
+      <c r="KO84" s="67"/>
+      <c r="KP84" s="67"/>
+      <c r="KQ84" s="67"/>
+      <c r="KR84" s="67"/>
+      <c r="KS84" s="67"/>
+      <c r="KT84" s="67"/>
+      <c r="KU84" s="67"/>
+      <c r="KV84" s="67"/>
+      <c r="KW84" s="67"/>
+      <c r="KX84" s="67"/>
+      <c r="KY84" s="67"/>
+      <c r="KZ84" s="67"/>
+      <c r="LA84" s="67"/>
+      <c r="LB84" s="67"/>
+      <c r="LC84" s="67"/>
+      <c r="LD84" s="67"/>
+      <c r="LE84" s="67"/>
+      <c r="LF84" s="67"/>
+      <c r="LG84" s="67"/>
+      <c r="LH84" s="67"/>
+      <c r="LI84" s="67"/>
+      <c r="LJ84" s="67"/>
+      <c r="LK84" s="67"/>
+      <c r="LL84" s="67"/>
+      <c r="LM84" s="67"/>
+      <c r="LN84" s="67"/>
+      <c r="LO84" s="67"/>
+      <c r="LP84" s="67"/>
+      <c r="LQ84" s="67"/>
+      <c r="LR84" s="67"/>
+      <c r="LS84" s="67"/>
+      <c r="LT84" s="67"/>
+      <c r="LU84" s="67"/>
+      <c r="LV84" s="67"/>
+      <c r="LW84" s="67"/>
+      <c r="LX84" s="67"/>
+      <c r="LY84" s="67"/>
+      <c r="LZ84" s="67"/>
+      <c r="MA84" s="67"/>
+      <c r="MB84" s="67"/>
+      <c r="MC84" s="67"/>
+      <c r="MD84" s="67"/>
+      <c r="ME84" s="67"/>
+      <c r="MF84" s="67"/>
+      <c r="MG84" s="67"/>
+      <c r="MH84" s="67"/>
+      <c r="MI84" s="67"/>
+      <c r="MJ84" s="67"/>
+      <c r="MK84" s="67"/>
+      <c r="ML84" s="67"/>
+      <c r="MM84" s="67"/>
+      <c r="MN84" s="67"/>
+      <c r="MO84" s="67"/>
+      <c r="MP84" s="67"/>
+      <c r="MQ84" s="67"/>
+      <c r="MR84" s="67"/>
+      <c r="MS84" s="67"/>
+      <c r="MT84" s="67"/>
+      <c r="MU84" s="67"/>
+      <c r="MV84" s="67"/>
+      <c r="MW84" s="67"/>
+      <c r="MX84" s="67"/>
+      <c r="MY84" s="67"/>
+      <c r="MZ84" s="67"/>
+      <c r="NA84" s="67"/>
+      <c r="NB84" s="67"/>
+      <c r="NC84" s="67"/>
+      <c r="ND84" s="67"/>
+      <c r="NE84" s="67"/>
+      <c r="NF84" s="67"/>
+      <c r="NG84" s="67"/>
+      <c r="NH84" s="67"/>
+      <c r="NI84" s="67"/>
+      <c r="NJ84" s="67"/>
+      <c r="NK84" s="67"/>
+      <c r="NL84" s="67"/>
+      <c r="NM84" s="67"/>
+      <c r="NN84" s="67"/>
+      <c r="NO84" s="67"/>
+      <c r="NP84" s="67"/>
+      <c r="NQ84" s="67"/>
+      <c r="NR84" s="67"/>
+      <c r="NS84" s="67"/>
+      <c r="NT84" s="67"/>
+      <c r="NU84" s="67"/>
+      <c r="NV84" s="67"/>
+      <c r="NW84" s="67"/>
+      <c r="NX84" s="67"/>
+      <c r="NY84" s="67"/>
+      <c r="NZ84" s="67"/>
+      <c r="OA84" s="67"/>
+      <c r="OB84" s="67"/>
+      <c r="OC84" s="67"/>
+      <c r="OD84" s="67"/>
+      <c r="OE84" s="67"/>
+      <c r="OF84" s="67"/>
+      <c r="OG84" s="67"/>
+      <c r="OH84" s="67"/>
+      <c r="OI84" s="67"/>
+      <c r="OJ84" s="67"/>
+      <c r="OK84" s="67"/>
+      <c r="OL84" s="67"/>
+      <c r="OM84" s="67"/>
+      <c r="ON84" s="67"/>
+      <c r="OO84" s="67"/>
+      <c r="OP84" s="67"/>
+      <c r="OQ84" s="67"/>
+      <c r="OR84" s="67"/>
+      <c r="OS84" s="67"/>
+      <c r="OT84" s="67"/>
+      <c r="OU84" s="67"/>
+      <c r="OV84" s="67"/>
+      <c r="OW84" s="67"/>
+      <c r="OX84" s="67"/>
+      <c r="OY84" s="67"/>
+      <c r="OZ84" s="67"/>
+      <c r="PA84" s="67"/>
+      <c r="PB84" s="67"/>
+      <c r="PC84" s="67"/>
+      <c r="PD84" s="67"/>
+      <c r="PE84" s="67"/>
+      <c r="PF84" s="67"/>
+      <c r="PG84" s="67"/>
+      <c r="PH84" s="67"/>
+      <c r="PI84" s="67"/>
+      <c r="PJ84" s="67"/>
+      <c r="PK84" s="67"/>
+      <c r="PL84" s="67"/>
+      <c r="PM84" s="67"/>
+      <c r="PN84" s="67"/>
+      <c r="PO84" s="67"/>
+      <c r="PP84" s="67"/>
+      <c r="PQ84" s="67"/>
+      <c r="PR84" s="67"/>
+      <c r="PS84" s="67"/>
+      <c r="PT84" s="67"/>
+      <c r="PU84" s="67"/>
+      <c r="PV84" s="67"/>
+      <c r="PW84" s="67"/>
+      <c r="PX84" s="67"/>
+      <c r="PY84" s="67"/>
+      <c r="PZ84" s="67"/>
+      <c r="QA84" s="67"/>
+      <c r="QB84" s="67"/>
+      <c r="QC84" s="67"/>
+      <c r="QD84" s="67"/>
+      <c r="QE84" s="67"/>
+      <c r="QF84" s="67"/>
+      <c r="QG84" s="67"/>
+      <c r="QH84" s="67"/>
+      <c r="QI84" s="67"/>
+      <c r="QJ84" s="67"/>
+      <c r="QK84" s="67"/>
+      <c r="QL84" s="67"/>
+      <c r="QM84" s="67"/>
+      <c r="QN84" s="67"/>
+      <c r="QO84" s="67"/>
+      <c r="QP84" s="67"/>
+      <c r="QQ84" s="67"/>
+      <c r="QR84" s="67"/>
+      <c r="QS84" s="67"/>
+      <c r="QT84" s="67"/>
+      <c r="QU84" s="67"/>
+      <c r="QV84" s="67"/>
+      <c r="QW84" s="67"/>
+      <c r="QX84" s="67"/>
+      <c r="QY84" s="67"/>
+      <c r="QZ84" s="67"/>
+      <c r="RA84" s="67"/>
+      <c r="RB84" s="67"/>
+      <c r="RC84" s="67"/>
+      <c r="RD84" s="67"/>
+      <c r="RE84" s="67"/>
+      <c r="RF84" s="67"/>
+      <c r="RG84" s="67"/>
+      <c r="RH84" s="67"/>
+      <c r="RI84" s="67"/>
+      <c r="RJ84" s="67"/>
+      <c r="RK84" s="67"/>
+      <c r="RL84" s="67"/>
+      <c r="RM84" s="67"/>
+      <c r="RN84" s="67"/>
+      <c r="RO84" s="67"/>
+      <c r="RP84" s="67"/>
+      <c r="RQ84" s="67"/>
+      <c r="RR84" s="67"/>
+      <c r="RS84" s="67"/>
+      <c r="RT84" s="67"/>
+      <c r="RU84" s="67"/>
+      <c r="RV84" s="67"/>
+      <c r="RW84" s="67"/>
+      <c r="RX84" s="67"/>
+      <c r="RY84" s="67"/>
+      <c r="RZ84" s="67"/>
+      <c r="SA84" s="67"/>
+      <c r="SB84" s="67"/>
+      <c r="SC84" s="67"/>
+      <c r="SD84" s="67"/>
+      <c r="SE84" s="67"/>
+      <c r="SF84" s="67"/>
+      <c r="SG84" s="67"/>
+      <c r="SH84" s="67"/>
+      <c r="SI84" s="67"/>
+      <c r="SJ84" s="67"/>
+      <c r="SK84" s="67"/>
+      <c r="SL84" s="67"/>
+      <c r="SM84" s="67"/>
+      <c r="SN84" s="67"/>
+      <c r="SO84" s="67"/>
+      <c r="SP84" s="67"/>
+      <c r="SQ84" s="67"/>
+      <c r="SR84" s="67"/>
+      <c r="SS84" s="67"/>
+      <c r="ST84" s="67"/>
+      <c r="SU84" s="67"/>
+      <c r="SV84" s="67"/>
+      <c r="SW84" s="67"/>
+      <c r="SX84" s="67"/>
+      <c r="SY84" s="67"/>
+      <c r="SZ84" s="67"/>
+      <c r="TA84" s="67"/>
+      <c r="TB84" s="67"/>
+      <c r="TC84" s="67"/>
+      <c r="TD84" s="67"/>
+      <c r="TE84" s="67"/>
+      <c r="TF84" s="67"/>
+      <c r="TG84" s="67"/>
+      <c r="TH84" s="67"/>
+      <c r="TI84" s="67"/>
+      <c r="TJ84" s="67"/>
+      <c r="TK84" s="67"/>
+      <c r="TL84" s="67"/>
+      <c r="TM84" s="67"/>
+      <c r="TN84" s="67"/>
+      <c r="TO84" s="67"/>
+      <c r="TP84" s="67"/>
+      <c r="TQ84" s="67"/>
+      <c r="TR84" s="67"/>
+      <c r="TS84" s="67"/>
+      <c r="TT84" s="67"/>
+      <c r="TU84" s="67"/>
+      <c r="TV84" s="67"/>
+      <c r="TW84" s="67"/>
+      <c r="TX84" s="67"/>
+      <c r="TY84" s="67"/>
+      <c r="TZ84" s="67"/>
+      <c r="UA84" s="67"/>
+      <c r="UB84" s="67"/>
+      <c r="UC84" s="67"/>
+      <c r="UD84" s="67"/>
+      <c r="UE84" s="67"/>
+      <c r="UF84" s="67"/>
+      <c r="UG84" s="67"/>
+      <c r="UH84" s="67"/>
+      <c r="UI84" s="67"/>
+      <c r="UJ84" s="67"/>
+      <c r="UK84" s="67"/>
+      <c r="UL84" s="67"/>
+      <c r="UM84" s="67"/>
+      <c r="UN84" s="67"/>
+      <c r="UO84" s="67"/>
+      <c r="UP84" s="67"/>
+      <c r="UQ84" s="67"/>
+      <c r="UR84" s="67"/>
+      <c r="US84" s="67"/>
+      <c r="UT84" s="67"/>
+      <c r="UU84" s="67"/>
+      <c r="UV84" s="67"/>
+      <c r="UW84" s="67"/>
+      <c r="UX84" s="67"/>
+      <c r="UY84" s="67"/>
+      <c r="UZ84" s="67"/>
+      <c r="VA84" s="67"/>
+      <c r="VB84" s="67"/>
+      <c r="VC84" s="67"/>
+      <c r="VD84" s="67"/>
+      <c r="VE84" s="67"/>
+      <c r="VF84" s="67"/>
+      <c r="VG84" s="67"/>
+      <c r="VH84" s="67"/>
+      <c r="VI84" s="67"/>
+      <c r="VJ84" s="67"/>
+      <c r="VK84" s="67"/>
+      <c r="VL84" s="67"/>
+      <c r="VM84" s="67"/>
+      <c r="VN84" s="67"/>
+      <c r="VO84" s="67"/>
+      <c r="VP84" s="67"/>
+      <c r="VQ84" s="67"/>
+      <c r="VR84" s="67"/>
+      <c r="VS84" s="67"/>
+      <c r="VT84" s="67"/>
+      <c r="VU84" s="67"/>
+      <c r="VV84" s="67"/>
+      <c r="VW84" s="67"/>
+      <c r="VX84" s="67"/>
+      <c r="VY84" s="67"/>
+      <c r="VZ84" s="67"/>
+      <c r="WA84" s="67"/>
+      <c r="WB84" s="67"/>
+      <c r="WC84" s="67"/>
+      <c r="WD84" s="67"/>
+      <c r="WE84" s="67"/>
+      <c r="WF84" s="67"/>
+      <c r="WG84" s="67"/>
+      <c r="WH84" s="67"/>
+      <c r="WI84" s="67"/>
+      <c r="WJ84" s="67"/>
+      <c r="WK84" s="67"/>
+      <c r="WL84" s="67"/>
+      <c r="WM84" s="67"/>
+      <c r="WN84" s="67"/>
+      <c r="WO84" s="67"/>
+      <c r="WP84" s="67"/>
+      <c r="WQ84" s="67"/>
+      <c r="WR84" s="67"/>
+      <c r="WS84" s="67"/>
+      <c r="WT84" s="67"/>
+      <c r="WU84" s="67"/>
+      <c r="WV84" s="67"/>
+      <c r="WW84" s="67"/>
+      <c r="WX84" s="67"/>
+      <c r="WY84" s="67"/>
+      <c r="WZ84" s="67"/>
+      <c r="XA84" s="67"/>
+      <c r="XB84" s="67"/>
+      <c r="XC84" s="67"/>
+      <c r="XD84" s="67"/>
+      <c r="XE84" s="67"/>
+      <c r="XF84" s="67"/>
+      <c r="XG84" s="67"/>
+      <c r="XH84" s="67"/>
+      <c r="XI84" s="67"/>
+      <c r="XJ84" s="67"/>
+      <c r="XK84" s="67"/>
+      <c r="XL84" s="67"/>
+      <c r="XM84" s="67"/>
+      <c r="XN84" s="67"/>
+      <c r="XO84" s="67"/>
+      <c r="XP84" s="67"/>
+      <c r="XQ84" s="67"/>
+      <c r="XR84" s="67"/>
+      <c r="XS84" s="67"/>
+      <c r="XT84" s="67"/>
+      <c r="XU84" s="67"/>
+      <c r="XV84" s="67"/>
+      <c r="XW84" s="67"/>
+      <c r="XX84" s="67"/>
+      <c r="XY84" s="67"/>
+      <c r="XZ84" s="67"/>
+      <c r="YA84" s="67"/>
+      <c r="YB84" s="67"/>
+      <c r="YC84" s="67"/>
+      <c r="YD84" s="67"/>
+      <c r="YE84" s="67"/>
+      <c r="YF84" s="67"/>
+      <c r="YG84" s="67"/>
+      <c r="YH84" s="67"/>
+      <c r="YI84" s="67"/>
+      <c r="YJ84" s="67"/>
+      <c r="YK84" s="67"/>
+      <c r="YL84" s="67"/>
+      <c r="YM84" s="67"/>
+      <c r="YN84" s="67"/>
+      <c r="YO84" s="67"/>
+      <c r="YP84" s="67"/>
+      <c r="YQ84" s="67"/>
+      <c r="YR84" s="67"/>
+      <c r="YS84" s="67"/>
+      <c r="YT84" s="67"/>
+      <c r="YU84" s="67"/>
+      <c r="YV84" s="67"/>
+      <c r="YW84" s="67"/>
+      <c r="YX84" s="67"/>
+      <c r="YY84" s="67"/>
+      <c r="YZ84" s="67"/>
+      <c r="ZA84" s="67"/>
+      <c r="ZB84" s="67"/>
+      <c r="ZC84" s="67"/>
+      <c r="ZD84" s="67"/>
+      <c r="ZE84" s="67"/>
+      <c r="ZF84" s="67"/>
+      <c r="ZG84" s="67"/>
+      <c r="ZH84" s="67"/>
+      <c r="ZI84" s="67"/>
+      <c r="ZJ84" s="67"/>
+      <c r="ZK84" s="67"/>
+      <c r="ZL84" s="67"/>
+      <c r="ZM84" s="67"/>
+      <c r="ZN84" s="67"/>
+      <c r="ZO84" s="67"/>
+      <c r="ZP84" s="67"/>
+      <c r="ZQ84" s="67"/>
+      <c r="ZR84" s="67"/>
+      <c r="ZS84" s="67"/>
+      <c r="ZT84" s="67"/>
+      <c r="ZU84" s="67"/>
+      <c r="ZV84" s="67"/>
+      <c r="ZW84" s="67"/>
+      <c r="ZX84" s="67"/>
+      <c r="ZY84" s="67"/>
+      <c r="ZZ84" s="67"/>
+      <c r="AAA84" s="67"/>
+      <c r="AAB84" s="67"/>
+      <c r="AAC84" s="67"/>
+      <c r="AAD84" s="67"/>
+      <c r="AAE84" s="67"/>
+      <c r="AAF84" s="67"/>
+      <c r="AAG84" s="67"/>
+      <c r="AAH84" s="67"/>
+      <c r="AAI84" s="67"/>
+      <c r="AAJ84" s="67"/>
+      <c r="AAK84" s="67"/>
+      <c r="AAL84" s="67"/>
+      <c r="AAM84" s="67"/>
+      <c r="AAN84" s="67"/>
+      <c r="AAO84" s="67"/>
+      <c r="AAP84" s="67"/>
+      <c r="AAQ84" s="67"/>
+      <c r="AAR84" s="67"/>
+      <c r="AAS84" s="67"/>
+      <c r="AAT84" s="67"/>
+      <c r="AAU84" s="67"/>
+      <c r="AAV84" s="67"/>
+      <c r="AAW84" s="67"/>
+      <c r="AAX84" s="67"/>
+      <c r="AAY84" s="67"/>
+      <c r="AAZ84" s="67"/>
+      <c r="ABA84" s="67"/>
+      <c r="ABB84" s="67"/>
+      <c r="ABC84" s="67"/>
+      <c r="ABD84" s="67"/>
+      <c r="ABE84" s="67"/>
+      <c r="ABF84" s="67"/>
+      <c r="ABG84" s="67"/>
+      <c r="ABH84" s="67"/>
+      <c r="ABI84" s="67"/>
+      <c r="ABJ84" s="67"/>
+      <c r="ABK84" s="67"/>
+      <c r="ABL84" s="67"/>
+      <c r="ABM84" s="67"/>
+      <c r="ABN84" s="67"/>
+      <c r="ABO84" s="67"/>
+      <c r="ABP84" s="67"/>
+      <c r="ABQ84" s="67"/>
+      <c r="ABR84" s="67"/>
+      <c r="ABS84" s="67"/>
+      <c r="ABT84" s="67"/>
+      <c r="ABU84" s="67"/>
+      <c r="ABV84" s="67"/>
+      <c r="ABW84" s="67"/>
+      <c r="ABX84" s="67"/>
+      <c r="ABY84" s="67"/>
+      <c r="ABZ84" s="67"/>
+      <c r="ACA84" s="67"/>
+      <c r="ACB84" s="67"/>
+      <c r="ACC84" s="67"/>
+      <c r="ACD84" s="67"/>
+      <c r="ACE84" s="67"/>
+      <c r="ACF84" s="67"/>
+      <c r="ACG84" s="67"/>
+      <c r="ACH84" s="67"/>
+      <c r="ACI84" s="67"/>
+      <c r="ACJ84" s="67"/>
+      <c r="ACK84" s="67"/>
+      <c r="ACL84" s="67"/>
+      <c r="ACM84" s="67"/>
+      <c r="ACN84" s="67"/>
+      <c r="ACO84" s="67"/>
+      <c r="ACP84" s="67"/>
+      <c r="ACQ84" s="67"/>
+      <c r="ACR84" s="67"/>
+      <c r="ACS84" s="67"/>
+      <c r="ACT84" s="67"/>
+      <c r="ACU84" s="67"/>
+      <c r="ACV84" s="67"/>
+      <c r="ACW84" s="67"/>
+      <c r="ACX84" s="67"/>
+      <c r="ACY84" s="67"/>
+      <c r="ACZ84" s="67"/>
+      <c r="ADA84" s="67"/>
+      <c r="ADB84" s="67"/>
+      <c r="ADC84" s="67"/>
+      <c r="ADD84" s="67"/>
+      <c r="ADE84" s="67"/>
+      <c r="ADF84" s="67"/>
+      <c r="ADG84" s="67"/>
+      <c r="ADH84" s="67"/>
+      <c r="ADI84" s="67"/>
+      <c r="ADJ84" s="67"/>
+      <c r="ADK84" s="67"/>
+      <c r="ADL84" s="67"/>
+      <c r="ADM84" s="67"/>
+      <c r="ADN84" s="67"/>
+      <c r="ADO84" s="67"/>
+      <c r="ADP84" s="67"/>
+      <c r="ADQ84" s="67"/>
+      <c r="ADR84" s="67"/>
+      <c r="ADS84" s="67"/>
+      <c r="ADT84" s="67"/>
+      <c r="ADU84" s="67"/>
+      <c r="ADV84" s="67"/>
+      <c r="ADW84" s="67"/>
+      <c r="ADX84" s="67"/>
+      <c r="ADY84" s="67"/>
+      <c r="ADZ84" s="67"/>
+      <c r="AEA84" s="67"/>
+      <c r="AEB84" s="67"/>
+      <c r="AEC84" s="67"/>
+      <c r="AED84" s="67"/>
+      <c r="AEE84" s="67"/>
+      <c r="AEF84" s="67"/>
+      <c r="AEG84" s="67"/>
+      <c r="AEH84" s="67"/>
+      <c r="AEI84" s="67"/>
+      <c r="AEJ84" s="67"/>
+      <c r="AEK84" s="67"/>
+      <c r="AEL84" s="67"/>
+      <c r="AEM84" s="67"/>
+      <c r="AEN84" s="67"/>
+      <c r="AEO84" s="67"/>
+      <c r="AEP84" s="67"/>
+      <c r="AEQ84" s="67"/>
+      <c r="AER84" s="67"/>
+      <c r="AES84" s="67"/>
+      <c r="AET84" s="67"/>
+      <c r="AEU84" s="67"/>
+      <c r="AEV84" s="67"/>
+      <c r="AEW84" s="67"/>
+      <c r="AEX84" s="67"/>
+      <c r="AEY84" s="67"/>
+      <c r="AEZ84" s="67"/>
+      <c r="AFA84" s="67"/>
+      <c r="AFB84" s="67"/>
+      <c r="AFC84" s="67"/>
+      <c r="AFD84" s="67"/>
+      <c r="AFE84" s="67"/>
+      <c r="AFF84" s="67"/>
+      <c r="AFG84" s="67"/>
+      <c r="AFH84" s="67"/>
+      <c r="AFI84" s="67"/>
+      <c r="AFJ84" s="67"/>
+      <c r="AFK84" s="67"/>
+      <c r="AFL84" s="67"/>
+      <c r="AFM84" s="67"/>
+      <c r="AFN84" s="67"/>
+      <c r="AFO84" s="67"/>
+      <c r="AFP84" s="67"/>
+      <c r="AFQ84" s="67"/>
+      <c r="AFR84" s="67"/>
+      <c r="AFS84" s="67"/>
+      <c r="AFT84" s="67"/>
+      <c r="AFU84" s="67"/>
+      <c r="AFV84" s="67"/>
+      <c r="AFW84" s="67"/>
+      <c r="AFX84" s="67"/>
+      <c r="AFY84" s="67"/>
+      <c r="AFZ84" s="67"/>
+      <c r="AGA84" s="67"/>
+      <c r="AGB84" s="67"/>
+      <c r="AGC84" s="67"/>
+      <c r="AGD84" s="67"/>
+      <c r="AGE84" s="67"/>
+      <c r="AGF84" s="67"/>
+      <c r="AGG84" s="67"/>
+      <c r="AGH84" s="67"/>
+      <c r="AGI84" s="67"/>
+      <c r="AGJ84" s="67"/>
+      <c r="AGK84" s="67"/>
+      <c r="AGL84" s="67"/>
+      <c r="AGM84" s="67"/>
+      <c r="AGN84" s="67"/>
+      <c r="AGO84" s="67"/>
+      <c r="AGP84" s="67"/>
+      <c r="AGQ84" s="67"/>
+      <c r="AGR84" s="67"/>
+      <c r="AGS84" s="67"/>
+      <c r="AGT84" s="67"/>
+      <c r="AGU84" s="67"/>
+      <c r="AGV84" s="67"/>
+      <c r="AGW84" s="67"/>
+      <c r="AGX84" s="67"/>
+      <c r="AGY84" s="67"/>
+      <c r="AGZ84" s="67"/>
+      <c r="AHA84" s="67"/>
+      <c r="AHB84" s="67"/>
+      <c r="AHC84" s="67"/>
+      <c r="AHD84" s="67"/>
+      <c r="AHE84" s="67"/>
+      <c r="AHF84" s="67"/>
+      <c r="AHG84" s="67"/>
+      <c r="AHH84" s="67"/>
+      <c r="AHI84" s="67"/>
+      <c r="AHJ84" s="67"/>
+      <c r="AHK84" s="67"/>
+      <c r="AHL84" s="67"/>
+      <c r="AHM84" s="67"/>
+      <c r="AHN84" s="67"/>
+      <c r="AHO84" s="67"/>
+      <c r="AHP84" s="67"/>
+      <c r="AHQ84" s="67"/>
+      <c r="AHR84" s="67"/>
+      <c r="AHS84" s="67"/>
+      <c r="AHT84" s="67"/>
+      <c r="AHU84" s="67"/>
+      <c r="AHV84" s="67"/>
+      <c r="AHW84" s="67"/>
+      <c r="AHX84" s="67"/>
+      <c r="AHY84" s="67"/>
+      <c r="AHZ84" s="67"/>
+      <c r="AIA84" s="67"/>
+      <c r="AIB84" s="67"/>
+      <c r="AIC84" s="67"/>
+      <c r="AID84" s="67"/>
+      <c r="AIE84" s="67"/>
+      <c r="AIF84" s="67"/>
+      <c r="AIG84" s="67"/>
+      <c r="AIH84" s="67"/>
+      <c r="AII84" s="67"/>
+      <c r="AIJ84" s="67"/>
+      <c r="AIK84" s="67"/>
+      <c r="AIL84" s="67"/>
+      <c r="AIM84" s="67"/>
+      <c r="AIN84" s="67"/>
+      <c r="AIO84" s="67"/>
+      <c r="AIP84" s="67"/>
+      <c r="AIQ84" s="67"/>
+      <c r="AIR84" s="67"/>
+      <c r="AIS84" s="67"/>
+      <c r="AIT84" s="67"/>
+      <c r="AIU84" s="67"/>
+      <c r="AIV84" s="67"/>
+      <c r="AIW84" s="67"/>
+      <c r="AIX84" s="67"/>
+      <c r="AIY84" s="67"/>
+      <c r="AIZ84" s="67"/>
+      <c r="AJA84" s="67"/>
+      <c r="AJB84" s="67"/>
+      <c r="AJC84" s="67"/>
+      <c r="AJD84" s="67"/>
+      <c r="AJE84" s="67"/>
+      <c r="AJF84" s="67"/>
+      <c r="AJG84" s="67"/>
+      <c r="AJH84" s="67"/>
+      <c r="AJI84" s="67"/>
+      <c r="AJJ84" s="67"/>
+      <c r="AJK84" s="67"/>
+      <c r="AJL84" s="67"/>
+      <c r="AJM84" s="67"/>
+      <c r="AJN84" s="67"/>
+      <c r="AJO84" s="67"/>
+      <c r="AJP84" s="67"/>
+      <c r="AJQ84" s="67"/>
+      <c r="AJR84" s="67"/>
+      <c r="AJS84" s="67"/>
+      <c r="AJT84" s="67"/>
+      <c r="AJU84" s="67"/>
+      <c r="AJV84" s="67"/>
+      <c r="AJW84" s="67"/>
+      <c r="AJX84" s="67"/>
+      <c r="AJY84" s="67"/>
+      <c r="AJZ84" s="67"/>
+      <c r="AKA84" s="67"/>
+      <c r="AKB84" s="67"/>
+      <c r="AKC84" s="67"/>
+      <c r="AKD84" s="67"/>
+      <c r="AKE84" s="67"/>
+      <c r="AKF84" s="67"/>
+      <c r="AKG84" s="67"/>
+      <c r="AKH84" s="67"/>
+      <c r="AKI84" s="67"/>
+      <c r="AKJ84" s="67"/>
+      <c r="AKK84" s="67"/>
+      <c r="AKL84" s="67"/>
+      <c r="AKM84" s="67"/>
+      <c r="AKN84" s="67"/>
+      <c r="AKO84" s="67"/>
+      <c r="AKP84" s="67"/>
+      <c r="AKQ84" s="67"/>
+      <c r="AKR84" s="67"/>
+      <c r="AKS84" s="67"/>
+      <c r="AKT84" s="67"/>
+      <c r="AKU84" s="67"/>
+      <c r="AKV84" s="67"/>
+      <c r="AKW84" s="67"/>
+      <c r="AKX84" s="67"/>
+      <c r="AKY84" s="67"/>
+      <c r="AKZ84" s="67"/>
+      <c r="ALA84" s="67"/>
+      <c r="ALB84" s="67"/>
+      <c r="ALC84" s="67"/>
+      <c r="ALD84" s="67"/>
+      <c r="ALE84" s="67"/>
+      <c r="ALF84" s="67"/>
+      <c r="ALG84" s="67"/>
+      <c r="ALH84" s="67"/>
+      <c r="ALI84" s="67"/>
+      <c r="ALJ84" s="67"/>
+      <c r="ALK84" s="67"/>
+      <c r="ALL84" s="67"/>
+      <c r="ALM84" s="67"/>
+      <c r="ALN84" s="67"/>
+      <c r="ALO84" s="67"/>
+      <c r="ALP84" s="67"/>
+      <c r="ALQ84" s="67"/>
+      <c r="ALR84" s="67"/>
+      <c r="ALS84" s="67"/>
+      <c r="ALT84" s="67"/>
+      <c r="ALU84" s="67"/>
+      <c r="ALV84" s="67"/>
+      <c r="ALW84" s="67"/>
+      <c r="ALX84" s="67"/>
+      <c r="ALY84" s="67"/>
+      <c r="ALZ84" s="67"/>
+      <c r="AMA84" s="67"/>
+      <c r="AMB84" s="67"/>
+      <c r="AMC84" s="67"/>
+      <c r="AMD84" s="67"/>
+      <c r="AME84" s="67"/>
+      <c r="AMF84" s="67"/>
+      <c r="AMG84" s="67"/>
+      <c r="AMH84" s="67"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F85" s="11">
+        <v>0.968174</v>
+      </c>
+      <c r="G85" s="12">
+        <v>0.9683</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <r>
       <rPr>
@@ -1318,6 +1318,18 @@
   <si>
     <t>simple lightgbm</t>
   </si>
+  <si>
+    <t>province_economic</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>是否好评好评次数</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
 </sst>
 </file>
 
@@ -1325,13 +1337,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1360,6 +1372,10 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
@@ -1376,15 +1392,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1398,8 +1407,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1415,40 +1499,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1460,59 +1521,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1603,7 +1619,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,7 +1691,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,37 +1763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,43 +1775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,61 +1787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,9 +1824,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1826,6 +1862,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1859,176 +1904,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2212,10 +2228,13 @@
     <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2551,10 +2570,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH85"/>
+  <dimension ref="A1:AMH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+      <selection activeCell="A88" sqref="$A88:$XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -7869,7 +7888,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -18105,7 +18124,7 @@
       <c r="G72" s="35">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="61" t="s">
+      <c r="H72" s="62" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="46"/>
@@ -19145,7 +19164,7 @@
       <c r="G73" s="12">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="62" t="s">
+      <c r="H73" s="63" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19211,7 +19230,7 @@
       <c r="F76" s="20">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="63">
+      <c r="G76" s="64">
         <v>0.9682</v>
       </c>
     </row>
@@ -19234,7 +19253,7 @@
       <c r="F78" s="57">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="64">
+      <c r="G78" s="65">
         <v>0.9678</v>
       </c>
     </row>
@@ -19349,1024 +19368,1024 @@
       <c r="F84" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="G84" s="65">
+      <c r="G84" s="66">
         <v>0.9686</v>
       </c>
-      <c r="H84" s="66"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
-      <c r="O84" s="67"/>
-      <c r="P84" s="67"/>
-      <c r="Q84" s="67"/>
-      <c r="R84" s="67"/>
-      <c r="S84" s="67"/>
-      <c r="T84" s="67"/>
-      <c r="U84" s="67"/>
-      <c r="V84" s="67"/>
-      <c r="W84" s="67"/>
-      <c r="X84" s="67"/>
-      <c r="Y84" s="67"/>
-      <c r="Z84" s="67"/>
-      <c r="AA84" s="67"/>
-      <c r="AB84" s="67"/>
-      <c r="AC84" s="67"/>
-      <c r="AD84" s="67"/>
-      <c r="AE84" s="67"/>
-      <c r="AF84" s="67"/>
-      <c r="AG84" s="67"/>
-      <c r="AH84" s="67"/>
-      <c r="AI84" s="67"/>
-      <c r="AJ84" s="67"/>
-      <c r="AK84" s="67"/>
-      <c r="AL84" s="67"/>
-      <c r="AM84" s="67"/>
-      <c r="AN84" s="67"/>
-      <c r="AO84" s="67"/>
-      <c r="AP84" s="67"/>
-      <c r="AQ84" s="67"/>
-      <c r="AR84" s="67"/>
-      <c r="AS84" s="67"/>
-      <c r="AT84" s="67"/>
-      <c r="AU84" s="67"/>
-      <c r="AV84" s="67"/>
-      <c r="AW84" s="67"/>
-      <c r="AX84" s="67"/>
-      <c r="AY84" s="67"/>
-      <c r="AZ84" s="67"/>
-      <c r="BA84" s="67"/>
-      <c r="BB84" s="67"/>
-      <c r="BC84" s="67"/>
-      <c r="BD84" s="67"/>
-      <c r="BE84" s="67"/>
-      <c r="BF84" s="67"/>
-      <c r="BG84" s="67"/>
-      <c r="BH84" s="67"/>
-      <c r="BI84" s="67"/>
-      <c r="BJ84" s="67"/>
-      <c r="BK84" s="67"/>
-      <c r="BL84" s="67"/>
-      <c r="BM84" s="67"/>
-      <c r="BN84" s="67"/>
-      <c r="BO84" s="67"/>
-      <c r="BP84" s="67"/>
-      <c r="BQ84" s="67"/>
-      <c r="BR84" s="67"/>
-      <c r="BS84" s="67"/>
-      <c r="BT84" s="67"/>
-      <c r="BU84" s="67"/>
-      <c r="BV84" s="67"/>
-      <c r="BW84" s="67"/>
-      <c r="BX84" s="67"/>
-      <c r="BY84" s="67"/>
-      <c r="BZ84" s="67"/>
-      <c r="CA84" s="67"/>
-      <c r="CB84" s="67"/>
-      <c r="CC84" s="67"/>
-      <c r="CD84" s="67"/>
-      <c r="CE84" s="67"/>
-      <c r="CF84" s="67"/>
-      <c r="CG84" s="67"/>
-      <c r="CH84" s="67"/>
-      <c r="CI84" s="67"/>
-      <c r="CJ84" s="67"/>
-      <c r="CK84" s="67"/>
-      <c r="CL84" s="67"/>
-      <c r="CM84" s="67"/>
-      <c r="CN84" s="67"/>
-      <c r="CO84" s="67"/>
-      <c r="CP84" s="67"/>
-      <c r="CQ84" s="67"/>
-      <c r="CR84" s="67"/>
-      <c r="CS84" s="67"/>
-      <c r="CT84" s="67"/>
-      <c r="CU84" s="67"/>
-      <c r="CV84" s="67"/>
-      <c r="CW84" s="67"/>
-      <c r="CX84" s="67"/>
-      <c r="CY84" s="67"/>
-      <c r="CZ84" s="67"/>
-      <c r="DA84" s="67"/>
-      <c r="DB84" s="67"/>
-      <c r="DC84" s="67"/>
-      <c r="DD84" s="67"/>
-      <c r="DE84" s="67"/>
-      <c r="DF84" s="67"/>
-      <c r="DG84" s="67"/>
-      <c r="DH84" s="67"/>
-      <c r="DI84" s="67"/>
-      <c r="DJ84" s="67"/>
-      <c r="DK84" s="67"/>
-      <c r="DL84" s="67"/>
-      <c r="DM84" s="67"/>
-      <c r="DN84" s="67"/>
-      <c r="DO84" s="67"/>
-      <c r="DP84" s="67"/>
-      <c r="DQ84" s="67"/>
-      <c r="DR84" s="67"/>
-      <c r="DS84" s="67"/>
-      <c r="DT84" s="67"/>
-      <c r="DU84" s="67"/>
-      <c r="DV84" s="67"/>
-      <c r="DW84" s="67"/>
-      <c r="DX84" s="67"/>
-      <c r="DY84" s="67"/>
-      <c r="DZ84" s="67"/>
-      <c r="EA84" s="67"/>
-      <c r="EB84" s="67"/>
-      <c r="EC84" s="67"/>
-      <c r="ED84" s="67"/>
-      <c r="EE84" s="67"/>
-      <c r="EF84" s="67"/>
-      <c r="EG84" s="67"/>
-      <c r="EH84" s="67"/>
-      <c r="EI84" s="67"/>
-      <c r="EJ84" s="67"/>
-      <c r="EK84" s="67"/>
-      <c r="EL84" s="67"/>
-      <c r="EM84" s="67"/>
-      <c r="EN84" s="67"/>
-      <c r="EO84" s="67"/>
-      <c r="EP84" s="67"/>
-      <c r="EQ84" s="67"/>
-      <c r="ER84" s="67"/>
-      <c r="ES84" s="67"/>
-      <c r="ET84" s="67"/>
-      <c r="EU84" s="67"/>
-      <c r="EV84" s="67"/>
-      <c r="EW84" s="67"/>
-      <c r="EX84" s="67"/>
-      <c r="EY84" s="67"/>
-      <c r="EZ84" s="67"/>
-      <c r="FA84" s="67"/>
-      <c r="FB84" s="67"/>
-      <c r="FC84" s="67"/>
-      <c r="FD84" s="67"/>
-      <c r="FE84" s="67"/>
-      <c r="FF84" s="67"/>
-      <c r="FG84" s="67"/>
-      <c r="FH84" s="67"/>
-      <c r="FI84" s="67"/>
-      <c r="FJ84" s="67"/>
-      <c r="FK84" s="67"/>
-      <c r="FL84" s="67"/>
-      <c r="FM84" s="67"/>
-      <c r="FN84" s="67"/>
-      <c r="FO84" s="67"/>
-      <c r="FP84" s="67"/>
-      <c r="FQ84" s="67"/>
-      <c r="FR84" s="67"/>
-      <c r="FS84" s="67"/>
-      <c r="FT84" s="67"/>
-      <c r="FU84" s="67"/>
-      <c r="FV84" s="67"/>
-      <c r="FW84" s="67"/>
-      <c r="FX84" s="67"/>
-      <c r="FY84" s="67"/>
-      <c r="FZ84" s="67"/>
-      <c r="GA84" s="67"/>
-      <c r="GB84" s="67"/>
-      <c r="GC84" s="67"/>
-      <c r="GD84" s="67"/>
-      <c r="GE84" s="67"/>
-      <c r="GF84" s="67"/>
-      <c r="GG84" s="67"/>
-      <c r="GH84" s="67"/>
-      <c r="GI84" s="67"/>
-      <c r="GJ84" s="67"/>
-      <c r="GK84" s="67"/>
-      <c r="GL84" s="67"/>
-      <c r="GM84" s="67"/>
-      <c r="GN84" s="67"/>
-      <c r="GO84" s="67"/>
-      <c r="GP84" s="67"/>
-      <c r="GQ84" s="67"/>
-      <c r="GR84" s="67"/>
-      <c r="GS84" s="67"/>
-      <c r="GT84" s="67"/>
-      <c r="GU84" s="67"/>
-      <c r="GV84" s="67"/>
-      <c r="GW84" s="67"/>
-      <c r="GX84" s="67"/>
-      <c r="GY84" s="67"/>
-      <c r="GZ84" s="67"/>
-      <c r="HA84" s="67"/>
-      <c r="HB84" s="67"/>
-      <c r="HC84" s="67"/>
-      <c r="HD84" s="67"/>
-      <c r="HE84" s="67"/>
-      <c r="HF84" s="67"/>
-      <c r="HG84" s="67"/>
-      <c r="HH84" s="67"/>
-      <c r="HI84" s="67"/>
-      <c r="HJ84" s="67"/>
-      <c r="HK84" s="67"/>
-      <c r="HL84" s="67"/>
-      <c r="HM84" s="67"/>
-      <c r="HN84" s="67"/>
-      <c r="HO84" s="67"/>
-      <c r="HP84" s="67"/>
-      <c r="HQ84" s="67"/>
-      <c r="HR84" s="67"/>
-      <c r="HS84" s="67"/>
-      <c r="HT84" s="67"/>
-      <c r="HU84" s="67"/>
-      <c r="HV84" s="67"/>
-      <c r="HW84" s="67"/>
-      <c r="HX84" s="67"/>
-      <c r="HY84" s="67"/>
-      <c r="HZ84" s="67"/>
-      <c r="IA84" s="67"/>
-      <c r="IB84" s="67"/>
-      <c r="IC84" s="67"/>
-      <c r="ID84" s="67"/>
-      <c r="IE84" s="67"/>
-      <c r="IF84" s="67"/>
-      <c r="IG84" s="67"/>
-      <c r="IH84" s="67"/>
-      <c r="II84" s="67"/>
-      <c r="IJ84" s="67"/>
-      <c r="IK84" s="67"/>
-      <c r="IL84" s="67"/>
-      <c r="IM84" s="67"/>
-      <c r="IN84" s="67"/>
-      <c r="IO84" s="67"/>
-      <c r="IP84" s="67"/>
-      <c r="IQ84" s="67"/>
-      <c r="IR84" s="67"/>
-      <c r="IS84" s="67"/>
-      <c r="IT84" s="67"/>
-      <c r="IU84" s="67"/>
-      <c r="IV84" s="67"/>
-      <c r="IW84" s="67"/>
-      <c r="IX84" s="67"/>
-      <c r="IY84" s="67"/>
-      <c r="IZ84" s="67"/>
-      <c r="JA84" s="67"/>
-      <c r="JB84" s="67"/>
-      <c r="JC84" s="67"/>
-      <c r="JD84" s="67"/>
-      <c r="JE84" s="67"/>
-      <c r="JF84" s="67"/>
-      <c r="JG84" s="67"/>
-      <c r="JH84" s="67"/>
-      <c r="JI84" s="67"/>
-      <c r="JJ84" s="67"/>
-      <c r="JK84" s="67"/>
-      <c r="JL84" s="67"/>
-      <c r="JM84" s="67"/>
-      <c r="JN84" s="67"/>
-      <c r="JO84" s="67"/>
-      <c r="JP84" s="67"/>
-      <c r="JQ84" s="67"/>
-      <c r="JR84" s="67"/>
-      <c r="JS84" s="67"/>
-      <c r="JT84" s="67"/>
-      <c r="JU84" s="67"/>
-      <c r="JV84" s="67"/>
-      <c r="JW84" s="67"/>
-      <c r="JX84" s="67"/>
-      <c r="JY84" s="67"/>
-      <c r="JZ84" s="67"/>
-      <c r="KA84" s="67"/>
-      <c r="KB84" s="67"/>
-      <c r="KC84" s="67"/>
-      <c r="KD84" s="67"/>
-      <c r="KE84" s="67"/>
-      <c r="KF84" s="67"/>
-      <c r="KG84" s="67"/>
-      <c r="KH84" s="67"/>
-      <c r="KI84" s="67"/>
-      <c r="KJ84" s="67"/>
-      <c r="KK84" s="67"/>
-      <c r="KL84" s="67"/>
-      <c r="KM84" s="67"/>
-      <c r="KN84" s="67"/>
-      <c r="KO84" s="67"/>
-      <c r="KP84" s="67"/>
-      <c r="KQ84" s="67"/>
-      <c r="KR84" s="67"/>
-      <c r="KS84" s="67"/>
-      <c r="KT84" s="67"/>
-      <c r="KU84" s="67"/>
-      <c r="KV84" s="67"/>
-      <c r="KW84" s="67"/>
-      <c r="KX84" s="67"/>
-      <c r="KY84" s="67"/>
-      <c r="KZ84" s="67"/>
-      <c r="LA84" s="67"/>
-      <c r="LB84" s="67"/>
-      <c r="LC84" s="67"/>
-      <c r="LD84" s="67"/>
-      <c r="LE84" s="67"/>
-      <c r="LF84" s="67"/>
-      <c r="LG84" s="67"/>
-      <c r="LH84" s="67"/>
-      <c r="LI84" s="67"/>
-      <c r="LJ84" s="67"/>
-      <c r="LK84" s="67"/>
-      <c r="LL84" s="67"/>
-      <c r="LM84" s="67"/>
-      <c r="LN84" s="67"/>
-      <c r="LO84" s="67"/>
-      <c r="LP84" s="67"/>
-      <c r="LQ84" s="67"/>
-      <c r="LR84" s="67"/>
-      <c r="LS84" s="67"/>
-      <c r="LT84" s="67"/>
-      <c r="LU84" s="67"/>
-      <c r="LV84" s="67"/>
-      <c r="LW84" s="67"/>
-      <c r="LX84" s="67"/>
-      <c r="LY84" s="67"/>
-      <c r="LZ84" s="67"/>
-      <c r="MA84" s="67"/>
-      <c r="MB84" s="67"/>
-      <c r="MC84" s="67"/>
-      <c r="MD84" s="67"/>
-      <c r="ME84" s="67"/>
-      <c r="MF84" s="67"/>
-      <c r="MG84" s="67"/>
-      <c r="MH84" s="67"/>
-      <c r="MI84" s="67"/>
-      <c r="MJ84" s="67"/>
-      <c r="MK84" s="67"/>
-      <c r="ML84" s="67"/>
-      <c r="MM84" s="67"/>
-      <c r="MN84" s="67"/>
-      <c r="MO84" s="67"/>
-      <c r="MP84" s="67"/>
-      <c r="MQ84" s="67"/>
-      <c r="MR84" s="67"/>
-      <c r="MS84" s="67"/>
-      <c r="MT84" s="67"/>
-      <c r="MU84" s="67"/>
-      <c r="MV84" s="67"/>
-      <c r="MW84" s="67"/>
-      <c r="MX84" s="67"/>
-      <c r="MY84" s="67"/>
-      <c r="MZ84" s="67"/>
-      <c r="NA84" s="67"/>
-      <c r="NB84" s="67"/>
-      <c r="NC84" s="67"/>
-      <c r="ND84" s="67"/>
-      <c r="NE84" s="67"/>
-      <c r="NF84" s="67"/>
-      <c r="NG84" s="67"/>
-      <c r="NH84" s="67"/>
-      <c r="NI84" s="67"/>
-      <c r="NJ84" s="67"/>
-      <c r="NK84" s="67"/>
-      <c r="NL84" s="67"/>
-      <c r="NM84" s="67"/>
-      <c r="NN84" s="67"/>
-      <c r="NO84" s="67"/>
-      <c r="NP84" s="67"/>
-      <c r="NQ84" s="67"/>
-      <c r="NR84" s="67"/>
-      <c r="NS84" s="67"/>
-      <c r="NT84" s="67"/>
-      <c r="NU84" s="67"/>
-      <c r="NV84" s="67"/>
-      <c r="NW84" s="67"/>
-      <c r="NX84" s="67"/>
-      <c r="NY84" s="67"/>
-      <c r="NZ84" s="67"/>
-      <c r="OA84" s="67"/>
-      <c r="OB84" s="67"/>
-      <c r="OC84" s="67"/>
-      <c r="OD84" s="67"/>
-      <c r="OE84" s="67"/>
-      <c r="OF84" s="67"/>
-      <c r="OG84" s="67"/>
-      <c r="OH84" s="67"/>
-      <c r="OI84" s="67"/>
-      <c r="OJ84" s="67"/>
-      <c r="OK84" s="67"/>
-      <c r="OL84" s="67"/>
-      <c r="OM84" s="67"/>
-      <c r="ON84" s="67"/>
-      <c r="OO84" s="67"/>
-      <c r="OP84" s="67"/>
-      <c r="OQ84" s="67"/>
-      <c r="OR84" s="67"/>
-      <c r="OS84" s="67"/>
-      <c r="OT84" s="67"/>
-      <c r="OU84" s="67"/>
-      <c r="OV84" s="67"/>
-      <c r="OW84" s="67"/>
-      <c r="OX84" s="67"/>
-      <c r="OY84" s="67"/>
-      <c r="OZ84" s="67"/>
-      <c r="PA84" s="67"/>
-      <c r="PB84" s="67"/>
-      <c r="PC84" s="67"/>
-      <c r="PD84" s="67"/>
-      <c r="PE84" s="67"/>
-      <c r="PF84" s="67"/>
-      <c r="PG84" s="67"/>
-      <c r="PH84" s="67"/>
-      <c r="PI84" s="67"/>
-      <c r="PJ84" s="67"/>
-      <c r="PK84" s="67"/>
-      <c r="PL84" s="67"/>
-      <c r="PM84" s="67"/>
-      <c r="PN84" s="67"/>
-      <c r="PO84" s="67"/>
-      <c r="PP84" s="67"/>
-      <c r="PQ84" s="67"/>
-      <c r="PR84" s="67"/>
-      <c r="PS84" s="67"/>
-      <c r="PT84" s="67"/>
-      <c r="PU84" s="67"/>
-      <c r="PV84" s="67"/>
-      <c r="PW84" s="67"/>
-      <c r="PX84" s="67"/>
-      <c r="PY84" s="67"/>
-      <c r="PZ84" s="67"/>
-      <c r="QA84" s="67"/>
-      <c r="QB84" s="67"/>
-      <c r="QC84" s="67"/>
-      <c r="QD84" s="67"/>
-      <c r="QE84" s="67"/>
-      <c r="QF84" s="67"/>
-      <c r="QG84" s="67"/>
-      <c r="QH84" s="67"/>
-      <c r="QI84" s="67"/>
-      <c r="QJ84" s="67"/>
-      <c r="QK84" s="67"/>
-      <c r="QL84" s="67"/>
-      <c r="QM84" s="67"/>
-      <c r="QN84" s="67"/>
-      <c r="QO84" s="67"/>
-      <c r="QP84" s="67"/>
-      <c r="QQ84" s="67"/>
-      <c r="QR84" s="67"/>
-      <c r="QS84" s="67"/>
-      <c r="QT84" s="67"/>
-      <c r="QU84" s="67"/>
-      <c r="QV84" s="67"/>
-      <c r="QW84" s="67"/>
-      <c r="QX84" s="67"/>
-      <c r="QY84" s="67"/>
-      <c r="QZ84" s="67"/>
-      <c r="RA84" s="67"/>
-      <c r="RB84" s="67"/>
-      <c r="RC84" s="67"/>
-      <c r="RD84" s="67"/>
-      <c r="RE84" s="67"/>
-      <c r="RF84" s="67"/>
-      <c r="RG84" s="67"/>
-      <c r="RH84" s="67"/>
-      <c r="RI84" s="67"/>
-      <c r="RJ84" s="67"/>
-      <c r="RK84" s="67"/>
-      <c r="RL84" s="67"/>
-      <c r="RM84" s="67"/>
-      <c r="RN84" s="67"/>
-      <c r="RO84" s="67"/>
-      <c r="RP84" s="67"/>
-      <c r="RQ84" s="67"/>
-      <c r="RR84" s="67"/>
-      <c r="RS84" s="67"/>
-      <c r="RT84" s="67"/>
-      <c r="RU84" s="67"/>
-      <c r="RV84" s="67"/>
-      <c r="RW84" s="67"/>
-      <c r="RX84" s="67"/>
-      <c r="RY84" s="67"/>
-      <c r="RZ84" s="67"/>
-      <c r="SA84" s="67"/>
-      <c r="SB84" s="67"/>
-      <c r="SC84" s="67"/>
-      <c r="SD84" s="67"/>
-      <c r="SE84" s="67"/>
-      <c r="SF84" s="67"/>
-      <c r="SG84" s="67"/>
-      <c r="SH84" s="67"/>
-      <c r="SI84" s="67"/>
-      <c r="SJ84" s="67"/>
-      <c r="SK84" s="67"/>
-      <c r="SL84" s="67"/>
-      <c r="SM84" s="67"/>
-      <c r="SN84" s="67"/>
-      <c r="SO84" s="67"/>
-      <c r="SP84" s="67"/>
-      <c r="SQ84" s="67"/>
-      <c r="SR84" s="67"/>
-      <c r="SS84" s="67"/>
-      <c r="ST84" s="67"/>
-      <c r="SU84" s="67"/>
-      <c r="SV84" s="67"/>
-      <c r="SW84" s="67"/>
-      <c r="SX84" s="67"/>
-      <c r="SY84" s="67"/>
-      <c r="SZ84" s="67"/>
-      <c r="TA84" s="67"/>
-      <c r="TB84" s="67"/>
-      <c r="TC84" s="67"/>
-      <c r="TD84" s="67"/>
-      <c r="TE84" s="67"/>
-      <c r="TF84" s="67"/>
-      <c r="TG84" s="67"/>
-      <c r="TH84" s="67"/>
-      <c r="TI84" s="67"/>
-      <c r="TJ84" s="67"/>
-      <c r="TK84" s="67"/>
-      <c r="TL84" s="67"/>
-      <c r="TM84" s="67"/>
-      <c r="TN84" s="67"/>
-      <c r="TO84" s="67"/>
-      <c r="TP84" s="67"/>
-      <c r="TQ84" s="67"/>
-      <c r="TR84" s="67"/>
-      <c r="TS84" s="67"/>
-      <c r="TT84" s="67"/>
-      <c r="TU84" s="67"/>
-      <c r="TV84" s="67"/>
-      <c r="TW84" s="67"/>
-      <c r="TX84" s="67"/>
-      <c r="TY84" s="67"/>
-      <c r="TZ84" s="67"/>
-      <c r="UA84" s="67"/>
-      <c r="UB84" s="67"/>
-      <c r="UC84" s="67"/>
-      <c r="UD84" s="67"/>
-      <c r="UE84" s="67"/>
-      <c r="UF84" s="67"/>
-      <c r="UG84" s="67"/>
-      <c r="UH84" s="67"/>
-      <c r="UI84" s="67"/>
-      <c r="UJ84" s="67"/>
-      <c r="UK84" s="67"/>
-      <c r="UL84" s="67"/>
-      <c r="UM84" s="67"/>
-      <c r="UN84" s="67"/>
-      <c r="UO84" s="67"/>
-      <c r="UP84" s="67"/>
-      <c r="UQ84" s="67"/>
-      <c r="UR84" s="67"/>
-      <c r="US84" s="67"/>
-      <c r="UT84" s="67"/>
-      <c r="UU84" s="67"/>
-      <c r="UV84" s="67"/>
-      <c r="UW84" s="67"/>
-      <c r="UX84" s="67"/>
-      <c r="UY84" s="67"/>
-      <c r="UZ84" s="67"/>
-      <c r="VA84" s="67"/>
-      <c r="VB84" s="67"/>
-      <c r="VC84" s="67"/>
-      <c r="VD84" s="67"/>
-      <c r="VE84" s="67"/>
-      <c r="VF84" s="67"/>
-      <c r="VG84" s="67"/>
-      <c r="VH84" s="67"/>
-      <c r="VI84" s="67"/>
-      <c r="VJ84" s="67"/>
-      <c r="VK84" s="67"/>
-      <c r="VL84" s="67"/>
-      <c r="VM84" s="67"/>
-      <c r="VN84" s="67"/>
-      <c r="VO84" s="67"/>
-      <c r="VP84" s="67"/>
-      <c r="VQ84" s="67"/>
-      <c r="VR84" s="67"/>
-      <c r="VS84" s="67"/>
-      <c r="VT84" s="67"/>
-      <c r="VU84" s="67"/>
-      <c r="VV84" s="67"/>
-      <c r="VW84" s="67"/>
-      <c r="VX84" s="67"/>
-      <c r="VY84" s="67"/>
-      <c r="VZ84" s="67"/>
-      <c r="WA84" s="67"/>
-      <c r="WB84" s="67"/>
-      <c r="WC84" s="67"/>
-      <c r="WD84" s="67"/>
-      <c r="WE84" s="67"/>
-      <c r="WF84" s="67"/>
-      <c r="WG84" s="67"/>
-      <c r="WH84" s="67"/>
-      <c r="WI84" s="67"/>
-      <c r="WJ84" s="67"/>
-      <c r="WK84" s="67"/>
-      <c r="WL84" s="67"/>
-      <c r="WM84" s="67"/>
-      <c r="WN84" s="67"/>
-      <c r="WO84" s="67"/>
-      <c r="WP84" s="67"/>
-      <c r="WQ84" s="67"/>
-      <c r="WR84" s="67"/>
-      <c r="WS84" s="67"/>
-      <c r="WT84" s="67"/>
-      <c r="WU84" s="67"/>
-      <c r="WV84" s="67"/>
-      <c r="WW84" s="67"/>
-      <c r="WX84" s="67"/>
-      <c r="WY84" s="67"/>
-      <c r="WZ84" s="67"/>
-      <c r="XA84" s="67"/>
-      <c r="XB84" s="67"/>
-      <c r="XC84" s="67"/>
-      <c r="XD84" s="67"/>
-      <c r="XE84" s="67"/>
-      <c r="XF84" s="67"/>
-      <c r="XG84" s="67"/>
-      <c r="XH84" s="67"/>
-      <c r="XI84" s="67"/>
-      <c r="XJ84" s="67"/>
-      <c r="XK84" s="67"/>
-      <c r="XL84" s="67"/>
-      <c r="XM84" s="67"/>
-      <c r="XN84" s="67"/>
-      <c r="XO84" s="67"/>
-      <c r="XP84" s="67"/>
-      <c r="XQ84" s="67"/>
-      <c r="XR84" s="67"/>
-      <c r="XS84" s="67"/>
-      <c r="XT84" s="67"/>
-      <c r="XU84" s="67"/>
-      <c r="XV84" s="67"/>
-      <c r="XW84" s="67"/>
-      <c r="XX84" s="67"/>
-      <c r="XY84" s="67"/>
-      <c r="XZ84" s="67"/>
-      <c r="YA84" s="67"/>
-      <c r="YB84" s="67"/>
-      <c r="YC84" s="67"/>
-      <c r="YD84" s="67"/>
-      <c r="YE84" s="67"/>
-      <c r="YF84" s="67"/>
-      <c r="YG84" s="67"/>
-      <c r="YH84" s="67"/>
-      <c r="YI84" s="67"/>
-      <c r="YJ84" s="67"/>
-      <c r="YK84" s="67"/>
-      <c r="YL84" s="67"/>
-      <c r="YM84" s="67"/>
-      <c r="YN84" s="67"/>
-      <c r="YO84" s="67"/>
-      <c r="YP84" s="67"/>
-      <c r="YQ84" s="67"/>
-      <c r="YR84" s="67"/>
-      <c r="YS84" s="67"/>
-      <c r="YT84" s="67"/>
-      <c r="YU84" s="67"/>
-      <c r="YV84" s="67"/>
-      <c r="YW84" s="67"/>
-      <c r="YX84" s="67"/>
-      <c r="YY84" s="67"/>
-      <c r="YZ84" s="67"/>
-      <c r="ZA84" s="67"/>
-      <c r="ZB84" s="67"/>
-      <c r="ZC84" s="67"/>
-      <c r="ZD84" s="67"/>
-      <c r="ZE84" s="67"/>
-      <c r="ZF84" s="67"/>
-      <c r="ZG84" s="67"/>
-      <c r="ZH84" s="67"/>
-      <c r="ZI84" s="67"/>
-      <c r="ZJ84" s="67"/>
-      <c r="ZK84" s="67"/>
-      <c r="ZL84" s="67"/>
-      <c r="ZM84" s="67"/>
-      <c r="ZN84" s="67"/>
-      <c r="ZO84" s="67"/>
-      <c r="ZP84" s="67"/>
-      <c r="ZQ84" s="67"/>
-      <c r="ZR84" s="67"/>
-      <c r="ZS84" s="67"/>
-      <c r="ZT84" s="67"/>
-      <c r="ZU84" s="67"/>
-      <c r="ZV84" s="67"/>
-      <c r="ZW84" s="67"/>
-      <c r="ZX84" s="67"/>
-      <c r="ZY84" s="67"/>
-      <c r="ZZ84" s="67"/>
-      <c r="AAA84" s="67"/>
-      <c r="AAB84" s="67"/>
-      <c r="AAC84" s="67"/>
-      <c r="AAD84" s="67"/>
-      <c r="AAE84" s="67"/>
-      <c r="AAF84" s="67"/>
-      <c r="AAG84" s="67"/>
-      <c r="AAH84" s="67"/>
-      <c r="AAI84" s="67"/>
-      <c r="AAJ84" s="67"/>
-      <c r="AAK84" s="67"/>
-      <c r="AAL84" s="67"/>
-      <c r="AAM84" s="67"/>
-      <c r="AAN84" s="67"/>
-      <c r="AAO84" s="67"/>
-      <c r="AAP84" s="67"/>
-      <c r="AAQ84" s="67"/>
-      <c r="AAR84" s="67"/>
-      <c r="AAS84" s="67"/>
-      <c r="AAT84" s="67"/>
-      <c r="AAU84" s="67"/>
-      <c r="AAV84" s="67"/>
-      <c r="AAW84" s="67"/>
-      <c r="AAX84" s="67"/>
-      <c r="AAY84" s="67"/>
-      <c r="AAZ84" s="67"/>
-      <c r="ABA84" s="67"/>
-      <c r="ABB84" s="67"/>
-      <c r="ABC84" s="67"/>
-      <c r="ABD84" s="67"/>
-      <c r="ABE84" s="67"/>
-      <c r="ABF84" s="67"/>
-      <c r="ABG84" s="67"/>
-      <c r="ABH84" s="67"/>
-      <c r="ABI84" s="67"/>
-      <c r="ABJ84" s="67"/>
-      <c r="ABK84" s="67"/>
-      <c r="ABL84" s="67"/>
-      <c r="ABM84" s="67"/>
-      <c r="ABN84" s="67"/>
-      <c r="ABO84" s="67"/>
-      <c r="ABP84" s="67"/>
-      <c r="ABQ84" s="67"/>
-      <c r="ABR84" s="67"/>
-      <c r="ABS84" s="67"/>
-      <c r="ABT84" s="67"/>
-      <c r="ABU84" s="67"/>
-      <c r="ABV84" s="67"/>
-      <c r="ABW84" s="67"/>
-      <c r="ABX84" s="67"/>
-      <c r="ABY84" s="67"/>
-      <c r="ABZ84" s="67"/>
-      <c r="ACA84" s="67"/>
-      <c r="ACB84" s="67"/>
-      <c r="ACC84" s="67"/>
-      <c r="ACD84" s="67"/>
-      <c r="ACE84" s="67"/>
-      <c r="ACF84" s="67"/>
-      <c r="ACG84" s="67"/>
-      <c r="ACH84" s="67"/>
-      <c r="ACI84" s="67"/>
-      <c r="ACJ84" s="67"/>
-      <c r="ACK84" s="67"/>
-      <c r="ACL84" s="67"/>
-      <c r="ACM84" s="67"/>
-      <c r="ACN84" s="67"/>
-      <c r="ACO84" s="67"/>
-      <c r="ACP84" s="67"/>
-      <c r="ACQ84" s="67"/>
-      <c r="ACR84" s="67"/>
-      <c r="ACS84" s="67"/>
-      <c r="ACT84" s="67"/>
-      <c r="ACU84" s="67"/>
-      <c r="ACV84" s="67"/>
-      <c r="ACW84" s="67"/>
-      <c r="ACX84" s="67"/>
-      <c r="ACY84" s="67"/>
-      <c r="ACZ84" s="67"/>
-      <c r="ADA84" s="67"/>
-      <c r="ADB84" s="67"/>
-      <c r="ADC84" s="67"/>
-      <c r="ADD84" s="67"/>
-      <c r="ADE84" s="67"/>
-      <c r="ADF84" s="67"/>
-      <c r="ADG84" s="67"/>
-      <c r="ADH84" s="67"/>
-      <c r="ADI84" s="67"/>
-      <c r="ADJ84" s="67"/>
-      <c r="ADK84" s="67"/>
-      <c r="ADL84" s="67"/>
-      <c r="ADM84" s="67"/>
-      <c r="ADN84" s="67"/>
-      <c r="ADO84" s="67"/>
-      <c r="ADP84" s="67"/>
-      <c r="ADQ84" s="67"/>
-      <c r="ADR84" s="67"/>
-      <c r="ADS84" s="67"/>
-      <c r="ADT84" s="67"/>
-      <c r="ADU84" s="67"/>
-      <c r="ADV84" s="67"/>
-      <c r="ADW84" s="67"/>
-      <c r="ADX84" s="67"/>
-      <c r="ADY84" s="67"/>
-      <c r="ADZ84" s="67"/>
-      <c r="AEA84" s="67"/>
-      <c r="AEB84" s="67"/>
-      <c r="AEC84" s="67"/>
-      <c r="AED84" s="67"/>
-      <c r="AEE84" s="67"/>
-      <c r="AEF84" s="67"/>
-      <c r="AEG84" s="67"/>
-      <c r="AEH84" s="67"/>
-      <c r="AEI84" s="67"/>
-      <c r="AEJ84" s="67"/>
-      <c r="AEK84" s="67"/>
-      <c r="AEL84" s="67"/>
-      <c r="AEM84" s="67"/>
-      <c r="AEN84" s="67"/>
-      <c r="AEO84" s="67"/>
-      <c r="AEP84" s="67"/>
-      <c r="AEQ84" s="67"/>
-      <c r="AER84" s="67"/>
-      <c r="AES84" s="67"/>
-      <c r="AET84" s="67"/>
-      <c r="AEU84" s="67"/>
-      <c r="AEV84" s="67"/>
-      <c r="AEW84" s="67"/>
-      <c r="AEX84" s="67"/>
-      <c r="AEY84" s="67"/>
-      <c r="AEZ84" s="67"/>
-      <c r="AFA84" s="67"/>
-      <c r="AFB84" s="67"/>
-      <c r="AFC84" s="67"/>
-      <c r="AFD84" s="67"/>
-      <c r="AFE84" s="67"/>
-      <c r="AFF84" s="67"/>
-      <c r="AFG84" s="67"/>
-      <c r="AFH84" s="67"/>
-      <c r="AFI84" s="67"/>
-      <c r="AFJ84" s="67"/>
-      <c r="AFK84" s="67"/>
-      <c r="AFL84" s="67"/>
-      <c r="AFM84" s="67"/>
-      <c r="AFN84" s="67"/>
-      <c r="AFO84" s="67"/>
-      <c r="AFP84" s="67"/>
-      <c r="AFQ84" s="67"/>
-      <c r="AFR84" s="67"/>
-      <c r="AFS84" s="67"/>
-      <c r="AFT84" s="67"/>
-      <c r="AFU84" s="67"/>
-      <c r="AFV84" s="67"/>
-      <c r="AFW84" s="67"/>
-      <c r="AFX84" s="67"/>
-      <c r="AFY84" s="67"/>
-      <c r="AFZ84" s="67"/>
-      <c r="AGA84" s="67"/>
-      <c r="AGB84" s="67"/>
-      <c r="AGC84" s="67"/>
-      <c r="AGD84" s="67"/>
-      <c r="AGE84" s="67"/>
-      <c r="AGF84" s="67"/>
-      <c r="AGG84" s="67"/>
-      <c r="AGH84" s="67"/>
-      <c r="AGI84" s="67"/>
-      <c r="AGJ84" s="67"/>
-      <c r="AGK84" s="67"/>
-      <c r="AGL84" s="67"/>
-      <c r="AGM84" s="67"/>
-      <c r="AGN84" s="67"/>
-      <c r="AGO84" s="67"/>
-      <c r="AGP84" s="67"/>
-      <c r="AGQ84" s="67"/>
-      <c r="AGR84" s="67"/>
-      <c r="AGS84" s="67"/>
-      <c r="AGT84" s="67"/>
-      <c r="AGU84" s="67"/>
-      <c r="AGV84" s="67"/>
-      <c r="AGW84" s="67"/>
-      <c r="AGX84" s="67"/>
-      <c r="AGY84" s="67"/>
-      <c r="AGZ84" s="67"/>
-      <c r="AHA84" s="67"/>
-      <c r="AHB84" s="67"/>
-      <c r="AHC84" s="67"/>
-      <c r="AHD84" s="67"/>
-      <c r="AHE84" s="67"/>
-      <c r="AHF84" s="67"/>
-      <c r="AHG84" s="67"/>
-      <c r="AHH84" s="67"/>
-      <c r="AHI84" s="67"/>
-      <c r="AHJ84" s="67"/>
-      <c r="AHK84" s="67"/>
-      <c r="AHL84" s="67"/>
-      <c r="AHM84" s="67"/>
-      <c r="AHN84" s="67"/>
-      <c r="AHO84" s="67"/>
-      <c r="AHP84" s="67"/>
-      <c r="AHQ84" s="67"/>
-      <c r="AHR84" s="67"/>
-      <c r="AHS84" s="67"/>
-      <c r="AHT84" s="67"/>
-      <c r="AHU84" s="67"/>
-      <c r="AHV84" s="67"/>
-      <c r="AHW84" s="67"/>
-      <c r="AHX84" s="67"/>
-      <c r="AHY84" s="67"/>
-      <c r="AHZ84" s="67"/>
-      <c r="AIA84" s="67"/>
-      <c r="AIB84" s="67"/>
-      <c r="AIC84" s="67"/>
-      <c r="AID84" s="67"/>
-      <c r="AIE84" s="67"/>
-      <c r="AIF84" s="67"/>
-      <c r="AIG84" s="67"/>
-      <c r="AIH84" s="67"/>
-      <c r="AII84" s="67"/>
-      <c r="AIJ84" s="67"/>
-      <c r="AIK84" s="67"/>
-      <c r="AIL84" s="67"/>
-      <c r="AIM84" s="67"/>
-      <c r="AIN84" s="67"/>
-      <c r="AIO84" s="67"/>
-      <c r="AIP84" s="67"/>
-      <c r="AIQ84" s="67"/>
-      <c r="AIR84" s="67"/>
-      <c r="AIS84" s="67"/>
-      <c r="AIT84" s="67"/>
-      <c r="AIU84" s="67"/>
-      <c r="AIV84" s="67"/>
-      <c r="AIW84" s="67"/>
-      <c r="AIX84" s="67"/>
-      <c r="AIY84" s="67"/>
-      <c r="AIZ84" s="67"/>
-      <c r="AJA84" s="67"/>
-      <c r="AJB84" s="67"/>
-      <c r="AJC84" s="67"/>
-      <c r="AJD84" s="67"/>
-      <c r="AJE84" s="67"/>
-      <c r="AJF84" s="67"/>
-      <c r="AJG84" s="67"/>
-      <c r="AJH84" s="67"/>
-      <c r="AJI84" s="67"/>
-      <c r="AJJ84" s="67"/>
-      <c r="AJK84" s="67"/>
-      <c r="AJL84" s="67"/>
-      <c r="AJM84" s="67"/>
-      <c r="AJN84" s="67"/>
-      <c r="AJO84" s="67"/>
-      <c r="AJP84" s="67"/>
-      <c r="AJQ84" s="67"/>
-      <c r="AJR84" s="67"/>
-      <c r="AJS84" s="67"/>
-      <c r="AJT84" s="67"/>
-      <c r="AJU84" s="67"/>
-      <c r="AJV84" s="67"/>
-      <c r="AJW84" s="67"/>
-      <c r="AJX84" s="67"/>
-      <c r="AJY84" s="67"/>
-      <c r="AJZ84" s="67"/>
-      <c r="AKA84" s="67"/>
-      <c r="AKB84" s="67"/>
-      <c r="AKC84" s="67"/>
-      <c r="AKD84" s="67"/>
-      <c r="AKE84" s="67"/>
-      <c r="AKF84" s="67"/>
-      <c r="AKG84" s="67"/>
-      <c r="AKH84" s="67"/>
-      <c r="AKI84" s="67"/>
-      <c r="AKJ84" s="67"/>
-      <c r="AKK84" s="67"/>
-      <c r="AKL84" s="67"/>
-      <c r="AKM84" s="67"/>
-      <c r="AKN84" s="67"/>
-      <c r="AKO84" s="67"/>
-      <c r="AKP84" s="67"/>
-      <c r="AKQ84" s="67"/>
-      <c r="AKR84" s="67"/>
-      <c r="AKS84" s="67"/>
-      <c r="AKT84" s="67"/>
-      <c r="AKU84" s="67"/>
-      <c r="AKV84" s="67"/>
-      <c r="AKW84" s="67"/>
-      <c r="AKX84" s="67"/>
-      <c r="AKY84" s="67"/>
-      <c r="AKZ84" s="67"/>
-      <c r="ALA84" s="67"/>
-      <c r="ALB84" s="67"/>
-      <c r="ALC84" s="67"/>
-      <c r="ALD84" s="67"/>
-      <c r="ALE84" s="67"/>
-      <c r="ALF84" s="67"/>
-      <c r="ALG84" s="67"/>
-      <c r="ALH84" s="67"/>
-      <c r="ALI84" s="67"/>
-      <c r="ALJ84" s="67"/>
-      <c r="ALK84" s="67"/>
-      <c r="ALL84" s="67"/>
-      <c r="ALM84" s="67"/>
-      <c r="ALN84" s="67"/>
-      <c r="ALO84" s="67"/>
-      <c r="ALP84" s="67"/>
-      <c r="ALQ84" s="67"/>
-      <c r="ALR84" s="67"/>
-      <c r="ALS84" s="67"/>
-      <c r="ALT84" s="67"/>
-      <c r="ALU84" s="67"/>
-      <c r="ALV84" s="67"/>
-      <c r="ALW84" s="67"/>
-      <c r="ALX84" s="67"/>
-      <c r="ALY84" s="67"/>
-      <c r="ALZ84" s="67"/>
-      <c r="AMA84" s="67"/>
-      <c r="AMB84" s="67"/>
-      <c r="AMC84" s="67"/>
-      <c r="AMD84" s="67"/>
-      <c r="AME84" s="67"/>
-      <c r="AMF84" s="67"/>
-      <c r="AMG84" s="67"/>
-      <c r="AMH84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="68"/>
+      <c r="R84" s="68"/>
+      <c r="S84" s="68"/>
+      <c r="T84" s="68"/>
+      <c r="U84" s="68"/>
+      <c r="V84" s="68"/>
+      <c r="W84" s="68"/>
+      <c r="X84" s="68"/>
+      <c r="Y84" s="68"/>
+      <c r="Z84" s="68"/>
+      <c r="AA84" s="68"/>
+      <c r="AB84" s="68"/>
+      <c r="AC84" s="68"/>
+      <c r="AD84" s="68"/>
+      <c r="AE84" s="68"/>
+      <c r="AF84" s="68"/>
+      <c r="AG84" s="68"/>
+      <c r="AH84" s="68"/>
+      <c r="AI84" s="68"/>
+      <c r="AJ84" s="68"/>
+      <c r="AK84" s="68"/>
+      <c r="AL84" s="68"/>
+      <c r="AM84" s="68"/>
+      <c r="AN84" s="68"/>
+      <c r="AO84" s="68"/>
+      <c r="AP84" s="68"/>
+      <c r="AQ84" s="68"/>
+      <c r="AR84" s="68"/>
+      <c r="AS84" s="68"/>
+      <c r="AT84" s="68"/>
+      <c r="AU84" s="68"/>
+      <c r="AV84" s="68"/>
+      <c r="AW84" s="68"/>
+      <c r="AX84" s="68"/>
+      <c r="AY84" s="68"/>
+      <c r="AZ84" s="68"/>
+      <c r="BA84" s="68"/>
+      <c r="BB84" s="68"/>
+      <c r="BC84" s="68"/>
+      <c r="BD84" s="68"/>
+      <c r="BE84" s="68"/>
+      <c r="BF84" s="68"/>
+      <c r="BG84" s="68"/>
+      <c r="BH84" s="68"/>
+      <c r="BI84" s="68"/>
+      <c r="BJ84" s="68"/>
+      <c r="BK84" s="68"/>
+      <c r="BL84" s="68"/>
+      <c r="BM84" s="68"/>
+      <c r="BN84" s="68"/>
+      <c r="BO84" s="68"/>
+      <c r="BP84" s="68"/>
+      <c r="BQ84" s="68"/>
+      <c r="BR84" s="68"/>
+      <c r="BS84" s="68"/>
+      <c r="BT84" s="68"/>
+      <c r="BU84" s="68"/>
+      <c r="BV84" s="68"/>
+      <c r="BW84" s="68"/>
+      <c r="BX84" s="68"/>
+      <c r="BY84" s="68"/>
+      <c r="BZ84" s="68"/>
+      <c r="CA84" s="68"/>
+      <c r="CB84" s="68"/>
+      <c r="CC84" s="68"/>
+      <c r="CD84" s="68"/>
+      <c r="CE84" s="68"/>
+      <c r="CF84" s="68"/>
+      <c r="CG84" s="68"/>
+      <c r="CH84" s="68"/>
+      <c r="CI84" s="68"/>
+      <c r="CJ84" s="68"/>
+      <c r="CK84" s="68"/>
+      <c r="CL84" s="68"/>
+      <c r="CM84" s="68"/>
+      <c r="CN84" s="68"/>
+      <c r="CO84" s="68"/>
+      <c r="CP84" s="68"/>
+      <c r="CQ84" s="68"/>
+      <c r="CR84" s="68"/>
+      <c r="CS84" s="68"/>
+      <c r="CT84" s="68"/>
+      <c r="CU84" s="68"/>
+      <c r="CV84" s="68"/>
+      <c r="CW84" s="68"/>
+      <c r="CX84" s="68"/>
+      <c r="CY84" s="68"/>
+      <c r="CZ84" s="68"/>
+      <c r="DA84" s="68"/>
+      <c r="DB84" s="68"/>
+      <c r="DC84" s="68"/>
+      <c r="DD84" s="68"/>
+      <c r="DE84" s="68"/>
+      <c r="DF84" s="68"/>
+      <c r="DG84" s="68"/>
+      <c r="DH84" s="68"/>
+      <c r="DI84" s="68"/>
+      <c r="DJ84" s="68"/>
+      <c r="DK84" s="68"/>
+      <c r="DL84" s="68"/>
+      <c r="DM84" s="68"/>
+      <c r="DN84" s="68"/>
+      <c r="DO84" s="68"/>
+      <c r="DP84" s="68"/>
+      <c r="DQ84" s="68"/>
+      <c r="DR84" s="68"/>
+      <c r="DS84" s="68"/>
+      <c r="DT84" s="68"/>
+      <c r="DU84" s="68"/>
+      <c r="DV84" s="68"/>
+      <c r="DW84" s="68"/>
+      <c r="DX84" s="68"/>
+      <c r="DY84" s="68"/>
+      <c r="DZ84" s="68"/>
+      <c r="EA84" s="68"/>
+      <c r="EB84" s="68"/>
+      <c r="EC84" s="68"/>
+      <c r="ED84" s="68"/>
+      <c r="EE84" s="68"/>
+      <c r="EF84" s="68"/>
+      <c r="EG84" s="68"/>
+      <c r="EH84" s="68"/>
+      <c r="EI84" s="68"/>
+      <c r="EJ84" s="68"/>
+      <c r="EK84" s="68"/>
+      <c r="EL84" s="68"/>
+      <c r="EM84" s="68"/>
+      <c r="EN84" s="68"/>
+      <c r="EO84" s="68"/>
+      <c r="EP84" s="68"/>
+      <c r="EQ84" s="68"/>
+      <c r="ER84" s="68"/>
+      <c r="ES84" s="68"/>
+      <c r="ET84" s="68"/>
+      <c r="EU84" s="68"/>
+      <c r="EV84" s="68"/>
+      <c r="EW84" s="68"/>
+      <c r="EX84" s="68"/>
+      <c r="EY84" s="68"/>
+      <c r="EZ84" s="68"/>
+      <c r="FA84" s="68"/>
+      <c r="FB84" s="68"/>
+      <c r="FC84" s="68"/>
+      <c r="FD84" s="68"/>
+      <c r="FE84" s="68"/>
+      <c r="FF84" s="68"/>
+      <c r="FG84" s="68"/>
+      <c r="FH84" s="68"/>
+      <c r="FI84" s="68"/>
+      <c r="FJ84" s="68"/>
+      <c r="FK84" s="68"/>
+      <c r="FL84" s="68"/>
+      <c r="FM84" s="68"/>
+      <c r="FN84" s="68"/>
+      <c r="FO84" s="68"/>
+      <c r="FP84" s="68"/>
+      <c r="FQ84" s="68"/>
+      <c r="FR84" s="68"/>
+      <c r="FS84" s="68"/>
+      <c r="FT84" s="68"/>
+      <c r="FU84" s="68"/>
+      <c r="FV84" s="68"/>
+      <c r="FW84" s="68"/>
+      <c r="FX84" s="68"/>
+      <c r="FY84" s="68"/>
+      <c r="FZ84" s="68"/>
+      <c r="GA84" s="68"/>
+      <c r="GB84" s="68"/>
+      <c r="GC84" s="68"/>
+      <c r="GD84" s="68"/>
+      <c r="GE84" s="68"/>
+      <c r="GF84" s="68"/>
+      <c r="GG84" s="68"/>
+      <c r="GH84" s="68"/>
+      <c r="GI84" s="68"/>
+      <c r="GJ84" s="68"/>
+      <c r="GK84" s="68"/>
+      <c r="GL84" s="68"/>
+      <c r="GM84" s="68"/>
+      <c r="GN84" s="68"/>
+      <c r="GO84" s="68"/>
+      <c r="GP84" s="68"/>
+      <c r="GQ84" s="68"/>
+      <c r="GR84" s="68"/>
+      <c r="GS84" s="68"/>
+      <c r="GT84" s="68"/>
+      <c r="GU84" s="68"/>
+      <c r="GV84" s="68"/>
+      <c r="GW84" s="68"/>
+      <c r="GX84" s="68"/>
+      <c r="GY84" s="68"/>
+      <c r="GZ84" s="68"/>
+      <c r="HA84" s="68"/>
+      <c r="HB84" s="68"/>
+      <c r="HC84" s="68"/>
+      <c r="HD84" s="68"/>
+      <c r="HE84" s="68"/>
+      <c r="HF84" s="68"/>
+      <c r="HG84" s="68"/>
+      <c r="HH84" s="68"/>
+      <c r="HI84" s="68"/>
+      <c r="HJ84" s="68"/>
+      <c r="HK84" s="68"/>
+      <c r="HL84" s="68"/>
+      <c r="HM84" s="68"/>
+      <c r="HN84" s="68"/>
+      <c r="HO84" s="68"/>
+      <c r="HP84" s="68"/>
+      <c r="HQ84" s="68"/>
+      <c r="HR84" s="68"/>
+      <c r="HS84" s="68"/>
+      <c r="HT84" s="68"/>
+      <c r="HU84" s="68"/>
+      <c r="HV84" s="68"/>
+      <c r="HW84" s="68"/>
+      <c r="HX84" s="68"/>
+      <c r="HY84" s="68"/>
+      <c r="HZ84" s="68"/>
+      <c r="IA84" s="68"/>
+      <c r="IB84" s="68"/>
+      <c r="IC84" s="68"/>
+      <c r="ID84" s="68"/>
+      <c r="IE84" s="68"/>
+      <c r="IF84" s="68"/>
+      <c r="IG84" s="68"/>
+      <c r="IH84" s="68"/>
+      <c r="II84" s="68"/>
+      <c r="IJ84" s="68"/>
+      <c r="IK84" s="68"/>
+      <c r="IL84" s="68"/>
+      <c r="IM84" s="68"/>
+      <c r="IN84" s="68"/>
+      <c r="IO84" s="68"/>
+      <c r="IP84" s="68"/>
+      <c r="IQ84" s="68"/>
+      <c r="IR84" s="68"/>
+      <c r="IS84" s="68"/>
+      <c r="IT84" s="68"/>
+      <c r="IU84" s="68"/>
+      <c r="IV84" s="68"/>
+      <c r="IW84" s="68"/>
+      <c r="IX84" s="68"/>
+      <c r="IY84" s="68"/>
+      <c r="IZ84" s="68"/>
+      <c r="JA84" s="68"/>
+      <c r="JB84" s="68"/>
+      <c r="JC84" s="68"/>
+      <c r="JD84" s="68"/>
+      <c r="JE84" s="68"/>
+      <c r="JF84" s="68"/>
+      <c r="JG84" s="68"/>
+      <c r="JH84" s="68"/>
+      <c r="JI84" s="68"/>
+      <c r="JJ84" s="68"/>
+      <c r="JK84" s="68"/>
+      <c r="JL84" s="68"/>
+      <c r="JM84" s="68"/>
+      <c r="JN84" s="68"/>
+      <c r="JO84" s="68"/>
+      <c r="JP84" s="68"/>
+      <c r="JQ84" s="68"/>
+      <c r="JR84" s="68"/>
+      <c r="JS84" s="68"/>
+      <c r="JT84" s="68"/>
+      <c r="JU84" s="68"/>
+      <c r="JV84" s="68"/>
+      <c r="JW84" s="68"/>
+      <c r="JX84" s="68"/>
+      <c r="JY84" s="68"/>
+      <c r="JZ84" s="68"/>
+      <c r="KA84" s="68"/>
+      <c r="KB84" s="68"/>
+      <c r="KC84" s="68"/>
+      <c r="KD84" s="68"/>
+      <c r="KE84" s="68"/>
+      <c r="KF84" s="68"/>
+      <c r="KG84" s="68"/>
+      <c r="KH84" s="68"/>
+      <c r="KI84" s="68"/>
+      <c r="KJ84" s="68"/>
+      <c r="KK84" s="68"/>
+      <c r="KL84" s="68"/>
+      <c r="KM84" s="68"/>
+      <c r="KN84" s="68"/>
+      <c r="KO84" s="68"/>
+      <c r="KP84" s="68"/>
+      <c r="KQ84" s="68"/>
+      <c r="KR84" s="68"/>
+      <c r="KS84" s="68"/>
+      <c r="KT84" s="68"/>
+      <c r="KU84" s="68"/>
+      <c r="KV84" s="68"/>
+      <c r="KW84" s="68"/>
+      <c r="KX84" s="68"/>
+      <c r="KY84" s="68"/>
+      <c r="KZ84" s="68"/>
+      <c r="LA84" s="68"/>
+      <c r="LB84" s="68"/>
+      <c r="LC84" s="68"/>
+      <c r="LD84" s="68"/>
+      <c r="LE84" s="68"/>
+      <c r="LF84" s="68"/>
+      <c r="LG84" s="68"/>
+      <c r="LH84" s="68"/>
+      <c r="LI84" s="68"/>
+      <c r="LJ84" s="68"/>
+      <c r="LK84" s="68"/>
+      <c r="LL84" s="68"/>
+      <c r="LM84" s="68"/>
+      <c r="LN84" s="68"/>
+      <c r="LO84" s="68"/>
+      <c r="LP84" s="68"/>
+      <c r="LQ84" s="68"/>
+      <c r="LR84" s="68"/>
+      <c r="LS84" s="68"/>
+      <c r="LT84" s="68"/>
+      <c r="LU84" s="68"/>
+      <c r="LV84" s="68"/>
+      <c r="LW84" s="68"/>
+      <c r="LX84" s="68"/>
+      <c r="LY84" s="68"/>
+      <c r="LZ84" s="68"/>
+      <c r="MA84" s="68"/>
+      <c r="MB84" s="68"/>
+      <c r="MC84" s="68"/>
+      <c r="MD84" s="68"/>
+      <c r="ME84" s="68"/>
+      <c r="MF84" s="68"/>
+      <c r="MG84" s="68"/>
+      <c r="MH84" s="68"/>
+      <c r="MI84" s="68"/>
+      <c r="MJ84" s="68"/>
+      <c r="MK84" s="68"/>
+      <c r="ML84" s="68"/>
+      <c r="MM84" s="68"/>
+      <c r="MN84" s="68"/>
+      <c r="MO84" s="68"/>
+      <c r="MP84" s="68"/>
+      <c r="MQ84" s="68"/>
+      <c r="MR84" s="68"/>
+      <c r="MS84" s="68"/>
+      <c r="MT84" s="68"/>
+      <c r="MU84" s="68"/>
+      <c r="MV84" s="68"/>
+      <c r="MW84" s="68"/>
+      <c r="MX84" s="68"/>
+      <c r="MY84" s="68"/>
+      <c r="MZ84" s="68"/>
+      <c r="NA84" s="68"/>
+      <c r="NB84" s="68"/>
+      <c r="NC84" s="68"/>
+      <c r="ND84" s="68"/>
+      <c r="NE84" s="68"/>
+      <c r="NF84" s="68"/>
+      <c r="NG84" s="68"/>
+      <c r="NH84" s="68"/>
+      <c r="NI84" s="68"/>
+      <c r="NJ84" s="68"/>
+      <c r="NK84" s="68"/>
+      <c r="NL84" s="68"/>
+      <c r="NM84" s="68"/>
+      <c r="NN84" s="68"/>
+      <c r="NO84" s="68"/>
+      <c r="NP84" s="68"/>
+      <c r="NQ84" s="68"/>
+      <c r="NR84" s="68"/>
+      <c r="NS84" s="68"/>
+      <c r="NT84" s="68"/>
+      <c r="NU84" s="68"/>
+      <c r="NV84" s="68"/>
+      <c r="NW84" s="68"/>
+      <c r="NX84" s="68"/>
+      <c r="NY84" s="68"/>
+      <c r="NZ84" s="68"/>
+      <c r="OA84" s="68"/>
+      <c r="OB84" s="68"/>
+      <c r="OC84" s="68"/>
+      <c r="OD84" s="68"/>
+      <c r="OE84" s="68"/>
+      <c r="OF84" s="68"/>
+      <c r="OG84" s="68"/>
+      <c r="OH84" s="68"/>
+      <c r="OI84" s="68"/>
+      <c r="OJ84" s="68"/>
+      <c r="OK84" s="68"/>
+      <c r="OL84" s="68"/>
+      <c r="OM84" s="68"/>
+      <c r="ON84" s="68"/>
+      <c r="OO84" s="68"/>
+      <c r="OP84" s="68"/>
+      <c r="OQ84" s="68"/>
+      <c r="OR84" s="68"/>
+      <c r="OS84" s="68"/>
+      <c r="OT84" s="68"/>
+      <c r="OU84" s="68"/>
+      <c r="OV84" s="68"/>
+      <c r="OW84" s="68"/>
+      <c r="OX84" s="68"/>
+      <c r="OY84" s="68"/>
+      <c r="OZ84" s="68"/>
+      <c r="PA84" s="68"/>
+      <c r="PB84" s="68"/>
+      <c r="PC84" s="68"/>
+      <c r="PD84" s="68"/>
+      <c r="PE84" s="68"/>
+      <c r="PF84" s="68"/>
+      <c r="PG84" s="68"/>
+      <c r="PH84" s="68"/>
+      <c r="PI84" s="68"/>
+      <c r="PJ84" s="68"/>
+      <c r="PK84" s="68"/>
+      <c r="PL84" s="68"/>
+      <c r="PM84" s="68"/>
+      <c r="PN84" s="68"/>
+      <c r="PO84" s="68"/>
+      <c r="PP84" s="68"/>
+      <c r="PQ84" s="68"/>
+      <c r="PR84" s="68"/>
+      <c r="PS84" s="68"/>
+      <c r="PT84" s="68"/>
+      <c r="PU84" s="68"/>
+      <c r="PV84" s="68"/>
+      <c r="PW84" s="68"/>
+      <c r="PX84" s="68"/>
+      <c r="PY84" s="68"/>
+      <c r="PZ84" s="68"/>
+      <c r="QA84" s="68"/>
+      <c r="QB84" s="68"/>
+      <c r="QC84" s="68"/>
+      <c r="QD84" s="68"/>
+      <c r="QE84" s="68"/>
+      <c r="QF84" s="68"/>
+      <c r="QG84" s="68"/>
+      <c r="QH84" s="68"/>
+      <c r="QI84" s="68"/>
+      <c r="QJ84" s="68"/>
+      <c r="QK84" s="68"/>
+      <c r="QL84" s="68"/>
+      <c r="QM84" s="68"/>
+      <c r="QN84" s="68"/>
+      <c r="QO84" s="68"/>
+      <c r="QP84" s="68"/>
+      <c r="QQ84" s="68"/>
+      <c r="QR84" s="68"/>
+      <c r="QS84" s="68"/>
+      <c r="QT84" s="68"/>
+      <c r="QU84" s="68"/>
+      <c r="QV84" s="68"/>
+      <c r="QW84" s="68"/>
+      <c r="QX84" s="68"/>
+      <c r="QY84" s="68"/>
+      <c r="QZ84" s="68"/>
+      <c r="RA84" s="68"/>
+      <c r="RB84" s="68"/>
+      <c r="RC84" s="68"/>
+      <c r="RD84" s="68"/>
+      <c r="RE84" s="68"/>
+      <c r="RF84" s="68"/>
+      <c r="RG84" s="68"/>
+      <c r="RH84" s="68"/>
+      <c r="RI84" s="68"/>
+      <c r="RJ84" s="68"/>
+      <c r="RK84" s="68"/>
+      <c r="RL84" s="68"/>
+      <c r="RM84" s="68"/>
+      <c r="RN84" s="68"/>
+      <c r="RO84" s="68"/>
+      <c r="RP84" s="68"/>
+      <c r="RQ84" s="68"/>
+      <c r="RR84" s="68"/>
+      <c r="RS84" s="68"/>
+      <c r="RT84" s="68"/>
+      <c r="RU84" s="68"/>
+      <c r="RV84" s="68"/>
+      <c r="RW84" s="68"/>
+      <c r="RX84" s="68"/>
+      <c r="RY84" s="68"/>
+      <c r="RZ84" s="68"/>
+      <c r="SA84" s="68"/>
+      <c r="SB84" s="68"/>
+      <c r="SC84" s="68"/>
+      <c r="SD84" s="68"/>
+      <c r="SE84" s="68"/>
+      <c r="SF84" s="68"/>
+      <c r="SG84" s="68"/>
+      <c r="SH84" s="68"/>
+      <c r="SI84" s="68"/>
+      <c r="SJ84" s="68"/>
+      <c r="SK84" s="68"/>
+      <c r="SL84" s="68"/>
+      <c r="SM84" s="68"/>
+      <c r="SN84" s="68"/>
+      <c r="SO84" s="68"/>
+      <c r="SP84" s="68"/>
+      <c r="SQ84" s="68"/>
+      <c r="SR84" s="68"/>
+      <c r="SS84" s="68"/>
+      <c r="ST84" s="68"/>
+      <c r="SU84" s="68"/>
+      <c r="SV84" s="68"/>
+      <c r="SW84" s="68"/>
+      <c r="SX84" s="68"/>
+      <c r="SY84" s="68"/>
+      <c r="SZ84" s="68"/>
+      <c r="TA84" s="68"/>
+      <c r="TB84" s="68"/>
+      <c r="TC84" s="68"/>
+      <c r="TD84" s="68"/>
+      <c r="TE84" s="68"/>
+      <c r="TF84" s="68"/>
+      <c r="TG84" s="68"/>
+      <c r="TH84" s="68"/>
+      <c r="TI84" s="68"/>
+      <c r="TJ84" s="68"/>
+      <c r="TK84" s="68"/>
+      <c r="TL84" s="68"/>
+      <c r="TM84" s="68"/>
+      <c r="TN84" s="68"/>
+      <c r="TO84" s="68"/>
+      <c r="TP84" s="68"/>
+      <c r="TQ84" s="68"/>
+      <c r="TR84" s="68"/>
+      <c r="TS84" s="68"/>
+      <c r="TT84" s="68"/>
+      <c r="TU84" s="68"/>
+      <c r="TV84" s="68"/>
+      <c r="TW84" s="68"/>
+      <c r="TX84" s="68"/>
+      <c r="TY84" s="68"/>
+      <c r="TZ84" s="68"/>
+      <c r="UA84" s="68"/>
+      <c r="UB84" s="68"/>
+      <c r="UC84" s="68"/>
+      <c r="UD84" s="68"/>
+      <c r="UE84" s="68"/>
+      <c r="UF84" s="68"/>
+      <c r="UG84" s="68"/>
+      <c r="UH84" s="68"/>
+      <c r="UI84" s="68"/>
+      <c r="UJ84" s="68"/>
+      <c r="UK84" s="68"/>
+      <c r="UL84" s="68"/>
+      <c r="UM84" s="68"/>
+      <c r="UN84" s="68"/>
+      <c r="UO84" s="68"/>
+      <c r="UP84" s="68"/>
+      <c r="UQ84" s="68"/>
+      <c r="UR84" s="68"/>
+      <c r="US84" s="68"/>
+      <c r="UT84" s="68"/>
+      <c r="UU84" s="68"/>
+      <c r="UV84" s="68"/>
+      <c r="UW84" s="68"/>
+      <c r="UX84" s="68"/>
+      <c r="UY84" s="68"/>
+      <c r="UZ84" s="68"/>
+      <c r="VA84" s="68"/>
+      <c r="VB84" s="68"/>
+      <c r="VC84" s="68"/>
+      <c r="VD84" s="68"/>
+      <c r="VE84" s="68"/>
+      <c r="VF84" s="68"/>
+      <c r="VG84" s="68"/>
+      <c r="VH84" s="68"/>
+      <c r="VI84" s="68"/>
+      <c r="VJ84" s="68"/>
+      <c r="VK84" s="68"/>
+      <c r="VL84" s="68"/>
+      <c r="VM84" s="68"/>
+      <c r="VN84" s="68"/>
+      <c r="VO84" s="68"/>
+      <c r="VP84" s="68"/>
+      <c r="VQ84" s="68"/>
+      <c r="VR84" s="68"/>
+      <c r="VS84" s="68"/>
+      <c r="VT84" s="68"/>
+      <c r="VU84" s="68"/>
+      <c r="VV84" s="68"/>
+      <c r="VW84" s="68"/>
+      <c r="VX84" s="68"/>
+      <c r="VY84" s="68"/>
+      <c r="VZ84" s="68"/>
+      <c r="WA84" s="68"/>
+      <c r="WB84" s="68"/>
+      <c r="WC84" s="68"/>
+      <c r="WD84" s="68"/>
+      <c r="WE84" s="68"/>
+      <c r="WF84" s="68"/>
+      <c r="WG84" s="68"/>
+      <c r="WH84" s="68"/>
+      <c r="WI84" s="68"/>
+      <c r="WJ84" s="68"/>
+      <c r="WK84" s="68"/>
+      <c r="WL84" s="68"/>
+      <c r="WM84" s="68"/>
+      <c r="WN84" s="68"/>
+      <c r="WO84" s="68"/>
+      <c r="WP84" s="68"/>
+      <c r="WQ84" s="68"/>
+      <c r="WR84" s="68"/>
+      <c r="WS84" s="68"/>
+      <c r="WT84" s="68"/>
+      <c r="WU84" s="68"/>
+      <c r="WV84" s="68"/>
+      <c r="WW84" s="68"/>
+      <c r="WX84" s="68"/>
+      <c r="WY84" s="68"/>
+      <c r="WZ84" s="68"/>
+      <c r="XA84" s="68"/>
+      <c r="XB84" s="68"/>
+      <c r="XC84" s="68"/>
+      <c r="XD84" s="68"/>
+      <c r="XE84" s="68"/>
+      <c r="XF84" s="68"/>
+      <c r="XG84" s="68"/>
+      <c r="XH84" s="68"/>
+      <c r="XI84" s="68"/>
+      <c r="XJ84" s="68"/>
+      <c r="XK84" s="68"/>
+      <c r="XL84" s="68"/>
+      <c r="XM84" s="68"/>
+      <c r="XN84" s="68"/>
+      <c r="XO84" s="68"/>
+      <c r="XP84" s="68"/>
+      <c r="XQ84" s="68"/>
+      <c r="XR84" s="68"/>
+      <c r="XS84" s="68"/>
+      <c r="XT84" s="68"/>
+      <c r="XU84" s="68"/>
+      <c r="XV84" s="68"/>
+      <c r="XW84" s="68"/>
+      <c r="XX84" s="68"/>
+      <c r="XY84" s="68"/>
+      <c r="XZ84" s="68"/>
+      <c r="YA84" s="68"/>
+      <c r="YB84" s="68"/>
+      <c r="YC84" s="68"/>
+      <c r="YD84" s="68"/>
+      <c r="YE84" s="68"/>
+      <c r="YF84" s="68"/>
+      <c r="YG84" s="68"/>
+      <c r="YH84" s="68"/>
+      <c r="YI84" s="68"/>
+      <c r="YJ84" s="68"/>
+      <c r="YK84" s="68"/>
+      <c r="YL84" s="68"/>
+      <c r="YM84" s="68"/>
+      <c r="YN84" s="68"/>
+      <c r="YO84" s="68"/>
+      <c r="YP84" s="68"/>
+      <c r="YQ84" s="68"/>
+      <c r="YR84" s="68"/>
+      <c r="YS84" s="68"/>
+      <c r="YT84" s="68"/>
+      <c r="YU84" s="68"/>
+      <c r="YV84" s="68"/>
+      <c r="YW84" s="68"/>
+      <c r="YX84" s="68"/>
+      <c r="YY84" s="68"/>
+      <c r="YZ84" s="68"/>
+      <c r="ZA84" s="68"/>
+      <c r="ZB84" s="68"/>
+      <c r="ZC84" s="68"/>
+      <c r="ZD84" s="68"/>
+      <c r="ZE84" s="68"/>
+      <c r="ZF84" s="68"/>
+      <c r="ZG84" s="68"/>
+      <c r="ZH84" s="68"/>
+      <c r="ZI84" s="68"/>
+      <c r="ZJ84" s="68"/>
+      <c r="ZK84" s="68"/>
+      <c r="ZL84" s="68"/>
+      <c r="ZM84" s="68"/>
+      <c r="ZN84" s="68"/>
+      <c r="ZO84" s="68"/>
+      <c r="ZP84" s="68"/>
+      <c r="ZQ84" s="68"/>
+      <c r="ZR84" s="68"/>
+      <c r="ZS84" s="68"/>
+      <c r="ZT84" s="68"/>
+      <c r="ZU84" s="68"/>
+      <c r="ZV84" s="68"/>
+      <c r="ZW84" s="68"/>
+      <c r="ZX84" s="68"/>
+      <c r="ZY84" s="68"/>
+      <c r="ZZ84" s="68"/>
+      <c r="AAA84" s="68"/>
+      <c r="AAB84" s="68"/>
+      <c r="AAC84" s="68"/>
+      <c r="AAD84" s="68"/>
+      <c r="AAE84" s="68"/>
+      <c r="AAF84" s="68"/>
+      <c r="AAG84" s="68"/>
+      <c r="AAH84" s="68"/>
+      <c r="AAI84" s="68"/>
+      <c r="AAJ84" s="68"/>
+      <c r="AAK84" s="68"/>
+      <c r="AAL84" s="68"/>
+      <c r="AAM84" s="68"/>
+      <c r="AAN84" s="68"/>
+      <c r="AAO84" s="68"/>
+      <c r="AAP84" s="68"/>
+      <c r="AAQ84" s="68"/>
+      <c r="AAR84" s="68"/>
+      <c r="AAS84" s="68"/>
+      <c r="AAT84" s="68"/>
+      <c r="AAU84" s="68"/>
+      <c r="AAV84" s="68"/>
+      <c r="AAW84" s="68"/>
+      <c r="AAX84" s="68"/>
+      <c r="AAY84" s="68"/>
+      <c r="AAZ84" s="68"/>
+      <c r="ABA84" s="68"/>
+      <c r="ABB84" s="68"/>
+      <c r="ABC84" s="68"/>
+      <c r="ABD84" s="68"/>
+      <c r="ABE84" s="68"/>
+      <c r="ABF84" s="68"/>
+      <c r="ABG84" s="68"/>
+      <c r="ABH84" s="68"/>
+      <c r="ABI84" s="68"/>
+      <c r="ABJ84" s="68"/>
+      <c r="ABK84" s="68"/>
+      <c r="ABL84" s="68"/>
+      <c r="ABM84" s="68"/>
+      <c r="ABN84" s="68"/>
+      <c r="ABO84" s="68"/>
+      <c r="ABP84" s="68"/>
+      <c r="ABQ84" s="68"/>
+      <c r="ABR84" s="68"/>
+      <c r="ABS84" s="68"/>
+      <c r="ABT84" s="68"/>
+      <c r="ABU84" s="68"/>
+      <c r="ABV84" s="68"/>
+      <c r="ABW84" s="68"/>
+      <c r="ABX84" s="68"/>
+      <c r="ABY84" s="68"/>
+      <c r="ABZ84" s="68"/>
+      <c r="ACA84" s="68"/>
+      <c r="ACB84" s="68"/>
+      <c r="ACC84" s="68"/>
+      <c r="ACD84" s="68"/>
+      <c r="ACE84" s="68"/>
+      <c r="ACF84" s="68"/>
+      <c r="ACG84" s="68"/>
+      <c r="ACH84" s="68"/>
+      <c r="ACI84" s="68"/>
+      <c r="ACJ84" s="68"/>
+      <c r="ACK84" s="68"/>
+      <c r="ACL84" s="68"/>
+      <c r="ACM84" s="68"/>
+      <c r="ACN84" s="68"/>
+      <c r="ACO84" s="68"/>
+      <c r="ACP84" s="68"/>
+      <c r="ACQ84" s="68"/>
+      <c r="ACR84" s="68"/>
+      <c r="ACS84" s="68"/>
+      <c r="ACT84" s="68"/>
+      <c r="ACU84" s="68"/>
+      <c r="ACV84" s="68"/>
+      <c r="ACW84" s="68"/>
+      <c r="ACX84" s="68"/>
+      <c r="ACY84" s="68"/>
+      <c r="ACZ84" s="68"/>
+      <c r="ADA84" s="68"/>
+      <c r="ADB84" s="68"/>
+      <c r="ADC84" s="68"/>
+      <c r="ADD84" s="68"/>
+      <c r="ADE84" s="68"/>
+      <c r="ADF84" s="68"/>
+      <c r="ADG84" s="68"/>
+      <c r="ADH84" s="68"/>
+      <c r="ADI84" s="68"/>
+      <c r="ADJ84" s="68"/>
+      <c r="ADK84" s="68"/>
+      <c r="ADL84" s="68"/>
+      <c r="ADM84" s="68"/>
+      <c r="ADN84" s="68"/>
+      <c r="ADO84" s="68"/>
+      <c r="ADP84" s="68"/>
+      <c r="ADQ84" s="68"/>
+      <c r="ADR84" s="68"/>
+      <c r="ADS84" s="68"/>
+      <c r="ADT84" s="68"/>
+      <c r="ADU84" s="68"/>
+      <c r="ADV84" s="68"/>
+      <c r="ADW84" s="68"/>
+      <c r="ADX84" s="68"/>
+      <c r="ADY84" s="68"/>
+      <c r="ADZ84" s="68"/>
+      <c r="AEA84" s="68"/>
+      <c r="AEB84" s="68"/>
+      <c r="AEC84" s="68"/>
+      <c r="AED84" s="68"/>
+      <c r="AEE84" s="68"/>
+      <c r="AEF84" s="68"/>
+      <c r="AEG84" s="68"/>
+      <c r="AEH84" s="68"/>
+      <c r="AEI84" s="68"/>
+      <c r="AEJ84" s="68"/>
+      <c r="AEK84" s="68"/>
+      <c r="AEL84" s="68"/>
+      <c r="AEM84" s="68"/>
+      <c r="AEN84" s="68"/>
+      <c r="AEO84" s="68"/>
+      <c r="AEP84" s="68"/>
+      <c r="AEQ84" s="68"/>
+      <c r="AER84" s="68"/>
+      <c r="AES84" s="68"/>
+      <c r="AET84" s="68"/>
+      <c r="AEU84" s="68"/>
+      <c r="AEV84" s="68"/>
+      <c r="AEW84" s="68"/>
+      <c r="AEX84" s="68"/>
+      <c r="AEY84" s="68"/>
+      <c r="AEZ84" s="68"/>
+      <c r="AFA84" s="68"/>
+      <c r="AFB84" s="68"/>
+      <c r="AFC84" s="68"/>
+      <c r="AFD84" s="68"/>
+      <c r="AFE84" s="68"/>
+      <c r="AFF84" s="68"/>
+      <c r="AFG84" s="68"/>
+      <c r="AFH84" s="68"/>
+      <c r="AFI84" s="68"/>
+      <c r="AFJ84" s="68"/>
+      <c r="AFK84" s="68"/>
+      <c r="AFL84" s="68"/>
+      <c r="AFM84" s="68"/>
+      <c r="AFN84" s="68"/>
+      <c r="AFO84" s="68"/>
+      <c r="AFP84" s="68"/>
+      <c r="AFQ84" s="68"/>
+      <c r="AFR84" s="68"/>
+      <c r="AFS84" s="68"/>
+      <c r="AFT84" s="68"/>
+      <c r="AFU84" s="68"/>
+      <c r="AFV84" s="68"/>
+      <c r="AFW84" s="68"/>
+      <c r="AFX84" s="68"/>
+      <c r="AFY84" s="68"/>
+      <c r="AFZ84" s="68"/>
+      <c r="AGA84" s="68"/>
+      <c r="AGB84" s="68"/>
+      <c r="AGC84" s="68"/>
+      <c r="AGD84" s="68"/>
+      <c r="AGE84" s="68"/>
+      <c r="AGF84" s="68"/>
+      <c r="AGG84" s="68"/>
+      <c r="AGH84" s="68"/>
+      <c r="AGI84" s="68"/>
+      <c r="AGJ84" s="68"/>
+      <c r="AGK84" s="68"/>
+      <c r="AGL84" s="68"/>
+      <c r="AGM84" s="68"/>
+      <c r="AGN84" s="68"/>
+      <c r="AGO84" s="68"/>
+      <c r="AGP84" s="68"/>
+      <c r="AGQ84" s="68"/>
+      <c r="AGR84" s="68"/>
+      <c r="AGS84" s="68"/>
+      <c r="AGT84" s="68"/>
+      <c r="AGU84" s="68"/>
+      <c r="AGV84" s="68"/>
+      <c r="AGW84" s="68"/>
+      <c r="AGX84" s="68"/>
+      <c r="AGY84" s="68"/>
+      <c r="AGZ84" s="68"/>
+      <c r="AHA84" s="68"/>
+      <c r="AHB84" s="68"/>
+      <c r="AHC84" s="68"/>
+      <c r="AHD84" s="68"/>
+      <c r="AHE84" s="68"/>
+      <c r="AHF84" s="68"/>
+      <c r="AHG84" s="68"/>
+      <c r="AHH84" s="68"/>
+      <c r="AHI84" s="68"/>
+      <c r="AHJ84" s="68"/>
+      <c r="AHK84" s="68"/>
+      <c r="AHL84" s="68"/>
+      <c r="AHM84" s="68"/>
+      <c r="AHN84" s="68"/>
+      <c r="AHO84" s="68"/>
+      <c r="AHP84" s="68"/>
+      <c r="AHQ84" s="68"/>
+      <c r="AHR84" s="68"/>
+      <c r="AHS84" s="68"/>
+      <c r="AHT84" s="68"/>
+      <c r="AHU84" s="68"/>
+      <c r="AHV84" s="68"/>
+      <c r="AHW84" s="68"/>
+      <c r="AHX84" s="68"/>
+      <c r="AHY84" s="68"/>
+      <c r="AHZ84" s="68"/>
+      <c r="AIA84" s="68"/>
+      <c r="AIB84" s="68"/>
+      <c r="AIC84" s="68"/>
+      <c r="AID84" s="68"/>
+      <c r="AIE84" s="68"/>
+      <c r="AIF84" s="68"/>
+      <c r="AIG84" s="68"/>
+      <c r="AIH84" s="68"/>
+      <c r="AII84" s="68"/>
+      <c r="AIJ84" s="68"/>
+      <c r="AIK84" s="68"/>
+      <c r="AIL84" s="68"/>
+      <c r="AIM84" s="68"/>
+      <c r="AIN84" s="68"/>
+      <c r="AIO84" s="68"/>
+      <c r="AIP84" s="68"/>
+      <c r="AIQ84" s="68"/>
+      <c r="AIR84" s="68"/>
+      <c r="AIS84" s="68"/>
+      <c r="AIT84" s="68"/>
+      <c r="AIU84" s="68"/>
+      <c r="AIV84" s="68"/>
+      <c r="AIW84" s="68"/>
+      <c r="AIX84" s="68"/>
+      <c r="AIY84" s="68"/>
+      <c r="AIZ84" s="68"/>
+      <c r="AJA84" s="68"/>
+      <c r="AJB84" s="68"/>
+      <c r="AJC84" s="68"/>
+      <c r="AJD84" s="68"/>
+      <c r="AJE84" s="68"/>
+      <c r="AJF84" s="68"/>
+      <c r="AJG84" s="68"/>
+      <c r="AJH84" s="68"/>
+      <c r="AJI84" s="68"/>
+      <c r="AJJ84" s="68"/>
+      <c r="AJK84" s="68"/>
+      <c r="AJL84" s="68"/>
+      <c r="AJM84" s="68"/>
+      <c r="AJN84" s="68"/>
+      <c r="AJO84" s="68"/>
+      <c r="AJP84" s="68"/>
+      <c r="AJQ84" s="68"/>
+      <c r="AJR84" s="68"/>
+      <c r="AJS84" s="68"/>
+      <c r="AJT84" s="68"/>
+      <c r="AJU84" s="68"/>
+      <c r="AJV84" s="68"/>
+      <c r="AJW84" s="68"/>
+      <c r="AJX84" s="68"/>
+      <c r="AJY84" s="68"/>
+      <c r="AJZ84" s="68"/>
+      <c r="AKA84" s="68"/>
+      <c r="AKB84" s="68"/>
+      <c r="AKC84" s="68"/>
+      <c r="AKD84" s="68"/>
+      <c r="AKE84" s="68"/>
+      <c r="AKF84" s="68"/>
+      <c r="AKG84" s="68"/>
+      <c r="AKH84" s="68"/>
+      <c r="AKI84" s="68"/>
+      <c r="AKJ84" s="68"/>
+      <c r="AKK84" s="68"/>
+      <c r="AKL84" s="68"/>
+      <c r="AKM84" s="68"/>
+      <c r="AKN84" s="68"/>
+      <c r="AKO84" s="68"/>
+      <c r="AKP84" s="68"/>
+      <c r="AKQ84" s="68"/>
+      <c r="AKR84" s="68"/>
+      <c r="AKS84" s="68"/>
+      <c r="AKT84" s="68"/>
+      <c r="AKU84" s="68"/>
+      <c r="AKV84" s="68"/>
+      <c r="AKW84" s="68"/>
+      <c r="AKX84" s="68"/>
+      <c r="AKY84" s="68"/>
+      <c r="AKZ84" s="68"/>
+      <c r="ALA84" s="68"/>
+      <c r="ALB84" s="68"/>
+      <c r="ALC84" s="68"/>
+      <c r="ALD84" s="68"/>
+      <c r="ALE84" s="68"/>
+      <c r="ALF84" s="68"/>
+      <c r="ALG84" s="68"/>
+      <c r="ALH84" s="68"/>
+      <c r="ALI84" s="68"/>
+      <c r="ALJ84" s="68"/>
+      <c r="ALK84" s="68"/>
+      <c r="ALL84" s="68"/>
+      <c r="ALM84" s="68"/>
+      <c r="ALN84" s="68"/>
+      <c r="ALO84" s="68"/>
+      <c r="ALP84" s="68"/>
+      <c r="ALQ84" s="68"/>
+      <c r="ALR84" s="68"/>
+      <c r="ALS84" s="68"/>
+      <c r="ALT84" s="68"/>
+      <c r="ALU84" s="68"/>
+      <c r="ALV84" s="68"/>
+      <c r="ALW84" s="68"/>
+      <c r="ALX84" s="68"/>
+      <c r="ALY84" s="68"/>
+      <c r="ALZ84" s="68"/>
+      <c r="AMA84" s="68"/>
+      <c r="AMB84" s="68"/>
+      <c r="AMC84" s="68"/>
+      <c r="AMD84" s="68"/>
+      <c r="AME84" s="68"/>
+      <c r="AMF84" s="68"/>
+      <c r="AMG84" s="68"/>
+      <c r="AMH84" s="68"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -20380,6 +20399,52 @@
       </c>
       <c r="G85" s="12">
         <v>0.9683</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="10">
+        <v>0.9944397</v>
+      </c>
+      <c r="D86" s="10">
+        <v>0.9636514</v>
+      </c>
+      <c r="E86" s="10">
+        <v>0.9957162</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0.9669696</v>
+      </c>
+      <c r="G86" s="12">
+        <v>0.9686</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C87" s="10">
+        <v>0.9954566</v>
+      </c>
+      <c r="D87" s="10">
+        <v>0.9638042</v>
+      </c>
+      <c r="E87" s="10">
+        <v>0.9965423</v>
+      </c>
+      <c r="F87" s="11">
+        <v>0.967112</v>
+      </c>
+      <c r="G87" s="12">
+        <v>0.9685</v>
       </c>
     </row>
   </sheetData>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <r>
       <rPr>
@@ -1330,6 +1330,9 @@
   <si>
     <t>331</t>
   </si>
+  <si>
+    <t>max_depth': 15</t>
+  </si>
 </sst>
 </file>
 
@@ -1338,12 +1341,12 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1372,15 +1375,146 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1394,141 +1528,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1613,31 +1612,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,13 +1630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,7 +1648,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,115 +1780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1804,6 +1803,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1832,219 +1903,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2228,13 +2227,10 @@
     <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2253,6 +2249,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2570,10 +2569,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH87"/>
+  <dimension ref="A1:AMH88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A88" sqref="$A88:$XFD88"/>
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -7888,7 +7887,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -18124,7 +18123,7 @@
       <c r="G72" s="35">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="62" t="s">
+      <c r="H72" s="61" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="46"/>
@@ -19164,7 +19163,7 @@
       <c r="G73" s="12">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="63" t="s">
+      <c r="H73" s="62" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19230,7 +19229,7 @@
       <c r="F76" s="20">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="64">
+      <c r="G76" s="63">
         <v>0.9682</v>
       </c>
     </row>
@@ -19253,7 +19252,7 @@
       <c r="F78" s="57">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="65">
+      <c r="G78" s="64">
         <v>0.9678</v>
       </c>
     </row>
@@ -19368,1024 +19367,1024 @@
       <c r="F84" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="G84" s="66">
+      <c r="G84" s="65">
         <v>0.9686</v>
       </c>
-      <c r="H84" s="67"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
-      <c r="N84" s="68"/>
-      <c r="O84" s="68"/>
-      <c r="P84" s="68"/>
-      <c r="Q84" s="68"/>
-      <c r="R84" s="68"/>
-      <c r="S84" s="68"/>
-      <c r="T84" s="68"/>
-      <c r="U84" s="68"/>
-      <c r="V84" s="68"/>
-      <c r="W84" s="68"/>
-      <c r="X84" s="68"/>
-      <c r="Y84" s="68"/>
-      <c r="Z84" s="68"/>
-      <c r="AA84" s="68"/>
-      <c r="AB84" s="68"/>
-      <c r="AC84" s="68"/>
-      <c r="AD84" s="68"/>
-      <c r="AE84" s="68"/>
-      <c r="AF84" s="68"/>
-      <c r="AG84" s="68"/>
-      <c r="AH84" s="68"/>
-      <c r="AI84" s="68"/>
-      <c r="AJ84" s="68"/>
-      <c r="AK84" s="68"/>
-      <c r="AL84" s="68"/>
-      <c r="AM84" s="68"/>
-      <c r="AN84" s="68"/>
-      <c r="AO84" s="68"/>
-      <c r="AP84" s="68"/>
-      <c r="AQ84" s="68"/>
-      <c r="AR84" s="68"/>
-      <c r="AS84" s="68"/>
-      <c r="AT84" s="68"/>
-      <c r="AU84" s="68"/>
-      <c r="AV84" s="68"/>
-      <c r="AW84" s="68"/>
-      <c r="AX84" s="68"/>
-      <c r="AY84" s="68"/>
-      <c r="AZ84" s="68"/>
-      <c r="BA84" s="68"/>
-      <c r="BB84" s="68"/>
-      <c r="BC84" s="68"/>
-      <c r="BD84" s="68"/>
-      <c r="BE84" s="68"/>
-      <c r="BF84" s="68"/>
-      <c r="BG84" s="68"/>
-      <c r="BH84" s="68"/>
-      <c r="BI84" s="68"/>
-      <c r="BJ84" s="68"/>
-      <c r="BK84" s="68"/>
-      <c r="BL84" s="68"/>
-      <c r="BM84" s="68"/>
-      <c r="BN84" s="68"/>
-      <c r="BO84" s="68"/>
-      <c r="BP84" s="68"/>
-      <c r="BQ84" s="68"/>
-      <c r="BR84" s="68"/>
-      <c r="BS84" s="68"/>
-      <c r="BT84" s="68"/>
-      <c r="BU84" s="68"/>
-      <c r="BV84" s="68"/>
-      <c r="BW84" s="68"/>
-      <c r="BX84" s="68"/>
-      <c r="BY84" s="68"/>
-      <c r="BZ84" s="68"/>
-      <c r="CA84" s="68"/>
-      <c r="CB84" s="68"/>
-      <c r="CC84" s="68"/>
-      <c r="CD84" s="68"/>
-      <c r="CE84" s="68"/>
-      <c r="CF84" s="68"/>
-      <c r="CG84" s="68"/>
-      <c r="CH84" s="68"/>
-      <c r="CI84" s="68"/>
-      <c r="CJ84" s="68"/>
-      <c r="CK84" s="68"/>
-      <c r="CL84" s="68"/>
-      <c r="CM84" s="68"/>
-      <c r="CN84" s="68"/>
-      <c r="CO84" s="68"/>
-      <c r="CP84" s="68"/>
-      <c r="CQ84" s="68"/>
-      <c r="CR84" s="68"/>
-      <c r="CS84" s="68"/>
-      <c r="CT84" s="68"/>
-      <c r="CU84" s="68"/>
-      <c r="CV84" s="68"/>
-      <c r="CW84" s="68"/>
-      <c r="CX84" s="68"/>
-      <c r="CY84" s="68"/>
-      <c r="CZ84" s="68"/>
-      <c r="DA84" s="68"/>
-      <c r="DB84" s="68"/>
-      <c r="DC84" s="68"/>
-      <c r="DD84" s="68"/>
-      <c r="DE84" s="68"/>
-      <c r="DF84" s="68"/>
-      <c r="DG84" s="68"/>
-      <c r="DH84" s="68"/>
-      <c r="DI84" s="68"/>
-      <c r="DJ84" s="68"/>
-      <c r="DK84" s="68"/>
-      <c r="DL84" s="68"/>
-      <c r="DM84" s="68"/>
-      <c r="DN84" s="68"/>
-      <c r="DO84" s="68"/>
-      <c r="DP84" s="68"/>
-      <c r="DQ84" s="68"/>
-      <c r="DR84" s="68"/>
-      <c r="DS84" s="68"/>
-      <c r="DT84" s="68"/>
-      <c r="DU84" s="68"/>
-      <c r="DV84" s="68"/>
-      <c r="DW84" s="68"/>
-      <c r="DX84" s="68"/>
-      <c r="DY84" s="68"/>
-      <c r="DZ84" s="68"/>
-      <c r="EA84" s="68"/>
-      <c r="EB84" s="68"/>
-      <c r="EC84" s="68"/>
-      <c r="ED84" s="68"/>
-      <c r="EE84" s="68"/>
-      <c r="EF84" s="68"/>
-      <c r="EG84" s="68"/>
-      <c r="EH84" s="68"/>
-      <c r="EI84" s="68"/>
-      <c r="EJ84" s="68"/>
-      <c r="EK84" s="68"/>
-      <c r="EL84" s="68"/>
-      <c r="EM84" s="68"/>
-      <c r="EN84" s="68"/>
-      <c r="EO84" s="68"/>
-      <c r="EP84" s="68"/>
-      <c r="EQ84" s="68"/>
-      <c r="ER84" s="68"/>
-      <c r="ES84" s="68"/>
-      <c r="ET84" s="68"/>
-      <c r="EU84" s="68"/>
-      <c r="EV84" s="68"/>
-      <c r="EW84" s="68"/>
-      <c r="EX84" s="68"/>
-      <c r="EY84" s="68"/>
-      <c r="EZ84" s="68"/>
-      <c r="FA84" s="68"/>
-      <c r="FB84" s="68"/>
-      <c r="FC84" s="68"/>
-      <c r="FD84" s="68"/>
-      <c r="FE84" s="68"/>
-      <c r="FF84" s="68"/>
-      <c r="FG84" s="68"/>
-      <c r="FH84" s="68"/>
-      <c r="FI84" s="68"/>
-      <c r="FJ84" s="68"/>
-      <c r="FK84" s="68"/>
-      <c r="FL84" s="68"/>
-      <c r="FM84" s="68"/>
-      <c r="FN84" s="68"/>
-      <c r="FO84" s="68"/>
-      <c r="FP84" s="68"/>
-      <c r="FQ84" s="68"/>
-      <c r="FR84" s="68"/>
-      <c r="FS84" s="68"/>
-      <c r="FT84" s="68"/>
-      <c r="FU84" s="68"/>
-      <c r="FV84" s="68"/>
-      <c r="FW84" s="68"/>
-      <c r="FX84" s="68"/>
-      <c r="FY84" s="68"/>
-      <c r="FZ84" s="68"/>
-      <c r="GA84" s="68"/>
-      <c r="GB84" s="68"/>
-      <c r="GC84" s="68"/>
-      <c r="GD84" s="68"/>
-      <c r="GE84" s="68"/>
-      <c r="GF84" s="68"/>
-      <c r="GG84" s="68"/>
-      <c r="GH84" s="68"/>
-      <c r="GI84" s="68"/>
-      <c r="GJ84" s="68"/>
-      <c r="GK84" s="68"/>
-      <c r="GL84" s="68"/>
-      <c r="GM84" s="68"/>
-      <c r="GN84" s="68"/>
-      <c r="GO84" s="68"/>
-      <c r="GP84" s="68"/>
-      <c r="GQ84" s="68"/>
-      <c r="GR84" s="68"/>
-      <c r="GS84" s="68"/>
-      <c r="GT84" s="68"/>
-      <c r="GU84" s="68"/>
-      <c r="GV84" s="68"/>
-      <c r="GW84" s="68"/>
-      <c r="GX84" s="68"/>
-      <c r="GY84" s="68"/>
-      <c r="GZ84" s="68"/>
-      <c r="HA84" s="68"/>
-      <c r="HB84" s="68"/>
-      <c r="HC84" s="68"/>
-      <c r="HD84" s="68"/>
-      <c r="HE84" s="68"/>
-      <c r="HF84" s="68"/>
-      <c r="HG84" s="68"/>
-      <c r="HH84" s="68"/>
-      <c r="HI84" s="68"/>
-      <c r="HJ84" s="68"/>
-      <c r="HK84" s="68"/>
-      <c r="HL84" s="68"/>
-      <c r="HM84" s="68"/>
-      <c r="HN84" s="68"/>
-      <c r="HO84" s="68"/>
-      <c r="HP84" s="68"/>
-      <c r="HQ84" s="68"/>
-      <c r="HR84" s="68"/>
-      <c r="HS84" s="68"/>
-      <c r="HT84" s="68"/>
-      <c r="HU84" s="68"/>
-      <c r="HV84" s="68"/>
-      <c r="HW84" s="68"/>
-      <c r="HX84" s="68"/>
-      <c r="HY84" s="68"/>
-      <c r="HZ84" s="68"/>
-      <c r="IA84" s="68"/>
-      <c r="IB84" s="68"/>
-      <c r="IC84" s="68"/>
-      <c r="ID84" s="68"/>
-      <c r="IE84" s="68"/>
-      <c r="IF84" s="68"/>
-      <c r="IG84" s="68"/>
-      <c r="IH84" s="68"/>
-      <c r="II84" s="68"/>
-      <c r="IJ84" s="68"/>
-      <c r="IK84" s="68"/>
-      <c r="IL84" s="68"/>
-      <c r="IM84" s="68"/>
-      <c r="IN84" s="68"/>
-      <c r="IO84" s="68"/>
-      <c r="IP84" s="68"/>
-      <c r="IQ84" s="68"/>
-      <c r="IR84" s="68"/>
-      <c r="IS84" s="68"/>
-      <c r="IT84" s="68"/>
-      <c r="IU84" s="68"/>
-      <c r="IV84" s="68"/>
-      <c r="IW84" s="68"/>
-      <c r="IX84" s="68"/>
-      <c r="IY84" s="68"/>
-      <c r="IZ84" s="68"/>
-      <c r="JA84" s="68"/>
-      <c r="JB84" s="68"/>
-      <c r="JC84" s="68"/>
-      <c r="JD84" s="68"/>
-      <c r="JE84" s="68"/>
-      <c r="JF84" s="68"/>
-      <c r="JG84" s="68"/>
-      <c r="JH84" s="68"/>
-      <c r="JI84" s="68"/>
-      <c r="JJ84" s="68"/>
-      <c r="JK84" s="68"/>
-      <c r="JL84" s="68"/>
-      <c r="JM84" s="68"/>
-      <c r="JN84" s="68"/>
-      <c r="JO84" s="68"/>
-      <c r="JP84" s="68"/>
-      <c r="JQ84" s="68"/>
-      <c r="JR84" s="68"/>
-      <c r="JS84" s="68"/>
-      <c r="JT84" s="68"/>
-      <c r="JU84" s="68"/>
-      <c r="JV84" s="68"/>
-      <c r="JW84" s="68"/>
-      <c r="JX84" s="68"/>
-      <c r="JY84" s="68"/>
-      <c r="JZ84" s="68"/>
-      <c r="KA84" s="68"/>
-      <c r="KB84" s="68"/>
-      <c r="KC84" s="68"/>
-      <c r="KD84" s="68"/>
-      <c r="KE84" s="68"/>
-      <c r="KF84" s="68"/>
-      <c r="KG84" s="68"/>
-      <c r="KH84" s="68"/>
-      <c r="KI84" s="68"/>
-      <c r="KJ84" s="68"/>
-      <c r="KK84" s="68"/>
-      <c r="KL84" s="68"/>
-      <c r="KM84" s="68"/>
-      <c r="KN84" s="68"/>
-      <c r="KO84" s="68"/>
-      <c r="KP84" s="68"/>
-      <c r="KQ84" s="68"/>
-      <c r="KR84" s="68"/>
-      <c r="KS84" s="68"/>
-      <c r="KT84" s="68"/>
-      <c r="KU84" s="68"/>
-      <c r="KV84" s="68"/>
-      <c r="KW84" s="68"/>
-      <c r="KX84" s="68"/>
-      <c r="KY84" s="68"/>
-      <c r="KZ84" s="68"/>
-      <c r="LA84" s="68"/>
-      <c r="LB84" s="68"/>
-      <c r="LC84" s="68"/>
-      <c r="LD84" s="68"/>
-      <c r="LE84" s="68"/>
-      <c r="LF84" s="68"/>
-      <c r="LG84" s="68"/>
-      <c r="LH84" s="68"/>
-      <c r="LI84" s="68"/>
-      <c r="LJ84" s="68"/>
-      <c r="LK84" s="68"/>
-      <c r="LL84" s="68"/>
-      <c r="LM84" s="68"/>
-      <c r="LN84" s="68"/>
-      <c r="LO84" s="68"/>
-      <c r="LP84" s="68"/>
-      <c r="LQ84" s="68"/>
-      <c r="LR84" s="68"/>
-      <c r="LS84" s="68"/>
-      <c r="LT84" s="68"/>
-      <c r="LU84" s="68"/>
-      <c r="LV84" s="68"/>
-      <c r="LW84" s="68"/>
-      <c r="LX84" s="68"/>
-      <c r="LY84" s="68"/>
-      <c r="LZ84" s="68"/>
-      <c r="MA84" s="68"/>
-      <c r="MB84" s="68"/>
-      <c r="MC84" s="68"/>
-      <c r="MD84" s="68"/>
-      <c r="ME84" s="68"/>
-      <c r="MF84" s="68"/>
-      <c r="MG84" s="68"/>
-      <c r="MH84" s="68"/>
-      <c r="MI84" s="68"/>
-      <c r="MJ84" s="68"/>
-      <c r="MK84" s="68"/>
-      <c r="ML84" s="68"/>
-      <c r="MM84" s="68"/>
-      <c r="MN84" s="68"/>
-      <c r="MO84" s="68"/>
-      <c r="MP84" s="68"/>
-      <c r="MQ84" s="68"/>
-      <c r="MR84" s="68"/>
-      <c r="MS84" s="68"/>
-      <c r="MT84" s="68"/>
-      <c r="MU84" s="68"/>
-      <c r="MV84" s="68"/>
-      <c r="MW84" s="68"/>
-      <c r="MX84" s="68"/>
-      <c r="MY84" s="68"/>
-      <c r="MZ84" s="68"/>
-      <c r="NA84" s="68"/>
-      <c r="NB84" s="68"/>
-      <c r="NC84" s="68"/>
-      <c r="ND84" s="68"/>
-      <c r="NE84" s="68"/>
-      <c r="NF84" s="68"/>
-      <c r="NG84" s="68"/>
-      <c r="NH84" s="68"/>
-      <c r="NI84" s="68"/>
-      <c r="NJ84" s="68"/>
-      <c r="NK84" s="68"/>
-      <c r="NL84" s="68"/>
-      <c r="NM84" s="68"/>
-      <c r="NN84" s="68"/>
-      <c r="NO84" s="68"/>
-      <c r="NP84" s="68"/>
-      <c r="NQ84" s="68"/>
-      <c r="NR84" s="68"/>
-      <c r="NS84" s="68"/>
-      <c r="NT84" s="68"/>
-      <c r="NU84" s="68"/>
-      <c r="NV84" s="68"/>
-      <c r="NW84" s="68"/>
-      <c r="NX84" s="68"/>
-      <c r="NY84" s="68"/>
-      <c r="NZ84" s="68"/>
-      <c r="OA84" s="68"/>
-      <c r="OB84" s="68"/>
-      <c r="OC84" s="68"/>
-      <c r="OD84" s="68"/>
-      <c r="OE84" s="68"/>
-      <c r="OF84" s="68"/>
-      <c r="OG84" s="68"/>
-      <c r="OH84" s="68"/>
-      <c r="OI84" s="68"/>
-      <c r="OJ84" s="68"/>
-      <c r="OK84" s="68"/>
-      <c r="OL84" s="68"/>
-      <c r="OM84" s="68"/>
-      <c r="ON84" s="68"/>
-      <c r="OO84" s="68"/>
-      <c r="OP84" s="68"/>
-      <c r="OQ84" s="68"/>
-      <c r="OR84" s="68"/>
-      <c r="OS84" s="68"/>
-      <c r="OT84" s="68"/>
-      <c r="OU84" s="68"/>
-      <c r="OV84" s="68"/>
-      <c r="OW84" s="68"/>
-      <c r="OX84" s="68"/>
-      <c r="OY84" s="68"/>
-      <c r="OZ84" s="68"/>
-      <c r="PA84" s="68"/>
-      <c r="PB84" s="68"/>
-      <c r="PC84" s="68"/>
-      <c r="PD84" s="68"/>
-      <c r="PE84" s="68"/>
-      <c r="PF84" s="68"/>
-      <c r="PG84" s="68"/>
-      <c r="PH84" s="68"/>
-      <c r="PI84" s="68"/>
-      <c r="PJ84" s="68"/>
-      <c r="PK84" s="68"/>
-      <c r="PL84" s="68"/>
-      <c r="PM84" s="68"/>
-      <c r="PN84" s="68"/>
-      <c r="PO84" s="68"/>
-      <c r="PP84" s="68"/>
-      <c r="PQ84" s="68"/>
-      <c r="PR84" s="68"/>
-      <c r="PS84" s="68"/>
-      <c r="PT84" s="68"/>
-      <c r="PU84" s="68"/>
-      <c r="PV84" s="68"/>
-      <c r="PW84" s="68"/>
-      <c r="PX84" s="68"/>
-      <c r="PY84" s="68"/>
-      <c r="PZ84" s="68"/>
-      <c r="QA84" s="68"/>
-      <c r="QB84" s="68"/>
-      <c r="QC84" s="68"/>
-      <c r="QD84" s="68"/>
-      <c r="QE84" s="68"/>
-      <c r="QF84" s="68"/>
-      <c r="QG84" s="68"/>
-      <c r="QH84" s="68"/>
-      <c r="QI84" s="68"/>
-      <c r="QJ84" s="68"/>
-      <c r="QK84" s="68"/>
-      <c r="QL84" s="68"/>
-      <c r="QM84" s="68"/>
-      <c r="QN84" s="68"/>
-      <c r="QO84" s="68"/>
-      <c r="QP84" s="68"/>
-      <c r="QQ84" s="68"/>
-      <c r="QR84" s="68"/>
-      <c r="QS84" s="68"/>
-      <c r="QT84" s="68"/>
-      <c r="QU84" s="68"/>
-      <c r="QV84" s="68"/>
-      <c r="QW84" s="68"/>
-      <c r="QX84" s="68"/>
-      <c r="QY84" s="68"/>
-      <c r="QZ84" s="68"/>
-      <c r="RA84" s="68"/>
-      <c r="RB84" s="68"/>
-      <c r="RC84" s="68"/>
-      <c r="RD84" s="68"/>
-      <c r="RE84" s="68"/>
-      <c r="RF84" s="68"/>
-      <c r="RG84" s="68"/>
-      <c r="RH84" s="68"/>
-      <c r="RI84" s="68"/>
-      <c r="RJ84" s="68"/>
-      <c r="RK84" s="68"/>
-      <c r="RL84" s="68"/>
-      <c r="RM84" s="68"/>
-      <c r="RN84" s="68"/>
-      <c r="RO84" s="68"/>
-      <c r="RP84" s="68"/>
-      <c r="RQ84" s="68"/>
-      <c r="RR84" s="68"/>
-      <c r="RS84" s="68"/>
-      <c r="RT84" s="68"/>
-      <c r="RU84" s="68"/>
-      <c r="RV84" s="68"/>
-      <c r="RW84" s="68"/>
-      <c r="RX84" s="68"/>
-      <c r="RY84" s="68"/>
-      <c r="RZ84" s="68"/>
-      <c r="SA84" s="68"/>
-      <c r="SB84" s="68"/>
-      <c r="SC84" s="68"/>
-      <c r="SD84" s="68"/>
-      <c r="SE84" s="68"/>
-      <c r="SF84" s="68"/>
-      <c r="SG84" s="68"/>
-      <c r="SH84" s="68"/>
-      <c r="SI84" s="68"/>
-      <c r="SJ84" s="68"/>
-      <c r="SK84" s="68"/>
-      <c r="SL84" s="68"/>
-      <c r="SM84" s="68"/>
-      <c r="SN84" s="68"/>
-      <c r="SO84" s="68"/>
-      <c r="SP84" s="68"/>
-      <c r="SQ84" s="68"/>
-      <c r="SR84" s="68"/>
-      <c r="SS84" s="68"/>
-      <c r="ST84" s="68"/>
-      <c r="SU84" s="68"/>
-      <c r="SV84" s="68"/>
-      <c r="SW84" s="68"/>
-      <c r="SX84" s="68"/>
-      <c r="SY84" s="68"/>
-      <c r="SZ84" s="68"/>
-      <c r="TA84" s="68"/>
-      <c r="TB84" s="68"/>
-      <c r="TC84" s="68"/>
-      <c r="TD84" s="68"/>
-      <c r="TE84" s="68"/>
-      <c r="TF84" s="68"/>
-      <c r="TG84" s="68"/>
-      <c r="TH84" s="68"/>
-      <c r="TI84" s="68"/>
-      <c r="TJ84" s="68"/>
-      <c r="TK84" s="68"/>
-      <c r="TL84" s="68"/>
-      <c r="TM84" s="68"/>
-      <c r="TN84" s="68"/>
-      <c r="TO84" s="68"/>
-      <c r="TP84" s="68"/>
-      <c r="TQ84" s="68"/>
-      <c r="TR84" s="68"/>
-      <c r="TS84" s="68"/>
-      <c r="TT84" s="68"/>
-      <c r="TU84" s="68"/>
-      <c r="TV84" s="68"/>
-      <c r="TW84" s="68"/>
-      <c r="TX84" s="68"/>
-      <c r="TY84" s="68"/>
-      <c r="TZ84" s="68"/>
-      <c r="UA84" s="68"/>
-      <c r="UB84" s="68"/>
-      <c r="UC84" s="68"/>
-      <c r="UD84" s="68"/>
-      <c r="UE84" s="68"/>
-      <c r="UF84" s="68"/>
-      <c r="UG84" s="68"/>
-      <c r="UH84" s="68"/>
-      <c r="UI84" s="68"/>
-      <c r="UJ84" s="68"/>
-      <c r="UK84" s="68"/>
-      <c r="UL84" s="68"/>
-      <c r="UM84" s="68"/>
-      <c r="UN84" s="68"/>
-      <c r="UO84" s="68"/>
-      <c r="UP84" s="68"/>
-      <c r="UQ84" s="68"/>
-      <c r="UR84" s="68"/>
-      <c r="US84" s="68"/>
-      <c r="UT84" s="68"/>
-      <c r="UU84" s="68"/>
-      <c r="UV84" s="68"/>
-      <c r="UW84" s="68"/>
-      <c r="UX84" s="68"/>
-      <c r="UY84" s="68"/>
-      <c r="UZ84" s="68"/>
-      <c r="VA84" s="68"/>
-      <c r="VB84" s="68"/>
-      <c r="VC84" s="68"/>
-      <c r="VD84" s="68"/>
-      <c r="VE84" s="68"/>
-      <c r="VF84" s="68"/>
-      <c r="VG84" s="68"/>
-      <c r="VH84" s="68"/>
-      <c r="VI84" s="68"/>
-      <c r="VJ84" s="68"/>
-      <c r="VK84" s="68"/>
-      <c r="VL84" s="68"/>
-      <c r="VM84" s="68"/>
-      <c r="VN84" s="68"/>
-      <c r="VO84" s="68"/>
-      <c r="VP84" s="68"/>
-      <c r="VQ84" s="68"/>
-      <c r="VR84" s="68"/>
-      <c r="VS84" s="68"/>
-      <c r="VT84" s="68"/>
-      <c r="VU84" s="68"/>
-      <c r="VV84" s="68"/>
-      <c r="VW84" s="68"/>
-      <c r="VX84" s="68"/>
-      <c r="VY84" s="68"/>
-      <c r="VZ84" s="68"/>
-      <c r="WA84" s="68"/>
-      <c r="WB84" s="68"/>
-      <c r="WC84" s="68"/>
-      <c r="WD84" s="68"/>
-      <c r="WE84" s="68"/>
-      <c r="WF84" s="68"/>
-      <c r="WG84" s="68"/>
-      <c r="WH84" s="68"/>
-      <c r="WI84" s="68"/>
-      <c r="WJ84" s="68"/>
-      <c r="WK84" s="68"/>
-      <c r="WL84" s="68"/>
-      <c r="WM84" s="68"/>
-      <c r="WN84" s="68"/>
-      <c r="WO84" s="68"/>
-      <c r="WP84" s="68"/>
-      <c r="WQ84" s="68"/>
-      <c r="WR84" s="68"/>
-      <c r="WS84" s="68"/>
-      <c r="WT84" s="68"/>
-      <c r="WU84" s="68"/>
-      <c r="WV84" s="68"/>
-      <c r="WW84" s="68"/>
-      <c r="WX84" s="68"/>
-      <c r="WY84" s="68"/>
-      <c r="WZ84" s="68"/>
-      <c r="XA84" s="68"/>
-      <c r="XB84" s="68"/>
-      <c r="XC84" s="68"/>
-      <c r="XD84" s="68"/>
-      <c r="XE84" s="68"/>
-      <c r="XF84" s="68"/>
-      <c r="XG84" s="68"/>
-      <c r="XH84" s="68"/>
-      <c r="XI84" s="68"/>
-      <c r="XJ84" s="68"/>
-      <c r="XK84" s="68"/>
-      <c r="XL84" s="68"/>
-      <c r="XM84" s="68"/>
-      <c r="XN84" s="68"/>
-      <c r="XO84" s="68"/>
-      <c r="XP84" s="68"/>
-      <c r="XQ84" s="68"/>
-      <c r="XR84" s="68"/>
-      <c r="XS84" s="68"/>
-      <c r="XT84" s="68"/>
-      <c r="XU84" s="68"/>
-      <c r="XV84" s="68"/>
-      <c r="XW84" s="68"/>
-      <c r="XX84" s="68"/>
-      <c r="XY84" s="68"/>
-      <c r="XZ84" s="68"/>
-      <c r="YA84" s="68"/>
-      <c r="YB84" s="68"/>
-      <c r="YC84" s="68"/>
-      <c r="YD84" s="68"/>
-      <c r="YE84" s="68"/>
-      <c r="YF84" s="68"/>
-      <c r="YG84" s="68"/>
-      <c r="YH84" s="68"/>
-      <c r="YI84" s="68"/>
-      <c r="YJ84" s="68"/>
-      <c r="YK84" s="68"/>
-      <c r="YL84" s="68"/>
-      <c r="YM84" s="68"/>
-      <c r="YN84" s="68"/>
-      <c r="YO84" s="68"/>
-      <c r="YP84" s="68"/>
-      <c r="YQ84" s="68"/>
-      <c r="YR84" s="68"/>
-      <c r="YS84" s="68"/>
-      <c r="YT84" s="68"/>
-      <c r="YU84" s="68"/>
-      <c r="YV84" s="68"/>
-      <c r="YW84" s="68"/>
-      <c r="YX84" s="68"/>
-      <c r="YY84" s="68"/>
-      <c r="YZ84" s="68"/>
-      <c r="ZA84" s="68"/>
-      <c r="ZB84" s="68"/>
-      <c r="ZC84" s="68"/>
-      <c r="ZD84" s="68"/>
-      <c r="ZE84" s="68"/>
-      <c r="ZF84" s="68"/>
-      <c r="ZG84" s="68"/>
-      <c r="ZH84" s="68"/>
-      <c r="ZI84" s="68"/>
-      <c r="ZJ84" s="68"/>
-      <c r="ZK84" s="68"/>
-      <c r="ZL84" s="68"/>
-      <c r="ZM84" s="68"/>
-      <c r="ZN84" s="68"/>
-      <c r="ZO84" s="68"/>
-      <c r="ZP84" s="68"/>
-      <c r="ZQ84" s="68"/>
-      <c r="ZR84" s="68"/>
-      <c r="ZS84" s="68"/>
-      <c r="ZT84" s="68"/>
-      <c r="ZU84" s="68"/>
-      <c r="ZV84" s="68"/>
-      <c r="ZW84" s="68"/>
-      <c r="ZX84" s="68"/>
-      <c r="ZY84" s="68"/>
-      <c r="ZZ84" s="68"/>
-      <c r="AAA84" s="68"/>
-      <c r="AAB84" s="68"/>
-      <c r="AAC84" s="68"/>
-      <c r="AAD84" s="68"/>
-      <c r="AAE84" s="68"/>
-      <c r="AAF84" s="68"/>
-      <c r="AAG84" s="68"/>
-      <c r="AAH84" s="68"/>
-      <c r="AAI84" s="68"/>
-      <c r="AAJ84" s="68"/>
-      <c r="AAK84" s="68"/>
-      <c r="AAL84" s="68"/>
-      <c r="AAM84" s="68"/>
-      <c r="AAN84" s="68"/>
-      <c r="AAO84" s="68"/>
-      <c r="AAP84" s="68"/>
-      <c r="AAQ84" s="68"/>
-      <c r="AAR84" s="68"/>
-      <c r="AAS84" s="68"/>
-      <c r="AAT84" s="68"/>
-      <c r="AAU84" s="68"/>
-      <c r="AAV84" s="68"/>
-      <c r="AAW84" s="68"/>
-      <c r="AAX84" s="68"/>
-      <c r="AAY84" s="68"/>
-      <c r="AAZ84" s="68"/>
-      <c r="ABA84" s="68"/>
-      <c r="ABB84" s="68"/>
-      <c r="ABC84" s="68"/>
-      <c r="ABD84" s="68"/>
-      <c r="ABE84" s="68"/>
-      <c r="ABF84" s="68"/>
-      <c r="ABG84" s="68"/>
-      <c r="ABH84" s="68"/>
-      <c r="ABI84" s="68"/>
-      <c r="ABJ84" s="68"/>
-      <c r="ABK84" s="68"/>
-      <c r="ABL84" s="68"/>
-      <c r="ABM84" s="68"/>
-      <c r="ABN84" s="68"/>
-      <c r="ABO84" s="68"/>
-      <c r="ABP84" s="68"/>
-      <c r="ABQ84" s="68"/>
-      <c r="ABR84" s="68"/>
-      <c r="ABS84" s="68"/>
-      <c r="ABT84" s="68"/>
-      <c r="ABU84" s="68"/>
-      <c r="ABV84" s="68"/>
-      <c r="ABW84" s="68"/>
-      <c r="ABX84" s="68"/>
-      <c r="ABY84" s="68"/>
-      <c r="ABZ84" s="68"/>
-      <c r="ACA84" s="68"/>
-      <c r="ACB84" s="68"/>
-      <c r="ACC84" s="68"/>
-      <c r="ACD84" s="68"/>
-      <c r="ACE84" s="68"/>
-      <c r="ACF84" s="68"/>
-      <c r="ACG84" s="68"/>
-      <c r="ACH84" s="68"/>
-      <c r="ACI84" s="68"/>
-      <c r="ACJ84" s="68"/>
-      <c r="ACK84" s="68"/>
-      <c r="ACL84" s="68"/>
-      <c r="ACM84" s="68"/>
-      <c r="ACN84" s="68"/>
-      <c r="ACO84" s="68"/>
-      <c r="ACP84" s="68"/>
-      <c r="ACQ84" s="68"/>
-      <c r="ACR84" s="68"/>
-      <c r="ACS84" s="68"/>
-      <c r="ACT84" s="68"/>
-      <c r="ACU84" s="68"/>
-      <c r="ACV84" s="68"/>
-      <c r="ACW84" s="68"/>
-      <c r="ACX84" s="68"/>
-      <c r="ACY84" s="68"/>
-      <c r="ACZ84" s="68"/>
-      <c r="ADA84" s="68"/>
-      <c r="ADB84" s="68"/>
-      <c r="ADC84" s="68"/>
-      <c r="ADD84" s="68"/>
-      <c r="ADE84" s="68"/>
-      <c r="ADF84" s="68"/>
-      <c r="ADG84" s="68"/>
-      <c r="ADH84" s="68"/>
-      <c r="ADI84" s="68"/>
-      <c r="ADJ84" s="68"/>
-      <c r="ADK84" s="68"/>
-      <c r="ADL84" s="68"/>
-      <c r="ADM84" s="68"/>
-      <c r="ADN84" s="68"/>
-      <c r="ADO84" s="68"/>
-      <c r="ADP84" s="68"/>
-      <c r="ADQ84" s="68"/>
-      <c r="ADR84" s="68"/>
-      <c r="ADS84" s="68"/>
-      <c r="ADT84" s="68"/>
-      <c r="ADU84" s="68"/>
-      <c r="ADV84" s="68"/>
-      <c r="ADW84" s="68"/>
-      <c r="ADX84" s="68"/>
-      <c r="ADY84" s="68"/>
-      <c r="ADZ84" s="68"/>
-      <c r="AEA84" s="68"/>
-      <c r="AEB84" s="68"/>
-      <c r="AEC84" s="68"/>
-      <c r="AED84" s="68"/>
-      <c r="AEE84" s="68"/>
-      <c r="AEF84" s="68"/>
-      <c r="AEG84" s="68"/>
-      <c r="AEH84" s="68"/>
-      <c r="AEI84" s="68"/>
-      <c r="AEJ84" s="68"/>
-      <c r="AEK84" s="68"/>
-      <c r="AEL84" s="68"/>
-      <c r="AEM84" s="68"/>
-      <c r="AEN84" s="68"/>
-      <c r="AEO84" s="68"/>
-      <c r="AEP84" s="68"/>
-      <c r="AEQ84" s="68"/>
-      <c r="AER84" s="68"/>
-      <c r="AES84" s="68"/>
-      <c r="AET84" s="68"/>
-      <c r="AEU84" s="68"/>
-      <c r="AEV84" s="68"/>
-      <c r="AEW84" s="68"/>
-      <c r="AEX84" s="68"/>
-      <c r="AEY84" s="68"/>
-      <c r="AEZ84" s="68"/>
-      <c r="AFA84" s="68"/>
-      <c r="AFB84" s="68"/>
-      <c r="AFC84" s="68"/>
-      <c r="AFD84" s="68"/>
-      <c r="AFE84" s="68"/>
-      <c r="AFF84" s="68"/>
-      <c r="AFG84" s="68"/>
-      <c r="AFH84" s="68"/>
-      <c r="AFI84" s="68"/>
-      <c r="AFJ84" s="68"/>
-      <c r="AFK84" s="68"/>
-      <c r="AFL84" s="68"/>
-      <c r="AFM84" s="68"/>
-      <c r="AFN84" s="68"/>
-      <c r="AFO84" s="68"/>
-      <c r="AFP84" s="68"/>
-      <c r="AFQ84" s="68"/>
-      <c r="AFR84" s="68"/>
-      <c r="AFS84" s="68"/>
-      <c r="AFT84" s="68"/>
-      <c r="AFU84" s="68"/>
-      <c r="AFV84" s="68"/>
-      <c r="AFW84" s="68"/>
-      <c r="AFX84" s="68"/>
-      <c r="AFY84" s="68"/>
-      <c r="AFZ84" s="68"/>
-      <c r="AGA84" s="68"/>
-      <c r="AGB84" s="68"/>
-      <c r="AGC84" s="68"/>
-      <c r="AGD84" s="68"/>
-      <c r="AGE84" s="68"/>
-      <c r="AGF84" s="68"/>
-      <c r="AGG84" s="68"/>
-      <c r="AGH84" s="68"/>
-      <c r="AGI84" s="68"/>
-      <c r="AGJ84" s="68"/>
-      <c r="AGK84" s="68"/>
-      <c r="AGL84" s="68"/>
-      <c r="AGM84" s="68"/>
-      <c r="AGN84" s="68"/>
-      <c r="AGO84" s="68"/>
-      <c r="AGP84" s="68"/>
-      <c r="AGQ84" s="68"/>
-      <c r="AGR84" s="68"/>
-      <c r="AGS84" s="68"/>
-      <c r="AGT84" s="68"/>
-      <c r="AGU84" s="68"/>
-      <c r="AGV84" s="68"/>
-      <c r="AGW84" s="68"/>
-      <c r="AGX84" s="68"/>
-      <c r="AGY84" s="68"/>
-      <c r="AGZ84" s="68"/>
-      <c r="AHA84" s="68"/>
-      <c r="AHB84" s="68"/>
-      <c r="AHC84" s="68"/>
-      <c r="AHD84" s="68"/>
-      <c r="AHE84" s="68"/>
-      <c r="AHF84" s="68"/>
-      <c r="AHG84" s="68"/>
-      <c r="AHH84" s="68"/>
-      <c r="AHI84" s="68"/>
-      <c r="AHJ84" s="68"/>
-      <c r="AHK84" s="68"/>
-      <c r="AHL84" s="68"/>
-      <c r="AHM84" s="68"/>
-      <c r="AHN84" s="68"/>
-      <c r="AHO84" s="68"/>
-      <c r="AHP84" s="68"/>
-      <c r="AHQ84" s="68"/>
-      <c r="AHR84" s="68"/>
-      <c r="AHS84" s="68"/>
-      <c r="AHT84" s="68"/>
-      <c r="AHU84" s="68"/>
-      <c r="AHV84" s="68"/>
-      <c r="AHW84" s="68"/>
-      <c r="AHX84" s="68"/>
-      <c r="AHY84" s="68"/>
-      <c r="AHZ84" s="68"/>
-      <c r="AIA84" s="68"/>
-      <c r="AIB84" s="68"/>
-      <c r="AIC84" s="68"/>
-      <c r="AID84" s="68"/>
-      <c r="AIE84" s="68"/>
-      <c r="AIF84" s="68"/>
-      <c r="AIG84" s="68"/>
-      <c r="AIH84" s="68"/>
-      <c r="AII84" s="68"/>
-      <c r="AIJ84" s="68"/>
-      <c r="AIK84" s="68"/>
-      <c r="AIL84" s="68"/>
-      <c r="AIM84" s="68"/>
-      <c r="AIN84" s="68"/>
-      <c r="AIO84" s="68"/>
-      <c r="AIP84" s="68"/>
-      <c r="AIQ84" s="68"/>
-      <c r="AIR84" s="68"/>
-      <c r="AIS84" s="68"/>
-      <c r="AIT84" s="68"/>
-      <c r="AIU84" s="68"/>
-      <c r="AIV84" s="68"/>
-      <c r="AIW84" s="68"/>
-      <c r="AIX84" s="68"/>
-      <c r="AIY84" s="68"/>
-      <c r="AIZ84" s="68"/>
-      <c r="AJA84" s="68"/>
-      <c r="AJB84" s="68"/>
-      <c r="AJC84" s="68"/>
-      <c r="AJD84" s="68"/>
-      <c r="AJE84" s="68"/>
-      <c r="AJF84" s="68"/>
-      <c r="AJG84" s="68"/>
-      <c r="AJH84" s="68"/>
-      <c r="AJI84" s="68"/>
-      <c r="AJJ84" s="68"/>
-      <c r="AJK84" s="68"/>
-      <c r="AJL84" s="68"/>
-      <c r="AJM84" s="68"/>
-      <c r="AJN84" s="68"/>
-      <c r="AJO84" s="68"/>
-      <c r="AJP84" s="68"/>
-      <c r="AJQ84" s="68"/>
-      <c r="AJR84" s="68"/>
-      <c r="AJS84" s="68"/>
-      <c r="AJT84" s="68"/>
-      <c r="AJU84" s="68"/>
-      <c r="AJV84" s="68"/>
-      <c r="AJW84" s="68"/>
-      <c r="AJX84" s="68"/>
-      <c r="AJY84" s="68"/>
-      <c r="AJZ84" s="68"/>
-      <c r="AKA84" s="68"/>
-      <c r="AKB84" s="68"/>
-      <c r="AKC84" s="68"/>
-      <c r="AKD84" s="68"/>
-      <c r="AKE84" s="68"/>
-      <c r="AKF84" s="68"/>
-      <c r="AKG84" s="68"/>
-      <c r="AKH84" s="68"/>
-      <c r="AKI84" s="68"/>
-      <c r="AKJ84" s="68"/>
-      <c r="AKK84" s="68"/>
-      <c r="AKL84" s="68"/>
-      <c r="AKM84" s="68"/>
-      <c r="AKN84" s="68"/>
-      <c r="AKO84" s="68"/>
-      <c r="AKP84" s="68"/>
-      <c r="AKQ84" s="68"/>
-      <c r="AKR84" s="68"/>
-      <c r="AKS84" s="68"/>
-      <c r="AKT84" s="68"/>
-      <c r="AKU84" s="68"/>
-      <c r="AKV84" s="68"/>
-      <c r="AKW84" s="68"/>
-      <c r="AKX84" s="68"/>
-      <c r="AKY84" s="68"/>
-      <c r="AKZ84" s="68"/>
-      <c r="ALA84" s="68"/>
-      <c r="ALB84" s="68"/>
-      <c r="ALC84" s="68"/>
-      <c r="ALD84" s="68"/>
-      <c r="ALE84" s="68"/>
-      <c r="ALF84" s="68"/>
-      <c r="ALG84" s="68"/>
-      <c r="ALH84" s="68"/>
-      <c r="ALI84" s="68"/>
-      <c r="ALJ84" s="68"/>
-      <c r="ALK84" s="68"/>
-      <c r="ALL84" s="68"/>
-      <c r="ALM84" s="68"/>
-      <c r="ALN84" s="68"/>
-      <c r="ALO84" s="68"/>
-      <c r="ALP84" s="68"/>
-      <c r="ALQ84" s="68"/>
-      <c r="ALR84" s="68"/>
-      <c r="ALS84" s="68"/>
-      <c r="ALT84" s="68"/>
-      <c r="ALU84" s="68"/>
-      <c r="ALV84" s="68"/>
-      <c r="ALW84" s="68"/>
-      <c r="ALX84" s="68"/>
-      <c r="ALY84" s="68"/>
-      <c r="ALZ84" s="68"/>
-      <c r="AMA84" s="68"/>
-      <c r="AMB84" s="68"/>
-      <c r="AMC84" s="68"/>
-      <c r="AMD84" s="68"/>
-      <c r="AME84" s="68"/>
-      <c r="AMF84" s="68"/>
-      <c r="AMG84" s="68"/>
-      <c r="AMH84" s="68"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+      <c r="L84" s="67"/>
+      <c r="M84" s="67"/>
+      <c r="N84" s="67"/>
+      <c r="O84" s="67"/>
+      <c r="P84" s="67"/>
+      <c r="Q84" s="67"/>
+      <c r="R84" s="67"/>
+      <c r="S84" s="67"/>
+      <c r="T84" s="67"/>
+      <c r="U84" s="67"/>
+      <c r="V84" s="67"/>
+      <c r="W84" s="67"/>
+      <c r="X84" s="67"/>
+      <c r="Y84" s="67"/>
+      <c r="Z84" s="67"/>
+      <c r="AA84" s="67"/>
+      <c r="AB84" s="67"/>
+      <c r="AC84" s="67"/>
+      <c r="AD84" s="67"/>
+      <c r="AE84" s="67"/>
+      <c r="AF84" s="67"/>
+      <c r="AG84" s="67"/>
+      <c r="AH84" s="67"/>
+      <c r="AI84" s="67"/>
+      <c r="AJ84" s="67"/>
+      <c r="AK84" s="67"/>
+      <c r="AL84" s="67"/>
+      <c r="AM84" s="67"/>
+      <c r="AN84" s="67"/>
+      <c r="AO84" s="67"/>
+      <c r="AP84" s="67"/>
+      <c r="AQ84" s="67"/>
+      <c r="AR84" s="67"/>
+      <c r="AS84" s="67"/>
+      <c r="AT84" s="67"/>
+      <c r="AU84" s="67"/>
+      <c r="AV84" s="67"/>
+      <c r="AW84" s="67"/>
+      <c r="AX84" s="67"/>
+      <c r="AY84" s="67"/>
+      <c r="AZ84" s="67"/>
+      <c r="BA84" s="67"/>
+      <c r="BB84" s="67"/>
+      <c r="BC84" s="67"/>
+      <c r="BD84" s="67"/>
+      <c r="BE84" s="67"/>
+      <c r="BF84" s="67"/>
+      <c r="BG84" s="67"/>
+      <c r="BH84" s="67"/>
+      <c r="BI84" s="67"/>
+      <c r="BJ84" s="67"/>
+      <c r="BK84" s="67"/>
+      <c r="BL84" s="67"/>
+      <c r="BM84" s="67"/>
+      <c r="BN84" s="67"/>
+      <c r="BO84" s="67"/>
+      <c r="BP84" s="67"/>
+      <c r="BQ84" s="67"/>
+      <c r="BR84" s="67"/>
+      <c r="BS84" s="67"/>
+      <c r="BT84" s="67"/>
+      <c r="BU84" s="67"/>
+      <c r="BV84" s="67"/>
+      <c r="BW84" s="67"/>
+      <c r="BX84" s="67"/>
+      <c r="BY84" s="67"/>
+      <c r="BZ84" s="67"/>
+      <c r="CA84" s="67"/>
+      <c r="CB84" s="67"/>
+      <c r="CC84" s="67"/>
+      <c r="CD84" s="67"/>
+      <c r="CE84" s="67"/>
+      <c r="CF84" s="67"/>
+      <c r="CG84" s="67"/>
+      <c r="CH84" s="67"/>
+      <c r="CI84" s="67"/>
+      <c r="CJ84" s="67"/>
+      <c r="CK84" s="67"/>
+      <c r="CL84" s="67"/>
+      <c r="CM84" s="67"/>
+      <c r="CN84" s="67"/>
+      <c r="CO84" s="67"/>
+      <c r="CP84" s="67"/>
+      <c r="CQ84" s="67"/>
+      <c r="CR84" s="67"/>
+      <c r="CS84" s="67"/>
+      <c r="CT84" s="67"/>
+      <c r="CU84" s="67"/>
+      <c r="CV84" s="67"/>
+      <c r="CW84" s="67"/>
+      <c r="CX84" s="67"/>
+      <c r="CY84" s="67"/>
+      <c r="CZ84" s="67"/>
+      <c r="DA84" s="67"/>
+      <c r="DB84" s="67"/>
+      <c r="DC84" s="67"/>
+      <c r="DD84" s="67"/>
+      <c r="DE84" s="67"/>
+      <c r="DF84" s="67"/>
+      <c r="DG84" s="67"/>
+      <c r="DH84" s="67"/>
+      <c r="DI84" s="67"/>
+      <c r="DJ84" s="67"/>
+      <c r="DK84" s="67"/>
+      <c r="DL84" s="67"/>
+      <c r="DM84" s="67"/>
+      <c r="DN84" s="67"/>
+      <c r="DO84" s="67"/>
+      <c r="DP84" s="67"/>
+      <c r="DQ84" s="67"/>
+      <c r="DR84" s="67"/>
+      <c r="DS84" s="67"/>
+      <c r="DT84" s="67"/>
+      <c r="DU84" s="67"/>
+      <c r="DV84" s="67"/>
+      <c r="DW84" s="67"/>
+      <c r="DX84" s="67"/>
+      <c r="DY84" s="67"/>
+      <c r="DZ84" s="67"/>
+      <c r="EA84" s="67"/>
+      <c r="EB84" s="67"/>
+      <c r="EC84" s="67"/>
+      <c r="ED84" s="67"/>
+      <c r="EE84" s="67"/>
+      <c r="EF84" s="67"/>
+      <c r="EG84" s="67"/>
+      <c r="EH84" s="67"/>
+      <c r="EI84" s="67"/>
+      <c r="EJ84" s="67"/>
+      <c r="EK84" s="67"/>
+      <c r="EL84" s="67"/>
+      <c r="EM84" s="67"/>
+      <c r="EN84" s="67"/>
+      <c r="EO84" s="67"/>
+      <c r="EP84" s="67"/>
+      <c r="EQ84" s="67"/>
+      <c r="ER84" s="67"/>
+      <c r="ES84" s="67"/>
+      <c r="ET84" s="67"/>
+      <c r="EU84" s="67"/>
+      <c r="EV84" s="67"/>
+      <c r="EW84" s="67"/>
+      <c r="EX84" s="67"/>
+      <c r="EY84" s="67"/>
+      <c r="EZ84" s="67"/>
+      <c r="FA84" s="67"/>
+      <c r="FB84" s="67"/>
+      <c r="FC84" s="67"/>
+      <c r="FD84" s="67"/>
+      <c r="FE84" s="67"/>
+      <c r="FF84" s="67"/>
+      <c r="FG84" s="67"/>
+      <c r="FH84" s="67"/>
+      <c r="FI84" s="67"/>
+      <c r="FJ84" s="67"/>
+      <c r="FK84" s="67"/>
+      <c r="FL84" s="67"/>
+      <c r="FM84" s="67"/>
+      <c r="FN84" s="67"/>
+      <c r="FO84" s="67"/>
+      <c r="FP84" s="67"/>
+      <c r="FQ84" s="67"/>
+      <c r="FR84" s="67"/>
+      <c r="FS84" s="67"/>
+      <c r="FT84" s="67"/>
+      <c r="FU84" s="67"/>
+      <c r="FV84" s="67"/>
+      <c r="FW84" s="67"/>
+      <c r="FX84" s="67"/>
+      <c r="FY84" s="67"/>
+      <c r="FZ84" s="67"/>
+      <c r="GA84" s="67"/>
+      <c r="GB84" s="67"/>
+      <c r="GC84" s="67"/>
+      <c r="GD84" s="67"/>
+      <c r="GE84" s="67"/>
+      <c r="GF84" s="67"/>
+      <c r="GG84" s="67"/>
+      <c r="GH84" s="67"/>
+      <c r="GI84" s="67"/>
+      <c r="GJ84" s="67"/>
+      <c r="GK84" s="67"/>
+      <c r="GL84" s="67"/>
+      <c r="GM84" s="67"/>
+      <c r="GN84" s="67"/>
+      <c r="GO84" s="67"/>
+      <c r="GP84" s="67"/>
+      <c r="GQ84" s="67"/>
+      <c r="GR84" s="67"/>
+      <c r="GS84" s="67"/>
+      <c r="GT84" s="67"/>
+      <c r="GU84" s="67"/>
+      <c r="GV84" s="67"/>
+      <c r="GW84" s="67"/>
+      <c r="GX84" s="67"/>
+      <c r="GY84" s="67"/>
+      <c r="GZ84" s="67"/>
+      <c r="HA84" s="67"/>
+      <c r="HB84" s="67"/>
+      <c r="HC84" s="67"/>
+      <c r="HD84" s="67"/>
+      <c r="HE84" s="67"/>
+      <c r="HF84" s="67"/>
+      <c r="HG84" s="67"/>
+      <c r="HH84" s="67"/>
+      <c r="HI84" s="67"/>
+      <c r="HJ84" s="67"/>
+      <c r="HK84" s="67"/>
+      <c r="HL84" s="67"/>
+      <c r="HM84" s="67"/>
+      <c r="HN84" s="67"/>
+      <c r="HO84" s="67"/>
+      <c r="HP84" s="67"/>
+      <c r="HQ84" s="67"/>
+      <c r="HR84" s="67"/>
+      <c r="HS84" s="67"/>
+      <c r="HT84" s="67"/>
+      <c r="HU84" s="67"/>
+      <c r="HV84" s="67"/>
+      <c r="HW84" s="67"/>
+      <c r="HX84" s="67"/>
+      <c r="HY84" s="67"/>
+      <c r="HZ84" s="67"/>
+      <c r="IA84" s="67"/>
+      <c r="IB84" s="67"/>
+      <c r="IC84" s="67"/>
+      <c r="ID84" s="67"/>
+      <c r="IE84" s="67"/>
+      <c r="IF84" s="67"/>
+      <c r="IG84" s="67"/>
+      <c r="IH84" s="67"/>
+      <c r="II84" s="67"/>
+      <c r="IJ84" s="67"/>
+      <c r="IK84" s="67"/>
+      <c r="IL84" s="67"/>
+      <c r="IM84" s="67"/>
+      <c r="IN84" s="67"/>
+      <c r="IO84" s="67"/>
+      <c r="IP84" s="67"/>
+      <c r="IQ84" s="67"/>
+      <c r="IR84" s="67"/>
+      <c r="IS84" s="67"/>
+      <c r="IT84" s="67"/>
+      <c r="IU84" s="67"/>
+      <c r="IV84" s="67"/>
+      <c r="IW84" s="67"/>
+      <c r="IX84" s="67"/>
+      <c r="IY84" s="67"/>
+      <c r="IZ84" s="67"/>
+      <c r="JA84" s="67"/>
+      <c r="JB84" s="67"/>
+      <c r="JC84" s="67"/>
+      <c r="JD84" s="67"/>
+      <c r="JE84" s="67"/>
+      <c r="JF84" s="67"/>
+      <c r="JG84" s="67"/>
+      <c r="JH84" s="67"/>
+      <c r="JI84" s="67"/>
+      <c r="JJ84" s="67"/>
+      <c r="JK84" s="67"/>
+      <c r="JL84" s="67"/>
+      <c r="JM84" s="67"/>
+      <c r="JN84" s="67"/>
+      <c r="JO84" s="67"/>
+      <c r="JP84" s="67"/>
+      <c r="JQ84" s="67"/>
+      <c r="JR84" s="67"/>
+      <c r="JS84" s="67"/>
+      <c r="JT84" s="67"/>
+      <c r="JU84" s="67"/>
+      <c r="JV84" s="67"/>
+      <c r="JW84" s="67"/>
+      <c r="JX84" s="67"/>
+      <c r="JY84" s="67"/>
+      <c r="JZ84" s="67"/>
+      <c r="KA84" s="67"/>
+      <c r="KB84" s="67"/>
+      <c r="KC84" s="67"/>
+      <c r="KD84" s="67"/>
+      <c r="KE84" s="67"/>
+      <c r="KF84" s="67"/>
+      <c r="KG84" s="67"/>
+      <c r="KH84" s="67"/>
+      <c r="KI84" s="67"/>
+      <c r="KJ84" s="67"/>
+      <c r="KK84" s="67"/>
+      <c r="KL84" s="67"/>
+      <c r="KM84" s="67"/>
+      <c r="KN84" s="67"/>
+      <c r="KO84" s="67"/>
+      <c r="KP84" s="67"/>
+      <c r="KQ84" s="67"/>
+      <c r="KR84" s="67"/>
+      <c r="KS84" s="67"/>
+      <c r="KT84" s="67"/>
+      <c r="KU84" s="67"/>
+      <c r="KV84" s="67"/>
+      <c r="KW84" s="67"/>
+      <c r="KX84" s="67"/>
+      <c r="KY84" s="67"/>
+      <c r="KZ84" s="67"/>
+      <c r="LA84" s="67"/>
+      <c r="LB84" s="67"/>
+      <c r="LC84" s="67"/>
+      <c r="LD84" s="67"/>
+      <c r="LE84" s="67"/>
+      <c r="LF84" s="67"/>
+      <c r="LG84" s="67"/>
+      <c r="LH84" s="67"/>
+      <c r="LI84" s="67"/>
+      <c r="LJ84" s="67"/>
+      <c r="LK84" s="67"/>
+      <c r="LL84" s="67"/>
+      <c r="LM84" s="67"/>
+      <c r="LN84" s="67"/>
+      <c r="LO84" s="67"/>
+      <c r="LP84" s="67"/>
+      <c r="LQ84" s="67"/>
+      <c r="LR84" s="67"/>
+      <c r="LS84" s="67"/>
+      <c r="LT84" s="67"/>
+      <c r="LU84" s="67"/>
+      <c r="LV84" s="67"/>
+      <c r="LW84" s="67"/>
+      <c r="LX84" s="67"/>
+      <c r="LY84" s="67"/>
+      <c r="LZ84" s="67"/>
+      <c r="MA84" s="67"/>
+      <c r="MB84" s="67"/>
+      <c r="MC84" s="67"/>
+      <c r="MD84" s="67"/>
+      <c r="ME84" s="67"/>
+      <c r="MF84" s="67"/>
+      <c r="MG84" s="67"/>
+      <c r="MH84" s="67"/>
+      <c r="MI84" s="67"/>
+      <c r="MJ84" s="67"/>
+      <c r="MK84" s="67"/>
+      <c r="ML84" s="67"/>
+      <c r="MM84" s="67"/>
+      <c r="MN84" s="67"/>
+      <c r="MO84" s="67"/>
+      <c r="MP84" s="67"/>
+      <c r="MQ84" s="67"/>
+      <c r="MR84" s="67"/>
+      <c r="MS84" s="67"/>
+      <c r="MT84" s="67"/>
+      <c r="MU84" s="67"/>
+      <c r="MV84" s="67"/>
+      <c r="MW84" s="67"/>
+      <c r="MX84" s="67"/>
+      <c r="MY84" s="67"/>
+      <c r="MZ84" s="67"/>
+      <c r="NA84" s="67"/>
+      <c r="NB84" s="67"/>
+      <c r="NC84" s="67"/>
+      <c r="ND84" s="67"/>
+      <c r="NE84" s="67"/>
+      <c r="NF84" s="67"/>
+      <c r="NG84" s="67"/>
+      <c r="NH84" s="67"/>
+      <c r="NI84" s="67"/>
+      <c r="NJ84" s="67"/>
+      <c r="NK84" s="67"/>
+      <c r="NL84" s="67"/>
+      <c r="NM84" s="67"/>
+      <c r="NN84" s="67"/>
+      <c r="NO84" s="67"/>
+      <c r="NP84" s="67"/>
+      <c r="NQ84" s="67"/>
+      <c r="NR84" s="67"/>
+      <c r="NS84" s="67"/>
+      <c r="NT84" s="67"/>
+      <c r="NU84" s="67"/>
+      <c r="NV84" s="67"/>
+      <c r="NW84" s="67"/>
+      <c r="NX84" s="67"/>
+      <c r="NY84" s="67"/>
+      <c r="NZ84" s="67"/>
+      <c r="OA84" s="67"/>
+      <c r="OB84" s="67"/>
+      <c r="OC84" s="67"/>
+      <c r="OD84" s="67"/>
+      <c r="OE84" s="67"/>
+      <c r="OF84" s="67"/>
+      <c r="OG84" s="67"/>
+      <c r="OH84" s="67"/>
+      <c r="OI84" s="67"/>
+      <c r="OJ84" s="67"/>
+      <c r="OK84" s="67"/>
+      <c r="OL84" s="67"/>
+      <c r="OM84" s="67"/>
+      <c r="ON84" s="67"/>
+      <c r="OO84" s="67"/>
+      <c r="OP84" s="67"/>
+      <c r="OQ84" s="67"/>
+      <c r="OR84" s="67"/>
+      <c r="OS84" s="67"/>
+      <c r="OT84" s="67"/>
+      <c r="OU84" s="67"/>
+      <c r="OV84" s="67"/>
+      <c r="OW84" s="67"/>
+      <c r="OX84" s="67"/>
+      <c r="OY84" s="67"/>
+      <c r="OZ84" s="67"/>
+      <c r="PA84" s="67"/>
+      <c r="PB84" s="67"/>
+      <c r="PC84" s="67"/>
+      <c r="PD84" s="67"/>
+      <c r="PE84" s="67"/>
+      <c r="PF84" s="67"/>
+      <c r="PG84" s="67"/>
+      <c r="PH84" s="67"/>
+      <c r="PI84" s="67"/>
+      <c r="PJ84" s="67"/>
+      <c r="PK84" s="67"/>
+      <c r="PL84" s="67"/>
+      <c r="PM84" s="67"/>
+      <c r="PN84" s="67"/>
+      <c r="PO84" s="67"/>
+      <c r="PP84" s="67"/>
+      <c r="PQ84" s="67"/>
+      <c r="PR84" s="67"/>
+      <c r="PS84" s="67"/>
+      <c r="PT84" s="67"/>
+      <c r="PU84" s="67"/>
+      <c r="PV84" s="67"/>
+      <c r="PW84" s="67"/>
+      <c r="PX84" s="67"/>
+      <c r="PY84" s="67"/>
+      <c r="PZ84" s="67"/>
+      <c r="QA84" s="67"/>
+      <c r="QB84" s="67"/>
+      <c r="QC84" s="67"/>
+      <c r="QD84" s="67"/>
+      <c r="QE84" s="67"/>
+      <c r="QF84" s="67"/>
+      <c r="QG84" s="67"/>
+      <c r="QH84" s="67"/>
+      <c r="QI84" s="67"/>
+      <c r="QJ84" s="67"/>
+      <c r="QK84" s="67"/>
+      <c r="QL84" s="67"/>
+      <c r="QM84" s="67"/>
+      <c r="QN84" s="67"/>
+      <c r="QO84" s="67"/>
+      <c r="QP84" s="67"/>
+      <c r="QQ84" s="67"/>
+      <c r="QR84" s="67"/>
+      <c r="QS84" s="67"/>
+      <c r="QT84" s="67"/>
+      <c r="QU84" s="67"/>
+      <c r="QV84" s="67"/>
+      <c r="QW84" s="67"/>
+      <c r="QX84" s="67"/>
+      <c r="QY84" s="67"/>
+      <c r="QZ84" s="67"/>
+      <c r="RA84" s="67"/>
+      <c r="RB84" s="67"/>
+      <c r="RC84" s="67"/>
+      <c r="RD84" s="67"/>
+      <c r="RE84" s="67"/>
+      <c r="RF84" s="67"/>
+      <c r="RG84" s="67"/>
+      <c r="RH84" s="67"/>
+      <c r="RI84" s="67"/>
+      <c r="RJ84" s="67"/>
+      <c r="RK84" s="67"/>
+      <c r="RL84" s="67"/>
+      <c r="RM84" s="67"/>
+      <c r="RN84" s="67"/>
+      <c r="RO84" s="67"/>
+      <c r="RP84" s="67"/>
+      <c r="RQ84" s="67"/>
+      <c r="RR84" s="67"/>
+      <c r="RS84" s="67"/>
+      <c r="RT84" s="67"/>
+      <c r="RU84" s="67"/>
+      <c r="RV84" s="67"/>
+      <c r="RW84" s="67"/>
+      <c r="RX84" s="67"/>
+      <c r="RY84" s="67"/>
+      <c r="RZ84" s="67"/>
+      <c r="SA84" s="67"/>
+      <c r="SB84" s="67"/>
+      <c r="SC84" s="67"/>
+      <c r="SD84" s="67"/>
+      <c r="SE84" s="67"/>
+      <c r="SF84" s="67"/>
+      <c r="SG84" s="67"/>
+      <c r="SH84" s="67"/>
+      <c r="SI84" s="67"/>
+      <c r="SJ84" s="67"/>
+      <c r="SK84" s="67"/>
+      <c r="SL84" s="67"/>
+      <c r="SM84" s="67"/>
+      <c r="SN84" s="67"/>
+      <c r="SO84" s="67"/>
+      <c r="SP84" s="67"/>
+      <c r="SQ84" s="67"/>
+      <c r="SR84" s="67"/>
+      <c r="SS84" s="67"/>
+      <c r="ST84" s="67"/>
+      <c r="SU84" s="67"/>
+      <c r="SV84" s="67"/>
+      <c r="SW84" s="67"/>
+      <c r="SX84" s="67"/>
+      <c r="SY84" s="67"/>
+      <c r="SZ84" s="67"/>
+      <c r="TA84" s="67"/>
+      <c r="TB84" s="67"/>
+      <c r="TC84" s="67"/>
+      <c r="TD84" s="67"/>
+      <c r="TE84" s="67"/>
+      <c r="TF84" s="67"/>
+      <c r="TG84" s="67"/>
+      <c r="TH84" s="67"/>
+      <c r="TI84" s="67"/>
+      <c r="TJ84" s="67"/>
+      <c r="TK84" s="67"/>
+      <c r="TL84" s="67"/>
+      <c r="TM84" s="67"/>
+      <c r="TN84" s="67"/>
+      <c r="TO84" s="67"/>
+      <c r="TP84" s="67"/>
+      <c r="TQ84" s="67"/>
+      <c r="TR84" s="67"/>
+      <c r="TS84" s="67"/>
+      <c r="TT84" s="67"/>
+      <c r="TU84" s="67"/>
+      <c r="TV84" s="67"/>
+      <c r="TW84" s="67"/>
+      <c r="TX84" s="67"/>
+      <c r="TY84" s="67"/>
+      <c r="TZ84" s="67"/>
+      <c r="UA84" s="67"/>
+      <c r="UB84" s="67"/>
+      <c r="UC84" s="67"/>
+      <c r="UD84" s="67"/>
+      <c r="UE84" s="67"/>
+      <c r="UF84" s="67"/>
+      <c r="UG84" s="67"/>
+      <c r="UH84" s="67"/>
+      <c r="UI84" s="67"/>
+      <c r="UJ84" s="67"/>
+      <c r="UK84" s="67"/>
+      <c r="UL84" s="67"/>
+      <c r="UM84" s="67"/>
+      <c r="UN84" s="67"/>
+      <c r="UO84" s="67"/>
+      <c r="UP84" s="67"/>
+      <c r="UQ84" s="67"/>
+      <c r="UR84" s="67"/>
+      <c r="US84" s="67"/>
+      <c r="UT84" s="67"/>
+      <c r="UU84" s="67"/>
+      <c r="UV84" s="67"/>
+      <c r="UW84" s="67"/>
+      <c r="UX84" s="67"/>
+      <c r="UY84" s="67"/>
+      <c r="UZ84" s="67"/>
+      <c r="VA84" s="67"/>
+      <c r="VB84" s="67"/>
+      <c r="VC84" s="67"/>
+      <c r="VD84" s="67"/>
+      <c r="VE84" s="67"/>
+      <c r="VF84" s="67"/>
+      <c r="VG84" s="67"/>
+      <c r="VH84" s="67"/>
+      <c r="VI84" s="67"/>
+      <c r="VJ84" s="67"/>
+      <c r="VK84" s="67"/>
+      <c r="VL84" s="67"/>
+      <c r="VM84" s="67"/>
+      <c r="VN84" s="67"/>
+      <c r="VO84" s="67"/>
+      <c r="VP84" s="67"/>
+      <c r="VQ84" s="67"/>
+      <c r="VR84" s="67"/>
+      <c r="VS84" s="67"/>
+      <c r="VT84" s="67"/>
+      <c r="VU84" s="67"/>
+      <c r="VV84" s="67"/>
+      <c r="VW84" s="67"/>
+      <c r="VX84" s="67"/>
+      <c r="VY84" s="67"/>
+      <c r="VZ84" s="67"/>
+      <c r="WA84" s="67"/>
+      <c r="WB84" s="67"/>
+      <c r="WC84" s="67"/>
+      <c r="WD84" s="67"/>
+      <c r="WE84" s="67"/>
+      <c r="WF84" s="67"/>
+      <c r="WG84" s="67"/>
+      <c r="WH84" s="67"/>
+      <c r="WI84" s="67"/>
+      <c r="WJ84" s="67"/>
+      <c r="WK84" s="67"/>
+      <c r="WL84" s="67"/>
+      <c r="WM84" s="67"/>
+      <c r="WN84" s="67"/>
+      <c r="WO84" s="67"/>
+      <c r="WP84" s="67"/>
+      <c r="WQ84" s="67"/>
+      <c r="WR84" s="67"/>
+      <c r="WS84" s="67"/>
+      <c r="WT84" s="67"/>
+      <c r="WU84" s="67"/>
+      <c r="WV84" s="67"/>
+      <c r="WW84" s="67"/>
+      <c r="WX84" s="67"/>
+      <c r="WY84" s="67"/>
+      <c r="WZ84" s="67"/>
+      <c r="XA84" s="67"/>
+      <c r="XB84" s="67"/>
+      <c r="XC84" s="67"/>
+      <c r="XD84" s="67"/>
+      <c r="XE84" s="67"/>
+      <c r="XF84" s="67"/>
+      <c r="XG84" s="67"/>
+      <c r="XH84" s="67"/>
+      <c r="XI84" s="67"/>
+      <c r="XJ84" s="67"/>
+      <c r="XK84" s="67"/>
+      <c r="XL84" s="67"/>
+      <c r="XM84" s="67"/>
+      <c r="XN84" s="67"/>
+      <c r="XO84" s="67"/>
+      <c r="XP84" s="67"/>
+      <c r="XQ84" s="67"/>
+      <c r="XR84" s="67"/>
+      <c r="XS84" s="67"/>
+      <c r="XT84" s="67"/>
+      <c r="XU84" s="67"/>
+      <c r="XV84" s="67"/>
+      <c r="XW84" s="67"/>
+      <c r="XX84" s="67"/>
+      <c r="XY84" s="67"/>
+      <c r="XZ84" s="67"/>
+      <c r="YA84" s="67"/>
+      <c r="YB84" s="67"/>
+      <c r="YC84" s="67"/>
+      <c r="YD84" s="67"/>
+      <c r="YE84" s="67"/>
+      <c r="YF84" s="67"/>
+      <c r="YG84" s="67"/>
+      <c r="YH84" s="67"/>
+      <c r="YI84" s="67"/>
+      <c r="YJ84" s="67"/>
+      <c r="YK84" s="67"/>
+      <c r="YL84" s="67"/>
+      <c r="YM84" s="67"/>
+      <c r="YN84" s="67"/>
+      <c r="YO84" s="67"/>
+      <c r="YP84" s="67"/>
+      <c r="YQ84" s="67"/>
+      <c r="YR84" s="67"/>
+      <c r="YS84" s="67"/>
+      <c r="YT84" s="67"/>
+      <c r="YU84" s="67"/>
+      <c r="YV84" s="67"/>
+      <c r="YW84" s="67"/>
+      <c r="YX84" s="67"/>
+      <c r="YY84" s="67"/>
+      <c r="YZ84" s="67"/>
+      <c r="ZA84" s="67"/>
+      <c r="ZB84" s="67"/>
+      <c r="ZC84" s="67"/>
+      <c r="ZD84" s="67"/>
+      <c r="ZE84" s="67"/>
+      <c r="ZF84" s="67"/>
+      <c r="ZG84" s="67"/>
+      <c r="ZH84" s="67"/>
+      <c r="ZI84" s="67"/>
+      <c r="ZJ84" s="67"/>
+      <c r="ZK84" s="67"/>
+      <c r="ZL84" s="67"/>
+      <c r="ZM84" s="67"/>
+      <c r="ZN84" s="67"/>
+      <c r="ZO84" s="67"/>
+      <c r="ZP84" s="67"/>
+      <c r="ZQ84" s="67"/>
+      <c r="ZR84" s="67"/>
+      <c r="ZS84" s="67"/>
+      <c r="ZT84" s="67"/>
+      <c r="ZU84" s="67"/>
+      <c r="ZV84" s="67"/>
+      <c r="ZW84" s="67"/>
+      <c r="ZX84" s="67"/>
+      <c r="ZY84" s="67"/>
+      <c r="ZZ84" s="67"/>
+      <c r="AAA84" s="67"/>
+      <c r="AAB84" s="67"/>
+      <c r="AAC84" s="67"/>
+      <c r="AAD84" s="67"/>
+      <c r="AAE84" s="67"/>
+      <c r="AAF84" s="67"/>
+      <c r="AAG84" s="67"/>
+      <c r="AAH84" s="67"/>
+      <c r="AAI84" s="67"/>
+      <c r="AAJ84" s="67"/>
+      <c r="AAK84" s="67"/>
+      <c r="AAL84" s="67"/>
+      <c r="AAM84" s="67"/>
+      <c r="AAN84" s="67"/>
+      <c r="AAO84" s="67"/>
+      <c r="AAP84" s="67"/>
+      <c r="AAQ84" s="67"/>
+      <c r="AAR84" s="67"/>
+      <c r="AAS84" s="67"/>
+      <c r="AAT84" s="67"/>
+      <c r="AAU84" s="67"/>
+      <c r="AAV84" s="67"/>
+      <c r="AAW84" s="67"/>
+      <c r="AAX84" s="67"/>
+      <c r="AAY84" s="67"/>
+      <c r="AAZ84" s="67"/>
+      <c r="ABA84" s="67"/>
+      <c r="ABB84" s="67"/>
+      <c r="ABC84" s="67"/>
+      <c r="ABD84" s="67"/>
+      <c r="ABE84" s="67"/>
+      <c r="ABF84" s="67"/>
+      <c r="ABG84" s="67"/>
+      <c r="ABH84" s="67"/>
+      <c r="ABI84" s="67"/>
+      <c r="ABJ84" s="67"/>
+      <c r="ABK84" s="67"/>
+      <c r="ABL84" s="67"/>
+      <c r="ABM84" s="67"/>
+      <c r="ABN84" s="67"/>
+      <c r="ABO84" s="67"/>
+      <c r="ABP84" s="67"/>
+      <c r="ABQ84" s="67"/>
+      <c r="ABR84" s="67"/>
+      <c r="ABS84" s="67"/>
+      <c r="ABT84" s="67"/>
+      <c r="ABU84" s="67"/>
+      <c r="ABV84" s="67"/>
+      <c r="ABW84" s="67"/>
+      <c r="ABX84" s="67"/>
+      <c r="ABY84" s="67"/>
+      <c r="ABZ84" s="67"/>
+      <c r="ACA84" s="67"/>
+      <c r="ACB84" s="67"/>
+      <c r="ACC84" s="67"/>
+      <c r="ACD84" s="67"/>
+      <c r="ACE84" s="67"/>
+      <c r="ACF84" s="67"/>
+      <c r="ACG84" s="67"/>
+      <c r="ACH84" s="67"/>
+      <c r="ACI84" s="67"/>
+      <c r="ACJ84" s="67"/>
+      <c r="ACK84" s="67"/>
+      <c r="ACL84" s="67"/>
+      <c r="ACM84" s="67"/>
+      <c r="ACN84" s="67"/>
+      <c r="ACO84" s="67"/>
+      <c r="ACP84" s="67"/>
+      <c r="ACQ84" s="67"/>
+      <c r="ACR84" s="67"/>
+      <c r="ACS84" s="67"/>
+      <c r="ACT84" s="67"/>
+      <c r="ACU84" s="67"/>
+      <c r="ACV84" s="67"/>
+      <c r="ACW84" s="67"/>
+      <c r="ACX84" s="67"/>
+      <c r="ACY84" s="67"/>
+      <c r="ACZ84" s="67"/>
+      <c r="ADA84" s="67"/>
+      <c r="ADB84" s="67"/>
+      <c r="ADC84" s="67"/>
+      <c r="ADD84" s="67"/>
+      <c r="ADE84" s="67"/>
+      <c r="ADF84" s="67"/>
+      <c r="ADG84" s="67"/>
+      <c r="ADH84" s="67"/>
+      <c r="ADI84" s="67"/>
+      <c r="ADJ84" s="67"/>
+      <c r="ADK84" s="67"/>
+      <c r="ADL84" s="67"/>
+      <c r="ADM84" s="67"/>
+      <c r="ADN84" s="67"/>
+      <c r="ADO84" s="67"/>
+      <c r="ADP84" s="67"/>
+      <c r="ADQ84" s="67"/>
+      <c r="ADR84" s="67"/>
+      <c r="ADS84" s="67"/>
+      <c r="ADT84" s="67"/>
+      <c r="ADU84" s="67"/>
+      <c r="ADV84" s="67"/>
+      <c r="ADW84" s="67"/>
+      <c r="ADX84" s="67"/>
+      <c r="ADY84" s="67"/>
+      <c r="ADZ84" s="67"/>
+      <c r="AEA84" s="67"/>
+      <c r="AEB84" s="67"/>
+      <c r="AEC84" s="67"/>
+      <c r="AED84" s="67"/>
+      <c r="AEE84" s="67"/>
+      <c r="AEF84" s="67"/>
+      <c r="AEG84" s="67"/>
+      <c r="AEH84" s="67"/>
+      <c r="AEI84" s="67"/>
+      <c r="AEJ84" s="67"/>
+      <c r="AEK84" s="67"/>
+      <c r="AEL84" s="67"/>
+      <c r="AEM84" s="67"/>
+      <c r="AEN84" s="67"/>
+      <c r="AEO84" s="67"/>
+      <c r="AEP84" s="67"/>
+      <c r="AEQ84" s="67"/>
+      <c r="AER84" s="67"/>
+      <c r="AES84" s="67"/>
+      <c r="AET84" s="67"/>
+      <c r="AEU84" s="67"/>
+      <c r="AEV84" s="67"/>
+      <c r="AEW84" s="67"/>
+      <c r="AEX84" s="67"/>
+      <c r="AEY84" s="67"/>
+      <c r="AEZ84" s="67"/>
+      <c r="AFA84" s="67"/>
+      <c r="AFB84" s="67"/>
+      <c r="AFC84" s="67"/>
+      <c r="AFD84" s="67"/>
+      <c r="AFE84" s="67"/>
+      <c r="AFF84" s="67"/>
+      <c r="AFG84" s="67"/>
+      <c r="AFH84" s="67"/>
+      <c r="AFI84" s="67"/>
+      <c r="AFJ84" s="67"/>
+      <c r="AFK84" s="67"/>
+      <c r="AFL84" s="67"/>
+      <c r="AFM84" s="67"/>
+      <c r="AFN84" s="67"/>
+      <c r="AFO84" s="67"/>
+      <c r="AFP84" s="67"/>
+      <c r="AFQ84" s="67"/>
+      <c r="AFR84" s="67"/>
+      <c r="AFS84" s="67"/>
+      <c r="AFT84" s="67"/>
+      <c r="AFU84" s="67"/>
+      <c r="AFV84" s="67"/>
+      <c r="AFW84" s="67"/>
+      <c r="AFX84" s="67"/>
+      <c r="AFY84" s="67"/>
+      <c r="AFZ84" s="67"/>
+      <c r="AGA84" s="67"/>
+      <c r="AGB84" s="67"/>
+      <c r="AGC84" s="67"/>
+      <c r="AGD84" s="67"/>
+      <c r="AGE84" s="67"/>
+      <c r="AGF84" s="67"/>
+      <c r="AGG84" s="67"/>
+      <c r="AGH84" s="67"/>
+      <c r="AGI84" s="67"/>
+      <c r="AGJ84" s="67"/>
+      <c r="AGK84" s="67"/>
+      <c r="AGL84" s="67"/>
+      <c r="AGM84" s="67"/>
+      <c r="AGN84" s="67"/>
+      <c r="AGO84" s="67"/>
+      <c r="AGP84" s="67"/>
+      <c r="AGQ84" s="67"/>
+      <c r="AGR84" s="67"/>
+      <c r="AGS84" s="67"/>
+      <c r="AGT84" s="67"/>
+      <c r="AGU84" s="67"/>
+      <c r="AGV84" s="67"/>
+      <c r="AGW84" s="67"/>
+      <c r="AGX84" s="67"/>
+      <c r="AGY84" s="67"/>
+      <c r="AGZ84" s="67"/>
+      <c r="AHA84" s="67"/>
+      <c r="AHB84" s="67"/>
+      <c r="AHC84" s="67"/>
+      <c r="AHD84" s="67"/>
+      <c r="AHE84" s="67"/>
+      <c r="AHF84" s="67"/>
+      <c r="AHG84" s="67"/>
+      <c r="AHH84" s="67"/>
+      <c r="AHI84" s="67"/>
+      <c r="AHJ84" s="67"/>
+      <c r="AHK84" s="67"/>
+      <c r="AHL84" s="67"/>
+      <c r="AHM84" s="67"/>
+      <c r="AHN84" s="67"/>
+      <c r="AHO84" s="67"/>
+      <c r="AHP84" s="67"/>
+      <c r="AHQ84" s="67"/>
+      <c r="AHR84" s="67"/>
+      <c r="AHS84" s="67"/>
+      <c r="AHT84" s="67"/>
+      <c r="AHU84" s="67"/>
+      <c r="AHV84" s="67"/>
+      <c r="AHW84" s="67"/>
+      <c r="AHX84" s="67"/>
+      <c r="AHY84" s="67"/>
+      <c r="AHZ84" s="67"/>
+      <c r="AIA84" s="67"/>
+      <c r="AIB84" s="67"/>
+      <c r="AIC84" s="67"/>
+      <c r="AID84" s="67"/>
+      <c r="AIE84" s="67"/>
+      <c r="AIF84" s="67"/>
+      <c r="AIG84" s="67"/>
+      <c r="AIH84" s="67"/>
+      <c r="AII84" s="67"/>
+      <c r="AIJ84" s="67"/>
+      <c r="AIK84" s="67"/>
+      <c r="AIL84" s="67"/>
+      <c r="AIM84" s="67"/>
+      <c r="AIN84" s="67"/>
+      <c r="AIO84" s="67"/>
+      <c r="AIP84" s="67"/>
+      <c r="AIQ84" s="67"/>
+      <c r="AIR84" s="67"/>
+      <c r="AIS84" s="67"/>
+      <c r="AIT84" s="67"/>
+      <c r="AIU84" s="67"/>
+      <c r="AIV84" s="67"/>
+      <c r="AIW84" s="67"/>
+      <c r="AIX84" s="67"/>
+      <c r="AIY84" s="67"/>
+      <c r="AIZ84" s="67"/>
+      <c r="AJA84" s="67"/>
+      <c r="AJB84" s="67"/>
+      <c r="AJC84" s="67"/>
+      <c r="AJD84" s="67"/>
+      <c r="AJE84" s="67"/>
+      <c r="AJF84" s="67"/>
+      <c r="AJG84" s="67"/>
+      <c r="AJH84" s="67"/>
+      <c r="AJI84" s="67"/>
+      <c r="AJJ84" s="67"/>
+      <c r="AJK84" s="67"/>
+      <c r="AJL84" s="67"/>
+      <c r="AJM84" s="67"/>
+      <c r="AJN84" s="67"/>
+      <c r="AJO84" s="67"/>
+      <c r="AJP84" s="67"/>
+      <c r="AJQ84" s="67"/>
+      <c r="AJR84" s="67"/>
+      <c r="AJS84" s="67"/>
+      <c r="AJT84" s="67"/>
+      <c r="AJU84" s="67"/>
+      <c r="AJV84" s="67"/>
+      <c r="AJW84" s="67"/>
+      <c r="AJX84" s="67"/>
+      <c r="AJY84" s="67"/>
+      <c r="AJZ84" s="67"/>
+      <c r="AKA84" s="67"/>
+      <c r="AKB84" s="67"/>
+      <c r="AKC84" s="67"/>
+      <c r="AKD84" s="67"/>
+      <c r="AKE84" s="67"/>
+      <c r="AKF84" s="67"/>
+      <c r="AKG84" s="67"/>
+      <c r="AKH84" s="67"/>
+      <c r="AKI84" s="67"/>
+      <c r="AKJ84" s="67"/>
+      <c r="AKK84" s="67"/>
+      <c r="AKL84" s="67"/>
+      <c r="AKM84" s="67"/>
+      <c r="AKN84" s="67"/>
+      <c r="AKO84" s="67"/>
+      <c r="AKP84" s="67"/>
+      <c r="AKQ84" s="67"/>
+      <c r="AKR84" s="67"/>
+      <c r="AKS84" s="67"/>
+      <c r="AKT84" s="67"/>
+      <c r="AKU84" s="67"/>
+      <c r="AKV84" s="67"/>
+      <c r="AKW84" s="67"/>
+      <c r="AKX84" s="67"/>
+      <c r="AKY84" s="67"/>
+      <c r="AKZ84" s="67"/>
+      <c r="ALA84" s="67"/>
+      <c r="ALB84" s="67"/>
+      <c r="ALC84" s="67"/>
+      <c r="ALD84" s="67"/>
+      <c r="ALE84" s="67"/>
+      <c r="ALF84" s="67"/>
+      <c r="ALG84" s="67"/>
+      <c r="ALH84" s="67"/>
+      <c r="ALI84" s="67"/>
+      <c r="ALJ84" s="67"/>
+      <c r="ALK84" s="67"/>
+      <c r="ALL84" s="67"/>
+      <c r="ALM84" s="67"/>
+      <c r="ALN84" s="67"/>
+      <c r="ALO84" s="67"/>
+      <c r="ALP84" s="67"/>
+      <c r="ALQ84" s="67"/>
+      <c r="ALR84" s="67"/>
+      <c r="ALS84" s="67"/>
+      <c r="ALT84" s="67"/>
+      <c r="ALU84" s="67"/>
+      <c r="ALV84" s="67"/>
+      <c r="ALW84" s="67"/>
+      <c r="ALX84" s="67"/>
+      <c r="ALY84" s="67"/>
+      <c r="ALZ84" s="67"/>
+      <c r="AMA84" s="67"/>
+      <c r="AMB84" s="67"/>
+      <c r="AMC84" s="67"/>
+      <c r="AMD84" s="67"/>
+      <c r="AME84" s="67"/>
+      <c r="AMF84" s="67"/>
+      <c r="AMG84" s="67"/>
+      <c r="AMH84" s="67"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -20425,7 +20424,7 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="61" t="s">
+      <c r="A87" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -20446,6 +20445,1044 @@
       <c r="G87" s="12">
         <v>0.9685</v>
       </c>
+    </row>
+    <row r="88" s="6" customFormat="1" spans="1:1022">
+      <c r="A88" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="28">
+        <v>0.9983832</v>
+      </c>
+      <c r="D88" s="28">
+        <v>0.9638488</v>
+      </c>
+      <c r="E88" s="28">
+        <v>0.9982058</v>
+      </c>
+      <c r="F88" s="28">
+        <v>0.9671334</v>
+      </c>
+      <c r="G88" s="39">
+        <v>0.9688</v>
+      </c>
+      <c r="H88" s="40"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="48"/>
+      <c r="O88" s="48"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="48"/>
+      <c r="T88" s="48"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="48"/>
+      <c r="W88" s="48"/>
+      <c r="X88" s="48"/>
+      <c r="Y88" s="48"/>
+      <c r="Z88" s="48"/>
+      <c r="AA88" s="48"/>
+      <c r="AB88" s="48"/>
+      <c r="AC88" s="48"/>
+      <c r="AD88" s="48"/>
+      <c r="AE88" s="48"/>
+      <c r="AF88" s="48"/>
+      <c r="AG88" s="48"/>
+      <c r="AH88" s="48"/>
+      <c r="AI88" s="48"/>
+      <c r="AJ88" s="48"/>
+      <c r="AK88" s="48"/>
+      <c r="AL88" s="48"/>
+      <c r="AM88" s="48"/>
+      <c r="AN88" s="48"/>
+      <c r="AO88" s="48"/>
+      <c r="AP88" s="48"/>
+      <c r="AQ88" s="48"/>
+      <c r="AR88" s="48"/>
+      <c r="AS88" s="48"/>
+      <c r="AT88" s="48"/>
+      <c r="AU88" s="48"/>
+      <c r="AV88" s="48"/>
+      <c r="AW88" s="48"/>
+      <c r="AX88" s="48"/>
+      <c r="AY88" s="48"/>
+      <c r="AZ88" s="48"/>
+      <c r="BA88" s="48"/>
+      <c r="BB88" s="48"/>
+      <c r="BC88" s="48"/>
+      <c r="BD88" s="48"/>
+      <c r="BE88" s="48"/>
+      <c r="BF88" s="48"/>
+      <c r="BG88" s="48"/>
+      <c r="BH88" s="48"/>
+      <c r="BI88" s="48"/>
+      <c r="BJ88" s="48"/>
+      <c r="BK88" s="48"/>
+      <c r="BL88" s="48"/>
+      <c r="BM88" s="48"/>
+      <c r="BN88" s="48"/>
+      <c r="BO88" s="48"/>
+      <c r="BP88" s="48"/>
+      <c r="BQ88" s="48"/>
+      <c r="BR88" s="48"/>
+      <c r="BS88" s="48"/>
+      <c r="BT88" s="48"/>
+      <c r="BU88" s="48"/>
+      <c r="BV88" s="48"/>
+      <c r="BW88" s="48"/>
+      <c r="BX88" s="48"/>
+      <c r="BY88" s="48"/>
+      <c r="BZ88" s="48"/>
+      <c r="CA88" s="48"/>
+      <c r="CB88" s="48"/>
+      <c r="CC88" s="48"/>
+      <c r="CD88" s="48"/>
+      <c r="CE88" s="48"/>
+      <c r="CF88" s="48"/>
+      <c r="CG88" s="48"/>
+      <c r="CH88" s="48"/>
+      <c r="CI88" s="48"/>
+      <c r="CJ88" s="48"/>
+      <c r="CK88" s="48"/>
+      <c r="CL88" s="48"/>
+      <c r="CM88" s="48"/>
+      <c r="CN88" s="48"/>
+      <c r="CO88" s="48"/>
+      <c r="CP88" s="48"/>
+      <c r="CQ88" s="48"/>
+      <c r="CR88" s="48"/>
+      <c r="CS88" s="48"/>
+      <c r="CT88" s="48"/>
+      <c r="CU88" s="48"/>
+      <c r="CV88" s="48"/>
+      <c r="CW88" s="48"/>
+      <c r="CX88" s="48"/>
+      <c r="CY88" s="48"/>
+      <c r="CZ88" s="48"/>
+      <c r="DA88" s="48"/>
+      <c r="DB88" s="48"/>
+      <c r="DC88" s="48"/>
+      <c r="DD88" s="48"/>
+      <c r="DE88" s="48"/>
+      <c r="DF88" s="48"/>
+      <c r="DG88" s="48"/>
+      <c r="DH88" s="48"/>
+      <c r="DI88" s="48"/>
+      <c r="DJ88" s="48"/>
+      <c r="DK88" s="48"/>
+      <c r="DL88" s="48"/>
+      <c r="DM88" s="48"/>
+      <c r="DN88" s="48"/>
+      <c r="DO88" s="48"/>
+      <c r="DP88" s="48"/>
+      <c r="DQ88" s="48"/>
+      <c r="DR88" s="48"/>
+      <c r="DS88" s="48"/>
+      <c r="DT88" s="48"/>
+      <c r="DU88" s="48"/>
+      <c r="DV88" s="48"/>
+      <c r="DW88" s="48"/>
+      <c r="DX88" s="48"/>
+      <c r="DY88" s="48"/>
+      <c r="DZ88" s="48"/>
+      <c r="EA88" s="48"/>
+      <c r="EB88" s="48"/>
+      <c r="EC88" s="48"/>
+      <c r="ED88" s="48"/>
+      <c r="EE88" s="48"/>
+      <c r="EF88" s="48"/>
+      <c r="EG88" s="48"/>
+      <c r="EH88" s="48"/>
+      <c r="EI88" s="48"/>
+      <c r="EJ88" s="48"/>
+      <c r="EK88" s="48"/>
+      <c r="EL88" s="48"/>
+      <c r="EM88" s="48"/>
+      <c r="EN88" s="48"/>
+      <c r="EO88" s="48"/>
+      <c r="EP88" s="48"/>
+      <c r="EQ88" s="48"/>
+      <c r="ER88" s="48"/>
+      <c r="ES88" s="48"/>
+      <c r="ET88" s="48"/>
+      <c r="EU88" s="48"/>
+      <c r="EV88" s="48"/>
+      <c r="EW88" s="48"/>
+      <c r="EX88" s="48"/>
+      <c r="EY88" s="48"/>
+      <c r="EZ88" s="48"/>
+      <c r="FA88" s="48"/>
+      <c r="FB88" s="48"/>
+      <c r="FC88" s="48"/>
+      <c r="FD88" s="48"/>
+      <c r="FE88" s="48"/>
+      <c r="FF88" s="48"/>
+      <c r="FG88" s="48"/>
+      <c r="FH88" s="48"/>
+      <c r="FI88" s="48"/>
+      <c r="FJ88" s="48"/>
+      <c r="FK88" s="48"/>
+      <c r="FL88" s="48"/>
+      <c r="FM88" s="48"/>
+      <c r="FN88" s="48"/>
+      <c r="FO88" s="48"/>
+      <c r="FP88" s="48"/>
+      <c r="FQ88" s="48"/>
+      <c r="FR88" s="48"/>
+      <c r="FS88" s="48"/>
+      <c r="FT88" s="48"/>
+      <c r="FU88" s="48"/>
+      <c r="FV88" s="48"/>
+      <c r="FW88" s="48"/>
+      <c r="FX88" s="48"/>
+      <c r="FY88" s="48"/>
+      <c r="FZ88" s="48"/>
+      <c r="GA88" s="48"/>
+      <c r="GB88" s="48"/>
+      <c r="GC88" s="48"/>
+      <c r="GD88" s="48"/>
+      <c r="GE88" s="48"/>
+      <c r="GF88" s="48"/>
+      <c r="GG88" s="48"/>
+      <c r="GH88" s="48"/>
+      <c r="GI88" s="48"/>
+      <c r="GJ88" s="48"/>
+      <c r="GK88" s="48"/>
+      <c r="GL88" s="48"/>
+      <c r="GM88" s="48"/>
+      <c r="GN88" s="48"/>
+      <c r="GO88" s="48"/>
+      <c r="GP88" s="48"/>
+      <c r="GQ88" s="48"/>
+      <c r="GR88" s="48"/>
+      <c r="GS88" s="48"/>
+      <c r="GT88" s="48"/>
+      <c r="GU88" s="48"/>
+      <c r="GV88" s="48"/>
+      <c r="GW88" s="48"/>
+      <c r="GX88" s="48"/>
+      <c r="GY88" s="48"/>
+      <c r="GZ88" s="48"/>
+      <c r="HA88" s="48"/>
+      <c r="HB88" s="48"/>
+      <c r="HC88" s="48"/>
+      <c r="HD88" s="48"/>
+      <c r="HE88" s="48"/>
+      <c r="HF88" s="48"/>
+      <c r="HG88" s="48"/>
+      <c r="HH88" s="48"/>
+      <c r="HI88" s="48"/>
+      <c r="HJ88" s="48"/>
+      <c r="HK88" s="48"/>
+      <c r="HL88" s="48"/>
+      <c r="HM88" s="48"/>
+      <c r="HN88" s="48"/>
+      <c r="HO88" s="48"/>
+      <c r="HP88" s="48"/>
+      <c r="HQ88" s="48"/>
+      <c r="HR88" s="48"/>
+      <c r="HS88" s="48"/>
+      <c r="HT88" s="48"/>
+      <c r="HU88" s="48"/>
+      <c r="HV88" s="48"/>
+      <c r="HW88" s="48"/>
+      <c r="HX88" s="48"/>
+      <c r="HY88" s="48"/>
+      <c r="HZ88" s="48"/>
+      <c r="IA88" s="48"/>
+      <c r="IB88" s="48"/>
+      <c r="IC88" s="48"/>
+      <c r="ID88" s="48"/>
+      <c r="IE88" s="48"/>
+      <c r="IF88" s="48"/>
+      <c r="IG88" s="48"/>
+      <c r="IH88" s="48"/>
+      <c r="II88" s="48"/>
+      <c r="IJ88" s="48"/>
+      <c r="IK88" s="48"/>
+      <c r="IL88" s="48"/>
+      <c r="IM88" s="48"/>
+      <c r="IN88" s="48"/>
+      <c r="IO88" s="48"/>
+      <c r="IP88" s="48"/>
+      <c r="IQ88" s="48"/>
+      <c r="IR88" s="48"/>
+      <c r="IS88" s="48"/>
+      <c r="IT88" s="48"/>
+      <c r="IU88" s="48"/>
+      <c r="IV88" s="48"/>
+      <c r="IW88" s="48"/>
+      <c r="IX88" s="48"/>
+      <c r="IY88" s="48"/>
+      <c r="IZ88" s="48"/>
+      <c r="JA88" s="48"/>
+      <c r="JB88" s="48"/>
+      <c r="JC88" s="48"/>
+      <c r="JD88" s="48"/>
+      <c r="JE88" s="48"/>
+      <c r="JF88" s="48"/>
+      <c r="JG88" s="48"/>
+      <c r="JH88" s="48"/>
+      <c r="JI88" s="48"/>
+      <c r="JJ88" s="48"/>
+      <c r="JK88" s="48"/>
+      <c r="JL88" s="48"/>
+      <c r="JM88" s="48"/>
+      <c r="JN88" s="48"/>
+      <c r="JO88" s="48"/>
+      <c r="JP88" s="48"/>
+      <c r="JQ88" s="48"/>
+      <c r="JR88" s="48"/>
+      <c r="JS88" s="48"/>
+      <c r="JT88" s="48"/>
+      <c r="JU88" s="48"/>
+      <c r="JV88" s="48"/>
+      <c r="JW88" s="48"/>
+      <c r="JX88" s="48"/>
+      <c r="JY88" s="48"/>
+      <c r="JZ88" s="48"/>
+      <c r="KA88" s="48"/>
+      <c r="KB88" s="48"/>
+      <c r="KC88" s="48"/>
+      <c r="KD88" s="48"/>
+      <c r="KE88" s="48"/>
+      <c r="KF88" s="48"/>
+      <c r="KG88" s="48"/>
+      <c r="KH88" s="48"/>
+      <c r="KI88" s="48"/>
+      <c r="KJ88" s="48"/>
+      <c r="KK88" s="48"/>
+      <c r="KL88" s="48"/>
+      <c r="KM88" s="48"/>
+      <c r="KN88" s="48"/>
+      <c r="KO88" s="48"/>
+      <c r="KP88" s="48"/>
+      <c r="KQ88" s="48"/>
+      <c r="KR88" s="48"/>
+      <c r="KS88" s="48"/>
+      <c r="KT88" s="48"/>
+      <c r="KU88" s="48"/>
+      <c r="KV88" s="48"/>
+      <c r="KW88" s="48"/>
+      <c r="KX88" s="48"/>
+      <c r="KY88" s="48"/>
+      <c r="KZ88" s="48"/>
+      <c r="LA88" s="48"/>
+      <c r="LB88" s="48"/>
+      <c r="LC88" s="48"/>
+      <c r="LD88" s="48"/>
+      <c r="LE88" s="48"/>
+      <c r="LF88" s="48"/>
+      <c r="LG88" s="48"/>
+      <c r="LH88" s="48"/>
+      <c r="LI88" s="48"/>
+      <c r="LJ88" s="48"/>
+      <c r="LK88" s="48"/>
+      <c r="LL88" s="48"/>
+      <c r="LM88" s="48"/>
+      <c r="LN88" s="48"/>
+      <c r="LO88" s="48"/>
+      <c r="LP88" s="48"/>
+      <c r="LQ88" s="48"/>
+      <c r="LR88" s="48"/>
+      <c r="LS88" s="48"/>
+      <c r="LT88" s="48"/>
+      <c r="LU88" s="48"/>
+      <c r="LV88" s="48"/>
+      <c r="LW88" s="48"/>
+      <c r="LX88" s="48"/>
+      <c r="LY88" s="48"/>
+      <c r="LZ88" s="48"/>
+      <c r="MA88" s="48"/>
+      <c r="MB88" s="48"/>
+      <c r="MC88" s="48"/>
+      <c r="MD88" s="48"/>
+      <c r="ME88" s="48"/>
+      <c r="MF88" s="48"/>
+      <c r="MG88" s="48"/>
+      <c r="MH88" s="48"/>
+      <c r="MI88" s="48"/>
+      <c r="MJ88" s="48"/>
+      <c r="MK88" s="48"/>
+      <c r="ML88" s="48"/>
+      <c r="MM88" s="48"/>
+      <c r="MN88" s="48"/>
+      <c r="MO88" s="48"/>
+      <c r="MP88" s="48"/>
+      <c r="MQ88" s="48"/>
+      <c r="MR88" s="48"/>
+      <c r="MS88" s="48"/>
+      <c r="MT88" s="48"/>
+      <c r="MU88" s="48"/>
+      <c r="MV88" s="48"/>
+      <c r="MW88" s="48"/>
+      <c r="MX88" s="48"/>
+      <c r="MY88" s="48"/>
+      <c r="MZ88" s="48"/>
+      <c r="NA88" s="48"/>
+      <c r="NB88" s="48"/>
+      <c r="NC88" s="48"/>
+      <c r="ND88" s="48"/>
+      <c r="NE88" s="48"/>
+      <c r="NF88" s="48"/>
+      <c r="NG88" s="48"/>
+      <c r="NH88" s="48"/>
+      <c r="NI88" s="48"/>
+      <c r="NJ88" s="48"/>
+      <c r="NK88" s="48"/>
+      <c r="NL88" s="48"/>
+      <c r="NM88" s="48"/>
+      <c r="NN88" s="48"/>
+      <c r="NO88" s="48"/>
+      <c r="NP88" s="48"/>
+      <c r="NQ88" s="48"/>
+      <c r="NR88" s="48"/>
+      <c r="NS88" s="48"/>
+      <c r="NT88" s="48"/>
+      <c r="NU88" s="48"/>
+      <c r="NV88" s="48"/>
+      <c r="NW88" s="48"/>
+      <c r="NX88" s="48"/>
+      <c r="NY88" s="48"/>
+      <c r="NZ88" s="48"/>
+      <c r="OA88" s="48"/>
+      <c r="OB88" s="48"/>
+      <c r="OC88" s="48"/>
+      <c r="OD88" s="48"/>
+      <c r="OE88" s="48"/>
+      <c r="OF88" s="48"/>
+      <c r="OG88" s="48"/>
+      <c r="OH88" s="48"/>
+      <c r="OI88" s="48"/>
+      <c r="OJ88" s="48"/>
+      <c r="OK88" s="48"/>
+      <c r="OL88" s="48"/>
+      <c r="OM88" s="48"/>
+      <c r="ON88" s="48"/>
+      <c r="OO88" s="48"/>
+      <c r="OP88" s="48"/>
+      <c r="OQ88" s="48"/>
+      <c r="OR88" s="48"/>
+      <c r="OS88" s="48"/>
+      <c r="OT88" s="48"/>
+      <c r="OU88" s="48"/>
+      <c r="OV88" s="48"/>
+      <c r="OW88" s="48"/>
+      <c r="OX88" s="48"/>
+      <c r="OY88" s="48"/>
+      <c r="OZ88" s="48"/>
+      <c r="PA88" s="48"/>
+      <c r="PB88" s="48"/>
+      <c r="PC88" s="48"/>
+      <c r="PD88" s="48"/>
+      <c r="PE88" s="48"/>
+      <c r="PF88" s="48"/>
+      <c r="PG88" s="48"/>
+      <c r="PH88" s="48"/>
+      <c r="PI88" s="48"/>
+      <c r="PJ88" s="48"/>
+      <c r="PK88" s="48"/>
+      <c r="PL88" s="48"/>
+      <c r="PM88" s="48"/>
+      <c r="PN88" s="48"/>
+      <c r="PO88" s="48"/>
+      <c r="PP88" s="48"/>
+      <c r="PQ88" s="48"/>
+      <c r="PR88" s="48"/>
+      <c r="PS88" s="48"/>
+      <c r="PT88" s="48"/>
+      <c r="PU88" s="48"/>
+      <c r="PV88" s="48"/>
+      <c r="PW88" s="48"/>
+      <c r="PX88" s="48"/>
+      <c r="PY88" s="48"/>
+      <c r="PZ88" s="48"/>
+      <c r="QA88" s="48"/>
+      <c r="QB88" s="48"/>
+      <c r="QC88" s="48"/>
+      <c r="QD88" s="48"/>
+      <c r="QE88" s="48"/>
+      <c r="QF88" s="48"/>
+      <c r="QG88" s="48"/>
+      <c r="QH88" s="48"/>
+      <c r="QI88" s="48"/>
+      <c r="QJ88" s="48"/>
+      <c r="QK88" s="48"/>
+      <c r="QL88" s="48"/>
+      <c r="QM88" s="48"/>
+      <c r="QN88" s="48"/>
+      <c r="QO88" s="48"/>
+      <c r="QP88" s="48"/>
+      <c r="QQ88" s="48"/>
+      <c r="QR88" s="48"/>
+      <c r="QS88" s="48"/>
+      <c r="QT88" s="48"/>
+      <c r="QU88" s="48"/>
+      <c r="QV88" s="48"/>
+      <c r="QW88" s="48"/>
+      <c r="QX88" s="48"/>
+      <c r="QY88" s="48"/>
+      <c r="QZ88" s="48"/>
+      <c r="RA88" s="48"/>
+      <c r="RB88" s="48"/>
+      <c r="RC88" s="48"/>
+      <c r="RD88" s="48"/>
+      <c r="RE88" s="48"/>
+      <c r="RF88" s="48"/>
+      <c r="RG88" s="48"/>
+      <c r="RH88" s="48"/>
+      <c r="RI88" s="48"/>
+      <c r="RJ88" s="48"/>
+      <c r="RK88" s="48"/>
+      <c r="RL88" s="48"/>
+      <c r="RM88" s="48"/>
+      <c r="RN88" s="48"/>
+      <c r="RO88" s="48"/>
+      <c r="RP88" s="48"/>
+      <c r="RQ88" s="48"/>
+      <c r="RR88" s="48"/>
+      <c r="RS88" s="48"/>
+      <c r="RT88" s="48"/>
+      <c r="RU88" s="48"/>
+      <c r="RV88" s="48"/>
+      <c r="RW88" s="48"/>
+      <c r="RX88" s="48"/>
+      <c r="RY88" s="48"/>
+      <c r="RZ88" s="48"/>
+      <c r="SA88" s="48"/>
+      <c r="SB88" s="48"/>
+      <c r="SC88" s="48"/>
+      <c r="SD88" s="48"/>
+      <c r="SE88" s="48"/>
+      <c r="SF88" s="48"/>
+      <c r="SG88" s="48"/>
+      <c r="SH88" s="48"/>
+      <c r="SI88" s="48"/>
+      <c r="SJ88" s="48"/>
+      <c r="SK88" s="48"/>
+      <c r="SL88" s="48"/>
+      <c r="SM88" s="48"/>
+      <c r="SN88" s="48"/>
+      <c r="SO88" s="48"/>
+      <c r="SP88" s="48"/>
+      <c r="SQ88" s="48"/>
+      <c r="SR88" s="48"/>
+      <c r="SS88" s="48"/>
+      <c r="ST88" s="48"/>
+      <c r="SU88" s="48"/>
+      <c r="SV88" s="48"/>
+      <c r="SW88" s="48"/>
+      <c r="SX88" s="48"/>
+      <c r="SY88" s="48"/>
+      <c r="SZ88" s="48"/>
+      <c r="TA88" s="48"/>
+      <c r="TB88" s="48"/>
+      <c r="TC88" s="48"/>
+      <c r="TD88" s="48"/>
+      <c r="TE88" s="48"/>
+      <c r="TF88" s="48"/>
+      <c r="TG88" s="48"/>
+      <c r="TH88" s="48"/>
+      <c r="TI88" s="48"/>
+      <c r="TJ88" s="48"/>
+      <c r="TK88" s="48"/>
+      <c r="TL88" s="48"/>
+      <c r="TM88" s="48"/>
+      <c r="TN88" s="48"/>
+      <c r="TO88" s="48"/>
+      <c r="TP88" s="48"/>
+      <c r="TQ88" s="48"/>
+      <c r="TR88" s="48"/>
+      <c r="TS88" s="48"/>
+      <c r="TT88" s="48"/>
+      <c r="TU88" s="48"/>
+      <c r="TV88" s="48"/>
+      <c r="TW88" s="48"/>
+      <c r="TX88" s="48"/>
+      <c r="TY88" s="48"/>
+      <c r="TZ88" s="48"/>
+      <c r="UA88" s="48"/>
+      <c r="UB88" s="48"/>
+      <c r="UC88" s="48"/>
+      <c r="UD88" s="48"/>
+      <c r="UE88" s="48"/>
+      <c r="UF88" s="48"/>
+      <c r="UG88" s="48"/>
+      <c r="UH88" s="48"/>
+      <c r="UI88" s="48"/>
+      <c r="UJ88" s="48"/>
+      <c r="UK88" s="48"/>
+      <c r="UL88" s="48"/>
+      <c r="UM88" s="48"/>
+      <c r="UN88" s="48"/>
+      <c r="UO88" s="48"/>
+      <c r="UP88" s="48"/>
+      <c r="UQ88" s="48"/>
+      <c r="UR88" s="48"/>
+      <c r="US88" s="48"/>
+      <c r="UT88" s="48"/>
+      <c r="UU88" s="48"/>
+      <c r="UV88" s="48"/>
+      <c r="UW88" s="48"/>
+      <c r="UX88" s="48"/>
+      <c r="UY88" s="48"/>
+      <c r="UZ88" s="48"/>
+      <c r="VA88" s="48"/>
+      <c r="VB88" s="48"/>
+      <c r="VC88" s="48"/>
+      <c r="VD88" s="48"/>
+      <c r="VE88" s="48"/>
+      <c r="VF88" s="48"/>
+      <c r="VG88" s="48"/>
+      <c r="VH88" s="48"/>
+      <c r="VI88" s="48"/>
+      <c r="VJ88" s="48"/>
+      <c r="VK88" s="48"/>
+      <c r="VL88" s="48"/>
+      <c r="VM88" s="48"/>
+      <c r="VN88" s="48"/>
+      <c r="VO88" s="48"/>
+      <c r="VP88" s="48"/>
+      <c r="VQ88" s="48"/>
+      <c r="VR88" s="48"/>
+      <c r="VS88" s="48"/>
+      <c r="VT88" s="48"/>
+      <c r="VU88" s="48"/>
+      <c r="VV88" s="48"/>
+      <c r="VW88" s="48"/>
+      <c r="VX88" s="48"/>
+      <c r="VY88" s="48"/>
+      <c r="VZ88" s="48"/>
+      <c r="WA88" s="48"/>
+      <c r="WB88" s="48"/>
+      <c r="WC88" s="48"/>
+      <c r="WD88" s="48"/>
+      <c r="WE88" s="48"/>
+      <c r="WF88" s="48"/>
+      <c r="WG88" s="48"/>
+      <c r="WH88" s="48"/>
+      <c r="WI88" s="48"/>
+      <c r="WJ88" s="48"/>
+      <c r="WK88" s="48"/>
+      <c r="WL88" s="48"/>
+      <c r="WM88" s="48"/>
+      <c r="WN88" s="48"/>
+      <c r="WO88" s="48"/>
+      <c r="WP88" s="48"/>
+      <c r="WQ88" s="48"/>
+      <c r="WR88" s="48"/>
+      <c r="WS88" s="48"/>
+      <c r="WT88" s="48"/>
+      <c r="WU88" s="48"/>
+      <c r="WV88" s="48"/>
+      <c r="WW88" s="48"/>
+      <c r="WX88" s="48"/>
+      <c r="WY88" s="48"/>
+      <c r="WZ88" s="48"/>
+      <c r="XA88" s="48"/>
+      <c r="XB88" s="48"/>
+      <c r="XC88" s="48"/>
+      <c r="XD88" s="48"/>
+      <c r="XE88" s="48"/>
+      <c r="XF88" s="48"/>
+      <c r="XG88" s="48"/>
+      <c r="XH88" s="48"/>
+      <c r="XI88" s="48"/>
+      <c r="XJ88" s="48"/>
+      <c r="XK88" s="48"/>
+      <c r="XL88" s="48"/>
+      <c r="XM88" s="48"/>
+      <c r="XN88" s="48"/>
+      <c r="XO88" s="48"/>
+      <c r="XP88" s="48"/>
+      <c r="XQ88" s="48"/>
+      <c r="XR88" s="48"/>
+      <c r="XS88" s="48"/>
+      <c r="XT88" s="48"/>
+      <c r="XU88" s="48"/>
+      <c r="XV88" s="48"/>
+      <c r="XW88" s="48"/>
+      <c r="XX88" s="48"/>
+      <c r="XY88" s="48"/>
+      <c r="XZ88" s="48"/>
+      <c r="YA88" s="48"/>
+      <c r="YB88" s="48"/>
+      <c r="YC88" s="48"/>
+      <c r="YD88" s="48"/>
+      <c r="YE88" s="48"/>
+      <c r="YF88" s="48"/>
+      <c r="YG88" s="48"/>
+      <c r="YH88" s="48"/>
+      <c r="YI88" s="48"/>
+      <c r="YJ88" s="48"/>
+      <c r="YK88" s="48"/>
+      <c r="YL88" s="48"/>
+      <c r="YM88" s="48"/>
+      <c r="YN88" s="48"/>
+      <c r="YO88" s="48"/>
+      <c r="YP88" s="48"/>
+      <c r="YQ88" s="48"/>
+      <c r="YR88" s="48"/>
+      <c r="YS88" s="48"/>
+      <c r="YT88" s="48"/>
+      <c r="YU88" s="48"/>
+      <c r="YV88" s="48"/>
+      <c r="YW88" s="48"/>
+      <c r="YX88" s="48"/>
+      <c r="YY88" s="48"/>
+      <c r="YZ88" s="48"/>
+      <c r="ZA88" s="48"/>
+      <c r="ZB88" s="48"/>
+      <c r="ZC88" s="48"/>
+      <c r="ZD88" s="48"/>
+      <c r="ZE88" s="48"/>
+      <c r="ZF88" s="48"/>
+      <c r="ZG88" s="48"/>
+      <c r="ZH88" s="48"/>
+      <c r="ZI88" s="48"/>
+      <c r="ZJ88" s="48"/>
+      <c r="ZK88" s="48"/>
+      <c r="ZL88" s="48"/>
+      <c r="ZM88" s="48"/>
+      <c r="ZN88" s="48"/>
+      <c r="ZO88" s="48"/>
+      <c r="ZP88" s="48"/>
+      <c r="ZQ88" s="48"/>
+      <c r="ZR88" s="48"/>
+      <c r="ZS88" s="48"/>
+      <c r="ZT88" s="48"/>
+      <c r="ZU88" s="48"/>
+      <c r="ZV88" s="48"/>
+      <c r="ZW88" s="48"/>
+      <c r="ZX88" s="48"/>
+      <c r="ZY88" s="48"/>
+      <c r="ZZ88" s="48"/>
+      <c r="AAA88" s="48"/>
+      <c r="AAB88" s="48"/>
+      <c r="AAC88" s="48"/>
+      <c r="AAD88" s="48"/>
+      <c r="AAE88" s="48"/>
+      <c r="AAF88" s="48"/>
+      <c r="AAG88" s="48"/>
+      <c r="AAH88" s="48"/>
+      <c r="AAI88" s="48"/>
+      <c r="AAJ88" s="48"/>
+      <c r="AAK88" s="48"/>
+      <c r="AAL88" s="48"/>
+      <c r="AAM88" s="48"/>
+      <c r="AAN88" s="48"/>
+      <c r="AAO88" s="48"/>
+      <c r="AAP88" s="48"/>
+      <c r="AAQ88" s="48"/>
+      <c r="AAR88" s="48"/>
+      <c r="AAS88" s="48"/>
+      <c r="AAT88" s="48"/>
+      <c r="AAU88" s="48"/>
+      <c r="AAV88" s="48"/>
+      <c r="AAW88" s="48"/>
+      <c r="AAX88" s="48"/>
+      <c r="AAY88" s="48"/>
+      <c r="AAZ88" s="48"/>
+      <c r="ABA88" s="48"/>
+      <c r="ABB88" s="48"/>
+      <c r="ABC88" s="48"/>
+      <c r="ABD88" s="48"/>
+      <c r="ABE88" s="48"/>
+      <c r="ABF88" s="48"/>
+      <c r="ABG88" s="48"/>
+      <c r="ABH88" s="48"/>
+      <c r="ABI88" s="48"/>
+      <c r="ABJ88" s="48"/>
+      <c r="ABK88" s="48"/>
+      <c r="ABL88" s="48"/>
+      <c r="ABM88" s="48"/>
+      <c r="ABN88" s="48"/>
+      <c r="ABO88" s="48"/>
+      <c r="ABP88" s="48"/>
+      <c r="ABQ88" s="48"/>
+      <c r="ABR88" s="48"/>
+      <c r="ABS88" s="48"/>
+      <c r="ABT88" s="48"/>
+      <c r="ABU88" s="48"/>
+      <c r="ABV88" s="48"/>
+      <c r="ABW88" s="48"/>
+      <c r="ABX88" s="48"/>
+      <c r="ABY88" s="48"/>
+      <c r="ABZ88" s="48"/>
+      <c r="ACA88" s="48"/>
+      <c r="ACB88" s="48"/>
+      <c r="ACC88" s="48"/>
+      <c r="ACD88" s="48"/>
+      <c r="ACE88" s="48"/>
+      <c r="ACF88" s="48"/>
+      <c r="ACG88" s="48"/>
+      <c r="ACH88" s="48"/>
+      <c r="ACI88" s="48"/>
+      <c r="ACJ88" s="48"/>
+      <c r="ACK88" s="48"/>
+      <c r="ACL88" s="48"/>
+      <c r="ACM88" s="48"/>
+      <c r="ACN88" s="48"/>
+      <c r="ACO88" s="48"/>
+      <c r="ACP88" s="48"/>
+      <c r="ACQ88" s="48"/>
+      <c r="ACR88" s="48"/>
+      <c r="ACS88" s="48"/>
+      <c r="ACT88" s="48"/>
+      <c r="ACU88" s="48"/>
+      <c r="ACV88" s="48"/>
+      <c r="ACW88" s="48"/>
+      <c r="ACX88" s="48"/>
+      <c r="ACY88" s="48"/>
+      <c r="ACZ88" s="48"/>
+      <c r="ADA88" s="48"/>
+      <c r="ADB88" s="48"/>
+      <c r="ADC88" s="48"/>
+      <c r="ADD88" s="48"/>
+      <c r="ADE88" s="48"/>
+      <c r="ADF88" s="48"/>
+      <c r="ADG88" s="48"/>
+      <c r="ADH88" s="48"/>
+      <c r="ADI88" s="48"/>
+      <c r="ADJ88" s="48"/>
+      <c r="ADK88" s="48"/>
+      <c r="ADL88" s="48"/>
+      <c r="ADM88" s="48"/>
+      <c r="ADN88" s="48"/>
+      <c r="ADO88" s="48"/>
+      <c r="ADP88" s="48"/>
+      <c r="ADQ88" s="48"/>
+      <c r="ADR88" s="48"/>
+      <c r="ADS88" s="48"/>
+      <c r="ADT88" s="48"/>
+      <c r="ADU88" s="48"/>
+      <c r="ADV88" s="48"/>
+      <c r="ADW88" s="48"/>
+      <c r="ADX88" s="48"/>
+      <c r="ADY88" s="48"/>
+      <c r="ADZ88" s="48"/>
+      <c r="AEA88" s="48"/>
+      <c r="AEB88" s="48"/>
+      <c r="AEC88" s="48"/>
+      <c r="AED88" s="48"/>
+      <c r="AEE88" s="48"/>
+      <c r="AEF88" s="48"/>
+      <c r="AEG88" s="48"/>
+      <c r="AEH88" s="48"/>
+      <c r="AEI88" s="48"/>
+      <c r="AEJ88" s="48"/>
+      <c r="AEK88" s="48"/>
+      <c r="AEL88" s="48"/>
+      <c r="AEM88" s="48"/>
+      <c r="AEN88" s="48"/>
+      <c r="AEO88" s="48"/>
+      <c r="AEP88" s="48"/>
+      <c r="AEQ88" s="48"/>
+      <c r="AER88" s="48"/>
+      <c r="AES88" s="48"/>
+      <c r="AET88" s="48"/>
+      <c r="AEU88" s="48"/>
+      <c r="AEV88" s="48"/>
+      <c r="AEW88" s="48"/>
+      <c r="AEX88" s="48"/>
+      <c r="AEY88" s="48"/>
+      <c r="AEZ88" s="48"/>
+      <c r="AFA88" s="48"/>
+      <c r="AFB88" s="48"/>
+      <c r="AFC88" s="48"/>
+      <c r="AFD88" s="48"/>
+      <c r="AFE88" s="48"/>
+      <c r="AFF88" s="48"/>
+      <c r="AFG88" s="48"/>
+      <c r="AFH88" s="48"/>
+      <c r="AFI88" s="48"/>
+      <c r="AFJ88" s="48"/>
+      <c r="AFK88" s="48"/>
+      <c r="AFL88" s="48"/>
+      <c r="AFM88" s="48"/>
+      <c r="AFN88" s="48"/>
+      <c r="AFO88" s="48"/>
+      <c r="AFP88" s="48"/>
+      <c r="AFQ88" s="48"/>
+      <c r="AFR88" s="48"/>
+      <c r="AFS88" s="48"/>
+      <c r="AFT88" s="48"/>
+      <c r="AFU88" s="48"/>
+      <c r="AFV88" s="48"/>
+      <c r="AFW88" s="48"/>
+      <c r="AFX88" s="48"/>
+      <c r="AFY88" s="48"/>
+      <c r="AFZ88" s="48"/>
+      <c r="AGA88" s="48"/>
+      <c r="AGB88" s="48"/>
+      <c r="AGC88" s="48"/>
+      <c r="AGD88" s="48"/>
+      <c r="AGE88" s="48"/>
+      <c r="AGF88" s="48"/>
+      <c r="AGG88" s="48"/>
+      <c r="AGH88" s="48"/>
+      <c r="AGI88" s="48"/>
+      <c r="AGJ88" s="48"/>
+      <c r="AGK88" s="48"/>
+      <c r="AGL88" s="48"/>
+      <c r="AGM88" s="48"/>
+      <c r="AGN88" s="48"/>
+      <c r="AGO88" s="48"/>
+      <c r="AGP88" s="48"/>
+      <c r="AGQ88" s="48"/>
+      <c r="AGR88" s="48"/>
+      <c r="AGS88" s="48"/>
+      <c r="AGT88" s="48"/>
+      <c r="AGU88" s="48"/>
+      <c r="AGV88" s="48"/>
+      <c r="AGW88" s="48"/>
+      <c r="AGX88" s="48"/>
+      <c r="AGY88" s="48"/>
+      <c r="AGZ88" s="48"/>
+      <c r="AHA88" s="48"/>
+      <c r="AHB88" s="48"/>
+      <c r="AHC88" s="48"/>
+      <c r="AHD88" s="48"/>
+      <c r="AHE88" s="48"/>
+      <c r="AHF88" s="48"/>
+      <c r="AHG88" s="48"/>
+      <c r="AHH88" s="48"/>
+      <c r="AHI88" s="48"/>
+      <c r="AHJ88" s="48"/>
+      <c r="AHK88" s="48"/>
+      <c r="AHL88" s="48"/>
+      <c r="AHM88" s="48"/>
+      <c r="AHN88" s="48"/>
+      <c r="AHO88" s="48"/>
+      <c r="AHP88" s="48"/>
+      <c r="AHQ88" s="48"/>
+      <c r="AHR88" s="48"/>
+      <c r="AHS88" s="48"/>
+      <c r="AHT88" s="48"/>
+      <c r="AHU88" s="48"/>
+      <c r="AHV88" s="48"/>
+      <c r="AHW88" s="48"/>
+      <c r="AHX88" s="48"/>
+      <c r="AHY88" s="48"/>
+      <c r="AHZ88" s="48"/>
+      <c r="AIA88" s="48"/>
+      <c r="AIB88" s="48"/>
+      <c r="AIC88" s="48"/>
+      <c r="AID88" s="48"/>
+      <c r="AIE88" s="48"/>
+      <c r="AIF88" s="48"/>
+      <c r="AIG88" s="48"/>
+      <c r="AIH88" s="48"/>
+      <c r="AII88" s="48"/>
+      <c r="AIJ88" s="48"/>
+      <c r="AIK88" s="48"/>
+      <c r="AIL88" s="48"/>
+      <c r="AIM88" s="48"/>
+      <c r="AIN88" s="48"/>
+      <c r="AIO88" s="48"/>
+      <c r="AIP88" s="48"/>
+      <c r="AIQ88" s="48"/>
+      <c r="AIR88" s="48"/>
+      <c r="AIS88" s="48"/>
+      <c r="AIT88" s="48"/>
+      <c r="AIU88" s="48"/>
+      <c r="AIV88" s="48"/>
+      <c r="AIW88" s="48"/>
+      <c r="AIX88" s="48"/>
+      <c r="AIY88" s="48"/>
+      <c r="AIZ88" s="48"/>
+      <c r="AJA88" s="48"/>
+      <c r="AJB88" s="48"/>
+      <c r="AJC88" s="48"/>
+      <c r="AJD88" s="48"/>
+      <c r="AJE88" s="48"/>
+      <c r="AJF88" s="48"/>
+      <c r="AJG88" s="48"/>
+      <c r="AJH88" s="48"/>
+      <c r="AJI88" s="48"/>
+      <c r="AJJ88" s="48"/>
+      <c r="AJK88" s="48"/>
+      <c r="AJL88" s="48"/>
+      <c r="AJM88" s="48"/>
+      <c r="AJN88" s="48"/>
+      <c r="AJO88" s="48"/>
+      <c r="AJP88" s="48"/>
+      <c r="AJQ88" s="48"/>
+      <c r="AJR88" s="48"/>
+      <c r="AJS88" s="48"/>
+      <c r="AJT88" s="48"/>
+      <c r="AJU88" s="48"/>
+      <c r="AJV88" s="48"/>
+      <c r="AJW88" s="48"/>
+      <c r="AJX88" s="48"/>
+      <c r="AJY88" s="48"/>
+      <c r="AJZ88" s="48"/>
+      <c r="AKA88" s="48"/>
+      <c r="AKB88" s="48"/>
+      <c r="AKC88" s="48"/>
+      <c r="AKD88" s="48"/>
+      <c r="AKE88" s="48"/>
+      <c r="AKF88" s="48"/>
+      <c r="AKG88" s="48"/>
+      <c r="AKH88" s="48"/>
+      <c r="AKI88" s="48"/>
+      <c r="AKJ88" s="48"/>
+      <c r="AKK88" s="48"/>
+      <c r="AKL88" s="48"/>
+      <c r="AKM88" s="48"/>
+      <c r="AKN88" s="48"/>
+      <c r="AKO88" s="48"/>
+      <c r="AKP88" s="48"/>
+      <c r="AKQ88" s="48"/>
+      <c r="AKR88" s="48"/>
+      <c r="AKS88" s="48"/>
+      <c r="AKT88" s="48"/>
+      <c r="AKU88" s="48"/>
+      <c r="AKV88" s="48"/>
+      <c r="AKW88" s="48"/>
+      <c r="AKX88" s="48"/>
+      <c r="AKY88" s="48"/>
+      <c r="AKZ88" s="48"/>
+      <c r="ALA88" s="48"/>
+      <c r="ALB88" s="48"/>
+      <c r="ALC88" s="48"/>
+      <c r="ALD88" s="48"/>
+      <c r="ALE88" s="48"/>
+      <c r="ALF88" s="48"/>
+      <c r="ALG88" s="48"/>
+      <c r="ALH88" s="48"/>
+      <c r="ALI88" s="48"/>
+      <c r="ALJ88" s="48"/>
+      <c r="ALK88" s="48"/>
+      <c r="ALL88" s="48"/>
+      <c r="ALM88" s="48"/>
+      <c r="ALN88" s="48"/>
+      <c r="ALO88" s="48"/>
+      <c r="ALP88" s="48"/>
+      <c r="ALQ88" s="48"/>
+      <c r="ALR88" s="48"/>
+      <c r="ALS88" s="48"/>
+      <c r="ALT88" s="48"/>
+      <c r="ALU88" s="48"/>
+      <c r="ALV88" s="48"/>
+      <c r="ALW88" s="48"/>
+      <c r="ALX88" s="48"/>
+      <c r="ALY88" s="48"/>
+      <c r="ALZ88" s="48"/>
+      <c r="AMA88" s="48"/>
+      <c r="AMB88" s="48"/>
+      <c r="AMC88" s="48"/>
+      <c r="AMD88" s="48"/>
+      <c r="AME88" s="48"/>
+      <c r="AMF88" s="48"/>
+      <c r="AMG88" s="48"/>
+      <c r="AMH88" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13305" tabRatio="993"/>
+    <workbookView windowWidth="20385" windowHeight="7860" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="特征选取" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
   <si>
     <r>
       <rPr>
@@ -1333,6 +1333,96 @@
   <si>
     <t>max_depth': 15</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保留所有特征的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> baseline, 'max_depth': 15, 4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保留所有特征的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> baseline, 'max_depth': 15, 3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>province_economic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 'max_depth': 15</t>
+    </r>
+  </si>
+  <si>
+    <t>max_depth': 8 baseline</t>
+  </si>
+  <si>
+    <t>xgb.cv stratified=True</t>
+  </si>
+  <si>
+    <t>diff_action_type_time_delta 15 16 17 18 19</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
 </sst>
 </file>
 
@@ -1341,9 +1431,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1383,30 +1473,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1414,66 +1482,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1489,7 +1497,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1504,30 +1595,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1612,7 +1702,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,31 +1744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,13 +1756,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,7 +1798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,7 +1816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,31 +1834,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,49 +1876,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,6 +1893,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1830,17 +1935,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1850,15 +1951,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1878,28 +1970,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1908,142 +1998,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2227,6 +2317,9 @@
     <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2245,6 +2338,9 @@
     <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2252,6 +2348,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2569,10 +2668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH88"/>
+  <dimension ref="A1:AMH138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -7887,7 +7986,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -18123,7 +18222,7 @@
       <c r="G72" s="35">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="61" t="s">
+      <c r="H72" s="62" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="46"/>
@@ -19163,7 +19262,7 @@
       <c r="G73" s="12">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="62" t="s">
+      <c r="H73" s="63" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19229,7 +19328,7 @@
       <c r="F76" s="20">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="63">
+      <c r="G76" s="64">
         <v>0.9682</v>
       </c>
     </row>
@@ -19252,7 +19351,7 @@
       <c r="F78" s="57">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="64">
+      <c r="G78" s="65">
         <v>0.9678</v>
       </c>
     </row>
@@ -19367,1024 +19466,1024 @@
       <c r="F84" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="G84" s="65">
+      <c r="G84" s="66">
         <v>0.9686</v>
       </c>
-      <c r="H84" s="66"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
-      <c r="O84" s="67"/>
-      <c r="P84" s="67"/>
-      <c r="Q84" s="67"/>
-      <c r="R84" s="67"/>
-      <c r="S84" s="67"/>
-      <c r="T84" s="67"/>
-      <c r="U84" s="67"/>
-      <c r="V84" s="67"/>
-      <c r="W84" s="67"/>
-      <c r="X84" s="67"/>
-      <c r="Y84" s="67"/>
-      <c r="Z84" s="67"/>
-      <c r="AA84" s="67"/>
-      <c r="AB84" s="67"/>
-      <c r="AC84" s="67"/>
-      <c r="AD84" s="67"/>
-      <c r="AE84" s="67"/>
-      <c r="AF84" s="67"/>
-      <c r="AG84" s="67"/>
-      <c r="AH84" s="67"/>
-      <c r="AI84" s="67"/>
-      <c r="AJ84" s="67"/>
-      <c r="AK84" s="67"/>
-      <c r="AL84" s="67"/>
-      <c r="AM84" s="67"/>
-      <c r="AN84" s="67"/>
-      <c r="AO84" s="67"/>
-      <c r="AP84" s="67"/>
-      <c r="AQ84" s="67"/>
-      <c r="AR84" s="67"/>
-      <c r="AS84" s="67"/>
-      <c r="AT84" s="67"/>
-      <c r="AU84" s="67"/>
-      <c r="AV84" s="67"/>
-      <c r="AW84" s="67"/>
-      <c r="AX84" s="67"/>
-      <c r="AY84" s="67"/>
-      <c r="AZ84" s="67"/>
-      <c r="BA84" s="67"/>
-      <c r="BB84" s="67"/>
-      <c r="BC84" s="67"/>
-      <c r="BD84" s="67"/>
-      <c r="BE84" s="67"/>
-      <c r="BF84" s="67"/>
-      <c r="BG84" s="67"/>
-      <c r="BH84" s="67"/>
-      <c r="BI84" s="67"/>
-      <c r="BJ84" s="67"/>
-      <c r="BK84" s="67"/>
-      <c r="BL84" s="67"/>
-      <c r="BM84" s="67"/>
-      <c r="BN84" s="67"/>
-      <c r="BO84" s="67"/>
-      <c r="BP84" s="67"/>
-      <c r="BQ84" s="67"/>
-      <c r="BR84" s="67"/>
-      <c r="BS84" s="67"/>
-      <c r="BT84" s="67"/>
-      <c r="BU84" s="67"/>
-      <c r="BV84" s="67"/>
-      <c r="BW84" s="67"/>
-      <c r="BX84" s="67"/>
-      <c r="BY84" s="67"/>
-      <c r="BZ84" s="67"/>
-      <c r="CA84" s="67"/>
-      <c r="CB84" s="67"/>
-      <c r="CC84" s="67"/>
-      <c r="CD84" s="67"/>
-      <c r="CE84" s="67"/>
-      <c r="CF84" s="67"/>
-      <c r="CG84" s="67"/>
-      <c r="CH84" s="67"/>
-      <c r="CI84" s="67"/>
-      <c r="CJ84" s="67"/>
-      <c r="CK84" s="67"/>
-      <c r="CL84" s="67"/>
-      <c r="CM84" s="67"/>
-      <c r="CN84" s="67"/>
-      <c r="CO84" s="67"/>
-      <c r="CP84" s="67"/>
-      <c r="CQ84" s="67"/>
-      <c r="CR84" s="67"/>
-      <c r="CS84" s="67"/>
-      <c r="CT84" s="67"/>
-      <c r="CU84" s="67"/>
-      <c r="CV84" s="67"/>
-      <c r="CW84" s="67"/>
-      <c r="CX84" s="67"/>
-      <c r="CY84" s="67"/>
-      <c r="CZ84" s="67"/>
-      <c r="DA84" s="67"/>
-      <c r="DB84" s="67"/>
-      <c r="DC84" s="67"/>
-      <c r="DD84" s="67"/>
-      <c r="DE84" s="67"/>
-      <c r="DF84" s="67"/>
-      <c r="DG84" s="67"/>
-      <c r="DH84" s="67"/>
-      <c r="DI84" s="67"/>
-      <c r="DJ84" s="67"/>
-      <c r="DK84" s="67"/>
-      <c r="DL84" s="67"/>
-      <c r="DM84" s="67"/>
-      <c r="DN84" s="67"/>
-      <c r="DO84" s="67"/>
-      <c r="DP84" s="67"/>
-      <c r="DQ84" s="67"/>
-      <c r="DR84" s="67"/>
-      <c r="DS84" s="67"/>
-      <c r="DT84" s="67"/>
-      <c r="DU84" s="67"/>
-      <c r="DV84" s="67"/>
-      <c r="DW84" s="67"/>
-      <c r="DX84" s="67"/>
-      <c r="DY84" s="67"/>
-      <c r="DZ84" s="67"/>
-      <c r="EA84" s="67"/>
-      <c r="EB84" s="67"/>
-      <c r="EC84" s="67"/>
-      <c r="ED84" s="67"/>
-      <c r="EE84" s="67"/>
-      <c r="EF84" s="67"/>
-      <c r="EG84" s="67"/>
-      <c r="EH84" s="67"/>
-      <c r="EI84" s="67"/>
-      <c r="EJ84" s="67"/>
-      <c r="EK84" s="67"/>
-      <c r="EL84" s="67"/>
-      <c r="EM84" s="67"/>
-      <c r="EN84" s="67"/>
-      <c r="EO84" s="67"/>
-      <c r="EP84" s="67"/>
-      <c r="EQ84" s="67"/>
-      <c r="ER84" s="67"/>
-      <c r="ES84" s="67"/>
-      <c r="ET84" s="67"/>
-      <c r="EU84" s="67"/>
-      <c r="EV84" s="67"/>
-      <c r="EW84" s="67"/>
-      <c r="EX84" s="67"/>
-      <c r="EY84" s="67"/>
-      <c r="EZ84" s="67"/>
-      <c r="FA84" s="67"/>
-      <c r="FB84" s="67"/>
-      <c r="FC84" s="67"/>
-      <c r="FD84" s="67"/>
-      <c r="FE84" s="67"/>
-      <c r="FF84" s="67"/>
-      <c r="FG84" s="67"/>
-      <c r="FH84" s="67"/>
-      <c r="FI84" s="67"/>
-      <c r="FJ84" s="67"/>
-      <c r="FK84" s="67"/>
-      <c r="FL84" s="67"/>
-      <c r="FM84" s="67"/>
-      <c r="FN84" s="67"/>
-      <c r="FO84" s="67"/>
-      <c r="FP84" s="67"/>
-      <c r="FQ84" s="67"/>
-      <c r="FR84" s="67"/>
-      <c r="FS84" s="67"/>
-      <c r="FT84" s="67"/>
-      <c r="FU84" s="67"/>
-      <c r="FV84" s="67"/>
-      <c r="FW84" s="67"/>
-      <c r="FX84" s="67"/>
-      <c r="FY84" s="67"/>
-      <c r="FZ84" s="67"/>
-      <c r="GA84" s="67"/>
-      <c r="GB84" s="67"/>
-      <c r="GC84" s="67"/>
-      <c r="GD84" s="67"/>
-      <c r="GE84" s="67"/>
-      <c r="GF84" s="67"/>
-      <c r="GG84" s="67"/>
-      <c r="GH84" s="67"/>
-      <c r="GI84" s="67"/>
-      <c r="GJ84" s="67"/>
-      <c r="GK84" s="67"/>
-      <c r="GL84" s="67"/>
-      <c r="GM84" s="67"/>
-      <c r="GN84" s="67"/>
-      <c r="GO84" s="67"/>
-      <c r="GP84" s="67"/>
-      <c r="GQ84" s="67"/>
-      <c r="GR84" s="67"/>
-      <c r="GS84" s="67"/>
-      <c r="GT84" s="67"/>
-      <c r="GU84" s="67"/>
-      <c r="GV84" s="67"/>
-      <c r="GW84" s="67"/>
-      <c r="GX84" s="67"/>
-      <c r="GY84" s="67"/>
-      <c r="GZ84" s="67"/>
-      <c r="HA84" s="67"/>
-      <c r="HB84" s="67"/>
-      <c r="HC84" s="67"/>
-      <c r="HD84" s="67"/>
-      <c r="HE84" s="67"/>
-      <c r="HF84" s="67"/>
-      <c r="HG84" s="67"/>
-      <c r="HH84" s="67"/>
-      <c r="HI84" s="67"/>
-      <c r="HJ84" s="67"/>
-      <c r="HK84" s="67"/>
-      <c r="HL84" s="67"/>
-      <c r="HM84" s="67"/>
-      <c r="HN84" s="67"/>
-      <c r="HO84" s="67"/>
-      <c r="HP84" s="67"/>
-      <c r="HQ84" s="67"/>
-      <c r="HR84" s="67"/>
-      <c r="HS84" s="67"/>
-      <c r="HT84" s="67"/>
-      <c r="HU84" s="67"/>
-      <c r="HV84" s="67"/>
-      <c r="HW84" s="67"/>
-      <c r="HX84" s="67"/>
-      <c r="HY84" s="67"/>
-      <c r="HZ84" s="67"/>
-      <c r="IA84" s="67"/>
-      <c r="IB84" s="67"/>
-      <c r="IC84" s="67"/>
-      <c r="ID84" s="67"/>
-      <c r="IE84" s="67"/>
-      <c r="IF84" s="67"/>
-      <c r="IG84" s="67"/>
-      <c r="IH84" s="67"/>
-      <c r="II84" s="67"/>
-      <c r="IJ84" s="67"/>
-      <c r="IK84" s="67"/>
-      <c r="IL84" s="67"/>
-      <c r="IM84" s="67"/>
-      <c r="IN84" s="67"/>
-      <c r="IO84" s="67"/>
-      <c r="IP84" s="67"/>
-      <c r="IQ84" s="67"/>
-      <c r="IR84" s="67"/>
-      <c r="IS84" s="67"/>
-      <c r="IT84" s="67"/>
-      <c r="IU84" s="67"/>
-      <c r="IV84" s="67"/>
-      <c r="IW84" s="67"/>
-      <c r="IX84" s="67"/>
-      <c r="IY84" s="67"/>
-      <c r="IZ84" s="67"/>
-      <c r="JA84" s="67"/>
-      <c r="JB84" s="67"/>
-      <c r="JC84" s="67"/>
-      <c r="JD84" s="67"/>
-      <c r="JE84" s="67"/>
-      <c r="JF84" s="67"/>
-      <c r="JG84" s="67"/>
-      <c r="JH84" s="67"/>
-      <c r="JI84" s="67"/>
-      <c r="JJ84" s="67"/>
-      <c r="JK84" s="67"/>
-      <c r="JL84" s="67"/>
-      <c r="JM84" s="67"/>
-      <c r="JN84" s="67"/>
-      <c r="JO84" s="67"/>
-      <c r="JP84" s="67"/>
-      <c r="JQ84" s="67"/>
-      <c r="JR84" s="67"/>
-      <c r="JS84" s="67"/>
-      <c r="JT84" s="67"/>
-      <c r="JU84" s="67"/>
-      <c r="JV84" s="67"/>
-      <c r="JW84" s="67"/>
-      <c r="JX84" s="67"/>
-      <c r="JY84" s="67"/>
-      <c r="JZ84" s="67"/>
-      <c r="KA84" s="67"/>
-      <c r="KB84" s="67"/>
-      <c r="KC84" s="67"/>
-      <c r="KD84" s="67"/>
-      <c r="KE84" s="67"/>
-      <c r="KF84" s="67"/>
-      <c r="KG84" s="67"/>
-      <c r="KH84" s="67"/>
-      <c r="KI84" s="67"/>
-      <c r="KJ84" s="67"/>
-      <c r="KK84" s="67"/>
-      <c r="KL84" s="67"/>
-      <c r="KM84" s="67"/>
-      <c r="KN84" s="67"/>
-      <c r="KO84" s="67"/>
-      <c r="KP84" s="67"/>
-      <c r="KQ84" s="67"/>
-      <c r="KR84" s="67"/>
-      <c r="KS84" s="67"/>
-      <c r="KT84" s="67"/>
-      <c r="KU84" s="67"/>
-      <c r="KV84" s="67"/>
-      <c r="KW84" s="67"/>
-      <c r="KX84" s="67"/>
-      <c r="KY84" s="67"/>
-      <c r="KZ84" s="67"/>
-      <c r="LA84" s="67"/>
-      <c r="LB84" s="67"/>
-      <c r="LC84" s="67"/>
-      <c r="LD84" s="67"/>
-      <c r="LE84" s="67"/>
-      <c r="LF84" s="67"/>
-      <c r="LG84" s="67"/>
-      <c r="LH84" s="67"/>
-      <c r="LI84" s="67"/>
-      <c r="LJ84" s="67"/>
-      <c r="LK84" s="67"/>
-      <c r="LL84" s="67"/>
-      <c r="LM84" s="67"/>
-      <c r="LN84" s="67"/>
-      <c r="LO84" s="67"/>
-      <c r="LP84" s="67"/>
-      <c r="LQ84" s="67"/>
-      <c r="LR84" s="67"/>
-      <c r="LS84" s="67"/>
-      <c r="LT84" s="67"/>
-      <c r="LU84" s="67"/>
-      <c r="LV84" s="67"/>
-      <c r="LW84" s="67"/>
-      <c r="LX84" s="67"/>
-      <c r="LY84" s="67"/>
-      <c r="LZ84" s="67"/>
-      <c r="MA84" s="67"/>
-      <c r="MB84" s="67"/>
-      <c r="MC84" s="67"/>
-      <c r="MD84" s="67"/>
-      <c r="ME84" s="67"/>
-      <c r="MF84" s="67"/>
-      <c r="MG84" s="67"/>
-      <c r="MH84" s="67"/>
-      <c r="MI84" s="67"/>
-      <c r="MJ84" s="67"/>
-      <c r="MK84" s="67"/>
-      <c r="ML84" s="67"/>
-      <c r="MM84" s="67"/>
-      <c r="MN84" s="67"/>
-      <c r="MO84" s="67"/>
-      <c r="MP84" s="67"/>
-      <c r="MQ84" s="67"/>
-      <c r="MR84" s="67"/>
-      <c r="MS84" s="67"/>
-      <c r="MT84" s="67"/>
-      <c r="MU84" s="67"/>
-      <c r="MV84" s="67"/>
-      <c r="MW84" s="67"/>
-      <c r="MX84" s="67"/>
-      <c r="MY84" s="67"/>
-      <c r="MZ84" s="67"/>
-      <c r="NA84" s="67"/>
-      <c r="NB84" s="67"/>
-      <c r="NC84" s="67"/>
-      <c r="ND84" s="67"/>
-      <c r="NE84" s="67"/>
-      <c r="NF84" s="67"/>
-      <c r="NG84" s="67"/>
-      <c r="NH84" s="67"/>
-      <c r="NI84" s="67"/>
-      <c r="NJ84" s="67"/>
-      <c r="NK84" s="67"/>
-      <c r="NL84" s="67"/>
-      <c r="NM84" s="67"/>
-      <c r="NN84" s="67"/>
-      <c r="NO84" s="67"/>
-      <c r="NP84" s="67"/>
-      <c r="NQ84" s="67"/>
-      <c r="NR84" s="67"/>
-      <c r="NS84" s="67"/>
-      <c r="NT84" s="67"/>
-      <c r="NU84" s="67"/>
-      <c r="NV84" s="67"/>
-      <c r="NW84" s="67"/>
-      <c r="NX84" s="67"/>
-      <c r="NY84" s="67"/>
-      <c r="NZ84" s="67"/>
-      <c r="OA84" s="67"/>
-      <c r="OB84" s="67"/>
-      <c r="OC84" s="67"/>
-      <c r="OD84" s="67"/>
-      <c r="OE84" s="67"/>
-      <c r="OF84" s="67"/>
-      <c r="OG84" s="67"/>
-      <c r="OH84" s="67"/>
-      <c r="OI84" s="67"/>
-      <c r="OJ84" s="67"/>
-      <c r="OK84" s="67"/>
-      <c r="OL84" s="67"/>
-      <c r="OM84" s="67"/>
-      <c r="ON84" s="67"/>
-      <c r="OO84" s="67"/>
-      <c r="OP84" s="67"/>
-      <c r="OQ84" s="67"/>
-      <c r="OR84" s="67"/>
-      <c r="OS84" s="67"/>
-      <c r="OT84" s="67"/>
-      <c r="OU84" s="67"/>
-      <c r="OV84" s="67"/>
-      <c r="OW84" s="67"/>
-      <c r="OX84" s="67"/>
-      <c r="OY84" s="67"/>
-      <c r="OZ84" s="67"/>
-      <c r="PA84" s="67"/>
-      <c r="PB84" s="67"/>
-      <c r="PC84" s="67"/>
-      <c r="PD84" s="67"/>
-      <c r="PE84" s="67"/>
-      <c r="PF84" s="67"/>
-      <c r="PG84" s="67"/>
-      <c r="PH84" s="67"/>
-      <c r="PI84" s="67"/>
-      <c r="PJ84" s="67"/>
-      <c r="PK84" s="67"/>
-      <c r="PL84" s="67"/>
-      <c r="PM84" s="67"/>
-      <c r="PN84" s="67"/>
-      <c r="PO84" s="67"/>
-      <c r="PP84" s="67"/>
-      <c r="PQ84" s="67"/>
-      <c r="PR84" s="67"/>
-      <c r="PS84" s="67"/>
-      <c r="PT84" s="67"/>
-      <c r="PU84" s="67"/>
-      <c r="PV84" s="67"/>
-      <c r="PW84" s="67"/>
-      <c r="PX84" s="67"/>
-      <c r="PY84" s="67"/>
-      <c r="PZ84" s="67"/>
-      <c r="QA84" s="67"/>
-      <c r="QB84" s="67"/>
-      <c r="QC84" s="67"/>
-      <c r="QD84" s="67"/>
-      <c r="QE84" s="67"/>
-      <c r="QF84" s="67"/>
-      <c r="QG84" s="67"/>
-      <c r="QH84" s="67"/>
-      <c r="QI84" s="67"/>
-      <c r="QJ84" s="67"/>
-      <c r="QK84" s="67"/>
-      <c r="QL84" s="67"/>
-      <c r="QM84" s="67"/>
-      <c r="QN84" s="67"/>
-      <c r="QO84" s="67"/>
-      <c r="QP84" s="67"/>
-      <c r="QQ84" s="67"/>
-      <c r="QR84" s="67"/>
-      <c r="QS84" s="67"/>
-      <c r="QT84" s="67"/>
-      <c r="QU84" s="67"/>
-      <c r="QV84" s="67"/>
-      <c r="QW84" s="67"/>
-      <c r="QX84" s="67"/>
-      <c r="QY84" s="67"/>
-      <c r="QZ84" s="67"/>
-      <c r="RA84" s="67"/>
-      <c r="RB84" s="67"/>
-      <c r="RC84" s="67"/>
-      <c r="RD84" s="67"/>
-      <c r="RE84" s="67"/>
-      <c r="RF84" s="67"/>
-      <c r="RG84" s="67"/>
-      <c r="RH84" s="67"/>
-      <c r="RI84" s="67"/>
-      <c r="RJ84" s="67"/>
-      <c r="RK84" s="67"/>
-      <c r="RL84" s="67"/>
-      <c r="RM84" s="67"/>
-      <c r="RN84" s="67"/>
-      <c r="RO84" s="67"/>
-      <c r="RP84" s="67"/>
-      <c r="RQ84" s="67"/>
-      <c r="RR84" s="67"/>
-      <c r="RS84" s="67"/>
-      <c r="RT84" s="67"/>
-      <c r="RU84" s="67"/>
-      <c r="RV84" s="67"/>
-      <c r="RW84" s="67"/>
-      <c r="RX84" s="67"/>
-      <c r="RY84" s="67"/>
-      <c r="RZ84" s="67"/>
-      <c r="SA84" s="67"/>
-      <c r="SB84" s="67"/>
-      <c r="SC84" s="67"/>
-      <c r="SD84" s="67"/>
-      <c r="SE84" s="67"/>
-      <c r="SF84" s="67"/>
-      <c r="SG84" s="67"/>
-      <c r="SH84" s="67"/>
-      <c r="SI84" s="67"/>
-      <c r="SJ84" s="67"/>
-      <c r="SK84" s="67"/>
-      <c r="SL84" s="67"/>
-      <c r="SM84" s="67"/>
-      <c r="SN84" s="67"/>
-      <c r="SO84" s="67"/>
-      <c r="SP84" s="67"/>
-      <c r="SQ84" s="67"/>
-      <c r="SR84" s="67"/>
-      <c r="SS84" s="67"/>
-      <c r="ST84" s="67"/>
-      <c r="SU84" s="67"/>
-      <c r="SV84" s="67"/>
-      <c r="SW84" s="67"/>
-      <c r="SX84" s="67"/>
-      <c r="SY84" s="67"/>
-      <c r="SZ84" s="67"/>
-      <c r="TA84" s="67"/>
-      <c r="TB84" s="67"/>
-      <c r="TC84" s="67"/>
-      <c r="TD84" s="67"/>
-      <c r="TE84" s="67"/>
-      <c r="TF84" s="67"/>
-      <c r="TG84" s="67"/>
-      <c r="TH84" s="67"/>
-      <c r="TI84" s="67"/>
-      <c r="TJ84" s="67"/>
-      <c r="TK84" s="67"/>
-      <c r="TL84" s="67"/>
-      <c r="TM84" s="67"/>
-      <c r="TN84" s="67"/>
-      <c r="TO84" s="67"/>
-      <c r="TP84" s="67"/>
-      <c r="TQ84" s="67"/>
-      <c r="TR84" s="67"/>
-      <c r="TS84" s="67"/>
-      <c r="TT84" s="67"/>
-      <c r="TU84" s="67"/>
-      <c r="TV84" s="67"/>
-      <c r="TW84" s="67"/>
-      <c r="TX84" s="67"/>
-      <c r="TY84" s="67"/>
-      <c r="TZ84" s="67"/>
-      <c r="UA84" s="67"/>
-      <c r="UB84" s="67"/>
-      <c r="UC84" s="67"/>
-      <c r="UD84" s="67"/>
-      <c r="UE84" s="67"/>
-      <c r="UF84" s="67"/>
-      <c r="UG84" s="67"/>
-      <c r="UH84" s="67"/>
-      <c r="UI84" s="67"/>
-      <c r="UJ84" s="67"/>
-      <c r="UK84" s="67"/>
-      <c r="UL84" s="67"/>
-      <c r="UM84" s="67"/>
-      <c r="UN84" s="67"/>
-      <c r="UO84" s="67"/>
-      <c r="UP84" s="67"/>
-      <c r="UQ84" s="67"/>
-      <c r="UR84" s="67"/>
-      <c r="US84" s="67"/>
-      <c r="UT84" s="67"/>
-      <c r="UU84" s="67"/>
-      <c r="UV84" s="67"/>
-      <c r="UW84" s="67"/>
-      <c r="UX84" s="67"/>
-      <c r="UY84" s="67"/>
-      <c r="UZ84" s="67"/>
-      <c r="VA84" s="67"/>
-      <c r="VB84" s="67"/>
-      <c r="VC84" s="67"/>
-      <c r="VD84" s="67"/>
-      <c r="VE84" s="67"/>
-      <c r="VF84" s="67"/>
-      <c r="VG84" s="67"/>
-      <c r="VH84" s="67"/>
-      <c r="VI84" s="67"/>
-      <c r="VJ84" s="67"/>
-      <c r="VK84" s="67"/>
-      <c r="VL84" s="67"/>
-      <c r="VM84" s="67"/>
-      <c r="VN84" s="67"/>
-      <c r="VO84" s="67"/>
-      <c r="VP84" s="67"/>
-      <c r="VQ84" s="67"/>
-      <c r="VR84" s="67"/>
-      <c r="VS84" s="67"/>
-      <c r="VT84" s="67"/>
-      <c r="VU84" s="67"/>
-      <c r="VV84" s="67"/>
-      <c r="VW84" s="67"/>
-      <c r="VX84" s="67"/>
-      <c r="VY84" s="67"/>
-      <c r="VZ84" s="67"/>
-      <c r="WA84" s="67"/>
-      <c r="WB84" s="67"/>
-      <c r="WC84" s="67"/>
-      <c r="WD84" s="67"/>
-      <c r="WE84" s="67"/>
-      <c r="WF84" s="67"/>
-      <c r="WG84" s="67"/>
-      <c r="WH84" s="67"/>
-      <c r="WI84" s="67"/>
-      <c r="WJ84" s="67"/>
-      <c r="WK84" s="67"/>
-      <c r="WL84" s="67"/>
-      <c r="WM84" s="67"/>
-      <c r="WN84" s="67"/>
-      <c r="WO84" s="67"/>
-      <c r="WP84" s="67"/>
-      <c r="WQ84" s="67"/>
-      <c r="WR84" s="67"/>
-      <c r="WS84" s="67"/>
-      <c r="WT84" s="67"/>
-      <c r="WU84" s="67"/>
-      <c r="WV84" s="67"/>
-      <c r="WW84" s="67"/>
-      <c r="WX84" s="67"/>
-      <c r="WY84" s="67"/>
-      <c r="WZ84" s="67"/>
-      <c r="XA84" s="67"/>
-      <c r="XB84" s="67"/>
-      <c r="XC84" s="67"/>
-      <c r="XD84" s="67"/>
-      <c r="XE84" s="67"/>
-      <c r="XF84" s="67"/>
-      <c r="XG84" s="67"/>
-      <c r="XH84" s="67"/>
-      <c r="XI84" s="67"/>
-      <c r="XJ84" s="67"/>
-      <c r="XK84" s="67"/>
-      <c r="XL84" s="67"/>
-      <c r="XM84" s="67"/>
-      <c r="XN84" s="67"/>
-      <c r="XO84" s="67"/>
-      <c r="XP84" s="67"/>
-      <c r="XQ84" s="67"/>
-      <c r="XR84" s="67"/>
-      <c r="XS84" s="67"/>
-      <c r="XT84" s="67"/>
-      <c r="XU84" s="67"/>
-      <c r="XV84" s="67"/>
-      <c r="XW84" s="67"/>
-      <c r="XX84" s="67"/>
-      <c r="XY84" s="67"/>
-      <c r="XZ84" s="67"/>
-      <c r="YA84" s="67"/>
-      <c r="YB84" s="67"/>
-      <c r="YC84" s="67"/>
-      <c r="YD84" s="67"/>
-      <c r="YE84" s="67"/>
-      <c r="YF84" s="67"/>
-      <c r="YG84" s="67"/>
-      <c r="YH84" s="67"/>
-      <c r="YI84" s="67"/>
-      <c r="YJ84" s="67"/>
-      <c r="YK84" s="67"/>
-      <c r="YL84" s="67"/>
-      <c r="YM84" s="67"/>
-      <c r="YN84" s="67"/>
-      <c r="YO84" s="67"/>
-      <c r="YP84" s="67"/>
-      <c r="YQ84" s="67"/>
-      <c r="YR84" s="67"/>
-      <c r="YS84" s="67"/>
-      <c r="YT84" s="67"/>
-      <c r="YU84" s="67"/>
-      <c r="YV84" s="67"/>
-      <c r="YW84" s="67"/>
-      <c r="YX84" s="67"/>
-      <c r="YY84" s="67"/>
-      <c r="YZ84" s="67"/>
-      <c r="ZA84" s="67"/>
-      <c r="ZB84" s="67"/>
-      <c r="ZC84" s="67"/>
-      <c r="ZD84" s="67"/>
-      <c r="ZE84" s="67"/>
-      <c r="ZF84" s="67"/>
-      <c r="ZG84" s="67"/>
-      <c r="ZH84" s="67"/>
-      <c r="ZI84" s="67"/>
-      <c r="ZJ84" s="67"/>
-      <c r="ZK84" s="67"/>
-      <c r="ZL84" s="67"/>
-      <c r="ZM84" s="67"/>
-      <c r="ZN84" s="67"/>
-      <c r="ZO84" s="67"/>
-      <c r="ZP84" s="67"/>
-      <c r="ZQ84" s="67"/>
-      <c r="ZR84" s="67"/>
-      <c r="ZS84" s="67"/>
-      <c r="ZT84" s="67"/>
-      <c r="ZU84" s="67"/>
-      <c r="ZV84" s="67"/>
-      <c r="ZW84" s="67"/>
-      <c r="ZX84" s="67"/>
-      <c r="ZY84" s="67"/>
-      <c r="ZZ84" s="67"/>
-      <c r="AAA84" s="67"/>
-      <c r="AAB84" s="67"/>
-      <c r="AAC84" s="67"/>
-      <c r="AAD84" s="67"/>
-      <c r="AAE84" s="67"/>
-      <c r="AAF84" s="67"/>
-      <c r="AAG84" s="67"/>
-      <c r="AAH84" s="67"/>
-      <c r="AAI84" s="67"/>
-      <c r="AAJ84" s="67"/>
-      <c r="AAK84" s="67"/>
-      <c r="AAL84" s="67"/>
-      <c r="AAM84" s="67"/>
-      <c r="AAN84" s="67"/>
-      <c r="AAO84" s="67"/>
-      <c r="AAP84" s="67"/>
-      <c r="AAQ84" s="67"/>
-      <c r="AAR84" s="67"/>
-      <c r="AAS84" s="67"/>
-      <c r="AAT84" s="67"/>
-      <c r="AAU84" s="67"/>
-      <c r="AAV84" s="67"/>
-      <c r="AAW84" s="67"/>
-      <c r="AAX84" s="67"/>
-      <c r="AAY84" s="67"/>
-      <c r="AAZ84" s="67"/>
-      <c r="ABA84" s="67"/>
-      <c r="ABB84" s="67"/>
-      <c r="ABC84" s="67"/>
-      <c r="ABD84" s="67"/>
-      <c r="ABE84" s="67"/>
-      <c r="ABF84" s="67"/>
-      <c r="ABG84" s="67"/>
-      <c r="ABH84" s="67"/>
-      <c r="ABI84" s="67"/>
-      <c r="ABJ84" s="67"/>
-      <c r="ABK84" s="67"/>
-      <c r="ABL84" s="67"/>
-      <c r="ABM84" s="67"/>
-      <c r="ABN84" s="67"/>
-      <c r="ABO84" s="67"/>
-      <c r="ABP84" s="67"/>
-      <c r="ABQ84" s="67"/>
-      <c r="ABR84" s="67"/>
-      <c r="ABS84" s="67"/>
-      <c r="ABT84" s="67"/>
-      <c r="ABU84" s="67"/>
-      <c r="ABV84" s="67"/>
-      <c r="ABW84" s="67"/>
-      <c r="ABX84" s="67"/>
-      <c r="ABY84" s="67"/>
-      <c r="ABZ84" s="67"/>
-      <c r="ACA84" s="67"/>
-      <c r="ACB84" s="67"/>
-      <c r="ACC84" s="67"/>
-      <c r="ACD84" s="67"/>
-      <c r="ACE84" s="67"/>
-      <c r="ACF84" s="67"/>
-      <c r="ACG84" s="67"/>
-      <c r="ACH84" s="67"/>
-      <c r="ACI84" s="67"/>
-      <c r="ACJ84" s="67"/>
-      <c r="ACK84" s="67"/>
-      <c r="ACL84" s="67"/>
-      <c r="ACM84" s="67"/>
-      <c r="ACN84" s="67"/>
-      <c r="ACO84" s="67"/>
-      <c r="ACP84" s="67"/>
-      <c r="ACQ84" s="67"/>
-      <c r="ACR84" s="67"/>
-      <c r="ACS84" s="67"/>
-      <c r="ACT84" s="67"/>
-      <c r="ACU84" s="67"/>
-      <c r="ACV84" s="67"/>
-      <c r="ACW84" s="67"/>
-      <c r="ACX84" s="67"/>
-      <c r="ACY84" s="67"/>
-      <c r="ACZ84" s="67"/>
-      <c r="ADA84" s="67"/>
-      <c r="ADB84" s="67"/>
-      <c r="ADC84" s="67"/>
-      <c r="ADD84" s="67"/>
-      <c r="ADE84" s="67"/>
-      <c r="ADF84" s="67"/>
-      <c r="ADG84" s="67"/>
-      <c r="ADH84" s="67"/>
-      <c r="ADI84" s="67"/>
-      <c r="ADJ84" s="67"/>
-      <c r="ADK84" s="67"/>
-      <c r="ADL84" s="67"/>
-      <c r="ADM84" s="67"/>
-      <c r="ADN84" s="67"/>
-      <c r="ADO84" s="67"/>
-      <c r="ADP84" s="67"/>
-      <c r="ADQ84" s="67"/>
-      <c r="ADR84" s="67"/>
-      <c r="ADS84" s="67"/>
-      <c r="ADT84" s="67"/>
-      <c r="ADU84" s="67"/>
-      <c r="ADV84" s="67"/>
-      <c r="ADW84" s="67"/>
-      <c r="ADX84" s="67"/>
-      <c r="ADY84" s="67"/>
-      <c r="ADZ84" s="67"/>
-      <c r="AEA84" s="67"/>
-      <c r="AEB84" s="67"/>
-      <c r="AEC84" s="67"/>
-      <c r="AED84" s="67"/>
-      <c r="AEE84" s="67"/>
-      <c r="AEF84" s="67"/>
-      <c r="AEG84" s="67"/>
-      <c r="AEH84" s="67"/>
-      <c r="AEI84" s="67"/>
-      <c r="AEJ84" s="67"/>
-      <c r="AEK84" s="67"/>
-      <c r="AEL84" s="67"/>
-      <c r="AEM84" s="67"/>
-      <c r="AEN84" s="67"/>
-      <c r="AEO84" s="67"/>
-      <c r="AEP84" s="67"/>
-      <c r="AEQ84" s="67"/>
-      <c r="AER84" s="67"/>
-      <c r="AES84" s="67"/>
-      <c r="AET84" s="67"/>
-      <c r="AEU84" s="67"/>
-      <c r="AEV84" s="67"/>
-      <c r="AEW84" s="67"/>
-      <c r="AEX84" s="67"/>
-      <c r="AEY84" s="67"/>
-      <c r="AEZ84" s="67"/>
-      <c r="AFA84" s="67"/>
-      <c r="AFB84" s="67"/>
-      <c r="AFC84" s="67"/>
-      <c r="AFD84" s="67"/>
-      <c r="AFE84" s="67"/>
-      <c r="AFF84" s="67"/>
-      <c r="AFG84" s="67"/>
-      <c r="AFH84" s="67"/>
-      <c r="AFI84" s="67"/>
-      <c r="AFJ84" s="67"/>
-      <c r="AFK84" s="67"/>
-      <c r="AFL84" s="67"/>
-      <c r="AFM84" s="67"/>
-      <c r="AFN84" s="67"/>
-      <c r="AFO84" s="67"/>
-      <c r="AFP84" s="67"/>
-      <c r="AFQ84" s="67"/>
-      <c r="AFR84" s="67"/>
-      <c r="AFS84" s="67"/>
-      <c r="AFT84" s="67"/>
-      <c r="AFU84" s="67"/>
-      <c r="AFV84" s="67"/>
-      <c r="AFW84" s="67"/>
-      <c r="AFX84" s="67"/>
-      <c r="AFY84" s="67"/>
-      <c r="AFZ84" s="67"/>
-      <c r="AGA84" s="67"/>
-      <c r="AGB84" s="67"/>
-      <c r="AGC84" s="67"/>
-      <c r="AGD84" s="67"/>
-      <c r="AGE84" s="67"/>
-      <c r="AGF84" s="67"/>
-      <c r="AGG84" s="67"/>
-      <c r="AGH84" s="67"/>
-      <c r="AGI84" s="67"/>
-      <c r="AGJ84" s="67"/>
-      <c r="AGK84" s="67"/>
-      <c r="AGL84" s="67"/>
-      <c r="AGM84" s="67"/>
-      <c r="AGN84" s="67"/>
-      <c r="AGO84" s="67"/>
-      <c r="AGP84" s="67"/>
-      <c r="AGQ84" s="67"/>
-      <c r="AGR84" s="67"/>
-      <c r="AGS84" s="67"/>
-      <c r="AGT84" s="67"/>
-      <c r="AGU84" s="67"/>
-      <c r="AGV84" s="67"/>
-      <c r="AGW84" s="67"/>
-      <c r="AGX84" s="67"/>
-      <c r="AGY84" s="67"/>
-      <c r="AGZ84" s="67"/>
-      <c r="AHA84" s="67"/>
-      <c r="AHB84" s="67"/>
-      <c r="AHC84" s="67"/>
-      <c r="AHD84" s="67"/>
-      <c r="AHE84" s="67"/>
-      <c r="AHF84" s="67"/>
-      <c r="AHG84" s="67"/>
-      <c r="AHH84" s="67"/>
-      <c r="AHI84" s="67"/>
-      <c r="AHJ84" s="67"/>
-      <c r="AHK84" s="67"/>
-      <c r="AHL84" s="67"/>
-      <c r="AHM84" s="67"/>
-      <c r="AHN84" s="67"/>
-      <c r="AHO84" s="67"/>
-      <c r="AHP84" s="67"/>
-      <c r="AHQ84" s="67"/>
-      <c r="AHR84" s="67"/>
-      <c r="AHS84" s="67"/>
-      <c r="AHT84" s="67"/>
-      <c r="AHU84" s="67"/>
-      <c r="AHV84" s="67"/>
-      <c r="AHW84" s="67"/>
-      <c r="AHX84" s="67"/>
-      <c r="AHY84" s="67"/>
-      <c r="AHZ84" s="67"/>
-      <c r="AIA84" s="67"/>
-      <c r="AIB84" s="67"/>
-      <c r="AIC84" s="67"/>
-      <c r="AID84" s="67"/>
-      <c r="AIE84" s="67"/>
-      <c r="AIF84" s="67"/>
-      <c r="AIG84" s="67"/>
-      <c r="AIH84" s="67"/>
-      <c r="AII84" s="67"/>
-      <c r="AIJ84" s="67"/>
-      <c r="AIK84" s="67"/>
-      <c r="AIL84" s="67"/>
-      <c r="AIM84" s="67"/>
-      <c r="AIN84" s="67"/>
-      <c r="AIO84" s="67"/>
-      <c r="AIP84" s="67"/>
-      <c r="AIQ84" s="67"/>
-      <c r="AIR84" s="67"/>
-      <c r="AIS84" s="67"/>
-      <c r="AIT84" s="67"/>
-      <c r="AIU84" s="67"/>
-      <c r="AIV84" s="67"/>
-      <c r="AIW84" s="67"/>
-      <c r="AIX84" s="67"/>
-      <c r="AIY84" s="67"/>
-      <c r="AIZ84" s="67"/>
-      <c r="AJA84" s="67"/>
-      <c r="AJB84" s="67"/>
-      <c r="AJC84" s="67"/>
-      <c r="AJD84" s="67"/>
-      <c r="AJE84" s="67"/>
-      <c r="AJF84" s="67"/>
-      <c r="AJG84" s="67"/>
-      <c r="AJH84" s="67"/>
-      <c r="AJI84" s="67"/>
-      <c r="AJJ84" s="67"/>
-      <c r="AJK84" s="67"/>
-      <c r="AJL84" s="67"/>
-      <c r="AJM84" s="67"/>
-      <c r="AJN84" s="67"/>
-      <c r="AJO84" s="67"/>
-      <c r="AJP84" s="67"/>
-      <c r="AJQ84" s="67"/>
-      <c r="AJR84" s="67"/>
-      <c r="AJS84" s="67"/>
-      <c r="AJT84" s="67"/>
-      <c r="AJU84" s="67"/>
-      <c r="AJV84" s="67"/>
-      <c r="AJW84" s="67"/>
-      <c r="AJX84" s="67"/>
-      <c r="AJY84" s="67"/>
-      <c r="AJZ84" s="67"/>
-      <c r="AKA84" s="67"/>
-      <c r="AKB84" s="67"/>
-      <c r="AKC84" s="67"/>
-      <c r="AKD84" s="67"/>
-      <c r="AKE84" s="67"/>
-      <c r="AKF84" s="67"/>
-      <c r="AKG84" s="67"/>
-      <c r="AKH84" s="67"/>
-      <c r="AKI84" s="67"/>
-      <c r="AKJ84" s="67"/>
-      <c r="AKK84" s="67"/>
-      <c r="AKL84" s="67"/>
-      <c r="AKM84" s="67"/>
-      <c r="AKN84" s="67"/>
-      <c r="AKO84" s="67"/>
-      <c r="AKP84" s="67"/>
-      <c r="AKQ84" s="67"/>
-      <c r="AKR84" s="67"/>
-      <c r="AKS84" s="67"/>
-      <c r="AKT84" s="67"/>
-      <c r="AKU84" s="67"/>
-      <c r="AKV84" s="67"/>
-      <c r="AKW84" s="67"/>
-      <c r="AKX84" s="67"/>
-      <c r="AKY84" s="67"/>
-      <c r="AKZ84" s="67"/>
-      <c r="ALA84" s="67"/>
-      <c r="ALB84" s="67"/>
-      <c r="ALC84" s="67"/>
-      <c r="ALD84" s="67"/>
-      <c r="ALE84" s="67"/>
-      <c r="ALF84" s="67"/>
-      <c r="ALG84" s="67"/>
-      <c r="ALH84" s="67"/>
-      <c r="ALI84" s="67"/>
-      <c r="ALJ84" s="67"/>
-      <c r="ALK84" s="67"/>
-      <c r="ALL84" s="67"/>
-      <c r="ALM84" s="67"/>
-      <c r="ALN84" s="67"/>
-      <c r="ALO84" s="67"/>
-      <c r="ALP84" s="67"/>
-      <c r="ALQ84" s="67"/>
-      <c r="ALR84" s="67"/>
-      <c r="ALS84" s="67"/>
-      <c r="ALT84" s="67"/>
-      <c r="ALU84" s="67"/>
-      <c r="ALV84" s="67"/>
-      <c r="ALW84" s="67"/>
-      <c r="ALX84" s="67"/>
-      <c r="ALY84" s="67"/>
-      <c r="ALZ84" s="67"/>
-      <c r="AMA84" s="67"/>
-      <c r="AMB84" s="67"/>
-      <c r="AMC84" s="67"/>
-      <c r="AMD84" s="67"/>
-      <c r="AME84" s="67"/>
-      <c r="AMF84" s="67"/>
-      <c r="AMG84" s="67"/>
-      <c r="AMH84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="69"/>
+      <c r="P84" s="69"/>
+      <c r="Q84" s="69"/>
+      <c r="R84" s="69"/>
+      <c r="S84" s="69"/>
+      <c r="T84" s="69"/>
+      <c r="U84" s="69"/>
+      <c r="V84" s="69"/>
+      <c r="W84" s="69"/>
+      <c r="X84" s="69"/>
+      <c r="Y84" s="69"/>
+      <c r="Z84" s="69"/>
+      <c r="AA84" s="69"/>
+      <c r="AB84" s="69"/>
+      <c r="AC84" s="69"/>
+      <c r="AD84" s="69"/>
+      <c r="AE84" s="69"/>
+      <c r="AF84" s="69"/>
+      <c r="AG84" s="69"/>
+      <c r="AH84" s="69"/>
+      <c r="AI84" s="69"/>
+      <c r="AJ84" s="69"/>
+      <c r="AK84" s="69"/>
+      <c r="AL84" s="69"/>
+      <c r="AM84" s="69"/>
+      <c r="AN84" s="69"/>
+      <c r="AO84" s="69"/>
+      <c r="AP84" s="69"/>
+      <c r="AQ84" s="69"/>
+      <c r="AR84" s="69"/>
+      <c r="AS84" s="69"/>
+      <c r="AT84" s="69"/>
+      <c r="AU84" s="69"/>
+      <c r="AV84" s="69"/>
+      <c r="AW84" s="69"/>
+      <c r="AX84" s="69"/>
+      <c r="AY84" s="69"/>
+      <c r="AZ84" s="69"/>
+      <c r="BA84" s="69"/>
+      <c r="BB84" s="69"/>
+      <c r="BC84" s="69"/>
+      <c r="BD84" s="69"/>
+      <c r="BE84" s="69"/>
+      <c r="BF84" s="69"/>
+      <c r="BG84" s="69"/>
+      <c r="BH84" s="69"/>
+      <c r="BI84" s="69"/>
+      <c r="BJ84" s="69"/>
+      <c r="BK84" s="69"/>
+      <c r="BL84" s="69"/>
+      <c r="BM84" s="69"/>
+      <c r="BN84" s="69"/>
+      <c r="BO84" s="69"/>
+      <c r="BP84" s="69"/>
+      <c r="BQ84" s="69"/>
+      <c r="BR84" s="69"/>
+      <c r="BS84" s="69"/>
+      <c r="BT84" s="69"/>
+      <c r="BU84" s="69"/>
+      <c r="BV84" s="69"/>
+      <c r="BW84" s="69"/>
+      <c r="BX84" s="69"/>
+      <c r="BY84" s="69"/>
+      <c r="BZ84" s="69"/>
+      <c r="CA84" s="69"/>
+      <c r="CB84" s="69"/>
+      <c r="CC84" s="69"/>
+      <c r="CD84" s="69"/>
+      <c r="CE84" s="69"/>
+      <c r="CF84" s="69"/>
+      <c r="CG84" s="69"/>
+      <c r="CH84" s="69"/>
+      <c r="CI84" s="69"/>
+      <c r="CJ84" s="69"/>
+      <c r="CK84" s="69"/>
+      <c r="CL84" s="69"/>
+      <c r="CM84" s="69"/>
+      <c r="CN84" s="69"/>
+      <c r="CO84" s="69"/>
+      <c r="CP84" s="69"/>
+      <c r="CQ84" s="69"/>
+      <c r="CR84" s="69"/>
+      <c r="CS84" s="69"/>
+      <c r="CT84" s="69"/>
+      <c r="CU84" s="69"/>
+      <c r="CV84" s="69"/>
+      <c r="CW84" s="69"/>
+      <c r="CX84" s="69"/>
+      <c r="CY84" s="69"/>
+      <c r="CZ84" s="69"/>
+      <c r="DA84" s="69"/>
+      <c r="DB84" s="69"/>
+      <c r="DC84" s="69"/>
+      <c r="DD84" s="69"/>
+      <c r="DE84" s="69"/>
+      <c r="DF84" s="69"/>
+      <c r="DG84" s="69"/>
+      <c r="DH84" s="69"/>
+      <c r="DI84" s="69"/>
+      <c r="DJ84" s="69"/>
+      <c r="DK84" s="69"/>
+      <c r="DL84" s="69"/>
+      <c r="DM84" s="69"/>
+      <c r="DN84" s="69"/>
+      <c r="DO84" s="69"/>
+      <c r="DP84" s="69"/>
+      <c r="DQ84" s="69"/>
+      <c r="DR84" s="69"/>
+      <c r="DS84" s="69"/>
+      <c r="DT84" s="69"/>
+      <c r="DU84" s="69"/>
+      <c r="DV84" s="69"/>
+      <c r="DW84" s="69"/>
+      <c r="DX84" s="69"/>
+      <c r="DY84" s="69"/>
+      <c r="DZ84" s="69"/>
+      <c r="EA84" s="69"/>
+      <c r="EB84" s="69"/>
+      <c r="EC84" s="69"/>
+      <c r="ED84" s="69"/>
+      <c r="EE84" s="69"/>
+      <c r="EF84" s="69"/>
+      <c r="EG84" s="69"/>
+      <c r="EH84" s="69"/>
+      <c r="EI84" s="69"/>
+      <c r="EJ84" s="69"/>
+      <c r="EK84" s="69"/>
+      <c r="EL84" s="69"/>
+      <c r="EM84" s="69"/>
+      <c r="EN84" s="69"/>
+      <c r="EO84" s="69"/>
+      <c r="EP84" s="69"/>
+      <c r="EQ84" s="69"/>
+      <c r="ER84" s="69"/>
+      <c r="ES84" s="69"/>
+      <c r="ET84" s="69"/>
+      <c r="EU84" s="69"/>
+      <c r="EV84" s="69"/>
+      <c r="EW84" s="69"/>
+      <c r="EX84" s="69"/>
+      <c r="EY84" s="69"/>
+      <c r="EZ84" s="69"/>
+      <c r="FA84" s="69"/>
+      <c r="FB84" s="69"/>
+      <c r="FC84" s="69"/>
+      <c r="FD84" s="69"/>
+      <c r="FE84" s="69"/>
+      <c r="FF84" s="69"/>
+      <c r="FG84" s="69"/>
+      <c r="FH84" s="69"/>
+      <c r="FI84" s="69"/>
+      <c r="FJ84" s="69"/>
+      <c r="FK84" s="69"/>
+      <c r="FL84" s="69"/>
+      <c r="FM84" s="69"/>
+      <c r="FN84" s="69"/>
+      <c r="FO84" s="69"/>
+      <c r="FP84" s="69"/>
+      <c r="FQ84" s="69"/>
+      <c r="FR84" s="69"/>
+      <c r="FS84" s="69"/>
+      <c r="FT84" s="69"/>
+      <c r="FU84" s="69"/>
+      <c r="FV84" s="69"/>
+      <c r="FW84" s="69"/>
+      <c r="FX84" s="69"/>
+      <c r="FY84" s="69"/>
+      <c r="FZ84" s="69"/>
+      <c r="GA84" s="69"/>
+      <c r="GB84" s="69"/>
+      <c r="GC84" s="69"/>
+      <c r="GD84" s="69"/>
+      <c r="GE84" s="69"/>
+      <c r="GF84" s="69"/>
+      <c r="GG84" s="69"/>
+      <c r="GH84" s="69"/>
+      <c r="GI84" s="69"/>
+      <c r="GJ84" s="69"/>
+      <c r="GK84" s="69"/>
+      <c r="GL84" s="69"/>
+      <c r="GM84" s="69"/>
+      <c r="GN84" s="69"/>
+      <c r="GO84" s="69"/>
+      <c r="GP84" s="69"/>
+      <c r="GQ84" s="69"/>
+      <c r="GR84" s="69"/>
+      <c r="GS84" s="69"/>
+      <c r="GT84" s="69"/>
+      <c r="GU84" s="69"/>
+      <c r="GV84" s="69"/>
+      <c r="GW84" s="69"/>
+      <c r="GX84" s="69"/>
+      <c r="GY84" s="69"/>
+      <c r="GZ84" s="69"/>
+      <c r="HA84" s="69"/>
+      <c r="HB84" s="69"/>
+      <c r="HC84" s="69"/>
+      <c r="HD84" s="69"/>
+      <c r="HE84" s="69"/>
+      <c r="HF84" s="69"/>
+      <c r="HG84" s="69"/>
+      <c r="HH84" s="69"/>
+      <c r="HI84" s="69"/>
+      <c r="HJ84" s="69"/>
+      <c r="HK84" s="69"/>
+      <c r="HL84" s="69"/>
+      <c r="HM84" s="69"/>
+      <c r="HN84" s="69"/>
+      <c r="HO84" s="69"/>
+      <c r="HP84" s="69"/>
+      <c r="HQ84" s="69"/>
+      <c r="HR84" s="69"/>
+      <c r="HS84" s="69"/>
+      <c r="HT84" s="69"/>
+      <c r="HU84" s="69"/>
+      <c r="HV84" s="69"/>
+      <c r="HW84" s="69"/>
+      <c r="HX84" s="69"/>
+      <c r="HY84" s="69"/>
+      <c r="HZ84" s="69"/>
+      <c r="IA84" s="69"/>
+      <c r="IB84" s="69"/>
+      <c r="IC84" s="69"/>
+      <c r="ID84" s="69"/>
+      <c r="IE84" s="69"/>
+      <c r="IF84" s="69"/>
+      <c r="IG84" s="69"/>
+      <c r="IH84" s="69"/>
+      <c r="II84" s="69"/>
+      <c r="IJ84" s="69"/>
+      <c r="IK84" s="69"/>
+      <c r="IL84" s="69"/>
+      <c r="IM84" s="69"/>
+      <c r="IN84" s="69"/>
+      <c r="IO84" s="69"/>
+      <c r="IP84" s="69"/>
+      <c r="IQ84" s="69"/>
+      <c r="IR84" s="69"/>
+      <c r="IS84" s="69"/>
+      <c r="IT84" s="69"/>
+      <c r="IU84" s="69"/>
+      <c r="IV84" s="69"/>
+      <c r="IW84" s="69"/>
+      <c r="IX84" s="69"/>
+      <c r="IY84" s="69"/>
+      <c r="IZ84" s="69"/>
+      <c r="JA84" s="69"/>
+      <c r="JB84" s="69"/>
+      <c r="JC84" s="69"/>
+      <c r="JD84" s="69"/>
+      <c r="JE84" s="69"/>
+      <c r="JF84" s="69"/>
+      <c r="JG84" s="69"/>
+      <c r="JH84" s="69"/>
+      <c r="JI84" s="69"/>
+      <c r="JJ84" s="69"/>
+      <c r="JK84" s="69"/>
+      <c r="JL84" s="69"/>
+      <c r="JM84" s="69"/>
+      <c r="JN84" s="69"/>
+      <c r="JO84" s="69"/>
+      <c r="JP84" s="69"/>
+      <c r="JQ84" s="69"/>
+      <c r="JR84" s="69"/>
+      <c r="JS84" s="69"/>
+      <c r="JT84" s="69"/>
+      <c r="JU84" s="69"/>
+      <c r="JV84" s="69"/>
+      <c r="JW84" s="69"/>
+      <c r="JX84" s="69"/>
+      <c r="JY84" s="69"/>
+      <c r="JZ84" s="69"/>
+      <c r="KA84" s="69"/>
+      <c r="KB84" s="69"/>
+      <c r="KC84" s="69"/>
+      <c r="KD84" s="69"/>
+      <c r="KE84" s="69"/>
+      <c r="KF84" s="69"/>
+      <c r="KG84" s="69"/>
+      <c r="KH84" s="69"/>
+      <c r="KI84" s="69"/>
+      <c r="KJ84" s="69"/>
+      <c r="KK84" s="69"/>
+      <c r="KL84" s="69"/>
+      <c r="KM84" s="69"/>
+      <c r="KN84" s="69"/>
+      <c r="KO84" s="69"/>
+      <c r="KP84" s="69"/>
+      <c r="KQ84" s="69"/>
+      <c r="KR84" s="69"/>
+      <c r="KS84" s="69"/>
+      <c r="KT84" s="69"/>
+      <c r="KU84" s="69"/>
+      <c r="KV84" s="69"/>
+      <c r="KW84" s="69"/>
+      <c r="KX84" s="69"/>
+      <c r="KY84" s="69"/>
+      <c r="KZ84" s="69"/>
+      <c r="LA84" s="69"/>
+      <c r="LB84" s="69"/>
+      <c r="LC84" s="69"/>
+      <c r="LD84" s="69"/>
+      <c r="LE84" s="69"/>
+      <c r="LF84" s="69"/>
+      <c r="LG84" s="69"/>
+      <c r="LH84" s="69"/>
+      <c r="LI84" s="69"/>
+      <c r="LJ84" s="69"/>
+      <c r="LK84" s="69"/>
+      <c r="LL84" s="69"/>
+      <c r="LM84" s="69"/>
+      <c r="LN84" s="69"/>
+      <c r="LO84" s="69"/>
+      <c r="LP84" s="69"/>
+      <c r="LQ84" s="69"/>
+      <c r="LR84" s="69"/>
+      <c r="LS84" s="69"/>
+      <c r="LT84" s="69"/>
+      <c r="LU84" s="69"/>
+      <c r="LV84" s="69"/>
+      <c r="LW84" s="69"/>
+      <c r="LX84" s="69"/>
+      <c r="LY84" s="69"/>
+      <c r="LZ84" s="69"/>
+      <c r="MA84" s="69"/>
+      <c r="MB84" s="69"/>
+      <c r="MC84" s="69"/>
+      <c r="MD84" s="69"/>
+      <c r="ME84" s="69"/>
+      <c r="MF84" s="69"/>
+      <c r="MG84" s="69"/>
+      <c r="MH84" s="69"/>
+      <c r="MI84" s="69"/>
+      <c r="MJ84" s="69"/>
+      <c r="MK84" s="69"/>
+      <c r="ML84" s="69"/>
+      <c r="MM84" s="69"/>
+      <c r="MN84" s="69"/>
+      <c r="MO84" s="69"/>
+      <c r="MP84" s="69"/>
+      <c r="MQ84" s="69"/>
+      <c r="MR84" s="69"/>
+      <c r="MS84" s="69"/>
+      <c r="MT84" s="69"/>
+      <c r="MU84" s="69"/>
+      <c r="MV84" s="69"/>
+      <c r="MW84" s="69"/>
+      <c r="MX84" s="69"/>
+      <c r="MY84" s="69"/>
+      <c r="MZ84" s="69"/>
+      <c r="NA84" s="69"/>
+      <c r="NB84" s="69"/>
+      <c r="NC84" s="69"/>
+      <c r="ND84" s="69"/>
+      <c r="NE84" s="69"/>
+      <c r="NF84" s="69"/>
+      <c r="NG84" s="69"/>
+      <c r="NH84" s="69"/>
+      <c r="NI84" s="69"/>
+      <c r="NJ84" s="69"/>
+      <c r="NK84" s="69"/>
+      <c r="NL84" s="69"/>
+      <c r="NM84" s="69"/>
+      <c r="NN84" s="69"/>
+      <c r="NO84" s="69"/>
+      <c r="NP84" s="69"/>
+      <c r="NQ84" s="69"/>
+      <c r="NR84" s="69"/>
+      <c r="NS84" s="69"/>
+      <c r="NT84" s="69"/>
+      <c r="NU84" s="69"/>
+      <c r="NV84" s="69"/>
+      <c r="NW84" s="69"/>
+      <c r="NX84" s="69"/>
+      <c r="NY84" s="69"/>
+      <c r="NZ84" s="69"/>
+      <c r="OA84" s="69"/>
+      <c r="OB84" s="69"/>
+      <c r="OC84" s="69"/>
+      <c r="OD84" s="69"/>
+      <c r="OE84" s="69"/>
+      <c r="OF84" s="69"/>
+      <c r="OG84" s="69"/>
+      <c r="OH84" s="69"/>
+      <c r="OI84" s="69"/>
+      <c r="OJ84" s="69"/>
+      <c r="OK84" s="69"/>
+      <c r="OL84" s="69"/>
+      <c r="OM84" s="69"/>
+      <c r="ON84" s="69"/>
+      <c r="OO84" s="69"/>
+      <c r="OP84" s="69"/>
+      <c r="OQ84" s="69"/>
+      <c r="OR84" s="69"/>
+      <c r="OS84" s="69"/>
+      <c r="OT84" s="69"/>
+      <c r="OU84" s="69"/>
+      <c r="OV84" s="69"/>
+      <c r="OW84" s="69"/>
+      <c r="OX84" s="69"/>
+      <c r="OY84" s="69"/>
+      <c r="OZ84" s="69"/>
+      <c r="PA84" s="69"/>
+      <c r="PB84" s="69"/>
+      <c r="PC84" s="69"/>
+      <c r="PD84" s="69"/>
+      <c r="PE84" s="69"/>
+      <c r="PF84" s="69"/>
+      <c r="PG84" s="69"/>
+      <c r="PH84" s="69"/>
+      <c r="PI84" s="69"/>
+      <c r="PJ84" s="69"/>
+      <c r="PK84" s="69"/>
+      <c r="PL84" s="69"/>
+      <c r="PM84" s="69"/>
+      <c r="PN84" s="69"/>
+      <c r="PO84" s="69"/>
+      <c r="PP84" s="69"/>
+      <c r="PQ84" s="69"/>
+      <c r="PR84" s="69"/>
+      <c r="PS84" s="69"/>
+      <c r="PT84" s="69"/>
+      <c r="PU84" s="69"/>
+      <c r="PV84" s="69"/>
+      <c r="PW84" s="69"/>
+      <c r="PX84" s="69"/>
+      <c r="PY84" s="69"/>
+      <c r="PZ84" s="69"/>
+      <c r="QA84" s="69"/>
+      <c r="QB84" s="69"/>
+      <c r="QC84" s="69"/>
+      <c r="QD84" s="69"/>
+      <c r="QE84" s="69"/>
+      <c r="QF84" s="69"/>
+      <c r="QG84" s="69"/>
+      <c r="QH84" s="69"/>
+      <c r="QI84" s="69"/>
+      <c r="QJ84" s="69"/>
+      <c r="QK84" s="69"/>
+      <c r="QL84" s="69"/>
+      <c r="QM84" s="69"/>
+      <c r="QN84" s="69"/>
+      <c r="QO84" s="69"/>
+      <c r="QP84" s="69"/>
+      <c r="QQ84" s="69"/>
+      <c r="QR84" s="69"/>
+      <c r="QS84" s="69"/>
+      <c r="QT84" s="69"/>
+      <c r="QU84" s="69"/>
+      <c r="QV84" s="69"/>
+      <c r="QW84" s="69"/>
+      <c r="QX84" s="69"/>
+      <c r="QY84" s="69"/>
+      <c r="QZ84" s="69"/>
+      <c r="RA84" s="69"/>
+      <c r="RB84" s="69"/>
+      <c r="RC84" s="69"/>
+      <c r="RD84" s="69"/>
+      <c r="RE84" s="69"/>
+      <c r="RF84" s="69"/>
+      <c r="RG84" s="69"/>
+      <c r="RH84" s="69"/>
+      <c r="RI84" s="69"/>
+      <c r="RJ84" s="69"/>
+      <c r="RK84" s="69"/>
+      <c r="RL84" s="69"/>
+      <c r="RM84" s="69"/>
+      <c r="RN84" s="69"/>
+      <c r="RO84" s="69"/>
+      <c r="RP84" s="69"/>
+      <c r="RQ84" s="69"/>
+      <c r="RR84" s="69"/>
+      <c r="RS84" s="69"/>
+      <c r="RT84" s="69"/>
+      <c r="RU84" s="69"/>
+      <c r="RV84" s="69"/>
+      <c r="RW84" s="69"/>
+      <c r="RX84" s="69"/>
+      <c r="RY84" s="69"/>
+      <c r="RZ84" s="69"/>
+      <c r="SA84" s="69"/>
+      <c r="SB84" s="69"/>
+      <c r="SC84" s="69"/>
+      <c r="SD84" s="69"/>
+      <c r="SE84" s="69"/>
+      <c r="SF84" s="69"/>
+      <c r="SG84" s="69"/>
+      <c r="SH84" s="69"/>
+      <c r="SI84" s="69"/>
+      <c r="SJ84" s="69"/>
+      <c r="SK84" s="69"/>
+      <c r="SL84" s="69"/>
+      <c r="SM84" s="69"/>
+      <c r="SN84" s="69"/>
+      <c r="SO84" s="69"/>
+      <c r="SP84" s="69"/>
+      <c r="SQ84" s="69"/>
+      <c r="SR84" s="69"/>
+      <c r="SS84" s="69"/>
+      <c r="ST84" s="69"/>
+      <c r="SU84" s="69"/>
+      <c r="SV84" s="69"/>
+      <c r="SW84" s="69"/>
+      <c r="SX84" s="69"/>
+      <c r="SY84" s="69"/>
+      <c r="SZ84" s="69"/>
+      <c r="TA84" s="69"/>
+      <c r="TB84" s="69"/>
+      <c r="TC84" s="69"/>
+      <c r="TD84" s="69"/>
+      <c r="TE84" s="69"/>
+      <c r="TF84" s="69"/>
+      <c r="TG84" s="69"/>
+      <c r="TH84" s="69"/>
+      <c r="TI84" s="69"/>
+      <c r="TJ84" s="69"/>
+      <c r="TK84" s="69"/>
+      <c r="TL84" s="69"/>
+      <c r="TM84" s="69"/>
+      <c r="TN84" s="69"/>
+      <c r="TO84" s="69"/>
+      <c r="TP84" s="69"/>
+      <c r="TQ84" s="69"/>
+      <c r="TR84" s="69"/>
+      <c r="TS84" s="69"/>
+      <c r="TT84" s="69"/>
+      <c r="TU84" s="69"/>
+      <c r="TV84" s="69"/>
+      <c r="TW84" s="69"/>
+      <c r="TX84" s="69"/>
+      <c r="TY84" s="69"/>
+      <c r="TZ84" s="69"/>
+      <c r="UA84" s="69"/>
+      <c r="UB84" s="69"/>
+      <c r="UC84" s="69"/>
+      <c r="UD84" s="69"/>
+      <c r="UE84" s="69"/>
+      <c r="UF84" s="69"/>
+      <c r="UG84" s="69"/>
+      <c r="UH84" s="69"/>
+      <c r="UI84" s="69"/>
+      <c r="UJ84" s="69"/>
+      <c r="UK84" s="69"/>
+      <c r="UL84" s="69"/>
+      <c r="UM84" s="69"/>
+      <c r="UN84" s="69"/>
+      <c r="UO84" s="69"/>
+      <c r="UP84" s="69"/>
+      <c r="UQ84" s="69"/>
+      <c r="UR84" s="69"/>
+      <c r="US84" s="69"/>
+      <c r="UT84" s="69"/>
+      <c r="UU84" s="69"/>
+      <c r="UV84" s="69"/>
+      <c r="UW84" s="69"/>
+      <c r="UX84" s="69"/>
+      <c r="UY84" s="69"/>
+      <c r="UZ84" s="69"/>
+      <c r="VA84" s="69"/>
+      <c r="VB84" s="69"/>
+      <c r="VC84" s="69"/>
+      <c r="VD84" s="69"/>
+      <c r="VE84" s="69"/>
+      <c r="VF84" s="69"/>
+      <c r="VG84" s="69"/>
+      <c r="VH84" s="69"/>
+      <c r="VI84" s="69"/>
+      <c r="VJ84" s="69"/>
+      <c r="VK84" s="69"/>
+      <c r="VL84" s="69"/>
+      <c r="VM84" s="69"/>
+      <c r="VN84" s="69"/>
+      <c r="VO84" s="69"/>
+      <c r="VP84" s="69"/>
+      <c r="VQ84" s="69"/>
+      <c r="VR84" s="69"/>
+      <c r="VS84" s="69"/>
+      <c r="VT84" s="69"/>
+      <c r="VU84" s="69"/>
+      <c r="VV84" s="69"/>
+      <c r="VW84" s="69"/>
+      <c r="VX84" s="69"/>
+      <c r="VY84" s="69"/>
+      <c r="VZ84" s="69"/>
+      <c r="WA84" s="69"/>
+      <c r="WB84" s="69"/>
+      <c r="WC84" s="69"/>
+      <c r="WD84" s="69"/>
+      <c r="WE84" s="69"/>
+      <c r="WF84" s="69"/>
+      <c r="WG84" s="69"/>
+      <c r="WH84" s="69"/>
+      <c r="WI84" s="69"/>
+      <c r="WJ84" s="69"/>
+      <c r="WK84" s="69"/>
+      <c r="WL84" s="69"/>
+      <c r="WM84" s="69"/>
+      <c r="WN84" s="69"/>
+      <c r="WO84" s="69"/>
+      <c r="WP84" s="69"/>
+      <c r="WQ84" s="69"/>
+      <c r="WR84" s="69"/>
+      <c r="WS84" s="69"/>
+      <c r="WT84" s="69"/>
+      <c r="WU84" s="69"/>
+      <c r="WV84" s="69"/>
+      <c r="WW84" s="69"/>
+      <c r="WX84" s="69"/>
+      <c r="WY84" s="69"/>
+      <c r="WZ84" s="69"/>
+      <c r="XA84" s="69"/>
+      <c r="XB84" s="69"/>
+      <c r="XC84" s="69"/>
+      <c r="XD84" s="69"/>
+      <c r="XE84" s="69"/>
+      <c r="XF84" s="69"/>
+      <c r="XG84" s="69"/>
+      <c r="XH84" s="69"/>
+      <c r="XI84" s="69"/>
+      <c r="XJ84" s="69"/>
+      <c r="XK84" s="69"/>
+      <c r="XL84" s="69"/>
+      <c r="XM84" s="69"/>
+      <c r="XN84" s="69"/>
+      <c r="XO84" s="69"/>
+      <c r="XP84" s="69"/>
+      <c r="XQ84" s="69"/>
+      <c r="XR84" s="69"/>
+      <c r="XS84" s="69"/>
+      <c r="XT84" s="69"/>
+      <c r="XU84" s="69"/>
+      <c r="XV84" s="69"/>
+      <c r="XW84" s="69"/>
+      <c r="XX84" s="69"/>
+      <c r="XY84" s="69"/>
+      <c r="XZ84" s="69"/>
+      <c r="YA84" s="69"/>
+      <c r="YB84" s="69"/>
+      <c r="YC84" s="69"/>
+      <c r="YD84" s="69"/>
+      <c r="YE84" s="69"/>
+      <c r="YF84" s="69"/>
+      <c r="YG84" s="69"/>
+      <c r="YH84" s="69"/>
+      <c r="YI84" s="69"/>
+      <c r="YJ84" s="69"/>
+      <c r="YK84" s="69"/>
+      <c r="YL84" s="69"/>
+      <c r="YM84" s="69"/>
+      <c r="YN84" s="69"/>
+      <c r="YO84" s="69"/>
+      <c r="YP84" s="69"/>
+      <c r="YQ84" s="69"/>
+      <c r="YR84" s="69"/>
+      <c r="YS84" s="69"/>
+      <c r="YT84" s="69"/>
+      <c r="YU84" s="69"/>
+      <c r="YV84" s="69"/>
+      <c r="YW84" s="69"/>
+      <c r="YX84" s="69"/>
+      <c r="YY84" s="69"/>
+      <c r="YZ84" s="69"/>
+      <c r="ZA84" s="69"/>
+      <c r="ZB84" s="69"/>
+      <c r="ZC84" s="69"/>
+      <c r="ZD84" s="69"/>
+      <c r="ZE84" s="69"/>
+      <c r="ZF84" s="69"/>
+      <c r="ZG84" s="69"/>
+      <c r="ZH84" s="69"/>
+      <c r="ZI84" s="69"/>
+      <c r="ZJ84" s="69"/>
+      <c r="ZK84" s="69"/>
+      <c r="ZL84" s="69"/>
+      <c r="ZM84" s="69"/>
+      <c r="ZN84" s="69"/>
+      <c r="ZO84" s="69"/>
+      <c r="ZP84" s="69"/>
+      <c r="ZQ84" s="69"/>
+      <c r="ZR84" s="69"/>
+      <c r="ZS84" s="69"/>
+      <c r="ZT84" s="69"/>
+      <c r="ZU84" s="69"/>
+      <c r="ZV84" s="69"/>
+      <c r="ZW84" s="69"/>
+      <c r="ZX84" s="69"/>
+      <c r="ZY84" s="69"/>
+      <c r="ZZ84" s="69"/>
+      <c r="AAA84" s="69"/>
+      <c r="AAB84" s="69"/>
+      <c r="AAC84" s="69"/>
+      <c r="AAD84" s="69"/>
+      <c r="AAE84" s="69"/>
+      <c r="AAF84" s="69"/>
+      <c r="AAG84" s="69"/>
+      <c r="AAH84" s="69"/>
+      <c r="AAI84" s="69"/>
+      <c r="AAJ84" s="69"/>
+      <c r="AAK84" s="69"/>
+      <c r="AAL84" s="69"/>
+      <c r="AAM84" s="69"/>
+      <c r="AAN84" s="69"/>
+      <c r="AAO84" s="69"/>
+      <c r="AAP84" s="69"/>
+      <c r="AAQ84" s="69"/>
+      <c r="AAR84" s="69"/>
+      <c r="AAS84" s="69"/>
+      <c r="AAT84" s="69"/>
+      <c r="AAU84" s="69"/>
+      <c r="AAV84" s="69"/>
+      <c r="AAW84" s="69"/>
+      <c r="AAX84" s="69"/>
+      <c r="AAY84" s="69"/>
+      <c r="AAZ84" s="69"/>
+      <c r="ABA84" s="69"/>
+      <c r="ABB84" s="69"/>
+      <c r="ABC84" s="69"/>
+      <c r="ABD84" s="69"/>
+      <c r="ABE84" s="69"/>
+      <c r="ABF84" s="69"/>
+      <c r="ABG84" s="69"/>
+      <c r="ABH84" s="69"/>
+      <c r="ABI84" s="69"/>
+      <c r="ABJ84" s="69"/>
+      <c r="ABK84" s="69"/>
+      <c r="ABL84" s="69"/>
+      <c r="ABM84" s="69"/>
+      <c r="ABN84" s="69"/>
+      <c r="ABO84" s="69"/>
+      <c r="ABP84" s="69"/>
+      <c r="ABQ84" s="69"/>
+      <c r="ABR84" s="69"/>
+      <c r="ABS84" s="69"/>
+      <c r="ABT84" s="69"/>
+      <c r="ABU84" s="69"/>
+      <c r="ABV84" s="69"/>
+      <c r="ABW84" s="69"/>
+      <c r="ABX84" s="69"/>
+      <c r="ABY84" s="69"/>
+      <c r="ABZ84" s="69"/>
+      <c r="ACA84" s="69"/>
+      <c r="ACB84" s="69"/>
+      <c r="ACC84" s="69"/>
+      <c r="ACD84" s="69"/>
+      <c r="ACE84" s="69"/>
+      <c r="ACF84" s="69"/>
+      <c r="ACG84" s="69"/>
+      <c r="ACH84" s="69"/>
+      <c r="ACI84" s="69"/>
+      <c r="ACJ84" s="69"/>
+      <c r="ACK84" s="69"/>
+      <c r="ACL84" s="69"/>
+      <c r="ACM84" s="69"/>
+      <c r="ACN84" s="69"/>
+      <c r="ACO84" s="69"/>
+      <c r="ACP84" s="69"/>
+      <c r="ACQ84" s="69"/>
+      <c r="ACR84" s="69"/>
+      <c r="ACS84" s="69"/>
+      <c r="ACT84" s="69"/>
+      <c r="ACU84" s="69"/>
+      <c r="ACV84" s="69"/>
+      <c r="ACW84" s="69"/>
+      <c r="ACX84" s="69"/>
+      <c r="ACY84" s="69"/>
+      <c r="ACZ84" s="69"/>
+      <c r="ADA84" s="69"/>
+      <c r="ADB84" s="69"/>
+      <c r="ADC84" s="69"/>
+      <c r="ADD84" s="69"/>
+      <c r="ADE84" s="69"/>
+      <c r="ADF84" s="69"/>
+      <c r="ADG84" s="69"/>
+      <c r="ADH84" s="69"/>
+      <c r="ADI84" s="69"/>
+      <c r="ADJ84" s="69"/>
+      <c r="ADK84" s="69"/>
+      <c r="ADL84" s="69"/>
+      <c r="ADM84" s="69"/>
+      <c r="ADN84" s="69"/>
+      <c r="ADO84" s="69"/>
+      <c r="ADP84" s="69"/>
+      <c r="ADQ84" s="69"/>
+      <c r="ADR84" s="69"/>
+      <c r="ADS84" s="69"/>
+      <c r="ADT84" s="69"/>
+      <c r="ADU84" s="69"/>
+      <c r="ADV84" s="69"/>
+      <c r="ADW84" s="69"/>
+      <c r="ADX84" s="69"/>
+      <c r="ADY84" s="69"/>
+      <c r="ADZ84" s="69"/>
+      <c r="AEA84" s="69"/>
+      <c r="AEB84" s="69"/>
+      <c r="AEC84" s="69"/>
+      <c r="AED84" s="69"/>
+      <c r="AEE84" s="69"/>
+      <c r="AEF84" s="69"/>
+      <c r="AEG84" s="69"/>
+      <c r="AEH84" s="69"/>
+      <c r="AEI84" s="69"/>
+      <c r="AEJ84" s="69"/>
+      <c r="AEK84" s="69"/>
+      <c r="AEL84" s="69"/>
+      <c r="AEM84" s="69"/>
+      <c r="AEN84" s="69"/>
+      <c r="AEO84" s="69"/>
+      <c r="AEP84" s="69"/>
+      <c r="AEQ84" s="69"/>
+      <c r="AER84" s="69"/>
+      <c r="AES84" s="69"/>
+      <c r="AET84" s="69"/>
+      <c r="AEU84" s="69"/>
+      <c r="AEV84" s="69"/>
+      <c r="AEW84" s="69"/>
+      <c r="AEX84" s="69"/>
+      <c r="AEY84" s="69"/>
+      <c r="AEZ84" s="69"/>
+      <c r="AFA84" s="69"/>
+      <c r="AFB84" s="69"/>
+      <c r="AFC84" s="69"/>
+      <c r="AFD84" s="69"/>
+      <c r="AFE84" s="69"/>
+      <c r="AFF84" s="69"/>
+      <c r="AFG84" s="69"/>
+      <c r="AFH84" s="69"/>
+      <c r="AFI84" s="69"/>
+      <c r="AFJ84" s="69"/>
+      <c r="AFK84" s="69"/>
+      <c r="AFL84" s="69"/>
+      <c r="AFM84" s="69"/>
+      <c r="AFN84" s="69"/>
+      <c r="AFO84" s="69"/>
+      <c r="AFP84" s="69"/>
+      <c r="AFQ84" s="69"/>
+      <c r="AFR84" s="69"/>
+      <c r="AFS84" s="69"/>
+      <c r="AFT84" s="69"/>
+      <c r="AFU84" s="69"/>
+      <c r="AFV84" s="69"/>
+      <c r="AFW84" s="69"/>
+      <c r="AFX84" s="69"/>
+      <c r="AFY84" s="69"/>
+      <c r="AFZ84" s="69"/>
+      <c r="AGA84" s="69"/>
+      <c r="AGB84" s="69"/>
+      <c r="AGC84" s="69"/>
+      <c r="AGD84" s="69"/>
+      <c r="AGE84" s="69"/>
+      <c r="AGF84" s="69"/>
+      <c r="AGG84" s="69"/>
+      <c r="AGH84" s="69"/>
+      <c r="AGI84" s="69"/>
+      <c r="AGJ84" s="69"/>
+      <c r="AGK84" s="69"/>
+      <c r="AGL84" s="69"/>
+      <c r="AGM84" s="69"/>
+      <c r="AGN84" s="69"/>
+      <c r="AGO84" s="69"/>
+      <c r="AGP84" s="69"/>
+      <c r="AGQ84" s="69"/>
+      <c r="AGR84" s="69"/>
+      <c r="AGS84" s="69"/>
+      <c r="AGT84" s="69"/>
+      <c r="AGU84" s="69"/>
+      <c r="AGV84" s="69"/>
+      <c r="AGW84" s="69"/>
+      <c r="AGX84" s="69"/>
+      <c r="AGY84" s="69"/>
+      <c r="AGZ84" s="69"/>
+      <c r="AHA84" s="69"/>
+      <c r="AHB84" s="69"/>
+      <c r="AHC84" s="69"/>
+      <c r="AHD84" s="69"/>
+      <c r="AHE84" s="69"/>
+      <c r="AHF84" s="69"/>
+      <c r="AHG84" s="69"/>
+      <c r="AHH84" s="69"/>
+      <c r="AHI84" s="69"/>
+      <c r="AHJ84" s="69"/>
+      <c r="AHK84" s="69"/>
+      <c r="AHL84" s="69"/>
+      <c r="AHM84" s="69"/>
+      <c r="AHN84" s="69"/>
+      <c r="AHO84" s="69"/>
+      <c r="AHP84" s="69"/>
+      <c r="AHQ84" s="69"/>
+      <c r="AHR84" s="69"/>
+      <c r="AHS84" s="69"/>
+      <c r="AHT84" s="69"/>
+      <c r="AHU84" s="69"/>
+      <c r="AHV84" s="69"/>
+      <c r="AHW84" s="69"/>
+      <c r="AHX84" s="69"/>
+      <c r="AHY84" s="69"/>
+      <c r="AHZ84" s="69"/>
+      <c r="AIA84" s="69"/>
+      <c r="AIB84" s="69"/>
+      <c r="AIC84" s="69"/>
+      <c r="AID84" s="69"/>
+      <c r="AIE84" s="69"/>
+      <c r="AIF84" s="69"/>
+      <c r="AIG84" s="69"/>
+      <c r="AIH84" s="69"/>
+      <c r="AII84" s="69"/>
+      <c r="AIJ84" s="69"/>
+      <c r="AIK84" s="69"/>
+      <c r="AIL84" s="69"/>
+      <c r="AIM84" s="69"/>
+      <c r="AIN84" s="69"/>
+      <c r="AIO84" s="69"/>
+      <c r="AIP84" s="69"/>
+      <c r="AIQ84" s="69"/>
+      <c r="AIR84" s="69"/>
+      <c r="AIS84" s="69"/>
+      <c r="AIT84" s="69"/>
+      <c r="AIU84" s="69"/>
+      <c r="AIV84" s="69"/>
+      <c r="AIW84" s="69"/>
+      <c r="AIX84" s="69"/>
+      <c r="AIY84" s="69"/>
+      <c r="AIZ84" s="69"/>
+      <c r="AJA84" s="69"/>
+      <c r="AJB84" s="69"/>
+      <c r="AJC84" s="69"/>
+      <c r="AJD84" s="69"/>
+      <c r="AJE84" s="69"/>
+      <c r="AJF84" s="69"/>
+      <c r="AJG84" s="69"/>
+      <c r="AJH84" s="69"/>
+      <c r="AJI84" s="69"/>
+      <c r="AJJ84" s="69"/>
+      <c r="AJK84" s="69"/>
+      <c r="AJL84" s="69"/>
+      <c r="AJM84" s="69"/>
+      <c r="AJN84" s="69"/>
+      <c r="AJO84" s="69"/>
+      <c r="AJP84" s="69"/>
+      <c r="AJQ84" s="69"/>
+      <c r="AJR84" s="69"/>
+      <c r="AJS84" s="69"/>
+      <c r="AJT84" s="69"/>
+      <c r="AJU84" s="69"/>
+      <c r="AJV84" s="69"/>
+      <c r="AJW84" s="69"/>
+      <c r="AJX84" s="69"/>
+      <c r="AJY84" s="69"/>
+      <c r="AJZ84" s="69"/>
+      <c r="AKA84" s="69"/>
+      <c r="AKB84" s="69"/>
+      <c r="AKC84" s="69"/>
+      <c r="AKD84" s="69"/>
+      <c r="AKE84" s="69"/>
+      <c r="AKF84" s="69"/>
+      <c r="AKG84" s="69"/>
+      <c r="AKH84" s="69"/>
+      <c r="AKI84" s="69"/>
+      <c r="AKJ84" s="69"/>
+      <c r="AKK84" s="69"/>
+      <c r="AKL84" s="69"/>
+      <c r="AKM84" s="69"/>
+      <c r="AKN84" s="69"/>
+      <c r="AKO84" s="69"/>
+      <c r="AKP84" s="69"/>
+      <c r="AKQ84" s="69"/>
+      <c r="AKR84" s="69"/>
+      <c r="AKS84" s="69"/>
+      <c r="AKT84" s="69"/>
+      <c r="AKU84" s="69"/>
+      <c r="AKV84" s="69"/>
+      <c r="AKW84" s="69"/>
+      <c r="AKX84" s="69"/>
+      <c r="AKY84" s="69"/>
+      <c r="AKZ84" s="69"/>
+      <c r="ALA84" s="69"/>
+      <c r="ALB84" s="69"/>
+      <c r="ALC84" s="69"/>
+      <c r="ALD84" s="69"/>
+      <c r="ALE84" s="69"/>
+      <c r="ALF84" s="69"/>
+      <c r="ALG84" s="69"/>
+      <c r="ALH84" s="69"/>
+      <c r="ALI84" s="69"/>
+      <c r="ALJ84" s="69"/>
+      <c r="ALK84" s="69"/>
+      <c r="ALL84" s="69"/>
+      <c r="ALM84" s="69"/>
+      <c r="ALN84" s="69"/>
+      <c r="ALO84" s="69"/>
+      <c r="ALP84" s="69"/>
+      <c r="ALQ84" s="69"/>
+      <c r="ALR84" s="69"/>
+      <c r="ALS84" s="69"/>
+      <c r="ALT84" s="69"/>
+      <c r="ALU84" s="69"/>
+      <c r="ALV84" s="69"/>
+      <c r="ALW84" s="69"/>
+      <c r="ALX84" s="69"/>
+      <c r="ALY84" s="69"/>
+      <c r="ALZ84" s="69"/>
+      <c r="AMA84" s="69"/>
+      <c r="AMB84" s="69"/>
+      <c r="AMC84" s="69"/>
+      <c r="AMD84" s="69"/>
+      <c r="AME84" s="69"/>
+      <c r="AMF84" s="69"/>
+      <c r="AMG84" s="69"/>
+      <c r="AMH84" s="69"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -20447,7 +20546,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="69" t="s">
+      <c r="A88" s="71" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -21484,6 +21583,2315 @@
       <c r="AMG88" s="48"/>
       <c r="AMH88" s="48"/>
     </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" s="10">
+        <v>0.9980711</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0.9679211</v>
+      </c>
+      <c r="G89" s="12">
+        <v>0.9683</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="12" spans="1:1022">
+      <c r="A93" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="14"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="14"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="14"/>
+      <c r="Y93" s="14"/>
+      <c r="Z93" s="14"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="14"/>
+      <c r="AC93" s="14"/>
+      <c r="AD93" s="14"/>
+      <c r="AE93" s="14"/>
+      <c r="AF93" s="14"/>
+      <c r="AG93" s="14"/>
+      <c r="AH93" s="14"/>
+      <c r="AI93" s="14"/>
+      <c r="AJ93" s="14"/>
+      <c r="AK93" s="14"/>
+      <c r="AL93" s="14"/>
+      <c r="AM93" s="14"/>
+      <c r="AN93" s="14"/>
+      <c r="AO93" s="14"/>
+      <c r="AP93" s="14"/>
+      <c r="AQ93" s="14"/>
+      <c r="AR93" s="14"/>
+      <c r="AS93" s="14"/>
+      <c r="AT93" s="14"/>
+      <c r="AU93" s="14"/>
+      <c r="AV93" s="14"/>
+      <c r="AW93" s="14"/>
+      <c r="AX93" s="14"/>
+      <c r="AY93" s="14"/>
+      <c r="AZ93" s="14"/>
+      <c r="BA93" s="14"/>
+      <c r="BB93" s="14"/>
+      <c r="BC93" s="14"/>
+      <c r="BD93" s="14"/>
+      <c r="BE93" s="14"/>
+      <c r="BF93" s="14"/>
+      <c r="BG93" s="14"/>
+      <c r="BH93" s="14"/>
+      <c r="BI93" s="14"/>
+      <c r="BJ93" s="14"/>
+      <c r="BK93" s="14"/>
+      <c r="BL93" s="14"/>
+      <c r="BM93" s="14"/>
+      <c r="BN93" s="14"/>
+      <c r="BO93" s="14"/>
+      <c r="BP93" s="14"/>
+      <c r="BQ93" s="14"/>
+      <c r="BR93" s="14"/>
+      <c r="BS93" s="14"/>
+      <c r="BT93" s="14"/>
+      <c r="BU93" s="14"/>
+      <c r="BV93" s="14"/>
+      <c r="BW93" s="14"/>
+      <c r="BX93" s="14"/>
+      <c r="BY93" s="14"/>
+      <c r="BZ93" s="14"/>
+      <c r="CA93" s="14"/>
+      <c r="CB93" s="14"/>
+      <c r="CC93" s="14"/>
+      <c r="CD93" s="14"/>
+      <c r="CE93" s="14"/>
+      <c r="CF93" s="14"/>
+      <c r="CG93" s="14"/>
+      <c r="CH93" s="14"/>
+      <c r="CI93" s="14"/>
+      <c r="CJ93" s="14"/>
+      <c r="CK93" s="14"/>
+      <c r="CL93" s="14"/>
+      <c r="CM93" s="14"/>
+      <c r="CN93" s="14"/>
+      <c r="CO93" s="14"/>
+      <c r="CP93" s="14"/>
+      <c r="CQ93" s="14"/>
+      <c r="CR93" s="14"/>
+      <c r="CS93" s="14"/>
+      <c r="CT93" s="14"/>
+      <c r="CU93" s="14"/>
+      <c r="CV93" s="14"/>
+      <c r="CW93" s="14"/>
+      <c r="CX93" s="14"/>
+      <c r="CY93" s="14"/>
+      <c r="CZ93" s="14"/>
+      <c r="DA93" s="14"/>
+      <c r="DB93" s="14"/>
+      <c r="DC93" s="14"/>
+      <c r="DD93" s="14"/>
+      <c r="DE93" s="14"/>
+      <c r="DF93" s="14"/>
+      <c r="DG93" s="14"/>
+      <c r="DH93" s="14"/>
+      <c r="DI93" s="14"/>
+      <c r="DJ93" s="14"/>
+      <c r="DK93" s="14"/>
+      <c r="DL93" s="14"/>
+      <c r="DM93" s="14"/>
+      <c r="DN93" s="14"/>
+      <c r="DO93" s="14"/>
+      <c r="DP93" s="14"/>
+      <c r="DQ93" s="14"/>
+      <c r="DR93" s="14"/>
+      <c r="DS93" s="14"/>
+      <c r="DT93" s="14"/>
+      <c r="DU93" s="14"/>
+      <c r="DV93" s="14"/>
+      <c r="DW93" s="14"/>
+      <c r="DX93" s="14"/>
+      <c r="DY93" s="14"/>
+      <c r="DZ93" s="14"/>
+      <c r="EA93" s="14"/>
+      <c r="EB93" s="14"/>
+      <c r="EC93" s="14"/>
+      <c r="ED93" s="14"/>
+      <c r="EE93" s="14"/>
+      <c r="EF93" s="14"/>
+      <c r="EG93" s="14"/>
+      <c r="EH93" s="14"/>
+      <c r="EI93" s="14"/>
+      <c r="EJ93" s="14"/>
+      <c r="EK93" s="14"/>
+      <c r="EL93" s="14"/>
+      <c r="EM93" s="14"/>
+      <c r="EN93" s="14"/>
+      <c r="EO93" s="14"/>
+      <c r="EP93" s="14"/>
+      <c r="EQ93" s="14"/>
+      <c r="ER93" s="14"/>
+      <c r="ES93" s="14"/>
+      <c r="ET93" s="14"/>
+      <c r="EU93" s="14"/>
+      <c r="EV93" s="14"/>
+      <c r="EW93" s="14"/>
+      <c r="EX93" s="14"/>
+      <c r="EY93" s="14"/>
+      <c r="EZ93" s="14"/>
+      <c r="FA93" s="14"/>
+      <c r="FB93" s="14"/>
+      <c r="FC93" s="14"/>
+      <c r="FD93" s="14"/>
+      <c r="FE93" s="14"/>
+      <c r="FF93" s="14"/>
+      <c r="FG93" s="14"/>
+      <c r="FH93" s="14"/>
+      <c r="FI93" s="14"/>
+      <c r="FJ93" s="14"/>
+      <c r="FK93" s="14"/>
+      <c r="FL93" s="14"/>
+      <c r="FM93" s="14"/>
+      <c r="FN93" s="14"/>
+      <c r="FO93" s="14"/>
+      <c r="FP93" s="14"/>
+      <c r="FQ93" s="14"/>
+      <c r="FR93" s="14"/>
+      <c r="FS93" s="14"/>
+      <c r="FT93" s="14"/>
+      <c r="FU93" s="14"/>
+      <c r="FV93" s="14"/>
+      <c r="FW93" s="14"/>
+      <c r="FX93" s="14"/>
+      <c r="FY93" s="14"/>
+      <c r="FZ93" s="14"/>
+      <c r="GA93" s="14"/>
+      <c r="GB93" s="14"/>
+      <c r="GC93" s="14"/>
+      <c r="GD93" s="14"/>
+      <c r="GE93" s="14"/>
+      <c r="GF93" s="14"/>
+      <c r="GG93" s="14"/>
+      <c r="GH93" s="14"/>
+      <c r="GI93" s="14"/>
+      <c r="GJ93" s="14"/>
+      <c r="GK93" s="14"/>
+      <c r="GL93" s="14"/>
+      <c r="GM93" s="14"/>
+      <c r="GN93" s="14"/>
+      <c r="GO93" s="14"/>
+      <c r="GP93" s="14"/>
+      <c r="GQ93" s="14"/>
+      <c r="GR93" s="14"/>
+      <c r="GS93" s="14"/>
+      <c r="GT93" s="14"/>
+      <c r="GU93" s="14"/>
+      <c r="GV93" s="14"/>
+      <c r="GW93" s="14"/>
+      <c r="GX93" s="14"/>
+      <c r="GY93" s="14"/>
+      <c r="GZ93" s="14"/>
+      <c r="HA93" s="14"/>
+      <c r="HB93" s="14"/>
+      <c r="HC93" s="14"/>
+      <c r="HD93" s="14"/>
+      <c r="HE93" s="14"/>
+      <c r="HF93" s="14"/>
+      <c r="HG93" s="14"/>
+      <c r="HH93" s="14"/>
+      <c r="HI93" s="14"/>
+      <c r="HJ93" s="14"/>
+      <c r="HK93" s="14"/>
+      <c r="HL93" s="14"/>
+      <c r="HM93" s="14"/>
+      <c r="HN93" s="14"/>
+      <c r="HO93" s="14"/>
+      <c r="HP93" s="14"/>
+      <c r="HQ93" s="14"/>
+      <c r="HR93" s="14"/>
+      <c r="HS93" s="14"/>
+      <c r="HT93" s="14"/>
+      <c r="HU93" s="14"/>
+      <c r="HV93" s="14"/>
+      <c r="HW93" s="14"/>
+      <c r="HX93" s="14"/>
+      <c r="HY93" s="14"/>
+      <c r="HZ93" s="14"/>
+      <c r="IA93" s="14"/>
+      <c r="IB93" s="14"/>
+      <c r="IC93" s="14"/>
+      <c r="ID93" s="14"/>
+      <c r="IE93" s="14"/>
+      <c r="IF93" s="14"/>
+      <c r="IG93" s="14"/>
+      <c r="IH93" s="14"/>
+      <c r="II93" s="14"/>
+      <c r="IJ93" s="14"/>
+      <c r="IK93" s="14"/>
+      <c r="IL93" s="14"/>
+      <c r="IM93" s="14"/>
+      <c r="IN93" s="14"/>
+      <c r="IO93" s="14"/>
+      <c r="IP93" s="14"/>
+      <c r="IQ93" s="14"/>
+      <c r="IR93" s="14"/>
+      <c r="IS93" s="14"/>
+      <c r="IT93" s="14"/>
+      <c r="IU93" s="14"/>
+      <c r="IV93" s="14"/>
+      <c r="IW93" s="14"/>
+      <c r="IX93" s="14"/>
+      <c r="IY93" s="14"/>
+      <c r="IZ93" s="14"/>
+      <c r="JA93" s="14"/>
+      <c r="JB93" s="14"/>
+      <c r="JC93" s="14"/>
+      <c r="JD93" s="14"/>
+      <c r="JE93" s="14"/>
+      <c r="JF93" s="14"/>
+      <c r="JG93" s="14"/>
+      <c r="JH93" s="14"/>
+      <c r="JI93" s="14"/>
+      <c r="JJ93" s="14"/>
+      <c r="JK93" s="14"/>
+      <c r="JL93" s="14"/>
+      <c r="JM93" s="14"/>
+      <c r="JN93" s="14"/>
+      <c r="JO93" s="14"/>
+      <c r="JP93" s="14"/>
+      <c r="JQ93" s="14"/>
+      <c r="JR93" s="14"/>
+      <c r="JS93" s="14"/>
+      <c r="JT93" s="14"/>
+      <c r="JU93" s="14"/>
+      <c r="JV93" s="14"/>
+      <c r="JW93" s="14"/>
+      <c r="JX93" s="14"/>
+      <c r="JY93" s="14"/>
+      <c r="JZ93" s="14"/>
+      <c r="KA93" s="14"/>
+      <c r="KB93" s="14"/>
+      <c r="KC93" s="14"/>
+      <c r="KD93" s="14"/>
+      <c r="KE93" s="14"/>
+      <c r="KF93" s="14"/>
+      <c r="KG93" s="14"/>
+      <c r="KH93" s="14"/>
+      <c r="KI93" s="14"/>
+      <c r="KJ93" s="14"/>
+      <c r="KK93" s="14"/>
+      <c r="KL93" s="14"/>
+      <c r="KM93" s="14"/>
+      <c r="KN93" s="14"/>
+      <c r="KO93" s="14"/>
+      <c r="KP93" s="14"/>
+      <c r="KQ93" s="14"/>
+      <c r="KR93" s="14"/>
+      <c r="KS93" s="14"/>
+      <c r="KT93" s="14"/>
+      <c r="KU93" s="14"/>
+      <c r="KV93" s="14"/>
+      <c r="KW93" s="14"/>
+      <c r="KX93" s="14"/>
+      <c r="KY93" s="14"/>
+      <c r="KZ93" s="14"/>
+      <c r="LA93" s="14"/>
+      <c r="LB93" s="14"/>
+      <c r="LC93" s="14"/>
+      <c r="LD93" s="14"/>
+      <c r="LE93" s="14"/>
+      <c r="LF93" s="14"/>
+      <c r="LG93" s="14"/>
+      <c r="LH93" s="14"/>
+      <c r="LI93" s="14"/>
+      <c r="LJ93" s="14"/>
+      <c r="LK93" s="14"/>
+      <c r="LL93" s="14"/>
+      <c r="LM93" s="14"/>
+      <c r="LN93" s="14"/>
+      <c r="LO93" s="14"/>
+      <c r="LP93" s="14"/>
+      <c r="LQ93" s="14"/>
+      <c r="LR93" s="14"/>
+      <c r="LS93" s="14"/>
+      <c r="LT93" s="14"/>
+      <c r="LU93" s="14"/>
+      <c r="LV93" s="14"/>
+      <c r="LW93" s="14"/>
+      <c r="LX93" s="14"/>
+      <c r="LY93" s="14"/>
+      <c r="LZ93" s="14"/>
+      <c r="MA93" s="14"/>
+      <c r="MB93" s="14"/>
+      <c r="MC93" s="14"/>
+      <c r="MD93" s="14"/>
+      <c r="ME93" s="14"/>
+      <c r="MF93" s="14"/>
+      <c r="MG93" s="14"/>
+      <c r="MH93" s="14"/>
+      <c r="MI93" s="14"/>
+      <c r="MJ93" s="14"/>
+      <c r="MK93" s="14"/>
+      <c r="ML93" s="14"/>
+      <c r="MM93" s="14"/>
+      <c r="MN93" s="14"/>
+      <c r="MO93" s="14"/>
+      <c r="MP93" s="14"/>
+      <c r="MQ93" s="14"/>
+      <c r="MR93" s="14"/>
+      <c r="MS93" s="14"/>
+      <c r="MT93" s="14"/>
+      <c r="MU93" s="14"/>
+      <c r="MV93" s="14"/>
+      <c r="MW93" s="14"/>
+      <c r="MX93" s="14"/>
+      <c r="MY93" s="14"/>
+      <c r="MZ93" s="14"/>
+      <c r="NA93" s="14"/>
+      <c r="NB93" s="14"/>
+      <c r="NC93" s="14"/>
+      <c r="ND93" s="14"/>
+      <c r="NE93" s="14"/>
+      <c r="NF93" s="14"/>
+      <c r="NG93" s="14"/>
+      <c r="NH93" s="14"/>
+      <c r="NI93" s="14"/>
+      <c r="NJ93" s="14"/>
+      <c r="NK93" s="14"/>
+      <c r="NL93" s="14"/>
+      <c r="NM93" s="14"/>
+      <c r="NN93" s="14"/>
+      <c r="NO93" s="14"/>
+      <c r="NP93" s="14"/>
+      <c r="NQ93" s="14"/>
+      <c r="NR93" s="14"/>
+      <c r="NS93" s="14"/>
+      <c r="NT93" s="14"/>
+      <c r="NU93" s="14"/>
+      <c r="NV93" s="14"/>
+      <c r="NW93" s="14"/>
+      <c r="NX93" s="14"/>
+      <c r="NY93" s="14"/>
+      <c r="NZ93" s="14"/>
+      <c r="OA93" s="14"/>
+      <c r="OB93" s="14"/>
+      <c r="OC93" s="14"/>
+      <c r="OD93" s="14"/>
+      <c r="OE93" s="14"/>
+      <c r="OF93" s="14"/>
+      <c r="OG93" s="14"/>
+      <c r="OH93" s="14"/>
+      <c r="OI93" s="14"/>
+      <c r="OJ93" s="14"/>
+      <c r="OK93" s="14"/>
+      <c r="OL93" s="14"/>
+      <c r="OM93" s="14"/>
+      <c r="ON93" s="14"/>
+      <c r="OO93" s="14"/>
+      <c r="OP93" s="14"/>
+      <c r="OQ93" s="14"/>
+      <c r="OR93" s="14"/>
+      <c r="OS93" s="14"/>
+      <c r="OT93" s="14"/>
+      <c r="OU93" s="14"/>
+      <c r="OV93" s="14"/>
+      <c r="OW93" s="14"/>
+      <c r="OX93" s="14"/>
+      <c r="OY93" s="14"/>
+      <c r="OZ93" s="14"/>
+      <c r="PA93" s="14"/>
+      <c r="PB93" s="14"/>
+      <c r="PC93" s="14"/>
+      <c r="PD93" s="14"/>
+      <c r="PE93" s="14"/>
+      <c r="PF93" s="14"/>
+      <c r="PG93" s="14"/>
+      <c r="PH93" s="14"/>
+      <c r="PI93" s="14"/>
+      <c r="PJ93" s="14"/>
+      <c r="PK93" s="14"/>
+      <c r="PL93" s="14"/>
+      <c r="PM93" s="14"/>
+      <c r="PN93" s="14"/>
+      <c r="PO93" s="14"/>
+      <c r="PP93" s="14"/>
+      <c r="PQ93" s="14"/>
+      <c r="PR93" s="14"/>
+      <c r="PS93" s="14"/>
+      <c r="PT93" s="14"/>
+      <c r="PU93" s="14"/>
+      <c r="PV93" s="14"/>
+      <c r="PW93" s="14"/>
+      <c r="PX93" s="14"/>
+      <c r="PY93" s="14"/>
+      <c r="PZ93" s="14"/>
+      <c r="QA93" s="14"/>
+      <c r="QB93" s="14"/>
+      <c r="QC93" s="14"/>
+      <c r="QD93" s="14"/>
+      <c r="QE93" s="14"/>
+      <c r="QF93" s="14"/>
+      <c r="QG93" s="14"/>
+      <c r="QH93" s="14"/>
+      <c r="QI93" s="14"/>
+      <c r="QJ93" s="14"/>
+      <c r="QK93" s="14"/>
+      <c r="QL93" s="14"/>
+      <c r="QM93" s="14"/>
+      <c r="QN93" s="14"/>
+      <c r="QO93" s="14"/>
+      <c r="QP93" s="14"/>
+      <c r="QQ93" s="14"/>
+      <c r="QR93" s="14"/>
+      <c r="QS93" s="14"/>
+      <c r="QT93" s="14"/>
+      <c r="QU93" s="14"/>
+      <c r="QV93" s="14"/>
+      <c r="QW93" s="14"/>
+      <c r="QX93" s="14"/>
+      <c r="QY93" s="14"/>
+      <c r="QZ93" s="14"/>
+      <c r="RA93" s="14"/>
+      <c r="RB93" s="14"/>
+      <c r="RC93" s="14"/>
+      <c r="RD93" s="14"/>
+      <c r="RE93" s="14"/>
+      <c r="RF93" s="14"/>
+      <c r="RG93" s="14"/>
+      <c r="RH93" s="14"/>
+      <c r="RI93" s="14"/>
+      <c r="RJ93" s="14"/>
+      <c r="RK93" s="14"/>
+      <c r="RL93" s="14"/>
+      <c r="RM93" s="14"/>
+      <c r="RN93" s="14"/>
+      <c r="RO93" s="14"/>
+      <c r="RP93" s="14"/>
+      <c r="RQ93" s="14"/>
+      <c r="RR93" s="14"/>
+      <c r="RS93" s="14"/>
+      <c r="RT93" s="14"/>
+      <c r="RU93" s="14"/>
+      <c r="RV93" s="14"/>
+      <c r="RW93" s="14"/>
+      <c r="RX93" s="14"/>
+      <c r="RY93" s="14"/>
+      <c r="RZ93" s="14"/>
+      <c r="SA93" s="14"/>
+      <c r="SB93" s="14"/>
+      <c r="SC93" s="14"/>
+      <c r="SD93" s="14"/>
+      <c r="SE93" s="14"/>
+      <c r="SF93" s="14"/>
+      <c r="SG93" s="14"/>
+      <c r="SH93" s="14"/>
+      <c r="SI93" s="14"/>
+      <c r="SJ93" s="14"/>
+      <c r="SK93" s="14"/>
+      <c r="SL93" s="14"/>
+      <c r="SM93" s="14"/>
+      <c r="SN93" s="14"/>
+      <c r="SO93" s="14"/>
+      <c r="SP93" s="14"/>
+      <c r="SQ93" s="14"/>
+      <c r="SR93" s="14"/>
+      <c r="SS93" s="14"/>
+      <c r="ST93" s="14"/>
+      <c r="SU93" s="14"/>
+      <c r="SV93" s="14"/>
+      <c r="SW93" s="14"/>
+      <c r="SX93" s="14"/>
+      <c r="SY93" s="14"/>
+      <c r="SZ93" s="14"/>
+      <c r="TA93" s="14"/>
+      <c r="TB93" s="14"/>
+      <c r="TC93" s="14"/>
+      <c r="TD93" s="14"/>
+      <c r="TE93" s="14"/>
+      <c r="TF93" s="14"/>
+      <c r="TG93" s="14"/>
+      <c r="TH93" s="14"/>
+      <c r="TI93" s="14"/>
+      <c r="TJ93" s="14"/>
+      <c r="TK93" s="14"/>
+      <c r="TL93" s="14"/>
+      <c r="TM93" s="14"/>
+      <c r="TN93" s="14"/>
+      <c r="TO93" s="14"/>
+      <c r="TP93" s="14"/>
+      <c r="TQ93" s="14"/>
+      <c r="TR93" s="14"/>
+      <c r="TS93" s="14"/>
+      <c r="TT93" s="14"/>
+      <c r="TU93" s="14"/>
+      <c r="TV93" s="14"/>
+      <c r="TW93" s="14"/>
+      <c r="TX93" s="14"/>
+      <c r="TY93" s="14"/>
+      <c r="TZ93" s="14"/>
+      <c r="UA93" s="14"/>
+      <c r="UB93" s="14"/>
+      <c r="UC93" s="14"/>
+      <c r="UD93" s="14"/>
+      <c r="UE93" s="14"/>
+      <c r="UF93" s="14"/>
+      <c r="UG93" s="14"/>
+      <c r="UH93" s="14"/>
+      <c r="UI93" s="14"/>
+      <c r="UJ93" s="14"/>
+      <c r="UK93" s="14"/>
+      <c r="UL93" s="14"/>
+      <c r="UM93" s="14"/>
+      <c r="UN93" s="14"/>
+      <c r="UO93" s="14"/>
+      <c r="UP93" s="14"/>
+      <c r="UQ93" s="14"/>
+      <c r="UR93" s="14"/>
+      <c r="US93" s="14"/>
+      <c r="UT93" s="14"/>
+      <c r="UU93" s="14"/>
+      <c r="UV93" s="14"/>
+      <c r="UW93" s="14"/>
+      <c r="UX93" s="14"/>
+      <c r="UY93" s="14"/>
+      <c r="UZ93" s="14"/>
+      <c r="VA93" s="14"/>
+      <c r="VB93" s="14"/>
+      <c r="VC93" s="14"/>
+      <c r="VD93" s="14"/>
+      <c r="VE93" s="14"/>
+      <c r="VF93" s="14"/>
+      <c r="VG93" s="14"/>
+      <c r="VH93" s="14"/>
+      <c r="VI93" s="14"/>
+      <c r="VJ93" s="14"/>
+      <c r="VK93" s="14"/>
+      <c r="VL93" s="14"/>
+      <c r="VM93" s="14"/>
+      <c r="VN93" s="14"/>
+      <c r="VO93" s="14"/>
+      <c r="VP93" s="14"/>
+      <c r="VQ93" s="14"/>
+      <c r="VR93" s="14"/>
+      <c r="VS93" s="14"/>
+      <c r="VT93" s="14"/>
+      <c r="VU93" s="14"/>
+      <c r="VV93" s="14"/>
+      <c r="VW93" s="14"/>
+      <c r="VX93" s="14"/>
+      <c r="VY93" s="14"/>
+      <c r="VZ93" s="14"/>
+      <c r="WA93" s="14"/>
+      <c r="WB93" s="14"/>
+      <c r="WC93" s="14"/>
+      <c r="WD93" s="14"/>
+      <c r="WE93" s="14"/>
+      <c r="WF93" s="14"/>
+      <c r="WG93" s="14"/>
+      <c r="WH93" s="14"/>
+      <c r="WI93" s="14"/>
+      <c r="WJ93" s="14"/>
+      <c r="WK93" s="14"/>
+      <c r="WL93" s="14"/>
+      <c r="WM93" s="14"/>
+      <c r="WN93" s="14"/>
+      <c r="WO93" s="14"/>
+      <c r="WP93" s="14"/>
+      <c r="WQ93" s="14"/>
+      <c r="WR93" s="14"/>
+      <c r="WS93" s="14"/>
+      <c r="WT93" s="14"/>
+      <c r="WU93" s="14"/>
+      <c r="WV93" s="14"/>
+      <c r="WW93" s="14"/>
+      <c r="WX93" s="14"/>
+      <c r="WY93" s="14"/>
+      <c r="WZ93" s="14"/>
+      <c r="XA93" s="14"/>
+      <c r="XB93" s="14"/>
+      <c r="XC93" s="14"/>
+      <c r="XD93" s="14"/>
+      <c r="XE93" s="14"/>
+      <c r="XF93" s="14"/>
+      <c r="XG93" s="14"/>
+      <c r="XH93" s="14"/>
+      <c r="XI93" s="14"/>
+      <c r="XJ93" s="14"/>
+      <c r="XK93" s="14"/>
+      <c r="XL93" s="14"/>
+      <c r="XM93" s="14"/>
+      <c r="XN93" s="14"/>
+      <c r="XO93" s="14"/>
+      <c r="XP93" s="14"/>
+      <c r="XQ93" s="14"/>
+      <c r="XR93" s="14"/>
+      <c r="XS93" s="14"/>
+      <c r="XT93" s="14"/>
+      <c r="XU93" s="14"/>
+      <c r="XV93" s="14"/>
+      <c r="XW93" s="14"/>
+      <c r="XX93" s="14"/>
+      <c r="XY93" s="14"/>
+      <c r="XZ93" s="14"/>
+      <c r="YA93" s="14"/>
+      <c r="YB93" s="14"/>
+      <c r="YC93" s="14"/>
+      <c r="YD93" s="14"/>
+      <c r="YE93" s="14"/>
+      <c r="YF93" s="14"/>
+      <c r="YG93" s="14"/>
+      <c r="YH93" s="14"/>
+      <c r="YI93" s="14"/>
+      <c r="YJ93" s="14"/>
+      <c r="YK93" s="14"/>
+      <c r="YL93" s="14"/>
+      <c r="YM93" s="14"/>
+      <c r="YN93" s="14"/>
+      <c r="YO93" s="14"/>
+      <c r="YP93" s="14"/>
+      <c r="YQ93" s="14"/>
+      <c r="YR93" s="14"/>
+      <c r="YS93" s="14"/>
+      <c r="YT93" s="14"/>
+      <c r="YU93" s="14"/>
+      <c r="YV93" s="14"/>
+      <c r="YW93" s="14"/>
+      <c r="YX93" s="14"/>
+      <c r="YY93" s="14"/>
+      <c r="YZ93" s="14"/>
+      <c r="ZA93" s="14"/>
+      <c r="ZB93" s="14"/>
+      <c r="ZC93" s="14"/>
+      <c r="ZD93" s="14"/>
+      <c r="ZE93" s="14"/>
+      <c r="ZF93" s="14"/>
+      <c r="ZG93" s="14"/>
+      <c r="ZH93" s="14"/>
+      <c r="ZI93" s="14"/>
+      <c r="ZJ93" s="14"/>
+      <c r="ZK93" s="14"/>
+      <c r="ZL93" s="14"/>
+      <c r="ZM93" s="14"/>
+      <c r="ZN93" s="14"/>
+      <c r="ZO93" s="14"/>
+      <c r="ZP93" s="14"/>
+      <c r="ZQ93" s="14"/>
+      <c r="ZR93" s="14"/>
+      <c r="ZS93" s="14"/>
+      <c r="ZT93" s="14"/>
+      <c r="ZU93" s="14"/>
+      <c r="ZV93" s="14"/>
+      <c r="ZW93" s="14"/>
+      <c r="ZX93" s="14"/>
+      <c r="ZY93" s="14"/>
+      <c r="ZZ93" s="14"/>
+      <c r="AAA93" s="14"/>
+      <c r="AAB93" s="14"/>
+      <c r="AAC93" s="14"/>
+      <c r="AAD93" s="14"/>
+      <c r="AAE93" s="14"/>
+      <c r="AAF93" s="14"/>
+      <c r="AAG93" s="14"/>
+      <c r="AAH93" s="14"/>
+      <c r="AAI93" s="14"/>
+      <c r="AAJ93" s="14"/>
+      <c r="AAK93" s="14"/>
+      <c r="AAL93" s="14"/>
+      <c r="AAM93" s="14"/>
+      <c r="AAN93" s="14"/>
+      <c r="AAO93" s="14"/>
+      <c r="AAP93" s="14"/>
+      <c r="AAQ93" s="14"/>
+      <c r="AAR93" s="14"/>
+      <c r="AAS93" s="14"/>
+      <c r="AAT93" s="14"/>
+      <c r="AAU93" s="14"/>
+      <c r="AAV93" s="14"/>
+      <c r="AAW93" s="14"/>
+      <c r="AAX93" s="14"/>
+      <c r="AAY93" s="14"/>
+      <c r="AAZ93" s="14"/>
+      <c r="ABA93" s="14"/>
+      <c r="ABB93" s="14"/>
+      <c r="ABC93" s="14"/>
+      <c r="ABD93" s="14"/>
+      <c r="ABE93" s="14"/>
+      <c r="ABF93" s="14"/>
+      <c r="ABG93" s="14"/>
+      <c r="ABH93" s="14"/>
+      <c r="ABI93" s="14"/>
+      <c r="ABJ93" s="14"/>
+      <c r="ABK93" s="14"/>
+      <c r="ABL93" s="14"/>
+      <c r="ABM93" s="14"/>
+      <c r="ABN93" s="14"/>
+      <c r="ABO93" s="14"/>
+      <c r="ABP93" s="14"/>
+      <c r="ABQ93" s="14"/>
+      <c r="ABR93" s="14"/>
+      <c r="ABS93" s="14"/>
+      <c r="ABT93" s="14"/>
+      <c r="ABU93" s="14"/>
+      <c r="ABV93" s="14"/>
+      <c r="ABW93" s="14"/>
+      <c r="ABX93" s="14"/>
+      <c r="ABY93" s="14"/>
+      <c r="ABZ93" s="14"/>
+      <c r="ACA93" s="14"/>
+      <c r="ACB93" s="14"/>
+      <c r="ACC93" s="14"/>
+      <c r="ACD93" s="14"/>
+      <c r="ACE93" s="14"/>
+      <c r="ACF93" s="14"/>
+      <c r="ACG93" s="14"/>
+      <c r="ACH93" s="14"/>
+      <c r="ACI93" s="14"/>
+      <c r="ACJ93" s="14"/>
+      <c r="ACK93" s="14"/>
+      <c r="ACL93" s="14"/>
+      <c r="ACM93" s="14"/>
+      <c r="ACN93" s="14"/>
+      <c r="ACO93" s="14"/>
+      <c r="ACP93" s="14"/>
+      <c r="ACQ93" s="14"/>
+      <c r="ACR93" s="14"/>
+      <c r="ACS93" s="14"/>
+      <c r="ACT93" s="14"/>
+      <c r="ACU93" s="14"/>
+      <c r="ACV93" s="14"/>
+      <c r="ACW93" s="14"/>
+      <c r="ACX93" s="14"/>
+      <c r="ACY93" s="14"/>
+      <c r="ACZ93" s="14"/>
+      <c r="ADA93" s="14"/>
+      <c r="ADB93" s="14"/>
+      <c r="ADC93" s="14"/>
+      <c r="ADD93" s="14"/>
+      <c r="ADE93" s="14"/>
+      <c r="ADF93" s="14"/>
+      <c r="ADG93" s="14"/>
+      <c r="ADH93" s="14"/>
+      <c r="ADI93" s="14"/>
+      <c r="ADJ93" s="14"/>
+      <c r="ADK93" s="14"/>
+      <c r="ADL93" s="14"/>
+      <c r="ADM93" s="14"/>
+      <c r="ADN93" s="14"/>
+      <c r="ADO93" s="14"/>
+      <c r="ADP93" s="14"/>
+      <c r="ADQ93" s="14"/>
+      <c r="ADR93" s="14"/>
+      <c r="ADS93" s="14"/>
+      <c r="ADT93" s="14"/>
+      <c r="ADU93" s="14"/>
+      <c r="ADV93" s="14"/>
+      <c r="ADW93" s="14"/>
+      <c r="ADX93" s="14"/>
+      <c r="ADY93" s="14"/>
+      <c r="ADZ93" s="14"/>
+      <c r="AEA93" s="14"/>
+      <c r="AEB93" s="14"/>
+      <c r="AEC93" s="14"/>
+      <c r="AED93" s="14"/>
+      <c r="AEE93" s="14"/>
+      <c r="AEF93" s="14"/>
+      <c r="AEG93" s="14"/>
+      <c r="AEH93" s="14"/>
+      <c r="AEI93" s="14"/>
+      <c r="AEJ93" s="14"/>
+      <c r="AEK93" s="14"/>
+      <c r="AEL93" s="14"/>
+      <c r="AEM93" s="14"/>
+      <c r="AEN93" s="14"/>
+      <c r="AEO93" s="14"/>
+      <c r="AEP93" s="14"/>
+      <c r="AEQ93" s="14"/>
+      <c r="AER93" s="14"/>
+      <c r="AES93" s="14"/>
+      <c r="AET93" s="14"/>
+      <c r="AEU93" s="14"/>
+      <c r="AEV93" s="14"/>
+      <c r="AEW93" s="14"/>
+      <c r="AEX93" s="14"/>
+      <c r="AEY93" s="14"/>
+      <c r="AEZ93" s="14"/>
+      <c r="AFA93" s="14"/>
+      <c r="AFB93" s="14"/>
+      <c r="AFC93" s="14"/>
+      <c r="AFD93" s="14"/>
+      <c r="AFE93" s="14"/>
+      <c r="AFF93" s="14"/>
+      <c r="AFG93" s="14"/>
+      <c r="AFH93" s="14"/>
+      <c r="AFI93" s="14"/>
+      <c r="AFJ93" s="14"/>
+      <c r="AFK93" s="14"/>
+      <c r="AFL93" s="14"/>
+      <c r="AFM93" s="14"/>
+      <c r="AFN93" s="14"/>
+      <c r="AFO93" s="14"/>
+      <c r="AFP93" s="14"/>
+      <c r="AFQ93" s="14"/>
+      <c r="AFR93" s="14"/>
+      <c r="AFS93" s="14"/>
+      <c r="AFT93" s="14"/>
+      <c r="AFU93" s="14"/>
+      <c r="AFV93" s="14"/>
+      <c r="AFW93" s="14"/>
+      <c r="AFX93" s="14"/>
+      <c r="AFY93" s="14"/>
+      <c r="AFZ93" s="14"/>
+      <c r="AGA93" s="14"/>
+      <c r="AGB93" s="14"/>
+      <c r="AGC93" s="14"/>
+      <c r="AGD93" s="14"/>
+      <c r="AGE93" s="14"/>
+      <c r="AGF93" s="14"/>
+      <c r="AGG93" s="14"/>
+      <c r="AGH93" s="14"/>
+      <c r="AGI93" s="14"/>
+      <c r="AGJ93" s="14"/>
+      <c r="AGK93" s="14"/>
+      <c r="AGL93" s="14"/>
+      <c r="AGM93" s="14"/>
+      <c r="AGN93" s="14"/>
+      <c r="AGO93" s="14"/>
+      <c r="AGP93" s="14"/>
+      <c r="AGQ93" s="14"/>
+      <c r="AGR93" s="14"/>
+      <c r="AGS93" s="14"/>
+      <c r="AGT93" s="14"/>
+      <c r="AGU93" s="14"/>
+      <c r="AGV93" s="14"/>
+      <c r="AGW93" s="14"/>
+      <c r="AGX93" s="14"/>
+      <c r="AGY93" s="14"/>
+      <c r="AGZ93" s="14"/>
+      <c r="AHA93" s="14"/>
+      <c r="AHB93" s="14"/>
+      <c r="AHC93" s="14"/>
+      <c r="AHD93" s="14"/>
+      <c r="AHE93" s="14"/>
+      <c r="AHF93" s="14"/>
+      <c r="AHG93" s="14"/>
+      <c r="AHH93" s="14"/>
+      <c r="AHI93" s="14"/>
+      <c r="AHJ93" s="14"/>
+      <c r="AHK93" s="14"/>
+      <c r="AHL93" s="14"/>
+      <c r="AHM93" s="14"/>
+      <c r="AHN93" s="14"/>
+      <c r="AHO93" s="14"/>
+      <c r="AHP93" s="14"/>
+      <c r="AHQ93" s="14"/>
+      <c r="AHR93" s="14"/>
+      <c r="AHS93" s="14"/>
+      <c r="AHT93" s="14"/>
+      <c r="AHU93" s="14"/>
+      <c r="AHV93" s="14"/>
+      <c r="AHW93" s="14"/>
+      <c r="AHX93" s="14"/>
+      <c r="AHY93" s="14"/>
+      <c r="AHZ93" s="14"/>
+      <c r="AIA93" s="14"/>
+      <c r="AIB93" s="14"/>
+      <c r="AIC93" s="14"/>
+      <c r="AID93" s="14"/>
+      <c r="AIE93" s="14"/>
+      <c r="AIF93" s="14"/>
+      <c r="AIG93" s="14"/>
+      <c r="AIH93" s="14"/>
+      <c r="AII93" s="14"/>
+      <c r="AIJ93" s="14"/>
+      <c r="AIK93" s="14"/>
+      <c r="AIL93" s="14"/>
+      <c r="AIM93" s="14"/>
+      <c r="AIN93" s="14"/>
+      <c r="AIO93" s="14"/>
+      <c r="AIP93" s="14"/>
+      <c r="AIQ93" s="14"/>
+      <c r="AIR93" s="14"/>
+      <c r="AIS93" s="14"/>
+      <c r="AIT93" s="14"/>
+      <c r="AIU93" s="14"/>
+      <c r="AIV93" s="14"/>
+      <c r="AIW93" s="14"/>
+      <c r="AIX93" s="14"/>
+      <c r="AIY93" s="14"/>
+      <c r="AIZ93" s="14"/>
+      <c r="AJA93" s="14"/>
+      <c r="AJB93" s="14"/>
+      <c r="AJC93" s="14"/>
+      <c r="AJD93" s="14"/>
+      <c r="AJE93" s="14"/>
+      <c r="AJF93" s="14"/>
+      <c r="AJG93" s="14"/>
+      <c r="AJH93" s="14"/>
+      <c r="AJI93" s="14"/>
+      <c r="AJJ93" s="14"/>
+      <c r="AJK93" s="14"/>
+      <c r="AJL93" s="14"/>
+      <c r="AJM93" s="14"/>
+      <c r="AJN93" s="14"/>
+      <c r="AJO93" s="14"/>
+      <c r="AJP93" s="14"/>
+      <c r="AJQ93" s="14"/>
+      <c r="AJR93" s="14"/>
+      <c r="AJS93" s="14"/>
+      <c r="AJT93" s="14"/>
+      <c r="AJU93" s="14"/>
+      <c r="AJV93" s="14"/>
+      <c r="AJW93" s="14"/>
+      <c r="AJX93" s="14"/>
+      <c r="AJY93" s="14"/>
+      <c r="AJZ93" s="14"/>
+      <c r="AKA93" s="14"/>
+      <c r="AKB93" s="14"/>
+      <c r="AKC93" s="14"/>
+      <c r="AKD93" s="14"/>
+      <c r="AKE93" s="14"/>
+      <c r="AKF93" s="14"/>
+      <c r="AKG93" s="14"/>
+      <c r="AKH93" s="14"/>
+      <c r="AKI93" s="14"/>
+      <c r="AKJ93" s="14"/>
+      <c r="AKK93" s="14"/>
+      <c r="AKL93" s="14"/>
+      <c r="AKM93" s="14"/>
+      <c r="AKN93" s="14"/>
+      <c r="AKO93" s="14"/>
+      <c r="AKP93" s="14"/>
+      <c r="AKQ93" s="14"/>
+      <c r="AKR93" s="14"/>
+      <c r="AKS93" s="14"/>
+      <c r="AKT93" s="14"/>
+      <c r="AKU93" s="14"/>
+      <c r="AKV93" s="14"/>
+      <c r="AKW93" s="14"/>
+      <c r="AKX93" s="14"/>
+      <c r="AKY93" s="14"/>
+      <c r="AKZ93" s="14"/>
+      <c r="ALA93" s="14"/>
+      <c r="ALB93" s="14"/>
+      <c r="ALC93" s="14"/>
+      <c r="ALD93" s="14"/>
+      <c r="ALE93" s="14"/>
+      <c r="ALF93" s="14"/>
+      <c r="ALG93" s="14"/>
+      <c r="ALH93" s="14"/>
+      <c r="ALI93" s="14"/>
+      <c r="ALJ93" s="14"/>
+      <c r="ALK93" s="14"/>
+      <c r="ALL93" s="14"/>
+      <c r="ALM93" s="14"/>
+      <c r="ALN93" s="14"/>
+      <c r="ALO93" s="14"/>
+      <c r="ALP93" s="14"/>
+      <c r="ALQ93" s="14"/>
+      <c r="ALR93" s="14"/>
+      <c r="ALS93" s="14"/>
+      <c r="ALT93" s="14"/>
+      <c r="ALU93" s="14"/>
+      <c r="ALV93" s="14"/>
+      <c r="ALW93" s="14"/>
+      <c r="ALX93" s="14"/>
+      <c r="ALY93" s="14"/>
+      <c r="ALZ93" s="14"/>
+      <c r="AMA93" s="14"/>
+      <c r="AMB93" s="14"/>
+      <c r="AMC93" s="14"/>
+      <c r="AMD93" s="14"/>
+      <c r="AME93" s="14"/>
+      <c r="AMF93" s="14"/>
+      <c r="AMG93" s="14"/>
+      <c r="AMH93" s="14"/>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:1022">
+      <c r="A94" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" s="28">
+        <v>0.9982058</v>
+      </c>
+      <c r="D94" s="28">
+        <v>0.9671334</v>
+      </c>
+      <c r="E94" s="39">
+        <v>0.9688</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="14"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="14"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="14"/>
+      <c r="Z94" s="14"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="14"/>
+      <c r="AC94" s="14"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="14"/>
+      <c r="AF94" s="14"/>
+      <c r="AG94" s="14"/>
+      <c r="AH94" s="14"/>
+      <c r="AI94" s="14"/>
+      <c r="AJ94" s="14"/>
+      <c r="AK94" s="14"/>
+      <c r="AL94" s="14"/>
+      <c r="AM94" s="14"/>
+      <c r="AN94" s="14"/>
+      <c r="AO94" s="14"/>
+      <c r="AP94" s="14"/>
+      <c r="AQ94" s="14"/>
+      <c r="AR94" s="14"/>
+      <c r="AS94" s="14"/>
+      <c r="AT94" s="14"/>
+      <c r="AU94" s="14"/>
+      <c r="AV94" s="14"/>
+      <c r="AW94" s="14"/>
+      <c r="AX94" s="14"/>
+      <c r="AY94" s="14"/>
+      <c r="AZ94" s="14"/>
+      <c r="BA94" s="14"/>
+      <c r="BB94" s="14"/>
+      <c r="BC94" s="14"/>
+      <c r="BD94" s="14"/>
+      <c r="BE94" s="14"/>
+      <c r="BF94" s="14"/>
+      <c r="BG94" s="14"/>
+      <c r="BH94" s="14"/>
+      <c r="BI94" s="14"/>
+      <c r="BJ94" s="14"/>
+      <c r="BK94" s="14"/>
+      <c r="BL94" s="14"/>
+      <c r="BM94" s="14"/>
+      <c r="BN94" s="14"/>
+      <c r="BO94" s="14"/>
+      <c r="BP94" s="14"/>
+      <c r="BQ94" s="14"/>
+      <c r="BR94" s="14"/>
+      <c r="BS94" s="14"/>
+      <c r="BT94" s="14"/>
+      <c r="BU94" s="14"/>
+      <c r="BV94" s="14"/>
+      <c r="BW94" s="14"/>
+      <c r="BX94" s="14"/>
+      <c r="BY94" s="14"/>
+      <c r="BZ94" s="14"/>
+      <c r="CA94" s="14"/>
+      <c r="CB94" s="14"/>
+      <c r="CC94" s="14"/>
+      <c r="CD94" s="14"/>
+      <c r="CE94" s="14"/>
+      <c r="CF94" s="14"/>
+      <c r="CG94" s="14"/>
+      <c r="CH94" s="14"/>
+      <c r="CI94" s="14"/>
+      <c r="CJ94" s="14"/>
+      <c r="CK94" s="14"/>
+      <c r="CL94" s="14"/>
+      <c r="CM94" s="14"/>
+      <c r="CN94" s="14"/>
+      <c r="CO94" s="14"/>
+      <c r="CP94" s="14"/>
+      <c r="CQ94" s="14"/>
+      <c r="CR94" s="14"/>
+      <c r="CS94" s="14"/>
+      <c r="CT94" s="14"/>
+      <c r="CU94" s="14"/>
+      <c r="CV94" s="14"/>
+      <c r="CW94" s="14"/>
+      <c r="CX94" s="14"/>
+      <c r="CY94" s="14"/>
+      <c r="CZ94" s="14"/>
+      <c r="DA94" s="14"/>
+      <c r="DB94" s="14"/>
+      <c r="DC94" s="14"/>
+      <c r="DD94" s="14"/>
+      <c r="DE94" s="14"/>
+      <c r="DF94" s="14"/>
+      <c r="DG94" s="14"/>
+      <c r="DH94" s="14"/>
+      <c r="DI94" s="14"/>
+      <c r="DJ94" s="14"/>
+      <c r="DK94" s="14"/>
+      <c r="DL94" s="14"/>
+      <c r="DM94" s="14"/>
+      <c r="DN94" s="14"/>
+      <c r="DO94" s="14"/>
+      <c r="DP94" s="14"/>
+      <c r="DQ94" s="14"/>
+      <c r="DR94" s="14"/>
+      <c r="DS94" s="14"/>
+      <c r="DT94" s="14"/>
+      <c r="DU94" s="14"/>
+      <c r="DV94" s="14"/>
+      <c r="DW94" s="14"/>
+      <c r="DX94" s="14"/>
+      <c r="DY94" s="14"/>
+      <c r="DZ94" s="14"/>
+      <c r="EA94" s="14"/>
+      <c r="EB94" s="14"/>
+      <c r="EC94" s="14"/>
+      <c r="ED94" s="14"/>
+      <c r="EE94" s="14"/>
+      <c r="EF94" s="14"/>
+      <c r="EG94" s="14"/>
+      <c r="EH94" s="14"/>
+      <c r="EI94" s="14"/>
+      <c r="EJ94" s="14"/>
+      <c r="EK94" s="14"/>
+      <c r="EL94" s="14"/>
+      <c r="EM94" s="14"/>
+      <c r="EN94" s="14"/>
+      <c r="EO94" s="14"/>
+      <c r="EP94" s="14"/>
+      <c r="EQ94" s="14"/>
+      <c r="ER94" s="14"/>
+      <c r="ES94" s="14"/>
+      <c r="ET94" s="14"/>
+      <c r="EU94" s="14"/>
+      <c r="EV94" s="14"/>
+      <c r="EW94" s="14"/>
+      <c r="EX94" s="14"/>
+      <c r="EY94" s="14"/>
+      <c r="EZ94" s="14"/>
+      <c r="FA94" s="14"/>
+      <c r="FB94" s="14"/>
+      <c r="FC94" s="14"/>
+      <c r="FD94" s="14"/>
+      <c r="FE94" s="14"/>
+      <c r="FF94" s="14"/>
+      <c r="FG94" s="14"/>
+      <c r="FH94" s="14"/>
+      <c r="FI94" s="14"/>
+      <c r="FJ94" s="14"/>
+      <c r="FK94" s="14"/>
+      <c r="FL94" s="14"/>
+      <c r="FM94" s="14"/>
+      <c r="FN94" s="14"/>
+      <c r="FO94" s="14"/>
+      <c r="FP94" s="14"/>
+      <c r="FQ94" s="14"/>
+      <c r="FR94" s="14"/>
+      <c r="FS94" s="14"/>
+      <c r="FT94" s="14"/>
+      <c r="FU94" s="14"/>
+      <c r="FV94" s="14"/>
+      <c r="FW94" s="14"/>
+      <c r="FX94" s="14"/>
+      <c r="FY94" s="14"/>
+      <c r="FZ94" s="14"/>
+      <c r="GA94" s="14"/>
+      <c r="GB94" s="14"/>
+      <c r="GC94" s="14"/>
+      <c r="GD94" s="14"/>
+      <c r="GE94" s="14"/>
+      <c r="GF94" s="14"/>
+      <c r="GG94" s="14"/>
+      <c r="GH94" s="14"/>
+      <c r="GI94" s="14"/>
+      <c r="GJ94" s="14"/>
+      <c r="GK94" s="14"/>
+      <c r="GL94" s="14"/>
+      <c r="GM94" s="14"/>
+      <c r="GN94" s="14"/>
+      <c r="GO94" s="14"/>
+      <c r="GP94" s="14"/>
+      <c r="GQ94" s="14"/>
+      <c r="GR94" s="14"/>
+      <c r="GS94" s="14"/>
+      <c r="GT94" s="14"/>
+      <c r="GU94" s="14"/>
+      <c r="GV94" s="14"/>
+      <c r="GW94" s="14"/>
+      <c r="GX94" s="14"/>
+      <c r="GY94" s="14"/>
+      <c r="GZ94" s="14"/>
+      <c r="HA94" s="14"/>
+      <c r="HB94" s="14"/>
+      <c r="HC94" s="14"/>
+      <c r="HD94" s="14"/>
+      <c r="HE94" s="14"/>
+      <c r="HF94" s="14"/>
+      <c r="HG94" s="14"/>
+      <c r="HH94" s="14"/>
+      <c r="HI94" s="14"/>
+      <c r="HJ94" s="14"/>
+      <c r="HK94" s="14"/>
+      <c r="HL94" s="14"/>
+      <c r="HM94" s="14"/>
+      <c r="HN94" s="14"/>
+      <c r="HO94" s="14"/>
+      <c r="HP94" s="14"/>
+      <c r="HQ94" s="14"/>
+      <c r="HR94" s="14"/>
+      <c r="HS94" s="14"/>
+      <c r="HT94" s="14"/>
+      <c r="HU94" s="14"/>
+      <c r="HV94" s="14"/>
+      <c r="HW94" s="14"/>
+      <c r="HX94" s="14"/>
+      <c r="HY94" s="14"/>
+      <c r="HZ94" s="14"/>
+      <c r="IA94" s="14"/>
+      <c r="IB94" s="14"/>
+      <c r="IC94" s="14"/>
+      <c r="ID94" s="14"/>
+      <c r="IE94" s="14"/>
+      <c r="IF94" s="14"/>
+      <c r="IG94" s="14"/>
+      <c r="IH94" s="14"/>
+      <c r="II94" s="14"/>
+      <c r="IJ94" s="14"/>
+      <c r="IK94" s="14"/>
+      <c r="IL94" s="14"/>
+      <c r="IM94" s="14"/>
+      <c r="IN94" s="14"/>
+      <c r="IO94" s="14"/>
+      <c r="IP94" s="14"/>
+      <c r="IQ94" s="14"/>
+      <c r="IR94" s="14"/>
+      <c r="IS94" s="14"/>
+      <c r="IT94" s="14"/>
+      <c r="IU94" s="14"/>
+      <c r="IV94" s="14"/>
+      <c r="IW94" s="14"/>
+      <c r="IX94" s="14"/>
+      <c r="IY94" s="14"/>
+      <c r="IZ94" s="14"/>
+      <c r="JA94" s="14"/>
+      <c r="JB94" s="14"/>
+      <c r="JC94" s="14"/>
+      <c r="JD94" s="14"/>
+      <c r="JE94" s="14"/>
+      <c r="JF94" s="14"/>
+      <c r="JG94" s="14"/>
+      <c r="JH94" s="14"/>
+      <c r="JI94" s="14"/>
+      <c r="JJ94" s="14"/>
+      <c r="JK94" s="14"/>
+      <c r="JL94" s="14"/>
+      <c r="JM94" s="14"/>
+      <c r="JN94" s="14"/>
+      <c r="JO94" s="14"/>
+      <c r="JP94" s="14"/>
+      <c r="JQ94" s="14"/>
+      <c r="JR94" s="14"/>
+      <c r="JS94" s="14"/>
+      <c r="JT94" s="14"/>
+      <c r="JU94" s="14"/>
+      <c r="JV94" s="14"/>
+      <c r="JW94" s="14"/>
+      <c r="JX94" s="14"/>
+      <c r="JY94" s="14"/>
+      <c r="JZ94" s="14"/>
+      <c r="KA94" s="14"/>
+      <c r="KB94" s="14"/>
+      <c r="KC94" s="14"/>
+      <c r="KD94" s="14"/>
+      <c r="KE94" s="14"/>
+      <c r="KF94" s="14"/>
+      <c r="KG94" s="14"/>
+      <c r="KH94" s="14"/>
+      <c r="KI94" s="14"/>
+      <c r="KJ94" s="14"/>
+      <c r="KK94" s="14"/>
+      <c r="KL94" s="14"/>
+      <c r="KM94" s="14"/>
+      <c r="KN94" s="14"/>
+      <c r="KO94" s="14"/>
+      <c r="KP94" s="14"/>
+      <c r="KQ94" s="14"/>
+      <c r="KR94" s="14"/>
+      <c r="KS94" s="14"/>
+      <c r="KT94" s="14"/>
+      <c r="KU94" s="14"/>
+      <c r="KV94" s="14"/>
+      <c r="KW94" s="14"/>
+      <c r="KX94" s="14"/>
+      <c r="KY94" s="14"/>
+      <c r="KZ94" s="14"/>
+      <c r="LA94" s="14"/>
+      <c r="LB94" s="14"/>
+      <c r="LC94" s="14"/>
+      <c r="LD94" s="14"/>
+      <c r="LE94" s="14"/>
+      <c r="LF94" s="14"/>
+      <c r="LG94" s="14"/>
+      <c r="LH94" s="14"/>
+      <c r="LI94" s="14"/>
+      <c r="LJ94" s="14"/>
+      <c r="LK94" s="14"/>
+      <c r="LL94" s="14"/>
+      <c r="LM94" s="14"/>
+      <c r="LN94" s="14"/>
+      <c r="LO94" s="14"/>
+      <c r="LP94" s="14"/>
+      <c r="LQ94" s="14"/>
+      <c r="LR94" s="14"/>
+      <c r="LS94" s="14"/>
+      <c r="LT94" s="14"/>
+      <c r="LU94" s="14"/>
+      <c r="LV94" s="14"/>
+      <c r="LW94" s="14"/>
+      <c r="LX94" s="14"/>
+      <c r="LY94" s="14"/>
+      <c r="LZ94" s="14"/>
+      <c r="MA94" s="14"/>
+      <c r="MB94" s="14"/>
+      <c r="MC94" s="14"/>
+      <c r="MD94" s="14"/>
+      <c r="ME94" s="14"/>
+      <c r="MF94" s="14"/>
+      <c r="MG94" s="14"/>
+      <c r="MH94" s="14"/>
+      <c r="MI94" s="14"/>
+      <c r="MJ94" s="14"/>
+      <c r="MK94" s="14"/>
+      <c r="ML94" s="14"/>
+      <c r="MM94" s="14"/>
+      <c r="MN94" s="14"/>
+      <c r="MO94" s="14"/>
+      <c r="MP94" s="14"/>
+      <c r="MQ94" s="14"/>
+      <c r="MR94" s="14"/>
+      <c r="MS94" s="14"/>
+      <c r="MT94" s="14"/>
+      <c r="MU94" s="14"/>
+      <c r="MV94" s="14"/>
+      <c r="MW94" s="14"/>
+      <c r="MX94" s="14"/>
+      <c r="MY94" s="14"/>
+      <c r="MZ94" s="14"/>
+      <c r="NA94" s="14"/>
+      <c r="NB94" s="14"/>
+      <c r="NC94" s="14"/>
+      <c r="ND94" s="14"/>
+      <c r="NE94" s="14"/>
+      <c r="NF94" s="14"/>
+      <c r="NG94" s="14"/>
+      <c r="NH94" s="14"/>
+      <c r="NI94" s="14"/>
+      <c r="NJ94" s="14"/>
+      <c r="NK94" s="14"/>
+      <c r="NL94" s="14"/>
+      <c r="NM94" s="14"/>
+      <c r="NN94" s="14"/>
+      <c r="NO94" s="14"/>
+      <c r="NP94" s="14"/>
+      <c r="NQ94" s="14"/>
+      <c r="NR94" s="14"/>
+      <c r="NS94" s="14"/>
+      <c r="NT94" s="14"/>
+      <c r="NU94" s="14"/>
+      <c r="NV94" s="14"/>
+      <c r="NW94" s="14"/>
+      <c r="NX94" s="14"/>
+      <c r="NY94" s="14"/>
+      <c r="NZ94" s="14"/>
+      <c r="OA94" s="14"/>
+      <c r="OB94" s="14"/>
+      <c r="OC94" s="14"/>
+      <c r="OD94" s="14"/>
+      <c r="OE94" s="14"/>
+      <c r="OF94" s="14"/>
+      <c r="OG94" s="14"/>
+      <c r="OH94" s="14"/>
+      <c r="OI94" s="14"/>
+      <c r="OJ94" s="14"/>
+      <c r="OK94" s="14"/>
+      <c r="OL94" s="14"/>
+      <c r="OM94" s="14"/>
+      <c r="ON94" s="14"/>
+      <c r="OO94" s="14"/>
+      <c r="OP94" s="14"/>
+      <c r="OQ94" s="14"/>
+      <c r="OR94" s="14"/>
+      <c r="OS94" s="14"/>
+      <c r="OT94" s="14"/>
+      <c r="OU94" s="14"/>
+      <c r="OV94" s="14"/>
+      <c r="OW94" s="14"/>
+      <c r="OX94" s="14"/>
+      <c r="OY94" s="14"/>
+      <c r="OZ94" s="14"/>
+      <c r="PA94" s="14"/>
+      <c r="PB94" s="14"/>
+      <c r="PC94" s="14"/>
+      <c r="PD94" s="14"/>
+      <c r="PE94" s="14"/>
+      <c r="PF94" s="14"/>
+      <c r="PG94" s="14"/>
+      <c r="PH94" s="14"/>
+      <c r="PI94" s="14"/>
+      <c r="PJ94" s="14"/>
+      <c r="PK94" s="14"/>
+      <c r="PL94" s="14"/>
+      <c r="PM94" s="14"/>
+      <c r="PN94" s="14"/>
+      <c r="PO94" s="14"/>
+      <c r="PP94" s="14"/>
+      <c r="PQ94" s="14"/>
+      <c r="PR94" s="14"/>
+      <c r="PS94" s="14"/>
+      <c r="PT94" s="14"/>
+      <c r="PU94" s="14"/>
+      <c r="PV94" s="14"/>
+      <c r="PW94" s="14"/>
+      <c r="PX94" s="14"/>
+      <c r="PY94" s="14"/>
+      <c r="PZ94" s="14"/>
+      <c r="QA94" s="14"/>
+      <c r="QB94" s="14"/>
+      <c r="QC94" s="14"/>
+      <c r="QD94" s="14"/>
+      <c r="QE94" s="14"/>
+      <c r="QF94" s="14"/>
+      <c r="QG94" s="14"/>
+      <c r="QH94" s="14"/>
+      <c r="QI94" s="14"/>
+      <c r="QJ94" s="14"/>
+      <c r="QK94" s="14"/>
+      <c r="QL94" s="14"/>
+      <c r="QM94" s="14"/>
+      <c r="QN94" s="14"/>
+      <c r="QO94" s="14"/>
+      <c r="QP94" s="14"/>
+      <c r="QQ94" s="14"/>
+      <c r="QR94" s="14"/>
+      <c r="QS94" s="14"/>
+      <c r="QT94" s="14"/>
+      <c r="QU94" s="14"/>
+      <c r="QV94" s="14"/>
+      <c r="QW94" s="14"/>
+      <c r="QX94" s="14"/>
+      <c r="QY94" s="14"/>
+      <c r="QZ94" s="14"/>
+      <c r="RA94" s="14"/>
+      <c r="RB94" s="14"/>
+      <c r="RC94" s="14"/>
+      <c r="RD94" s="14"/>
+      <c r="RE94" s="14"/>
+      <c r="RF94" s="14"/>
+      <c r="RG94" s="14"/>
+      <c r="RH94" s="14"/>
+      <c r="RI94" s="14"/>
+      <c r="RJ94" s="14"/>
+      <c r="RK94" s="14"/>
+      <c r="RL94" s="14"/>
+      <c r="RM94" s="14"/>
+      <c r="RN94" s="14"/>
+      <c r="RO94" s="14"/>
+      <c r="RP94" s="14"/>
+      <c r="RQ94" s="14"/>
+      <c r="RR94" s="14"/>
+      <c r="RS94" s="14"/>
+      <c r="RT94" s="14"/>
+      <c r="RU94" s="14"/>
+      <c r="RV94" s="14"/>
+      <c r="RW94" s="14"/>
+      <c r="RX94" s="14"/>
+      <c r="RY94" s="14"/>
+      <c r="RZ94" s="14"/>
+      <c r="SA94" s="14"/>
+      <c r="SB94" s="14"/>
+      <c r="SC94" s="14"/>
+      <c r="SD94" s="14"/>
+      <c r="SE94" s="14"/>
+      <c r="SF94" s="14"/>
+      <c r="SG94" s="14"/>
+      <c r="SH94" s="14"/>
+      <c r="SI94" s="14"/>
+      <c r="SJ94" s="14"/>
+      <c r="SK94" s="14"/>
+      <c r="SL94" s="14"/>
+      <c r="SM94" s="14"/>
+      <c r="SN94" s="14"/>
+      <c r="SO94" s="14"/>
+      <c r="SP94" s="14"/>
+      <c r="SQ94" s="14"/>
+      <c r="SR94" s="14"/>
+      <c r="SS94" s="14"/>
+      <c r="ST94" s="14"/>
+      <c r="SU94" s="14"/>
+      <c r="SV94" s="14"/>
+      <c r="SW94" s="14"/>
+      <c r="SX94" s="14"/>
+      <c r="SY94" s="14"/>
+      <c r="SZ94" s="14"/>
+      <c r="TA94" s="14"/>
+      <c r="TB94" s="14"/>
+      <c r="TC94" s="14"/>
+      <c r="TD94" s="14"/>
+      <c r="TE94" s="14"/>
+      <c r="TF94" s="14"/>
+      <c r="TG94" s="14"/>
+      <c r="TH94" s="14"/>
+      <c r="TI94" s="14"/>
+      <c r="TJ94" s="14"/>
+      <c r="TK94" s="14"/>
+      <c r="TL94" s="14"/>
+      <c r="TM94" s="14"/>
+      <c r="TN94" s="14"/>
+      <c r="TO94" s="14"/>
+      <c r="TP94" s="14"/>
+      <c r="TQ94" s="14"/>
+      <c r="TR94" s="14"/>
+      <c r="TS94" s="14"/>
+      <c r="TT94" s="14"/>
+      <c r="TU94" s="14"/>
+      <c r="TV94" s="14"/>
+      <c r="TW94" s="14"/>
+      <c r="TX94" s="14"/>
+      <c r="TY94" s="14"/>
+      <c r="TZ94" s="14"/>
+      <c r="UA94" s="14"/>
+      <c r="UB94" s="14"/>
+      <c r="UC94" s="14"/>
+      <c r="UD94" s="14"/>
+      <c r="UE94" s="14"/>
+      <c r="UF94" s="14"/>
+      <c r="UG94" s="14"/>
+      <c r="UH94" s="14"/>
+      <c r="UI94" s="14"/>
+      <c r="UJ94" s="14"/>
+      <c r="UK94" s="14"/>
+      <c r="UL94" s="14"/>
+      <c r="UM94" s="14"/>
+      <c r="UN94" s="14"/>
+      <c r="UO94" s="14"/>
+      <c r="UP94" s="14"/>
+      <c r="UQ94" s="14"/>
+      <c r="UR94" s="14"/>
+      <c r="US94" s="14"/>
+      <c r="UT94" s="14"/>
+      <c r="UU94" s="14"/>
+      <c r="UV94" s="14"/>
+      <c r="UW94" s="14"/>
+      <c r="UX94" s="14"/>
+      <c r="UY94" s="14"/>
+      <c r="UZ94" s="14"/>
+      <c r="VA94" s="14"/>
+      <c r="VB94" s="14"/>
+      <c r="VC94" s="14"/>
+      <c r="VD94" s="14"/>
+      <c r="VE94" s="14"/>
+      <c r="VF94" s="14"/>
+      <c r="VG94" s="14"/>
+      <c r="VH94" s="14"/>
+      <c r="VI94" s="14"/>
+      <c r="VJ94" s="14"/>
+      <c r="VK94" s="14"/>
+      <c r="VL94" s="14"/>
+      <c r="VM94" s="14"/>
+      <c r="VN94" s="14"/>
+      <c r="VO94" s="14"/>
+      <c r="VP94" s="14"/>
+      <c r="VQ94" s="14"/>
+      <c r="VR94" s="14"/>
+      <c r="VS94" s="14"/>
+      <c r="VT94" s="14"/>
+      <c r="VU94" s="14"/>
+      <c r="VV94" s="14"/>
+      <c r="VW94" s="14"/>
+      <c r="VX94" s="14"/>
+      <c r="VY94" s="14"/>
+      <c r="VZ94" s="14"/>
+      <c r="WA94" s="14"/>
+      <c r="WB94" s="14"/>
+      <c r="WC94" s="14"/>
+      <c r="WD94" s="14"/>
+      <c r="WE94" s="14"/>
+      <c r="WF94" s="14"/>
+      <c r="WG94" s="14"/>
+      <c r="WH94" s="14"/>
+      <c r="WI94" s="14"/>
+      <c r="WJ94" s="14"/>
+      <c r="WK94" s="14"/>
+      <c r="WL94" s="14"/>
+      <c r="WM94" s="14"/>
+      <c r="WN94" s="14"/>
+      <c r="WO94" s="14"/>
+      <c r="WP94" s="14"/>
+      <c r="WQ94" s="14"/>
+      <c r="WR94" s="14"/>
+      <c r="WS94" s="14"/>
+      <c r="WT94" s="14"/>
+      <c r="WU94" s="14"/>
+      <c r="WV94" s="14"/>
+      <c r="WW94" s="14"/>
+      <c r="WX94" s="14"/>
+      <c r="WY94" s="14"/>
+      <c r="WZ94" s="14"/>
+      <c r="XA94" s="14"/>
+      <c r="XB94" s="14"/>
+      <c r="XC94" s="14"/>
+      <c r="XD94" s="14"/>
+      <c r="XE94" s="14"/>
+      <c r="XF94" s="14"/>
+      <c r="XG94" s="14"/>
+      <c r="XH94" s="14"/>
+      <c r="XI94" s="14"/>
+      <c r="XJ94" s="14"/>
+      <c r="XK94" s="14"/>
+      <c r="XL94" s="14"/>
+      <c r="XM94" s="14"/>
+      <c r="XN94" s="14"/>
+      <c r="XO94" s="14"/>
+      <c r="XP94" s="14"/>
+      <c r="XQ94" s="14"/>
+      <c r="XR94" s="14"/>
+      <c r="XS94" s="14"/>
+      <c r="XT94" s="14"/>
+      <c r="XU94" s="14"/>
+      <c r="XV94" s="14"/>
+      <c r="XW94" s="14"/>
+      <c r="XX94" s="14"/>
+      <c r="XY94" s="14"/>
+      <c r="XZ94" s="14"/>
+      <c r="YA94" s="14"/>
+      <c r="YB94" s="14"/>
+      <c r="YC94" s="14"/>
+      <c r="YD94" s="14"/>
+      <c r="YE94" s="14"/>
+      <c r="YF94" s="14"/>
+      <c r="YG94" s="14"/>
+      <c r="YH94" s="14"/>
+      <c r="YI94" s="14"/>
+      <c r="YJ94" s="14"/>
+      <c r="YK94" s="14"/>
+      <c r="YL94" s="14"/>
+      <c r="YM94" s="14"/>
+      <c r="YN94" s="14"/>
+      <c r="YO94" s="14"/>
+      <c r="YP94" s="14"/>
+      <c r="YQ94" s="14"/>
+      <c r="YR94" s="14"/>
+      <c r="YS94" s="14"/>
+      <c r="YT94" s="14"/>
+      <c r="YU94" s="14"/>
+      <c r="YV94" s="14"/>
+      <c r="YW94" s="14"/>
+      <c r="YX94" s="14"/>
+      <c r="YY94" s="14"/>
+      <c r="YZ94" s="14"/>
+      <c r="ZA94" s="14"/>
+      <c r="ZB94" s="14"/>
+      <c r="ZC94" s="14"/>
+      <c r="ZD94" s="14"/>
+      <c r="ZE94" s="14"/>
+      <c r="ZF94" s="14"/>
+      <c r="ZG94" s="14"/>
+      <c r="ZH94" s="14"/>
+      <c r="ZI94" s="14"/>
+      <c r="ZJ94" s="14"/>
+      <c r="ZK94" s="14"/>
+      <c r="ZL94" s="14"/>
+      <c r="ZM94" s="14"/>
+      <c r="ZN94" s="14"/>
+      <c r="ZO94" s="14"/>
+      <c r="ZP94" s="14"/>
+      <c r="ZQ94" s="14"/>
+      <c r="ZR94" s="14"/>
+      <c r="ZS94" s="14"/>
+      <c r="ZT94" s="14"/>
+      <c r="ZU94" s="14"/>
+      <c r="ZV94" s="14"/>
+      <c r="ZW94" s="14"/>
+      <c r="ZX94" s="14"/>
+      <c r="ZY94" s="14"/>
+      <c r="ZZ94" s="14"/>
+      <c r="AAA94" s="14"/>
+      <c r="AAB94" s="14"/>
+      <c r="AAC94" s="14"/>
+      <c r="AAD94" s="14"/>
+      <c r="AAE94" s="14"/>
+      <c r="AAF94" s="14"/>
+      <c r="AAG94" s="14"/>
+      <c r="AAH94" s="14"/>
+      <c r="AAI94" s="14"/>
+      <c r="AAJ94" s="14"/>
+      <c r="AAK94" s="14"/>
+      <c r="AAL94" s="14"/>
+      <c r="AAM94" s="14"/>
+      <c r="AAN94" s="14"/>
+      <c r="AAO94" s="14"/>
+      <c r="AAP94" s="14"/>
+      <c r="AAQ94" s="14"/>
+      <c r="AAR94" s="14"/>
+      <c r="AAS94" s="14"/>
+      <c r="AAT94" s="14"/>
+      <c r="AAU94" s="14"/>
+      <c r="AAV94" s="14"/>
+      <c r="AAW94" s="14"/>
+      <c r="AAX94" s="14"/>
+      <c r="AAY94" s="14"/>
+      <c r="AAZ94" s="14"/>
+      <c r="ABA94" s="14"/>
+      <c r="ABB94" s="14"/>
+      <c r="ABC94" s="14"/>
+      <c r="ABD94" s="14"/>
+      <c r="ABE94" s="14"/>
+      <c r="ABF94" s="14"/>
+      <c r="ABG94" s="14"/>
+      <c r="ABH94" s="14"/>
+      <c r="ABI94" s="14"/>
+      <c r="ABJ94" s="14"/>
+      <c r="ABK94" s="14"/>
+      <c r="ABL94" s="14"/>
+      <c r="ABM94" s="14"/>
+      <c r="ABN94" s="14"/>
+      <c r="ABO94" s="14"/>
+      <c r="ABP94" s="14"/>
+      <c r="ABQ94" s="14"/>
+      <c r="ABR94" s="14"/>
+      <c r="ABS94" s="14"/>
+      <c r="ABT94" s="14"/>
+      <c r="ABU94" s="14"/>
+      <c r="ABV94" s="14"/>
+      <c r="ABW94" s="14"/>
+      <c r="ABX94" s="14"/>
+      <c r="ABY94" s="14"/>
+      <c r="ABZ94" s="14"/>
+      <c r="ACA94" s="14"/>
+      <c r="ACB94" s="14"/>
+      <c r="ACC94" s="14"/>
+      <c r="ACD94" s="14"/>
+      <c r="ACE94" s="14"/>
+      <c r="ACF94" s="14"/>
+      <c r="ACG94" s="14"/>
+      <c r="ACH94" s="14"/>
+      <c r="ACI94" s="14"/>
+      <c r="ACJ94" s="14"/>
+      <c r="ACK94" s="14"/>
+      <c r="ACL94" s="14"/>
+      <c r="ACM94" s="14"/>
+      <c r="ACN94" s="14"/>
+      <c r="ACO94" s="14"/>
+      <c r="ACP94" s="14"/>
+      <c r="ACQ94" s="14"/>
+      <c r="ACR94" s="14"/>
+      <c r="ACS94" s="14"/>
+      <c r="ACT94" s="14"/>
+      <c r="ACU94" s="14"/>
+      <c r="ACV94" s="14"/>
+      <c r="ACW94" s="14"/>
+      <c r="ACX94" s="14"/>
+      <c r="ACY94" s="14"/>
+      <c r="ACZ94" s="14"/>
+      <c r="ADA94" s="14"/>
+      <c r="ADB94" s="14"/>
+      <c r="ADC94" s="14"/>
+      <c r="ADD94" s="14"/>
+      <c r="ADE94" s="14"/>
+      <c r="ADF94" s="14"/>
+      <c r="ADG94" s="14"/>
+      <c r="ADH94" s="14"/>
+      <c r="ADI94" s="14"/>
+      <c r="ADJ94" s="14"/>
+      <c r="ADK94" s="14"/>
+      <c r="ADL94" s="14"/>
+      <c r="ADM94" s="14"/>
+      <c r="ADN94" s="14"/>
+      <c r="ADO94" s="14"/>
+      <c r="ADP94" s="14"/>
+      <c r="ADQ94" s="14"/>
+      <c r="ADR94" s="14"/>
+      <c r="ADS94" s="14"/>
+      <c r="ADT94" s="14"/>
+      <c r="ADU94" s="14"/>
+      <c r="ADV94" s="14"/>
+      <c r="ADW94" s="14"/>
+      <c r="ADX94" s="14"/>
+      <c r="ADY94" s="14"/>
+      <c r="ADZ94" s="14"/>
+      <c r="AEA94" s="14"/>
+      <c r="AEB94" s="14"/>
+      <c r="AEC94" s="14"/>
+      <c r="AED94" s="14"/>
+      <c r="AEE94" s="14"/>
+      <c r="AEF94" s="14"/>
+      <c r="AEG94" s="14"/>
+      <c r="AEH94" s="14"/>
+      <c r="AEI94" s="14"/>
+      <c r="AEJ94" s="14"/>
+      <c r="AEK94" s="14"/>
+      <c r="AEL94" s="14"/>
+      <c r="AEM94" s="14"/>
+      <c r="AEN94" s="14"/>
+      <c r="AEO94" s="14"/>
+      <c r="AEP94" s="14"/>
+      <c r="AEQ94" s="14"/>
+      <c r="AER94" s="14"/>
+      <c r="AES94" s="14"/>
+      <c r="AET94" s="14"/>
+      <c r="AEU94" s="14"/>
+      <c r="AEV94" s="14"/>
+      <c r="AEW94" s="14"/>
+      <c r="AEX94" s="14"/>
+      <c r="AEY94" s="14"/>
+      <c r="AEZ94" s="14"/>
+      <c r="AFA94" s="14"/>
+      <c r="AFB94" s="14"/>
+      <c r="AFC94" s="14"/>
+      <c r="AFD94" s="14"/>
+      <c r="AFE94" s="14"/>
+      <c r="AFF94" s="14"/>
+      <c r="AFG94" s="14"/>
+      <c r="AFH94" s="14"/>
+      <c r="AFI94" s="14"/>
+      <c r="AFJ94" s="14"/>
+      <c r="AFK94" s="14"/>
+      <c r="AFL94" s="14"/>
+      <c r="AFM94" s="14"/>
+      <c r="AFN94" s="14"/>
+      <c r="AFO94" s="14"/>
+      <c r="AFP94" s="14"/>
+      <c r="AFQ94" s="14"/>
+      <c r="AFR94" s="14"/>
+      <c r="AFS94" s="14"/>
+      <c r="AFT94" s="14"/>
+      <c r="AFU94" s="14"/>
+      <c r="AFV94" s="14"/>
+      <c r="AFW94" s="14"/>
+      <c r="AFX94" s="14"/>
+      <c r="AFY94" s="14"/>
+      <c r="AFZ94" s="14"/>
+      <c r="AGA94" s="14"/>
+      <c r="AGB94" s="14"/>
+      <c r="AGC94" s="14"/>
+      <c r="AGD94" s="14"/>
+      <c r="AGE94" s="14"/>
+      <c r="AGF94" s="14"/>
+      <c r="AGG94" s="14"/>
+      <c r="AGH94" s="14"/>
+      <c r="AGI94" s="14"/>
+      <c r="AGJ94" s="14"/>
+      <c r="AGK94" s="14"/>
+      <c r="AGL94" s="14"/>
+      <c r="AGM94" s="14"/>
+      <c r="AGN94" s="14"/>
+      <c r="AGO94" s="14"/>
+      <c r="AGP94" s="14"/>
+      <c r="AGQ94" s="14"/>
+      <c r="AGR94" s="14"/>
+      <c r="AGS94" s="14"/>
+      <c r="AGT94" s="14"/>
+      <c r="AGU94" s="14"/>
+      <c r="AGV94" s="14"/>
+      <c r="AGW94" s="14"/>
+      <c r="AGX94" s="14"/>
+      <c r="AGY94" s="14"/>
+      <c r="AGZ94" s="14"/>
+      <c r="AHA94" s="14"/>
+      <c r="AHB94" s="14"/>
+      <c r="AHC94" s="14"/>
+      <c r="AHD94" s="14"/>
+      <c r="AHE94" s="14"/>
+      <c r="AHF94" s="14"/>
+      <c r="AHG94" s="14"/>
+      <c r="AHH94" s="14"/>
+      <c r="AHI94" s="14"/>
+      <c r="AHJ94" s="14"/>
+      <c r="AHK94" s="14"/>
+      <c r="AHL94" s="14"/>
+      <c r="AHM94" s="14"/>
+      <c r="AHN94" s="14"/>
+      <c r="AHO94" s="14"/>
+      <c r="AHP94" s="14"/>
+      <c r="AHQ94" s="14"/>
+      <c r="AHR94" s="14"/>
+      <c r="AHS94" s="14"/>
+      <c r="AHT94" s="14"/>
+      <c r="AHU94" s="14"/>
+      <c r="AHV94" s="14"/>
+      <c r="AHW94" s="14"/>
+      <c r="AHX94" s="14"/>
+      <c r="AHY94" s="14"/>
+      <c r="AHZ94" s="14"/>
+      <c r="AIA94" s="14"/>
+      <c r="AIB94" s="14"/>
+      <c r="AIC94" s="14"/>
+      <c r="AID94" s="14"/>
+      <c r="AIE94" s="14"/>
+      <c r="AIF94" s="14"/>
+      <c r="AIG94" s="14"/>
+      <c r="AIH94" s="14"/>
+      <c r="AII94" s="14"/>
+      <c r="AIJ94" s="14"/>
+      <c r="AIK94" s="14"/>
+      <c r="AIL94" s="14"/>
+      <c r="AIM94" s="14"/>
+      <c r="AIN94" s="14"/>
+      <c r="AIO94" s="14"/>
+      <c r="AIP94" s="14"/>
+      <c r="AIQ94" s="14"/>
+      <c r="AIR94" s="14"/>
+      <c r="AIS94" s="14"/>
+      <c r="AIT94" s="14"/>
+      <c r="AIU94" s="14"/>
+      <c r="AIV94" s="14"/>
+      <c r="AIW94" s="14"/>
+      <c r="AIX94" s="14"/>
+      <c r="AIY94" s="14"/>
+      <c r="AIZ94" s="14"/>
+      <c r="AJA94" s="14"/>
+      <c r="AJB94" s="14"/>
+      <c r="AJC94" s="14"/>
+      <c r="AJD94" s="14"/>
+      <c r="AJE94" s="14"/>
+      <c r="AJF94" s="14"/>
+      <c r="AJG94" s="14"/>
+      <c r="AJH94" s="14"/>
+      <c r="AJI94" s="14"/>
+      <c r="AJJ94" s="14"/>
+      <c r="AJK94" s="14"/>
+      <c r="AJL94" s="14"/>
+      <c r="AJM94" s="14"/>
+      <c r="AJN94" s="14"/>
+      <c r="AJO94" s="14"/>
+      <c r="AJP94" s="14"/>
+      <c r="AJQ94" s="14"/>
+      <c r="AJR94" s="14"/>
+      <c r="AJS94" s="14"/>
+      <c r="AJT94" s="14"/>
+      <c r="AJU94" s="14"/>
+      <c r="AJV94" s="14"/>
+      <c r="AJW94" s="14"/>
+      <c r="AJX94" s="14"/>
+      <c r="AJY94" s="14"/>
+      <c r="AJZ94" s="14"/>
+      <c r="AKA94" s="14"/>
+      <c r="AKB94" s="14"/>
+      <c r="AKC94" s="14"/>
+      <c r="AKD94" s="14"/>
+      <c r="AKE94" s="14"/>
+      <c r="AKF94" s="14"/>
+      <c r="AKG94" s="14"/>
+      <c r="AKH94" s="14"/>
+      <c r="AKI94" s="14"/>
+      <c r="AKJ94" s="14"/>
+      <c r="AKK94" s="14"/>
+      <c r="AKL94" s="14"/>
+      <c r="AKM94" s="14"/>
+      <c r="AKN94" s="14"/>
+      <c r="AKO94" s="14"/>
+      <c r="AKP94" s="14"/>
+      <c r="AKQ94" s="14"/>
+      <c r="AKR94" s="14"/>
+      <c r="AKS94" s="14"/>
+      <c r="AKT94" s="14"/>
+      <c r="AKU94" s="14"/>
+      <c r="AKV94" s="14"/>
+      <c r="AKW94" s="14"/>
+      <c r="AKX94" s="14"/>
+      <c r="AKY94" s="14"/>
+      <c r="AKZ94" s="14"/>
+      <c r="ALA94" s="14"/>
+      <c r="ALB94" s="14"/>
+      <c r="ALC94" s="14"/>
+      <c r="ALD94" s="14"/>
+      <c r="ALE94" s="14"/>
+      <c r="ALF94" s="14"/>
+      <c r="ALG94" s="14"/>
+      <c r="ALH94" s="14"/>
+      <c r="ALI94" s="14"/>
+      <c r="ALJ94" s="14"/>
+      <c r="ALK94" s="14"/>
+      <c r="ALL94" s="14"/>
+      <c r="ALM94" s="14"/>
+      <c r="ALN94" s="14"/>
+      <c r="ALO94" s="14"/>
+      <c r="ALP94" s="14"/>
+      <c r="ALQ94" s="14"/>
+      <c r="ALR94" s="14"/>
+      <c r="ALS94" s="14"/>
+      <c r="ALT94" s="14"/>
+      <c r="ALU94" s="14"/>
+      <c r="ALV94" s="14"/>
+      <c r="ALW94" s="14"/>
+      <c r="ALX94" s="14"/>
+      <c r="ALY94" s="14"/>
+      <c r="ALZ94" s="14"/>
+      <c r="AMA94" s="14"/>
+      <c r="AMB94" s="14"/>
+      <c r="AMC94" s="14"/>
+      <c r="AMD94" s="14"/>
+      <c r="AME94" s="14"/>
+      <c r="AMF94" s="14"/>
+      <c r="AMG94" s="14"/>
+      <c r="AMH94" s="14"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="10">
+        <v>0.9980711</v>
+      </c>
+      <c r="D95" s="11">
+        <v>0.9679211</v>
+      </c>
+      <c r="E95" s="43">
+        <v>0.9683</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="10">
+        <v>0.9983053</v>
+      </c>
+      <c r="D96" s="10">
+        <v>0.9672205</v>
+      </c>
+      <c r="E96" s="43">
+        <v>0.9684</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="68"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="60">
+        <v>0.9959016</v>
+      </c>
+      <c r="D98" s="60">
+        <v>0.9673051</v>
+      </c>
+      <c r="E98" s="66">
+        <v>0.9686</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" s="10">
+        <v>0.9969022</v>
+      </c>
+      <c r="D99" s="10">
+        <v>0.9671612</v>
+      </c>
+      <c r="E99" s="68">
+        <v>0.9687</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="10">
+        <v>0.9964216</v>
+      </c>
+      <c r="D100" s="10">
+        <v>0.9673732</v>
+      </c>
+      <c r="E100" s="68">
+        <v>0.9686</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" s="10">
+        <v>0.9968043</v>
+      </c>
+      <c r="D101" s="10">
+        <v>0.9674291</v>
+      </c>
+      <c r="E101" s="68">
+        <v>0.96939</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102" s="68"/>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="68"/>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" s="68"/>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="68"/>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" s="68"/>
+    </row>
+    <row r="107" spans="5:5">
+      <c r="E107" s="68"/>
+    </row>
+    <row r="108" spans="5:5">
+      <c r="E108" s="68"/>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109" s="68"/>
+    </row>
+    <row r="110" spans="5:5">
+      <c r="E110" s="68"/>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111" s="68"/>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="68"/>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="68"/>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="68"/>
+    </row>
+    <row r="115" spans="5:5">
+      <c r="E115" s="68"/>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" s="68"/>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" s="68"/>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" s="68"/>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119" s="68"/>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" s="68"/>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" s="68"/>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" s="68"/>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="68"/>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" s="68"/>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="68"/>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="68"/>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="68"/>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="68"/>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" s="68"/>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="68"/>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="68"/>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" s="68"/>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="68"/>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" s="68"/>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="68"/>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" s="68"/>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" s="68"/>
+    </row>
+    <row r="138" spans="5:5">
+      <c r="E138" s="68"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A32:G32"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7860" tabRatio="993"/>
+    <workbookView windowWidth="28695" windowHeight="13305" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="特征选取" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <r>
       <rPr>
@@ -1423,6 +1423,34 @@
   <si>
     <t>344</t>
   </si>
+  <si>
+    <t>diff_action_type_time_delta 25 35</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>baseline + diff_action_type_time_delta 15</t>
+  </si>
+  <si>
+    <t>320 baseline + diff_action_type_time_delta 15 16</t>
+  </si>
+  <si>
+    <r>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> baseline_features</t>
+    </r>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
 </sst>
 </file>
 
@@ -1436,7 +1464,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1462,6 +1490,10 @@
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="DejaVu Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1998,142 +2030,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2320,10 +2352,13 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2670,8 +2705,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -7986,7 +8021,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -18222,7 +18257,7 @@
       <c r="G72" s="35">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="62" t="s">
+      <c r="H72" s="63" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="46"/>
@@ -19262,7 +19297,7 @@
       <c r="G73" s="12">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="63" t="s">
+      <c r="H73" s="64" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19328,7 +19363,7 @@
       <c r="F76" s="20">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="64">
+      <c r="G76" s="65">
         <v>0.9682</v>
       </c>
     </row>
@@ -19351,7 +19386,7 @@
       <c r="F78" s="57">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="65">
+      <c r="G78" s="66">
         <v>0.9678</v>
       </c>
     </row>
@@ -19466,1024 +19501,1024 @@
       <c r="F84" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="G84" s="66">
+      <c r="G84" s="67">
         <v>0.9686</v>
       </c>
-      <c r="H84" s="67"/>
-      <c r="I84" s="69"/>
-      <c r="J84" s="69"/>
-      <c r="K84" s="69"/>
-      <c r="L84" s="69"/>
-      <c r="M84" s="69"/>
-      <c r="N84" s="69"/>
-      <c r="O84" s="69"/>
-      <c r="P84" s="69"/>
-      <c r="Q84" s="69"/>
-      <c r="R84" s="69"/>
-      <c r="S84" s="69"/>
-      <c r="T84" s="69"/>
-      <c r="U84" s="69"/>
-      <c r="V84" s="69"/>
-      <c r="W84" s="69"/>
-      <c r="X84" s="69"/>
-      <c r="Y84" s="69"/>
-      <c r="Z84" s="69"/>
-      <c r="AA84" s="69"/>
-      <c r="AB84" s="69"/>
-      <c r="AC84" s="69"/>
-      <c r="AD84" s="69"/>
-      <c r="AE84" s="69"/>
-      <c r="AF84" s="69"/>
-      <c r="AG84" s="69"/>
-      <c r="AH84" s="69"/>
-      <c r="AI84" s="69"/>
-      <c r="AJ84" s="69"/>
-      <c r="AK84" s="69"/>
-      <c r="AL84" s="69"/>
-      <c r="AM84" s="69"/>
-      <c r="AN84" s="69"/>
-      <c r="AO84" s="69"/>
-      <c r="AP84" s="69"/>
-      <c r="AQ84" s="69"/>
-      <c r="AR84" s="69"/>
-      <c r="AS84" s="69"/>
-      <c r="AT84" s="69"/>
-      <c r="AU84" s="69"/>
-      <c r="AV84" s="69"/>
-      <c r="AW84" s="69"/>
-      <c r="AX84" s="69"/>
-      <c r="AY84" s="69"/>
-      <c r="AZ84" s="69"/>
-      <c r="BA84" s="69"/>
-      <c r="BB84" s="69"/>
-      <c r="BC84" s="69"/>
-      <c r="BD84" s="69"/>
-      <c r="BE84" s="69"/>
-      <c r="BF84" s="69"/>
-      <c r="BG84" s="69"/>
-      <c r="BH84" s="69"/>
-      <c r="BI84" s="69"/>
-      <c r="BJ84" s="69"/>
-      <c r="BK84" s="69"/>
-      <c r="BL84" s="69"/>
-      <c r="BM84" s="69"/>
-      <c r="BN84" s="69"/>
-      <c r="BO84" s="69"/>
-      <c r="BP84" s="69"/>
-      <c r="BQ84" s="69"/>
-      <c r="BR84" s="69"/>
-      <c r="BS84" s="69"/>
-      <c r="BT84" s="69"/>
-      <c r="BU84" s="69"/>
-      <c r="BV84" s="69"/>
-      <c r="BW84" s="69"/>
-      <c r="BX84" s="69"/>
-      <c r="BY84" s="69"/>
-      <c r="BZ84" s="69"/>
-      <c r="CA84" s="69"/>
-      <c r="CB84" s="69"/>
-      <c r="CC84" s="69"/>
-      <c r="CD84" s="69"/>
-      <c r="CE84" s="69"/>
-      <c r="CF84" s="69"/>
-      <c r="CG84" s="69"/>
-      <c r="CH84" s="69"/>
-      <c r="CI84" s="69"/>
-      <c r="CJ84" s="69"/>
-      <c r="CK84" s="69"/>
-      <c r="CL84" s="69"/>
-      <c r="CM84" s="69"/>
-      <c r="CN84" s="69"/>
-      <c r="CO84" s="69"/>
-      <c r="CP84" s="69"/>
-      <c r="CQ84" s="69"/>
-      <c r="CR84" s="69"/>
-      <c r="CS84" s="69"/>
-      <c r="CT84" s="69"/>
-      <c r="CU84" s="69"/>
-      <c r="CV84" s="69"/>
-      <c r="CW84" s="69"/>
-      <c r="CX84" s="69"/>
-      <c r="CY84" s="69"/>
-      <c r="CZ84" s="69"/>
-      <c r="DA84" s="69"/>
-      <c r="DB84" s="69"/>
-      <c r="DC84" s="69"/>
-      <c r="DD84" s="69"/>
-      <c r="DE84" s="69"/>
-      <c r="DF84" s="69"/>
-      <c r="DG84" s="69"/>
-      <c r="DH84" s="69"/>
-      <c r="DI84" s="69"/>
-      <c r="DJ84" s="69"/>
-      <c r="DK84" s="69"/>
-      <c r="DL84" s="69"/>
-      <c r="DM84" s="69"/>
-      <c r="DN84" s="69"/>
-      <c r="DO84" s="69"/>
-      <c r="DP84" s="69"/>
-      <c r="DQ84" s="69"/>
-      <c r="DR84" s="69"/>
-      <c r="DS84" s="69"/>
-      <c r="DT84" s="69"/>
-      <c r="DU84" s="69"/>
-      <c r="DV84" s="69"/>
-      <c r="DW84" s="69"/>
-      <c r="DX84" s="69"/>
-      <c r="DY84" s="69"/>
-      <c r="DZ84" s="69"/>
-      <c r="EA84" s="69"/>
-      <c r="EB84" s="69"/>
-      <c r="EC84" s="69"/>
-      <c r="ED84" s="69"/>
-      <c r="EE84" s="69"/>
-      <c r="EF84" s="69"/>
-      <c r="EG84" s="69"/>
-      <c r="EH84" s="69"/>
-      <c r="EI84" s="69"/>
-      <c r="EJ84" s="69"/>
-      <c r="EK84" s="69"/>
-      <c r="EL84" s="69"/>
-      <c r="EM84" s="69"/>
-      <c r="EN84" s="69"/>
-      <c r="EO84" s="69"/>
-      <c r="EP84" s="69"/>
-      <c r="EQ84" s="69"/>
-      <c r="ER84" s="69"/>
-      <c r="ES84" s="69"/>
-      <c r="ET84" s="69"/>
-      <c r="EU84" s="69"/>
-      <c r="EV84" s="69"/>
-      <c r="EW84" s="69"/>
-      <c r="EX84" s="69"/>
-      <c r="EY84" s="69"/>
-      <c r="EZ84" s="69"/>
-      <c r="FA84" s="69"/>
-      <c r="FB84" s="69"/>
-      <c r="FC84" s="69"/>
-      <c r="FD84" s="69"/>
-      <c r="FE84" s="69"/>
-      <c r="FF84" s="69"/>
-      <c r="FG84" s="69"/>
-      <c r="FH84" s="69"/>
-      <c r="FI84" s="69"/>
-      <c r="FJ84" s="69"/>
-      <c r="FK84" s="69"/>
-      <c r="FL84" s="69"/>
-      <c r="FM84" s="69"/>
-      <c r="FN84" s="69"/>
-      <c r="FO84" s="69"/>
-      <c r="FP84" s="69"/>
-      <c r="FQ84" s="69"/>
-      <c r="FR84" s="69"/>
-      <c r="FS84" s="69"/>
-      <c r="FT84" s="69"/>
-      <c r="FU84" s="69"/>
-      <c r="FV84" s="69"/>
-      <c r="FW84" s="69"/>
-      <c r="FX84" s="69"/>
-      <c r="FY84" s="69"/>
-      <c r="FZ84" s="69"/>
-      <c r="GA84" s="69"/>
-      <c r="GB84" s="69"/>
-      <c r="GC84" s="69"/>
-      <c r="GD84" s="69"/>
-      <c r="GE84" s="69"/>
-      <c r="GF84" s="69"/>
-      <c r="GG84" s="69"/>
-      <c r="GH84" s="69"/>
-      <c r="GI84" s="69"/>
-      <c r="GJ84" s="69"/>
-      <c r="GK84" s="69"/>
-      <c r="GL84" s="69"/>
-      <c r="GM84" s="69"/>
-      <c r="GN84" s="69"/>
-      <c r="GO84" s="69"/>
-      <c r="GP84" s="69"/>
-      <c r="GQ84" s="69"/>
-      <c r="GR84" s="69"/>
-      <c r="GS84" s="69"/>
-      <c r="GT84" s="69"/>
-      <c r="GU84" s="69"/>
-      <c r="GV84" s="69"/>
-      <c r="GW84" s="69"/>
-      <c r="GX84" s="69"/>
-      <c r="GY84" s="69"/>
-      <c r="GZ84" s="69"/>
-      <c r="HA84" s="69"/>
-      <c r="HB84" s="69"/>
-      <c r="HC84" s="69"/>
-      <c r="HD84" s="69"/>
-      <c r="HE84" s="69"/>
-      <c r="HF84" s="69"/>
-      <c r="HG84" s="69"/>
-      <c r="HH84" s="69"/>
-      <c r="HI84" s="69"/>
-      <c r="HJ84" s="69"/>
-      <c r="HK84" s="69"/>
-      <c r="HL84" s="69"/>
-      <c r="HM84" s="69"/>
-      <c r="HN84" s="69"/>
-      <c r="HO84" s="69"/>
-      <c r="HP84" s="69"/>
-      <c r="HQ84" s="69"/>
-      <c r="HR84" s="69"/>
-      <c r="HS84" s="69"/>
-      <c r="HT84" s="69"/>
-      <c r="HU84" s="69"/>
-      <c r="HV84" s="69"/>
-      <c r="HW84" s="69"/>
-      <c r="HX84" s="69"/>
-      <c r="HY84" s="69"/>
-      <c r="HZ84" s="69"/>
-      <c r="IA84" s="69"/>
-      <c r="IB84" s="69"/>
-      <c r="IC84" s="69"/>
-      <c r="ID84" s="69"/>
-      <c r="IE84" s="69"/>
-      <c r="IF84" s="69"/>
-      <c r="IG84" s="69"/>
-      <c r="IH84" s="69"/>
-      <c r="II84" s="69"/>
-      <c r="IJ84" s="69"/>
-      <c r="IK84" s="69"/>
-      <c r="IL84" s="69"/>
-      <c r="IM84" s="69"/>
-      <c r="IN84" s="69"/>
-      <c r="IO84" s="69"/>
-      <c r="IP84" s="69"/>
-      <c r="IQ84" s="69"/>
-      <c r="IR84" s="69"/>
-      <c r="IS84" s="69"/>
-      <c r="IT84" s="69"/>
-      <c r="IU84" s="69"/>
-      <c r="IV84" s="69"/>
-      <c r="IW84" s="69"/>
-      <c r="IX84" s="69"/>
-      <c r="IY84" s="69"/>
-      <c r="IZ84" s="69"/>
-      <c r="JA84" s="69"/>
-      <c r="JB84" s="69"/>
-      <c r="JC84" s="69"/>
-      <c r="JD84" s="69"/>
-      <c r="JE84" s="69"/>
-      <c r="JF84" s="69"/>
-      <c r="JG84" s="69"/>
-      <c r="JH84" s="69"/>
-      <c r="JI84" s="69"/>
-      <c r="JJ84" s="69"/>
-      <c r="JK84" s="69"/>
-      <c r="JL84" s="69"/>
-      <c r="JM84" s="69"/>
-      <c r="JN84" s="69"/>
-      <c r="JO84" s="69"/>
-      <c r="JP84" s="69"/>
-      <c r="JQ84" s="69"/>
-      <c r="JR84" s="69"/>
-      <c r="JS84" s="69"/>
-      <c r="JT84" s="69"/>
-      <c r="JU84" s="69"/>
-      <c r="JV84" s="69"/>
-      <c r="JW84" s="69"/>
-      <c r="JX84" s="69"/>
-      <c r="JY84" s="69"/>
-      <c r="JZ84" s="69"/>
-      <c r="KA84" s="69"/>
-      <c r="KB84" s="69"/>
-      <c r="KC84" s="69"/>
-      <c r="KD84" s="69"/>
-      <c r="KE84" s="69"/>
-      <c r="KF84" s="69"/>
-      <c r="KG84" s="69"/>
-      <c r="KH84" s="69"/>
-      <c r="KI84" s="69"/>
-      <c r="KJ84" s="69"/>
-      <c r="KK84" s="69"/>
-      <c r="KL84" s="69"/>
-      <c r="KM84" s="69"/>
-      <c r="KN84" s="69"/>
-      <c r="KO84" s="69"/>
-      <c r="KP84" s="69"/>
-      <c r="KQ84" s="69"/>
-      <c r="KR84" s="69"/>
-      <c r="KS84" s="69"/>
-      <c r="KT84" s="69"/>
-      <c r="KU84" s="69"/>
-      <c r="KV84" s="69"/>
-      <c r="KW84" s="69"/>
-      <c r="KX84" s="69"/>
-      <c r="KY84" s="69"/>
-      <c r="KZ84" s="69"/>
-      <c r="LA84" s="69"/>
-      <c r="LB84" s="69"/>
-      <c r="LC84" s="69"/>
-      <c r="LD84" s="69"/>
-      <c r="LE84" s="69"/>
-      <c r="LF84" s="69"/>
-      <c r="LG84" s="69"/>
-      <c r="LH84" s="69"/>
-      <c r="LI84" s="69"/>
-      <c r="LJ84" s="69"/>
-      <c r="LK84" s="69"/>
-      <c r="LL84" s="69"/>
-      <c r="LM84" s="69"/>
-      <c r="LN84" s="69"/>
-      <c r="LO84" s="69"/>
-      <c r="LP84" s="69"/>
-      <c r="LQ84" s="69"/>
-      <c r="LR84" s="69"/>
-      <c r="LS84" s="69"/>
-      <c r="LT84" s="69"/>
-      <c r="LU84" s="69"/>
-      <c r="LV84" s="69"/>
-      <c r="LW84" s="69"/>
-      <c r="LX84" s="69"/>
-      <c r="LY84" s="69"/>
-      <c r="LZ84" s="69"/>
-      <c r="MA84" s="69"/>
-      <c r="MB84" s="69"/>
-      <c r="MC84" s="69"/>
-      <c r="MD84" s="69"/>
-      <c r="ME84" s="69"/>
-      <c r="MF84" s="69"/>
-      <c r="MG84" s="69"/>
-      <c r="MH84" s="69"/>
-      <c r="MI84" s="69"/>
-      <c r="MJ84" s="69"/>
-      <c r="MK84" s="69"/>
-      <c r="ML84" s="69"/>
-      <c r="MM84" s="69"/>
-      <c r="MN84" s="69"/>
-      <c r="MO84" s="69"/>
-      <c r="MP84" s="69"/>
-      <c r="MQ84" s="69"/>
-      <c r="MR84" s="69"/>
-      <c r="MS84" s="69"/>
-      <c r="MT84" s="69"/>
-      <c r="MU84" s="69"/>
-      <c r="MV84" s="69"/>
-      <c r="MW84" s="69"/>
-      <c r="MX84" s="69"/>
-      <c r="MY84" s="69"/>
-      <c r="MZ84" s="69"/>
-      <c r="NA84" s="69"/>
-      <c r="NB84" s="69"/>
-      <c r="NC84" s="69"/>
-      <c r="ND84" s="69"/>
-      <c r="NE84" s="69"/>
-      <c r="NF84" s="69"/>
-      <c r="NG84" s="69"/>
-      <c r="NH84" s="69"/>
-      <c r="NI84" s="69"/>
-      <c r="NJ84" s="69"/>
-      <c r="NK84" s="69"/>
-      <c r="NL84" s="69"/>
-      <c r="NM84" s="69"/>
-      <c r="NN84" s="69"/>
-      <c r="NO84" s="69"/>
-      <c r="NP84" s="69"/>
-      <c r="NQ84" s="69"/>
-      <c r="NR84" s="69"/>
-      <c r="NS84" s="69"/>
-      <c r="NT84" s="69"/>
-      <c r="NU84" s="69"/>
-      <c r="NV84" s="69"/>
-      <c r="NW84" s="69"/>
-      <c r="NX84" s="69"/>
-      <c r="NY84" s="69"/>
-      <c r="NZ84" s="69"/>
-      <c r="OA84" s="69"/>
-      <c r="OB84" s="69"/>
-      <c r="OC84" s="69"/>
-      <c r="OD84" s="69"/>
-      <c r="OE84" s="69"/>
-      <c r="OF84" s="69"/>
-      <c r="OG84" s="69"/>
-      <c r="OH84" s="69"/>
-      <c r="OI84" s="69"/>
-      <c r="OJ84" s="69"/>
-      <c r="OK84" s="69"/>
-      <c r="OL84" s="69"/>
-      <c r="OM84" s="69"/>
-      <c r="ON84" s="69"/>
-      <c r="OO84" s="69"/>
-      <c r="OP84" s="69"/>
-      <c r="OQ84" s="69"/>
-      <c r="OR84" s="69"/>
-      <c r="OS84" s="69"/>
-      <c r="OT84" s="69"/>
-      <c r="OU84" s="69"/>
-      <c r="OV84" s="69"/>
-      <c r="OW84" s="69"/>
-      <c r="OX84" s="69"/>
-      <c r="OY84" s="69"/>
-      <c r="OZ84" s="69"/>
-      <c r="PA84" s="69"/>
-      <c r="PB84" s="69"/>
-      <c r="PC84" s="69"/>
-      <c r="PD84" s="69"/>
-      <c r="PE84" s="69"/>
-      <c r="PF84" s="69"/>
-      <c r="PG84" s="69"/>
-      <c r="PH84" s="69"/>
-      <c r="PI84" s="69"/>
-      <c r="PJ84" s="69"/>
-      <c r="PK84" s="69"/>
-      <c r="PL84" s="69"/>
-      <c r="PM84" s="69"/>
-      <c r="PN84" s="69"/>
-      <c r="PO84" s="69"/>
-      <c r="PP84" s="69"/>
-      <c r="PQ84" s="69"/>
-      <c r="PR84" s="69"/>
-      <c r="PS84" s="69"/>
-      <c r="PT84" s="69"/>
-      <c r="PU84" s="69"/>
-      <c r="PV84" s="69"/>
-      <c r="PW84" s="69"/>
-      <c r="PX84" s="69"/>
-      <c r="PY84" s="69"/>
-      <c r="PZ84" s="69"/>
-      <c r="QA84" s="69"/>
-      <c r="QB84" s="69"/>
-      <c r="QC84" s="69"/>
-      <c r="QD84" s="69"/>
-      <c r="QE84" s="69"/>
-      <c r="QF84" s="69"/>
-      <c r="QG84" s="69"/>
-      <c r="QH84" s="69"/>
-      <c r="QI84" s="69"/>
-      <c r="QJ84" s="69"/>
-      <c r="QK84" s="69"/>
-      <c r="QL84" s="69"/>
-      <c r="QM84" s="69"/>
-      <c r="QN84" s="69"/>
-      <c r="QO84" s="69"/>
-      <c r="QP84" s="69"/>
-      <c r="QQ84" s="69"/>
-      <c r="QR84" s="69"/>
-      <c r="QS84" s="69"/>
-      <c r="QT84" s="69"/>
-      <c r="QU84" s="69"/>
-      <c r="QV84" s="69"/>
-      <c r="QW84" s="69"/>
-      <c r="QX84" s="69"/>
-      <c r="QY84" s="69"/>
-      <c r="QZ84" s="69"/>
-      <c r="RA84" s="69"/>
-      <c r="RB84" s="69"/>
-      <c r="RC84" s="69"/>
-      <c r="RD84" s="69"/>
-      <c r="RE84" s="69"/>
-      <c r="RF84" s="69"/>
-      <c r="RG84" s="69"/>
-      <c r="RH84" s="69"/>
-      <c r="RI84" s="69"/>
-      <c r="RJ84" s="69"/>
-      <c r="RK84" s="69"/>
-      <c r="RL84" s="69"/>
-      <c r="RM84" s="69"/>
-      <c r="RN84" s="69"/>
-      <c r="RO84" s="69"/>
-      <c r="RP84" s="69"/>
-      <c r="RQ84" s="69"/>
-      <c r="RR84" s="69"/>
-      <c r="RS84" s="69"/>
-      <c r="RT84" s="69"/>
-      <c r="RU84" s="69"/>
-      <c r="RV84" s="69"/>
-      <c r="RW84" s="69"/>
-      <c r="RX84" s="69"/>
-      <c r="RY84" s="69"/>
-      <c r="RZ84" s="69"/>
-      <c r="SA84" s="69"/>
-      <c r="SB84" s="69"/>
-      <c r="SC84" s="69"/>
-      <c r="SD84" s="69"/>
-      <c r="SE84" s="69"/>
-      <c r="SF84" s="69"/>
-      <c r="SG84" s="69"/>
-      <c r="SH84" s="69"/>
-      <c r="SI84" s="69"/>
-      <c r="SJ84" s="69"/>
-      <c r="SK84" s="69"/>
-      <c r="SL84" s="69"/>
-      <c r="SM84" s="69"/>
-      <c r="SN84" s="69"/>
-      <c r="SO84" s="69"/>
-      <c r="SP84" s="69"/>
-      <c r="SQ84" s="69"/>
-      <c r="SR84" s="69"/>
-      <c r="SS84" s="69"/>
-      <c r="ST84" s="69"/>
-      <c r="SU84" s="69"/>
-      <c r="SV84" s="69"/>
-      <c r="SW84" s="69"/>
-      <c r="SX84" s="69"/>
-      <c r="SY84" s="69"/>
-      <c r="SZ84" s="69"/>
-      <c r="TA84" s="69"/>
-      <c r="TB84" s="69"/>
-      <c r="TC84" s="69"/>
-      <c r="TD84" s="69"/>
-      <c r="TE84" s="69"/>
-      <c r="TF84" s="69"/>
-      <c r="TG84" s="69"/>
-      <c r="TH84" s="69"/>
-      <c r="TI84" s="69"/>
-      <c r="TJ84" s="69"/>
-      <c r="TK84" s="69"/>
-      <c r="TL84" s="69"/>
-      <c r="TM84" s="69"/>
-      <c r="TN84" s="69"/>
-      <c r="TO84" s="69"/>
-      <c r="TP84" s="69"/>
-      <c r="TQ84" s="69"/>
-      <c r="TR84" s="69"/>
-      <c r="TS84" s="69"/>
-      <c r="TT84" s="69"/>
-      <c r="TU84" s="69"/>
-      <c r="TV84" s="69"/>
-      <c r="TW84" s="69"/>
-      <c r="TX84" s="69"/>
-      <c r="TY84" s="69"/>
-      <c r="TZ84" s="69"/>
-      <c r="UA84" s="69"/>
-      <c r="UB84" s="69"/>
-      <c r="UC84" s="69"/>
-      <c r="UD84" s="69"/>
-      <c r="UE84" s="69"/>
-      <c r="UF84" s="69"/>
-      <c r="UG84" s="69"/>
-      <c r="UH84" s="69"/>
-      <c r="UI84" s="69"/>
-      <c r="UJ84" s="69"/>
-      <c r="UK84" s="69"/>
-      <c r="UL84" s="69"/>
-      <c r="UM84" s="69"/>
-      <c r="UN84" s="69"/>
-      <c r="UO84" s="69"/>
-      <c r="UP84" s="69"/>
-      <c r="UQ84" s="69"/>
-      <c r="UR84" s="69"/>
-      <c r="US84" s="69"/>
-      <c r="UT84" s="69"/>
-      <c r="UU84" s="69"/>
-      <c r="UV84" s="69"/>
-      <c r="UW84" s="69"/>
-      <c r="UX84" s="69"/>
-      <c r="UY84" s="69"/>
-      <c r="UZ84" s="69"/>
-      <c r="VA84" s="69"/>
-      <c r="VB84" s="69"/>
-      <c r="VC84" s="69"/>
-      <c r="VD84" s="69"/>
-      <c r="VE84" s="69"/>
-      <c r="VF84" s="69"/>
-      <c r="VG84" s="69"/>
-      <c r="VH84" s="69"/>
-      <c r="VI84" s="69"/>
-      <c r="VJ84" s="69"/>
-      <c r="VK84" s="69"/>
-      <c r="VL84" s="69"/>
-      <c r="VM84" s="69"/>
-      <c r="VN84" s="69"/>
-      <c r="VO84" s="69"/>
-      <c r="VP84" s="69"/>
-      <c r="VQ84" s="69"/>
-      <c r="VR84" s="69"/>
-      <c r="VS84" s="69"/>
-      <c r="VT84" s="69"/>
-      <c r="VU84" s="69"/>
-      <c r="VV84" s="69"/>
-      <c r="VW84" s="69"/>
-      <c r="VX84" s="69"/>
-      <c r="VY84" s="69"/>
-      <c r="VZ84" s="69"/>
-      <c r="WA84" s="69"/>
-      <c r="WB84" s="69"/>
-      <c r="WC84" s="69"/>
-      <c r="WD84" s="69"/>
-      <c r="WE84" s="69"/>
-      <c r="WF84" s="69"/>
-      <c r="WG84" s="69"/>
-      <c r="WH84" s="69"/>
-      <c r="WI84" s="69"/>
-      <c r="WJ84" s="69"/>
-      <c r="WK84" s="69"/>
-      <c r="WL84" s="69"/>
-      <c r="WM84" s="69"/>
-      <c r="WN84" s="69"/>
-      <c r="WO84" s="69"/>
-      <c r="WP84" s="69"/>
-      <c r="WQ84" s="69"/>
-      <c r="WR84" s="69"/>
-      <c r="WS84" s="69"/>
-      <c r="WT84" s="69"/>
-      <c r="WU84" s="69"/>
-      <c r="WV84" s="69"/>
-      <c r="WW84" s="69"/>
-      <c r="WX84" s="69"/>
-      <c r="WY84" s="69"/>
-      <c r="WZ84" s="69"/>
-      <c r="XA84" s="69"/>
-      <c r="XB84" s="69"/>
-      <c r="XC84" s="69"/>
-      <c r="XD84" s="69"/>
-      <c r="XE84" s="69"/>
-      <c r="XF84" s="69"/>
-      <c r="XG84" s="69"/>
-      <c r="XH84" s="69"/>
-      <c r="XI84" s="69"/>
-      <c r="XJ84" s="69"/>
-      <c r="XK84" s="69"/>
-      <c r="XL84" s="69"/>
-      <c r="XM84" s="69"/>
-      <c r="XN84" s="69"/>
-      <c r="XO84" s="69"/>
-      <c r="XP84" s="69"/>
-      <c r="XQ84" s="69"/>
-      <c r="XR84" s="69"/>
-      <c r="XS84" s="69"/>
-      <c r="XT84" s="69"/>
-      <c r="XU84" s="69"/>
-      <c r="XV84" s="69"/>
-      <c r="XW84" s="69"/>
-      <c r="XX84" s="69"/>
-      <c r="XY84" s="69"/>
-      <c r="XZ84" s="69"/>
-      <c r="YA84" s="69"/>
-      <c r="YB84" s="69"/>
-      <c r="YC84" s="69"/>
-      <c r="YD84" s="69"/>
-      <c r="YE84" s="69"/>
-      <c r="YF84" s="69"/>
-      <c r="YG84" s="69"/>
-      <c r="YH84" s="69"/>
-      <c r="YI84" s="69"/>
-      <c r="YJ84" s="69"/>
-      <c r="YK84" s="69"/>
-      <c r="YL84" s="69"/>
-      <c r="YM84" s="69"/>
-      <c r="YN84" s="69"/>
-      <c r="YO84" s="69"/>
-      <c r="YP84" s="69"/>
-      <c r="YQ84" s="69"/>
-      <c r="YR84" s="69"/>
-      <c r="YS84" s="69"/>
-      <c r="YT84" s="69"/>
-      <c r="YU84" s="69"/>
-      <c r="YV84" s="69"/>
-      <c r="YW84" s="69"/>
-      <c r="YX84" s="69"/>
-      <c r="YY84" s="69"/>
-      <c r="YZ84" s="69"/>
-      <c r="ZA84" s="69"/>
-      <c r="ZB84" s="69"/>
-      <c r="ZC84" s="69"/>
-      <c r="ZD84" s="69"/>
-      <c r="ZE84" s="69"/>
-      <c r="ZF84" s="69"/>
-      <c r="ZG84" s="69"/>
-      <c r="ZH84" s="69"/>
-      <c r="ZI84" s="69"/>
-      <c r="ZJ84" s="69"/>
-      <c r="ZK84" s="69"/>
-      <c r="ZL84" s="69"/>
-      <c r="ZM84" s="69"/>
-      <c r="ZN84" s="69"/>
-      <c r="ZO84" s="69"/>
-      <c r="ZP84" s="69"/>
-      <c r="ZQ84" s="69"/>
-      <c r="ZR84" s="69"/>
-      <c r="ZS84" s="69"/>
-      <c r="ZT84" s="69"/>
-      <c r="ZU84" s="69"/>
-      <c r="ZV84" s="69"/>
-      <c r="ZW84" s="69"/>
-      <c r="ZX84" s="69"/>
-      <c r="ZY84" s="69"/>
-      <c r="ZZ84" s="69"/>
-      <c r="AAA84" s="69"/>
-      <c r="AAB84" s="69"/>
-      <c r="AAC84" s="69"/>
-      <c r="AAD84" s="69"/>
-      <c r="AAE84" s="69"/>
-      <c r="AAF84" s="69"/>
-      <c r="AAG84" s="69"/>
-      <c r="AAH84" s="69"/>
-      <c r="AAI84" s="69"/>
-      <c r="AAJ84" s="69"/>
-      <c r="AAK84" s="69"/>
-      <c r="AAL84" s="69"/>
-      <c r="AAM84" s="69"/>
-      <c r="AAN84" s="69"/>
-      <c r="AAO84" s="69"/>
-      <c r="AAP84" s="69"/>
-      <c r="AAQ84" s="69"/>
-      <c r="AAR84" s="69"/>
-      <c r="AAS84" s="69"/>
-      <c r="AAT84" s="69"/>
-      <c r="AAU84" s="69"/>
-      <c r="AAV84" s="69"/>
-      <c r="AAW84" s="69"/>
-      <c r="AAX84" s="69"/>
-      <c r="AAY84" s="69"/>
-      <c r="AAZ84" s="69"/>
-      <c r="ABA84" s="69"/>
-      <c r="ABB84" s="69"/>
-      <c r="ABC84" s="69"/>
-      <c r="ABD84" s="69"/>
-      <c r="ABE84" s="69"/>
-      <c r="ABF84" s="69"/>
-      <c r="ABG84" s="69"/>
-      <c r="ABH84" s="69"/>
-      <c r="ABI84" s="69"/>
-      <c r="ABJ84" s="69"/>
-      <c r="ABK84" s="69"/>
-      <c r="ABL84" s="69"/>
-      <c r="ABM84" s="69"/>
-      <c r="ABN84" s="69"/>
-      <c r="ABO84" s="69"/>
-      <c r="ABP84" s="69"/>
-      <c r="ABQ84" s="69"/>
-      <c r="ABR84" s="69"/>
-      <c r="ABS84" s="69"/>
-      <c r="ABT84" s="69"/>
-      <c r="ABU84" s="69"/>
-      <c r="ABV84" s="69"/>
-      <c r="ABW84" s="69"/>
-      <c r="ABX84" s="69"/>
-      <c r="ABY84" s="69"/>
-      <c r="ABZ84" s="69"/>
-      <c r="ACA84" s="69"/>
-      <c r="ACB84" s="69"/>
-      <c r="ACC84" s="69"/>
-      <c r="ACD84" s="69"/>
-      <c r="ACE84" s="69"/>
-      <c r="ACF84" s="69"/>
-      <c r="ACG84" s="69"/>
-      <c r="ACH84" s="69"/>
-      <c r="ACI84" s="69"/>
-      <c r="ACJ84" s="69"/>
-      <c r="ACK84" s="69"/>
-      <c r="ACL84" s="69"/>
-      <c r="ACM84" s="69"/>
-      <c r="ACN84" s="69"/>
-      <c r="ACO84" s="69"/>
-      <c r="ACP84" s="69"/>
-      <c r="ACQ84" s="69"/>
-      <c r="ACR84" s="69"/>
-      <c r="ACS84" s="69"/>
-      <c r="ACT84" s="69"/>
-      <c r="ACU84" s="69"/>
-      <c r="ACV84" s="69"/>
-      <c r="ACW84" s="69"/>
-      <c r="ACX84" s="69"/>
-      <c r="ACY84" s="69"/>
-      <c r="ACZ84" s="69"/>
-      <c r="ADA84" s="69"/>
-      <c r="ADB84" s="69"/>
-      <c r="ADC84" s="69"/>
-      <c r="ADD84" s="69"/>
-      <c r="ADE84" s="69"/>
-      <c r="ADF84" s="69"/>
-      <c r="ADG84" s="69"/>
-      <c r="ADH84" s="69"/>
-      <c r="ADI84" s="69"/>
-      <c r="ADJ84" s="69"/>
-      <c r="ADK84" s="69"/>
-      <c r="ADL84" s="69"/>
-      <c r="ADM84" s="69"/>
-      <c r="ADN84" s="69"/>
-      <c r="ADO84" s="69"/>
-      <c r="ADP84" s="69"/>
-      <c r="ADQ84" s="69"/>
-      <c r="ADR84" s="69"/>
-      <c r="ADS84" s="69"/>
-      <c r="ADT84" s="69"/>
-      <c r="ADU84" s="69"/>
-      <c r="ADV84" s="69"/>
-      <c r="ADW84" s="69"/>
-      <c r="ADX84" s="69"/>
-      <c r="ADY84" s="69"/>
-      <c r="ADZ84" s="69"/>
-      <c r="AEA84" s="69"/>
-      <c r="AEB84" s="69"/>
-      <c r="AEC84" s="69"/>
-      <c r="AED84" s="69"/>
-      <c r="AEE84" s="69"/>
-      <c r="AEF84" s="69"/>
-      <c r="AEG84" s="69"/>
-      <c r="AEH84" s="69"/>
-      <c r="AEI84" s="69"/>
-      <c r="AEJ84" s="69"/>
-      <c r="AEK84" s="69"/>
-      <c r="AEL84" s="69"/>
-      <c r="AEM84" s="69"/>
-      <c r="AEN84" s="69"/>
-      <c r="AEO84" s="69"/>
-      <c r="AEP84" s="69"/>
-      <c r="AEQ84" s="69"/>
-      <c r="AER84" s="69"/>
-      <c r="AES84" s="69"/>
-      <c r="AET84" s="69"/>
-      <c r="AEU84" s="69"/>
-      <c r="AEV84" s="69"/>
-      <c r="AEW84" s="69"/>
-      <c r="AEX84" s="69"/>
-      <c r="AEY84" s="69"/>
-      <c r="AEZ84" s="69"/>
-      <c r="AFA84" s="69"/>
-      <c r="AFB84" s="69"/>
-      <c r="AFC84" s="69"/>
-      <c r="AFD84" s="69"/>
-      <c r="AFE84" s="69"/>
-      <c r="AFF84" s="69"/>
-      <c r="AFG84" s="69"/>
-      <c r="AFH84" s="69"/>
-      <c r="AFI84" s="69"/>
-      <c r="AFJ84" s="69"/>
-      <c r="AFK84" s="69"/>
-      <c r="AFL84" s="69"/>
-      <c r="AFM84" s="69"/>
-      <c r="AFN84" s="69"/>
-      <c r="AFO84" s="69"/>
-      <c r="AFP84" s="69"/>
-      <c r="AFQ84" s="69"/>
-      <c r="AFR84" s="69"/>
-      <c r="AFS84" s="69"/>
-      <c r="AFT84" s="69"/>
-      <c r="AFU84" s="69"/>
-      <c r="AFV84" s="69"/>
-      <c r="AFW84" s="69"/>
-      <c r="AFX84" s="69"/>
-      <c r="AFY84" s="69"/>
-      <c r="AFZ84" s="69"/>
-      <c r="AGA84" s="69"/>
-      <c r="AGB84" s="69"/>
-      <c r="AGC84" s="69"/>
-      <c r="AGD84" s="69"/>
-      <c r="AGE84" s="69"/>
-      <c r="AGF84" s="69"/>
-      <c r="AGG84" s="69"/>
-      <c r="AGH84" s="69"/>
-      <c r="AGI84" s="69"/>
-      <c r="AGJ84" s="69"/>
-      <c r="AGK84" s="69"/>
-      <c r="AGL84" s="69"/>
-      <c r="AGM84" s="69"/>
-      <c r="AGN84" s="69"/>
-      <c r="AGO84" s="69"/>
-      <c r="AGP84" s="69"/>
-      <c r="AGQ84" s="69"/>
-      <c r="AGR84" s="69"/>
-      <c r="AGS84" s="69"/>
-      <c r="AGT84" s="69"/>
-      <c r="AGU84" s="69"/>
-      <c r="AGV84" s="69"/>
-      <c r="AGW84" s="69"/>
-      <c r="AGX84" s="69"/>
-      <c r="AGY84" s="69"/>
-      <c r="AGZ84" s="69"/>
-      <c r="AHA84" s="69"/>
-      <c r="AHB84" s="69"/>
-      <c r="AHC84" s="69"/>
-      <c r="AHD84" s="69"/>
-      <c r="AHE84" s="69"/>
-      <c r="AHF84" s="69"/>
-      <c r="AHG84" s="69"/>
-      <c r="AHH84" s="69"/>
-      <c r="AHI84" s="69"/>
-      <c r="AHJ84" s="69"/>
-      <c r="AHK84" s="69"/>
-      <c r="AHL84" s="69"/>
-      <c r="AHM84" s="69"/>
-      <c r="AHN84" s="69"/>
-      <c r="AHO84" s="69"/>
-      <c r="AHP84" s="69"/>
-      <c r="AHQ84" s="69"/>
-      <c r="AHR84" s="69"/>
-      <c r="AHS84" s="69"/>
-      <c r="AHT84" s="69"/>
-      <c r="AHU84" s="69"/>
-      <c r="AHV84" s="69"/>
-      <c r="AHW84" s="69"/>
-      <c r="AHX84" s="69"/>
-      <c r="AHY84" s="69"/>
-      <c r="AHZ84" s="69"/>
-      <c r="AIA84" s="69"/>
-      <c r="AIB84" s="69"/>
-      <c r="AIC84" s="69"/>
-      <c r="AID84" s="69"/>
-      <c r="AIE84" s="69"/>
-      <c r="AIF84" s="69"/>
-      <c r="AIG84" s="69"/>
-      <c r="AIH84" s="69"/>
-      <c r="AII84" s="69"/>
-      <c r="AIJ84" s="69"/>
-      <c r="AIK84" s="69"/>
-      <c r="AIL84" s="69"/>
-      <c r="AIM84" s="69"/>
-      <c r="AIN84" s="69"/>
-      <c r="AIO84" s="69"/>
-      <c r="AIP84" s="69"/>
-      <c r="AIQ84" s="69"/>
-      <c r="AIR84" s="69"/>
-      <c r="AIS84" s="69"/>
-      <c r="AIT84" s="69"/>
-      <c r="AIU84" s="69"/>
-      <c r="AIV84" s="69"/>
-      <c r="AIW84" s="69"/>
-      <c r="AIX84" s="69"/>
-      <c r="AIY84" s="69"/>
-      <c r="AIZ84" s="69"/>
-      <c r="AJA84" s="69"/>
-      <c r="AJB84" s="69"/>
-      <c r="AJC84" s="69"/>
-      <c r="AJD84" s="69"/>
-      <c r="AJE84" s="69"/>
-      <c r="AJF84" s="69"/>
-      <c r="AJG84" s="69"/>
-      <c r="AJH84" s="69"/>
-      <c r="AJI84" s="69"/>
-      <c r="AJJ84" s="69"/>
-      <c r="AJK84" s="69"/>
-      <c r="AJL84" s="69"/>
-      <c r="AJM84" s="69"/>
-      <c r="AJN84" s="69"/>
-      <c r="AJO84" s="69"/>
-      <c r="AJP84" s="69"/>
-      <c r="AJQ84" s="69"/>
-      <c r="AJR84" s="69"/>
-      <c r="AJS84" s="69"/>
-      <c r="AJT84" s="69"/>
-      <c r="AJU84" s="69"/>
-      <c r="AJV84" s="69"/>
-      <c r="AJW84" s="69"/>
-      <c r="AJX84" s="69"/>
-      <c r="AJY84" s="69"/>
-      <c r="AJZ84" s="69"/>
-      <c r="AKA84" s="69"/>
-      <c r="AKB84" s="69"/>
-      <c r="AKC84" s="69"/>
-      <c r="AKD84" s="69"/>
-      <c r="AKE84" s="69"/>
-      <c r="AKF84" s="69"/>
-      <c r="AKG84" s="69"/>
-      <c r="AKH84" s="69"/>
-      <c r="AKI84" s="69"/>
-      <c r="AKJ84" s="69"/>
-      <c r="AKK84" s="69"/>
-      <c r="AKL84" s="69"/>
-      <c r="AKM84" s="69"/>
-      <c r="AKN84" s="69"/>
-      <c r="AKO84" s="69"/>
-      <c r="AKP84" s="69"/>
-      <c r="AKQ84" s="69"/>
-      <c r="AKR84" s="69"/>
-      <c r="AKS84" s="69"/>
-      <c r="AKT84" s="69"/>
-      <c r="AKU84" s="69"/>
-      <c r="AKV84" s="69"/>
-      <c r="AKW84" s="69"/>
-      <c r="AKX84" s="69"/>
-      <c r="AKY84" s="69"/>
-      <c r="AKZ84" s="69"/>
-      <c r="ALA84" s="69"/>
-      <c r="ALB84" s="69"/>
-      <c r="ALC84" s="69"/>
-      <c r="ALD84" s="69"/>
-      <c r="ALE84" s="69"/>
-      <c r="ALF84" s="69"/>
-      <c r="ALG84" s="69"/>
-      <c r="ALH84" s="69"/>
-      <c r="ALI84" s="69"/>
-      <c r="ALJ84" s="69"/>
-      <c r="ALK84" s="69"/>
-      <c r="ALL84" s="69"/>
-      <c r="ALM84" s="69"/>
-      <c r="ALN84" s="69"/>
-      <c r="ALO84" s="69"/>
-      <c r="ALP84" s="69"/>
-      <c r="ALQ84" s="69"/>
-      <c r="ALR84" s="69"/>
-      <c r="ALS84" s="69"/>
-      <c r="ALT84" s="69"/>
-      <c r="ALU84" s="69"/>
-      <c r="ALV84" s="69"/>
-      <c r="ALW84" s="69"/>
-      <c r="ALX84" s="69"/>
-      <c r="ALY84" s="69"/>
-      <c r="ALZ84" s="69"/>
-      <c r="AMA84" s="69"/>
-      <c r="AMB84" s="69"/>
-      <c r="AMC84" s="69"/>
-      <c r="AMD84" s="69"/>
-      <c r="AME84" s="69"/>
-      <c r="AMF84" s="69"/>
-      <c r="AMG84" s="69"/>
-      <c r="AMH84" s="69"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="70"/>
+      <c r="J84" s="70"/>
+      <c r="K84" s="70"/>
+      <c r="L84" s="70"/>
+      <c r="M84" s="70"/>
+      <c r="N84" s="70"/>
+      <c r="O84" s="70"/>
+      <c r="P84" s="70"/>
+      <c r="Q84" s="70"/>
+      <c r="R84" s="70"/>
+      <c r="S84" s="70"/>
+      <c r="T84" s="70"/>
+      <c r="U84" s="70"/>
+      <c r="V84" s="70"/>
+      <c r="W84" s="70"/>
+      <c r="X84" s="70"/>
+      <c r="Y84" s="70"/>
+      <c r="Z84" s="70"/>
+      <c r="AA84" s="70"/>
+      <c r="AB84" s="70"/>
+      <c r="AC84" s="70"/>
+      <c r="AD84" s="70"/>
+      <c r="AE84" s="70"/>
+      <c r="AF84" s="70"/>
+      <c r="AG84" s="70"/>
+      <c r="AH84" s="70"/>
+      <c r="AI84" s="70"/>
+      <c r="AJ84" s="70"/>
+      <c r="AK84" s="70"/>
+      <c r="AL84" s="70"/>
+      <c r="AM84" s="70"/>
+      <c r="AN84" s="70"/>
+      <c r="AO84" s="70"/>
+      <c r="AP84" s="70"/>
+      <c r="AQ84" s="70"/>
+      <c r="AR84" s="70"/>
+      <c r="AS84" s="70"/>
+      <c r="AT84" s="70"/>
+      <c r="AU84" s="70"/>
+      <c r="AV84" s="70"/>
+      <c r="AW84" s="70"/>
+      <c r="AX84" s="70"/>
+      <c r="AY84" s="70"/>
+      <c r="AZ84" s="70"/>
+      <c r="BA84" s="70"/>
+      <c r="BB84" s="70"/>
+      <c r="BC84" s="70"/>
+      <c r="BD84" s="70"/>
+      <c r="BE84" s="70"/>
+      <c r="BF84" s="70"/>
+      <c r="BG84" s="70"/>
+      <c r="BH84" s="70"/>
+      <c r="BI84" s="70"/>
+      <c r="BJ84" s="70"/>
+      <c r="BK84" s="70"/>
+      <c r="BL84" s="70"/>
+      <c r="BM84" s="70"/>
+      <c r="BN84" s="70"/>
+      <c r="BO84" s="70"/>
+      <c r="BP84" s="70"/>
+      <c r="BQ84" s="70"/>
+      <c r="BR84" s="70"/>
+      <c r="BS84" s="70"/>
+      <c r="BT84" s="70"/>
+      <c r="BU84" s="70"/>
+      <c r="BV84" s="70"/>
+      <c r="BW84" s="70"/>
+      <c r="BX84" s="70"/>
+      <c r="BY84" s="70"/>
+      <c r="BZ84" s="70"/>
+      <c r="CA84" s="70"/>
+      <c r="CB84" s="70"/>
+      <c r="CC84" s="70"/>
+      <c r="CD84" s="70"/>
+      <c r="CE84" s="70"/>
+      <c r="CF84" s="70"/>
+      <c r="CG84" s="70"/>
+      <c r="CH84" s="70"/>
+      <c r="CI84" s="70"/>
+      <c r="CJ84" s="70"/>
+      <c r="CK84" s="70"/>
+      <c r="CL84" s="70"/>
+      <c r="CM84" s="70"/>
+      <c r="CN84" s="70"/>
+      <c r="CO84" s="70"/>
+      <c r="CP84" s="70"/>
+      <c r="CQ84" s="70"/>
+      <c r="CR84" s="70"/>
+      <c r="CS84" s="70"/>
+      <c r="CT84" s="70"/>
+      <c r="CU84" s="70"/>
+      <c r="CV84" s="70"/>
+      <c r="CW84" s="70"/>
+      <c r="CX84" s="70"/>
+      <c r="CY84" s="70"/>
+      <c r="CZ84" s="70"/>
+      <c r="DA84" s="70"/>
+      <c r="DB84" s="70"/>
+      <c r="DC84" s="70"/>
+      <c r="DD84" s="70"/>
+      <c r="DE84" s="70"/>
+      <c r="DF84" s="70"/>
+      <c r="DG84" s="70"/>
+      <c r="DH84" s="70"/>
+      <c r="DI84" s="70"/>
+      <c r="DJ84" s="70"/>
+      <c r="DK84" s="70"/>
+      <c r="DL84" s="70"/>
+      <c r="DM84" s="70"/>
+      <c r="DN84" s="70"/>
+      <c r="DO84" s="70"/>
+      <c r="DP84" s="70"/>
+      <c r="DQ84" s="70"/>
+      <c r="DR84" s="70"/>
+      <c r="DS84" s="70"/>
+      <c r="DT84" s="70"/>
+      <c r="DU84" s="70"/>
+      <c r="DV84" s="70"/>
+      <c r="DW84" s="70"/>
+      <c r="DX84" s="70"/>
+      <c r="DY84" s="70"/>
+      <c r="DZ84" s="70"/>
+      <c r="EA84" s="70"/>
+      <c r="EB84" s="70"/>
+      <c r="EC84" s="70"/>
+      <c r="ED84" s="70"/>
+      <c r="EE84" s="70"/>
+      <c r="EF84" s="70"/>
+      <c r="EG84" s="70"/>
+      <c r="EH84" s="70"/>
+      <c r="EI84" s="70"/>
+      <c r="EJ84" s="70"/>
+      <c r="EK84" s="70"/>
+      <c r="EL84" s="70"/>
+      <c r="EM84" s="70"/>
+      <c r="EN84" s="70"/>
+      <c r="EO84" s="70"/>
+      <c r="EP84" s="70"/>
+      <c r="EQ84" s="70"/>
+      <c r="ER84" s="70"/>
+      <c r="ES84" s="70"/>
+      <c r="ET84" s="70"/>
+      <c r="EU84" s="70"/>
+      <c r="EV84" s="70"/>
+      <c r="EW84" s="70"/>
+      <c r="EX84" s="70"/>
+      <c r="EY84" s="70"/>
+      <c r="EZ84" s="70"/>
+      <c r="FA84" s="70"/>
+      <c r="FB84" s="70"/>
+      <c r="FC84" s="70"/>
+      <c r="FD84" s="70"/>
+      <c r="FE84" s="70"/>
+      <c r="FF84" s="70"/>
+      <c r="FG84" s="70"/>
+      <c r="FH84" s="70"/>
+      <c r="FI84" s="70"/>
+      <c r="FJ84" s="70"/>
+      <c r="FK84" s="70"/>
+      <c r="FL84" s="70"/>
+      <c r="FM84" s="70"/>
+      <c r="FN84" s="70"/>
+      <c r="FO84" s="70"/>
+      <c r="FP84" s="70"/>
+      <c r="FQ84" s="70"/>
+      <c r="FR84" s="70"/>
+      <c r="FS84" s="70"/>
+      <c r="FT84" s="70"/>
+      <c r="FU84" s="70"/>
+      <c r="FV84" s="70"/>
+      <c r="FW84" s="70"/>
+      <c r="FX84" s="70"/>
+      <c r="FY84" s="70"/>
+      <c r="FZ84" s="70"/>
+      <c r="GA84" s="70"/>
+      <c r="GB84" s="70"/>
+      <c r="GC84" s="70"/>
+      <c r="GD84" s="70"/>
+      <c r="GE84" s="70"/>
+      <c r="GF84" s="70"/>
+      <c r="GG84" s="70"/>
+      <c r="GH84" s="70"/>
+      <c r="GI84" s="70"/>
+      <c r="GJ84" s="70"/>
+      <c r="GK84" s="70"/>
+      <c r="GL84" s="70"/>
+      <c r="GM84" s="70"/>
+      <c r="GN84" s="70"/>
+      <c r="GO84" s="70"/>
+      <c r="GP84" s="70"/>
+      <c r="GQ84" s="70"/>
+      <c r="GR84" s="70"/>
+      <c r="GS84" s="70"/>
+      <c r="GT84" s="70"/>
+      <c r="GU84" s="70"/>
+      <c r="GV84" s="70"/>
+      <c r="GW84" s="70"/>
+      <c r="GX84" s="70"/>
+      <c r="GY84" s="70"/>
+      <c r="GZ84" s="70"/>
+      <c r="HA84" s="70"/>
+      <c r="HB84" s="70"/>
+      <c r="HC84" s="70"/>
+      <c r="HD84" s="70"/>
+      <c r="HE84" s="70"/>
+      <c r="HF84" s="70"/>
+      <c r="HG84" s="70"/>
+      <c r="HH84" s="70"/>
+      <c r="HI84" s="70"/>
+      <c r="HJ84" s="70"/>
+      <c r="HK84" s="70"/>
+      <c r="HL84" s="70"/>
+      <c r="HM84" s="70"/>
+      <c r="HN84" s="70"/>
+      <c r="HO84" s="70"/>
+      <c r="HP84" s="70"/>
+      <c r="HQ84" s="70"/>
+      <c r="HR84" s="70"/>
+      <c r="HS84" s="70"/>
+      <c r="HT84" s="70"/>
+      <c r="HU84" s="70"/>
+      <c r="HV84" s="70"/>
+      <c r="HW84" s="70"/>
+      <c r="HX84" s="70"/>
+      <c r="HY84" s="70"/>
+      <c r="HZ84" s="70"/>
+      <c r="IA84" s="70"/>
+      <c r="IB84" s="70"/>
+      <c r="IC84" s="70"/>
+      <c r="ID84" s="70"/>
+      <c r="IE84" s="70"/>
+      <c r="IF84" s="70"/>
+      <c r="IG84" s="70"/>
+      <c r="IH84" s="70"/>
+      <c r="II84" s="70"/>
+      <c r="IJ84" s="70"/>
+      <c r="IK84" s="70"/>
+      <c r="IL84" s="70"/>
+      <c r="IM84" s="70"/>
+      <c r="IN84" s="70"/>
+      <c r="IO84" s="70"/>
+      <c r="IP84" s="70"/>
+      <c r="IQ84" s="70"/>
+      <c r="IR84" s="70"/>
+      <c r="IS84" s="70"/>
+      <c r="IT84" s="70"/>
+      <c r="IU84" s="70"/>
+      <c r="IV84" s="70"/>
+      <c r="IW84" s="70"/>
+      <c r="IX84" s="70"/>
+      <c r="IY84" s="70"/>
+      <c r="IZ84" s="70"/>
+      <c r="JA84" s="70"/>
+      <c r="JB84" s="70"/>
+      <c r="JC84" s="70"/>
+      <c r="JD84" s="70"/>
+      <c r="JE84" s="70"/>
+      <c r="JF84" s="70"/>
+      <c r="JG84" s="70"/>
+      <c r="JH84" s="70"/>
+      <c r="JI84" s="70"/>
+      <c r="JJ84" s="70"/>
+      <c r="JK84" s="70"/>
+      <c r="JL84" s="70"/>
+      <c r="JM84" s="70"/>
+      <c r="JN84" s="70"/>
+      <c r="JO84" s="70"/>
+      <c r="JP84" s="70"/>
+      <c r="JQ84" s="70"/>
+      <c r="JR84" s="70"/>
+      <c r="JS84" s="70"/>
+      <c r="JT84" s="70"/>
+      <c r="JU84" s="70"/>
+      <c r="JV84" s="70"/>
+      <c r="JW84" s="70"/>
+      <c r="JX84" s="70"/>
+      <c r="JY84" s="70"/>
+      <c r="JZ84" s="70"/>
+      <c r="KA84" s="70"/>
+      <c r="KB84" s="70"/>
+      <c r="KC84" s="70"/>
+      <c r="KD84" s="70"/>
+      <c r="KE84" s="70"/>
+      <c r="KF84" s="70"/>
+      <c r="KG84" s="70"/>
+      <c r="KH84" s="70"/>
+      <c r="KI84" s="70"/>
+      <c r="KJ84" s="70"/>
+      <c r="KK84" s="70"/>
+      <c r="KL84" s="70"/>
+      <c r="KM84" s="70"/>
+      <c r="KN84" s="70"/>
+      <c r="KO84" s="70"/>
+      <c r="KP84" s="70"/>
+      <c r="KQ84" s="70"/>
+      <c r="KR84" s="70"/>
+      <c r="KS84" s="70"/>
+      <c r="KT84" s="70"/>
+      <c r="KU84" s="70"/>
+      <c r="KV84" s="70"/>
+      <c r="KW84" s="70"/>
+      <c r="KX84" s="70"/>
+      <c r="KY84" s="70"/>
+      <c r="KZ84" s="70"/>
+      <c r="LA84" s="70"/>
+      <c r="LB84" s="70"/>
+      <c r="LC84" s="70"/>
+      <c r="LD84" s="70"/>
+      <c r="LE84" s="70"/>
+      <c r="LF84" s="70"/>
+      <c r="LG84" s="70"/>
+      <c r="LH84" s="70"/>
+      <c r="LI84" s="70"/>
+      <c r="LJ84" s="70"/>
+      <c r="LK84" s="70"/>
+      <c r="LL84" s="70"/>
+      <c r="LM84" s="70"/>
+      <c r="LN84" s="70"/>
+      <c r="LO84" s="70"/>
+      <c r="LP84" s="70"/>
+      <c r="LQ84" s="70"/>
+      <c r="LR84" s="70"/>
+      <c r="LS84" s="70"/>
+      <c r="LT84" s="70"/>
+      <c r="LU84" s="70"/>
+      <c r="LV84" s="70"/>
+      <c r="LW84" s="70"/>
+      <c r="LX84" s="70"/>
+      <c r="LY84" s="70"/>
+      <c r="LZ84" s="70"/>
+      <c r="MA84" s="70"/>
+      <c r="MB84" s="70"/>
+      <c r="MC84" s="70"/>
+      <c r="MD84" s="70"/>
+      <c r="ME84" s="70"/>
+      <c r="MF84" s="70"/>
+      <c r="MG84" s="70"/>
+      <c r="MH84" s="70"/>
+      <c r="MI84" s="70"/>
+      <c r="MJ84" s="70"/>
+      <c r="MK84" s="70"/>
+      <c r="ML84" s="70"/>
+      <c r="MM84" s="70"/>
+      <c r="MN84" s="70"/>
+      <c r="MO84" s="70"/>
+      <c r="MP84" s="70"/>
+      <c r="MQ84" s="70"/>
+      <c r="MR84" s="70"/>
+      <c r="MS84" s="70"/>
+      <c r="MT84" s="70"/>
+      <c r="MU84" s="70"/>
+      <c r="MV84" s="70"/>
+      <c r="MW84" s="70"/>
+      <c r="MX84" s="70"/>
+      <c r="MY84" s="70"/>
+      <c r="MZ84" s="70"/>
+      <c r="NA84" s="70"/>
+      <c r="NB84" s="70"/>
+      <c r="NC84" s="70"/>
+      <c r="ND84" s="70"/>
+      <c r="NE84" s="70"/>
+      <c r="NF84" s="70"/>
+      <c r="NG84" s="70"/>
+      <c r="NH84" s="70"/>
+      <c r="NI84" s="70"/>
+      <c r="NJ84" s="70"/>
+      <c r="NK84" s="70"/>
+      <c r="NL84" s="70"/>
+      <c r="NM84" s="70"/>
+      <c r="NN84" s="70"/>
+      <c r="NO84" s="70"/>
+      <c r="NP84" s="70"/>
+      <c r="NQ84" s="70"/>
+      <c r="NR84" s="70"/>
+      <c r="NS84" s="70"/>
+      <c r="NT84" s="70"/>
+      <c r="NU84" s="70"/>
+      <c r="NV84" s="70"/>
+      <c r="NW84" s="70"/>
+      <c r="NX84" s="70"/>
+      <c r="NY84" s="70"/>
+      <c r="NZ84" s="70"/>
+      <c r="OA84" s="70"/>
+      <c r="OB84" s="70"/>
+      <c r="OC84" s="70"/>
+      <c r="OD84" s="70"/>
+      <c r="OE84" s="70"/>
+      <c r="OF84" s="70"/>
+      <c r="OG84" s="70"/>
+      <c r="OH84" s="70"/>
+      <c r="OI84" s="70"/>
+      <c r="OJ84" s="70"/>
+      <c r="OK84" s="70"/>
+      <c r="OL84" s="70"/>
+      <c r="OM84" s="70"/>
+      <c r="ON84" s="70"/>
+      <c r="OO84" s="70"/>
+      <c r="OP84" s="70"/>
+      <c r="OQ84" s="70"/>
+      <c r="OR84" s="70"/>
+      <c r="OS84" s="70"/>
+      <c r="OT84" s="70"/>
+      <c r="OU84" s="70"/>
+      <c r="OV84" s="70"/>
+      <c r="OW84" s="70"/>
+      <c r="OX84" s="70"/>
+      <c r="OY84" s="70"/>
+      <c r="OZ84" s="70"/>
+      <c r="PA84" s="70"/>
+      <c r="PB84" s="70"/>
+      <c r="PC84" s="70"/>
+      <c r="PD84" s="70"/>
+      <c r="PE84" s="70"/>
+      <c r="PF84" s="70"/>
+      <c r="PG84" s="70"/>
+      <c r="PH84" s="70"/>
+      <c r="PI84" s="70"/>
+      <c r="PJ84" s="70"/>
+      <c r="PK84" s="70"/>
+      <c r="PL84" s="70"/>
+      <c r="PM84" s="70"/>
+      <c r="PN84" s="70"/>
+      <c r="PO84" s="70"/>
+      <c r="PP84" s="70"/>
+      <c r="PQ84" s="70"/>
+      <c r="PR84" s="70"/>
+      <c r="PS84" s="70"/>
+      <c r="PT84" s="70"/>
+      <c r="PU84" s="70"/>
+      <c r="PV84" s="70"/>
+      <c r="PW84" s="70"/>
+      <c r="PX84" s="70"/>
+      <c r="PY84" s="70"/>
+      <c r="PZ84" s="70"/>
+      <c r="QA84" s="70"/>
+      <c r="QB84" s="70"/>
+      <c r="QC84" s="70"/>
+      <c r="QD84" s="70"/>
+      <c r="QE84" s="70"/>
+      <c r="QF84" s="70"/>
+      <c r="QG84" s="70"/>
+      <c r="QH84" s="70"/>
+      <c r="QI84" s="70"/>
+      <c r="QJ84" s="70"/>
+      <c r="QK84" s="70"/>
+      <c r="QL84" s="70"/>
+      <c r="QM84" s="70"/>
+      <c r="QN84" s="70"/>
+      <c r="QO84" s="70"/>
+      <c r="QP84" s="70"/>
+      <c r="QQ84" s="70"/>
+      <c r="QR84" s="70"/>
+      <c r="QS84" s="70"/>
+      <c r="QT84" s="70"/>
+      <c r="QU84" s="70"/>
+      <c r="QV84" s="70"/>
+      <c r="QW84" s="70"/>
+      <c r="QX84" s="70"/>
+      <c r="QY84" s="70"/>
+      <c r="QZ84" s="70"/>
+      <c r="RA84" s="70"/>
+      <c r="RB84" s="70"/>
+      <c r="RC84" s="70"/>
+      <c r="RD84" s="70"/>
+      <c r="RE84" s="70"/>
+      <c r="RF84" s="70"/>
+      <c r="RG84" s="70"/>
+      <c r="RH84" s="70"/>
+      <c r="RI84" s="70"/>
+      <c r="RJ84" s="70"/>
+      <c r="RK84" s="70"/>
+      <c r="RL84" s="70"/>
+      <c r="RM84" s="70"/>
+      <c r="RN84" s="70"/>
+      <c r="RO84" s="70"/>
+      <c r="RP84" s="70"/>
+      <c r="RQ84" s="70"/>
+      <c r="RR84" s="70"/>
+      <c r="RS84" s="70"/>
+      <c r="RT84" s="70"/>
+      <c r="RU84" s="70"/>
+      <c r="RV84" s="70"/>
+      <c r="RW84" s="70"/>
+      <c r="RX84" s="70"/>
+      <c r="RY84" s="70"/>
+      <c r="RZ84" s="70"/>
+      <c r="SA84" s="70"/>
+      <c r="SB84" s="70"/>
+      <c r="SC84" s="70"/>
+      <c r="SD84" s="70"/>
+      <c r="SE84" s="70"/>
+      <c r="SF84" s="70"/>
+      <c r="SG84" s="70"/>
+      <c r="SH84" s="70"/>
+      <c r="SI84" s="70"/>
+      <c r="SJ84" s="70"/>
+      <c r="SK84" s="70"/>
+      <c r="SL84" s="70"/>
+      <c r="SM84" s="70"/>
+      <c r="SN84" s="70"/>
+      <c r="SO84" s="70"/>
+      <c r="SP84" s="70"/>
+      <c r="SQ84" s="70"/>
+      <c r="SR84" s="70"/>
+      <c r="SS84" s="70"/>
+      <c r="ST84" s="70"/>
+      <c r="SU84" s="70"/>
+      <c r="SV84" s="70"/>
+      <c r="SW84" s="70"/>
+      <c r="SX84" s="70"/>
+      <c r="SY84" s="70"/>
+      <c r="SZ84" s="70"/>
+      <c r="TA84" s="70"/>
+      <c r="TB84" s="70"/>
+      <c r="TC84" s="70"/>
+      <c r="TD84" s="70"/>
+      <c r="TE84" s="70"/>
+      <c r="TF84" s="70"/>
+      <c r="TG84" s="70"/>
+      <c r="TH84" s="70"/>
+      <c r="TI84" s="70"/>
+      <c r="TJ84" s="70"/>
+      <c r="TK84" s="70"/>
+      <c r="TL84" s="70"/>
+      <c r="TM84" s="70"/>
+      <c r="TN84" s="70"/>
+      <c r="TO84" s="70"/>
+      <c r="TP84" s="70"/>
+      <c r="TQ84" s="70"/>
+      <c r="TR84" s="70"/>
+      <c r="TS84" s="70"/>
+      <c r="TT84" s="70"/>
+      <c r="TU84" s="70"/>
+      <c r="TV84" s="70"/>
+      <c r="TW84" s="70"/>
+      <c r="TX84" s="70"/>
+      <c r="TY84" s="70"/>
+      <c r="TZ84" s="70"/>
+      <c r="UA84" s="70"/>
+      <c r="UB84" s="70"/>
+      <c r="UC84" s="70"/>
+      <c r="UD84" s="70"/>
+      <c r="UE84" s="70"/>
+      <c r="UF84" s="70"/>
+      <c r="UG84" s="70"/>
+      <c r="UH84" s="70"/>
+      <c r="UI84" s="70"/>
+      <c r="UJ84" s="70"/>
+      <c r="UK84" s="70"/>
+      <c r="UL84" s="70"/>
+      <c r="UM84" s="70"/>
+      <c r="UN84" s="70"/>
+      <c r="UO84" s="70"/>
+      <c r="UP84" s="70"/>
+      <c r="UQ84" s="70"/>
+      <c r="UR84" s="70"/>
+      <c r="US84" s="70"/>
+      <c r="UT84" s="70"/>
+      <c r="UU84" s="70"/>
+      <c r="UV84" s="70"/>
+      <c r="UW84" s="70"/>
+      <c r="UX84" s="70"/>
+      <c r="UY84" s="70"/>
+      <c r="UZ84" s="70"/>
+      <c r="VA84" s="70"/>
+      <c r="VB84" s="70"/>
+      <c r="VC84" s="70"/>
+      <c r="VD84" s="70"/>
+      <c r="VE84" s="70"/>
+      <c r="VF84" s="70"/>
+      <c r="VG84" s="70"/>
+      <c r="VH84" s="70"/>
+      <c r="VI84" s="70"/>
+      <c r="VJ84" s="70"/>
+      <c r="VK84" s="70"/>
+      <c r="VL84" s="70"/>
+      <c r="VM84" s="70"/>
+      <c r="VN84" s="70"/>
+      <c r="VO84" s="70"/>
+      <c r="VP84" s="70"/>
+      <c r="VQ84" s="70"/>
+      <c r="VR84" s="70"/>
+      <c r="VS84" s="70"/>
+      <c r="VT84" s="70"/>
+      <c r="VU84" s="70"/>
+      <c r="VV84" s="70"/>
+      <c r="VW84" s="70"/>
+      <c r="VX84" s="70"/>
+      <c r="VY84" s="70"/>
+      <c r="VZ84" s="70"/>
+      <c r="WA84" s="70"/>
+      <c r="WB84" s="70"/>
+      <c r="WC84" s="70"/>
+      <c r="WD84" s="70"/>
+      <c r="WE84" s="70"/>
+      <c r="WF84" s="70"/>
+      <c r="WG84" s="70"/>
+      <c r="WH84" s="70"/>
+      <c r="WI84" s="70"/>
+      <c r="WJ84" s="70"/>
+      <c r="WK84" s="70"/>
+      <c r="WL84" s="70"/>
+      <c r="WM84" s="70"/>
+      <c r="WN84" s="70"/>
+      <c r="WO84" s="70"/>
+      <c r="WP84" s="70"/>
+      <c r="WQ84" s="70"/>
+      <c r="WR84" s="70"/>
+      <c r="WS84" s="70"/>
+      <c r="WT84" s="70"/>
+      <c r="WU84" s="70"/>
+      <c r="WV84" s="70"/>
+      <c r="WW84" s="70"/>
+      <c r="WX84" s="70"/>
+      <c r="WY84" s="70"/>
+      <c r="WZ84" s="70"/>
+      <c r="XA84" s="70"/>
+      <c r="XB84" s="70"/>
+      <c r="XC84" s="70"/>
+      <c r="XD84" s="70"/>
+      <c r="XE84" s="70"/>
+      <c r="XF84" s="70"/>
+      <c r="XG84" s="70"/>
+      <c r="XH84" s="70"/>
+      <c r="XI84" s="70"/>
+      <c r="XJ84" s="70"/>
+      <c r="XK84" s="70"/>
+      <c r="XL84" s="70"/>
+      <c r="XM84" s="70"/>
+      <c r="XN84" s="70"/>
+      <c r="XO84" s="70"/>
+      <c r="XP84" s="70"/>
+      <c r="XQ84" s="70"/>
+      <c r="XR84" s="70"/>
+      <c r="XS84" s="70"/>
+      <c r="XT84" s="70"/>
+      <c r="XU84" s="70"/>
+      <c r="XV84" s="70"/>
+      <c r="XW84" s="70"/>
+      <c r="XX84" s="70"/>
+      <c r="XY84" s="70"/>
+      <c r="XZ84" s="70"/>
+      <c r="YA84" s="70"/>
+      <c r="YB84" s="70"/>
+      <c r="YC84" s="70"/>
+      <c r="YD84" s="70"/>
+      <c r="YE84" s="70"/>
+      <c r="YF84" s="70"/>
+      <c r="YG84" s="70"/>
+      <c r="YH84" s="70"/>
+      <c r="YI84" s="70"/>
+      <c r="YJ84" s="70"/>
+      <c r="YK84" s="70"/>
+      <c r="YL84" s="70"/>
+      <c r="YM84" s="70"/>
+      <c r="YN84" s="70"/>
+      <c r="YO84" s="70"/>
+      <c r="YP84" s="70"/>
+      <c r="YQ84" s="70"/>
+      <c r="YR84" s="70"/>
+      <c r="YS84" s="70"/>
+      <c r="YT84" s="70"/>
+      <c r="YU84" s="70"/>
+      <c r="YV84" s="70"/>
+      <c r="YW84" s="70"/>
+      <c r="YX84" s="70"/>
+      <c r="YY84" s="70"/>
+      <c r="YZ84" s="70"/>
+      <c r="ZA84" s="70"/>
+      <c r="ZB84" s="70"/>
+      <c r="ZC84" s="70"/>
+      <c r="ZD84" s="70"/>
+      <c r="ZE84" s="70"/>
+      <c r="ZF84" s="70"/>
+      <c r="ZG84" s="70"/>
+      <c r="ZH84" s="70"/>
+      <c r="ZI84" s="70"/>
+      <c r="ZJ84" s="70"/>
+      <c r="ZK84" s="70"/>
+      <c r="ZL84" s="70"/>
+      <c r="ZM84" s="70"/>
+      <c r="ZN84" s="70"/>
+      <c r="ZO84" s="70"/>
+      <c r="ZP84" s="70"/>
+      <c r="ZQ84" s="70"/>
+      <c r="ZR84" s="70"/>
+      <c r="ZS84" s="70"/>
+      <c r="ZT84" s="70"/>
+      <c r="ZU84" s="70"/>
+      <c r="ZV84" s="70"/>
+      <c r="ZW84" s="70"/>
+      <c r="ZX84" s="70"/>
+      <c r="ZY84" s="70"/>
+      <c r="ZZ84" s="70"/>
+      <c r="AAA84" s="70"/>
+      <c r="AAB84" s="70"/>
+      <c r="AAC84" s="70"/>
+      <c r="AAD84" s="70"/>
+      <c r="AAE84" s="70"/>
+      <c r="AAF84" s="70"/>
+      <c r="AAG84" s="70"/>
+      <c r="AAH84" s="70"/>
+      <c r="AAI84" s="70"/>
+      <c r="AAJ84" s="70"/>
+      <c r="AAK84" s="70"/>
+      <c r="AAL84" s="70"/>
+      <c r="AAM84" s="70"/>
+      <c r="AAN84" s="70"/>
+      <c r="AAO84" s="70"/>
+      <c r="AAP84" s="70"/>
+      <c r="AAQ84" s="70"/>
+      <c r="AAR84" s="70"/>
+      <c r="AAS84" s="70"/>
+      <c r="AAT84" s="70"/>
+      <c r="AAU84" s="70"/>
+      <c r="AAV84" s="70"/>
+      <c r="AAW84" s="70"/>
+      <c r="AAX84" s="70"/>
+      <c r="AAY84" s="70"/>
+      <c r="AAZ84" s="70"/>
+      <c r="ABA84" s="70"/>
+      <c r="ABB84" s="70"/>
+      <c r="ABC84" s="70"/>
+      <c r="ABD84" s="70"/>
+      <c r="ABE84" s="70"/>
+      <c r="ABF84" s="70"/>
+      <c r="ABG84" s="70"/>
+      <c r="ABH84" s="70"/>
+      <c r="ABI84" s="70"/>
+      <c r="ABJ84" s="70"/>
+      <c r="ABK84" s="70"/>
+      <c r="ABL84" s="70"/>
+      <c r="ABM84" s="70"/>
+      <c r="ABN84" s="70"/>
+      <c r="ABO84" s="70"/>
+      <c r="ABP84" s="70"/>
+      <c r="ABQ84" s="70"/>
+      <c r="ABR84" s="70"/>
+      <c r="ABS84" s="70"/>
+      <c r="ABT84" s="70"/>
+      <c r="ABU84" s="70"/>
+      <c r="ABV84" s="70"/>
+      <c r="ABW84" s="70"/>
+      <c r="ABX84" s="70"/>
+      <c r="ABY84" s="70"/>
+      <c r="ABZ84" s="70"/>
+      <c r="ACA84" s="70"/>
+      <c r="ACB84" s="70"/>
+      <c r="ACC84" s="70"/>
+      <c r="ACD84" s="70"/>
+      <c r="ACE84" s="70"/>
+      <c r="ACF84" s="70"/>
+      <c r="ACG84" s="70"/>
+      <c r="ACH84" s="70"/>
+      <c r="ACI84" s="70"/>
+      <c r="ACJ84" s="70"/>
+      <c r="ACK84" s="70"/>
+      <c r="ACL84" s="70"/>
+      <c r="ACM84" s="70"/>
+      <c r="ACN84" s="70"/>
+      <c r="ACO84" s="70"/>
+      <c r="ACP84" s="70"/>
+      <c r="ACQ84" s="70"/>
+      <c r="ACR84" s="70"/>
+      <c r="ACS84" s="70"/>
+      <c r="ACT84" s="70"/>
+      <c r="ACU84" s="70"/>
+      <c r="ACV84" s="70"/>
+      <c r="ACW84" s="70"/>
+      <c r="ACX84" s="70"/>
+      <c r="ACY84" s="70"/>
+      <c r="ACZ84" s="70"/>
+      <c r="ADA84" s="70"/>
+      <c r="ADB84" s="70"/>
+      <c r="ADC84" s="70"/>
+      <c r="ADD84" s="70"/>
+      <c r="ADE84" s="70"/>
+      <c r="ADF84" s="70"/>
+      <c r="ADG84" s="70"/>
+      <c r="ADH84" s="70"/>
+      <c r="ADI84" s="70"/>
+      <c r="ADJ84" s="70"/>
+      <c r="ADK84" s="70"/>
+      <c r="ADL84" s="70"/>
+      <c r="ADM84" s="70"/>
+      <c r="ADN84" s="70"/>
+      <c r="ADO84" s="70"/>
+      <c r="ADP84" s="70"/>
+      <c r="ADQ84" s="70"/>
+      <c r="ADR84" s="70"/>
+      <c r="ADS84" s="70"/>
+      <c r="ADT84" s="70"/>
+      <c r="ADU84" s="70"/>
+      <c r="ADV84" s="70"/>
+      <c r="ADW84" s="70"/>
+      <c r="ADX84" s="70"/>
+      <c r="ADY84" s="70"/>
+      <c r="ADZ84" s="70"/>
+      <c r="AEA84" s="70"/>
+      <c r="AEB84" s="70"/>
+      <c r="AEC84" s="70"/>
+      <c r="AED84" s="70"/>
+      <c r="AEE84" s="70"/>
+      <c r="AEF84" s="70"/>
+      <c r="AEG84" s="70"/>
+      <c r="AEH84" s="70"/>
+      <c r="AEI84" s="70"/>
+      <c r="AEJ84" s="70"/>
+      <c r="AEK84" s="70"/>
+      <c r="AEL84" s="70"/>
+      <c r="AEM84" s="70"/>
+      <c r="AEN84" s="70"/>
+      <c r="AEO84" s="70"/>
+      <c r="AEP84" s="70"/>
+      <c r="AEQ84" s="70"/>
+      <c r="AER84" s="70"/>
+      <c r="AES84" s="70"/>
+      <c r="AET84" s="70"/>
+      <c r="AEU84" s="70"/>
+      <c r="AEV84" s="70"/>
+      <c r="AEW84" s="70"/>
+      <c r="AEX84" s="70"/>
+      <c r="AEY84" s="70"/>
+      <c r="AEZ84" s="70"/>
+      <c r="AFA84" s="70"/>
+      <c r="AFB84" s="70"/>
+      <c r="AFC84" s="70"/>
+      <c r="AFD84" s="70"/>
+      <c r="AFE84" s="70"/>
+      <c r="AFF84" s="70"/>
+      <c r="AFG84" s="70"/>
+      <c r="AFH84" s="70"/>
+      <c r="AFI84" s="70"/>
+      <c r="AFJ84" s="70"/>
+      <c r="AFK84" s="70"/>
+      <c r="AFL84" s="70"/>
+      <c r="AFM84" s="70"/>
+      <c r="AFN84" s="70"/>
+      <c r="AFO84" s="70"/>
+      <c r="AFP84" s="70"/>
+      <c r="AFQ84" s="70"/>
+      <c r="AFR84" s="70"/>
+      <c r="AFS84" s="70"/>
+      <c r="AFT84" s="70"/>
+      <c r="AFU84" s="70"/>
+      <c r="AFV84" s="70"/>
+      <c r="AFW84" s="70"/>
+      <c r="AFX84" s="70"/>
+      <c r="AFY84" s="70"/>
+      <c r="AFZ84" s="70"/>
+      <c r="AGA84" s="70"/>
+      <c r="AGB84" s="70"/>
+      <c r="AGC84" s="70"/>
+      <c r="AGD84" s="70"/>
+      <c r="AGE84" s="70"/>
+      <c r="AGF84" s="70"/>
+      <c r="AGG84" s="70"/>
+      <c r="AGH84" s="70"/>
+      <c r="AGI84" s="70"/>
+      <c r="AGJ84" s="70"/>
+      <c r="AGK84" s="70"/>
+      <c r="AGL84" s="70"/>
+      <c r="AGM84" s="70"/>
+      <c r="AGN84" s="70"/>
+      <c r="AGO84" s="70"/>
+      <c r="AGP84" s="70"/>
+      <c r="AGQ84" s="70"/>
+      <c r="AGR84" s="70"/>
+      <c r="AGS84" s="70"/>
+      <c r="AGT84" s="70"/>
+      <c r="AGU84" s="70"/>
+      <c r="AGV84" s="70"/>
+      <c r="AGW84" s="70"/>
+      <c r="AGX84" s="70"/>
+      <c r="AGY84" s="70"/>
+      <c r="AGZ84" s="70"/>
+      <c r="AHA84" s="70"/>
+      <c r="AHB84" s="70"/>
+      <c r="AHC84" s="70"/>
+      <c r="AHD84" s="70"/>
+      <c r="AHE84" s="70"/>
+      <c r="AHF84" s="70"/>
+      <c r="AHG84" s="70"/>
+      <c r="AHH84" s="70"/>
+      <c r="AHI84" s="70"/>
+      <c r="AHJ84" s="70"/>
+      <c r="AHK84" s="70"/>
+      <c r="AHL84" s="70"/>
+      <c r="AHM84" s="70"/>
+      <c r="AHN84" s="70"/>
+      <c r="AHO84" s="70"/>
+      <c r="AHP84" s="70"/>
+      <c r="AHQ84" s="70"/>
+      <c r="AHR84" s="70"/>
+      <c r="AHS84" s="70"/>
+      <c r="AHT84" s="70"/>
+      <c r="AHU84" s="70"/>
+      <c r="AHV84" s="70"/>
+      <c r="AHW84" s="70"/>
+      <c r="AHX84" s="70"/>
+      <c r="AHY84" s="70"/>
+      <c r="AHZ84" s="70"/>
+      <c r="AIA84" s="70"/>
+      <c r="AIB84" s="70"/>
+      <c r="AIC84" s="70"/>
+      <c r="AID84" s="70"/>
+      <c r="AIE84" s="70"/>
+      <c r="AIF84" s="70"/>
+      <c r="AIG84" s="70"/>
+      <c r="AIH84" s="70"/>
+      <c r="AII84" s="70"/>
+      <c r="AIJ84" s="70"/>
+      <c r="AIK84" s="70"/>
+      <c r="AIL84" s="70"/>
+      <c r="AIM84" s="70"/>
+      <c r="AIN84" s="70"/>
+      <c r="AIO84" s="70"/>
+      <c r="AIP84" s="70"/>
+      <c r="AIQ84" s="70"/>
+      <c r="AIR84" s="70"/>
+      <c r="AIS84" s="70"/>
+      <c r="AIT84" s="70"/>
+      <c r="AIU84" s="70"/>
+      <c r="AIV84" s="70"/>
+      <c r="AIW84" s="70"/>
+      <c r="AIX84" s="70"/>
+      <c r="AIY84" s="70"/>
+      <c r="AIZ84" s="70"/>
+      <c r="AJA84" s="70"/>
+      <c r="AJB84" s="70"/>
+      <c r="AJC84" s="70"/>
+      <c r="AJD84" s="70"/>
+      <c r="AJE84" s="70"/>
+      <c r="AJF84" s="70"/>
+      <c r="AJG84" s="70"/>
+      <c r="AJH84" s="70"/>
+      <c r="AJI84" s="70"/>
+      <c r="AJJ84" s="70"/>
+      <c r="AJK84" s="70"/>
+      <c r="AJL84" s="70"/>
+      <c r="AJM84" s="70"/>
+      <c r="AJN84" s="70"/>
+      <c r="AJO84" s="70"/>
+      <c r="AJP84" s="70"/>
+      <c r="AJQ84" s="70"/>
+      <c r="AJR84" s="70"/>
+      <c r="AJS84" s="70"/>
+      <c r="AJT84" s="70"/>
+      <c r="AJU84" s="70"/>
+      <c r="AJV84" s="70"/>
+      <c r="AJW84" s="70"/>
+      <c r="AJX84" s="70"/>
+      <c r="AJY84" s="70"/>
+      <c r="AJZ84" s="70"/>
+      <c r="AKA84" s="70"/>
+      <c r="AKB84" s="70"/>
+      <c r="AKC84" s="70"/>
+      <c r="AKD84" s="70"/>
+      <c r="AKE84" s="70"/>
+      <c r="AKF84" s="70"/>
+      <c r="AKG84" s="70"/>
+      <c r="AKH84" s="70"/>
+      <c r="AKI84" s="70"/>
+      <c r="AKJ84" s="70"/>
+      <c r="AKK84" s="70"/>
+      <c r="AKL84" s="70"/>
+      <c r="AKM84" s="70"/>
+      <c r="AKN84" s="70"/>
+      <c r="AKO84" s="70"/>
+      <c r="AKP84" s="70"/>
+      <c r="AKQ84" s="70"/>
+      <c r="AKR84" s="70"/>
+      <c r="AKS84" s="70"/>
+      <c r="AKT84" s="70"/>
+      <c r="AKU84" s="70"/>
+      <c r="AKV84" s="70"/>
+      <c r="AKW84" s="70"/>
+      <c r="AKX84" s="70"/>
+      <c r="AKY84" s="70"/>
+      <c r="AKZ84" s="70"/>
+      <c r="ALA84" s="70"/>
+      <c r="ALB84" s="70"/>
+      <c r="ALC84" s="70"/>
+      <c r="ALD84" s="70"/>
+      <c r="ALE84" s="70"/>
+      <c r="ALF84" s="70"/>
+      <c r="ALG84" s="70"/>
+      <c r="ALH84" s="70"/>
+      <c r="ALI84" s="70"/>
+      <c r="ALJ84" s="70"/>
+      <c r="ALK84" s="70"/>
+      <c r="ALL84" s="70"/>
+      <c r="ALM84" s="70"/>
+      <c r="ALN84" s="70"/>
+      <c r="ALO84" s="70"/>
+      <c r="ALP84" s="70"/>
+      <c r="ALQ84" s="70"/>
+      <c r="ALR84" s="70"/>
+      <c r="ALS84" s="70"/>
+      <c r="ALT84" s="70"/>
+      <c r="ALU84" s="70"/>
+      <c r="ALV84" s="70"/>
+      <c r="ALW84" s="70"/>
+      <c r="ALX84" s="70"/>
+      <c r="ALY84" s="70"/>
+      <c r="ALZ84" s="70"/>
+      <c r="AMA84" s="70"/>
+      <c r="AMB84" s="70"/>
+      <c r="AMC84" s="70"/>
+      <c r="AMD84" s="70"/>
+      <c r="AME84" s="70"/>
+      <c r="AMF84" s="70"/>
+      <c r="AMG84" s="70"/>
+      <c r="AMH84" s="70"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -20546,7 +20581,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="71" t="s">
+      <c r="A88" s="72" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -23711,10 +23746,10 @@
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="68"/>
+      <c r="E97" s="69"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="72" t="s">
+      <c r="A98" s="73" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -23726,7 +23761,7 @@
       <c r="D98" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="E98" s="66">
+      <c r="E98" s="67">
         <v>0.9686</v>
       </c>
     </row>
@@ -23743,7 +23778,7 @@
       <c r="D99" s="10">
         <v>0.9671612</v>
       </c>
-      <c r="E99" s="68">
+      <c r="E99" s="69">
         <v>0.9687</v>
       </c>
     </row>
@@ -23760,7 +23795,7 @@
       <c r="D100" s="10">
         <v>0.9673732</v>
       </c>
-      <c r="E100" s="68">
+      <c r="E100" s="69">
         <v>0.9686</v>
       </c>
     </row>
@@ -23777,120 +23812,172 @@
       <c r="D101" s="10">
         <v>0.9674291</v>
       </c>
-      <c r="E101" s="68">
+      <c r="E101" s="69">
         <v>0.96939</v>
       </c>
     </row>
-    <row r="102" spans="5:5">
-      <c r="E102" s="68"/>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" s="10">
+        <v>0.994993</v>
+      </c>
+      <c r="D102" s="10">
+        <v>0.967249</v>
+      </c>
+      <c r="E102" s="69"/>
     </row>
-    <row r="103" spans="5:5">
-      <c r="E103" s="68"/>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="10">
+        <v>0.9975126</v>
+      </c>
+      <c r="D103" s="10">
+        <v>0.9673428</v>
+      </c>
+      <c r="E103" s="69"/>
     </row>
-    <row r="104" spans="5:5">
-      <c r="E104" s="68"/>
+    <row r="104" spans="1:5">
+      <c r="A104" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="20">
+        <v>0.9965554</v>
+      </c>
+      <c r="D104" s="20">
+        <v>0.9675682</v>
+      </c>
+      <c r="E104" s="35">
+        <v>0.9695</v>
+      </c>
     </row>
-    <row r="105" spans="5:5">
-      <c r="E105" s="68"/>
+    <row r="105" spans="1:5">
+      <c r="A105" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="10">
+        <v>0.9961418</v>
+      </c>
+      <c r="D105" s="28">
+        <v>0.967788</v>
+      </c>
+      <c r="E105" s="69">
+        <v>0.9683</v>
+      </c>
     </row>
     <row r="106" spans="5:5">
-      <c r="E106" s="68"/>
+      <c r="E106" s="69"/>
     </row>
     <row r="107" spans="5:5">
-      <c r="E107" s="68"/>
+      <c r="E107" s="69"/>
     </row>
     <row r="108" spans="5:5">
-      <c r="E108" s="68"/>
+      <c r="E108" s="69"/>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="68"/>
+      <c r="E109" s="69"/>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="68"/>
+      <c r="E110" s="69"/>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="68"/>
+      <c r="E111" s="69"/>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="68"/>
+      <c r="E112" s="69"/>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="68"/>
+      <c r="E113" s="69"/>
     </row>
     <row r="114" spans="5:5">
-      <c r="E114" s="68"/>
+      <c r="E114" s="69"/>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="68"/>
+      <c r="E115" s="69"/>
     </row>
     <row r="116" spans="5:5">
-      <c r="E116" s="68"/>
+      <c r="E116" s="69"/>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="68"/>
+      <c r="E117" s="69"/>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="68"/>
+      <c r="E118" s="69"/>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="68"/>
+      <c r="E119" s="69"/>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="68"/>
+      <c r="E120" s="69"/>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="68"/>
+      <c r="E121" s="69"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="68"/>
+      <c r="E122" s="69"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="68"/>
+      <c r="E123" s="69"/>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="68"/>
+      <c r="E124" s="69"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="68"/>
+      <c r="E125" s="69"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="68"/>
+      <c r="E126" s="69"/>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="68"/>
+      <c r="E127" s="69"/>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="68"/>
+      <c r="E128" s="69"/>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="68"/>
+      <c r="E129" s="69"/>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="68"/>
+      <c r="E130" s="69"/>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="68"/>
+      <c r="E131" s="69"/>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="68"/>
+      <c r="E132" s="69"/>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="68"/>
+      <c r="E133" s="69"/>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="68"/>
+      <c r="E134" s="69"/>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="68"/>
+      <c r="E135" s="69"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="68"/>
+      <c r="E136" s="69"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="68"/>
+      <c r="E137" s="69"/>
     </row>
     <row r="138" spans="5:5">
-      <c r="E138" s="68"/>
+      <c r="E138" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <r>
       <rPr>
@@ -1451,6 +1451,26 @@
   <si>
     <t>347</t>
   </si>
+  <si>
+    <r>
+      <t>0.96950</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'max_depth': 15</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2705,8 +2725,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -23880,8 +23900,22 @@
         <v>0.9683</v>
       </c>
     </row>
-    <row r="106" spans="5:5">
-      <c r="E106" s="69"/>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C106" s="10">
+        <v>0.9982993</v>
+      </c>
+      <c r="D106" s="10">
+        <v>0.9675726</v>
+      </c>
+      <c r="E106" s="69">
+        <v>0.9699</v>
+      </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" s="69"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <r>
       <rPr>
@@ -1471,6 +1471,22 @@
       <t>'max_depth': 15</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>恢复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 'max_depth': 8</t>
+    </r>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
 </sst>
 </file>
 
@@ -2185,7 +2201,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2373,6 +2389,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2725,8 +2744,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -8041,7 +8060,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="72" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -18277,7 +18296,7 @@
       <c r="G72" s="35">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="63" t="s">
+      <c r="H72" s="64" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="46"/>
@@ -19317,7 +19336,7 @@
       <c r="G73" s="12">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="64" t="s">
+      <c r="H73" s="65" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19383,7 +19402,7 @@
       <c r="F76" s="20">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="65">
+      <c r="G76" s="66">
         <v>0.9682</v>
       </c>
     </row>
@@ -19406,7 +19425,7 @@
       <c r="F78" s="57">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="66">
+      <c r="G78" s="67">
         <v>0.9678</v>
       </c>
     </row>
@@ -19521,1024 +19540,1024 @@
       <c r="F84" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="G84" s="67">
+      <c r="G84" s="68">
         <v>0.9686</v>
       </c>
-      <c r="H84" s="68"/>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70"/>
-      <c r="K84" s="70"/>
-      <c r="L84" s="70"/>
-      <c r="M84" s="70"/>
-      <c r="N84" s="70"/>
-      <c r="O84" s="70"/>
-      <c r="P84" s="70"/>
-      <c r="Q84" s="70"/>
-      <c r="R84" s="70"/>
-      <c r="S84" s="70"/>
-      <c r="T84" s="70"/>
-      <c r="U84" s="70"/>
-      <c r="V84" s="70"/>
-      <c r="W84" s="70"/>
-      <c r="X84" s="70"/>
-      <c r="Y84" s="70"/>
-      <c r="Z84" s="70"/>
-      <c r="AA84" s="70"/>
-      <c r="AB84" s="70"/>
-      <c r="AC84" s="70"/>
-      <c r="AD84" s="70"/>
-      <c r="AE84" s="70"/>
-      <c r="AF84" s="70"/>
-      <c r="AG84" s="70"/>
-      <c r="AH84" s="70"/>
-      <c r="AI84" s="70"/>
-      <c r="AJ84" s="70"/>
-      <c r="AK84" s="70"/>
-      <c r="AL84" s="70"/>
-      <c r="AM84" s="70"/>
-      <c r="AN84" s="70"/>
-      <c r="AO84" s="70"/>
-      <c r="AP84" s="70"/>
-      <c r="AQ84" s="70"/>
-      <c r="AR84" s="70"/>
-      <c r="AS84" s="70"/>
-      <c r="AT84" s="70"/>
-      <c r="AU84" s="70"/>
-      <c r="AV84" s="70"/>
-      <c r="AW84" s="70"/>
-      <c r="AX84" s="70"/>
-      <c r="AY84" s="70"/>
-      <c r="AZ84" s="70"/>
-      <c r="BA84" s="70"/>
-      <c r="BB84" s="70"/>
-      <c r="BC84" s="70"/>
-      <c r="BD84" s="70"/>
-      <c r="BE84" s="70"/>
-      <c r="BF84" s="70"/>
-      <c r="BG84" s="70"/>
-      <c r="BH84" s="70"/>
-      <c r="BI84" s="70"/>
-      <c r="BJ84" s="70"/>
-      <c r="BK84" s="70"/>
-      <c r="BL84" s="70"/>
-      <c r="BM84" s="70"/>
-      <c r="BN84" s="70"/>
-      <c r="BO84" s="70"/>
-      <c r="BP84" s="70"/>
-      <c r="BQ84" s="70"/>
-      <c r="BR84" s="70"/>
-      <c r="BS84" s="70"/>
-      <c r="BT84" s="70"/>
-      <c r="BU84" s="70"/>
-      <c r="BV84" s="70"/>
-      <c r="BW84" s="70"/>
-      <c r="BX84" s="70"/>
-      <c r="BY84" s="70"/>
-      <c r="BZ84" s="70"/>
-      <c r="CA84" s="70"/>
-      <c r="CB84" s="70"/>
-      <c r="CC84" s="70"/>
-      <c r="CD84" s="70"/>
-      <c r="CE84" s="70"/>
-      <c r="CF84" s="70"/>
-      <c r="CG84" s="70"/>
-      <c r="CH84" s="70"/>
-      <c r="CI84" s="70"/>
-      <c r="CJ84" s="70"/>
-      <c r="CK84" s="70"/>
-      <c r="CL84" s="70"/>
-      <c r="CM84" s="70"/>
-      <c r="CN84" s="70"/>
-      <c r="CO84" s="70"/>
-      <c r="CP84" s="70"/>
-      <c r="CQ84" s="70"/>
-      <c r="CR84" s="70"/>
-      <c r="CS84" s="70"/>
-      <c r="CT84" s="70"/>
-      <c r="CU84" s="70"/>
-      <c r="CV84" s="70"/>
-      <c r="CW84" s="70"/>
-      <c r="CX84" s="70"/>
-      <c r="CY84" s="70"/>
-      <c r="CZ84" s="70"/>
-      <c r="DA84" s="70"/>
-      <c r="DB84" s="70"/>
-      <c r="DC84" s="70"/>
-      <c r="DD84" s="70"/>
-      <c r="DE84" s="70"/>
-      <c r="DF84" s="70"/>
-      <c r="DG84" s="70"/>
-      <c r="DH84" s="70"/>
-      <c r="DI84" s="70"/>
-      <c r="DJ84" s="70"/>
-      <c r="DK84" s="70"/>
-      <c r="DL84" s="70"/>
-      <c r="DM84" s="70"/>
-      <c r="DN84" s="70"/>
-      <c r="DO84" s="70"/>
-      <c r="DP84" s="70"/>
-      <c r="DQ84" s="70"/>
-      <c r="DR84" s="70"/>
-      <c r="DS84" s="70"/>
-      <c r="DT84" s="70"/>
-      <c r="DU84" s="70"/>
-      <c r="DV84" s="70"/>
-      <c r="DW84" s="70"/>
-      <c r="DX84" s="70"/>
-      <c r="DY84" s="70"/>
-      <c r="DZ84" s="70"/>
-      <c r="EA84" s="70"/>
-      <c r="EB84" s="70"/>
-      <c r="EC84" s="70"/>
-      <c r="ED84" s="70"/>
-      <c r="EE84" s="70"/>
-      <c r="EF84" s="70"/>
-      <c r="EG84" s="70"/>
-      <c r="EH84" s="70"/>
-      <c r="EI84" s="70"/>
-      <c r="EJ84" s="70"/>
-      <c r="EK84" s="70"/>
-      <c r="EL84" s="70"/>
-      <c r="EM84" s="70"/>
-      <c r="EN84" s="70"/>
-      <c r="EO84" s="70"/>
-      <c r="EP84" s="70"/>
-      <c r="EQ84" s="70"/>
-      <c r="ER84" s="70"/>
-      <c r="ES84" s="70"/>
-      <c r="ET84" s="70"/>
-      <c r="EU84" s="70"/>
-      <c r="EV84" s="70"/>
-      <c r="EW84" s="70"/>
-      <c r="EX84" s="70"/>
-      <c r="EY84" s="70"/>
-      <c r="EZ84" s="70"/>
-      <c r="FA84" s="70"/>
-      <c r="FB84" s="70"/>
-      <c r="FC84" s="70"/>
-      <c r="FD84" s="70"/>
-      <c r="FE84" s="70"/>
-      <c r="FF84" s="70"/>
-      <c r="FG84" s="70"/>
-      <c r="FH84" s="70"/>
-      <c r="FI84" s="70"/>
-      <c r="FJ84" s="70"/>
-      <c r="FK84" s="70"/>
-      <c r="FL84" s="70"/>
-      <c r="FM84" s="70"/>
-      <c r="FN84" s="70"/>
-      <c r="FO84" s="70"/>
-      <c r="FP84" s="70"/>
-      <c r="FQ84" s="70"/>
-      <c r="FR84" s="70"/>
-      <c r="FS84" s="70"/>
-      <c r="FT84" s="70"/>
-      <c r="FU84" s="70"/>
-      <c r="FV84" s="70"/>
-      <c r="FW84" s="70"/>
-      <c r="FX84" s="70"/>
-      <c r="FY84" s="70"/>
-      <c r="FZ84" s="70"/>
-      <c r="GA84" s="70"/>
-      <c r="GB84" s="70"/>
-      <c r="GC84" s="70"/>
-      <c r="GD84" s="70"/>
-      <c r="GE84" s="70"/>
-      <c r="GF84" s="70"/>
-      <c r="GG84" s="70"/>
-      <c r="GH84" s="70"/>
-      <c r="GI84" s="70"/>
-      <c r="GJ84" s="70"/>
-      <c r="GK84" s="70"/>
-      <c r="GL84" s="70"/>
-      <c r="GM84" s="70"/>
-      <c r="GN84" s="70"/>
-      <c r="GO84" s="70"/>
-      <c r="GP84" s="70"/>
-      <c r="GQ84" s="70"/>
-      <c r="GR84" s="70"/>
-      <c r="GS84" s="70"/>
-      <c r="GT84" s="70"/>
-      <c r="GU84" s="70"/>
-      <c r="GV84" s="70"/>
-      <c r="GW84" s="70"/>
-      <c r="GX84" s="70"/>
-      <c r="GY84" s="70"/>
-      <c r="GZ84" s="70"/>
-      <c r="HA84" s="70"/>
-      <c r="HB84" s="70"/>
-      <c r="HC84" s="70"/>
-      <c r="HD84" s="70"/>
-      <c r="HE84" s="70"/>
-      <c r="HF84" s="70"/>
-      <c r="HG84" s="70"/>
-      <c r="HH84" s="70"/>
-      <c r="HI84" s="70"/>
-      <c r="HJ84" s="70"/>
-      <c r="HK84" s="70"/>
-      <c r="HL84" s="70"/>
-      <c r="HM84" s="70"/>
-      <c r="HN84" s="70"/>
-      <c r="HO84" s="70"/>
-      <c r="HP84" s="70"/>
-      <c r="HQ84" s="70"/>
-      <c r="HR84" s="70"/>
-      <c r="HS84" s="70"/>
-      <c r="HT84" s="70"/>
-      <c r="HU84" s="70"/>
-      <c r="HV84" s="70"/>
-      <c r="HW84" s="70"/>
-      <c r="HX84" s="70"/>
-      <c r="HY84" s="70"/>
-      <c r="HZ84" s="70"/>
-      <c r="IA84" s="70"/>
-      <c r="IB84" s="70"/>
-      <c r="IC84" s="70"/>
-      <c r="ID84" s="70"/>
-      <c r="IE84" s="70"/>
-      <c r="IF84" s="70"/>
-      <c r="IG84" s="70"/>
-      <c r="IH84" s="70"/>
-      <c r="II84" s="70"/>
-      <c r="IJ84" s="70"/>
-      <c r="IK84" s="70"/>
-      <c r="IL84" s="70"/>
-      <c r="IM84" s="70"/>
-      <c r="IN84" s="70"/>
-      <c r="IO84" s="70"/>
-      <c r="IP84" s="70"/>
-      <c r="IQ84" s="70"/>
-      <c r="IR84" s="70"/>
-      <c r="IS84" s="70"/>
-      <c r="IT84" s="70"/>
-      <c r="IU84" s="70"/>
-      <c r="IV84" s="70"/>
-      <c r="IW84" s="70"/>
-      <c r="IX84" s="70"/>
-      <c r="IY84" s="70"/>
-      <c r="IZ84" s="70"/>
-      <c r="JA84" s="70"/>
-      <c r="JB84" s="70"/>
-      <c r="JC84" s="70"/>
-      <c r="JD84" s="70"/>
-      <c r="JE84" s="70"/>
-      <c r="JF84" s="70"/>
-      <c r="JG84" s="70"/>
-      <c r="JH84" s="70"/>
-      <c r="JI84" s="70"/>
-      <c r="JJ84" s="70"/>
-      <c r="JK84" s="70"/>
-      <c r="JL84" s="70"/>
-      <c r="JM84" s="70"/>
-      <c r="JN84" s="70"/>
-      <c r="JO84" s="70"/>
-      <c r="JP84" s="70"/>
-      <c r="JQ84" s="70"/>
-      <c r="JR84" s="70"/>
-      <c r="JS84" s="70"/>
-      <c r="JT84" s="70"/>
-      <c r="JU84" s="70"/>
-      <c r="JV84" s="70"/>
-      <c r="JW84" s="70"/>
-      <c r="JX84" s="70"/>
-      <c r="JY84" s="70"/>
-      <c r="JZ84" s="70"/>
-      <c r="KA84" s="70"/>
-      <c r="KB84" s="70"/>
-      <c r="KC84" s="70"/>
-      <c r="KD84" s="70"/>
-      <c r="KE84" s="70"/>
-      <c r="KF84" s="70"/>
-      <c r="KG84" s="70"/>
-      <c r="KH84" s="70"/>
-      <c r="KI84" s="70"/>
-      <c r="KJ84" s="70"/>
-      <c r="KK84" s="70"/>
-      <c r="KL84" s="70"/>
-      <c r="KM84" s="70"/>
-      <c r="KN84" s="70"/>
-      <c r="KO84" s="70"/>
-      <c r="KP84" s="70"/>
-      <c r="KQ84" s="70"/>
-      <c r="KR84" s="70"/>
-      <c r="KS84" s="70"/>
-      <c r="KT84" s="70"/>
-      <c r="KU84" s="70"/>
-      <c r="KV84" s="70"/>
-      <c r="KW84" s="70"/>
-      <c r="KX84" s="70"/>
-      <c r="KY84" s="70"/>
-      <c r="KZ84" s="70"/>
-      <c r="LA84" s="70"/>
-      <c r="LB84" s="70"/>
-      <c r="LC84" s="70"/>
-      <c r="LD84" s="70"/>
-      <c r="LE84" s="70"/>
-      <c r="LF84" s="70"/>
-      <c r="LG84" s="70"/>
-      <c r="LH84" s="70"/>
-      <c r="LI84" s="70"/>
-      <c r="LJ84" s="70"/>
-      <c r="LK84" s="70"/>
-      <c r="LL84" s="70"/>
-      <c r="LM84" s="70"/>
-      <c r="LN84" s="70"/>
-      <c r="LO84" s="70"/>
-      <c r="LP84" s="70"/>
-      <c r="LQ84" s="70"/>
-      <c r="LR84" s="70"/>
-      <c r="LS84" s="70"/>
-      <c r="LT84" s="70"/>
-      <c r="LU84" s="70"/>
-      <c r="LV84" s="70"/>
-      <c r="LW84" s="70"/>
-      <c r="LX84" s="70"/>
-      <c r="LY84" s="70"/>
-      <c r="LZ84" s="70"/>
-      <c r="MA84" s="70"/>
-      <c r="MB84" s="70"/>
-      <c r="MC84" s="70"/>
-      <c r="MD84" s="70"/>
-      <c r="ME84" s="70"/>
-      <c r="MF84" s="70"/>
-      <c r="MG84" s="70"/>
-      <c r="MH84" s="70"/>
-      <c r="MI84" s="70"/>
-      <c r="MJ84" s="70"/>
-      <c r="MK84" s="70"/>
-      <c r="ML84" s="70"/>
-      <c r="MM84" s="70"/>
-      <c r="MN84" s="70"/>
-      <c r="MO84" s="70"/>
-      <c r="MP84" s="70"/>
-      <c r="MQ84" s="70"/>
-      <c r="MR84" s="70"/>
-      <c r="MS84" s="70"/>
-      <c r="MT84" s="70"/>
-      <c r="MU84" s="70"/>
-      <c r="MV84" s="70"/>
-      <c r="MW84" s="70"/>
-      <c r="MX84" s="70"/>
-      <c r="MY84" s="70"/>
-      <c r="MZ84" s="70"/>
-      <c r="NA84" s="70"/>
-      <c r="NB84" s="70"/>
-      <c r="NC84" s="70"/>
-      <c r="ND84" s="70"/>
-      <c r="NE84" s="70"/>
-      <c r="NF84" s="70"/>
-      <c r="NG84" s="70"/>
-      <c r="NH84" s="70"/>
-      <c r="NI84" s="70"/>
-      <c r="NJ84" s="70"/>
-      <c r="NK84" s="70"/>
-      <c r="NL84" s="70"/>
-      <c r="NM84" s="70"/>
-      <c r="NN84" s="70"/>
-      <c r="NO84" s="70"/>
-      <c r="NP84" s="70"/>
-      <c r="NQ84" s="70"/>
-      <c r="NR84" s="70"/>
-      <c r="NS84" s="70"/>
-      <c r="NT84" s="70"/>
-      <c r="NU84" s="70"/>
-      <c r="NV84" s="70"/>
-      <c r="NW84" s="70"/>
-      <c r="NX84" s="70"/>
-      <c r="NY84" s="70"/>
-      <c r="NZ84" s="70"/>
-      <c r="OA84" s="70"/>
-      <c r="OB84" s="70"/>
-      <c r="OC84" s="70"/>
-      <c r="OD84" s="70"/>
-      <c r="OE84" s="70"/>
-      <c r="OF84" s="70"/>
-      <c r="OG84" s="70"/>
-      <c r="OH84" s="70"/>
-      <c r="OI84" s="70"/>
-      <c r="OJ84" s="70"/>
-      <c r="OK84" s="70"/>
-      <c r="OL84" s="70"/>
-      <c r="OM84" s="70"/>
-      <c r="ON84" s="70"/>
-      <c r="OO84" s="70"/>
-      <c r="OP84" s="70"/>
-      <c r="OQ84" s="70"/>
-      <c r="OR84" s="70"/>
-      <c r="OS84" s="70"/>
-      <c r="OT84" s="70"/>
-      <c r="OU84" s="70"/>
-      <c r="OV84" s="70"/>
-      <c r="OW84" s="70"/>
-      <c r="OX84" s="70"/>
-      <c r="OY84" s="70"/>
-      <c r="OZ84" s="70"/>
-      <c r="PA84" s="70"/>
-      <c r="PB84" s="70"/>
-      <c r="PC84" s="70"/>
-      <c r="PD84" s="70"/>
-      <c r="PE84" s="70"/>
-      <c r="PF84" s="70"/>
-      <c r="PG84" s="70"/>
-      <c r="PH84" s="70"/>
-      <c r="PI84" s="70"/>
-      <c r="PJ84" s="70"/>
-      <c r="PK84" s="70"/>
-      <c r="PL84" s="70"/>
-      <c r="PM84" s="70"/>
-      <c r="PN84" s="70"/>
-      <c r="PO84" s="70"/>
-      <c r="PP84" s="70"/>
-      <c r="PQ84" s="70"/>
-      <c r="PR84" s="70"/>
-      <c r="PS84" s="70"/>
-      <c r="PT84" s="70"/>
-      <c r="PU84" s="70"/>
-      <c r="PV84" s="70"/>
-      <c r="PW84" s="70"/>
-      <c r="PX84" s="70"/>
-      <c r="PY84" s="70"/>
-      <c r="PZ84" s="70"/>
-      <c r="QA84" s="70"/>
-      <c r="QB84" s="70"/>
-      <c r="QC84" s="70"/>
-      <c r="QD84" s="70"/>
-      <c r="QE84" s="70"/>
-      <c r="QF84" s="70"/>
-      <c r="QG84" s="70"/>
-      <c r="QH84" s="70"/>
-      <c r="QI84" s="70"/>
-      <c r="QJ84" s="70"/>
-      <c r="QK84" s="70"/>
-      <c r="QL84" s="70"/>
-      <c r="QM84" s="70"/>
-      <c r="QN84" s="70"/>
-      <c r="QO84" s="70"/>
-      <c r="QP84" s="70"/>
-      <c r="QQ84" s="70"/>
-      <c r="QR84" s="70"/>
-      <c r="QS84" s="70"/>
-      <c r="QT84" s="70"/>
-      <c r="QU84" s="70"/>
-      <c r="QV84" s="70"/>
-      <c r="QW84" s="70"/>
-      <c r="QX84" s="70"/>
-      <c r="QY84" s="70"/>
-      <c r="QZ84" s="70"/>
-      <c r="RA84" s="70"/>
-      <c r="RB84" s="70"/>
-      <c r="RC84" s="70"/>
-      <c r="RD84" s="70"/>
-      <c r="RE84" s="70"/>
-      <c r="RF84" s="70"/>
-      <c r="RG84" s="70"/>
-      <c r="RH84" s="70"/>
-      <c r="RI84" s="70"/>
-      <c r="RJ84" s="70"/>
-      <c r="RK84" s="70"/>
-      <c r="RL84" s="70"/>
-      <c r="RM84" s="70"/>
-      <c r="RN84" s="70"/>
-      <c r="RO84" s="70"/>
-      <c r="RP84" s="70"/>
-      <c r="RQ84" s="70"/>
-      <c r="RR84" s="70"/>
-      <c r="RS84" s="70"/>
-      <c r="RT84" s="70"/>
-      <c r="RU84" s="70"/>
-      <c r="RV84" s="70"/>
-      <c r="RW84" s="70"/>
-      <c r="RX84" s="70"/>
-      <c r="RY84" s="70"/>
-      <c r="RZ84" s="70"/>
-      <c r="SA84" s="70"/>
-      <c r="SB84" s="70"/>
-      <c r="SC84" s="70"/>
-      <c r="SD84" s="70"/>
-      <c r="SE84" s="70"/>
-      <c r="SF84" s="70"/>
-      <c r="SG84" s="70"/>
-      <c r="SH84" s="70"/>
-      <c r="SI84" s="70"/>
-      <c r="SJ84" s="70"/>
-      <c r="SK84" s="70"/>
-      <c r="SL84" s="70"/>
-      <c r="SM84" s="70"/>
-      <c r="SN84" s="70"/>
-      <c r="SO84" s="70"/>
-      <c r="SP84" s="70"/>
-      <c r="SQ84" s="70"/>
-      <c r="SR84" s="70"/>
-      <c r="SS84" s="70"/>
-      <c r="ST84" s="70"/>
-      <c r="SU84" s="70"/>
-      <c r="SV84" s="70"/>
-      <c r="SW84" s="70"/>
-      <c r="SX84" s="70"/>
-      <c r="SY84" s="70"/>
-      <c r="SZ84" s="70"/>
-      <c r="TA84" s="70"/>
-      <c r="TB84" s="70"/>
-      <c r="TC84" s="70"/>
-      <c r="TD84" s="70"/>
-      <c r="TE84" s="70"/>
-      <c r="TF84" s="70"/>
-      <c r="TG84" s="70"/>
-      <c r="TH84" s="70"/>
-      <c r="TI84" s="70"/>
-      <c r="TJ84" s="70"/>
-      <c r="TK84" s="70"/>
-      <c r="TL84" s="70"/>
-      <c r="TM84" s="70"/>
-      <c r="TN84" s="70"/>
-      <c r="TO84" s="70"/>
-      <c r="TP84" s="70"/>
-      <c r="TQ84" s="70"/>
-      <c r="TR84" s="70"/>
-      <c r="TS84" s="70"/>
-      <c r="TT84" s="70"/>
-      <c r="TU84" s="70"/>
-      <c r="TV84" s="70"/>
-      <c r="TW84" s="70"/>
-      <c r="TX84" s="70"/>
-      <c r="TY84" s="70"/>
-      <c r="TZ84" s="70"/>
-      <c r="UA84" s="70"/>
-      <c r="UB84" s="70"/>
-      <c r="UC84" s="70"/>
-      <c r="UD84" s="70"/>
-      <c r="UE84" s="70"/>
-      <c r="UF84" s="70"/>
-      <c r="UG84" s="70"/>
-      <c r="UH84" s="70"/>
-      <c r="UI84" s="70"/>
-      <c r="UJ84" s="70"/>
-      <c r="UK84" s="70"/>
-      <c r="UL84" s="70"/>
-      <c r="UM84" s="70"/>
-      <c r="UN84" s="70"/>
-      <c r="UO84" s="70"/>
-      <c r="UP84" s="70"/>
-      <c r="UQ84" s="70"/>
-      <c r="UR84" s="70"/>
-      <c r="US84" s="70"/>
-      <c r="UT84" s="70"/>
-      <c r="UU84" s="70"/>
-      <c r="UV84" s="70"/>
-      <c r="UW84" s="70"/>
-      <c r="UX84" s="70"/>
-      <c r="UY84" s="70"/>
-      <c r="UZ84" s="70"/>
-      <c r="VA84" s="70"/>
-      <c r="VB84" s="70"/>
-      <c r="VC84" s="70"/>
-      <c r="VD84" s="70"/>
-      <c r="VE84" s="70"/>
-      <c r="VF84" s="70"/>
-      <c r="VG84" s="70"/>
-      <c r="VH84" s="70"/>
-      <c r="VI84" s="70"/>
-      <c r="VJ84" s="70"/>
-      <c r="VK84" s="70"/>
-      <c r="VL84" s="70"/>
-      <c r="VM84" s="70"/>
-      <c r="VN84" s="70"/>
-      <c r="VO84" s="70"/>
-      <c r="VP84" s="70"/>
-      <c r="VQ84" s="70"/>
-      <c r="VR84" s="70"/>
-      <c r="VS84" s="70"/>
-      <c r="VT84" s="70"/>
-      <c r="VU84" s="70"/>
-      <c r="VV84" s="70"/>
-      <c r="VW84" s="70"/>
-      <c r="VX84" s="70"/>
-      <c r="VY84" s="70"/>
-      <c r="VZ84" s="70"/>
-      <c r="WA84" s="70"/>
-      <c r="WB84" s="70"/>
-      <c r="WC84" s="70"/>
-      <c r="WD84" s="70"/>
-      <c r="WE84" s="70"/>
-      <c r="WF84" s="70"/>
-      <c r="WG84" s="70"/>
-      <c r="WH84" s="70"/>
-      <c r="WI84" s="70"/>
-      <c r="WJ84" s="70"/>
-      <c r="WK84" s="70"/>
-      <c r="WL84" s="70"/>
-      <c r="WM84" s="70"/>
-      <c r="WN84" s="70"/>
-      <c r="WO84" s="70"/>
-      <c r="WP84" s="70"/>
-      <c r="WQ84" s="70"/>
-      <c r="WR84" s="70"/>
-      <c r="WS84" s="70"/>
-      <c r="WT84" s="70"/>
-      <c r="WU84" s="70"/>
-      <c r="WV84" s="70"/>
-      <c r="WW84" s="70"/>
-      <c r="WX84" s="70"/>
-      <c r="WY84" s="70"/>
-      <c r="WZ84" s="70"/>
-      <c r="XA84" s="70"/>
-      <c r="XB84" s="70"/>
-      <c r="XC84" s="70"/>
-      <c r="XD84" s="70"/>
-      <c r="XE84" s="70"/>
-      <c r="XF84" s="70"/>
-      <c r="XG84" s="70"/>
-      <c r="XH84" s="70"/>
-      <c r="XI84" s="70"/>
-      <c r="XJ84" s="70"/>
-      <c r="XK84" s="70"/>
-      <c r="XL84" s="70"/>
-      <c r="XM84" s="70"/>
-      <c r="XN84" s="70"/>
-      <c r="XO84" s="70"/>
-      <c r="XP84" s="70"/>
-      <c r="XQ84" s="70"/>
-      <c r="XR84" s="70"/>
-      <c r="XS84" s="70"/>
-      <c r="XT84" s="70"/>
-      <c r="XU84" s="70"/>
-      <c r="XV84" s="70"/>
-      <c r="XW84" s="70"/>
-      <c r="XX84" s="70"/>
-      <c r="XY84" s="70"/>
-      <c r="XZ84" s="70"/>
-      <c r="YA84" s="70"/>
-      <c r="YB84" s="70"/>
-      <c r="YC84" s="70"/>
-      <c r="YD84" s="70"/>
-      <c r="YE84" s="70"/>
-      <c r="YF84" s="70"/>
-      <c r="YG84" s="70"/>
-      <c r="YH84" s="70"/>
-      <c r="YI84" s="70"/>
-      <c r="YJ84" s="70"/>
-      <c r="YK84" s="70"/>
-      <c r="YL84" s="70"/>
-      <c r="YM84" s="70"/>
-      <c r="YN84" s="70"/>
-      <c r="YO84" s="70"/>
-      <c r="YP84" s="70"/>
-      <c r="YQ84" s="70"/>
-      <c r="YR84" s="70"/>
-      <c r="YS84" s="70"/>
-      <c r="YT84" s="70"/>
-      <c r="YU84" s="70"/>
-      <c r="YV84" s="70"/>
-      <c r="YW84" s="70"/>
-      <c r="YX84" s="70"/>
-      <c r="YY84" s="70"/>
-      <c r="YZ84" s="70"/>
-      <c r="ZA84" s="70"/>
-      <c r="ZB84" s="70"/>
-      <c r="ZC84" s="70"/>
-      <c r="ZD84" s="70"/>
-      <c r="ZE84" s="70"/>
-      <c r="ZF84" s="70"/>
-      <c r="ZG84" s="70"/>
-      <c r="ZH84" s="70"/>
-      <c r="ZI84" s="70"/>
-      <c r="ZJ84" s="70"/>
-      <c r="ZK84" s="70"/>
-      <c r="ZL84" s="70"/>
-      <c r="ZM84" s="70"/>
-      <c r="ZN84" s="70"/>
-      <c r="ZO84" s="70"/>
-      <c r="ZP84" s="70"/>
-      <c r="ZQ84" s="70"/>
-      <c r="ZR84" s="70"/>
-      <c r="ZS84" s="70"/>
-      <c r="ZT84" s="70"/>
-      <c r="ZU84" s="70"/>
-      <c r="ZV84" s="70"/>
-      <c r="ZW84" s="70"/>
-      <c r="ZX84" s="70"/>
-      <c r="ZY84" s="70"/>
-      <c r="ZZ84" s="70"/>
-      <c r="AAA84" s="70"/>
-      <c r="AAB84" s="70"/>
-      <c r="AAC84" s="70"/>
-      <c r="AAD84" s="70"/>
-      <c r="AAE84" s="70"/>
-      <c r="AAF84" s="70"/>
-      <c r="AAG84" s="70"/>
-      <c r="AAH84" s="70"/>
-      <c r="AAI84" s="70"/>
-      <c r="AAJ84" s="70"/>
-      <c r="AAK84" s="70"/>
-      <c r="AAL84" s="70"/>
-      <c r="AAM84" s="70"/>
-      <c r="AAN84" s="70"/>
-      <c r="AAO84" s="70"/>
-      <c r="AAP84" s="70"/>
-      <c r="AAQ84" s="70"/>
-      <c r="AAR84" s="70"/>
-      <c r="AAS84" s="70"/>
-      <c r="AAT84" s="70"/>
-      <c r="AAU84" s="70"/>
-      <c r="AAV84" s="70"/>
-      <c r="AAW84" s="70"/>
-      <c r="AAX84" s="70"/>
-      <c r="AAY84" s="70"/>
-      <c r="AAZ84" s="70"/>
-      <c r="ABA84" s="70"/>
-      <c r="ABB84" s="70"/>
-      <c r="ABC84" s="70"/>
-      <c r="ABD84" s="70"/>
-      <c r="ABE84" s="70"/>
-      <c r="ABF84" s="70"/>
-      <c r="ABG84" s="70"/>
-      <c r="ABH84" s="70"/>
-      <c r="ABI84" s="70"/>
-      <c r="ABJ84" s="70"/>
-      <c r="ABK84" s="70"/>
-      <c r="ABL84" s="70"/>
-      <c r="ABM84" s="70"/>
-      <c r="ABN84" s="70"/>
-      <c r="ABO84" s="70"/>
-      <c r="ABP84" s="70"/>
-      <c r="ABQ84" s="70"/>
-      <c r="ABR84" s="70"/>
-      <c r="ABS84" s="70"/>
-      <c r="ABT84" s="70"/>
-      <c r="ABU84" s="70"/>
-      <c r="ABV84" s="70"/>
-      <c r="ABW84" s="70"/>
-      <c r="ABX84" s="70"/>
-      <c r="ABY84" s="70"/>
-      <c r="ABZ84" s="70"/>
-      <c r="ACA84" s="70"/>
-      <c r="ACB84" s="70"/>
-      <c r="ACC84" s="70"/>
-      <c r="ACD84" s="70"/>
-      <c r="ACE84" s="70"/>
-      <c r="ACF84" s="70"/>
-      <c r="ACG84" s="70"/>
-      <c r="ACH84" s="70"/>
-      <c r="ACI84" s="70"/>
-      <c r="ACJ84" s="70"/>
-      <c r="ACK84" s="70"/>
-      <c r="ACL84" s="70"/>
-      <c r="ACM84" s="70"/>
-      <c r="ACN84" s="70"/>
-      <c r="ACO84" s="70"/>
-      <c r="ACP84" s="70"/>
-      <c r="ACQ84" s="70"/>
-      <c r="ACR84" s="70"/>
-      <c r="ACS84" s="70"/>
-      <c r="ACT84" s="70"/>
-      <c r="ACU84" s="70"/>
-      <c r="ACV84" s="70"/>
-      <c r="ACW84" s="70"/>
-      <c r="ACX84" s="70"/>
-      <c r="ACY84" s="70"/>
-      <c r="ACZ84" s="70"/>
-      <c r="ADA84" s="70"/>
-      <c r="ADB84" s="70"/>
-      <c r="ADC84" s="70"/>
-      <c r="ADD84" s="70"/>
-      <c r="ADE84" s="70"/>
-      <c r="ADF84" s="70"/>
-      <c r="ADG84" s="70"/>
-      <c r="ADH84" s="70"/>
-      <c r="ADI84" s="70"/>
-      <c r="ADJ84" s="70"/>
-      <c r="ADK84" s="70"/>
-      <c r="ADL84" s="70"/>
-      <c r="ADM84" s="70"/>
-      <c r="ADN84" s="70"/>
-      <c r="ADO84" s="70"/>
-      <c r="ADP84" s="70"/>
-      <c r="ADQ84" s="70"/>
-      <c r="ADR84" s="70"/>
-      <c r="ADS84" s="70"/>
-      <c r="ADT84" s="70"/>
-      <c r="ADU84" s="70"/>
-      <c r="ADV84" s="70"/>
-      <c r="ADW84" s="70"/>
-      <c r="ADX84" s="70"/>
-      <c r="ADY84" s="70"/>
-      <c r="ADZ84" s="70"/>
-      <c r="AEA84" s="70"/>
-      <c r="AEB84" s="70"/>
-      <c r="AEC84" s="70"/>
-      <c r="AED84" s="70"/>
-      <c r="AEE84" s="70"/>
-      <c r="AEF84" s="70"/>
-      <c r="AEG84" s="70"/>
-      <c r="AEH84" s="70"/>
-      <c r="AEI84" s="70"/>
-      <c r="AEJ84" s="70"/>
-      <c r="AEK84" s="70"/>
-      <c r="AEL84" s="70"/>
-      <c r="AEM84" s="70"/>
-      <c r="AEN84" s="70"/>
-      <c r="AEO84" s="70"/>
-      <c r="AEP84" s="70"/>
-      <c r="AEQ84" s="70"/>
-      <c r="AER84" s="70"/>
-      <c r="AES84" s="70"/>
-      <c r="AET84" s="70"/>
-      <c r="AEU84" s="70"/>
-      <c r="AEV84" s="70"/>
-      <c r="AEW84" s="70"/>
-      <c r="AEX84" s="70"/>
-      <c r="AEY84" s="70"/>
-      <c r="AEZ84" s="70"/>
-      <c r="AFA84" s="70"/>
-      <c r="AFB84" s="70"/>
-      <c r="AFC84" s="70"/>
-      <c r="AFD84" s="70"/>
-      <c r="AFE84" s="70"/>
-      <c r="AFF84" s="70"/>
-      <c r="AFG84" s="70"/>
-      <c r="AFH84" s="70"/>
-      <c r="AFI84" s="70"/>
-      <c r="AFJ84" s="70"/>
-      <c r="AFK84" s="70"/>
-      <c r="AFL84" s="70"/>
-      <c r="AFM84" s="70"/>
-      <c r="AFN84" s="70"/>
-      <c r="AFO84" s="70"/>
-      <c r="AFP84" s="70"/>
-      <c r="AFQ84" s="70"/>
-      <c r="AFR84" s="70"/>
-      <c r="AFS84" s="70"/>
-      <c r="AFT84" s="70"/>
-      <c r="AFU84" s="70"/>
-      <c r="AFV84" s="70"/>
-      <c r="AFW84" s="70"/>
-      <c r="AFX84" s="70"/>
-      <c r="AFY84" s="70"/>
-      <c r="AFZ84" s="70"/>
-      <c r="AGA84" s="70"/>
-      <c r="AGB84" s="70"/>
-      <c r="AGC84" s="70"/>
-      <c r="AGD84" s="70"/>
-      <c r="AGE84" s="70"/>
-      <c r="AGF84" s="70"/>
-      <c r="AGG84" s="70"/>
-      <c r="AGH84" s="70"/>
-      <c r="AGI84" s="70"/>
-      <c r="AGJ84" s="70"/>
-      <c r="AGK84" s="70"/>
-      <c r="AGL84" s="70"/>
-      <c r="AGM84" s="70"/>
-      <c r="AGN84" s="70"/>
-      <c r="AGO84" s="70"/>
-      <c r="AGP84" s="70"/>
-      <c r="AGQ84" s="70"/>
-      <c r="AGR84" s="70"/>
-      <c r="AGS84" s="70"/>
-      <c r="AGT84" s="70"/>
-      <c r="AGU84" s="70"/>
-      <c r="AGV84" s="70"/>
-      <c r="AGW84" s="70"/>
-      <c r="AGX84" s="70"/>
-      <c r="AGY84" s="70"/>
-      <c r="AGZ84" s="70"/>
-      <c r="AHA84" s="70"/>
-      <c r="AHB84" s="70"/>
-      <c r="AHC84" s="70"/>
-      <c r="AHD84" s="70"/>
-      <c r="AHE84" s="70"/>
-      <c r="AHF84" s="70"/>
-      <c r="AHG84" s="70"/>
-      <c r="AHH84" s="70"/>
-      <c r="AHI84" s="70"/>
-      <c r="AHJ84" s="70"/>
-      <c r="AHK84" s="70"/>
-      <c r="AHL84" s="70"/>
-      <c r="AHM84" s="70"/>
-      <c r="AHN84" s="70"/>
-      <c r="AHO84" s="70"/>
-      <c r="AHP84" s="70"/>
-      <c r="AHQ84" s="70"/>
-      <c r="AHR84" s="70"/>
-      <c r="AHS84" s="70"/>
-      <c r="AHT84" s="70"/>
-      <c r="AHU84" s="70"/>
-      <c r="AHV84" s="70"/>
-      <c r="AHW84" s="70"/>
-      <c r="AHX84" s="70"/>
-      <c r="AHY84" s="70"/>
-      <c r="AHZ84" s="70"/>
-      <c r="AIA84" s="70"/>
-      <c r="AIB84" s="70"/>
-      <c r="AIC84" s="70"/>
-      <c r="AID84" s="70"/>
-      <c r="AIE84" s="70"/>
-      <c r="AIF84" s="70"/>
-      <c r="AIG84" s="70"/>
-      <c r="AIH84" s="70"/>
-      <c r="AII84" s="70"/>
-      <c r="AIJ84" s="70"/>
-      <c r="AIK84" s="70"/>
-      <c r="AIL84" s="70"/>
-      <c r="AIM84" s="70"/>
-      <c r="AIN84" s="70"/>
-      <c r="AIO84" s="70"/>
-      <c r="AIP84" s="70"/>
-      <c r="AIQ84" s="70"/>
-      <c r="AIR84" s="70"/>
-      <c r="AIS84" s="70"/>
-      <c r="AIT84" s="70"/>
-      <c r="AIU84" s="70"/>
-      <c r="AIV84" s="70"/>
-      <c r="AIW84" s="70"/>
-      <c r="AIX84" s="70"/>
-      <c r="AIY84" s="70"/>
-      <c r="AIZ84" s="70"/>
-      <c r="AJA84" s="70"/>
-      <c r="AJB84" s="70"/>
-      <c r="AJC84" s="70"/>
-      <c r="AJD84" s="70"/>
-      <c r="AJE84" s="70"/>
-      <c r="AJF84" s="70"/>
-      <c r="AJG84" s="70"/>
-      <c r="AJH84" s="70"/>
-      <c r="AJI84" s="70"/>
-      <c r="AJJ84" s="70"/>
-      <c r="AJK84" s="70"/>
-      <c r="AJL84" s="70"/>
-      <c r="AJM84" s="70"/>
-      <c r="AJN84" s="70"/>
-      <c r="AJO84" s="70"/>
-      <c r="AJP84" s="70"/>
-      <c r="AJQ84" s="70"/>
-      <c r="AJR84" s="70"/>
-      <c r="AJS84" s="70"/>
-      <c r="AJT84" s="70"/>
-      <c r="AJU84" s="70"/>
-      <c r="AJV84" s="70"/>
-      <c r="AJW84" s="70"/>
-      <c r="AJX84" s="70"/>
-      <c r="AJY84" s="70"/>
-      <c r="AJZ84" s="70"/>
-      <c r="AKA84" s="70"/>
-      <c r="AKB84" s="70"/>
-      <c r="AKC84" s="70"/>
-      <c r="AKD84" s="70"/>
-      <c r="AKE84" s="70"/>
-      <c r="AKF84" s="70"/>
-      <c r="AKG84" s="70"/>
-      <c r="AKH84" s="70"/>
-      <c r="AKI84" s="70"/>
-      <c r="AKJ84" s="70"/>
-      <c r="AKK84" s="70"/>
-      <c r="AKL84" s="70"/>
-      <c r="AKM84" s="70"/>
-      <c r="AKN84" s="70"/>
-      <c r="AKO84" s="70"/>
-      <c r="AKP84" s="70"/>
-      <c r="AKQ84" s="70"/>
-      <c r="AKR84" s="70"/>
-      <c r="AKS84" s="70"/>
-      <c r="AKT84" s="70"/>
-      <c r="AKU84" s="70"/>
-      <c r="AKV84" s="70"/>
-      <c r="AKW84" s="70"/>
-      <c r="AKX84" s="70"/>
-      <c r="AKY84" s="70"/>
-      <c r="AKZ84" s="70"/>
-      <c r="ALA84" s="70"/>
-      <c r="ALB84" s="70"/>
-      <c r="ALC84" s="70"/>
-      <c r="ALD84" s="70"/>
-      <c r="ALE84" s="70"/>
-      <c r="ALF84" s="70"/>
-      <c r="ALG84" s="70"/>
-      <c r="ALH84" s="70"/>
-      <c r="ALI84" s="70"/>
-      <c r="ALJ84" s="70"/>
-      <c r="ALK84" s="70"/>
-      <c r="ALL84" s="70"/>
-      <c r="ALM84" s="70"/>
-      <c r="ALN84" s="70"/>
-      <c r="ALO84" s="70"/>
-      <c r="ALP84" s="70"/>
-      <c r="ALQ84" s="70"/>
-      <c r="ALR84" s="70"/>
-      <c r="ALS84" s="70"/>
-      <c r="ALT84" s="70"/>
-      <c r="ALU84" s="70"/>
-      <c r="ALV84" s="70"/>
-      <c r="ALW84" s="70"/>
-      <c r="ALX84" s="70"/>
-      <c r="ALY84" s="70"/>
-      <c r="ALZ84" s="70"/>
-      <c r="AMA84" s="70"/>
-      <c r="AMB84" s="70"/>
-      <c r="AMC84" s="70"/>
-      <c r="AMD84" s="70"/>
-      <c r="AME84" s="70"/>
-      <c r="AMF84" s="70"/>
-      <c r="AMG84" s="70"/>
-      <c r="AMH84" s="70"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="71"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="71"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="71"/>
+      <c r="N84" s="71"/>
+      <c r="O84" s="71"/>
+      <c r="P84" s="71"/>
+      <c r="Q84" s="71"/>
+      <c r="R84" s="71"/>
+      <c r="S84" s="71"/>
+      <c r="T84" s="71"/>
+      <c r="U84" s="71"/>
+      <c r="V84" s="71"/>
+      <c r="W84" s="71"/>
+      <c r="X84" s="71"/>
+      <c r="Y84" s="71"/>
+      <c r="Z84" s="71"/>
+      <c r="AA84" s="71"/>
+      <c r="AB84" s="71"/>
+      <c r="AC84" s="71"/>
+      <c r="AD84" s="71"/>
+      <c r="AE84" s="71"/>
+      <c r="AF84" s="71"/>
+      <c r="AG84" s="71"/>
+      <c r="AH84" s="71"/>
+      <c r="AI84" s="71"/>
+      <c r="AJ84" s="71"/>
+      <c r="AK84" s="71"/>
+      <c r="AL84" s="71"/>
+      <c r="AM84" s="71"/>
+      <c r="AN84" s="71"/>
+      <c r="AO84" s="71"/>
+      <c r="AP84" s="71"/>
+      <c r="AQ84" s="71"/>
+      <c r="AR84" s="71"/>
+      <c r="AS84" s="71"/>
+      <c r="AT84" s="71"/>
+      <c r="AU84" s="71"/>
+      <c r="AV84" s="71"/>
+      <c r="AW84" s="71"/>
+      <c r="AX84" s="71"/>
+      <c r="AY84" s="71"/>
+      <c r="AZ84" s="71"/>
+      <c r="BA84" s="71"/>
+      <c r="BB84" s="71"/>
+      <c r="BC84" s="71"/>
+      <c r="BD84" s="71"/>
+      <c r="BE84" s="71"/>
+      <c r="BF84" s="71"/>
+      <c r="BG84" s="71"/>
+      <c r="BH84" s="71"/>
+      <c r="BI84" s="71"/>
+      <c r="BJ84" s="71"/>
+      <c r="BK84" s="71"/>
+      <c r="BL84" s="71"/>
+      <c r="BM84" s="71"/>
+      <c r="BN84" s="71"/>
+      <c r="BO84" s="71"/>
+      <c r="BP84" s="71"/>
+      <c r="BQ84" s="71"/>
+      <c r="BR84" s="71"/>
+      <c r="BS84" s="71"/>
+      <c r="BT84" s="71"/>
+      <c r="BU84" s="71"/>
+      <c r="BV84" s="71"/>
+      <c r="BW84" s="71"/>
+      <c r="BX84" s="71"/>
+      <c r="BY84" s="71"/>
+      <c r="BZ84" s="71"/>
+      <c r="CA84" s="71"/>
+      <c r="CB84" s="71"/>
+      <c r="CC84" s="71"/>
+      <c r="CD84" s="71"/>
+      <c r="CE84" s="71"/>
+      <c r="CF84" s="71"/>
+      <c r="CG84" s="71"/>
+      <c r="CH84" s="71"/>
+      <c r="CI84" s="71"/>
+      <c r="CJ84" s="71"/>
+      <c r="CK84" s="71"/>
+      <c r="CL84" s="71"/>
+      <c r="CM84" s="71"/>
+      <c r="CN84" s="71"/>
+      <c r="CO84" s="71"/>
+      <c r="CP84" s="71"/>
+      <c r="CQ84" s="71"/>
+      <c r="CR84" s="71"/>
+      <c r="CS84" s="71"/>
+      <c r="CT84" s="71"/>
+      <c r="CU84" s="71"/>
+      <c r="CV84" s="71"/>
+      <c r="CW84" s="71"/>
+      <c r="CX84" s="71"/>
+      <c r="CY84" s="71"/>
+      <c r="CZ84" s="71"/>
+      <c r="DA84" s="71"/>
+      <c r="DB84" s="71"/>
+      <c r="DC84" s="71"/>
+      <c r="DD84" s="71"/>
+      <c r="DE84" s="71"/>
+      <c r="DF84" s="71"/>
+      <c r="DG84" s="71"/>
+      <c r="DH84" s="71"/>
+      <c r="DI84" s="71"/>
+      <c r="DJ84" s="71"/>
+      <c r="DK84" s="71"/>
+      <c r="DL84" s="71"/>
+      <c r="DM84" s="71"/>
+      <c r="DN84" s="71"/>
+      <c r="DO84" s="71"/>
+      <c r="DP84" s="71"/>
+      <c r="DQ84" s="71"/>
+      <c r="DR84" s="71"/>
+      <c r="DS84" s="71"/>
+      <c r="DT84" s="71"/>
+      <c r="DU84" s="71"/>
+      <c r="DV84" s="71"/>
+      <c r="DW84" s="71"/>
+      <c r="DX84" s="71"/>
+      <c r="DY84" s="71"/>
+      <c r="DZ84" s="71"/>
+      <c r="EA84" s="71"/>
+      <c r="EB84" s="71"/>
+      <c r="EC84" s="71"/>
+      <c r="ED84" s="71"/>
+      <c r="EE84" s="71"/>
+      <c r="EF84" s="71"/>
+      <c r="EG84" s="71"/>
+      <c r="EH84" s="71"/>
+      <c r="EI84" s="71"/>
+      <c r="EJ84" s="71"/>
+      <c r="EK84" s="71"/>
+      <c r="EL84" s="71"/>
+      <c r="EM84" s="71"/>
+      <c r="EN84" s="71"/>
+      <c r="EO84" s="71"/>
+      <c r="EP84" s="71"/>
+      <c r="EQ84" s="71"/>
+      <c r="ER84" s="71"/>
+      <c r="ES84" s="71"/>
+      <c r="ET84" s="71"/>
+      <c r="EU84" s="71"/>
+      <c r="EV84" s="71"/>
+      <c r="EW84" s="71"/>
+      <c r="EX84" s="71"/>
+      <c r="EY84" s="71"/>
+      <c r="EZ84" s="71"/>
+      <c r="FA84" s="71"/>
+      <c r="FB84" s="71"/>
+      <c r="FC84" s="71"/>
+      <c r="FD84" s="71"/>
+      <c r="FE84" s="71"/>
+      <c r="FF84" s="71"/>
+      <c r="FG84" s="71"/>
+      <c r="FH84" s="71"/>
+      <c r="FI84" s="71"/>
+      <c r="FJ84" s="71"/>
+      <c r="FK84" s="71"/>
+      <c r="FL84" s="71"/>
+      <c r="FM84" s="71"/>
+      <c r="FN84" s="71"/>
+      <c r="FO84" s="71"/>
+      <c r="FP84" s="71"/>
+      <c r="FQ84" s="71"/>
+      <c r="FR84" s="71"/>
+      <c r="FS84" s="71"/>
+      <c r="FT84" s="71"/>
+      <c r="FU84" s="71"/>
+      <c r="FV84" s="71"/>
+      <c r="FW84" s="71"/>
+      <c r="FX84" s="71"/>
+      <c r="FY84" s="71"/>
+      <c r="FZ84" s="71"/>
+      <c r="GA84" s="71"/>
+      <c r="GB84" s="71"/>
+      <c r="GC84" s="71"/>
+      <c r="GD84" s="71"/>
+      <c r="GE84" s="71"/>
+      <c r="GF84" s="71"/>
+      <c r="GG84" s="71"/>
+      <c r="GH84" s="71"/>
+      <c r="GI84" s="71"/>
+      <c r="GJ84" s="71"/>
+      <c r="GK84" s="71"/>
+      <c r="GL84" s="71"/>
+      <c r="GM84" s="71"/>
+      <c r="GN84" s="71"/>
+      <c r="GO84" s="71"/>
+      <c r="GP84" s="71"/>
+      <c r="GQ84" s="71"/>
+      <c r="GR84" s="71"/>
+      <c r="GS84" s="71"/>
+      <c r="GT84" s="71"/>
+      <c r="GU84" s="71"/>
+      <c r="GV84" s="71"/>
+      <c r="GW84" s="71"/>
+      <c r="GX84" s="71"/>
+      <c r="GY84" s="71"/>
+      <c r="GZ84" s="71"/>
+      <c r="HA84" s="71"/>
+      <c r="HB84" s="71"/>
+      <c r="HC84" s="71"/>
+      <c r="HD84" s="71"/>
+      <c r="HE84" s="71"/>
+      <c r="HF84" s="71"/>
+      <c r="HG84" s="71"/>
+      <c r="HH84" s="71"/>
+      <c r="HI84" s="71"/>
+      <c r="HJ84" s="71"/>
+      <c r="HK84" s="71"/>
+      <c r="HL84" s="71"/>
+      <c r="HM84" s="71"/>
+      <c r="HN84" s="71"/>
+      <c r="HO84" s="71"/>
+      <c r="HP84" s="71"/>
+      <c r="HQ84" s="71"/>
+      <c r="HR84" s="71"/>
+      <c r="HS84" s="71"/>
+      <c r="HT84" s="71"/>
+      <c r="HU84" s="71"/>
+      <c r="HV84" s="71"/>
+      <c r="HW84" s="71"/>
+      <c r="HX84" s="71"/>
+      <c r="HY84" s="71"/>
+      <c r="HZ84" s="71"/>
+      <c r="IA84" s="71"/>
+      <c r="IB84" s="71"/>
+      <c r="IC84" s="71"/>
+      <c r="ID84" s="71"/>
+      <c r="IE84" s="71"/>
+      <c r="IF84" s="71"/>
+      <c r="IG84" s="71"/>
+      <c r="IH84" s="71"/>
+      <c r="II84" s="71"/>
+      <c r="IJ84" s="71"/>
+      <c r="IK84" s="71"/>
+      <c r="IL84" s="71"/>
+      <c r="IM84" s="71"/>
+      <c r="IN84" s="71"/>
+      <c r="IO84" s="71"/>
+      <c r="IP84" s="71"/>
+      <c r="IQ84" s="71"/>
+      <c r="IR84" s="71"/>
+      <c r="IS84" s="71"/>
+      <c r="IT84" s="71"/>
+      <c r="IU84" s="71"/>
+      <c r="IV84" s="71"/>
+      <c r="IW84" s="71"/>
+      <c r="IX84" s="71"/>
+      <c r="IY84" s="71"/>
+      <c r="IZ84" s="71"/>
+      <c r="JA84" s="71"/>
+      <c r="JB84" s="71"/>
+      <c r="JC84" s="71"/>
+      <c r="JD84" s="71"/>
+      <c r="JE84" s="71"/>
+      <c r="JF84" s="71"/>
+      <c r="JG84" s="71"/>
+      <c r="JH84" s="71"/>
+      <c r="JI84" s="71"/>
+      <c r="JJ84" s="71"/>
+      <c r="JK84" s="71"/>
+      <c r="JL84" s="71"/>
+      <c r="JM84" s="71"/>
+      <c r="JN84" s="71"/>
+      <c r="JO84" s="71"/>
+      <c r="JP84" s="71"/>
+      <c r="JQ84" s="71"/>
+      <c r="JR84" s="71"/>
+      <c r="JS84" s="71"/>
+      <c r="JT84" s="71"/>
+      <c r="JU84" s="71"/>
+      <c r="JV84" s="71"/>
+      <c r="JW84" s="71"/>
+      <c r="JX84" s="71"/>
+      <c r="JY84" s="71"/>
+      <c r="JZ84" s="71"/>
+      <c r="KA84" s="71"/>
+      <c r="KB84" s="71"/>
+      <c r="KC84" s="71"/>
+      <c r="KD84" s="71"/>
+      <c r="KE84" s="71"/>
+      <c r="KF84" s="71"/>
+      <c r="KG84" s="71"/>
+      <c r="KH84" s="71"/>
+      <c r="KI84" s="71"/>
+      <c r="KJ84" s="71"/>
+      <c r="KK84" s="71"/>
+      <c r="KL84" s="71"/>
+      <c r="KM84" s="71"/>
+      <c r="KN84" s="71"/>
+      <c r="KO84" s="71"/>
+      <c r="KP84" s="71"/>
+      <c r="KQ84" s="71"/>
+      <c r="KR84" s="71"/>
+      <c r="KS84" s="71"/>
+      <c r="KT84" s="71"/>
+      <c r="KU84" s="71"/>
+      <c r="KV84" s="71"/>
+      <c r="KW84" s="71"/>
+      <c r="KX84" s="71"/>
+      <c r="KY84" s="71"/>
+      <c r="KZ84" s="71"/>
+      <c r="LA84" s="71"/>
+      <c r="LB84" s="71"/>
+      <c r="LC84" s="71"/>
+      <c r="LD84" s="71"/>
+      <c r="LE84" s="71"/>
+      <c r="LF84" s="71"/>
+      <c r="LG84" s="71"/>
+      <c r="LH84" s="71"/>
+      <c r="LI84" s="71"/>
+      <c r="LJ84" s="71"/>
+      <c r="LK84" s="71"/>
+      <c r="LL84" s="71"/>
+      <c r="LM84" s="71"/>
+      <c r="LN84" s="71"/>
+      <c r="LO84" s="71"/>
+      <c r="LP84" s="71"/>
+      <c r="LQ84" s="71"/>
+      <c r="LR84" s="71"/>
+      <c r="LS84" s="71"/>
+      <c r="LT84" s="71"/>
+      <c r="LU84" s="71"/>
+      <c r="LV84" s="71"/>
+      <c r="LW84" s="71"/>
+      <c r="LX84" s="71"/>
+      <c r="LY84" s="71"/>
+      <c r="LZ84" s="71"/>
+      <c r="MA84" s="71"/>
+      <c r="MB84" s="71"/>
+      <c r="MC84" s="71"/>
+      <c r="MD84" s="71"/>
+      <c r="ME84" s="71"/>
+      <c r="MF84" s="71"/>
+      <c r="MG84" s="71"/>
+      <c r="MH84" s="71"/>
+      <c r="MI84" s="71"/>
+      <c r="MJ84" s="71"/>
+      <c r="MK84" s="71"/>
+      <c r="ML84" s="71"/>
+      <c r="MM84" s="71"/>
+      <c r="MN84" s="71"/>
+      <c r="MO84" s="71"/>
+      <c r="MP84" s="71"/>
+      <c r="MQ84" s="71"/>
+      <c r="MR84" s="71"/>
+      <c r="MS84" s="71"/>
+      <c r="MT84" s="71"/>
+      <c r="MU84" s="71"/>
+      <c r="MV84" s="71"/>
+      <c r="MW84" s="71"/>
+      <c r="MX84" s="71"/>
+      <c r="MY84" s="71"/>
+      <c r="MZ84" s="71"/>
+      <c r="NA84" s="71"/>
+      <c r="NB84" s="71"/>
+      <c r="NC84" s="71"/>
+      <c r="ND84" s="71"/>
+      <c r="NE84" s="71"/>
+      <c r="NF84" s="71"/>
+      <c r="NG84" s="71"/>
+      <c r="NH84" s="71"/>
+      <c r="NI84" s="71"/>
+      <c r="NJ84" s="71"/>
+      <c r="NK84" s="71"/>
+      <c r="NL84" s="71"/>
+      <c r="NM84" s="71"/>
+      <c r="NN84" s="71"/>
+      <c r="NO84" s="71"/>
+      <c r="NP84" s="71"/>
+      <c r="NQ84" s="71"/>
+      <c r="NR84" s="71"/>
+      <c r="NS84" s="71"/>
+      <c r="NT84" s="71"/>
+      <c r="NU84" s="71"/>
+      <c r="NV84" s="71"/>
+      <c r="NW84" s="71"/>
+      <c r="NX84" s="71"/>
+      <c r="NY84" s="71"/>
+      <c r="NZ84" s="71"/>
+      <c r="OA84" s="71"/>
+      <c r="OB84" s="71"/>
+      <c r="OC84" s="71"/>
+      <c r="OD84" s="71"/>
+      <c r="OE84" s="71"/>
+      <c r="OF84" s="71"/>
+      <c r="OG84" s="71"/>
+      <c r="OH84" s="71"/>
+      <c r="OI84" s="71"/>
+      <c r="OJ84" s="71"/>
+      <c r="OK84" s="71"/>
+      <c r="OL84" s="71"/>
+      <c r="OM84" s="71"/>
+      <c r="ON84" s="71"/>
+      <c r="OO84" s="71"/>
+      <c r="OP84" s="71"/>
+      <c r="OQ84" s="71"/>
+      <c r="OR84" s="71"/>
+      <c r="OS84" s="71"/>
+      <c r="OT84" s="71"/>
+      <c r="OU84" s="71"/>
+      <c r="OV84" s="71"/>
+      <c r="OW84" s="71"/>
+      <c r="OX84" s="71"/>
+      <c r="OY84" s="71"/>
+      <c r="OZ84" s="71"/>
+      <c r="PA84" s="71"/>
+      <c r="PB84" s="71"/>
+      <c r="PC84" s="71"/>
+      <c r="PD84" s="71"/>
+      <c r="PE84" s="71"/>
+      <c r="PF84" s="71"/>
+      <c r="PG84" s="71"/>
+      <c r="PH84" s="71"/>
+      <c r="PI84" s="71"/>
+      <c r="PJ84" s="71"/>
+      <c r="PK84" s="71"/>
+      <c r="PL84" s="71"/>
+      <c r="PM84" s="71"/>
+      <c r="PN84" s="71"/>
+      <c r="PO84" s="71"/>
+      <c r="PP84" s="71"/>
+      <c r="PQ84" s="71"/>
+      <c r="PR84" s="71"/>
+      <c r="PS84" s="71"/>
+      <c r="PT84" s="71"/>
+      <c r="PU84" s="71"/>
+      <c r="PV84" s="71"/>
+      <c r="PW84" s="71"/>
+      <c r="PX84" s="71"/>
+      <c r="PY84" s="71"/>
+      <c r="PZ84" s="71"/>
+      <c r="QA84" s="71"/>
+      <c r="QB84" s="71"/>
+      <c r="QC84" s="71"/>
+      <c r="QD84" s="71"/>
+      <c r="QE84" s="71"/>
+      <c r="QF84" s="71"/>
+      <c r="QG84" s="71"/>
+      <c r="QH84" s="71"/>
+      <c r="QI84" s="71"/>
+      <c r="QJ84" s="71"/>
+      <c r="QK84" s="71"/>
+      <c r="QL84" s="71"/>
+      <c r="QM84" s="71"/>
+      <c r="QN84" s="71"/>
+      <c r="QO84" s="71"/>
+      <c r="QP84" s="71"/>
+      <c r="QQ84" s="71"/>
+      <c r="QR84" s="71"/>
+      <c r="QS84" s="71"/>
+      <c r="QT84" s="71"/>
+      <c r="QU84" s="71"/>
+      <c r="QV84" s="71"/>
+      <c r="QW84" s="71"/>
+      <c r="QX84" s="71"/>
+      <c r="QY84" s="71"/>
+      <c r="QZ84" s="71"/>
+      <c r="RA84" s="71"/>
+      <c r="RB84" s="71"/>
+      <c r="RC84" s="71"/>
+      <c r="RD84" s="71"/>
+      <c r="RE84" s="71"/>
+      <c r="RF84" s="71"/>
+      <c r="RG84" s="71"/>
+      <c r="RH84" s="71"/>
+      <c r="RI84" s="71"/>
+      <c r="RJ84" s="71"/>
+      <c r="RK84" s="71"/>
+      <c r="RL84" s="71"/>
+      <c r="RM84" s="71"/>
+      <c r="RN84" s="71"/>
+      <c r="RO84" s="71"/>
+      <c r="RP84" s="71"/>
+      <c r="RQ84" s="71"/>
+      <c r="RR84" s="71"/>
+      <c r="RS84" s="71"/>
+      <c r="RT84" s="71"/>
+      <c r="RU84" s="71"/>
+      <c r="RV84" s="71"/>
+      <c r="RW84" s="71"/>
+      <c r="RX84" s="71"/>
+      <c r="RY84" s="71"/>
+      <c r="RZ84" s="71"/>
+      <c r="SA84" s="71"/>
+      <c r="SB84" s="71"/>
+      <c r="SC84" s="71"/>
+      <c r="SD84" s="71"/>
+      <c r="SE84" s="71"/>
+      <c r="SF84" s="71"/>
+      <c r="SG84" s="71"/>
+      <c r="SH84" s="71"/>
+      <c r="SI84" s="71"/>
+      <c r="SJ84" s="71"/>
+      <c r="SK84" s="71"/>
+      <c r="SL84" s="71"/>
+      <c r="SM84" s="71"/>
+      <c r="SN84" s="71"/>
+      <c r="SO84" s="71"/>
+      <c r="SP84" s="71"/>
+      <c r="SQ84" s="71"/>
+      <c r="SR84" s="71"/>
+      <c r="SS84" s="71"/>
+      <c r="ST84" s="71"/>
+      <c r="SU84" s="71"/>
+      <c r="SV84" s="71"/>
+      <c r="SW84" s="71"/>
+      <c r="SX84" s="71"/>
+      <c r="SY84" s="71"/>
+      <c r="SZ84" s="71"/>
+      <c r="TA84" s="71"/>
+      <c r="TB84" s="71"/>
+      <c r="TC84" s="71"/>
+      <c r="TD84" s="71"/>
+      <c r="TE84" s="71"/>
+      <c r="TF84" s="71"/>
+      <c r="TG84" s="71"/>
+      <c r="TH84" s="71"/>
+      <c r="TI84" s="71"/>
+      <c r="TJ84" s="71"/>
+      <c r="TK84" s="71"/>
+      <c r="TL84" s="71"/>
+      <c r="TM84" s="71"/>
+      <c r="TN84" s="71"/>
+      <c r="TO84" s="71"/>
+      <c r="TP84" s="71"/>
+      <c r="TQ84" s="71"/>
+      <c r="TR84" s="71"/>
+      <c r="TS84" s="71"/>
+      <c r="TT84" s="71"/>
+      <c r="TU84" s="71"/>
+      <c r="TV84" s="71"/>
+      <c r="TW84" s="71"/>
+      <c r="TX84" s="71"/>
+      <c r="TY84" s="71"/>
+      <c r="TZ84" s="71"/>
+      <c r="UA84" s="71"/>
+      <c r="UB84" s="71"/>
+      <c r="UC84" s="71"/>
+      <c r="UD84" s="71"/>
+      <c r="UE84" s="71"/>
+      <c r="UF84" s="71"/>
+      <c r="UG84" s="71"/>
+      <c r="UH84" s="71"/>
+      <c r="UI84" s="71"/>
+      <c r="UJ84" s="71"/>
+      <c r="UK84" s="71"/>
+      <c r="UL84" s="71"/>
+      <c r="UM84" s="71"/>
+      <c r="UN84" s="71"/>
+      <c r="UO84" s="71"/>
+      <c r="UP84" s="71"/>
+      <c r="UQ84" s="71"/>
+      <c r="UR84" s="71"/>
+      <c r="US84" s="71"/>
+      <c r="UT84" s="71"/>
+      <c r="UU84" s="71"/>
+      <c r="UV84" s="71"/>
+      <c r="UW84" s="71"/>
+      <c r="UX84" s="71"/>
+      <c r="UY84" s="71"/>
+      <c r="UZ84" s="71"/>
+      <c r="VA84" s="71"/>
+      <c r="VB84" s="71"/>
+      <c r="VC84" s="71"/>
+      <c r="VD84" s="71"/>
+      <c r="VE84" s="71"/>
+      <c r="VF84" s="71"/>
+      <c r="VG84" s="71"/>
+      <c r="VH84" s="71"/>
+      <c r="VI84" s="71"/>
+      <c r="VJ84" s="71"/>
+      <c r="VK84" s="71"/>
+      <c r="VL84" s="71"/>
+      <c r="VM84" s="71"/>
+      <c r="VN84" s="71"/>
+      <c r="VO84" s="71"/>
+      <c r="VP84" s="71"/>
+      <c r="VQ84" s="71"/>
+      <c r="VR84" s="71"/>
+      <c r="VS84" s="71"/>
+      <c r="VT84" s="71"/>
+      <c r="VU84" s="71"/>
+      <c r="VV84" s="71"/>
+      <c r="VW84" s="71"/>
+      <c r="VX84" s="71"/>
+      <c r="VY84" s="71"/>
+      <c r="VZ84" s="71"/>
+      <c r="WA84" s="71"/>
+      <c r="WB84" s="71"/>
+      <c r="WC84" s="71"/>
+      <c r="WD84" s="71"/>
+      <c r="WE84" s="71"/>
+      <c r="WF84" s="71"/>
+      <c r="WG84" s="71"/>
+      <c r="WH84" s="71"/>
+      <c r="WI84" s="71"/>
+      <c r="WJ84" s="71"/>
+      <c r="WK84" s="71"/>
+      <c r="WL84" s="71"/>
+      <c r="WM84" s="71"/>
+      <c r="WN84" s="71"/>
+      <c r="WO84" s="71"/>
+      <c r="WP84" s="71"/>
+      <c r="WQ84" s="71"/>
+      <c r="WR84" s="71"/>
+      <c r="WS84" s="71"/>
+      <c r="WT84" s="71"/>
+      <c r="WU84" s="71"/>
+      <c r="WV84" s="71"/>
+      <c r="WW84" s="71"/>
+      <c r="WX84" s="71"/>
+      <c r="WY84" s="71"/>
+      <c r="WZ84" s="71"/>
+      <c r="XA84" s="71"/>
+      <c r="XB84" s="71"/>
+      <c r="XC84" s="71"/>
+      <c r="XD84" s="71"/>
+      <c r="XE84" s="71"/>
+      <c r="XF84" s="71"/>
+      <c r="XG84" s="71"/>
+      <c r="XH84" s="71"/>
+      <c r="XI84" s="71"/>
+      <c r="XJ84" s="71"/>
+      <c r="XK84" s="71"/>
+      <c r="XL84" s="71"/>
+      <c r="XM84" s="71"/>
+      <c r="XN84" s="71"/>
+      <c r="XO84" s="71"/>
+      <c r="XP84" s="71"/>
+      <c r="XQ84" s="71"/>
+      <c r="XR84" s="71"/>
+      <c r="XS84" s="71"/>
+      <c r="XT84" s="71"/>
+      <c r="XU84" s="71"/>
+      <c r="XV84" s="71"/>
+      <c r="XW84" s="71"/>
+      <c r="XX84" s="71"/>
+      <c r="XY84" s="71"/>
+      <c r="XZ84" s="71"/>
+      <c r="YA84" s="71"/>
+      <c r="YB84" s="71"/>
+      <c r="YC84" s="71"/>
+      <c r="YD84" s="71"/>
+      <c r="YE84" s="71"/>
+      <c r="YF84" s="71"/>
+      <c r="YG84" s="71"/>
+      <c r="YH84" s="71"/>
+      <c r="YI84" s="71"/>
+      <c r="YJ84" s="71"/>
+      <c r="YK84" s="71"/>
+      <c r="YL84" s="71"/>
+      <c r="YM84" s="71"/>
+      <c r="YN84" s="71"/>
+      <c r="YO84" s="71"/>
+      <c r="YP84" s="71"/>
+      <c r="YQ84" s="71"/>
+      <c r="YR84" s="71"/>
+      <c r="YS84" s="71"/>
+      <c r="YT84" s="71"/>
+      <c r="YU84" s="71"/>
+      <c r="YV84" s="71"/>
+      <c r="YW84" s="71"/>
+      <c r="YX84" s="71"/>
+      <c r="YY84" s="71"/>
+      <c r="YZ84" s="71"/>
+      <c r="ZA84" s="71"/>
+      <c r="ZB84" s="71"/>
+      <c r="ZC84" s="71"/>
+      <c r="ZD84" s="71"/>
+      <c r="ZE84" s="71"/>
+      <c r="ZF84" s="71"/>
+      <c r="ZG84" s="71"/>
+      <c r="ZH84" s="71"/>
+      <c r="ZI84" s="71"/>
+      <c r="ZJ84" s="71"/>
+      <c r="ZK84" s="71"/>
+      <c r="ZL84" s="71"/>
+      <c r="ZM84" s="71"/>
+      <c r="ZN84" s="71"/>
+      <c r="ZO84" s="71"/>
+      <c r="ZP84" s="71"/>
+      <c r="ZQ84" s="71"/>
+      <c r="ZR84" s="71"/>
+      <c r="ZS84" s="71"/>
+      <c r="ZT84" s="71"/>
+      <c r="ZU84" s="71"/>
+      <c r="ZV84" s="71"/>
+      <c r="ZW84" s="71"/>
+      <c r="ZX84" s="71"/>
+      <c r="ZY84" s="71"/>
+      <c r="ZZ84" s="71"/>
+      <c r="AAA84" s="71"/>
+      <c r="AAB84" s="71"/>
+      <c r="AAC84" s="71"/>
+      <c r="AAD84" s="71"/>
+      <c r="AAE84" s="71"/>
+      <c r="AAF84" s="71"/>
+      <c r="AAG84" s="71"/>
+      <c r="AAH84" s="71"/>
+      <c r="AAI84" s="71"/>
+      <c r="AAJ84" s="71"/>
+      <c r="AAK84" s="71"/>
+      <c r="AAL84" s="71"/>
+      <c r="AAM84" s="71"/>
+      <c r="AAN84" s="71"/>
+      <c r="AAO84" s="71"/>
+      <c r="AAP84" s="71"/>
+      <c r="AAQ84" s="71"/>
+      <c r="AAR84" s="71"/>
+      <c r="AAS84" s="71"/>
+      <c r="AAT84" s="71"/>
+      <c r="AAU84" s="71"/>
+      <c r="AAV84" s="71"/>
+      <c r="AAW84" s="71"/>
+      <c r="AAX84" s="71"/>
+      <c r="AAY84" s="71"/>
+      <c r="AAZ84" s="71"/>
+      <c r="ABA84" s="71"/>
+      <c r="ABB84" s="71"/>
+      <c r="ABC84" s="71"/>
+      <c r="ABD84" s="71"/>
+      <c r="ABE84" s="71"/>
+      <c r="ABF84" s="71"/>
+      <c r="ABG84" s="71"/>
+      <c r="ABH84" s="71"/>
+      <c r="ABI84" s="71"/>
+      <c r="ABJ84" s="71"/>
+      <c r="ABK84" s="71"/>
+      <c r="ABL84" s="71"/>
+      <c r="ABM84" s="71"/>
+      <c r="ABN84" s="71"/>
+      <c r="ABO84" s="71"/>
+      <c r="ABP84" s="71"/>
+      <c r="ABQ84" s="71"/>
+      <c r="ABR84" s="71"/>
+      <c r="ABS84" s="71"/>
+      <c r="ABT84" s="71"/>
+      <c r="ABU84" s="71"/>
+      <c r="ABV84" s="71"/>
+      <c r="ABW84" s="71"/>
+      <c r="ABX84" s="71"/>
+      <c r="ABY84" s="71"/>
+      <c r="ABZ84" s="71"/>
+      <c r="ACA84" s="71"/>
+      <c r="ACB84" s="71"/>
+      <c r="ACC84" s="71"/>
+      <c r="ACD84" s="71"/>
+      <c r="ACE84" s="71"/>
+      <c r="ACF84" s="71"/>
+      <c r="ACG84" s="71"/>
+      <c r="ACH84" s="71"/>
+      <c r="ACI84" s="71"/>
+      <c r="ACJ84" s="71"/>
+      <c r="ACK84" s="71"/>
+      <c r="ACL84" s="71"/>
+      <c r="ACM84" s="71"/>
+      <c r="ACN84" s="71"/>
+      <c r="ACO84" s="71"/>
+      <c r="ACP84" s="71"/>
+      <c r="ACQ84" s="71"/>
+      <c r="ACR84" s="71"/>
+      <c r="ACS84" s="71"/>
+      <c r="ACT84" s="71"/>
+      <c r="ACU84" s="71"/>
+      <c r="ACV84" s="71"/>
+      <c r="ACW84" s="71"/>
+      <c r="ACX84" s="71"/>
+      <c r="ACY84" s="71"/>
+      <c r="ACZ84" s="71"/>
+      <c r="ADA84" s="71"/>
+      <c r="ADB84" s="71"/>
+      <c r="ADC84" s="71"/>
+      <c r="ADD84" s="71"/>
+      <c r="ADE84" s="71"/>
+      <c r="ADF84" s="71"/>
+      <c r="ADG84" s="71"/>
+      <c r="ADH84" s="71"/>
+      <c r="ADI84" s="71"/>
+      <c r="ADJ84" s="71"/>
+      <c r="ADK84" s="71"/>
+      <c r="ADL84" s="71"/>
+      <c r="ADM84" s="71"/>
+      <c r="ADN84" s="71"/>
+      <c r="ADO84" s="71"/>
+      <c r="ADP84" s="71"/>
+      <c r="ADQ84" s="71"/>
+      <c r="ADR84" s="71"/>
+      <c r="ADS84" s="71"/>
+      <c r="ADT84" s="71"/>
+      <c r="ADU84" s="71"/>
+      <c r="ADV84" s="71"/>
+      <c r="ADW84" s="71"/>
+      <c r="ADX84" s="71"/>
+      <c r="ADY84" s="71"/>
+      <c r="ADZ84" s="71"/>
+      <c r="AEA84" s="71"/>
+      <c r="AEB84" s="71"/>
+      <c r="AEC84" s="71"/>
+      <c r="AED84" s="71"/>
+      <c r="AEE84" s="71"/>
+      <c r="AEF84" s="71"/>
+      <c r="AEG84" s="71"/>
+      <c r="AEH84" s="71"/>
+      <c r="AEI84" s="71"/>
+      <c r="AEJ84" s="71"/>
+      <c r="AEK84" s="71"/>
+      <c r="AEL84" s="71"/>
+      <c r="AEM84" s="71"/>
+      <c r="AEN84" s="71"/>
+      <c r="AEO84" s="71"/>
+      <c r="AEP84" s="71"/>
+      <c r="AEQ84" s="71"/>
+      <c r="AER84" s="71"/>
+      <c r="AES84" s="71"/>
+      <c r="AET84" s="71"/>
+      <c r="AEU84" s="71"/>
+      <c r="AEV84" s="71"/>
+      <c r="AEW84" s="71"/>
+      <c r="AEX84" s="71"/>
+      <c r="AEY84" s="71"/>
+      <c r="AEZ84" s="71"/>
+      <c r="AFA84" s="71"/>
+      <c r="AFB84" s="71"/>
+      <c r="AFC84" s="71"/>
+      <c r="AFD84" s="71"/>
+      <c r="AFE84" s="71"/>
+      <c r="AFF84" s="71"/>
+      <c r="AFG84" s="71"/>
+      <c r="AFH84" s="71"/>
+      <c r="AFI84" s="71"/>
+      <c r="AFJ84" s="71"/>
+      <c r="AFK84" s="71"/>
+      <c r="AFL84" s="71"/>
+      <c r="AFM84" s="71"/>
+      <c r="AFN84" s="71"/>
+      <c r="AFO84" s="71"/>
+      <c r="AFP84" s="71"/>
+      <c r="AFQ84" s="71"/>
+      <c r="AFR84" s="71"/>
+      <c r="AFS84" s="71"/>
+      <c r="AFT84" s="71"/>
+      <c r="AFU84" s="71"/>
+      <c r="AFV84" s="71"/>
+      <c r="AFW84" s="71"/>
+      <c r="AFX84" s="71"/>
+      <c r="AFY84" s="71"/>
+      <c r="AFZ84" s="71"/>
+      <c r="AGA84" s="71"/>
+      <c r="AGB84" s="71"/>
+      <c r="AGC84" s="71"/>
+      <c r="AGD84" s="71"/>
+      <c r="AGE84" s="71"/>
+      <c r="AGF84" s="71"/>
+      <c r="AGG84" s="71"/>
+      <c r="AGH84" s="71"/>
+      <c r="AGI84" s="71"/>
+      <c r="AGJ84" s="71"/>
+      <c r="AGK84" s="71"/>
+      <c r="AGL84" s="71"/>
+      <c r="AGM84" s="71"/>
+      <c r="AGN84" s="71"/>
+      <c r="AGO84" s="71"/>
+      <c r="AGP84" s="71"/>
+      <c r="AGQ84" s="71"/>
+      <c r="AGR84" s="71"/>
+      <c r="AGS84" s="71"/>
+      <c r="AGT84" s="71"/>
+      <c r="AGU84" s="71"/>
+      <c r="AGV84" s="71"/>
+      <c r="AGW84" s="71"/>
+      <c r="AGX84" s="71"/>
+      <c r="AGY84" s="71"/>
+      <c r="AGZ84" s="71"/>
+      <c r="AHA84" s="71"/>
+      <c r="AHB84" s="71"/>
+      <c r="AHC84" s="71"/>
+      <c r="AHD84" s="71"/>
+      <c r="AHE84" s="71"/>
+      <c r="AHF84" s="71"/>
+      <c r="AHG84" s="71"/>
+      <c r="AHH84" s="71"/>
+      <c r="AHI84" s="71"/>
+      <c r="AHJ84" s="71"/>
+      <c r="AHK84" s="71"/>
+      <c r="AHL84" s="71"/>
+      <c r="AHM84" s="71"/>
+      <c r="AHN84" s="71"/>
+      <c r="AHO84" s="71"/>
+      <c r="AHP84" s="71"/>
+      <c r="AHQ84" s="71"/>
+      <c r="AHR84" s="71"/>
+      <c r="AHS84" s="71"/>
+      <c r="AHT84" s="71"/>
+      <c r="AHU84" s="71"/>
+      <c r="AHV84" s="71"/>
+      <c r="AHW84" s="71"/>
+      <c r="AHX84" s="71"/>
+      <c r="AHY84" s="71"/>
+      <c r="AHZ84" s="71"/>
+      <c r="AIA84" s="71"/>
+      <c r="AIB84" s="71"/>
+      <c r="AIC84" s="71"/>
+      <c r="AID84" s="71"/>
+      <c r="AIE84" s="71"/>
+      <c r="AIF84" s="71"/>
+      <c r="AIG84" s="71"/>
+      <c r="AIH84" s="71"/>
+      <c r="AII84" s="71"/>
+      <c r="AIJ84" s="71"/>
+      <c r="AIK84" s="71"/>
+      <c r="AIL84" s="71"/>
+      <c r="AIM84" s="71"/>
+      <c r="AIN84" s="71"/>
+      <c r="AIO84" s="71"/>
+      <c r="AIP84" s="71"/>
+      <c r="AIQ84" s="71"/>
+      <c r="AIR84" s="71"/>
+      <c r="AIS84" s="71"/>
+      <c r="AIT84" s="71"/>
+      <c r="AIU84" s="71"/>
+      <c r="AIV84" s="71"/>
+      <c r="AIW84" s="71"/>
+      <c r="AIX84" s="71"/>
+      <c r="AIY84" s="71"/>
+      <c r="AIZ84" s="71"/>
+      <c r="AJA84" s="71"/>
+      <c r="AJB84" s="71"/>
+      <c r="AJC84" s="71"/>
+      <c r="AJD84" s="71"/>
+      <c r="AJE84" s="71"/>
+      <c r="AJF84" s="71"/>
+      <c r="AJG84" s="71"/>
+      <c r="AJH84" s="71"/>
+      <c r="AJI84" s="71"/>
+      <c r="AJJ84" s="71"/>
+      <c r="AJK84" s="71"/>
+      <c r="AJL84" s="71"/>
+      <c r="AJM84" s="71"/>
+      <c r="AJN84" s="71"/>
+      <c r="AJO84" s="71"/>
+      <c r="AJP84" s="71"/>
+      <c r="AJQ84" s="71"/>
+      <c r="AJR84" s="71"/>
+      <c r="AJS84" s="71"/>
+      <c r="AJT84" s="71"/>
+      <c r="AJU84" s="71"/>
+      <c r="AJV84" s="71"/>
+      <c r="AJW84" s="71"/>
+      <c r="AJX84" s="71"/>
+      <c r="AJY84" s="71"/>
+      <c r="AJZ84" s="71"/>
+      <c r="AKA84" s="71"/>
+      <c r="AKB84" s="71"/>
+      <c r="AKC84" s="71"/>
+      <c r="AKD84" s="71"/>
+      <c r="AKE84" s="71"/>
+      <c r="AKF84" s="71"/>
+      <c r="AKG84" s="71"/>
+      <c r="AKH84" s="71"/>
+      <c r="AKI84" s="71"/>
+      <c r="AKJ84" s="71"/>
+      <c r="AKK84" s="71"/>
+      <c r="AKL84" s="71"/>
+      <c r="AKM84" s="71"/>
+      <c r="AKN84" s="71"/>
+      <c r="AKO84" s="71"/>
+      <c r="AKP84" s="71"/>
+      <c r="AKQ84" s="71"/>
+      <c r="AKR84" s="71"/>
+      <c r="AKS84" s="71"/>
+      <c r="AKT84" s="71"/>
+      <c r="AKU84" s="71"/>
+      <c r="AKV84" s="71"/>
+      <c r="AKW84" s="71"/>
+      <c r="AKX84" s="71"/>
+      <c r="AKY84" s="71"/>
+      <c r="AKZ84" s="71"/>
+      <c r="ALA84" s="71"/>
+      <c r="ALB84" s="71"/>
+      <c r="ALC84" s="71"/>
+      <c r="ALD84" s="71"/>
+      <c r="ALE84" s="71"/>
+      <c r="ALF84" s="71"/>
+      <c r="ALG84" s="71"/>
+      <c r="ALH84" s="71"/>
+      <c r="ALI84" s="71"/>
+      <c r="ALJ84" s="71"/>
+      <c r="ALK84" s="71"/>
+      <c r="ALL84" s="71"/>
+      <c r="ALM84" s="71"/>
+      <c r="ALN84" s="71"/>
+      <c r="ALO84" s="71"/>
+      <c r="ALP84" s="71"/>
+      <c r="ALQ84" s="71"/>
+      <c r="ALR84" s="71"/>
+      <c r="ALS84" s="71"/>
+      <c r="ALT84" s="71"/>
+      <c r="ALU84" s="71"/>
+      <c r="ALV84" s="71"/>
+      <c r="ALW84" s="71"/>
+      <c r="ALX84" s="71"/>
+      <c r="ALY84" s="71"/>
+      <c r="ALZ84" s="71"/>
+      <c r="AMA84" s="71"/>
+      <c r="AMB84" s="71"/>
+      <c r="AMC84" s="71"/>
+      <c r="AMD84" s="71"/>
+      <c r="AME84" s="71"/>
+      <c r="AMF84" s="71"/>
+      <c r="AMG84" s="71"/>
+      <c r="AMH84" s="71"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -20601,7 +20620,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="72" t="s">
+      <c r="A88" s="73" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -23766,10 +23785,10 @@
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="69"/>
+      <c r="E97" s="70"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="73" t="s">
+      <c r="A98" s="74" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -23781,7 +23800,7 @@
       <c r="D98" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="E98" s="67">
+      <c r="E98" s="68">
         <v>0.9686</v>
       </c>
     </row>
@@ -23798,7 +23817,7 @@
       <c r="D99" s="10">
         <v>0.9671612</v>
       </c>
-      <c r="E99" s="69">
+      <c r="E99" s="70">
         <v>0.9687</v>
       </c>
     </row>
@@ -23815,7 +23834,7 @@
       <c r="D100" s="10">
         <v>0.9673732</v>
       </c>
-      <c r="E100" s="69">
+      <c r="E100" s="70">
         <v>0.9686</v>
       </c>
     </row>
@@ -23832,7 +23851,7 @@
       <c r="D101" s="10">
         <v>0.9674291</v>
       </c>
-      <c r="E101" s="69">
+      <c r="E101" s="70">
         <v>0.96939</v>
       </c>
     </row>
@@ -23849,7 +23868,7 @@
       <c r="D102" s="10">
         <v>0.967249</v>
       </c>
-      <c r="E102" s="69"/>
+      <c r="E102" s="70"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
@@ -23864,7 +23883,7 @@
       <c r="D103" s="10">
         <v>0.9673428</v>
       </c>
-      <c r="E103" s="69"/>
+      <c r="E103" s="70"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="19" t="s">
@@ -23896,12 +23915,12 @@
       <c r="D105" s="28">
         <v>0.967788</v>
       </c>
-      <c r="E105" s="69">
+      <c r="E105" s="70">
         <v>0.9683</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="19" t="s">
         <v>163</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -23913,105 +23932,122 @@
       <c r="D106" s="10">
         <v>0.9675726</v>
       </c>
-      <c r="E106" s="69">
+      <c r="E106" s="70">
         <v>0.9699</v>
       </c>
     </row>
-    <row r="107" spans="5:5">
-      <c r="E107" s="69"/>
+    <row r="107" spans="1:5">
+      <c r="A107" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="E107" s="70"/>
     </row>
-    <row r="108" spans="5:5">
-      <c r="E108" s="69"/>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" s="10">
+        <v>0.9965193</v>
+      </c>
+      <c r="D108" s="20">
+        <v>0.9676965</v>
+      </c>
+      <c r="E108" s="67">
+        <v>0.9689</v>
+      </c>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="69"/>
+      <c r="E109" s="70"/>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="69"/>
+      <c r="E110" s="70"/>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="69"/>
+      <c r="E111" s="70"/>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="69"/>
+      <c r="E112" s="70"/>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="69"/>
+      <c r="E113" s="70"/>
     </row>
     <row r="114" spans="5:5">
-      <c r="E114" s="69"/>
+      <c r="E114" s="70"/>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="69"/>
+      <c r="E115" s="70"/>
     </row>
     <row r="116" spans="5:5">
-      <c r="E116" s="69"/>
+      <c r="E116" s="70"/>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="69"/>
+      <c r="E117" s="70"/>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="69"/>
+      <c r="E118" s="70"/>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="69"/>
+      <c r="E119" s="70"/>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="69"/>
+      <c r="E120" s="70"/>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="69"/>
+      <c r="E121" s="70"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="69"/>
+      <c r="E122" s="70"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="69"/>
+      <c r="E123" s="70"/>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="69"/>
+      <c r="E124" s="70"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="69"/>
+      <c r="E125" s="70"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="69"/>
+      <c r="E126" s="70"/>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="69"/>
+      <c r="E127" s="70"/>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="69"/>
+      <c r="E128" s="70"/>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="69"/>
+      <c r="E129" s="70"/>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="69"/>
+      <c r="E130" s="70"/>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="69"/>
+      <c r="E131" s="70"/>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="69"/>
+      <c r="E132" s="70"/>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="69"/>
+      <c r="E133" s="70"/>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="69"/>
+      <c r="E134" s="70"/>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="69"/>
+      <c r="E135" s="70"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="69"/>
+      <c r="E136" s="70"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="69"/>
+      <c r="E137" s="70"/>
     </row>
     <row r="138" spans="5:5">
-      <c r="E138" s="69"/>
+      <c r="E138" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <r>
       <rPr>
@@ -1487,6 +1487,12 @@
   <si>
     <t>342</t>
   </si>
+  <si>
+    <t>father_son_order_order_type0,1_ratio</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
 </sst>
 </file>
 
@@ -2744,8 +2750,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -2755,8 +2761,8 @@
     <col min="3" max="3" width="10.3" style="10" customWidth="1"/>
     <col min="4" max="4" width="9.325" style="10" customWidth="1"/>
     <col min="5" max="5" width="11.1333333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.1333333333333" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8.99166666666667" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.8916666666667" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.0083333333333" style="12" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="13"/>
     <col min="9" max="1022" width="8.775" style="14"/>
     <col min="1023" max="16384" width="9" style="2"/>
@@ -23959,8 +23965,22 @@
         <v>0.9689</v>
       </c>
     </row>
-    <row r="109" spans="5:5">
-      <c r="E109" s="70"/>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="10">
+        <v>0.9974984</v>
+      </c>
+      <c r="D109" s="10">
+        <v>0.9675807</v>
+      </c>
+      <c r="E109" s="67">
+        <v>0.96939</v>
+      </c>
     </row>
     <row r="110" spans="5:5">
       <c r="E110" s="70"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <r>
       <rPr>
@@ -1436,7 +1436,15 @@
     <t>320 baseline + diff_action_type_time_delta 15 16</t>
   </si>
   <si>
+    <t>new baseline</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加</t>
     </r>
     <r>
@@ -1453,11 +1461,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>0.96950</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1472,19 +1486,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>恢复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="DejaVu Sans Mono"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 'max_depth': 8</t>
-    </r>
-  </si>
-  <si>
     <t>342</t>
   </si>
   <si>
@@ -1493,18 +1494,43 @@
   <si>
     <t>330</t>
   </si>
+  <si>
+    <t>last_order_history_type</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>强特</t>
+  </si>
+  <si>
+    <t>first1_last1_ordertype</t>
+  </si>
+  <si>
+    <r>
+      <t>去掉冗余的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> last_time_orderType</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1525,7 +1551,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1546,32 +1571,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1593,21 +1595,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1622,7 +1609,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1638,6 +1631,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1646,15 +1647,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1669,6 +1662,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1676,22 +1692,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1776,7 +1801,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,7 +1903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,67 +1933,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1878,49 +1963,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1932,31 +1981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1967,30 +1992,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2005,41 +2006,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2062,8 +2028,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2072,142 +2097,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2238,16 +2263,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2268,7 +2293,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2283,7 +2308,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2292,13 +2317,13 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2310,40 +2335,40 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2367,10 +2392,10 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2379,7 +2404,7 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2388,37 +2413,40 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2748,10 +2776,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH138"/>
+  <dimension ref="A1:AMH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -8066,7 +8094,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="73" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -19550,1020 +19578,1020 @@
         <v>0.9686</v>
       </c>
       <c r="H84" s="69"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="71"/>
-      <c r="L84" s="71"/>
-      <c r="M84" s="71"/>
-      <c r="N84" s="71"/>
-      <c r="O84" s="71"/>
-      <c r="P84" s="71"/>
-      <c r="Q84" s="71"/>
-      <c r="R84" s="71"/>
-      <c r="S84" s="71"/>
-      <c r="T84" s="71"/>
-      <c r="U84" s="71"/>
-      <c r="V84" s="71"/>
-      <c r="W84" s="71"/>
-      <c r="X84" s="71"/>
-      <c r="Y84" s="71"/>
-      <c r="Z84" s="71"/>
-      <c r="AA84" s="71"/>
-      <c r="AB84" s="71"/>
-      <c r="AC84" s="71"/>
-      <c r="AD84" s="71"/>
-      <c r="AE84" s="71"/>
-      <c r="AF84" s="71"/>
-      <c r="AG84" s="71"/>
-      <c r="AH84" s="71"/>
-      <c r="AI84" s="71"/>
-      <c r="AJ84" s="71"/>
-      <c r="AK84" s="71"/>
-      <c r="AL84" s="71"/>
-      <c r="AM84" s="71"/>
-      <c r="AN84" s="71"/>
-      <c r="AO84" s="71"/>
-      <c r="AP84" s="71"/>
-      <c r="AQ84" s="71"/>
-      <c r="AR84" s="71"/>
-      <c r="AS84" s="71"/>
-      <c r="AT84" s="71"/>
-      <c r="AU84" s="71"/>
-      <c r="AV84" s="71"/>
-      <c r="AW84" s="71"/>
-      <c r="AX84" s="71"/>
-      <c r="AY84" s="71"/>
-      <c r="AZ84" s="71"/>
-      <c r="BA84" s="71"/>
-      <c r="BB84" s="71"/>
-      <c r="BC84" s="71"/>
-      <c r="BD84" s="71"/>
-      <c r="BE84" s="71"/>
-      <c r="BF84" s="71"/>
-      <c r="BG84" s="71"/>
-      <c r="BH84" s="71"/>
-      <c r="BI84" s="71"/>
-      <c r="BJ84" s="71"/>
-      <c r="BK84" s="71"/>
-      <c r="BL84" s="71"/>
-      <c r="BM84" s="71"/>
-      <c r="BN84" s="71"/>
-      <c r="BO84" s="71"/>
-      <c r="BP84" s="71"/>
-      <c r="BQ84" s="71"/>
-      <c r="BR84" s="71"/>
-      <c r="BS84" s="71"/>
-      <c r="BT84" s="71"/>
-      <c r="BU84" s="71"/>
-      <c r="BV84" s="71"/>
-      <c r="BW84" s="71"/>
-      <c r="BX84" s="71"/>
-      <c r="BY84" s="71"/>
-      <c r="BZ84" s="71"/>
-      <c r="CA84" s="71"/>
-      <c r="CB84" s="71"/>
-      <c r="CC84" s="71"/>
-      <c r="CD84" s="71"/>
-      <c r="CE84" s="71"/>
-      <c r="CF84" s="71"/>
-      <c r="CG84" s="71"/>
-      <c r="CH84" s="71"/>
-      <c r="CI84" s="71"/>
-      <c r="CJ84" s="71"/>
-      <c r="CK84" s="71"/>
-      <c r="CL84" s="71"/>
-      <c r="CM84" s="71"/>
-      <c r="CN84" s="71"/>
-      <c r="CO84" s="71"/>
-      <c r="CP84" s="71"/>
-      <c r="CQ84" s="71"/>
-      <c r="CR84" s="71"/>
-      <c r="CS84" s="71"/>
-      <c r="CT84" s="71"/>
-      <c r="CU84" s="71"/>
-      <c r="CV84" s="71"/>
-      <c r="CW84" s="71"/>
-      <c r="CX84" s="71"/>
-      <c r="CY84" s="71"/>
-      <c r="CZ84" s="71"/>
-      <c r="DA84" s="71"/>
-      <c r="DB84" s="71"/>
-      <c r="DC84" s="71"/>
-      <c r="DD84" s="71"/>
-      <c r="DE84" s="71"/>
-      <c r="DF84" s="71"/>
-      <c r="DG84" s="71"/>
-      <c r="DH84" s="71"/>
-      <c r="DI84" s="71"/>
-      <c r="DJ84" s="71"/>
-      <c r="DK84" s="71"/>
-      <c r="DL84" s="71"/>
-      <c r="DM84" s="71"/>
-      <c r="DN84" s="71"/>
-      <c r="DO84" s="71"/>
-      <c r="DP84" s="71"/>
-      <c r="DQ84" s="71"/>
-      <c r="DR84" s="71"/>
-      <c r="DS84" s="71"/>
-      <c r="DT84" s="71"/>
-      <c r="DU84" s="71"/>
-      <c r="DV84" s="71"/>
-      <c r="DW84" s="71"/>
-      <c r="DX84" s="71"/>
-      <c r="DY84" s="71"/>
-      <c r="DZ84" s="71"/>
-      <c r="EA84" s="71"/>
-      <c r="EB84" s="71"/>
-      <c r="EC84" s="71"/>
-      <c r="ED84" s="71"/>
-      <c r="EE84" s="71"/>
-      <c r="EF84" s="71"/>
-      <c r="EG84" s="71"/>
-      <c r="EH84" s="71"/>
-      <c r="EI84" s="71"/>
-      <c r="EJ84" s="71"/>
-      <c r="EK84" s="71"/>
-      <c r="EL84" s="71"/>
-      <c r="EM84" s="71"/>
-      <c r="EN84" s="71"/>
-      <c r="EO84" s="71"/>
-      <c r="EP84" s="71"/>
-      <c r="EQ84" s="71"/>
-      <c r="ER84" s="71"/>
-      <c r="ES84" s="71"/>
-      <c r="ET84" s="71"/>
-      <c r="EU84" s="71"/>
-      <c r="EV84" s="71"/>
-      <c r="EW84" s="71"/>
-      <c r="EX84" s="71"/>
-      <c r="EY84" s="71"/>
-      <c r="EZ84" s="71"/>
-      <c r="FA84" s="71"/>
-      <c r="FB84" s="71"/>
-      <c r="FC84" s="71"/>
-      <c r="FD84" s="71"/>
-      <c r="FE84" s="71"/>
-      <c r="FF84" s="71"/>
-      <c r="FG84" s="71"/>
-      <c r="FH84" s="71"/>
-      <c r="FI84" s="71"/>
-      <c r="FJ84" s="71"/>
-      <c r="FK84" s="71"/>
-      <c r="FL84" s="71"/>
-      <c r="FM84" s="71"/>
-      <c r="FN84" s="71"/>
-      <c r="FO84" s="71"/>
-      <c r="FP84" s="71"/>
-      <c r="FQ84" s="71"/>
-      <c r="FR84" s="71"/>
-      <c r="FS84" s="71"/>
-      <c r="FT84" s="71"/>
-      <c r="FU84" s="71"/>
-      <c r="FV84" s="71"/>
-      <c r="FW84" s="71"/>
-      <c r="FX84" s="71"/>
-      <c r="FY84" s="71"/>
-      <c r="FZ84" s="71"/>
-      <c r="GA84" s="71"/>
-      <c r="GB84" s="71"/>
-      <c r="GC84" s="71"/>
-      <c r="GD84" s="71"/>
-      <c r="GE84" s="71"/>
-      <c r="GF84" s="71"/>
-      <c r="GG84" s="71"/>
-      <c r="GH84" s="71"/>
-      <c r="GI84" s="71"/>
-      <c r="GJ84" s="71"/>
-      <c r="GK84" s="71"/>
-      <c r="GL84" s="71"/>
-      <c r="GM84" s="71"/>
-      <c r="GN84" s="71"/>
-      <c r="GO84" s="71"/>
-      <c r="GP84" s="71"/>
-      <c r="GQ84" s="71"/>
-      <c r="GR84" s="71"/>
-      <c r="GS84" s="71"/>
-      <c r="GT84" s="71"/>
-      <c r="GU84" s="71"/>
-      <c r="GV84" s="71"/>
-      <c r="GW84" s="71"/>
-      <c r="GX84" s="71"/>
-      <c r="GY84" s="71"/>
-      <c r="GZ84" s="71"/>
-      <c r="HA84" s="71"/>
-      <c r="HB84" s="71"/>
-      <c r="HC84" s="71"/>
-      <c r="HD84" s="71"/>
-      <c r="HE84" s="71"/>
-      <c r="HF84" s="71"/>
-      <c r="HG84" s="71"/>
-      <c r="HH84" s="71"/>
-      <c r="HI84" s="71"/>
-      <c r="HJ84" s="71"/>
-      <c r="HK84" s="71"/>
-      <c r="HL84" s="71"/>
-      <c r="HM84" s="71"/>
-      <c r="HN84" s="71"/>
-      <c r="HO84" s="71"/>
-      <c r="HP84" s="71"/>
-      <c r="HQ84" s="71"/>
-      <c r="HR84" s="71"/>
-      <c r="HS84" s="71"/>
-      <c r="HT84" s="71"/>
-      <c r="HU84" s="71"/>
-      <c r="HV84" s="71"/>
-      <c r="HW84" s="71"/>
-      <c r="HX84" s="71"/>
-      <c r="HY84" s="71"/>
-      <c r="HZ84" s="71"/>
-      <c r="IA84" s="71"/>
-      <c r="IB84" s="71"/>
-      <c r="IC84" s="71"/>
-      <c r="ID84" s="71"/>
-      <c r="IE84" s="71"/>
-      <c r="IF84" s="71"/>
-      <c r="IG84" s="71"/>
-      <c r="IH84" s="71"/>
-      <c r="II84" s="71"/>
-      <c r="IJ84" s="71"/>
-      <c r="IK84" s="71"/>
-      <c r="IL84" s="71"/>
-      <c r="IM84" s="71"/>
-      <c r="IN84" s="71"/>
-      <c r="IO84" s="71"/>
-      <c r="IP84" s="71"/>
-      <c r="IQ84" s="71"/>
-      <c r="IR84" s="71"/>
-      <c r="IS84" s="71"/>
-      <c r="IT84" s="71"/>
-      <c r="IU84" s="71"/>
-      <c r="IV84" s="71"/>
-      <c r="IW84" s="71"/>
-      <c r="IX84" s="71"/>
-      <c r="IY84" s="71"/>
-      <c r="IZ84" s="71"/>
-      <c r="JA84" s="71"/>
-      <c r="JB84" s="71"/>
-      <c r="JC84" s="71"/>
-      <c r="JD84" s="71"/>
-      <c r="JE84" s="71"/>
-      <c r="JF84" s="71"/>
-      <c r="JG84" s="71"/>
-      <c r="JH84" s="71"/>
-      <c r="JI84" s="71"/>
-      <c r="JJ84" s="71"/>
-      <c r="JK84" s="71"/>
-      <c r="JL84" s="71"/>
-      <c r="JM84" s="71"/>
-      <c r="JN84" s="71"/>
-      <c r="JO84" s="71"/>
-      <c r="JP84" s="71"/>
-      <c r="JQ84" s="71"/>
-      <c r="JR84" s="71"/>
-      <c r="JS84" s="71"/>
-      <c r="JT84" s="71"/>
-      <c r="JU84" s="71"/>
-      <c r="JV84" s="71"/>
-      <c r="JW84" s="71"/>
-      <c r="JX84" s="71"/>
-      <c r="JY84" s="71"/>
-      <c r="JZ84" s="71"/>
-      <c r="KA84" s="71"/>
-      <c r="KB84" s="71"/>
-      <c r="KC84" s="71"/>
-      <c r="KD84" s="71"/>
-      <c r="KE84" s="71"/>
-      <c r="KF84" s="71"/>
-      <c r="KG84" s="71"/>
-      <c r="KH84" s="71"/>
-      <c r="KI84" s="71"/>
-      <c r="KJ84" s="71"/>
-      <c r="KK84" s="71"/>
-      <c r="KL84" s="71"/>
-      <c r="KM84" s="71"/>
-      <c r="KN84" s="71"/>
-      <c r="KO84" s="71"/>
-      <c r="KP84" s="71"/>
-      <c r="KQ84" s="71"/>
-      <c r="KR84" s="71"/>
-      <c r="KS84" s="71"/>
-      <c r="KT84" s="71"/>
-      <c r="KU84" s="71"/>
-      <c r="KV84" s="71"/>
-      <c r="KW84" s="71"/>
-      <c r="KX84" s="71"/>
-      <c r="KY84" s="71"/>
-      <c r="KZ84" s="71"/>
-      <c r="LA84" s="71"/>
-      <c r="LB84" s="71"/>
-      <c r="LC84" s="71"/>
-      <c r="LD84" s="71"/>
-      <c r="LE84" s="71"/>
-      <c r="LF84" s="71"/>
-      <c r="LG84" s="71"/>
-      <c r="LH84" s="71"/>
-      <c r="LI84" s="71"/>
-      <c r="LJ84" s="71"/>
-      <c r="LK84" s="71"/>
-      <c r="LL84" s="71"/>
-      <c r="LM84" s="71"/>
-      <c r="LN84" s="71"/>
-      <c r="LO84" s="71"/>
-      <c r="LP84" s="71"/>
-      <c r="LQ84" s="71"/>
-      <c r="LR84" s="71"/>
-      <c r="LS84" s="71"/>
-      <c r="LT84" s="71"/>
-      <c r="LU84" s="71"/>
-      <c r="LV84" s="71"/>
-      <c r="LW84" s="71"/>
-      <c r="LX84" s="71"/>
-      <c r="LY84" s="71"/>
-      <c r="LZ84" s="71"/>
-      <c r="MA84" s="71"/>
-      <c r="MB84" s="71"/>
-      <c r="MC84" s="71"/>
-      <c r="MD84" s="71"/>
-      <c r="ME84" s="71"/>
-      <c r="MF84" s="71"/>
-      <c r="MG84" s="71"/>
-      <c r="MH84" s="71"/>
-      <c r="MI84" s="71"/>
-      <c r="MJ84" s="71"/>
-      <c r="MK84" s="71"/>
-      <c r="ML84" s="71"/>
-      <c r="MM84" s="71"/>
-      <c r="MN84" s="71"/>
-      <c r="MO84" s="71"/>
-      <c r="MP84" s="71"/>
-      <c r="MQ84" s="71"/>
-      <c r="MR84" s="71"/>
-      <c r="MS84" s="71"/>
-      <c r="MT84" s="71"/>
-      <c r="MU84" s="71"/>
-      <c r="MV84" s="71"/>
-      <c r="MW84" s="71"/>
-      <c r="MX84" s="71"/>
-      <c r="MY84" s="71"/>
-      <c r="MZ84" s="71"/>
-      <c r="NA84" s="71"/>
-      <c r="NB84" s="71"/>
-      <c r="NC84" s="71"/>
-      <c r="ND84" s="71"/>
-      <c r="NE84" s="71"/>
-      <c r="NF84" s="71"/>
-      <c r="NG84" s="71"/>
-      <c r="NH84" s="71"/>
-      <c r="NI84" s="71"/>
-      <c r="NJ84" s="71"/>
-      <c r="NK84" s="71"/>
-      <c r="NL84" s="71"/>
-      <c r="NM84" s="71"/>
-      <c r="NN84" s="71"/>
-      <c r="NO84" s="71"/>
-      <c r="NP84" s="71"/>
-      <c r="NQ84" s="71"/>
-      <c r="NR84" s="71"/>
-      <c r="NS84" s="71"/>
-      <c r="NT84" s="71"/>
-      <c r="NU84" s="71"/>
-      <c r="NV84" s="71"/>
-      <c r="NW84" s="71"/>
-      <c r="NX84" s="71"/>
-      <c r="NY84" s="71"/>
-      <c r="NZ84" s="71"/>
-      <c r="OA84" s="71"/>
-      <c r="OB84" s="71"/>
-      <c r="OC84" s="71"/>
-      <c r="OD84" s="71"/>
-      <c r="OE84" s="71"/>
-      <c r="OF84" s="71"/>
-      <c r="OG84" s="71"/>
-      <c r="OH84" s="71"/>
-      <c r="OI84" s="71"/>
-      <c r="OJ84" s="71"/>
-      <c r="OK84" s="71"/>
-      <c r="OL84" s="71"/>
-      <c r="OM84" s="71"/>
-      <c r="ON84" s="71"/>
-      <c r="OO84" s="71"/>
-      <c r="OP84" s="71"/>
-      <c r="OQ84" s="71"/>
-      <c r="OR84" s="71"/>
-      <c r="OS84" s="71"/>
-      <c r="OT84" s="71"/>
-      <c r="OU84" s="71"/>
-      <c r="OV84" s="71"/>
-      <c r="OW84" s="71"/>
-      <c r="OX84" s="71"/>
-      <c r="OY84" s="71"/>
-      <c r="OZ84" s="71"/>
-      <c r="PA84" s="71"/>
-      <c r="PB84" s="71"/>
-      <c r="PC84" s="71"/>
-      <c r="PD84" s="71"/>
-      <c r="PE84" s="71"/>
-      <c r="PF84" s="71"/>
-      <c r="PG84" s="71"/>
-      <c r="PH84" s="71"/>
-      <c r="PI84" s="71"/>
-      <c r="PJ84" s="71"/>
-      <c r="PK84" s="71"/>
-      <c r="PL84" s="71"/>
-      <c r="PM84" s="71"/>
-      <c r="PN84" s="71"/>
-      <c r="PO84" s="71"/>
-      <c r="PP84" s="71"/>
-      <c r="PQ84" s="71"/>
-      <c r="PR84" s="71"/>
-      <c r="PS84" s="71"/>
-      <c r="PT84" s="71"/>
-      <c r="PU84" s="71"/>
-      <c r="PV84" s="71"/>
-      <c r="PW84" s="71"/>
-      <c r="PX84" s="71"/>
-      <c r="PY84" s="71"/>
-      <c r="PZ84" s="71"/>
-      <c r="QA84" s="71"/>
-      <c r="QB84" s="71"/>
-      <c r="QC84" s="71"/>
-      <c r="QD84" s="71"/>
-      <c r="QE84" s="71"/>
-      <c r="QF84" s="71"/>
-      <c r="QG84" s="71"/>
-      <c r="QH84" s="71"/>
-      <c r="QI84" s="71"/>
-      <c r="QJ84" s="71"/>
-      <c r="QK84" s="71"/>
-      <c r="QL84" s="71"/>
-      <c r="QM84" s="71"/>
-      <c r="QN84" s="71"/>
-      <c r="QO84" s="71"/>
-      <c r="QP84" s="71"/>
-      <c r="QQ84" s="71"/>
-      <c r="QR84" s="71"/>
-      <c r="QS84" s="71"/>
-      <c r="QT84" s="71"/>
-      <c r="QU84" s="71"/>
-      <c r="QV84" s="71"/>
-      <c r="QW84" s="71"/>
-      <c r="QX84" s="71"/>
-      <c r="QY84" s="71"/>
-      <c r="QZ84" s="71"/>
-      <c r="RA84" s="71"/>
-      <c r="RB84" s="71"/>
-      <c r="RC84" s="71"/>
-      <c r="RD84" s="71"/>
-      <c r="RE84" s="71"/>
-      <c r="RF84" s="71"/>
-      <c r="RG84" s="71"/>
-      <c r="RH84" s="71"/>
-      <c r="RI84" s="71"/>
-      <c r="RJ84" s="71"/>
-      <c r="RK84" s="71"/>
-      <c r="RL84" s="71"/>
-      <c r="RM84" s="71"/>
-      <c r="RN84" s="71"/>
-      <c r="RO84" s="71"/>
-      <c r="RP84" s="71"/>
-      <c r="RQ84" s="71"/>
-      <c r="RR84" s="71"/>
-      <c r="RS84" s="71"/>
-      <c r="RT84" s="71"/>
-      <c r="RU84" s="71"/>
-      <c r="RV84" s="71"/>
-      <c r="RW84" s="71"/>
-      <c r="RX84" s="71"/>
-      <c r="RY84" s="71"/>
-      <c r="RZ84" s="71"/>
-      <c r="SA84" s="71"/>
-      <c r="SB84" s="71"/>
-      <c r="SC84" s="71"/>
-      <c r="SD84" s="71"/>
-      <c r="SE84" s="71"/>
-      <c r="SF84" s="71"/>
-      <c r="SG84" s="71"/>
-      <c r="SH84" s="71"/>
-      <c r="SI84" s="71"/>
-      <c r="SJ84" s="71"/>
-      <c r="SK84" s="71"/>
-      <c r="SL84" s="71"/>
-      <c r="SM84" s="71"/>
-      <c r="SN84" s="71"/>
-      <c r="SO84" s="71"/>
-      <c r="SP84" s="71"/>
-      <c r="SQ84" s="71"/>
-      <c r="SR84" s="71"/>
-      <c r="SS84" s="71"/>
-      <c r="ST84" s="71"/>
-      <c r="SU84" s="71"/>
-      <c r="SV84" s="71"/>
-      <c r="SW84" s="71"/>
-      <c r="SX84" s="71"/>
-      <c r="SY84" s="71"/>
-      <c r="SZ84" s="71"/>
-      <c r="TA84" s="71"/>
-      <c r="TB84" s="71"/>
-      <c r="TC84" s="71"/>
-      <c r="TD84" s="71"/>
-      <c r="TE84" s="71"/>
-      <c r="TF84" s="71"/>
-      <c r="TG84" s="71"/>
-      <c r="TH84" s="71"/>
-      <c r="TI84" s="71"/>
-      <c r="TJ84" s="71"/>
-      <c r="TK84" s="71"/>
-      <c r="TL84" s="71"/>
-      <c r="TM84" s="71"/>
-      <c r="TN84" s="71"/>
-      <c r="TO84" s="71"/>
-      <c r="TP84" s="71"/>
-      <c r="TQ84" s="71"/>
-      <c r="TR84" s="71"/>
-      <c r="TS84" s="71"/>
-      <c r="TT84" s="71"/>
-      <c r="TU84" s="71"/>
-      <c r="TV84" s="71"/>
-      <c r="TW84" s="71"/>
-      <c r="TX84" s="71"/>
-      <c r="TY84" s="71"/>
-      <c r="TZ84" s="71"/>
-      <c r="UA84" s="71"/>
-      <c r="UB84" s="71"/>
-      <c r="UC84" s="71"/>
-      <c r="UD84" s="71"/>
-      <c r="UE84" s="71"/>
-      <c r="UF84" s="71"/>
-      <c r="UG84" s="71"/>
-      <c r="UH84" s="71"/>
-      <c r="UI84" s="71"/>
-      <c r="UJ84" s="71"/>
-      <c r="UK84" s="71"/>
-      <c r="UL84" s="71"/>
-      <c r="UM84" s="71"/>
-      <c r="UN84" s="71"/>
-      <c r="UO84" s="71"/>
-      <c r="UP84" s="71"/>
-      <c r="UQ84" s="71"/>
-      <c r="UR84" s="71"/>
-      <c r="US84" s="71"/>
-      <c r="UT84" s="71"/>
-      <c r="UU84" s="71"/>
-      <c r="UV84" s="71"/>
-      <c r="UW84" s="71"/>
-      <c r="UX84" s="71"/>
-      <c r="UY84" s="71"/>
-      <c r="UZ84" s="71"/>
-      <c r="VA84" s="71"/>
-      <c r="VB84" s="71"/>
-      <c r="VC84" s="71"/>
-      <c r="VD84" s="71"/>
-      <c r="VE84" s="71"/>
-      <c r="VF84" s="71"/>
-      <c r="VG84" s="71"/>
-      <c r="VH84" s="71"/>
-      <c r="VI84" s="71"/>
-      <c r="VJ84" s="71"/>
-      <c r="VK84" s="71"/>
-      <c r="VL84" s="71"/>
-      <c r="VM84" s="71"/>
-      <c r="VN84" s="71"/>
-      <c r="VO84" s="71"/>
-      <c r="VP84" s="71"/>
-      <c r="VQ84" s="71"/>
-      <c r="VR84" s="71"/>
-      <c r="VS84" s="71"/>
-      <c r="VT84" s="71"/>
-      <c r="VU84" s="71"/>
-      <c r="VV84" s="71"/>
-      <c r="VW84" s="71"/>
-      <c r="VX84" s="71"/>
-      <c r="VY84" s="71"/>
-      <c r="VZ84" s="71"/>
-      <c r="WA84" s="71"/>
-      <c r="WB84" s="71"/>
-      <c r="WC84" s="71"/>
-      <c r="WD84" s="71"/>
-      <c r="WE84" s="71"/>
-      <c r="WF84" s="71"/>
-      <c r="WG84" s="71"/>
-      <c r="WH84" s="71"/>
-      <c r="WI84" s="71"/>
-      <c r="WJ84" s="71"/>
-      <c r="WK84" s="71"/>
-      <c r="WL84" s="71"/>
-      <c r="WM84" s="71"/>
-      <c r="WN84" s="71"/>
-      <c r="WO84" s="71"/>
-      <c r="WP84" s="71"/>
-      <c r="WQ84" s="71"/>
-      <c r="WR84" s="71"/>
-      <c r="WS84" s="71"/>
-      <c r="WT84" s="71"/>
-      <c r="WU84" s="71"/>
-      <c r="WV84" s="71"/>
-      <c r="WW84" s="71"/>
-      <c r="WX84" s="71"/>
-      <c r="WY84" s="71"/>
-      <c r="WZ84" s="71"/>
-      <c r="XA84" s="71"/>
-      <c r="XB84" s="71"/>
-      <c r="XC84" s="71"/>
-      <c r="XD84" s="71"/>
-      <c r="XE84" s="71"/>
-      <c r="XF84" s="71"/>
-      <c r="XG84" s="71"/>
-      <c r="XH84" s="71"/>
-      <c r="XI84" s="71"/>
-      <c r="XJ84" s="71"/>
-      <c r="XK84" s="71"/>
-      <c r="XL84" s="71"/>
-      <c r="XM84" s="71"/>
-      <c r="XN84" s="71"/>
-      <c r="XO84" s="71"/>
-      <c r="XP84" s="71"/>
-      <c r="XQ84" s="71"/>
-      <c r="XR84" s="71"/>
-      <c r="XS84" s="71"/>
-      <c r="XT84" s="71"/>
-      <c r="XU84" s="71"/>
-      <c r="XV84" s="71"/>
-      <c r="XW84" s="71"/>
-      <c r="XX84" s="71"/>
-      <c r="XY84" s="71"/>
-      <c r="XZ84" s="71"/>
-      <c r="YA84" s="71"/>
-      <c r="YB84" s="71"/>
-      <c r="YC84" s="71"/>
-      <c r="YD84" s="71"/>
-      <c r="YE84" s="71"/>
-      <c r="YF84" s="71"/>
-      <c r="YG84" s="71"/>
-      <c r="YH84" s="71"/>
-      <c r="YI84" s="71"/>
-      <c r="YJ84" s="71"/>
-      <c r="YK84" s="71"/>
-      <c r="YL84" s="71"/>
-      <c r="YM84" s="71"/>
-      <c r="YN84" s="71"/>
-      <c r="YO84" s="71"/>
-      <c r="YP84" s="71"/>
-      <c r="YQ84" s="71"/>
-      <c r="YR84" s="71"/>
-      <c r="YS84" s="71"/>
-      <c r="YT84" s="71"/>
-      <c r="YU84" s="71"/>
-      <c r="YV84" s="71"/>
-      <c r="YW84" s="71"/>
-      <c r="YX84" s="71"/>
-      <c r="YY84" s="71"/>
-      <c r="YZ84" s="71"/>
-      <c r="ZA84" s="71"/>
-      <c r="ZB84" s="71"/>
-      <c r="ZC84" s="71"/>
-      <c r="ZD84" s="71"/>
-      <c r="ZE84" s="71"/>
-      <c r="ZF84" s="71"/>
-      <c r="ZG84" s="71"/>
-      <c r="ZH84" s="71"/>
-      <c r="ZI84" s="71"/>
-      <c r="ZJ84" s="71"/>
-      <c r="ZK84" s="71"/>
-      <c r="ZL84" s="71"/>
-      <c r="ZM84" s="71"/>
-      <c r="ZN84" s="71"/>
-      <c r="ZO84" s="71"/>
-      <c r="ZP84" s="71"/>
-      <c r="ZQ84" s="71"/>
-      <c r="ZR84" s="71"/>
-      <c r="ZS84" s="71"/>
-      <c r="ZT84" s="71"/>
-      <c r="ZU84" s="71"/>
-      <c r="ZV84" s="71"/>
-      <c r="ZW84" s="71"/>
-      <c r="ZX84" s="71"/>
-      <c r="ZY84" s="71"/>
-      <c r="ZZ84" s="71"/>
-      <c r="AAA84" s="71"/>
-      <c r="AAB84" s="71"/>
-      <c r="AAC84" s="71"/>
-      <c r="AAD84" s="71"/>
-      <c r="AAE84" s="71"/>
-      <c r="AAF84" s="71"/>
-      <c r="AAG84" s="71"/>
-      <c r="AAH84" s="71"/>
-      <c r="AAI84" s="71"/>
-      <c r="AAJ84" s="71"/>
-      <c r="AAK84" s="71"/>
-      <c r="AAL84" s="71"/>
-      <c r="AAM84" s="71"/>
-      <c r="AAN84" s="71"/>
-      <c r="AAO84" s="71"/>
-      <c r="AAP84" s="71"/>
-      <c r="AAQ84" s="71"/>
-      <c r="AAR84" s="71"/>
-      <c r="AAS84" s="71"/>
-      <c r="AAT84" s="71"/>
-      <c r="AAU84" s="71"/>
-      <c r="AAV84" s="71"/>
-      <c r="AAW84" s="71"/>
-      <c r="AAX84" s="71"/>
-      <c r="AAY84" s="71"/>
-      <c r="AAZ84" s="71"/>
-      <c r="ABA84" s="71"/>
-      <c r="ABB84" s="71"/>
-      <c r="ABC84" s="71"/>
-      <c r="ABD84" s="71"/>
-      <c r="ABE84" s="71"/>
-      <c r="ABF84" s="71"/>
-      <c r="ABG84" s="71"/>
-      <c r="ABH84" s="71"/>
-      <c r="ABI84" s="71"/>
-      <c r="ABJ84" s="71"/>
-      <c r="ABK84" s="71"/>
-      <c r="ABL84" s="71"/>
-      <c r="ABM84" s="71"/>
-      <c r="ABN84" s="71"/>
-      <c r="ABO84" s="71"/>
-      <c r="ABP84" s="71"/>
-      <c r="ABQ84" s="71"/>
-      <c r="ABR84" s="71"/>
-      <c r="ABS84" s="71"/>
-      <c r="ABT84" s="71"/>
-      <c r="ABU84" s="71"/>
-      <c r="ABV84" s="71"/>
-      <c r="ABW84" s="71"/>
-      <c r="ABX84" s="71"/>
-      <c r="ABY84" s="71"/>
-      <c r="ABZ84" s="71"/>
-      <c r="ACA84" s="71"/>
-      <c r="ACB84" s="71"/>
-      <c r="ACC84" s="71"/>
-      <c r="ACD84" s="71"/>
-      <c r="ACE84" s="71"/>
-      <c r="ACF84" s="71"/>
-      <c r="ACG84" s="71"/>
-      <c r="ACH84" s="71"/>
-      <c r="ACI84" s="71"/>
-      <c r="ACJ84" s="71"/>
-      <c r="ACK84" s="71"/>
-      <c r="ACL84" s="71"/>
-      <c r="ACM84" s="71"/>
-      <c r="ACN84" s="71"/>
-      <c r="ACO84" s="71"/>
-      <c r="ACP84" s="71"/>
-      <c r="ACQ84" s="71"/>
-      <c r="ACR84" s="71"/>
-      <c r="ACS84" s="71"/>
-      <c r="ACT84" s="71"/>
-      <c r="ACU84" s="71"/>
-      <c r="ACV84" s="71"/>
-      <c r="ACW84" s="71"/>
-      <c r="ACX84" s="71"/>
-      <c r="ACY84" s="71"/>
-      <c r="ACZ84" s="71"/>
-      <c r="ADA84" s="71"/>
-      <c r="ADB84" s="71"/>
-      <c r="ADC84" s="71"/>
-      <c r="ADD84" s="71"/>
-      <c r="ADE84" s="71"/>
-      <c r="ADF84" s="71"/>
-      <c r="ADG84" s="71"/>
-      <c r="ADH84" s="71"/>
-      <c r="ADI84" s="71"/>
-      <c r="ADJ84" s="71"/>
-      <c r="ADK84" s="71"/>
-      <c r="ADL84" s="71"/>
-      <c r="ADM84" s="71"/>
-      <c r="ADN84" s="71"/>
-      <c r="ADO84" s="71"/>
-      <c r="ADP84" s="71"/>
-      <c r="ADQ84" s="71"/>
-      <c r="ADR84" s="71"/>
-      <c r="ADS84" s="71"/>
-      <c r="ADT84" s="71"/>
-      <c r="ADU84" s="71"/>
-      <c r="ADV84" s="71"/>
-      <c r="ADW84" s="71"/>
-      <c r="ADX84" s="71"/>
-      <c r="ADY84" s="71"/>
-      <c r="ADZ84" s="71"/>
-      <c r="AEA84" s="71"/>
-      <c r="AEB84" s="71"/>
-      <c r="AEC84" s="71"/>
-      <c r="AED84" s="71"/>
-      <c r="AEE84" s="71"/>
-      <c r="AEF84" s="71"/>
-      <c r="AEG84" s="71"/>
-      <c r="AEH84" s="71"/>
-      <c r="AEI84" s="71"/>
-      <c r="AEJ84" s="71"/>
-      <c r="AEK84" s="71"/>
-      <c r="AEL84" s="71"/>
-      <c r="AEM84" s="71"/>
-      <c r="AEN84" s="71"/>
-      <c r="AEO84" s="71"/>
-      <c r="AEP84" s="71"/>
-      <c r="AEQ84" s="71"/>
-      <c r="AER84" s="71"/>
-      <c r="AES84" s="71"/>
-      <c r="AET84" s="71"/>
-      <c r="AEU84" s="71"/>
-      <c r="AEV84" s="71"/>
-      <c r="AEW84" s="71"/>
-      <c r="AEX84" s="71"/>
-      <c r="AEY84" s="71"/>
-      <c r="AEZ84" s="71"/>
-      <c r="AFA84" s="71"/>
-      <c r="AFB84" s="71"/>
-      <c r="AFC84" s="71"/>
-      <c r="AFD84" s="71"/>
-      <c r="AFE84" s="71"/>
-      <c r="AFF84" s="71"/>
-      <c r="AFG84" s="71"/>
-      <c r="AFH84" s="71"/>
-      <c r="AFI84" s="71"/>
-      <c r="AFJ84" s="71"/>
-      <c r="AFK84" s="71"/>
-      <c r="AFL84" s="71"/>
-      <c r="AFM84" s="71"/>
-      <c r="AFN84" s="71"/>
-      <c r="AFO84" s="71"/>
-      <c r="AFP84" s="71"/>
-      <c r="AFQ84" s="71"/>
-      <c r="AFR84" s="71"/>
-      <c r="AFS84" s="71"/>
-      <c r="AFT84" s="71"/>
-      <c r="AFU84" s="71"/>
-      <c r="AFV84" s="71"/>
-      <c r="AFW84" s="71"/>
-      <c r="AFX84" s="71"/>
-      <c r="AFY84" s="71"/>
-      <c r="AFZ84" s="71"/>
-      <c r="AGA84" s="71"/>
-      <c r="AGB84" s="71"/>
-      <c r="AGC84" s="71"/>
-      <c r="AGD84" s="71"/>
-      <c r="AGE84" s="71"/>
-      <c r="AGF84" s="71"/>
-      <c r="AGG84" s="71"/>
-      <c r="AGH84" s="71"/>
-      <c r="AGI84" s="71"/>
-      <c r="AGJ84" s="71"/>
-      <c r="AGK84" s="71"/>
-      <c r="AGL84" s="71"/>
-      <c r="AGM84" s="71"/>
-      <c r="AGN84" s="71"/>
-      <c r="AGO84" s="71"/>
-      <c r="AGP84" s="71"/>
-      <c r="AGQ84" s="71"/>
-      <c r="AGR84" s="71"/>
-      <c r="AGS84" s="71"/>
-      <c r="AGT84" s="71"/>
-      <c r="AGU84" s="71"/>
-      <c r="AGV84" s="71"/>
-      <c r="AGW84" s="71"/>
-      <c r="AGX84" s="71"/>
-      <c r="AGY84" s="71"/>
-      <c r="AGZ84" s="71"/>
-      <c r="AHA84" s="71"/>
-      <c r="AHB84" s="71"/>
-      <c r="AHC84" s="71"/>
-      <c r="AHD84" s="71"/>
-      <c r="AHE84" s="71"/>
-      <c r="AHF84" s="71"/>
-      <c r="AHG84" s="71"/>
-      <c r="AHH84" s="71"/>
-      <c r="AHI84" s="71"/>
-      <c r="AHJ84" s="71"/>
-      <c r="AHK84" s="71"/>
-      <c r="AHL84" s="71"/>
-      <c r="AHM84" s="71"/>
-      <c r="AHN84" s="71"/>
-      <c r="AHO84" s="71"/>
-      <c r="AHP84" s="71"/>
-      <c r="AHQ84" s="71"/>
-      <c r="AHR84" s="71"/>
-      <c r="AHS84" s="71"/>
-      <c r="AHT84" s="71"/>
-      <c r="AHU84" s="71"/>
-      <c r="AHV84" s="71"/>
-      <c r="AHW84" s="71"/>
-      <c r="AHX84" s="71"/>
-      <c r="AHY84" s="71"/>
-      <c r="AHZ84" s="71"/>
-      <c r="AIA84" s="71"/>
-      <c r="AIB84" s="71"/>
-      <c r="AIC84" s="71"/>
-      <c r="AID84" s="71"/>
-      <c r="AIE84" s="71"/>
-      <c r="AIF84" s="71"/>
-      <c r="AIG84" s="71"/>
-      <c r="AIH84" s="71"/>
-      <c r="AII84" s="71"/>
-      <c r="AIJ84" s="71"/>
-      <c r="AIK84" s="71"/>
-      <c r="AIL84" s="71"/>
-      <c r="AIM84" s="71"/>
-      <c r="AIN84" s="71"/>
-      <c r="AIO84" s="71"/>
-      <c r="AIP84" s="71"/>
-      <c r="AIQ84" s="71"/>
-      <c r="AIR84" s="71"/>
-      <c r="AIS84" s="71"/>
-      <c r="AIT84" s="71"/>
-      <c r="AIU84" s="71"/>
-      <c r="AIV84" s="71"/>
-      <c r="AIW84" s="71"/>
-      <c r="AIX84" s="71"/>
-      <c r="AIY84" s="71"/>
-      <c r="AIZ84" s="71"/>
-      <c r="AJA84" s="71"/>
-      <c r="AJB84" s="71"/>
-      <c r="AJC84" s="71"/>
-      <c r="AJD84" s="71"/>
-      <c r="AJE84" s="71"/>
-      <c r="AJF84" s="71"/>
-      <c r="AJG84" s="71"/>
-      <c r="AJH84" s="71"/>
-      <c r="AJI84" s="71"/>
-      <c r="AJJ84" s="71"/>
-      <c r="AJK84" s="71"/>
-      <c r="AJL84" s="71"/>
-      <c r="AJM84" s="71"/>
-      <c r="AJN84" s="71"/>
-      <c r="AJO84" s="71"/>
-      <c r="AJP84" s="71"/>
-      <c r="AJQ84" s="71"/>
-      <c r="AJR84" s="71"/>
-      <c r="AJS84" s="71"/>
-      <c r="AJT84" s="71"/>
-      <c r="AJU84" s="71"/>
-      <c r="AJV84" s="71"/>
-      <c r="AJW84" s="71"/>
-      <c r="AJX84" s="71"/>
-      <c r="AJY84" s="71"/>
-      <c r="AJZ84" s="71"/>
-      <c r="AKA84" s="71"/>
-      <c r="AKB84" s="71"/>
-      <c r="AKC84" s="71"/>
-      <c r="AKD84" s="71"/>
-      <c r="AKE84" s="71"/>
-      <c r="AKF84" s="71"/>
-      <c r="AKG84" s="71"/>
-      <c r="AKH84" s="71"/>
-      <c r="AKI84" s="71"/>
-      <c r="AKJ84" s="71"/>
-      <c r="AKK84" s="71"/>
-      <c r="AKL84" s="71"/>
-      <c r="AKM84" s="71"/>
-      <c r="AKN84" s="71"/>
-      <c r="AKO84" s="71"/>
-      <c r="AKP84" s="71"/>
-      <c r="AKQ84" s="71"/>
-      <c r="AKR84" s="71"/>
-      <c r="AKS84" s="71"/>
-      <c r="AKT84" s="71"/>
-      <c r="AKU84" s="71"/>
-      <c r="AKV84" s="71"/>
-      <c r="AKW84" s="71"/>
-      <c r="AKX84" s="71"/>
-      <c r="AKY84" s="71"/>
-      <c r="AKZ84" s="71"/>
-      <c r="ALA84" s="71"/>
-      <c r="ALB84" s="71"/>
-      <c r="ALC84" s="71"/>
-      <c r="ALD84" s="71"/>
-      <c r="ALE84" s="71"/>
-      <c r="ALF84" s="71"/>
-      <c r="ALG84" s="71"/>
-      <c r="ALH84" s="71"/>
-      <c r="ALI84" s="71"/>
-      <c r="ALJ84" s="71"/>
-      <c r="ALK84" s="71"/>
-      <c r="ALL84" s="71"/>
-      <c r="ALM84" s="71"/>
-      <c r="ALN84" s="71"/>
-      <c r="ALO84" s="71"/>
-      <c r="ALP84" s="71"/>
-      <c r="ALQ84" s="71"/>
-      <c r="ALR84" s="71"/>
-      <c r="ALS84" s="71"/>
-      <c r="ALT84" s="71"/>
-      <c r="ALU84" s="71"/>
-      <c r="ALV84" s="71"/>
-      <c r="ALW84" s="71"/>
-      <c r="ALX84" s="71"/>
-      <c r="ALY84" s="71"/>
-      <c r="ALZ84" s="71"/>
-      <c r="AMA84" s="71"/>
-      <c r="AMB84" s="71"/>
-      <c r="AMC84" s="71"/>
-      <c r="AMD84" s="71"/>
-      <c r="AME84" s="71"/>
-      <c r="AMF84" s="71"/>
-      <c r="AMG84" s="71"/>
-      <c r="AMH84" s="71"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
+      <c r="K84" s="72"/>
+      <c r="L84" s="72"/>
+      <c r="M84" s="72"/>
+      <c r="N84" s="72"/>
+      <c r="O84" s="72"/>
+      <c r="P84" s="72"/>
+      <c r="Q84" s="72"/>
+      <c r="R84" s="72"/>
+      <c r="S84" s="72"/>
+      <c r="T84" s="72"/>
+      <c r="U84" s="72"/>
+      <c r="V84" s="72"/>
+      <c r="W84" s="72"/>
+      <c r="X84" s="72"/>
+      <c r="Y84" s="72"/>
+      <c r="Z84" s="72"/>
+      <c r="AA84" s="72"/>
+      <c r="AB84" s="72"/>
+      <c r="AC84" s="72"/>
+      <c r="AD84" s="72"/>
+      <c r="AE84" s="72"/>
+      <c r="AF84" s="72"/>
+      <c r="AG84" s="72"/>
+      <c r="AH84" s="72"/>
+      <c r="AI84" s="72"/>
+      <c r="AJ84" s="72"/>
+      <c r="AK84" s="72"/>
+      <c r="AL84" s="72"/>
+      <c r="AM84" s="72"/>
+      <c r="AN84" s="72"/>
+      <c r="AO84" s="72"/>
+      <c r="AP84" s="72"/>
+      <c r="AQ84" s="72"/>
+      <c r="AR84" s="72"/>
+      <c r="AS84" s="72"/>
+      <c r="AT84" s="72"/>
+      <c r="AU84" s="72"/>
+      <c r="AV84" s="72"/>
+      <c r="AW84" s="72"/>
+      <c r="AX84" s="72"/>
+      <c r="AY84" s="72"/>
+      <c r="AZ84" s="72"/>
+      <c r="BA84" s="72"/>
+      <c r="BB84" s="72"/>
+      <c r="BC84" s="72"/>
+      <c r="BD84" s="72"/>
+      <c r="BE84" s="72"/>
+      <c r="BF84" s="72"/>
+      <c r="BG84" s="72"/>
+      <c r="BH84" s="72"/>
+      <c r="BI84" s="72"/>
+      <c r="BJ84" s="72"/>
+      <c r="BK84" s="72"/>
+      <c r="BL84" s="72"/>
+      <c r="BM84" s="72"/>
+      <c r="BN84" s="72"/>
+      <c r="BO84" s="72"/>
+      <c r="BP84" s="72"/>
+      <c r="BQ84" s="72"/>
+      <c r="BR84" s="72"/>
+      <c r="BS84" s="72"/>
+      <c r="BT84" s="72"/>
+      <c r="BU84" s="72"/>
+      <c r="BV84" s="72"/>
+      <c r="BW84" s="72"/>
+      <c r="BX84" s="72"/>
+      <c r="BY84" s="72"/>
+      <c r="BZ84" s="72"/>
+      <c r="CA84" s="72"/>
+      <c r="CB84" s="72"/>
+      <c r="CC84" s="72"/>
+      <c r="CD84" s="72"/>
+      <c r="CE84" s="72"/>
+      <c r="CF84" s="72"/>
+      <c r="CG84" s="72"/>
+      <c r="CH84" s="72"/>
+      <c r="CI84" s="72"/>
+      <c r="CJ84" s="72"/>
+      <c r="CK84" s="72"/>
+      <c r="CL84" s="72"/>
+      <c r="CM84" s="72"/>
+      <c r="CN84" s="72"/>
+      <c r="CO84" s="72"/>
+      <c r="CP84" s="72"/>
+      <c r="CQ84" s="72"/>
+      <c r="CR84" s="72"/>
+      <c r="CS84" s="72"/>
+      <c r="CT84" s="72"/>
+      <c r="CU84" s="72"/>
+      <c r="CV84" s="72"/>
+      <c r="CW84" s="72"/>
+      <c r="CX84" s="72"/>
+      <c r="CY84" s="72"/>
+      <c r="CZ84" s="72"/>
+      <c r="DA84" s="72"/>
+      <c r="DB84" s="72"/>
+      <c r="DC84" s="72"/>
+      <c r="DD84" s="72"/>
+      <c r="DE84" s="72"/>
+      <c r="DF84" s="72"/>
+      <c r="DG84" s="72"/>
+      <c r="DH84" s="72"/>
+      <c r="DI84" s="72"/>
+      <c r="DJ84" s="72"/>
+      <c r="DK84" s="72"/>
+      <c r="DL84" s="72"/>
+      <c r="DM84" s="72"/>
+      <c r="DN84" s="72"/>
+      <c r="DO84" s="72"/>
+      <c r="DP84" s="72"/>
+      <c r="DQ84" s="72"/>
+      <c r="DR84" s="72"/>
+      <c r="DS84" s="72"/>
+      <c r="DT84" s="72"/>
+      <c r="DU84" s="72"/>
+      <c r="DV84" s="72"/>
+      <c r="DW84" s="72"/>
+      <c r="DX84" s="72"/>
+      <c r="DY84" s="72"/>
+      <c r="DZ84" s="72"/>
+      <c r="EA84" s="72"/>
+      <c r="EB84" s="72"/>
+      <c r="EC84" s="72"/>
+      <c r="ED84" s="72"/>
+      <c r="EE84" s="72"/>
+      <c r="EF84" s="72"/>
+      <c r="EG84" s="72"/>
+      <c r="EH84" s="72"/>
+      <c r="EI84" s="72"/>
+      <c r="EJ84" s="72"/>
+      <c r="EK84" s="72"/>
+      <c r="EL84" s="72"/>
+      <c r="EM84" s="72"/>
+      <c r="EN84" s="72"/>
+      <c r="EO84" s="72"/>
+      <c r="EP84" s="72"/>
+      <c r="EQ84" s="72"/>
+      <c r="ER84" s="72"/>
+      <c r="ES84" s="72"/>
+      <c r="ET84" s="72"/>
+      <c r="EU84" s="72"/>
+      <c r="EV84" s="72"/>
+      <c r="EW84" s="72"/>
+      <c r="EX84" s="72"/>
+      <c r="EY84" s="72"/>
+      <c r="EZ84" s="72"/>
+      <c r="FA84" s="72"/>
+      <c r="FB84" s="72"/>
+      <c r="FC84" s="72"/>
+      <c r="FD84" s="72"/>
+      <c r="FE84" s="72"/>
+      <c r="FF84" s="72"/>
+      <c r="FG84" s="72"/>
+      <c r="FH84" s="72"/>
+      <c r="FI84" s="72"/>
+      <c r="FJ84" s="72"/>
+      <c r="FK84" s="72"/>
+      <c r="FL84" s="72"/>
+      <c r="FM84" s="72"/>
+      <c r="FN84" s="72"/>
+      <c r="FO84" s="72"/>
+      <c r="FP84" s="72"/>
+      <c r="FQ84" s="72"/>
+      <c r="FR84" s="72"/>
+      <c r="FS84" s="72"/>
+      <c r="FT84" s="72"/>
+      <c r="FU84" s="72"/>
+      <c r="FV84" s="72"/>
+      <c r="FW84" s="72"/>
+      <c r="FX84" s="72"/>
+      <c r="FY84" s="72"/>
+      <c r="FZ84" s="72"/>
+      <c r="GA84" s="72"/>
+      <c r="GB84" s="72"/>
+      <c r="GC84" s="72"/>
+      <c r="GD84" s="72"/>
+      <c r="GE84" s="72"/>
+      <c r="GF84" s="72"/>
+      <c r="GG84" s="72"/>
+      <c r="GH84" s="72"/>
+      <c r="GI84" s="72"/>
+      <c r="GJ84" s="72"/>
+      <c r="GK84" s="72"/>
+      <c r="GL84" s="72"/>
+      <c r="GM84" s="72"/>
+      <c r="GN84" s="72"/>
+      <c r="GO84" s="72"/>
+      <c r="GP84" s="72"/>
+      <c r="GQ84" s="72"/>
+      <c r="GR84" s="72"/>
+      <c r="GS84" s="72"/>
+      <c r="GT84" s="72"/>
+      <c r="GU84" s="72"/>
+      <c r="GV84" s="72"/>
+      <c r="GW84" s="72"/>
+      <c r="GX84" s="72"/>
+      <c r="GY84" s="72"/>
+      <c r="GZ84" s="72"/>
+      <c r="HA84" s="72"/>
+      <c r="HB84" s="72"/>
+      <c r="HC84" s="72"/>
+      <c r="HD84" s="72"/>
+      <c r="HE84" s="72"/>
+      <c r="HF84" s="72"/>
+      <c r="HG84" s="72"/>
+      <c r="HH84" s="72"/>
+      <c r="HI84" s="72"/>
+      <c r="HJ84" s="72"/>
+      <c r="HK84" s="72"/>
+      <c r="HL84" s="72"/>
+      <c r="HM84" s="72"/>
+      <c r="HN84" s="72"/>
+      <c r="HO84" s="72"/>
+      <c r="HP84" s="72"/>
+      <c r="HQ84" s="72"/>
+      <c r="HR84" s="72"/>
+      <c r="HS84" s="72"/>
+      <c r="HT84" s="72"/>
+      <c r="HU84" s="72"/>
+      <c r="HV84" s="72"/>
+      <c r="HW84" s="72"/>
+      <c r="HX84" s="72"/>
+      <c r="HY84" s="72"/>
+      <c r="HZ84" s="72"/>
+      <c r="IA84" s="72"/>
+      <c r="IB84" s="72"/>
+      <c r="IC84" s="72"/>
+      <c r="ID84" s="72"/>
+      <c r="IE84" s="72"/>
+      <c r="IF84" s="72"/>
+      <c r="IG84" s="72"/>
+      <c r="IH84" s="72"/>
+      <c r="II84" s="72"/>
+      <c r="IJ84" s="72"/>
+      <c r="IK84" s="72"/>
+      <c r="IL84" s="72"/>
+      <c r="IM84" s="72"/>
+      <c r="IN84" s="72"/>
+      <c r="IO84" s="72"/>
+      <c r="IP84" s="72"/>
+      <c r="IQ84" s="72"/>
+      <c r="IR84" s="72"/>
+      <c r="IS84" s="72"/>
+      <c r="IT84" s="72"/>
+      <c r="IU84" s="72"/>
+      <c r="IV84" s="72"/>
+      <c r="IW84" s="72"/>
+      <c r="IX84" s="72"/>
+      <c r="IY84" s="72"/>
+      <c r="IZ84" s="72"/>
+      <c r="JA84" s="72"/>
+      <c r="JB84" s="72"/>
+      <c r="JC84" s="72"/>
+      <c r="JD84" s="72"/>
+      <c r="JE84" s="72"/>
+      <c r="JF84" s="72"/>
+      <c r="JG84" s="72"/>
+      <c r="JH84" s="72"/>
+      <c r="JI84" s="72"/>
+      <c r="JJ84" s="72"/>
+      <c r="JK84" s="72"/>
+      <c r="JL84" s="72"/>
+      <c r="JM84" s="72"/>
+      <c r="JN84" s="72"/>
+      <c r="JO84" s="72"/>
+      <c r="JP84" s="72"/>
+      <c r="JQ84" s="72"/>
+      <c r="JR84" s="72"/>
+      <c r="JS84" s="72"/>
+      <c r="JT84" s="72"/>
+      <c r="JU84" s="72"/>
+      <c r="JV84" s="72"/>
+      <c r="JW84" s="72"/>
+      <c r="JX84" s="72"/>
+      <c r="JY84" s="72"/>
+      <c r="JZ84" s="72"/>
+      <c r="KA84" s="72"/>
+      <c r="KB84" s="72"/>
+      <c r="KC84" s="72"/>
+      <c r="KD84" s="72"/>
+      <c r="KE84" s="72"/>
+      <c r="KF84" s="72"/>
+      <c r="KG84" s="72"/>
+      <c r="KH84" s="72"/>
+      <c r="KI84" s="72"/>
+      <c r="KJ84" s="72"/>
+      <c r="KK84" s="72"/>
+      <c r="KL84" s="72"/>
+      <c r="KM84" s="72"/>
+      <c r="KN84" s="72"/>
+      <c r="KO84" s="72"/>
+      <c r="KP84" s="72"/>
+      <c r="KQ84" s="72"/>
+      <c r="KR84" s="72"/>
+      <c r="KS84" s="72"/>
+      <c r="KT84" s="72"/>
+      <c r="KU84" s="72"/>
+      <c r="KV84" s="72"/>
+      <c r="KW84" s="72"/>
+      <c r="KX84" s="72"/>
+      <c r="KY84" s="72"/>
+      <c r="KZ84" s="72"/>
+      <c r="LA84" s="72"/>
+      <c r="LB84" s="72"/>
+      <c r="LC84" s="72"/>
+      <c r="LD84" s="72"/>
+      <c r="LE84" s="72"/>
+      <c r="LF84" s="72"/>
+      <c r="LG84" s="72"/>
+      <c r="LH84" s="72"/>
+      <c r="LI84" s="72"/>
+      <c r="LJ84" s="72"/>
+      <c r="LK84" s="72"/>
+      <c r="LL84" s="72"/>
+      <c r="LM84" s="72"/>
+      <c r="LN84" s="72"/>
+      <c r="LO84" s="72"/>
+      <c r="LP84" s="72"/>
+      <c r="LQ84" s="72"/>
+      <c r="LR84" s="72"/>
+      <c r="LS84" s="72"/>
+      <c r="LT84" s="72"/>
+      <c r="LU84" s="72"/>
+      <c r="LV84" s="72"/>
+      <c r="LW84" s="72"/>
+      <c r="LX84" s="72"/>
+      <c r="LY84" s="72"/>
+      <c r="LZ84" s="72"/>
+      <c r="MA84" s="72"/>
+      <c r="MB84" s="72"/>
+      <c r="MC84" s="72"/>
+      <c r="MD84" s="72"/>
+      <c r="ME84" s="72"/>
+      <c r="MF84" s="72"/>
+      <c r="MG84" s="72"/>
+      <c r="MH84" s="72"/>
+      <c r="MI84" s="72"/>
+      <c r="MJ84" s="72"/>
+      <c r="MK84" s="72"/>
+      <c r="ML84" s="72"/>
+      <c r="MM84" s="72"/>
+      <c r="MN84" s="72"/>
+      <c r="MO84" s="72"/>
+      <c r="MP84" s="72"/>
+      <c r="MQ84" s="72"/>
+      <c r="MR84" s="72"/>
+      <c r="MS84" s="72"/>
+      <c r="MT84" s="72"/>
+      <c r="MU84" s="72"/>
+      <c r="MV84" s="72"/>
+      <c r="MW84" s="72"/>
+      <c r="MX84" s="72"/>
+      <c r="MY84" s="72"/>
+      <c r="MZ84" s="72"/>
+      <c r="NA84" s="72"/>
+      <c r="NB84" s="72"/>
+      <c r="NC84" s="72"/>
+      <c r="ND84" s="72"/>
+      <c r="NE84" s="72"/>
+      <c r="NF84" s="72"/>
+      <c r="NG84" s="72"/>
+      <c r="NH84" s="72"/>
+      <c r="NI84" s="72"/>
+      <c r="NJ84" s="72"/>
+      <c r="NK84" s="72"/>
+      <c r="NL84" s="72"/>
+      <c r="NM84" s="72"/>
+      <c r="NN84" s="72"/>
+      <c r="NO84" s="72"/>
+      <c r="NP84" s="72"/>
+      <c r="NQ84" s="72"/>
+      <c r="NR84" s="72"/>
+      <c r="NS84" s="72"/>
+      <c r="NT84" s="72"/>
+      <c r="NU84" s="72"/>
+      <c r="NV84" s="72"/>
+      <c r="NW84" s="72"/>
+      <c r="NX84" s="72"/>
+      <c r="NY84" s="72"/>
+      <c r="NZ84" s="72"/>
+      <c r="OA84" s="72"/>
+      <c r="OB84" s="72"/>
+      <c r="OC84" s="72"/>
+      <c r="OD84" s="72"/>
+      <c r="OE84" s="72"/>
+      <c r="OF84" s="72"/>
+      <c r="OG84" s="72"/>
+      <c r="OH84" s="72"/>
+      <c r="OI84" s="72"/>
+      <c r="OJ84" s="72"/>
+      <c r="OK84" s="72"/>
+      <c r="OL84" s="72"/>
+      <c r="OM84" s="72"/>
+      <c r="ON84" s="72"/>
+      <c r="OO84" s="72"/>
+      <c r="OP84" s="72"/>
+      <c r="OQ84" s="72"/>
+      <c r="OR84" s="72"/>
+      <c r="OS84" s="72"/>
+      <c r="OT84" s="72"/>
+      <c r="OU84" s="72"/>
+      <c r="OV84" s="72"/>
+      <c r="OW84" s="72"/>
+      <c r="OX84" s="72"/>
+      <c r="OY84" s="72"/>
+      <c r="OZ84" s="72"/>
+      <c r="PA84" s="72"/>
+      <c r="PB84" s="72"/>
+      <c r="PC84" s="72"/>
+      <c r="PD84" s="72"/>
+      <c r="PE84" s="72"/>
+      <c r="PF84" s="72"/>
+      <c r="PG84" s="72"/>
+      <c r="PH84" s="72"/>
+      <c r="PI84" s="72"/>
+      <c r="PJ84" s="72"/>
+      <c r="PK84" s="72"/>
+      <c r="PL84" s="72"/>
+      <c r="PM84" s="72"/>
+      <c r="PN84" s="72"/>
+      <c r="PO84" s="72"/>
+      <c r="PP84" s="72"/>
+      <c r="PQ84" s="72"/>
+      <c r="PR84" s="72"/>
+      <c r="PS84" s="72"/>
+      <c r="PT84" s="72"/>
+      <c r="PU84" s="72"/>
+      <c r="PV84" s="72"/>
+      <c r="PW84" s="72"/>
+      <c r="PX84" s="72"/>
+      <c r="PY84" s="72"/>
+      <c r="PZ84" s="72"/>
+      <c r="QA84" s="72"/>
+      <c r="QB84" s="72"/>
+      <c r="QC84" s="72"/>
+      <c r="QD84" s="72"/>
+      <c r="QE84" s="72"/>
+      <c r="QF84" s="72"/>
+      <c r="QG84" s="72"/>
+      <c r="QH84" s="72"/>
+      <c r="QI84" s="72"/>
+      <c r="QJ84" s="72"/>
+      <c r="QK84" s="72"/>
+      <c r="QL84" s="72"/>
+      <c r="QM84" s="72"/>
+      <c r="QN84" s="72"/>
+      <c r="QO84" s="72"/>
+      <c r="QP84" s="72"/>
+      <c r="QQ84" s="72"/>
+      <c r="QR84" s="72"/>
+      <c r="QS84" s="72"/>
+      <c r="QT84" s="72"/>
+      <c r="QU84" s="72"/>
+      <c r="QV84" s="72"/>
+      <c r="QW84" s="72"/>
+      <c r="QX84" s="72"/>
+      <c r="QY84" s="72"/>
+      <c r="QZ84" s="72"/>
+      <c r="RA84" s="72"/>
+      <c r="RB84" s="72"/>
+      <c r="RC84" s="72"/>
+      <c r="RD84" s="72"/>
+      <c r="RE84" s="72"/>
+      <c r="RF84" s="72"/>
+      <c r="RG84" s="72"/>
+      <c r="RH84" s="72"/>
+      <c r="RI84" s="72"/>
+      <c r="RJ84" s="72"/>
+      <c r="RK84" s="72"/>
+      <c r="RL84" s="72"/>
+      <c r="RM84" s="72"/>
+      <c r="RN84" s="72"/>
+      <c r="RO84" s="72"/>
+      <c r="RP84" s="72"/>
+      <c r="RQ84" s="72"/>
+      <c r="RR84" s="72"/>
+      <c r="RS84" s="72"/>
+      <c r="RT84" s="72"/>
+      <c r="RU84" s="72"/>
+      <c r="RV84" s="72"/>
+      <c r="RW84" s="72"/>
+      <c r="RX84" s="72"/>
+      <c r="RY84" s="72"/>
+      <c r="RZ84" s="72"/>
+      <c r="SA84" s="72"/>
+      <c r="SB84" s="72"/>
+      <c r="SC84" s="72"/>
+      <c r="SD84" s="72"/>
+      <c r="SE84" s="72"/>
+      <c r="SF84" s="72"/>
+      <c r="SG84" s="72"/>
+      <c r="SH84" s="72"/>
+      <c r="SI84" s="72"/>
+      <c r="SJ84" s="72"/>
+      <c r="SK84" s="72"/>
+      <c r="SL84" s="72"/>
+      <c r="SM84" s="72"/>
+      <c r="SN84" s="72"/>
+      <c r="SO84" s="72"/>
+      <c r="SP84" s="72"/>
+      <c r="SQ84" s="72"/>
+      <c r="SR84" s="72"/>
+      <c r="SS84" s="72"/>
+      <c r="ST84" s="72"/>
+      <c r="SU84" s="72"/>
+      <c r="SV84" s="72"/>
+      <c r="SW84" s="72"/>
+      <c r="SX84" s="72"/>
+      <c r="SY84" s="72"/>
+      <c r="SZ84" s="72"/>
+      <c r="TA84" s="72"/>
+      <c r="TB84" s="72"/>
+      <c r="TC84" s="72"/>
+      <c r="TD84" s="72"/>
+      <c r="TE84" s="72"/>
+      <c r="TF84" s="72"/>
+      <c r="TG84" s="72"/>
+      <c r="TH84" s="72"/>
+      <c r="TI84" s="72"/>
+      <c r="TJ84" s="72"/>
+      <c r="TK84" s="72"/>
+      <c r="TL84" s="72"/>
+      <c r="TM84" s="72"/>
+      <c r="TN84" s="72"/>
+      <c r="TO84" s="72"/>
+      <c r="TP84" s="72"/>
+      <c r="TQ84" s="72"/>
+      <c r="TR84" s="72"/>
+      <c r="TS84" s="72"/>
+      <c r="TT84" s="72"/>
+      <c r="TU84" s="72"/>
+      <c r="TV84" s="72"/>
+      <c r="TW84" s="72"/>
+      <c r="TX84" s="72"/>
+      <c r="TY84" s="72"/>
+      <c r="TZ84" s="72"/>
+      <c r="UA84" s="72"/>
+      <c r="UB84" s="72"/>
+      <c r="UC84" s="72"/>
+      <c r="UD84" s="72"/>
+      <c r="UE84" s="72"/>
+      <c r="UF84" s="72"/>
+      <c r="UG84" s="72"/>
+      <c r="UH84" s="72"/>
+      <c r="UI84" s="72"/>
+      <c r="UJ84" s="72"/>
+      <c r="UK84" s="72"/>
+      <c r="UL84" s="72"/>
+      <c r="UM84" s="72"/>
+      <c r="UN84" s="72"/>
+      <c r="UO84" s="72"/>
+      <c r="UP84" s="72"/>
+      <c r="UQ84" s="72"/>
+      <c r="UR84" s="72"/>
+      <c r="US84" s="72"/>
+      <c r="UT84" s="72"/>
+      <c r="UU84" s="72"/>
+      <c r="UV84" s="72"/>
+      <c r="UW84" s="72"/>
+      <c r="UX84" s="72"/>
+      <c r="UY84" s="72"/>
+      <c r="UZ84" s="72"/>
+      <c r="VA84" s="72"/>
+      <c r="VB84" s="72"/>
+      <c r="VC84" s="72"/>
+      <c r="VD84" s="72"/>
+      <c r="VE84" s="72"/>
+      <c r="VF84" s="72"/>
+      <c r="VG84" s="72"/>
+      <c r="VH84" s="72"/>
+      <c r="VI84" s="72"/>
+      <c r="VJ84" s="72"/>
+      <c r="VK84" s="72"/>
+      <c r="VL84" s="72"/>
+      <c r="VM84" s="72"/>
+      <c r="VN84" s="72"/>
+      <c r="VO84" s="72"/>
+      <c r="VP84" s="72"/>
+      <c r="VQ84" s="72"/>
+      <c r="VR84" s="72"/>
+      <c r="VS84" s="72"/>
+      <c r="VT84" s="72"/>
+      <c r="VU84" s="72"/>
+      <c r="VV84" s="72"/>
+      <c r="VW84" s="72"/>
+      <c r="VX84" s="72"/>
+      <c r="VY84" s="72"/>
+      <c r="VZ84" s="72"/>
+      <c r="WA84" s="72"/>
+      <c r="WB84" s="72"/>
+      <c r="WC84" s="72"/>
+      <c r="WD84" s="72"/>
+      <c r="WE84" s="72"/>
+      <c r="WF84" s="72"/>
+      <c r="WG84" s="72"/>
+      <c r="WH84" s="72"/>
+      <c r="WI84" s="72"/>
+      <c r="WJ84" s="72"/>
+      <c r="WK84" s="72"/>
+      <c r="WL84" s="72"/>
+      <c r="WM84" s="72"/>
+      <c r="WN84" s="72"/>
+      <c r="WO84" s="72"/>
+      <c r="WP84" s="72"/>
+      <c r="WQ84" s="72"/>
+      <c r="WR84" s="72"/>
+      <c r="WS84" s="72"/>
+      <c r="WT84" s="72"/>
+      <c r="WU84" s="72"/>
+      <c r="WV84" s="72"/>
+      <c r="WW84" s="72"/>
+      <c r="WX84" s="72"/>
+      <c r="WY84" s="72"/>
+      <c r="WZ84" s="72"/>
+      <c r="XA84" s="72"/>
+      <c r="XB84" s="72"/>
+      <c r="XC84" s="72"/>
+      <c r="XD84" s="72"/>
+      <c r="XE84" s="72"/>
+      <c r="XF84" s="72"/>
+      <c r="XG84" s="72"/>
+      <c r="XH84" s="72"/>
+      <c r="XI84" s="72"/>
+      <c r="XJ84" s="72"/>
+      <c r="XK84" s="72"/>
+      <c r="XL84" s="72"/>
+      <c r="XM84" s="72"/>
+      <c r="XN84" s="72"/>
+      <c r="XO84" s="72"/>
+      <c r="XP84" s="72"/>
+      <c r="XQ84" s="72"/>
+      <c r="XR84" s="72"/>
+      <c r="XS84" s="72"/>
+      <c r="XT84" s="72"/>
+      <c r="XU84" s="72"/>
+      <c r="XV84" s="72"/>
+      <c r="XW84" s="72"/>
+      <c r="XX84" s="72"/>
+      <c r="XY84" s="72"/>
+      <c r="XZ84" s="72"/>
+      <c r="YA84" s="72"/>
+      <c r="YB84" s="72"/>
+      <c r="YC84" s="72"/>
+      <c r="YD84" s="72"/>
+      <c r="YE84" s="72"/>
+      <c r="YF84" s="72"/>
+      <c r="YG84" s="72"/>
+      <c r="YH84" s="72"/>
+      <c r="YI84" s="72"/>
+      <c r="YJ84" s="72"/>
+      <c r="YK84" s="72"/>
+      <c r="YL84" s="72"/>
+      <c r="YM84" s="72"/>
+      <c r="YN84" s="72"/>
+      <c r="YO84" s="72"/>
+      <c r="YP84" s="72"/>
+      <c r="YQ84" s="72"/>
+      <c r="YR84" s="72"/>
+      <c r="YS84" s="72"/>
+      <c r="YT84" s="72"/>
+      <c r="YU84" s="72"/>
+      <c r="YV84" s="72"/>
+      <c r="YW84" s="72"/>
+      <c r="YX84" s="72"/>
+      <c r="YY84" s="72"/>
+      <c r="YZ84" s="72"/>
+      <c r="ZA84" s="72"/>
+      <c r="ZB84" s="72"/>
+      <c r="ZC84" s="72"/>
+      <c r="ZD84" s="72"/>
+      <c r="ZE84" s="72"/>
+      <c r="ZF84" s="72"/>
+      <c r="ZG84" s="72"/>
+      <c r="ZH84" s="72"/>
+      <c r="ZI84" s="72"/>
+      <c r="ZJ84" s="72"/>
+      <c r="ZK84" s="72"/>
+      <c r="ZL84" s="72"/>
+      <c r="ZM84" s="72"/>
+      <c r="ZN84" s="72"/>
+      <c r="ZO84" s="72"/>
+      <c r="ZP84" s="72"/>
+      <c r="ZQ84" s="72"/>
+      <c r="ZR84" s="72"/>
+      <c r="ZS84" s="72"/>
+      <c r="ZT84" s="72"/>
+      <c r="ZU84" s="72"/>
+      <c r="ZV84" s="72"/>
+      <c r="ZW84" s="72"/>
+      <c r="ZX84" s="72"/>
+      <c r="ZY84" s="72"/>
+      <c r="ZZ84" s="72"/>
+      <c r="AAA84" s="72"/>
+      <c r="AAB84" s="72"/>
+      <c r="AAC84" s="72"/>
+      <c r="AAD84" s="72"/>
+      <c r="AAE84" s="72"/>
+      <c r="AAF84" s="72"/>
+      <c r="AAG84" s="72"/>
+      <c r="AAH84" s="72"/>
+      <c r="AAI84" s="72"/>
+      <c r="AAJ84" s="72"/>
+      <c r="AAK84" s="72"/>
+      <c r="AAL84" s="72"/>
+      <c r="AAM84" s="72"/>
+      <c r="AAN84" s="72"/>
+      <c r="AAO84" s="72"/>
+      <c r="AAP84" s="72"/>
+      <c r="AAQ84" s="72"/>
+      <c r="AAR84" s="72"/>
+      <c r="AAS84" s="72"/>
+      <c r="AAT84" s="72"/>
+      <c r="AAU84" s="72"/>
+      <c r="AAV84" s="72"/>
+      <c r="AAW84" s="72"/>
+      <c r="AAX84" s="72"/>
+      <c r="AAY84" s="72"/>
+      <c r="AAZ84" s="72"/>
+      <c r="ABA84" s="72"/>
+      <c r="ABB84" s="72"/>
+      <c r="ABC84" s="72"/>
+      <c r="ABD84" s="72"/>
+      <c r="ABE84" s="72"/>
+      <c r="ABF84" s="72"/>
+      <c r="ABG84" s="72"/>
+      <c r="ABH84" s="72"/>
+      <c r="ABI84" s="72"/>
+      <c r="ABJ84" s="72"/>
+      <c r="ABK84" s="72"/>
+      <c r="ABL84" s="72"/>
+      <c r="ABM84" s="72"/>
+      <c r="ABN84" s="72"/>
+      <c r="ABO84" s="72"/>
+      <c r="ABP84" s="72"/>
+      <c r="ABQ84" s="72"/>
+      <c r="ABR84" s="72"/>
+      <c r="ABS84" s="72"/>
+      <c r="ABT84" s="72"/>
+      <c r="ABU84" s="72"/>
+      <c r="ABV84" s="72"/>
+      <c r="ABW84" s="72"/>
+      <c r="ABX84" s="72"/>
+      <c r="ABY84" s="72"/>
+      <c r="ABZ84" s="72"/>
+      <c r="ACA84" s="72"/>
+      <c r="ACB84" s="72"/>
+      <c r="ACC84" s="72"/>
+      <c r="ACD84" s="72"/>
+      <c r="ACE84" s="72"/>
+      <c r="ACF84" s="72"/>
+      <c r="ACG84" s="72"/>
+      <c r="ACH84" s="72"/>
+      <c r="ACI84" s="72"/>
+      <c r="ACJ84" s="72"/>
+      <c r="ACK84" s="72"/>
+      <c r="ACL84" s="72"/>
+      <c r="ACM84" s="72"/>
+      <c r="ACN84" s="72"/>
+      <c r="ACO84" s="72"/>
+      <c r="ACP84" s="72"/>
+      <c r="ACQ84" s="72"/>
+      <c r="ACR84" s="72"/>
+      <c r="ACS84" s="72"/>
+      <c r="ACT84" s="72"/>
+      <c r="ACU84" s="72"/>
+      <c r="ACV84" s="72"/>
+      <c r="ACW84" s="72"/>
+      <c r="ACX84" s="72"/>
+      <c r="ACY84" s="72"/>
+      <c r="ACZ84" s="72"/>
+      <c r="ADA84" s="72"/>
+      <c r="ADB84" s="72"/>
+      <c r="ADC84" s="72"/>
+      <c r="ADD84" s="72"/>
+      <c r="ADE84" s="72"/>
+      <c r="ADF84" s="72"/>
+      <c r="ADG84" s="72"/>
+      <c r="ADH84" s="72"/>
+      <c r="ADI84" s="72"/>
+      <c r="ADJ84" s="72"/>
+      <c r="ADK84" s="72"/>
+      <c r="ADL84" s="72"/>
+      <c r="ADM84" s="72"/>
+      <c r="ADN84" s="72"/>
+      <c r="ADO84" s="72"/>
+      <c r="ADP84" s="72"/>
+      <c r="ADQ84" s="72"/>
+      <c r="ADR84" s="72"/>
+      <c r="ADS84" s="72"/>
+      <c r="ADT84" s="72"/>
+      <c r="ADU84" s="72"/>
+      <c r="ADV84" s="72"/>
+      <c r="ADW84" s="72"/>
+      <c r="ADX84" s="72"/>
+      <c r="ADY84" s="72"/>
+      <c r="ADZ84" s="72"/>
+      <c r="AEA84" s="72"/>
+      <c r="AEB84" s="72"/>
+      <c r="AEC84" s="72"/>
+      <c r="AED84" s="72"/>
+      <c r="AEE84" s="72"/>
+      <c r="AEF84" s="72"/>
+      <c r="AEG84" s="72"/>
+      <c r="AEH84" s="72"/>
+      <c r="AEI84" s="72"/>
+      <c r="AEJ84" s="72"/>
+      <c r="AEK84" s="72"/>
+      <c r="AEL84" s="72"/>
+      <c r="AEM84" s="72"/>
+      <c r="AEN84" s="72"/>
+      <c r="AEO84" s="72"/>
+      <c r="AEP84" s="72"/>
+      <c r="AEQ84" s="72"/>
+      <c r="AER84" s="72"/>
+      <c r="AES84" s="72"/>
+      <c r="AET84" s="72"/>
+      <c r="AEU84" s="72"/>
+      <c r="AEV84" s="72"/>
+      <c r="AEW84" s="72"/>
+      <c r="AEX84" s="72"/>
+      <c r="AEY84" s="72"/>
+      <c r="AEZ84" s="72"/>
+      <c r="AFA84" s="72"/>
+      <c r="AFB84" s="72"/>
+      <c r="AFC84" s="72"/>
+      <c r="AFD84" s="72"/>
+      <c r="AFE84" s="72"/>
+      <c r="AFF84" s="72"/>
+      <c r="AFG84" s="72"/>
+      <c r="AFH84" s="72"/>
+      <c r="AFI84" s="72"/>
+      <c r="AFJ84" s="72"/>
+      <c r="AFK84" s="72"/>
+      <c r="AFL84" s="72"/>
+      <c r="AFM84" s="72"/>
+      <c r="AFN84" s="72"/>
+      <c r="AFO84" s="72"/>
+      <c r="AFP84" s="72"/>
+      <c r="AFQ84" s="72"/>
+      <c r="AFR84" s="72"/>
+      <c r="AFS84" s="72"/>
+      <c r="AFT84" s="72"/>
+      <c r="AFU84" s="72"/>
+      <c r="AFV84" s="72"/>
+      <c r="AFW84" s="72"/>
+      <c r="AFX84" s="72"/>
+      <c r="AFY84" s="72"/>
+      <c r="AFZ84" s="72"/>
+      <c r="AGA84" s="72"/>
+      <c r="AGB84" s="72"/>
+      <c r="AGC84" s="72"/>
+      <c r="AGD84" s="72"/>
+      <c r="AGE84" s="72"/>
+      <c r="AGF84" s="72"/>
+      <c r="AGG84" s="72"/>
+      <c r="AGH84" s="72"/>
+      <c r="AGI84" s="72"/>
+      <c r="AGJ84" s="72"/>
+      <c r="AGK84" s="72"/>
+      <c r="AGL84" s="72"/>
+      <c r="AGM84" s="72"/>
+      <c r="AGN84" s="72"/>
+      <c r="AGO84" s="72"/>
+      <c r="AGP84" s="72"/>
+      <c r="AGQ84" s="72"/>
+      <c r="AGR84" s="72"/>
+      <c r="AGS84" s="72"/>
+      <c r="AGT84" s="72"/>
+      <c r="AGU84" s="72"/>
+      <c r="AGV84" s="72"/>
+      <c r="AGW84" s="72"/>
+      <c r="AGX84" s="72"/>
+      <c r="AGY84" s="72"/>
+      <c r="AGZ84" s="72"/>
+      <c r="AHA84" s="72"/>
+      <c r="AHB84" s="72"/>
+      <c r="AHC84" s="72"/>
+      <c r="AHD84" s="72"/>
+      <c r="AHE84" s="72"/>
+      <c r="AHF84" s="72"/>
+      <c r="AHG84" s="72"/>
+      <c r="AHH84" s="72"/>
+      <c r="AHI84" s="72"/>
+      <c r="AHJ84" s="72"/>
+      <c r="AHK84" s="72"/>
+      <c r="AHL84" s="72"/>
+      <c r="AHM84" s="72"/>
+      <c r="AHN84" s="72"/>
+      <c r="AHO84" s="72"/>
+      <c r="AHP84" s="72"/>
+      <c r="AHQ84" s="72"/>
+      <c r="AHR84" s="72"/>
+      <c r="AHS84" s="72"/>
+      <c r="AHT84" s="72"/>
+      <c r="AHU84" s="72"/>
+      <c r="AHV84" s="72"/>
+      <c r="AHW84" s="72"/>
+      <c r="AHX84" s="72"/>
+      <c r="AHY84" s="72"/>
+      <c r="AHZ84" s="72"/>
+      <c r="AIA84" s="72"/>
+      <c r="AIB84" s="72"/>
+      <c r="AIC84" s="72"/>
+      <c r="AID84" s="72"/>
+      <c r="AIE84" s="72"/>
+      <c r="AIF84" s="72"/>
+      <c r="AIG84" s="72"/>
+      <c r="AIH84" s="72"/>
+      <c r="AII84" s="72"/>
+      <c r="AIJ84" s="72"/>
+      <c r="AIK84" s="72"/>
+      <c r="AIL84" s="72"/>
+      <c r="AIM84" s="72"/>
+      <c r="AIN84" s="72"/>
+      <c r="AIO84" s="72"/>
+      <c r="AIP84" s="72"/>
+      <c r="AIQ84" s="72"/>
+      <c r="AIR84" s="72"/>
+      <c r="AIS84" s="72"/>
+      <c r="AIT84" s="72"/>
+      <c r="AIU84" s="72"/>
+      <c r="AIV84" s="72"/>
+      <c r="AIW84" s="72"/>
+      <c r="AIX84" s="72"/>
+      <c r="AIY84" s="72"/>
+      <c r="AIZ84" s="72"/>
+      <c r="AJA84" s="72"/>
+      <c r="AJB84" s="72"/>
+      <c r="AJC84" s="72"/>
+      <c r="AJD84" s="72"/>
+      <c r="AJE84" s="72"/>
+      <c r="AJF84" s="72"/>
+      <c r="AJG84" s="72"/>
+      <c r="AJH84" s="72"/>
+      <c r="AJI84" s="72"/>
+      <c r="AJJ84" s="72"/>
+      <c r="AJK84" s="72"/>
+      <c r="AJL84" s="72"/>
+      <c r="AJM84" s="72"/>
+      <c r="AJN84" s="72"/>
+      <c r="AJO84" s="72"/>
+      <c r="AJP84" s="72"/>
+      <c r="AJQ84" s="72"/>
+      <c r="AJR84" s="72"/>
+      <c r="AJS84" s="72"/>
+      <c r="AJT84" s="72"/>
+      <c r="AJU84" s="72"/>
+      <c r="AJV84" s="72"/>
+      <c r="AJW84" s="72"/>
+      <c r="AJX84" s="72"/>
+      <c r="AJY84" s="72"/>
+      <c r="AJZ84" s="72"/>
+      <c r="AKA84" s="72"/>
+      <c r="AKB84" s="72"/>
+      <c r="AKC84" s="72"/>
+      <c r="AKD84" s="72"/>
+      <c r="AKE84" s="72"/>
+      <c r="AKF84" s="72"/>
+      <c r="AKG84" s="72"/>
+      <c r="AKH84" s="72"/>
+      <c r="AKI84" s="72"/>
+      <c r="AKJ84" s="72"/>
+      <c r="AKK84" s="72"/>
+      <c r="AKL84" s="72"/>
+      <c r="AKM84" s="72"/>
+      <c r="AKN84" s="72"/>
+      <c r="AKO84" s="72"/>
+      <c r="AKP84" s="72"/>
+      <c r="AKQ84" s="72"/>
+      <c r="AKR84" s="72"/>
+      <c r="AKS84" s="72"/>
+      <c r="AKT84" s="72"/>
+      <c r="AKU84" s="72"/>
+      <c r="AKV84" s="72"/>
+      <c r="AKW84" s="72"/>
+      <c r="AKX84" s="72"/>
+      <c r="AKY84" s="72"/>
+      <c r="AKZ84" s="72"/>
+      <c r="ALA84" s="72"/>
+      <c r="ALB84" s="72"/>
+      <c r="ALC84" s="72"/>
+      <c r="ALD84" s="72"/>
+      <c r="ALE84" s="72"/>
+      <c r="ALF84" s="72"/>
+      <c r="ALG84" s="72"/>
+      <c r="ALH84" s="72"/>
+      <c r="ALI84" s="72"/>
+      <c r="ALJ84" s="72"/>
+      <c r="ALK84" s="72"/>
+      <c r="ALL84" s="72"/>
+      <c r="ALM84" s="72"/>
+      <c r="ALN84" s="72"/>
+      <c r="ALO84" s="72"/>
+      <c r="ALP84" s="72"/>
+      <c r="ALQ84" s="72"/>
+      <c r="ALR84" s="72"/>
+      <c r="ALS84" s="72"/>
+      <c r="ALT84" s="72"/>
+      <c r="ALU84" s="72"/>
+      <c r="ALV84" s="72"/>
+      <c r="ALW84" s="72"/>
+      <c r="ALX84" s="72"/>
+      <c r="ALY84" s="72"/>
+      <c r="ALZ84" s="72"/>
+      <c r="AMA84" s="72"/>
+      <c r="AMB84" s="72"/>
+      <c r="AMC84" s="72"/>
+      <c r="AMD84" s="72"/>
+      <c r="AME84" s="72"/>
+      <c r="AMF84" s="72"/>
+      <c r="AMG84" s="72"/>
+      <c r="AMH84" s="72"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -20626,7 +20654,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="73" t="s">
+      <c r="A88" s="74" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -23794,7 +23822,7 @@
       <c r="E97" s="70"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="74" t="s">
+      <c r="A98" s="75" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -23891,7 +23919,7 @@
       </c>
       <c r="E103" s="70"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="19" t="s">
         <v>160</v>
       </c>
@@ -23906,14 +23934,17 @@
       </c>
       <c r="E104" s="35">
         <v>0.9695</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C105" s="10">
         <v>0.9961418</v>
@@ -23927,7 +23958,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>146</v>
@@ -23938,58 +23969,100 @@
       <c r="D106" s="10">
         <v>0.9675726</v>
       </c>
-      <c r="E106" s="70">
+      <c r="E106" s="39">
         <v>0.9699</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="E107" s="70"/>
+      <c r="A107" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" s="10">
+        <v>0.9965193</v>
+      </c>
+      <c r="D107" s="20">
+        <v>0.9676965</v>
+      </c>
+      <c r="E107" s="67">
+        <v>0.9689</v>
+      </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C108" s="10">
-        <v>0.9965193</v>
-      </c>
-      <c r="D108" s="20">
-        <v>0.9676965</v>
+        <v>0.9974984</v>
+      </c>
+      <c r="D108" s="10">
+        <v>0.9675807</v>
       </c>
       <c r="E108" s="67">
-        <v>0.9689</v>
+        <v>0.96939</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="109" spans="5:5">
+      <c r="E109" s="70"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="10">
+        <v>0.9961448</v>
+      </c>
+      <c r="D110" s="10">
+        <v>0.9673982</v>
+      </c>
+      <c r="E110" s="70">
+        <v>0.9695</v>
+      </c>
+      <c r="F110" s="71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="10">
+        <v>0.9965582</v>
+      </c>
+      <c r="D111" s="10">
+        <v>0.967503</v>
+      </c>
+      <c r="E111" s="70">
+        <v>0.9695</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C109" s="10">
-        <v>0.9974984</v>
-      </c>
-      <c r="D109" s="10">
-        <v>0.9675807</v>
-      </c>
-      <c r="E109" s="67">
-        <v>0.96939</v>
-      </c>
-    </row>
-    <row r="110" spans="5:5">
-      <c r="E110" s="70"/>
-    </row>
-    <row r="111" spans="5:5">
-      <c r="E111" s="70"/>
-    </row>
-    <row r="112" spans="5:5">
-      <c r="E112" s="70"/>
+      <c r="C112" s="10">
+        <v>0.9972809</v>
+      </c>
+      <c r="D112" s="10">
+        <v>0.9675222</v>
+      </c>
+      <c r="E112" s="70">
+        <v>0.9697</v>
+      </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" s="70"/>
@@ -24066,9 +24139,6 @@
     <row r="137" spans="5:5">
       <c r="E137" s="70"/>
     </row>
-    <row r="138" spans="5:5">
-      <c r="E138" s="70"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A32:G32"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13305" tabRatio="993"/>
+    <workbookView windowWidth="20385" windowHeight="8625" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="特征选取" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
   <si>
     <r>
       <rPr>
@@ -1508,6 +1508,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>去掉冗余的</t>
     </r>
     <r>
@@ -1519,20 +1524,30 @@
       <t xml:space="preserve"> last_time_orderType</t>
     </r>
   </si>
+  <si>
+    <t>min_child_weight': 10</t>
+  </si>
+  <si>
+    <t>后期调参</t>
+  </si>
+  <si>
+    <t>min_child_weight': 10
+feature_percentile = 0.95</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1551,16 +1566,13 @@
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="DejaVu Sans Mono"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1571,9 +1583,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,9 +1613,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1596,7 +1637,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1616,6 +1672,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1623,8 +1680,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1639,15 +1711,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1663,60 +1729,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1801,7 +1813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,7 +1831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,7 +1855,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,13 +1927,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,19 +1951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,13 +1963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,73 +1975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,7 +1987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1992,6 +2004,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2027,9 +2063,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2066,168 +2104,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2263,16 +2275,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2293,7 +2305,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2308,7 +2320,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2317,13 +2329,13 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2335,40 +2347,40 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2392,10 +2404,10 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2404,7 +2416,7 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2413,7 +2425,7 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2422,31 +2434,31 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2460,6 +2472,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2778,8 +2793,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -18330,7 +18345,7 @@
       <c r="G72" s="35">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="64" t="s">
+      <c r="H72" s="63" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="46"/>
@@ -19370,7 +19385,7 @@
       <c r="G73" s="12">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="65" t="s">
+      <c r="H73" s="64" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19436,7 +19451,7 @@
       <c r="F76" s="20">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="66">
+      <c r="G76" s="65">
         <v>0.9682</v>
       </c>
     </row>
@@ -19459,7 +19474,7 @@
       <c r="F78" s="57">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="67">
+      <c r="G78" s="66">
         <v>0.9678</v>
       </c>
     </row>
@@ -19574,10 +19589,10 @@
       <c r="F84" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="G84" s="68">
+      <c r="G84" s="67">
         <v>0.9686</v>
       </c>
-      <c r="H84" s="69"/>
+      <c r="H84" s="68"/>
       <c r="I84" s="72"/>
       <c r="J84" s="72"/>
       <c r="K84" s="72"/>
@@ -23819,7 +23834,7 @@
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="70"/>
+      <c r="E97" s="69"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="75" t="s">
@@ -23834,7 +23849,7 @@
       <c r="D98" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="E98" s="68">
+      <c r="E98" s="67">
         <v>0.9686</v>
       </c>
     </row>
@@ -23851,7 +23866,7 @@
       <c r="D99" s="10">
         <v>0.9671612</v>
       </c>
-      <c r="E99" s="70">
+      <c r="E99" s="69">
         <v>0.9687</v>
       </c>
     </row>
@@ -23868,7 +23883,7 @@
       <c r="D100" s="10">
         <v>0.9673732</v>
       </c>
-      <c r="E100" s="70">
+      <c r="E100" s="69">
         <v>0.9686</v>
       </c>
     </row>
@@ -23885,7 +23900,7 @@
       <c r="D101" s="10">
         <v>0.9674291</v>
       </c>
-      <c r="E101" s="70">
+      <c r="E101" s="69">
         <v>0.96939</v>
       </c>
     </row>
@@ -23902,7 +23917,7 @@
       <c r="D102" s="10">
         <v>0.967249</v>
       </c>
-      <c r="E102" s="70"/>
+      <c r="E102" s="69"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
@@ -23917,7 +23932,7 @@
       <c r="D103" s="10">
         <v>0.9673428</v>
       </c>
-      <c r="E103" s="70"/>
+      <c r="E103" s="69"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="19" t="s">
@@ -23952,7 +23967,7 @@
       <c r="D105" s="28">
         <v>0.967788</v>
       </c>
-      <c r="E105" s="70">
+      <c r="E105" s="69">
         <v>0.9683</v>
       </c>
     </row>
@@ -23986,7 +24001,7 @@
       <c r="D107" s="20">
         <v>0.9676965</v>
       </c>
-      <c r="E107" s="67">
+      <c r="E107" s="66">
         <v>0.9689</v>
       </c>
     </row>
@@ -24003,12 +24018,12 @@
       <c r="D108" s="10">
         <v>0.9675807</v>
       </c>
-      <c r="E108" s="67">
+      <c r="E108" s="66">
         <v>0.96939</v>
       </c>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="70"/>
+      <c r="E109" s="69"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
@@ -24023,10 +24038,10 @@
       <c r="D110" s="10">
         <v>0.9673982</v>
       </c>
-      <c r="E110" s="70">
+      <c r="E110" s="69">
         <v>0.9695</v>
       </c>
-      <c r="F110" s="71" t="s">
+      <c r="F110" s="70" t="s">
         <v>170</v>
       </c>
     </row>
@@ -24043,12 +24058,12 @@
       <c r="D111" s="10">
         <v>0.967503</v>
       </c>
-      <c r="E111" s="70">
+      <c r="E111" s="69">
         <v>0.9695</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="63" t="s">
+      <c r="A112" s="31" t="s">
         <v>172</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -24060,84 +24075,115 @@
       <c r="D112" s="10">
         <v>0.9675222</v>
       </c>
-      <c r="E112" s="70">
+      <c r="E112" s="69">
         <v>0.9697</v>
       </c>
     </row>
-    <row r="113" spans="5:5">
-      <c r="E113" s="70"/>
+    <row r="113" spans="1:6">
+      <c r="A113" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" s="10">
+        <v>0.9978254</v>
+      </c>
+      <c r="D113" s="10">
+        <v>0.9678351</v>
+      </c>
+      <c r="E113" s="69">
+        <v>0.9699</v>
+      </c>
+      <c r="F113" s="71" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="114" spans="5:5">
-      <c r="E114" s="70"/>
+    <row r="114" ht="21" spans="1:5">
+      <c r="A114" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C114" s="10">
+        <v>0.9984165</v>
+      </c>
+      <c r="D114" s="10">
+        <v>0.9678722</v>
+      </c>
+      <c r="E114" s="69">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="70"/>
+      <c r="E115" s="69"/>
     </row>
     <row r="116" spans="5:5">
-      <c r="E116" s="70"/>
+      <c r="E116" s="69"/>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="70"/>
+      <c r="E117" s="69"/>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="70"/>
+      <c r="E118" s="69"/>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="70"/>
+      <c r="E119" s="69"/>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="70"/>
+      <c r="E120" s="69"/>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="70"/>
+      <c r="E121" s="69"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="70"/>
+      <c r="E122" s="69"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="70"/>
+      <c r="E123" s="69"/>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="70"/>
+      <c r="E124" s="69"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="70"/>
+      <c r="E125" s="69"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="70"/>
+      <c r="E126" s="69"/>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="70"/>
+      <c r="E127" s="69"/>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="70"/>
+      <c r="E128" s="69"/>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="70"/>
+      <c r="E129" s="69"/>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="70"/>
+      <c r="E130" s="69"/>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="70"/>
+      <c r="E131" s="69"/>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="70"/>
+      <c r="E132" s="69"/>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="70"/>
+      <c r="E133" s="69"/>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="70"/>
+      <c r="E134" s="69"/>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="70"/>
+      <c r="E135" s="69"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="70"/>
+      <c r="E136" s="69"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="70"/>
+      <c r="E137" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -2473,7 +2473,7 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2793,8 +2793,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -24119,8 +24119,22 @@
     <row r="115" spans="5:5">
       <c r="E115" s="69"/>
     </row>
-    <row r="116" spans="5:5">
-      <c r="E116" s="69"/>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" s="10">
+        <v>0.9972809</v>
+      </c>
+      <c r="D116" s="10">
+        <v>0.9675222</v>
+      </c>
+      <c r="E116" s="69">
+        <v>0.9697</v>
+      </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" s="69"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8625" tabRatio="993"/>
+    <workbookView windowWidth="28695" windowHeight="13305" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="特征选取" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <r>
       <rPr>
@@ -1495,7 +1495,24 @@
     <t>330</t>
   </si>
   <si>
-    <t>last_order_history_type</t>
+    <r>
+      <t>first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>last_order_history_type</t>
+    </r>
   </si>
   <si>
     <t>329</t>
@@ -1508,11 +1525,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>去掉冗余的</t>
     </r>
     <r>
@@ -1534,20 +1546,75 @@
     <t>min_child_weight': 10
 feature_percentile = 0.95</t>
   </si>
+  <si>
+    <r>
+      <t>添加多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> order_history_type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以及交叉的特征</t>
+    </r>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <r>
+      <t>去掉冗余的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ordertype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，只保留
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2016_2017_first_last_ordertype</t>
+    </r>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1576,6 +1643,10 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
@@ -1600,21 +1671,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1629,6 +1710,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1636,7 +1724,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1644,15 +1732,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1662,13 +1758,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1688,22 +1777,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1711,17 +1784,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1819,19 +1890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,19 +1902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1867,25 +1914,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1897,13 +1938,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,25 +1986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,7 +2004,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1963,13 +2022,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,19 +2046,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2031,47 +2102,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2096,6 +2126,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2109,142 +2180,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2275,16 +2346,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2305,7 +2376,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2320,7 +2391,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2329,13 +2400,13 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2347,40 +2418,40 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2404,10 +2475,10 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2416,7 +2487,7 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2425,7 +2496,7 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2434,31 +2505,40 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2793,8 +2873,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -8109,7 +8189,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="76" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -18345,7 +18425,7 @@
       <c r="G72" s="35">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="63" t="s">
+      <c r="H72" s="66" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="46"/>
@@ -19385,7 +19465,7 @@
       <c r="G73" s="12">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="64" t="s">
+      <c r="H73" s="67" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19451,7 +19531,7 @@
       <c r="F76" s="20">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="65">
+      <c r="G76" s="68">
         <v>0.9682</v>
       </c>
     </row>
@@ -19474,7 +19554,7 @@
       <c r="F78" s="57">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="66">
+      <c r="G78" s="69">
         <v>0.9678</v>
       </c>
     </row>
@@ -19589,1024 +19669,1024 @@
       <c r="F84" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="G84" s="67">
+      <c r="G84" s="70">
         <v>0.9686</v>
       </c>
-      <c r="H84" s="68"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="72"/>
-      <c r="K84" s="72"/>
-      <c r="L84" s="72"/>
-      <c r="M84" s="72"/>
-      <c r="N84" s="72"/>
-      <c r="O84" s="72"/>
-      <c r="P84" s="72"/>
-      <c r="Q84" s="72"/>
-      <c r="R84" s="72"/>
-      <c r="S84" s="72"/>
-      <c r="T84" s="72"/>
-      <c r="U84" s="72"/>
-      <c r="V84" s="72"/>
-      <c r="W84" s="72"/>
-      <c r="X84" s="72"/>
-      <c r="Y84" s="72"/>
-      <c r="Z84" s="72"/>
-      <c r="AA84" s="72"/>
-      <c r="AB84" s="72"/>
-      <c r="AC84" s="72"/>
-      <c r="AD84" s="72"/>
-      <c r="AE84" s="72"/>
-      <c r="AF84" s="72"/>
-      <c r="AG84" s="72"/>
-      <c r="AH84" s="72"/>
-      <c r="AI84" s="72"/>
-      <c r="AJ84" s="72"/>
-      <c r="AK84" s="72"/>
-      <c r="AL84" s="72"/>
-      <c r="AM84" s="72"/>
-      <c r="AN84" s="72"/>
-      <c r="AO84" s="72"/>
-      <c r="AP84" s="72"/>
-      <c r="AQ84" s="72"/>
-      <c r="AR84" s="72"/>
-      <c r="AS84" s="72"/>
-      <c r="AT84" s="72"/>
-      <c r="AU84" s="72"/>
-      <c r="AV84" s="72"/>
-      <c r="AW84" s="72"/>
-      <c r="AX84" s="72"/>
-      <c r="AY84" s="72"/>
-      <c r="AZ84" s="72"/>
-      <c r="BA84" s="72"/>
-      <c r="BB84" s="72"/>
-      <c r="BC84" s="72"/>
-      <c r="BD84" s="72"/>
-      <c r="BE84" s="72"/>
-      <c r="BF84" s="72"/>
-      <c r="BG84" s="72"/>
-      <c r="BH84" s="72"/>
-      <c r="BI84" s="72"/>
-      <c r="BJ84" s="72"/>
-      <c r="BK84" s="72"/>
-      <c r="BL84" s="72"/>
-      <c r="BM84" s="72"/>
-      <c r="BN84" s="72"/>
-      <c r="BO84" s="72"/>
-      <c r="BP84" s="72"/>
-      <c r="BQ84" s="72"/>
-      <c r="BR84" s="72"/>
-      <c r="BS84" s="72"/>
-      <c r="BT84" s="72"/>
-      <c r="BU84" s="72"/>
-      <c r="BV84" s="72"/>
-      <c r="BW84" s="72"/>
-      <c r="BX84" s="72"/>
-      <c r="BY84" s="72"/>
-      <c r="BZ84" s="72"/>
-      <c r="CA84" s="72"/>
-      <c r="CB84" s="72"/>
-      <c r="CC84" s="72"/>
-      <c r="CD84" s="72"/>
-      <c r="CE84" s="72"/>
-      <c r="CF84" s="72"/>
-      <c r="CG84" s="72"/>
-      <c r="CH84" s="72"/>
-      <c r="CI84" s="72"/>
-      <c r="CJ84" s="72"/>
-      <c r="CK84" s="72"/>
-      <c r="CL84" s="72"/>
-      <c r="CM84" s="72"/>
-      <c r="CN84" s="72"/>
-      <c r="CO84" s="72"/>
-      <c r="CP84" s="72"/>
-      <c r="CQ84" s="72"/>
-      <c r="CR84" s="72"/>
-      <c r="CS84" s="72"/>
-      <c r="CT84" s="72"/>
-      <c r="CU84" s="72"/>
-      <c r="CV84" s="72"/>
-      <c r="CW84" s="72"/>
-      <c r="CX84" s="72"/>
-      <c r="CY84" s="72"/>
-      <c r="CZ84" s="72"/>
-      <c r="DA84" s="72"/>
-      <c r="DB84" s="72"/>
-      <c r="DC84" s="72"/>
-      <c r="DD84" s="72"/>
-      <c r="DE84" s="72"/>
-      <c r="DF84" s="72"/>
-      <c r="DG84" s="72"/>
-      <c r="DH84" s="72"/>
-      <c r="DI84" s="72"/>
-      <c r="DJ84" s="72"/>
-      <c r="DK84" s="72"/>
-      <c r="DL84" s="72"/>
-      <c r="DM84" s="72"/>
-      <c r="DN84" s="72"/>
-      <c r="DO84" s="72"/>
-      <c r="DP84" s="72"/>
-      <c r="DQ84" s="72"/>
-      <c r="DR84" s="72"/>
-      <c r="DS84" s="72"/>
-      <c r="DT84" s="72"/>
-      <c r="DU84" s="72"/>
-      <c r="DV84" s="72"/>
-      <c r="DW84" s="72"/>
-      <c r="DX84" s="72"/>
-      <c r="DY84" s="72"/>
-      <c r="DZ84" s="72"/>
-      <c r="EA84" s="72"/>
-      <c r="EB84" s="72"/>
-      <c r="EC84" s="72"/>
-      <c r="ED84" s="72"/>
-      <c r="EE84" s="72"/>
-      <c r="EF84" s="72"/>
-      <c r="EG84" s="72"/>
-      <c r="EH84" s="72"/>
-      <c r="EI84" s="72"/>
-      <c r="EJ84" s="72"/>
-      <c r="EK84" s="72"/>
-      <c r="EL84" s="72"/>
-      <c r="EM84" s="72"/>
-      <c r="EN84" s="72"/>
-      <c r="EO84" s="72"/>
-      <c r="EP84" s="72"/>
-      <c r="EQ84" s="72"/>
-      <c r="ER84" s="72"/>
-      <c r="ES84" s="72"/>
-      <c r="ET84" s="72"/>
-      <c r="EU84" s="72"/>
-      <c r="EV84" s="72"/>
-      <c r="EW84" s="72"/>
-      <c r="EX84" s="72"/>
-      <c r="EY84" s="72"/>
-      <c r="EZ84" s="72"/>
-      <c r="FA84" s="72"/>
-      <c r="FB84" s="72"/>
-      <c r="FC84" s="72"/>
-      <c r="FD84" s="72"/>
-      <c r="FE84" s="72"/>
-      <c r="FF84" s="72"/>
-      <c r="FG84" s="72"/>
-      <c r="FH84" s="72"/>
-      <c r="FI84" s="72"/>
-      <c r="FJ84" s="72"/>
-      <c r="FK84" s="72"/>
-      <c r="FL84" s="72"/>
-      <c r="FM84" s="72"/>
-      <c r="FN84" s="72"/>
-      <c r="FO84" s="72"/>
-      <c r="FP84" s="72"/>
-      <c r="FQ84" s="72"/>
-      <c r="FR84" s="72"/>
-      <c r="FS84" s="72"/>
-      <c r="FT84" s="72"/>
-      <c r="FU84" s="72"/>
-      <c r="FV84" s="72"/>
-      <c r="FW84" s="72"/>
-      <c r="FX84" s="72"/>
-      <c r="FY84" s="72"/>
-      <c r="FZ84" s="72"/>
-      <c r="GA84" s="72"/>
-      <c r="GB84" s="72"/>
-      <c r="GC84" s="72"/>
-      <c r="GD84" s="72"/>
-      <c r="GE84" s="72"/>
-      <c r="GF84" s="72"/>
-      <c r="GG84" s="72"/>
-      <c r="GH84" s="72"/>
-      <c r="GI84" s="72"/>
-      <c r="GJ84" s="72"/>
-      <c r="GK84" s="72"/>
-      <c r="GL84" s="72"/>
-      <c r="GM84" s="72"/>
-      <c r="GN84" s="72"/>
-      <c r="GO84" s="72"/>
-      <c r="GP84" s="72"/>
-      <c r="GQ84" s="72"/>
-      <c r="GR84" s="72"/>
-      <c r="GS84" s="72"/>
-      <c r="GT84" s="72"/>
-      <c r="GU84" s="72"/>
-      <c r="GV84" s="72"/>
-      <c r="GW84" s="72"/>
-      <c r="GX84" s="72"/>
-      <c r="GY84" s="72"/>
-      <c r="GZ84" s="72"/>
-      <c r="HA84" s="72"/>
-      <c r="HB84" s="72"/>
-      <c r="HC84" s="72"/>
-      <c r="HD84" s="72"/>
-      <c r="HE84" s="72"/>
-      <c r="HF84" s="72"/>
-      <c r="HG84" s="72"/>
-      <c r="HH84" s="72"/>
-      <c r="HI84" s="72"/>
-      <c r="HJ84" s="72"/>
-      <c r="HK84" s="72"/>
-      <c r="HL84" s="72"/>
-      <c r="HM84" s="72"/>
-      <c r="HN84" s="72"/>
-      <c r="HO84" s="72"/>
-      <c r="HP84" s="72"/>
-      <c r="HQ84" s="72"/>
-      <c r="HR84" s="72"/>
-      <c r="HS84" s="72"/>
-      <c r="HT84" s="72"/>
-      <c r="HU84" s="72"/>
-      <c r="HV84" s="72"/>
-      <c r="HW84" s="72"/>
-      <c r="HX84" s="72"/>
-      <c r="HY84" s="72"/>
-      <c r="HZ84" s="72"/>
-      <c r="IA84" s="72"/>
-      <c r="IB84" s="72"/>
-      <c r="IC84" s="72"/>
-      <c r="ID84" s="72"/>
-      <c r="IE84" s="72"/>
-      <c r="IF84" s="72"/>
-      <c r="IG84" s="72"/>
-      <c r="IH84" s="72"/>
-      <c r="II84" s="72"/>
-      <c r="IJ84" s="72"/>
-      <c r="IK84" s="72"/>
-      <c r="IL84" s="72"/>
-      <c r="IM84" s="72"/>
-      <c r="IN84" s="72"/>
-      <c r="IO84" s="72"/>
-      <c r="IP84" s="72"/>
-      <c r="IQ84" s="72"/>
-      <c r="IR84" s="72"/>
-      <c r="IS84" s="72"/>
-      <c r="IT84" s="72"/>
-      <c r="IU84" s="72"/>
-      <c r="IV84" s="72"/>
-      <c r="IW84" s="72"/>
-      <c r="IX84" s="72"/>
-      <c r="IY84" s="72"/>
-      <c r="IZ84" s="72"/>
-      <c r="JA84" s="72"/>
-      <c r="JB84" s="72"/>
-      <c r="JC84" s="72"/>
-      <c r="JD84" s="72"/>
-      <c r="JE84" s="72"/>
-      <c r="JF84" s="72"/>
-      <c r="JG84" s="72"/>
-      <c r="JH84" s="72"/>
-      <c r="JI84" s="72"/>
-      <c r="JJ84" s="72"/>
-      <c r="JK84" s="72"/>
-      <c r="JL84" s="72"/>
-      <c r="JM84" s="72"/>
-      <c r="JN84" s="72"/>
-      <c r="JO84" s="72"/>
-      <c r="JP84" s="72"/>
-      <c r="JQ84" s="72"/>
-      <c r="JR84" s="72"/>
-      <c r="JS84" s="72"/>
-      <c r="JT84" s="72"/>
-      <c r="JU84" s="72"/>
-      <c r="JV84" s="72"/>
-      <c r="JW84" s="72"/>
-      <c r="JX84" s="72"/>
-      <c r="JY84" s="72"/>
-      <c r="JZ84" s="72"/>
-      <c r="KA84" s="72"/>
-      <c r="KB84" s="72"/>
-      <c r="KC84" s="72"/>
-      <c r="KD84" s="72"/>
-      <c r="KE84" s="72"/>
-      <c r="KF84" s="72"/>
-      <c r="KG84" s="72"/>
-      <c r="KH84" s="72"/>
-      <c r="KI84" s="72"/>
-      <c r="KJ84" s="72"/>
-      <c r="KK84" s="72"/>
-      <c r="KL84" s="72"/>
-      <c r="KM84" s="72"/>
-      <c r="KN84" s="72"/>
-      <c r="KO84" s="72"/>
-      <c r="KP84" s="72"/>
-      <c r="KQ84" s="72"/>
-      <c r="KR84" s="72"/>
-      <c r="KS84" s="72"/>
-      <c r="KT84" s="72"/>
-      <c r="KU84" s="72"/>
-      <c r="KV84" s="72"/>
-      <c r="KW84" s="72"/>
-      <c r="KX84" s="72"/>
-      <c r="KY84" s="72"/>
-      <c r="KZ84" s="72"/>
-      <c r="LA84" s="72"/>
-      <c r="LB84" s="72"/>
-      <c r="LC84" s="72"/>
-      <c r="LD84" s="72"/>
-      <c r="LE84" s="72"/>
-      <c r="LF84" s="72"/>
-      <c r="LG84" s="72"/>
-      <c r="LH84" s="72"/>
-      <c r="LI84" s="72"/>
-      <c r="LJ84" s="72"/>
-      <c r="LK84" s="72"/>
-      <c r="LL84" s="72"/>
-      <c r="LM84" s="72"/>
-      <c r="LN84" s="72"/>
-      <c r="LO84" s="72"/>
-      <c r="LP84" s="72"/>
-      <c r="LQ84" s="72"/>
-      <c r="LR84" s="72"/>
-      <c r="LS84" s="72"/>
-      <c r="LT84" s="72"/>
-      <c r="LU84" s="72"/>
-      <c r="LV84" s="72"/>
-      <c r="LW84" s="72"/>
-      <c r="LX84" s="72"/>
-      <c r="LY84" s="72"/>
-      <c r="LZ84" s="72"/>
-      <c r="MA84" s="72"/>
-      <c r="MB84" s="72"/>
-      <c r="MC84" s="72"/>
-      <c r="MD84" s="72"/>
-      <c r="ME84" s="72"/>
-      <c r="MF84" s="72"/>
-      <c r="MG84" s="72"/>
-      <c r="MH84" s="72"/>
-      <c r="MI84" s="72"/>
-      <c r="MJ84" s="72"/>
-      <c r="MK84" s="72"/>
-      <c r="ML84" s="72"/>
-      <c r="MM84" s="72"/>
-      <c r="MN84" s="72"/>
-      <c r="MO84" s="72"/>
-      <c r="MP84" s="72"/>
-      <c r="MQ84" s="72"/>
-      <c r="MR84" s="72"/>
-      <c r="MS84" s="72"/>
-      <c r="MT84" s="72"/>
-      <c r="MU84" s="72"/>
-      <c r="MV84" s="72"/>
-      <c r="MW84" s="72"/>
-      <c r="MX84" s="72"/>
-      <c r="MY84" s="72"/>
-      <c r="MZ84" s="72"/>
-      <c r="NA84" s="72"/>
-      <c r="NB84" s="72"/>
-      <c r="NC84" s="72"/>
-      <c r="ND84" s="72"/>
-      <c r="NE84" s="72"/>
-      <c r="NF84" s="72"/>
-      <c r="NG84" s="72"/>
-      <c r="NH84" s="72"/>
-      <c r="NI84" s="72"/>
-      <c r="NJ84" s="72"/>
-      <c r="NK84" s="72"/>
-      <c r="NL84" s="72"/>
-      <c r="NM84" s="72"/>
-      <c r="NN84" s="72"/>
-      <c r="NO84" s="72"/>
-      <c r="NP84" s="72"/>
-      <c r="NQ84" s="72"/>
-      <c r="NR84" s="72"/>
-      <c r="NS84" s="72"/>
-      <c r="NT84" s="72"/>
-      <c r="NU84" s="72"/>
-      <c r="NV84" s="72"/>
-      <c r="NW84" s="72"/>
-      <c r="NX84" s="72"/>
-      <c r="NY84" s="72"/>
-      <c r="NZ84" s="72"/>
-      <c r="OA84" s="72"/>
-      <c r="OB84" s="72"/>
-      <c r="OC84" s="72"/>
-      <c r="OD84" s="72"/>
-      <c r="OE84" s="72"/>
-      <c r="OF84" s="72"/>
-      <c r="OG84" s="72"/>
-      <c r="OH84" s="72"/>
-      <c r="OI84" s="72"/>
-      <c r="OJ84" s="72"/>
-      <c r="OK84" s="72"/>
-      <c r="OL84" s="72"/>
-      <c r="OM84" s="72"/>
-      <c r="ON84" s="72"/>
-      <c r="OO84" s="72"/>
-      <c r="OP84" s="72"/>
-      <c r="OQ84" s="72"/>
-      <c r="OR84" s="72"/>
-      <c r="OS84" s="72"/>
-      <c r="OT84" s="72"/>
-      <c r="OU84" s="72"/>
-      <c r="OV84" s="72"/>
-      <c r="OW84" s="72"/>
-      <c r="OX84" s="72"/>
-      <c r="OY84" s="72"/>
-      <c r="OZ84" s="72"/>
-      <c r="PA84" s="72"/>
-      <c r="PB84" s="72"/>
-      <c r="PC84" s="72"/>
-      <c r="PD84" s="72"/>
-      <c r="PE84" s="72"/>
-      <c r="PF84" s="72"/>
-      <c r="PG84" s="72"/>
-      <c r="PH84" s="72"/>
-      <c r="PI84" s="72"/>
-      <c r="PJ84" s="72"/>
-      <c r="PK84" s="72"/>
-      <c r="PL84" s="72"/>
-      <c r="PM84" s="72"/>
-      <c r="PN84" s="72"/>
-      <c r="PO84" s="72"/>
-      <c r="PP84" s="72"/>
-      <c r="PQ84" s="72"/>
-      <c r="PR84" s="72"/>
-      <c r="PS84" s="72"/>
-      <c r="PT84" s="72"/>
-      <c r="PU84" s="72"/>
-      <c r="PV84" s="72"/>
-      <c r="PW84" s="72"/>
-      <c r="PX84" s="72"/>
-      <c r="PY84" s="72"/>
-      <c r="PZ84" s="72"/>
-      <c r="QA84" s="72"/>
-      <c r="QB84" s="72"/>
-      <c r="QC84" s="72"/>
-      <c r="QD84" s="72"/>
-      <c r="QE84" s="72"/>
-      <c r="QF84" s="72"/>
-      <c r="QG84" s="72"/>
-      <c r="QH84" s="72"/>
-      <c r="QI84" s="72"/>
-      <c r="QJ84" s="72"/>
-      <c r="QK84" s="72"/>
-      <c r="QL84" s="72"/>
-      <c r="QM84" s="72"/>
-      <c r="QN84" s="72"/>
-      <c r="QO84" s="72"/>
-      <c r="QP84" s="72"/>
-      <c r="QQ84" s="72"/>
-      <c r="QR84" s="72"/>
-      <c r="QS84" s="72"/>
-      <c r="QT84" s="72"/>
-      <c r="QU84" s="72"/>
-      <c r="QV84" s="72"/>
-      <c r="QW84" s="72"/>
-      <c r="QX84" s="72"/>
-      <c r="QY84" s="72"/>
-      <c r="QZ84" s="72"/>
-      <c r="RA84" s="72"/>
-      <c r="RB84" s="72"/>
-      <c r="RC84" s="72"/>
-      <c r="RD84" s="72"/>
-      <c r="RE84" s="72"/>
-      <c r="RF84" s="72"/>
-      <c r="RG84" s="72"/>
-      <c r="RH84" s="72"/>
-      <c r="RI84" s="72"/>
-      <c r="RJ84" s="72"/>
-      <c r="RK84" s="72"/>
-      <c r="RL84" s="72"/>
-      <c r="RM84" s="72"/>
-      <c r="RN84" s="72"/>
-      <c r="RO84" s="72"/>
-      <c r="RP84" s="72"/>
-      <c r="RQ84" s="72"/>
-      <c r="RR84" s="72"/>
-      <c r="RS84" s="72"/>
-      <c r="RT84" s="72"/>
-      <c r="RU84" s="72"/>
-      <c r="RV84" s="72"/>
-      <c r="RW84" s="72"/>
-      <c r="RX84" s="72"/>
-      <c r="RY84" s="72"/>
-      <c r="RZ84" s="72"/>
-      <c r="SA84" s="72"/>
-      <c r="SB84" s="72"/>
-      <c r="SC84" s="72"/>
-      <c r="SD84" s="72"/>
-      <c r="SE84" s="72"/>
-      <c r="SF84" s="72"/>
-      <c r="SG84" s="72"/>
-      <c r="SH84" s="72"/>
-      <c r="SI84" s="72"/>
-      <c r="SJ84" s="72"/>
-      <c r="SK84" s="72"/>
-      <c r="SL84" s="72"/>
-      <c r="SM84" s="72"/>
-      <c r="SN84" s="72"/>
-      <c r="SO84" s="72"/>
-      <c r="SP84" s="72"/>
-      <c r="SQ84" s="72"/>
-      <c r="SR84" s="72"/>
-      <c r="SS84" s="72"/>
-      <c r="ST84" s="72"/>
-      <c r="SU84" s="72"/>
-      <c r="SV84" s="72"/>
-      <c r="SW84" s="72"/>
-      <c r="SX84" s="72"/>
-      <c r="SY84" s="72"/>
-      <c r="SZ84" s="72"/>
-      <c r="TA84" s="72"/>
-      <c r="TB84" s="72"/>
-      <c r="TC84" s="72"/>
-      <c r="TD84" s="72"/>
-      <c r="TE84" s="72"/>
-      <c r="TF84" s="72"/>
-      <c r="TG84" s="72"/>
-      <c r="TH84" s="72"/>
-      <c r="TI84" s="72"/>
-      <c r="TJ84" s="72"/>
-      <c r="TK84" s="72"/>
-      <c r="TL84" s="72"/>
-      <c r="TM84" s="72"/>
-      <c r="TN84" s="72"/>
-      <c r="TO84" s="72"/>
-      <c r="TP84" s="72"/>
-      <c r="TQ84" s="72"/>
-      <c r="TR84" s="72"/>
-      <c r="TS84" s="72"/>
-      <c r="TT84" s="72"/>
-      <c r="TU84" s="72"/>
-      <c r="TV84" s="72"/>
-      <c r="TW84" s="72"/>
-      <c r="TX84" s="72"/>
-      <c r="TY84" s="72"/>
-      <c r="TZ84" s="72"/>
-      <c r="UA84" s="72"/>
-      <c r="UB84" s="72"/>
-      <c r="UC84" s="72"/>
-      <c r="UD84" s="72"/>
-      <c r="UE84" s="72"/>
-      <c r="UF84" s="72"/>
-      <c r="UG84" s="72"/>
-      <c r="UH84" s="72"/>
-      <c r="UI84" s="72"/>
-      <c r="UJ84" s="72"/>
-      <c r="UK84" s="72"/>
-      <c r="UL84" s="72"/>
-      <c r="UM84" s="72"/>
-      <c r="UN84" s="72"/>
-      <c r="UO84" s="72"/>
-      <c r="UP84" s="72"/>
-      <c r="UQ84" s="72"/>
-      <c r="UR84" s="72"/>
-      <c r="US84" s="72"/>
-      <c r="UT84" s="72"/>
-      <c r="UU84" s="72"/>
-      <c r="UV84" s="72"/>
-      <c r="UW84" s="72"/>
-      <c r="UX84" s="72"/>
-      <c r="UY84" s="72"/>
-      <c r="UZ84" s="72"/>
-      <c r="VA84" s="72"/>
-      <c r="VB84" s="72"/>
-      <c r="VC84" s="72"/>
-      <c r="VD84" s="72"/>
-      <c r="VE84" s="72"/>
-      <c r="VF84" s="72"/>
-      <c r="VG84" s="72"/>
-      <c r="VH84" s="72"/>
-      <c r="VI84" s="72"/>
-      <c r="VJ84" s="72"/>
-      <c r="VK84" s="72"/>
-      <c r="VL84" s="72"/>
-      <c r="VM84" s="72"/>
-      <c r="VN84" s="72"/>
-      <c r="VO84" s="72"/>
-      <c r="VP84" s="72"/>
-      <c r="VQ84" s="72"/>
-      <c r="VR84" s="72"/>
-      <c r="VS84" s="72"/>
-      <c r="VT84" s="72"/>
-      <c r="VU84" s="72"/>
-      <c r="VV84" s="72"/>
-      <c r="VW84" s="72"/>
-      <c r="VX84" s="72"/>
-      <c r="VY84" s="72"/>
-      <c r="VZ84" s="72"/>
-      <c r="WA84" s="72"/>
-      <c r="WB84" s="72"/>
-      <c r="WC84" s="72"/>
-      <c r="WD84" s="72"/>
-      <c r="WE84" s="72"/>
-      <c r="WF84" s="72"/>
-      <c r="WG84" s="72"/>
-      <c r="WH84" s="72"/>
-      <c r="WI84" s="72"/>
-      <c r="WJ84" s="72"/>
-      <c r="WK84" s="72"/>
-      <c r="WL84" s="72"/>
-      <c r="WM84" s="72"/>
-      <c r="WN84" s="72"/>
-      <c r="WO84" s="72"/>
-      <c r="WP84" s="72"/>
-      <c r="WQ84" s="72"/>
-      <c r="WR84" s="72"/>
-      <c r="WS84" s="72"/>
-      <c r="WT84" s="72"/>
-      <c r="WU84" s="72"/>
-      <c r="WV84" s="72"/>
-      <c r="WW84" s="72"/>
-      <c r="WX84" s="72"/>
-      <c r="WY84" s="72"/>
-      <c r="WZ84" s="72"/>
-      <c r="XA84" s="72"/>
-      <c r="XB84" s="72"/>
-      <c r="XC84" s="72"/>
-      <c r="XD84" s="72"/>
-      <c r="XE84" s="72"/>
-      <c r="XF84" s="72"/>
-      <c r="XG84" s="72"/>
-      <c r="XH84" s="72"/>
-      <c r="XI84" s="72"/>
-      <c r="XJ84" s="72"/>
-      <c r="XK84" s="72"/>
-      <c r="XL84" s="72"/>
-      <c r="XM84" s="72"/>
-      <c r="XN84" s="72"/>
-      <c r="XO84" s="72"/>
-      <c r="XP84" s="72"/>
-      <c r="XQ84" s="72"/>
-      <c r="XR84" s="72"/>
-      <c r="XS84" s="72"/>
-      <c r="XT84" s="72"/>
-      <c r="XU84" s="72"/>
-      <c r="XV84" s="72"/>
-      <c r="XW84" s="72"/>
-      <c r="XX84" s="72"/>
-      <c r="XY84" s="72"/>
-      <c r="XZ84" s="72"/>
-      <c r="YA84" s="72"/>
-      <c r="YB84" s="72"/>
-      <c r="YC84" s="72"/>
-      <c r="YD84" s="72"/>
-      <c r="YE84" s="72"/>
-      <c r="YF84" s="72"/>
-      <c r="YG84" s="72"/>
-      <c r="YH84" s="72"/>
-      <c r="YI84" s="72"/>
-      <c r="YJ84" s="72"/>
-      <c r="YK84" s="72"/>
-      <c r="YL84" s="72"/>
-      <c r="YM84" s="72"/>
-      <c r="YN84" s="72"/>
-      <c r="YO84" s="72"/>
-      <c r="YP84" s="72"/>
-      <c r="YQ84" s="72"/>
-      <c r="YR84" s="72"/>
-      <c r="YS84" s="72"/>
-      <c r="YT84" s="72"/>
-      <c r="YU84" s="72"/>
-      <c r="YV84" s="72"/>
-      <c r="YW84" s="72"/>
-      <c r="YX84" s="72"/>
-      <c r="YY84" s="72"/>
-      <c r="YZ84" s="72"/>
-      <c r="ZA84" s="72"/>
-      <c r="ZB84" s="72"/>
-      <c r="ZC84" s="72"/>
-      <c r="ZD84" s="72"/>
-      <c r="ZE84" s="72"/>
-      <c r="ZF84" s="72"/>
-      <c r="ZG84" s="72"/>
-      <c r="ZH84" s="72"/>
-      <c r="ZI84" s="72"/>
-      <c r="ZJ84" s="72"/>
-      <c r="ZK84" s="72"/>
-      <c r="ZL84" s="72"/>
-      <c r="ZM84" s="72"/>
-      <c r="ZN84" s="72"/>
-      <c r="ZO84" s="72"/>
-      <c r="ZP84" s="72"/>
-      <c r="ZQ84" s="72"/>
-      <c r="ZR84" s="72"/>
-      <c r="ZS84" s="72"/>
-      <c r="ZT84" s="72"/>
-      <c r="ZU84" s="72"/>
-      <c r="ZV84" s="72"/>
-      <c r="ZW84" s="72"/>
-      <c r="ZX84" s="72"/>
-      <c r="ZY84" s="72"/>
-      <c r="ZZ84" s="72"/>
-      <c r="AAA84" s="72"/>
-      <c r="AAB84" s="72"/>
-      <c r="AAC84" s="72"/>
-      <c r="AAD84" s="72"/>
-      <c r="AAE84" s="72"/>
-      <c r="AAF84" s="72"/>
-      <c r="AAG84" s="72"/>
-      <c r="AAH84" s="72"/>
-      <c r="AAI84" s="72"/>
-      <c r="AAJ84" s="72"/>
-      <c r="AAK84" s="72"/>
-      <c r="AAL84" s="72"/>
-      <c r="AAM84" s="72"/>
-      <c r="AAN84" s="72"/>
-      <c r="AAO84" s="72"/>
-      <c r="AAP84" s="72"/>
-      <c r="AAQ84" s="72"/>
-      <c r="AAR84" s="72"/>
-      <c r="AAS84" s="72"/>
-      <c r="AAT84" s="72"/>
-      <c r="AAU84" s="72"/>
-      <c r="AAV84" s="72"/>
-      <c r="AAW84" s="72"/>
-      <c r="AAX84" s="72"/>
-      <c r="AAY84" s="72"/>
-      <c r="AAZ84" s="72"/>
-      <c r="ABA84" s="72"/>
-      <c r="ABB84" s="72"/>
-      <c r="ABC84" s="72"/>
-      <c r="ABD84" s="72"/>
-      <c r="ABE84" s="72"/>
-      <c r="ABF84" s="72"/>
-      <c r="ABG84" s="72"/>
-      <c r="ABH84" s="72"/>
-      <c r="ABI84" s="72"/>
-      <c r="ABJ84" s="72"/>
-      <c r="ABK84" s="72"/>
-      <c r="ABL84" s="72"/>
-      <c r="ABM84" s="72"/>
-      <c r="ABN84" s="72"/>
-      <c r="ABO84" s="72"/>
-      <c r="ABP84" s="72"/>
-      <c r="ABQ84" s="72"/>
-      <c r="ABR84" s="72"/>
-      <c r="ABS84" s="72"/>
-      <c r="ABT84" s="72"/>
-      <c r="ABU84" s="72"/>
-      <c r="ABV84" s="72"/>
-      <c r="ABW84" s="72"/>
-      <c r="ABX84" s="72"/>
-      <c r="ABY84" s="72"/>
-      <c r="ABZ84" s="72"/>
-      <c r="ACA84" s="72"/>
-      <c r="ACB84" s="72"/>
-      <c r="ACC84" s="72"/>
-      <c r="ACD84" s="72"/>
-      <c r="ACE84" s="72"/>
-      <c r="ACF84" s="72"/>
-      <c r="ACG84" s="72"/>
-      <c r="ACH84" s="72"/>
-      <c r="ACI84" s="72"/>
-      <c r="ACJ84" s="72"/>
-      <c r="ACK84" s="72"/>
-      <c r="ACL84" s="72"/>
-      <c r="ACM84" s="72"/>
-      <c r="ACN84" s="72"/>
-      <c r="ACO84" s="72"/>
-      <c r="ACP84" s="72"/>
-      <c r="ACQ84" s="72"/>
-      <c r="ACR84" s="72"/>
-      <c r="ACS84" s="72"/>
-      <c r="ACT84" s="72"/>
-      <c r="ACU84" s="72"/>
-      <c r="ACV84" s="72"/>
-      <c r="ACW84" s="72"/>
-      <c r="ACX84" s="72"/>
-      <c r="ACY84" s="72"/>
-      <c r="ACZ84" s="72"/>
-      <c r="ADA84" s="72"/>
-      <c r="ADB84" s="72"/>
-      <c r="ADC84" s="72"/>
-      <c r="ADD84" s="72"/>
-      <c r="ADE84" s="72"/>
-      <c r="ADF84" s="72"/>
-      <c r="ADG84" s="72"/>
-      <c r="ADH84" s="72"/>
-      <c r="ADI84" s="72"/>
-      <c r="ADJ84" s="72"/>
-      <c r="ADK84" s="72"/>
-      <c r="ADL84" s="72"/>
-      <c r="ADM84" s="72"/>
-      <c r="ADN84" s="72"/>
-      <c r="ADO84" s="72"/>
-      <c r="ADP84" s="72"/>
-      <c r="ADQ84" s="72"/>
-      <c r="ADR84" s="72"/>
-      <c r="ADS84" s="72"/>
-      <c r="ADT84" s="72"/>
-      <c r="ADU84" s="72"/>
-      <c r="ADV84" s="72"/>
-      <c r="ADW84" s="72"/>
-      <c r="ADX84" s="72"/>
-      <c r="ADY84" s="72"/>
-      <c r="ADZ84" s="72"/>
-      <c r="AEA84" s="72"/>
-      <c r="AEB84" s="72"/>
-      <c r="AEC84" s="72"/>
-      <c r="AED84" s="72"/>
-      <c r="AEE84" s="72"/>
-      <c r="AEF84" s="72"/>
-      <c r="AEG84" s="72"/>
-      <c r="AEH84" s="72"/>
-      <c r="AEI84" s="72"/>
-      <c r="AEJ84" s="72"/>
-      <c r="AEK84" s="72"/>
-      <c r="AEL84" s="72"/>
-      <c r="AEM84" s="72"/>
-      <c r="AEN84" s="72"/>
-      <c r="AEO84" s="72"/>
-      <c r="AEP84" s="72"/>
-      <c r="AEQ84" s="72"/>
-      <c r="AER84" s="72"/>
-      <c r="AES84" s="72"/>
-      <c r="AET84" s="72"/>
-      <c r="AEU84" s="72"/>
-      <c r="AEV84" s="72"/>
-      <c r="AEW84" s="72"/>
-      <c r="AEX84" s="72"/>
-      <c r="AEY84" s="72"/>
-      <c r="AEZ84" s="72"/>
-      <c r="AFA84" s="72"/>
-      <c r="AFB84" s="72"/>
-      <c r="AFC84" s="72"/>
-      <c r="AFD84" s="72"/>
-      <c r="AFE84" s="72"/>
-      <c r="AFF84" s="72"/>
-      <c r="AFG84" s="72"/>
-      <c r="AFH84" s="72"/>
-      <c r="AFI84" s="72"/>
-      <c r="AFJ84" s="72"/>
-      <c r="AFK84" s="72"/>
-      <c r="AFL84" s="72"/>
-      <c r="AFM84" s="72"/>
-      <c r="AFN84" s="72"/>
-      <c r="AFO84" s="72"/>
-      <c r="AFP84" s="72"/>
-      <c r="AFQ84" s="72"/>
-      <c r="AFR84" s="72"/>
-      <c r="AFS84" s="72"/>
-      <c r="AFT84" s="72"/>
-      <c r="AFU84" s="72"/>
-      <c r="AFV84" s="72"/>
-      <c r="AFW84" s="72"/>
-      <c r="AFX84" s="72"/>
-      <c r="AFY84" s="72"/>
-      <c r="AFZ84" s="72"/>
-      <c r="AGA84" s="72"/>
-      <c r="AGB84" s="72"/>
-      <c r="AGC84" s="72"/>
-      <c r="AGD84" s="72"/>
-      <c r="AGE84" s="72"/>
-      <c r="AGF84" s="72"/>
-      <c r="AGG84" s="72"/>
-      <c r="AGH84" s="72"/>
-      <c r="AGI84" s="72"/>
-      <c r="AGJ84" s="72"/>
-      <c r="AGK84" s="72"/>
-      <c r="AGL84" s="72"/>
-      <c r="AGM84" s="72"/>
-      <c r="AGN84" s="72"/>
-      <c r="AGO84" s="72"/>
-      <c r="AGP84" s="72"/>
-      <c r="AGQ84" s="72"/>
-      <c r="AGR84" s="72"/>
-      <c r="AGS84" s="72"/>
-      <c r="AGT84" s="72"/>
-      <c r="AGU84" s="72"/>
-      <c r="AGV84" s="72"/>
-      <c r="AGW84" s="72"/>
-      <c r="AGX84" s="72"/>
-      <c r="AGY84" s="72"/>
-      <c r="AGZ84" s="72"/>
-      <c r="AHA84" s="72"/>
-      <c r="AHB84" s="72"/>
-      <c r="AHC84" s="72"/>
-      <c r="AHD84" s="72"/>
-      <c r="AHE84" s="72"/>
-      <c r="AHF84" s="72"/>
-      <c r="AHG84" s="72"/>
-      <c r="AHH84" s="72"/>
-      <c r="AHI84" s="72"/>
-      <c r="AHJ84" s="72"/>
-      <c r="AHK84" s="72"/>
-      <c r="AHL84" s="72"/>
-      <c r="AHM84" s="72"/>
-      <c r="AHN84" s="72"/>
-      <c r="AHO84" s="72"/>
-      <c r="AHP84" s="72"/>
-      <c r="AHQ84" s="72"/>
-      <c r="AHR84" s="72"/>
-      <c r="AHS84" s="72"/>
-      <c r="AHT84" s="72"/>
-      <c r="AHU84" s="72"/>
-      <c r="AHV84" s="72"/>
-      <c r="AHW84" s="72"/>
-      <c r="AHX84" s="72"/>
-      <c r="AHY84" s="72"/>
-      <c r="AHZ84" s="72"/>
-      <c r="AIA84" s="72"/>
-      <c r="AIB84" s="72"/>
-      <c r="AIC84" s="72"/>
-      <c r="AID84" s="72"/>
-      <c r="AIE84" s="72"/>
-      <c r="AIF84" s="72"/>
-      <c r="AIG84" s="72"/>
-      <c r="AIH84" s="72"/>
-      <c r="AII84" s="72"/>
-      <c r="AIJ84" s="72"/>
-      <c r="AIK84" s="72"/>
-      <c r="AIL84" s="72"/>
-      <c r="AIM84" s="72"/>
-      <c r="AIN84" s="72"/>
-      <c r="AIO84" s="72"/>
-      <c r="AIP84" s="72"/>
-      <c r="AIQ84" s="72"/>
-      <c r="AIR84" s="72"/>
-      <c r="AIS84" s="72"/>
-      <c r="AIT84" s="72"/>
-      <c r="AIU84" s="72"/>
-      <c r="AIV84" s="72"/>
-      <c r="AIW84" s="72"/>
-      <c r="AIX84" s="72"/>
-      <c r="AIY84" s="72"/>
-      <c r="AIZ84" s="72"/>
-      <c r="AJA84" s="72"/>
-      <c r="AJB84" s="72"/>
-      <c r="AJC84" s="72"/>
-      <c r="AJD84" s="72"/>
-      <c r="AJE84" s="72"/>
-      <c r="AJF84" s="72"/>
-      <c r="AJG84" s="72"/>
-      <c r="AJH84" s="72"/>
-      <c r="AJI84" s="72"/>
-      <c r="AJJ84" s="72"/>
-      <c r="AJK84" s="72"/>
-      <c r="AJL84" s="72"/>
-      <c r="AJM84" s="72"/>
-      <c r="AJN84" s="72"/>
-      <c r="AJO84" s="72"/>
-      <c r="AJP84" s="72"/>
-      <c r="AJQ84" s="72"/>
-      <c r="AJR84" s="72"/>
-      <c r="AJS84" s="72"/>
-      <c r="AJT84" s="72"/>
-      <c r="AJU84" s="72"/>
-      <c r="AJV84" s="72"/>
-      <c r="AJW84" s="72"/>
-      <c r="AJX84" s="72"/>
-      <c r="AJY84" s="72"/>
-      <c r="AJZ84" s="72"/>
-      <c r="AKA84" s="72"/>
-      <c r="AKB84" s="72"/>
-      <c r="AKC84" s="72"/>
-      <c r="AKD84" s="72"/>
-      <c r="AKE84" s="72"/>
-      <c r="AKF84" s="72"/>
-      <c r="AKG84" s="72"/>
-      <c r="AKH84" s="72"/>
-      <c r="AKI84" s="72"/>
-      <c r="AKJ84" s="72"/>
-      <c r="AKK84" s="72"/>
-      <c r="AKL84" s="72"/>
-      <c r="AKM84" s="72"/>
-      <c r="AKN84" s="72"/>
-      <c r="AKO84" s="72"/>
-      <c r="AKP84" s="72"/>
-      <c r="AKQ84" s="72"/>
-      <c r="AKR84" s="72"/>
-      <c r="AKS84" s="72"/>
-      <c r="AKT84" s="72"/>
-      <c r="AKU84" s="72"/>
-      <c r="AKV84" s="72"/>
-      <c r="AKW84" s="72"/>
-      <c r="AKX84" s="72"/>
-      <c r="AKY84" s="72"/>
-      <c r="AKZ84" s="72"/>
-      <c r="ALA84" s="72"/>
-      <c r="ALB84" s="72"/>
-      <c r="ALC84" s="72"/>
-      <c r="ALD84" s="72"/>
-      <c r="ALE84" s="72"/>
-      <c r="ALF84" s="72"/>
-      <c r="ALG84" s="72"/>
-      <c r="ALH84" s="72"/>
-      <c r="ALI84" s="72"/>
-      <c r="ALJ84" s="72"/>
-      <c r="ALK84" s="72"/>
-      <c r="ALL84" s="72"/>
-      <c r="ALM84" s="72"/>
-      <c r="ALN84" s="72"/>
-      <c r="ALO84" s="72"/>
-      <c r="ALP84" s="72"/>
-      <c r="ALQ84" s="72"/>
-      <c r="ALR84" s="72"/>
-      <c r="ALS84" s="72"/>
-      <c r="ALT84" s="72"/>
-      <c r="ALU84" s="72"/>
-      <c r="ALV84" s="72"/>
-      <c r="ALW84" s="72"/>
-      <c r="ALX84" s="72"/>
-      <c r="ALY84" s="72"/>
-      <c r="ALZ84" s="72"/>
-      <c r="AMA84" s="72"/>
-      <c r="AMB84" s="72"/>
-      <c r="AMC84" s="72"/>
-      <c r="AMD84" s="72"/>
-      <c r="AME84" s="72"/>
-      <c r="AMF84" s="72"/>
-      <c r="AMG84" s="72"/>
-      <c r="AMH84" s="72"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="75"/>
+      <c r="K84" s="75"/>
+      <c r="L84" s="75"/>
+      <c r="M84" s="75"/>
+      <c r="N84" s="75"/>
+      <c r="O84" s="75"/>
+      <c r="P84" s="75"/>
+      <c r="Q84" s="75"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="75"/>
+      <c r="T84" s="75"/>
+      <c r="U84" s="75"/>
+      <c r="V84" s="75"/>
+      <c r="W84" s="75"/>
+      <c r="X84" s="75"/>
+      <c r="Y84" s="75"/>
+      <c r="Z84" s="75"/>
+      <c r="AA84" s="75"/>
+      <c r="AB84" s="75"/>
+      <c r="AC84" s="75"/>
+      <c r="AD84" s="75"/>
+      <c r="AE84" s="75"/>
+      <c r="AF84" s="75"/>
+      <c r="AG84" s="75"/>
+      <c r="AH84" s="75"/>
+      <c r="AI84" s="75"/>
+      <c r="AJ84" s="75"/>
+      <c r="AK84" s="75"/>
+      <c r="AL84" s="75"/>
+      <c r="AM84" s="75"/>
+      <c r="AN84" s="75"/>
+      <c r="AO84" s="75"/>
+      <c r="AP84" s="75"/>
+      <c r="AQ84" s="75"/>
+      <c r="AR84" s="75"/>
+      <c r="AS84" s="75"/>
+      <c r="AT84" s="75"/>
+      <c r="AU84" s="75"/>
+      <c r="AV84" s="75"/>
+      <c r="AW84" s="75"/>
+      <c r="AX84" s="75"/>
+      <c r="AY84" s="75"/>
+      <c r="AZ84" s="75"/>
+      <c r="BA84" s="75"/>
+      <c r="BB84" s="75"/>
+      <c r="BC84" s="75"/>
+      <c r="BD84" s="75"/>
+      <c r="BE84" s="75"/>
+      <c r="BF84" s="75"/>
+      <c r="BG84" s="75"/>
+      <c r="BH84" s="75"/>
+      <c r="BI84" s="75"/>
+      <c r="BJ84" s="75"/>
+      <c r="BK84" s="75"/>
+      <c r="BL84" s="75"/>
+      <c r="BM84" s="75"/>
+      <c r="BN84" s="75"/>
+      <c r="BO84" s="75"/>
+      <c r="BP84" s="75"/>
+      <c r="BQ84" s="75"/>
+      <c r="BR84" s="75"/>
+      <c r="BS84" s="75"/>
+      <c r="BT84" s="75"/>
+      <c r="BU84" s="75"/>
+      <c r="BV84" s="75"/>
+      <c r="BW84" s="75"/>
+      <c r="BX84" s="75"/>
+      <c r="BY84" s="75"/>
+      <c r="BZ84" s="75"/>
+      <c r="CA84" s="75"/>
+      <c r="CB84" s="75"/>
+      <c r="CC84" s="75"/>
+      <c r="CD84" s="75"/>
+      <c r="CE84" s="75"/>
+      <c r="CF84" s="75"/>
+      <c r="CG84" s="75"/>
+      <c r="CH84" s="75"/>
+      <c r="CI84" s="75"/>
+      <c r="CJ84" s="75"/>
+      <c r="CK84" s="75"/>
+      <c r="CL84" s="75"/>
+      <c r="CM84" s="75"/>
+      <c r="CN84" s="75"/>
+      <c r="CO84" s="75"/>
+      <c r="CP84" s="75"/>
+      <c r="CQ84" s="75"/>
+      <c r="CR84" s="75"/>
+      <c r="CS84" s="75"/>
+      <c r="CT84" s="75"/>
+      <c r="CU84" s="75"/>
+      <c r="CV84" s="75"/>
+      <c r="CW84" s="75"/>
+      <c r="CX84" s="75"/>
+      <c r="CY84" s="75"/>
+      <c r="CZ84" s="75"/>
+      <c r="DA84" s="75"/>
+      <c r="DB84" s="75"/>
+      <c r="DC84" s="75"/>
+      <c r="DD84" s="75"/>
+      <c r="DE84" s="75"/>
+      <c r="DF84" s="75"/>
+      <c r="DG84" s="75"/>
+      <c r="DH84" s="75"/>
+      <c r="DI84" s="75"/>
+      <c r="DJ84" s="75"/>
+      <c r="DK84" s="75"/>
+      <c r="DL84" s="75"/>
+      <c r="DM84" s="75"/>
+      <c r="DN84" s="75"/>
+      <c r="DO84" s="75"/>
+      <c r="DP84" s="75"/>
+      <c r="DQ84" s="75"/>
+      <c r="DR84" s="75"/>
+      <c r="DS84" s="75"/>
+      <c r="DT84" s="75"/>
+      <c r="DU84" s="75"/>
+      <c r="DV84" s="75"/>
+      <c r="DW84" s="75"/>
+      <c r="DX84" s="75"/>
+      <c r="DY84" s="75"/>
+      <c r="DZ84" s="75"/>
+      <c r="EA84" s="75"/>
+      <c r="EB84" s="75"/>
+      <c r="EC84" s="75"/>
+      <c r="ED84" s="75"/>
+      <c r="EE84" s="75"/>
+      <c r="EF84" s="75"/>
+      <c r="EG84" s="75"/>
+      <c r="EH84" s="75"/>
+      <c r="EI84" s="75"/>
+      <c r="EJ84" s="75"/>
+      <c r="EK84" s="75"/>
+      <c r="EL84" s="75"/>
+      <c r="EM84" s="75"/>
+      <c r="EN84" s="75"/>
+      <c r="EO84" s="75"/>
+      <c r="EP84" s="75"/>
+      <c r="EQ84" s="75"/>
+      <c r="ER84" s="75"/>
+      <c r="ES84" s="75"/>
+      <c r="ET84" s="75"/>
+      <c r="EU84" s="75"/>
+      <c r="EV84" s="75"/>
+      <c r="EW84" s="75"/>
+      <c r="EX84" s="75"/>
+      <c r="EY84" s="75"/>
+      <c r="EZ84" s="75"/>
+      <c r="FA84" s="75"/>
+      <c r="FB84" s="75"/>
+      <c r="FC84" s="75"/>
+      <c r="FD84" s="75"/>
+      <c r="FE84" s="75"/>
+      <c r="FF84" s="75"/>
+      <c r="FG84" s="75"/>
+      <c r="FH84" s="75"/>
+      <c r="FI84" s="75"/>
+      <c r="FJ84" s="75"/>
+      <c r="FK84" s="75"/>
+      <c r="FL84" s="75"/>
+      <c r="FM84" s="75"/>
+      <c r="FN84" s="75"/>
+      <c r="FO84" s="75"/>
+      <c r="FP84" s="75"/>
+      <c r="FQ84" s="75"/>
+      <c r="FR84" s="75"/>
+      <c r="FS84" s="75"/>
+      <c r="FT84" s="75"/>
+      <c r="FU84" s="75"/>
+      <c r="FV84" s="75"/>
+      <c r="FW84" s="75"/>
+      <c r="FX84" s="75"/>
+      <c r="FY84" s="75"/>
+      <c r="FZ84" s="75"/>
+      <c r="GA84" s="75"/>
+      <c r="GB84" s="75"/>
+      <c r="GC84" s="75"/>
+      <c r="GD84" s="75"/>
+      <c r="GE84" s="75"/>
+      <c r="GF84" s="75"/>
+      <c r="GG84" s="75"/>
+      <c r="GH84" s="75"/>
+      <c r="GI84" s="75"/>
+      <c r="GJ84" s="75"/>
+      <c r="GK84" s="75"/>
+      <c r="GL84" s="75"/>
+      <c r="GM84" s="75"/>
+      <c r="GN84" s="75"/>
+      <c r="GO84" s="75"/>
+      <c r="GP84" s="75"/>
+      <c r="GQ84" s="75"/>
+      <c r="GR84" s="75"/>
+      <c r="GS84" s="75"/>
+      <c r="GT84" s="75"/>
+      <c r="GU84" s="75"/>
+      <c r="GV84" s="75"/>
+      <c r="GW84" s="75"/>
+      <c r="GX84" s="75"/>
+      <c r="GY84" s="75"/>
+      <c r="GZ84" s="75"/>
+      <c r="HA84" s="75"/>
+      <c r="HB84" s="75"/>
+      <c r="HC84" s="75"/>
+      <c r="HD84" s="75"/>
+      <c r="HE84" s="75"/>
+      <c r="HF84" s="75"/>
+      <c r="HG84" s="75"/>
+      <c r="HH84" s="75"/>
+      <c r="HI84" s="75"/>
+      <c r="HJ84" s="75"/>
+      <c r="HK84" s="75"/>
+      <c r="HL84" s="75"/>
+      <c r="HM84" s="75"/>
+      <c r="HN84" s="75"/>
+      <c r="HO84" s="75"/>
+      <c r="HP84" s="75"/>
+      <c r="HQ84" s="75"/>
+      <c r="HR84" s="75"/>
+      <c r="HS84" s="75"/>
+      <c r="HT84" s="75"/>
+      <c r="HU84" s="75"/>
+      <c r="HV84" s="75"/>
+      <c r="HW84" s="75"/>
+      <c r="HX84" s="75"/>
+      <c r="HY84" s="75"/>
+      <c r="HZ84" s="75"/>
+      <c r="IA84" s="75"/>
+      <c r="IB84" s="75"/>
+      <c r="IC84" s="75"/>
+      <c r="ID84" s="75"/>
+      <c r="IE84" s="75"/>
+      <c r="IF84" s="75"/>
+      <c r="IG84" s="75"/>
+      <c r="IH84" s="75"/>
+      <c r="II84" s="75"/>
+      <c r="IJ84" s="75"/>
+      <c r="IK84" s="75"/>
+      <c r="IL84" s="75"/>
+      <c r="IM84" s="75"/>
+      <c r="IN84" s="75"/>
+      <c r="IO84" s="75"/>
+      <c r="IP84" s="75"/>
+      <c r="IQ84" s="75"/>
+      <c r="IR84" s="75"/>
+      <c r="IS84" s="75"/>
+      <c r="IT84" s="75"/>
+      <c r="IU84" s="75"/>
+      <c r="IV84" s="75"/>
+      <c r="IW84" s="75"/>
+      <c r="IX84" s="75"/>
+      <c r="IY84" s="75"/>
+      <c r="IZ84" s="75"/>
+      <c r="JA84" s="75"/>
+      <c r="JB84" s="75"/>
+      <c r="JC84" s="75"/>
+      <c r="JD84" s="75"/>
+      <c r="JE84" s="75"/>
+      <c r="JF84" s="75"/>
+      <c r="JG84" s="75"/>
+      <c r="JH84" s="75"/>
+      <c r="JI84" s="75"/>
+      <c r="JJ84" s="75"/>
+      <c r="JK84" s="75"/>
+      <c r="JL84" s="75"/>
+      <c r="JM84" s="75"/>
+      <c r="JN84" s="75"/>
+      <c r="JO84" s="75"/>
+      <c r="JP84" s="75"/>
+      <c r="JQ84" s="75"/>
+      <c r="JR84" s="75"/>
+      <c r="JS84" s="75"/>
+      <c r="JT84" s="75"/>
+      <c r="JU84" s="75"/>
+      <c r="JV84" s="75"/>
+      <c r="JW84" s="75"/>
+      <c r="JX84" s="75"/>
+      <c r="JY84" s="75"/>
+      <c r="JZ84" s="75"/>
+      <c r="KA84" s="75"/>
+      <c r="KB84" s="75"/>
+      <c r="KC84" s="75"/>
+      <c r="KD84" s="75"/>
+      <c r="KE84" s="75"/>
+      <c r="KF84" s="75"/>
+      <c r="KG84" s="75"/>
+      <c r="KH84" s="75"/>
+      <c r="KI84" s="75"/>
+      <c r="KJ84" s="75"/>
+      <c r="KK84" s="75"/>
+      <c r="KL84" s="75"/>
+      <c r="KM84" s="75"/>
+      <c r="KN84" s="75"/>
+      <c r="KO84" s="75"/>
+      <c r="KP84" s="75"/>
+      <c r="KQ84" s="75"/>
+      <c r="KR84" s="75"/>
+      <c r="KS84" s="75"/>
+      <c r="KT84" s="75"/>
+      <c r="KU84" s="75"/>
+      <c r="KV84" s="75"/>
+      <c r="KW84" s="75"/>
+      <c r="KX84" s="75"/>
+      <c r="KY84" s="75"/>
+      <c r="KZ84" s="75"/>
+      <c r="LA84" s="75"/>
+      <c r="LB84" s="75"/>
+      <c r="LC84" s="75"/>
+      <c r="LD84" s="75"/>
+      <c r="LE84" s="75"/>
+      <c r="LF84" s="75"/>
+      <c r="LG84" s="75"/>
+      <c r="LH84" s="75"/>
+      <c r="LI84" s="75"/>
+      <c r="LJ84" s="75"/>
+      <c r="LK84" s="75"/>
+      <c r="LL84" s="75"/>
+      <c r="LM84" s="75"/>
+      <c r="LN84" s="75"/>
+      <c r="LO84" s="75"/>
+      <c r="LP84" s="75"/>
+      <c r="LQ84" s="75"/>
+      <c r="LR84" s="75"/>
+      <c r="LS84" s="75"/>
+      <c r="LT84" s="75"/>
+      <c r="LU84" s="75"/>
+      <c r="LV84" s="75"/>
+      <c r="LW84" s="75"/>
+      <c r="LX84" s="75"/>
+      <c r="LY84" s="75"/>
+      <c r="LZ84" s="75"/>
+      <c r="MA84" s="75"/>
+      <c r="MB84" s="75"/>
+      <c r="MC84" s="75"/>
+      <c r="MD84" s="75"/>
+      <c r="ME84" s="75"/>
+      <c r="MF84" s="75"/>
+      <c r="MG84" s="75"/>
+      <c r="MH84" s="75"/>
+      <c r="MI84" s="75"/>
+      <c r="MJ84" s="75"/>
+      <c r="MK84" s="75"/>
+      <c r="ML84" s="75"/>
+      <c r="MM84" s="75"/>
+      <c r="MN84" s="75"/>
+      <c r="MO84" s="75"/>
+      <c r="MP84" s="75"/>
+      <c r="MQ84" s="75"/>
+      <c r="MR84" s="75"/>
+      <c r="MS84" s="75"/>
+      <c r="MT84" s="75"/>
+      <c r="MU84" s="75"/>
+      <c r="MV84" s="75"/>
+      <c r="MW84" s="75"/>
+      <c r="MX84" s="75"/>
+      <c r="MY84" s="75"/>
+      <c r="MZ84" s="75"/>
+      <c r="NA84" s="75"/>
+      <c r="NB84" s="75"/>
+      <c r="NC84" s="75"/>
+      <c r="ND84" s="75"/>
+      <c r="NE84" s="75"/>
+      <c r="NF84" s="75"/>
+      <c r="NG84" s="75"/>
+      <c r="NH84" s="75"/>
+      <c r="NI84" s="75"/>
+      <c r="NJ84" s="75"/>
+      <c r="NK84" s="75"/>
+      <c r="NL84" s="75"/>
+      <c r="NM84" s="75"/>
+      <c r="NN84" s="75"/>
+      <c r="NO84" s="75"/>
+      <c r="NP84" s="75"/>
+      <c r="NQ84" s="75"/>
+      <c r="NR84" s="75"/>
+      <c r="NS84" s="75"/>
+      <c r="NT84" s="75"/>
+      <c r="NU84" s="75"/>
+      <c r="NV84" s="75"/>
+      <c r="NW84" s="75"/>
+      <c r="NX84" s="75"/>
+      <c r="NY84" s="75"/>
+      <c r="NZ84" s="75"/>
+      <c r="OA84" s="75"/>
+      <c r="OB84" s="75"/>
+      <c r="OC84" s="75"/>
+      <c r="OD84" s="75"/>
+      <c r="OE84" s="75"/>
+      <c r="OF84" s="75"/>
+      <c r="OG84" s="75"/>
+      <c r="OH84" s="75"/>
+      <c r="OI84" s="75"/>
+      <c r="OJ84" s="75"/>
+      <c r="OK84" s="75"/>
+      <c r="OL84" s="75"/>
+      <c r="OM84" s="75"/>
+      <c r="ON84" s="75"/>
+      <c r="OO84" s="75"/>
+      <c r="OP84" s="75"/>
+      <c r="OQ84" s="75"/>
+      <c r="OR84" s="75"/>
+      <c r="OS84" s="75"/>
+      <c r="OT84" s="75"/>
+      <c r="OU84" s="75"/>
+      <c r="OV84" s="75"/>
+      <c r="OW84" s="75"/>
+      <c r="OX84" s="75"/>
+      <c r="OY84" s="75"/>
+      <c r="OZ84" s="75"/>
+      <c r="PA84" s="75"/>
+      <c r="PB84" s="75"/>
+      <c r="PC84" s="75"/>
+      <c r="PD84" s="75"/>
+      <c r="PE84" s="75"/>
+      <c r="PF84" s="75"/>
+      <c r="PG84" s="75"/>
+      <c r="PH84" s="75"/>
+      <c r="PI84" s="75"/>
+      <c r="PJ84" s="75"/>
+      <c r="PK84" s="75"/>
+      <c r="PL84" s="75"/>
+      <c r="PM84" s="75"/>
+      <c r="PN84" s="75"/>
+      <c r="PO84" s="75"/>
+      <c r="PP84" s="75"/>
+      <c r="PQ84" s="75"/>
+      <c r="PR84" s="75"/>
+      <c r="PS84" s="75"/>
+      <c r="PT84" s="75"/>
+      <c r="PU84" s="75"/>
+      <c r="PV84" s="75"/>
+      <c r="PW84" s="75"/>
+      <c r="PX84" s="75"/>
+      <c r="PY84" s="75"/>
+      <c r="PZ84" s="75"/>
+      <c r="QA84" s="75"/>
+      <c r="QB84" s="75"/>
+      <c r="QC84" s="75"/>
+      <c r="QD84" s="75"/>
+      <c r="QE84" s="75"/>
+      <c r="QF84" s="75"/>
+      <c r="QG84" s="75"/>
+      <c r="QH84" s="75"/>
+      <c r="QI84" s="75"/>
+      <c r="QJ84" s="75"/>
+      <c r="QK84" s="75"/>
+      <c r="QL84" s="75"/>
+      <c r="QM84" s="75"/>
+      <c r="QN84" s="75"/>
+      <c r="QO84" s="75"/>
+      <c r="QP84" s="75"/>
+      <c r="QQ84" s="75"/>
+      <c r="QR84" s="75"/>
+      <c r="QS84" s="75"/>
+      <c r="QT84" s="75"/>
+      <c r="QU84" s="75"/>
+      <c r="QV84" s="75"/>
+      <c r="QW84" s="75"/>
+      <c r="QX84" s="75"/>
+      <c r="QY84" s="75"/>
+      <c r="QZ84" s="75"/>
+      <c r="RA84" s="75"/>
+      <c r="RB84" s="75"/>
+      <c r="RC84" s="75"/>
+      <c r="RD84" s="75"/>
+      <c r="RE84" s="75"/>
+      <c r="RF84" s="75"/>
+      <c r="RG84" s="75"/>
+      <c r="RH84" s="75"/>
+      <c r="RI84" s="75"/>
+      <c r="RJ84" s="75"/>
+      <c r="RK84" s="75"/>
+      <c r="RL84" s="75"/>
+      <c r="RM84" s="75"/>
+      <c r="RN84" s="75"/>
+      <c r="RO84" s="75"/>
+      <c r="RP84" s="75"/>
+      <c r="RQ84" s="75"/>
+      <c r="RR84" s="75"/>
+      <c r="RS84" s="75"/>
+      <c r="RT84" s="75"/>
+      <c r="RU84" s="75"/>
+      <c r="RV84" s="75"/>
+      <c r="RW84" s="75"/>
+      <c r="RX84" s="75"/>
+      <c r="RY84" s="75"/>
+      <c r="RZ84" s="75"/>
+      <c r="SA84" s="75"/>
+      <c r="SB84" s="75"/>
+      <c r="SC84" s="75"/>
+      <c r="SD84" s="75"/>
+      <c r="SE84" s="75"/>
+      <c r="SF84" s="75"/>
+      <c r="SG84" s="75"/>
+      <c r="SH84" s="75"/>
+      <c r="SI84" s="75"/>
+      <c r="SJ84" s="75"/>
+      <c r="SK84" s="75"/>
+      <c r="SL84" s="75"/>
+      <c r="SM84" s="75"/>
+      <c r="SN84" s="75"/>
+      <c r="SO84" s="75"/>
+      <c r="SP84" s="75"/>
+      <c r="SQ84" s="75"/>
+      <c r="SR84" s="75"/>
+      <c r="SS84" s="75"/>
+      <c r="ST84" s="75"/>
+      <c r="SU84" s="75"/>
+      <c r="SV84" s="75"/>
+      <c r="SW84" s="75"/>
+      <c r="SX84" s="75"/>
+      <c r="SY84" s="75"/>
+      <c r="SZ84" s="75"/>
+      <c r="TA84" s="75"/>
+      <c r="TB84" s="75"/>
+      <c r="TC84" s="75"/>
+      <c r="TD84" s="75"/>
+      <c r="TE84" s="75"/>
+      <c r="TF84" s="75"/>
+      <c r="TG84" s="75"/>
+      <c r="TH84" s="75"/>
+      <c r="TI84" s="75"/>
+      <c r="TJ84" s="75"/>
+      <c r="TK84" s="75"/>
+      <c r="TL84" s="75"/>
+      <c r="TM84" s="75"/>
+      <c r="TN84" s="75"/>
+      <c r="TO84" s="75"/>
+      <c r="TP84" s="75"/>
+      <c r="TQ84" s="75"/>
+      <c r="TR84" s="75"/>
+      <c r="TS84" s="75"/>
+      <c r="TT84" s="75"/>
+      <c r="TU84" s="75"/>
+      <c r="TV84" s="75"/>
+      <c r="TW84" s="75"/>
+      <c r="TX84" s="75"/>
+      <c r="TY84" s="75"/>
+      <c r="TZ84" s="75"/>
+      <c r="UA84" s="75"/>
+      <c r="UB84" s="75"/>
+      <c r="UC84" s="75"/>
+      <c r="UD84" s="75"/>
+      <c r="UE84" s="75"/>
+      <c r="UF84" s="75"/>
+      <c r="UG84" s="75"/>
+      <c r="UH84" s="75"/>
+      <c r="UI84" s="75"/>
+      <c r="UJ84" s="75"/>
+      <c r="UK84" s="75"/>
+      <c r="UL84" s="75"/>
+      <c r="UM84" s="75"/>
+      <c r="UN84" s="75"/>
+      <c r="UO84" s="75"/>
+      <c r="UP84" s="75"/>
+      <c r="UQ84" s="75"/>
+      <c r="UR84" s="75"/>
+      <c r="US84" s="75"/>
+      <c r="UT84" s="75"/>
+      <c r="UU84" s="75"/>
+      <c r="UV84" s="75"/>
+      <c r="UW84" s="75"/>
+      <c r="UX84" s="75"/>
+      <c r="UY84" s="75"/>
+      <c r="UZ84" s="75"/>
+      <c r="VA84" s="75"/>
+      <c r="VB84" s="75"/>
+      <c r="VC84" s="75"/>
+      <c r="VD84" s="75"/>
+      <c r="VE84" s="75"/>
+      <c r="VF84" s="75"/>
+      <c r="VG84" s="75"/>
+      <c r="VH84" s="75"/>
+      <c r="VI84" s="75"/>
+      <c r="VJ84" s="75"/>
+      <c r="VK84" s="75"/>
+      <c r="VL84" s="75"/>
+      <c r="VM84" s="75"/>
+      <c r="VN84" s="75"/>
+      <c r="VO84" s="75"/>
+      <c r="VP84" s="75"/>
+      <c r="VQ84" s="75"/>
+      <c r="VR84" s="75"/>
+      <c r="VS84" s="75"/>
+      <c r="VT84" s="75"/>
+      <c r="VU84" s="75"/>
+      <c r="VV84" s="75"/>
+      <c r="VW84" s="75"/>
+      <c r="VX84" s="75"/>
+      <c r="VY84" s="75"/>
+      <c r="VZ84" s="75"/>
+      <c r="WA84" s="75"/>
+      <c r="WB84" s="75"/>
+      <c r="WC84" s="75"/>
+      <c r="WD84" s="75"/>
+      <c r="WE84" s="75"/>
+      <c r="WF84" s="75"/>
+      <c r="WG84" s="75"/>
+      <c r="WH84" s="75"/>
+      <c r="WI84" s="75"/>
+      <c r="WJ84" s="75"/>
+      <c r="WK84" s="75"/>
+      <c r="WL84" s="75"/>
+      <c r="WM84" s="75"/>
+      <c r="WN84" s="75"/>
+      <c r="WO84" s="75"/>
+      <c r="WP84" s="75"/>
+      <c r="WQ84" s="75"/>
+      <c r="WR84" s="75"/>
+      <c r="WS84" s="75"/>
+      <c r="WT84" s="75"/>
+      <c r="WU84" s="75"/>
+      <c r="WV84" s="75"/>
+      <c r="WW84" s="75"/>
+      <c r="WX84" s="75"/>
+      <c r="WY84" s="75"/>
+      <c r="WZ84" s="75"/>
+      <c r="XA84" s="75"/>
+      <c r="XB84" s="75"/>
+      <c r="XC84" s="75"/>
+      <c r="XD84" s="75"/>
+      <c r="XE84" s="75"/>
+      <c r="XF84" s="75"/>
+      <c r="XG84" s="75"/>
+      <c r="XH84" s="75"/>
+      <c r="XI84" s="75"/>
+      <c r="XJ84" s="75"/>
+      <c r="XK84" s="75"/>
+      <c r="XL84" s="75"/>
+      <c r="XM84" s="75"/>
+      <c r="XN84" s="75"/>
+      <c r="XO84" s="75"/>
+      <c r="XP84" s="75"/>
+      <c r="XQ84" s="75"/>
+      <c r="XR84" s="75"/>
+      <c r="XS84" s="75"/>
+      <c r="XT84" s="75"/>
+      <c r="XU84" s="75"/>
+      <c r="XV84" s="75"/>
+      <c r="XW84" s="75"/>
+      <c r="XX84" s="75"/>
+      <c r="XY84" s="75"/>
+      <c r="XZ84" s="75"/>
+      <c r="YA84" s="75"/>
+      <c r="YB84" s="75"/>
+      <c r="YC84" s="75"/>
+      <c r="YD84" s="75"/>
+      <c r="YE84" s="75"/>
+      <c r="YF84" s="75"/>
+      <c r="YG84" s="75"/>
+      <c r="YH84" s="75"/>
+      <c r="YI84" s="75"/>
+      <c r="YJ84" s="75"/>
+      <c r="YK84" s="75"/>
+      <c r="YL84" s="75"/>
+      <c r="YM84" s="75"/>
+      <c r="YN84" s="75"/>
+      <c r="YO84" s="75"/>
+      <c r="YP84" s="75"/>
+      <c r="YQ84" s="75"/>
+      <c r="YR84" s="75"/>
+      <c r="YS84" s="75"/>
+      <c r="YT84" s="75"/>
+      <c r="YU84" s="75"/>
+      <c r="YV84" s="75"/>
+      <c r="YW84" s="75"/>
+      <c r="YX84" s="75"/>
+      <c r="YY84" s="75"/>
+      <c r="YZ84" s="75"/>
+      <c r="ZA84" s="75"/>
+      <c r="ZB84" s="75"/>
+      <c r="ZC84" s="75"/>
+      <c r="ZD84" s="75"/>
+      <c r="ZE84" s="75"/>
+      <c r="ZF84" s="75"/>
+      <c r="ZG84" s="75"/>
+      <c r="ZH84" s="75"/>
+      <c r="ZI84" s="75"/>
+      <c r="ZJ84" s="75"/>
+      <c r="ZK84" s="75"/>
+      <c r="ZL84" s="75"/>
+      <c r="ZM84" s="75"/>
+      <c r="ZN84" s="75"/>
+      <c r="ZO84" s="75"/>
+      <c r="ZP84" s="75"/>
+      <c r="ZQ84" s="75"/>
+      <c r="ZR84" s="75"/>
+      <c r="ZS84" s="75"/>
+      <c r="ZT84" s="75"/>
+      <c r="ZU84" s="75"/>
+      <c r="ZV84" s="75"/>
+      <c r="ZW84" s="75"/>
+      <c r="ZX84" s="75"/>
+      <c r="ZY84" s="75"/>
+      <c r="ZZ84" s="75"/>
+      <c r="AAA84" s="75"/>
+      <c r="AAB84" s="75"/>
+      <c r="AAC84" s="75"/>
+      <c r="AAD84" s="75"/>
+      <c r="AAE84" s="75"/>
+      <c r="AAF84" s="75"/>
+      <c r="AAG84" s="75"/>
+      <c r="AAH84" s="75"/>
+      <c r="AAI84" s="75"/>
+      <c r="AAJ84" s="75"/>
+      <c r="AAK84" s="75"/>
+      <c r="AAL84" s="75"/>
+      <c r="AAM84" s="75"/>
+      <c r="AAN84" s="75"/>
+      <c r="AAO84" s="75"/>
+      <c r="AAP84" s="75"/>
+      <c r="AAQ84" s="75"/>
+      <c r="AAR84" s="75"/>
+      <c r="AAS84" s="75"/>
+      <c r="AAT84" s="75"/>
+      <c r="AAU84" s="75"/>
+      <c r="AAV84" s="75"/>
+      <c r="AAW84" s="75"/>
+      <c r="AAX84" s="75"/>
+      <c r="AAY84" s="75"/>
+      <c r="AAZ84" s="75"/>
+      <c r="ABA84" s="75"/>
+      <c r="ABB84" s="75"/>
+      <c r="ABC84" s="75"/>
+      <c r="ABD84" s="75"/>
+      <c r="ABE84" s="75"/>
+      <c r="ABF84" s="75"/>
+      <c r="ABG84" s="75"/>
+      <c r="ABH84" s="75"/>
+      <c r="ABI84" s="75"/>
+      <c r="ABJ84" s="75"/>
+      <c r="ABK84" s="75"/>
+      <c r="ABL84" s="75"/>
+      <c r="ABM84" s="75"/>
+      <c r="ABN84" s="75"/>
+      <c r="ABO84" s="75"/>
+      <c r="ABP84" s="75"/>
+      <c r="ABQ84" s="75"/>
+      <c r="ABR84" s="75"/>
+      <c r="ABS84" s="75"/>
+      <c r="ABT84" s="75"/>
+      <c r="ABU84" s="75"/>
+      <c r="ABV84" s="75"/>
+      <c r="ABW84" s="75"/>
+      <c r="ABX84" s="75"/>
+      <c r="ABY84" s="75"/>
+      <c r="ABZ84" s="75"/>
+      <c r="ACA84" s="75"/>
+      <c r="ACB84" s="75"/>
+      <c r="ACC84" s="75"/>
+      <c r="ACD84" s="75"/>
+      <c r="ACE84" s="75"/>
+      <c r="ACF84" s="75"/>
+      <c r="ACG84" s="75"/>
+      <c r="ACH84" s="75"/>
+      <c r="ACI84" s="75"/>
+      <c r="ACJ84" s="75"/>
+      <c r="ACK84" s="75"/>
+      <c r="ACL84" s="75"/>
+      <c r="ACM84" s="75"/>
+      <c r="ACN84" s="75"/>
+      <c r="ACO84" s="75"/>
+      <c r="ACP84" s="75"/>
+      <c r="ACQ84" s="75"/>
+      <c r="ACR84" s="75"/>
+      <c r="ACS84" s="75"/>
+      <c r="ACT84" s="75"/>
+      <c r="ACU84" s="75"/>
+      <c r="ACV84" s="75"/>
+      <c r="ACW84" s="75"/>
+      <c r="ACX84" s="75"/>
+      <c r="ACY84" s="75"/>
+      <c r="ACZ84" s="75"/>
+      <c r="ADA84" s="75"/>
+      <c r="ADB84" s="75"/>
+      <c r="ADC84" s="75"/>
+      <c r="ADD84" s="75"/>
+      <c r="ADE84" s="75"/>
+      <c r="ADF84" s="75"/>
+      <c r="ADG84" s="75"/>
+      <c r="ADH84" s="75"/>
+      <c r="ADI84" s="75"/>
+      <c r="ADJ84" s="75"/>
+      <c r="ADK84" s="75"/>
+      <c r="ADL84" s="75"/>
+      <c r="ADM84" s="75"/>
+      <c r="ADN84" s="75"/>
+      <c r="ADO84" s="75"/>
+      <c r="ADP84" s="75"/>
+      <c r="ADQ84" s="75"/>
+      <c r="ADR84" s="75"/>
+      <c r="ADS84" s="75"/>
+      <c r="ADT84" s="75"/>
+      <c r="ADU84" s="75"/>
+      <c r="ADV84" s="75"/>
+      <c r="ADW84" s="75"/>
+      <c r="ADX84" s="75"/>
+      <c r="ADY84" s="75"/>
+      <c r="ADZ84" s="75"/>
+      <c r="AEA84" s="75"/>
+      <c r="AEB84" s="75"/>
+      <c r="AEC84" s="75"/>
+      <c r="AED84" s="75"/>
+      <c r="AEE84" s="75"/>
+      <c r="AEF84" s="75"/>
+      <c r="AEG84" s="75"/>
+      <c r="AEH84" s="75"/>
+      <c r="AEI84" s="75"/>
+      <c r="AEJ84" s="75"/>
+      <c r="AEK84" s="75"/>
+      <c r="AEL84" s="75"/>
+      <c r="AEM84" s="75"/>
+      <c r="AEN84" s="75"/>
+      <c r="AEO84" s="75"/>
+      <c r="AEP84" s="75"/>
+      <c r="AEQ84" s="75"/>
+      <c r="AER84" s="75"/>
+      <c r="AES84" s="75"/>
+      <c r="AET84" s="75"/>
+      <c r="AEU84" s="75"/>
+      <c r="AEV84" s="75"/>
+      <c r="AEW84" s="75"/>
+      <c r="AEX84" s="75"/>
+      <c r="AEY84" s="75"/>
+      <c r="AEZ84" s="75"/>
+      <c r="AFA84" s="75"/>
+      <c r="AFB84" s="75"/>
+      <c r="AFC84" s="75"/>
+      <c r="AFD84" s="75"/>
+      <c r="AFE84" s="75"/>
+      <c r="AFF84" s="75"/>
+      <c r="AFG84" s="75"/>
+      <c r="AFH84" s="75"/>
+      <c r="AFI84" s="75"/>
+      <c r="AFJ84" s="75"/>
+      <c r="AFK84" s="75"/>
+      <c r="AFL84" s="75"/>
+      <c r="AFM84" s="75"/>
+      <c r="AFN84" s="75"/>
+      <c r="AFO84" s="75"/>
+      <c r="AFP84" s="75"/>
+      <c r="AFQ84" s="75"/>
+      <c r="AFR84" s="75"/>
+      <c r="AFS84" s="75"/>
+      <c r="AFT84" s="75"/>
+      <c r="AFU84" s="75"/>
+      <c r="AFV84" s="75"/>
+      <c r="AFW84" s="75"/>
+      <c r="AFX84" s="75"/>
+      <c r="AFY84" s="75"/>
+      <c r="AFZ84" s="75"/>
+      <c r="AGA84" s="75"/>
+      <c r="AGB84" s="75"/>
+      <c r="AGC84" s="75"/>
+      <c r="AGD84" s="75"/>
+      <c r="AGE84" s="75"/>
+      <c r="AGF84" s="75"/>
+      <c r="AGG84" s="75"/>
+      <c r="AGH84" s="75"/>
+      <c r="AGI84" s="75"/>
+      <c r="AGJ84" s="75"/>
+      <c r="AGK84" s="75"/>
+      <c r="AGL84" s="75"/>
+      <c r="AGM84" s="75"/>
+      <c r="AGN84" s="75"/>
+      <c r="AGO84" s="75"/>
+      <c r="AGP84" s="75"/>
+      <c r="AGQ84" s="75"/>
+      <c r="AGR84" s="75"/>
+      <c r="AGS84" s="75"/>
+      <c r="AGT84" s="75"/>
+      <c r="AGU84" s="75"/>
+      <c r="AGV84" s="75"/>
+      <c r="AGW84" s="75"/>
+      <c r="AGX84" s="75"/>
+      <c r="AGY84" s="75"/>
+      <c r="AGZ84" s="75"/>
+      <c r="AHA84" s="75"/>
+      <c r="AHB84" s="75"/>
+      <c r="AHC84" s="75"/>
+      <c r="AHD84" s="75"/>
+      <c r="AHE84" s="75"/>
+      <c r="AHF84" s="75"/>
+      <c r="AHG84" s="75"/>
+      <c r="AHH84" s="75"/>
+      <c r="AHI84" s="75"/>
+      <c r="AHJ84" s="75"/>
+      <c r="AHK84" s="75"/>
+      <c r="AHL84" s="75"/>
+      <c r="AHM84" s="75"/>
+      <c r="AHN84" s="75"/>
+      <c r="AHO84" s="75"/>
+      <c r="AHP84" s="75"/>
+      <c r="AHQ84" s="75"/>
+      <c r="AHR84" s="75"/>
+      <c r="AHS84" s="75"/>
+      <c r="AHT84" s="75"/>
+      <c r="AHU84" s="75"/>
+      <c r="AHV84" s="75"/>
+      <c r="AHW84" s="75"/>
+      <c r="AHX84" s="75"/>
+      <c r="AHY84" s="75"/>
+      <c r="AHZ84" s="75"/>
+      <c r="AIA84" s="75"/>
+      <c r="AIB84" s="75"/>
+      <c r="AIC84" s="75"/>
+      <c r="AID84" s="75"/>
+      <c r="AIE84" s="75"/>
+      <c r="AIF84" s="75"/>
+      <c r="AIG84" s="75"/>
+      <c r="AIH84" s="75"/>
+      <c r="AII84" s="75"/>
+      <c r="AIJ84" s="75"/>
+      <c r="AIK84" s="75"/>
+      <c r="AIL84" s="75"/>
+      <c r="AIM84" s="75"/>
+      <c r="AIN84" s="75"/>
+      <c r="AIO84" s="75"/>
+      <c r="AIP84" s="75"/>
+      <c r="AIQ84" s="75"/>
+      <c r="AIR84" s="75"/>
+      <c r="AIS84" s="75"/>
+      <c r="AIT84" s="75"/>
+      <c r="AIU84" s="75"/>
+      <c r="AIV84" s="75"/>
+      <c r="AIW84" s="75"/>
+      <c r="AIX84" s="75"/>
+      <c r="AIY84" s="75"/>
+      <c r="AIZ84" s="75"/>
+      <c r="AJA84" s="75"/>
+      <c r="AJB84" s="75"/>
+      <c r="AJC84" s="75"/>
+      <c r="AJD84" s="75"/>
+      <c r="AJE84" s="75"/>
+      <c r="AJF84" s="75"/>
+      <c r="AJG84" s="75"/>
+      <c r="AJH84" s="75"/>
+      <c r="AJI84" s="75"/>
+      <c r="AJJ84" s="75"/>
+      <c r="AJK84" s="75"/>
+      <c r="AJL84" s="75"/>
+      <c r="AJM84" s="75"/>
+      <c r="AJN84" s="75"/>
+      <c r="AJO84" s="75"/>
+      <c r="AJP84" s="75"/>
+      <c r="AJQ84" s="75"/>
+      <c r="AJR84" s="75"/>
+      <c r="AJS84" s="75"/>
+      <c r="AJT84" s="75"/>
+      <c r="AJU84" s="75"/>
+      <c r="AJV84" s="75"/>
+      <c r="AJW84" s="75"/>
+      <c r="AJX84" s="75"/>
+      <c r="AJY84" s="75"/>
+      <c r="AJZ84" s="75"/>
+      <c r="AKA84" s="75"/>
+      <c r="AKB84" s="75"/>
+      <c r="AKC84" s="75"/>
+      <c r="AKD84" s="75"/>
+      <c r="AKE84" s="75"/>
+      <c r="AKF84" s="75"/>
+      <c r="AKG84" s="75"/>
+      <c r="AKH84" s="75"/>
+      <c r="AKI84" s="75"/>
+      <c r="AKJ84" s="75"/>
+      <c r="AKK84" s="75"/>
+      <c r="AKL84" s="75"/>
+      <c r="AKM84" s="75"/>
+      <c r="AKN84" s="75"/>
+      <c r="AKO84" s="75"/>
+      <c r="AKP84" s="75"/>
+      <c r="AKQ84" s="75"/>
+      <c r="AKR84" s="75"/>
+      <c r="AKS84" s="75"/>
+      <c r="AKT84" s="75"/>
+      <c r="AKU84" s="75"/>
+      <c r="AKV84" s="75"/>
+      <c r="AKW84" s="75"/>
+      <c r="AKX84" s="75"/>
+      <c r="AKY84" s="75"/>
+      <c r="AKZ84" s="75"/>
+      <c r="ALA84" s="75"/>
+      <c r="ALB84" s="75"/>
+      <c r="ALC84" s="75"/>
+      <c r="ALD84" s="75"/>
+      <c r="ALE84" s="75"/>
+      <c r="ALF84" s="75"/>
+      <c r="ALG84" s="75"/>
+      <c r="ALH84" s="75"/>
+      <c r="ALI84" s="75"/>
+      <c r="ALJ84" s="75"/>
+      <c r="ALK84" s="75"/>
+      <c r="ALL84" s="75"/>
+      <c r="ALM84" s="75"/>
+      <c r="ALN84" s="75"/>
+      <c r="ALO84" s="75"/>
+      <c r="ALP84" s="75"/>
+      <c r="ALQ84" s="75"/>
+      <c r="ALR84" s="75"/>
+      <c r="ALS84" s="75"/>
+      <c r="ALT84" s="75"/>
+      <c r="ALU84" s="75"/>
+      <c r="ALV84" s="75"/>
+      <c r="ALW84" s="75"/>
+      <c r="ALX84" s="75"/>
+      <c r="ALY84" s="75"/>
+      <c r="ALZ84" s="75"/>
+      <c r="AMA84" s="75"/>
+      <c r="AMB84" s="75"/>
+      <c r="AMC84" s="75"/>
+      <c r="AMD84" s="75"/>
+      <c r="AME84" s="75"/>
+      <c r="AMF84" s="75"/>
+      <c r="AMG84" s="75"/>
+      <c r="AMH84" s="75"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -20669,7 +20749,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="74" t="s">
+      <c r="A88" s="77" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -23834,10 +23914,10 @@
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="69"/>
+      <c r="E97" s="72"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="75" t="s">
+      <c r="A98" s="78" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -23849,7 +23929,7 @@
       <c r="D98" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="E98" s="67">
+      <c r="E98" s="70">
         <v>0.9686</v>
       </c>
     </row>
@@ -23866,7 +23946,7 @@
       <c r="D99" s="10">
         <v>0.9671612</v>
       </c>
-      <c r="E99" s="69">
+      <c r="E99" s="72">
         <v>0.9687</v>
       </c>
     </row>
@@ -23883,7 +23963,7 @@
       <c r="D100" s="10">
         <v>0.9673732</v>
       </c>
-      <c r="E100" s="69">
+      <c r="E100" s="72">
         <v>0.9686</v>
       </c>
     </row>
@@ -23900,7 +23980,7 @@
       <c r="D101" s="10">
         <v>0.9674291</v>
       </c>
-      <c r="E101" s="69">
+      <c r="E101" s="72">
         <v>0.96939</v>
       </c>
     </row>
@@ -23917,7 +23997,7 @@
       <c r="D102" s="10">
         <v>0.967249</v>
       </c>
-      <c r="E102" s="69"/>
+      <c r="E102" s="72"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
@@ -23932,7 +24012,7 @@
       <c r="D103" s="10">
         <v>0.9673428</v>
       </c>
-      <c r="E103" s="69"/>
+      <c r="E103" s="72"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="19" t="s">
@@ -23967,7 +24047,7 @@
       <c r="D105" s="28">
         <v>0.967788</v>
       </c>
-      <c r="E105" s="69">
+      <c r="E105" s="72">
         <v>0.9683</v>
       </c>
     </row>
@@ -24001,7 +24081,7 @@
       <c r="D107" s="20">
         <v>0.9676965</v>
       </c>
-      <c r="E107" s="66">
+      <c r="E107" s="69">
         <v>0.9689</v>
       </c>
     </row>
@@ -24018,12 +24098,12 @@
       <c r="D108" s="10">
         <v>0.9675807</v>
       </c>
-      <c r="E108" s="66">
+      <c r="E108" s="69">
         <v>0.96939</v>
       </c>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="69"/>
+      <c r="E109" s="72"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
@@ -24038,10 +24118,10 @@
       <c r="D110" s="10">
         <v>0.9673982</v>
       </c>
-      <c r="E110" s="69">
+      <c r="E110" s="72">
         <v>0.9695</v>
       </c>
-      <c r="F110" s="70" t="s">
+      <c r="F110" s="73" t="s">
         <v>170</v>
       </c>
     </row>
@@ -24058,12 +24138,12 @@
       <c r="D111" s="10">
         <v>0.967503</v>
       </c>
-      <c r="E111" s="69">
+      <c r="E111" s="72">
         <v>0.9695</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="63" t="s">
         <v>172</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -24075,7 +24155,7 @@
       <c r="D112" s="10">
         <v>0.9675222</v>
       </c>
-      <c r="E112" s="69">
+      <c r="E112" s="72">
         <v>0.9697</v>
       </c>
     </row>
@@ -24092,15 +24172,15 @@
       <c r="D113" s="10">
         <v>0.9678351</v>
       </c>
-      <c r="E113" s="69">
+      <c r="E113" s="72">
         <v>0.9699</v>
       </c>
-      <c r="F113" s="71" t="s">
+      <c r="F113" s="74" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:5">
-      <c r="A114" s="76" t="s">
+      <c r="A114" s="79" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -24112,12 +24192,12 @@
       <c r="D114" s="10">
         <v>0.9678722</v>
       </c>
-      <c r="E114" s="69">
+      <c r="E114" s="72">
         <v>0.97</v>
       </c>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="69"/>
+      <c r="E115" s="72"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
@@ -24132,72 +24212,100 @@
       <c r="D116" s="10">
         <v>0.9675222</v>
       </c>
-      <c r="E116" s="69">
+      <c r="E116" s="72">
         <v>0.9697</v>
       </c>
     </row>
-    <row r="117" spans="5:5">
-      <c r="E117" s="69"/>
+    <row r="117" spans="1:5">
+      <c r="A117" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" s="10">
+        <v>0.9962769</v>
+      </c>
+      <c r="D117" s="10">
+        <v>0.9675741</v>
+      </c>
+      <c r="E117" s="72">
+        <v>0.9691</v>
+      </c>
     </row>
-    <row r="118" spans="5:5">
-      <c r="E118" s="69"/>
+    <row r="118" ht="21" spans="1:5">
+      <c r="A118" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" s="28">
+        <v>0.9962458</v>
+      </c>
+      <c r="D118" s="28">
+        <v>0.9674325</v>
+      </c>
+      <c r="E118" s="39">
+        <v>0.96979</v>
+      </c>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="69"/>
+      <c r="E119" s="72"/>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="69"/>
+      <c r="E120" s="72"/>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="69"/>
+      <c r="E121" s="72"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="69"/>
+      <c r="E122" s="72"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="69"/>
+      <c r="E123" s="72"/>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="69"/>
+      <c r="E124" s="72"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="69"/>
+      <c r="E125" s="72"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="69"/>
+      <c r="E126" s="72"/>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="69"/>
+      <c r="E127" s="72"/>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="69"/>
+      <c r="E128" s="72"/>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="69"/>
+      <c r="E129" s="72"/>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="69"/>
+      <c r="E130" s="72"/>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="69"/>
+      <c r="E131" s="72"/>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="69"/>
+      <c r="E132" s="72"/>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="69"/>
+      <c r="E133" s="72"/>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="69"/>
+      <c r="E134" s="72"/>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="69"/>
+      <c r="E135" s="72"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="69"/>
+      <c r="E136" s="72"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="69"/>
+      <c r="E137" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <r>
       <rPr>
@@ -1601,6 +1601,83 @@
   <si>
     <t>228</t>
   </si>
+  <si>
+    <r>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2016_2017_first_last_ordertype </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="9" tint="-0.25"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="9" tint="-0.25"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的预测概率为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>规则</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> trick</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="9" tint="-0.25"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1614,7 +1691,7 @@
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1644,6 +1721,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="9" tint="-0.25"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1824,6 +1907,13 @@
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="DejaVu Sans Mono"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2180,142 +2270,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2514,10 +2604,13 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2539,6 +2632,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2874,12 +2970,12 @@
   <dimension ref="A1:AMH137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="39.5666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.65" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.775" style="1"/>
     <col min="3" max="3" width="10.3" style="10" customWidth="1"/>
     <col min="4" max="4" width="9.325" style="10" customWidth="1"/>
@@ -8189,7 +8285,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -18425,7 +18521,7 @@
       <c r="G72" s="35">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="66" t="s">
+      <c r="H72" s="67" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="46"/>
@@ -19465,7 +19561,7 @@
       <c r="G73" s="12">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="67" t="s">
+      <c r="H73" s="68" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19531,7 +19627,7 @@
       <c r="F76" s="20">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="68">
+      <c r="G76" s="69">
         <v>0.9682</v>
       </c>
     </row>
@@ -19554,7 +19650,7 @@
       <c r="F78" s="57">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="69">
+      <c r="G78" s="70">
         <v>0.9678</v>
       </c>
     </row>
@@ -19669,1024 +19765,1024 @@
       <c r="F84" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="G84" s="70">
+      <c r="G84" s="71">
         <v>0.9686</v>
       </c>
-      <c r="H84" s="71"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="75"/>
-      <c r="S84" s="75"/>
-      <c r="T84" s="75"/>
-      <c r="U84" s="75"/>
-      <c r="V84" s="75"/>
-      <c r="W84" s="75"/>
-      <c r="X84" s="75"/>
-      <c r="Y84" s="75"/>
-      <c r="Z84" s="75"/>
-      <c r="AA84" s="75"/>
-      <c r="AB84" s="75"/>
-      <c r="AC84" s="75"/>
-      <c r="AD84" s="75"/>
-      <c r="AE84" s="75"/>
-      <c r="AF84" s="75"/>
-      <c r="AG84" s="75"/>
-      <c r="AH84" s="75"/>
-      <c r="AI84" s="75"/>
-      <c r="AJ84" s="75"/>
-      <c r="AK84" s="75"/>
-      <c r="AL84" s="75"/>
-      <c r="AM84" s="75"/>
-      <c r="AN84" s="75"/>
-      <c r="AO84" s="75"/>
-      <c r="AP84" s="75"/>
-      <c r="AQ84" s="75"/>
-      <c r="AR84" s="75"/>
-      <c r="AS84" s="75"/>
-      <c r="AT84" s="75"/>
-      <c r="AU84" s="75"/>
-      <c r="AV84" s="75"/>
-      <c r="AW84" s="75"/>
-      <c r="AX84" s="75"/>
-      <c r="AY84" s="75"/>
-      <c r="AZ84" s="75"/>
-      <c r="BA84" s="75"/>
-      <c r="BB84" s="75"/>
-      <c r="BC84" s="75"/>
-      <c r="BD84" s="75"/>
-      <c r="BE84" s="75"/>
-      <c r="BF84" s="75"/>
-      <c r="BG84" s="75"/>
-      <c r="BH84" s="75"/>
-      <c r="BI84" s="75"/>
-      <c r="BJ84" s="75"/>
-      <c r="BK84" s="75"/>
-      <c r="BL84" s="75"/>
-      <c r="BM84" s="75"/>
-      <c r="BN84" s="75"/>
-      <c r="BO84" s="75"/>
-      <c r="BP84" s="75"/>
-      <c r="BQ84" s="75"/>
-      <c r="BR84" s="75"/>
-      <c r="BS84" s="75"/>
-      <c r="BT84" s="75"/>
-      <c r="BU84" s="75"/>
-      <c r="BV84" s="75"/>
-      <c r="BW84" s="75"/>
-      <c r="BX84" s="75"/>
-      <c r="BY84" s="75"/>
-      <c r="BZ84" s="75"/>
-      <c r="CA84" s="75"/>
-      <c r="CB84" s="75"/>
-      <c r="CC84" s="75"/>
-      <c r="CD84" s="75"/>
-      <c r="CE84" s="75"/>
-      <c r="CF84" s="75"/>
-      <c r="CG84" s="75"/>
-      <c r="CH84" s="75"/>
-      <c r="CI84" s="75"/>
-      <c r="CJ84" s="75"/>
-      <c r="CK84" s="75"/>
-      <c r="CL84" s="75"/>
-      <c r="CM84" s="75"/>
-      <c r="CN84" s="75"/>
-      <c r="CO84" s="75"/>
-      <c r="CP84" s="75"/>
-      <c r="CQ84" s="75"/>
-      <c r="CR84" s="75"/>
-      <c r="CS84" s="75"/>
-      <c r="CT84" s="75"/>
-      <c r="CU84" s="75"/>
-      <c r="CV84" s="75"/>
-      <c r="CW84" s="75"/>
-      <c r="CX84" s="75"/>
-      <c r="CY84" s="75"/>
-      <c r="CZ84" s="75"/>
-      <c r="DA84" s="75"/>
-      <c r="DB84" s="75"/>
-      <c r="DC84" s="75"/>
-      <c r="DD84" s="75"/>
-      <c r="DE84" s="75"/>
-      <c r="DF84" s="75"/>
-      <c r="DG84" s="75"/>
-      <c r="DH84" s="75"/>
-      <c r="DI84" s="75"/>
-      <c r="DJ84" s="75"/>
-      <c r="DK84" s="75"/>
-      <c r="DL84" s="75"/>
-      <c r="DM84" s="75"/>
-      <c r="DN84" s="75"/>
-      <c r="DO84" s="75"/>
-      <c r="DP84" s="75"/>
-      <c r="DQ84" s="75"/>
-      <c r="DR84" s="75"/>
-      <c r="DS84" s="75"/>
-      <c r="DT84" s="75"/>
-      <c r="DU84" s="75"/>
-      <c r="DV84" s="75"/>
-      <c r="DW84" s="75"/>
-      <c r="DX84" s="75"/>
-      <c r="DY84" s="75"/>
-      <c r="DZ84" s="75"/>
-      <c r="EA84" s="75"/>
-      <c r="EB84" s="75"/>
-      <c r="EC84" s="75"/>
-      <c r="ED84" s="75"/>
-      <c r="EE84" s="75"/>
-      <c r="EF84" s="75"/>
-      <c r="EG84" s="75"/>
-      <c r="EH84" s="75"/>
-      <c r="EI84" s="75"/>
-      <c r="EJ84" s="75"/>
-      <c r="EK84" s="75"/>
-      <c r="EL84" s="75"/>
-      <c r="EM84" s="75"/>
-      <c r="EN84" s="75"/>
-      <c r="EO84" s="75"/>
-      <c r="EP84" s="75"/>
-      <c r="EQ84" s="75"/>
-      <c r="ER84" s="75"/>
-      <c r="ES84" s="75"/>
-      <c r="ET84" s="75"/>
-      <c r="EU84" s="75"/>
-      <c r="EV84" s="75"/>
-      <c r="EW84" s="75"/>
-      <c r="EX84" s="75"/>
-      <c r="EY84" s="75"/>
-      <c r="EZ84" s="75"/>
-      <c r="FA84" s="75"/>
-      <c r="FB84" s="75"/>
-      <c r="FC84" s="75"/>
-      <c r="FD84" s="75"/>
-      <c r="FE84" s="75"/>
-      <c r="FF84" s="75"/>
-      <c r="FG84" s="75"/>
-      <c r="FH84" s="75"/>
-      <c r="FI84" s="75"/>
-      <c r="FJ84" s="75"/>
-      <c r="FK84" s="75"/>
-      <c r="FL84" s="75"/>
-      <c r="FM84" s="75"/>
-      <c r="FN84" s="75"/>
-      <c r="FO84" s="75"/>
-      <c r="FP84" s="75"/>
-      <c r="FQ84" s="75"/>
-      <c r="FR84" s="75"/>
-      <c r="FS84" s="75"/>
-      <c r="FT84" s="75"/>
-      <c r="FU84" s="75"/>
-      <c r="FV84" s="75"/>
-      <c r="FW84" s="75"/>
-      <c r="FX84" s="75"/>
-      <c r="FY84" s="75"/>
-      <c r="FZ84" s="75"/>
-      <c r="GA84" s="75"/>
-      <c r="GB84" s="75"/>
-      <c r="GC84" s="75"/>
-      <c r="GD84" s="75"/>
-      <c r="GE84" s="75"/>
-      <c r="GF84" s="75"/>
-      <c r="GG84" s="75"/>
-      <c r="GH84" s="75"/>
-      <c r="GI84" s="75"/>
-      <c r="GJ84" s="75"/>
-      <c r="GK84" s="75"/>
-      <c r="GL84" s="75"/>
-      <c r="GM84" s="75"/>
-      <c r="GN84" s="75"/>
-      <c r="GO84" s="75"/>
-      <c r="GP84" s="75"/>
-      <c r="GQ84" s="75"/>
-      <c r="GR84" s="75"/>
-      <c r="GS84" s="75"/>
-      <c r="GT84" s="75"/>
-      <c r="GU84" s="75"/>
-      <c r="GV84" s="75"/>
-      <c r="GW84" s="75"/>
-      <c r="GX84" s="75"/>
-      <c r="GY84" s="75"/>
-      <c r="GZ84" s="75"/>
-      <c r="HA84" s="75"/>
-      <c r="HB84" s="75"/>
-      <c r="HC84" s="75"/>
-      <c r="HD84" s="75"/>
-      <c r="HE84" s="75"/>
-      <c r="HF84" s="75"/>
-      <c r="HG84" s="75"/>
-      <c r="HH84" s="75"/>
-      <c r="HI84" s="75"/>
-      <c r="HJ84" s="75"/>
-      <c r="HK84" s="75"/>
-      <c r="HL84" s="75"/>
-      <c r="HM84" s="75"/>
-      <c r="HN84" s="75"/>
-      <c r="HO84" s="75"/>
-      <c r="HP84" s="75"/>
-      <c r="HQ84" s="75"/>
-      <c r="HR84" s="75"/>
-      <c r="HS84" s="75"/>
-      <c r="HT84" s="75"/>
-      <c r="HU84" s="75"/>
-      <c r="HV84" s="75"/>
-      <c r="HW84" s="75"/>
-      <c r="HX84" s="75"/>
-      <c r="HY84" s="75"/>
-      <c r="HZ84" s="75"/>
-      <c r="IA84" s="75"/>
-      <c r="IB84" s="75"/>
-      <c r="IC84" s="75"/>
-      <c r="ID84" s="75"/>
-      <c r="IE84" s="75"/>
-      <c r="IF84" s="75"/>
-      <c r="IG84" s="75"/>
-      <c r="IH84" s="75"/>
-      <c r="II84" s="75"/>
-      <c r="IJ84" s="75"/>
-      <c r="IK84" s="75"/>
-      <c r="IL84" s="75"/>
-      <c r="IM84" s="75"/>
-      <c r="IN84" s="75"/>
-      <c r="IO84" s="75"/>
-      <c r="IP84" s="75"/>
-      <c r="IQ84" s="75"/>
-      <c r="IR84" s="75"/>
-      <c r="IS84" s="75"/>
-      <c r="IT84" s="75"/>
-      <c r="IU84" s="75"/>
-      <c r="IV84" s="75"/>
-      <c r="IW84" s="75"/>
-      <c r="IX84" s="75"/>
-      <c r="IY84" s="75"/>
-      <c r="IZ84" s="75"/>
-      <c r="JA84" s="75"/>
-      <c r="JB84" s="75"/>
-      <c r="JC84" s="75"/>
-      <c r="JD84" s="75"/>
-      <c r="JE84" s="75"/>
-      <c r="JF84" s="75"/>
-      <c r="JG84" s="75"/>
-      <c r="JH84" s="75"/>
-      <c r="JI84" s="75"/>
-      <c r="JJ84" s="75"/>
-      <c r="JK84" s="75"/>
-      <c r="JL84" s="75"/>
-      <c r="JM84" s="75"/>
-      <c r="JN84" s="75"/>
-      <c r="JO84" s="75"/>
-      <c r="JP84" s="75"/>
-      <c r="JQ84" s="75"/>
-      <c r="JR84" s="75"/>
-      <c r="JS84" s="75"/>
-      <c r="JT84" s="75"/>
-      <c r="JU84" s="75"/>
-      <c r="JV84" s="75"/>
-      <c r="JW84" s="75"/>
-      <c r="JX84" s="75"/>
-      <c r="JY84" s="75"/>
-      <c r="JZ84" s="75"/>
-      <c r="KA84" s="75"/>
-      <c r="KB84" s="75"/>
-      <c r="KC84" s="75"/>
-      <c r="KD84" s="75"/>
-      <c r="KE84" s="75"/>
-      <c r="KF84" s="75"/>
-      <c r="KG84" s="75"/>
-      <c r="KH84" s="75"/>
-      <c r="KI84" s="75"/>
-      <c r="KJ84" s="75"/>
-      <c r="KK84" s="75"/>
-      <c r="KL84" s="75"/>
-      <c r="KM84" s="75"/>
-      <c r="KN84" s="75"/>
-      <c r="KO84" s="75"/>
-      <c r="KP84" s="75"/>
-      <c r="KQ84" s="75"/>
-      <c r="KR84" s="75"/>
-      <c r="KS84" s="75"/>
-      <c r="KT84" s="75"/>
-      <c r="KU84" s="75"/>
-      <c r="KV84" s="75"/>
-      <c r="KW84" s="75"/>
-      <c r="KX84" s="75"/>
-      <c r="KY84" s="75"/>
-      <c r="KZ84" s="75"/>
-      <c r="LA84" s="75"/>
-      <c r="LB84" s="75"/>
-      <c r="LC84" s="75"/>
-      <c r="LD84" s="75"/>
-      <c r="LE84" s="75"/>
-      <c r="LF84" s="75"/>
-      <c r="LG84" s="75"/>
-      <c r="LH84" s="75"/>
-      <c r="LI84" s="75"/>
-      <c r="LJ84" s="75"/>
-      <c r="LK84" s="75"/>
-      <c r="LL84" s="75"/>
-      <c r="LM84" s="75"/>
-      <c r="LN84" s="75"/>
-      <c r="LO84" s="75"/>
-      <c r="LP84" s="75"/>
-      <c r="LQ84" s="75"/>
-      <c r="LR84" s="75"/>
-      <c r="LS84" s="75"/>
-      <c r="LT84" s="75"/>
-      <c r="LU84" s="75"/>
-      <c r="LV84" s="75"/>
-      <c r="LW84" s="75"/>
-      <c r="LX84" s="75"/>
-      <c r="LY84" s="75"/>
-      <c r="LZ84" s="75"/>
-      <c r="MA84" s="75"/>
-      <c r="MB84" s="75"/>
-      <c r="MC84" s="75"/>
-      <c r="MD84" s="75"/>
-      <c r="ME84" s="75"/>
-      <c r="MF84" s="75"/>
-      <c r="MG84" s="75"/>
-      <c r="MH84" s="75"/>
-      <c r="MI84" s="75"/>
-      <c r="MJ84" s="75"/>
-      <c r="MK84" s="75"/>
-      <c r="ML84" s="75"/>
-      <c r="MM84" s="75"/>
-      <c r="MN84" s="75"/>
-      <c r="MO84" s="75"/>
-      <c r="MP84" s="75"/>
-      <c r="MQ84" s="75"/>
-      <c r="MR84" s="75"/>
-      <c r="MS84" s="75"/>
-      <c r="MT84" s="75"/>
-      <c r="MU84" s="75"/>
-      <c r="MV84" s="75"/>
-      <c r="MW84" s="75"/>
-      <c r="MX84" s="75"/>
-      <c r="MY84" s="75"/>
-      <c r="MZ84" s="75"/>
-      <c r="NA84" s="75"/>
-      <c r="NB84" s="75"/>
-      <c r="NC84" s="75"/>
-      <c r="ND84" s="75"/>
-      <c r="NE84" s="75"/>
-      <c r="NF84" s="75"/>
-      <c r="NG84" s="75"/>
-      <c r="NH84" s="75"/>
-      <c r="NI84" s="75"/>
-      <c r="NJ84" s="75"/>
-      <c r="NK84" s="75"/>
-      <c r="NL84" s="75"/>
-      <c r="NM84" s="75"/>
-      <c r="NN84" s="75"/>
-      <c r="NO84" s="75"/>
-      <c r="NP84" s="75"/>
-      <c r="NQ84" s="75"/>
-      <c r="NR84" s="75"/>
-      <c r="NS84" s="75"/>
-      <c r="NT84" s="75"/>
-      <c r="NU84" s="75"/>
-      <c r="NV84" s="75"/>
-      <c r="NW84" s="75"/>
-      <c r="NX84" s="75"/>
-      <c r="NY84" s="75"/>
-      <c r="NZ84" s="75"/>
-      <c r="OA84" s="75"/>
-      <c r="OB84" s="75"/>
-      <c r="OC84" s="75"/>
-      <c r="OD84" s="75"/>
-      <c r="OE84" s="75"/>
-      <c r="OF84" s="75"/>
-      <c r="OG84" s="75"/>
-      <c r="OH84" s="75"/>
-      <c r="OI84" s="75"/>
-      <c r="OJ84" s="75"/>
-      <c r="OK84" s="75"/>
-      <c r="OL84" s="75"/>
-      <c r="OM84" s="75"/>
-      <c r="ON84" s="75"/>
-      <c r="OO84" s="75"/>
-      <c r="OP84" s="75"/>
-      <c r="OQ84" s="75"/>
-      <c r="OR84" s="75"/>
-      <c r="OS84" s="75"/>
-      <c r="OT84" s="75"/>
-      <c r="OU84" s="75"/>
-      <c r="OV84" s="75"/>
-      <c r="OW84" s="75"/>
-      <c r="OX84" s="75"/>
-      <c r="OY84" s="75"/>
-      <c r="OZ84" s="75"/>
-      <c r="PA84" s="75"/>
-      <c r="PB84" s="75"/>
-      <c r="PC84" s="75"/>
-      <c r="PD84" s="75"/>
-      <c r="PE84" s="75"/>
-      <c r="PF84" s="75"/>
-      <c r="PG84" s="75"/>
-      <c r="PH84" s="75"/>
-      <c r="PI84" s="75"/>
-      <c r="PJ84" s="75"/>
-      <c r="PK84" s="75"/>
-      <c r="PL84" s="75"/>
-      <c r="PM84" s="75"/>
-      <c r="PN84" s="75"/>
-      <c r="PO84" s="75"/>
-      <c r="PP84" s="75"/>
-      <c r="PQ84" s="75"/>
-      <c r="PR84" s="75"/>
-      <c r="PS84" s="75"/>
-      <c r="PT84" s="75"/>
-      <c r="PU84" s="75"/>
-      <c r="PV84" s="75"/>
-      <c r="PW84" s="75"/>
-      <c r="PX84" s="75"/>
-      <c r="PY84" s="75"/>
-      <c r="PZ84" s="75"/>
-      <c r="QA84" s="75"/>
-      <c r="QB84" s="75"/>
-      <c r="QC84" s="75"/>
-      <c r="QD84" s="75"/>
-      <c r="QE84" s="75"/>
-      <c r="QF84" s="75"/>
-      <c r="QG84" s="75"/>
-      <c r="QH84" s="75"/>
-      <c r="QI84" s="75"/>
-      <c r="QJ84" s="75"/>
-      <c r="QK84" s="75"/>
-      <c r="QL84" s="75"/>
-      <c r="QM84" s="75"/>
-      <c r="QN84" s="75"/>
-      <c r="QO84" s="75"/>
-      <c r="QP84" s="75"/>
-      <c r="QQ84" s="75"/>
-      <c r="QR84" s="75"/>
-      <c r="QS84" s="75"/>
-      <c r="QT84" s="75"/>
-      <c r="QU84" s="75"/>
-      <c r="QV84" s="75"/>
-      <c r="QW84" s="75"/>
-      <c r="QX84" s="75"/>
-      <c r="QY84" s="75"/>
-      <c r="QZ84" s="75"/>
-      <c r="RA84" s="75"/>
-      <c r="RB84" s="75"/>
-      <c r="RC84" s="75"/>
-      <c r="RD84" s="75"/>
-      <c r="RE84" s="75"/>
-      <c r="RF84" s="75"/>
-      <c r="RG84" s="75"/>
-      <c r="RH84" s="75"/>
-      <c r="RI84" s="75"/>
-      <c r="RJ84" s="75"/>
-      <c r="RK84" s="75"/>
-      <c r="RL84" s="75"/>
-      <c r="RM84" s="75"/>
-      <c r="RN84" s="75"/>
-      <c r="RO84" s="75"/>
-      <c r="RP84" s="75"/>
-      <c r="RQ84" s="75"/>
-      <c r="RR84" s="75"/>
-      <c r="RS84" s="75"/>
-      <c r="RT84" s="75"/>
-      <c r="RU84" s="75"/>
-      <c r="RV84" s="75"/>
-      <c r="RW84" s="75"/>
-      <c r="RX84" s="75"/>
-      <c r="RY84" s="75"/>
-      <c r="RZ84" s="75"/>
-      <c r="SA84" s="75"/>
-      <c r="SB84" s="75"/>
-      <c r="SC84" s="75"/>
-      <c r="SD84" s="75"/>
-      <c r="SE84" s="75"/>
-      <c r="SF84" s="75"/>
-      <c r="SG84" s="75"/>
-      <c r="SH84" s="75"/>
-      <c r="SI84" s="75"/>
-      <c r="SJ84" s="75"/>
-      <c r="SK84" s="75"/>
-      <c r="SL84" s="75"/>
-      <c r="SM84" s="75"/>
-      <c r="SN84" s="75"/>
-      <c r="SO84" s="75"/>
-      <c r="SP84" s="75"/>
-      <c r="SQ84" s="75"/>
-      <c r="SR84" s="75"/>
-      <c r="SS84" s="75"/>
-      <c r="ST84" s="75"/>
-      <c r="SU84" s="75"/>
-      <c r="SV84" s="75"/>
-      <c r="SW84" s="75"/>
-      <c r="SX84" s="75"/>
-      <c r="SY84" s="75"/>
-      <c r="SZ84" s="75"/>
-      <c r="TA84" s="75"/>
-      <c r="TB84" s="75"/>
-      <c r="TC84" s="75"/>
-      <c r="TD84" s="75"/>
-      <c r="TE84" s="75"/>
-      <c r="TF84" s="75"/>
-      <c r="TG84" s="75"/>
-      <c r="TH84" s="75"/>
-      <c r="TI84" s="75"/>
-      <c r="TJ84" s="75"/>
-      <c r="TK84" s="75"/>
-      <c r="TL84" s="75"/>
-      <c r="TM84" s="75"/>
-      <c r="TN84" s="75"/>
-      <c r="TO84" s="75"/>
-      <c r="TP84" s="75"/>
-      <c r="TQ84" s="75"/>
-      <c r="TR84" s="75"/>
-      <c r="TS84" s="75"/>
-      <c r="TT84" s="75"/>
-      <c r="TU84" s="75"/>
-      <c r="TV84" s="75"/>
-      <c r="TW84" s="75"/>
-      <c r="TX84" s="75"/>
-      <c r="TY84" s="75"/>
-      <c r="TZ84" s="75"/>
-      <c r="UA84" s="75"/>
-      <c r="UB84" s="75"/>
-      <c r="UC84" s="75"/>
-      <c r="UD84" s="75"/>
-      <c r="UE84" s="75"/>
-      <c r="UF84" s="75"/>
-      <c r="UG84" s="75"/>
-      <c r="UH84" s="75"/>
-      <c r="UI84" s="75"/>
-      <c r="UJ84" s="75"/>
-      <c r="UK84" s="75"/>
-      <c r="UL84" s="75"/>
-      <c r="UM84" s="75"/>
-      <c r="UN84" s="75"/>
-      <c r="UO84" s="75"/>
-      <c r="UP84" s="75"/>
-      <c r="UQ84" s="75"/>
-      <c r="UR84" s="75"/>
-      <c r="US84" s="75"/>
-      <c r="UT84" s="75"/>
-      <c r="UU84" s="75"/>
-      <c r="UV84" s="75"/>
-      <c r="UW84" s="75"/>
-      <c r="UX84" s="75"/>
-      <c r="UY84" s="75"/>
-      <c r="UZ84" s="75"/>
-      <c r="VA84" s="75"/>
-      <c r="VB84" s="75"/>
-      <c r="VC84" s="75"/>
-      <c r="VD84" s="75"/>
-      <c r="VE84" s="75"/>
-      <c r="VF84" s="75"/>
-      <c r="VG84" s="75"/>
-      <c r="VH84" s="75"/>
-      <c r="VI84" s="75"/>
-      <c r="VJ84" s="75"/>
-      <c r="VK84" s="75"/>
-      <c r="VL84" s="75"/>
-      <c r="VM84" s="75"/>
-      <c r="VN84" s="75"/>
-      <c r="VO84" s="75"/>
-      <c r="VP84" s="75"/>
-      <c r="VQ84" s="75"/>
-      <c r="VR84" s="75"/>
-      <c r="VS84" s="75"/>
-      <c r="VT84" s="75"/>
-      <c r="VU84" s="75"/>
-      <c r="VV84" s="75"/>
-      <c r="VW84" s="75"/>
-      <c r="VX84" s="75"/>
-      <c r="VY84" s="75"/>
-      <c r="VZ84" s="75"/>
-      <c r="WA84" s="75"/>
-      <c r="WB84" s="75"/>
-      <c r="WC84" s="75"/>
-      <c r="WD84" s="75"/>
-      <c r="WE84" s="75"/>
-      <c r="WF84" s="75"/>
-      <c r="WG84" s="75"/>
-      <c r="WH84" s="75"/>
-      <c r="WI84" s="75"/>
-      <c r="WJ84" s="75"/>
-      <c r="WK84" s="75"/>
-      <c r="WL84" s="75"/>
-      <c r="WM84" s="75"/>
-      <c r="WN84" s="75"/>
-      <c r="WO84" s="75"/>
-      <c r="WP84" s="75"/>
-      <c r="WQ84" s="75"/>
-      <c r="WR84" s="75"/>
-      <c r="WS84" s="75"/>
-      <c r="WT84" s="75"/>
-      <c r="WU84" s="75"/>
-      <c r="WV84" s="75"/>
-      <c r="WW84" s="75"/>
-      <c r="WX84" s="75"/>
-      <c r="WY84" s="75"/>
-      <c r="WZ84" s="75"/>
-      <c r="XA84" s="75"/>
-      <c r="XB84" s="75"/>
-      <c r="XC84" s="75"/>
-      <c r="XD84" s="75"/>
-      <c r="XE84" s="75"/>
-      <c r="XF84" s="75"/>
-      <c r="XG84" s="75"/>
-      <c r="XH84" s="75"/>
-      <c r="XI84" s="75"/>
-      <c r="XJ84" s="75"/>
-      <c r="XK84" s="75"/>
-      <c r="XL84" s="75"/>
-      <c r="XM84" s="75"/>
-      <c r="XN84" s="75"/>
-      <c r="XO84" s="75"/>
-      <c r="XP84" s="75"/>
-      <c r="XQ84" s="75"/>
-      <c r="XR84" s="75"/>
-      <c r="XS84" s="75"/>
-      <c r="XT84" s="75"/>
-      <c r="XU84" s="75"/>
-      <c r="XV84" s="75"/>
-      <c r="XW84" s="75"/>
-      <c r="XX84" s="75"/>
-      <c r="XY84" s="75"/>
-      <c r="XZ84" s="75"/>
-      <c r="YA84" s="75"/>
-      <c r="YB84" s="75"/>
-      <c r="YC84" s="75"/>
-      <c r="YD84" s="75"/>
-      <c r="YE84" s="75"/>
-      <c r="YF84" s="75"/>
-      <c r="YG84" s="75"/>
-      <c r="YH84" s="75"/>
-      <c r="YI84" s="75"/>
-      <c r="YJ84" s="75"/>
-      <c r="YK84" s="75"/>
-      <c r="YL84" s="75"/>
-      <c r="YM84" s="75"/>
-      <c r="YN84" s="75"/>
-      <c r="YO84" s="75"/>
-      <c r="YP84" s="75"/>
-      <c r="YQ84" s="75"/>
-      <c r="YR84" s="75"/>
-      <c r="YS84" s="75"/>
-      <c r="YT84" s="75"/>
-      <c r="YU84" s="75"/>
-      <c r="YV84" s="75"/>
-      <c r="YW84" s="75"/>
-      <c r="YX84" s="75"/>
-      <c r="YY84" s="75"/>
-      <c r="YZ84" s="75"/>
-      <c r="ZA84" s="75"/>
-      <c r="ZB84" s="75"/>
-      <c r="ZC84" s="75"/>
-      <c r="ZD84" s="75"/>
-      <c r="ZE84" s="75"/>
-      <c r="ZF84" s="75"/>
-      <c r="ZG84" s="75"/>
-      <c r="ZH84" s="75"/>
-      <c r="ZI84" s="75"/>
-      <c r="ZJ84" s="75"/>
-      <c r="ZK84" s="75"/>
-      <c r="ZL84" s="75"/>
-      <c r="ZM84" s="75"/>
-      <c r="ZN84" s="75"/>
-      <c r="ZO84" s="75"/>
-      <c r="ZP84" s="75"/>
-      <c r="ZQ84" s="75"/>
-      <c r="ZR84" s="75"/>
-      <c r="ZS84" s="75"/>
-      <c r="ZT84" s="75"/>
-      <c r="ZU84" s="75"/>
-      <c r="ZV84" s="75"/>
-      <c r="ZW84" s="75"/>
-      <c r="ZX84" s="75"/>
-      <c r="ZY84" s="75"/>
-      <c r="ZZ84" s="75"/>
-      <c r="AAA84" s="75"/>
-      <c r="AAB84" s="75"/>
-      <c r="AAC84" s="75"/>
-      <c r="AAD84" s="75"/>
-      <c r="AAE84" s="75"/>
-      <c r="AAF84" s="75"/>
-      <c r="AAG84" s="75"/>
-      <c r="AAH84" s="75"/>
-      <c r="AAI84" s="75"/>
-      <c r="AAJ84" s="75"/>
-      <c r="AAK84" s="75"/>
-      <c r="AAL84" s="75"/>
-      <c r="AAM84" s="75"/>
-      <c r="AAN84" s="75"/>
-      <c r="AAO84" s="75"/>
-      <c r="AAP84" s="75"/>
-      <c r="AAQ84" s="75"/>
-      <c r="AAR84" s="75"/>
-      <c r="AAS84" s="75"/>
-      <c r="AAT84" s="75"/>
-      <c r="AAU84" s="75"/>
-      <c r="AAV84" s="75"/>
-      <c r="AAW84" s="75"/>
-      <c r="AAX84" s="75"/>
-      <c r="AAY84" s="75"/>
-      <c r="AAZ84" s="75"/>
-      <c r="ABA84" s="75"/>
-      <c r="ABB84" s="75"/>
-      <c r="ABC84" s="75"/>
-      <c r="ABD84" s="75"/>
-      <c r="ABE84" s="75"/>
-      <c r="ABF84" s="75"/>
-      <c r="ABG84" s="75"/>
-      <c r="ABH84" s="75"/>
-      <c r="ABI84" s="75"/>
-      <c r="ABJ84" s="75"/>
-      <c r="ABK84" s="75"/>
-      <c r="ABL84" s="75"/>
-      <c r="ABM84" s="75"/>
-      <c r="ABN84" s="75"/>
-      <c r="ABO84" s="75"/>
-      <c r="ABP84" s="75"/>
-      <c r="ABQ84" s="75"/>
-      <c r="ABR84" s="75"/>
-      <c r="ABS84" s="75"/>
-      <c r="ABT84" s="75"/>
-      <c r="ABU84" s="75"/>
-      <c r="ABV84" s="75"/>
-      <c r="ABW84" s="75"/>
-      <c r="ABX84" s="75"/>
-      <c r="ABY84" s="75"/>
-      <c r="ABZ84" s="75"/>
-      <c r="ACA84" s="75"/>
-      <c r="ACB84" s="75"/>
-      <c r="ACC84" s="75"/>
-      <c r="ACD84" s="75"/>
-      <c r="ACE84" s="75"/>
-      <c r="ACF84" s="75"/>
-      <c r="ACG84" s="75"/>
-      <c r="ACH84" s="75"/>
-      <c r="ACI84" s="75"/>
-      <c r="ACJ84" s="75"/>
-      <c r="ACK84" s="75"/>
-      <c r="ACL84" s="75"/>
-      <c r="ACM84" s="75"/>
-      <c r="ACN84" s="75"/>
-      <c r="ACO84" s="75"/>
-      <c r="ACP84" s="75"/>
-      <c r="ACQ84" s="75"/>
-      <c r="ACR84" s="75"/>
-      <c r="ACS84" s="75"/>
-      <c r="ACT84" s="75"/>
-      <c r="ACU84" s="75"/>
-      <c r="ACV84" s="75"/>
-      <c r="ACW84" s="75"/>
-      <c r="ACX84" s="75"/>
-      <c r="ACY84" s="75"/>
-      <c r="ACZ84" s="75"/>
-      <c r="ADA84" s="75"/>
-      <c r="ADB84" s="75"/>
-      <c r="ADC84" s="75"/>
-      <c r="ADD84" s="75"/>
-      <c r="ADE84" s="75"/>
-      <c r="ADF84" s="75"/>
-      <c r="ADG84" s="75"/>
-      <c r="ADH84" s="75"/>
-      <c r="ADI84" s="75"/>
-      <c r="ADJ84" s="75"/>
-      <c r="ADK84" s="75"/>
-      <c r="ADL84" s="75"/>
-      <c r="ADM84" s="75"/>
-      <c r="ADN84" s="75"/>
-      <c r="ADO84" s="75"/>
-      <c r="ADP84" s="75"/>
-      <c r="ADQ84" s="75"/>
-      <c r="ADR84" s="75"/>
-      <c r="ADS84" s="75"/>
-      <c r="ADT84" s="75"/>
-      <c r="ADU84" s="75"/>
-      <c r="ADV84" s="75"/>
-      <c r="ADW84" s="75"/>
-      <c r="ADX84" s="75"/>
-      <c r="ADY84" s="75"/>
-      <c r="ADZ84" s="75"/>
-      <c r="AEA84" s="75"/>
-      <c r="AEB84" s="75"/>
-      <c r="AEC84" s="75"/>
-      <c r="AED84" s="75"/>
-      <c r="AEE84" s="75"/>
-      <c r="AEF84" s="75"/>
-      <c r="AEG84" s="75"/>
-      <c r="AEH84" s="75"/>
-      <c r="AEI84" s="75"/>
-      <c r="AEJ84" s="75"/>
-      <c r="AEK84" s="75"/>
-      <c r="AEL84" s="75"/>
-      <c r="AEM84" s="75"/>
-      <c r="AEN84" s="75"/>
-      <c r="AEO84" s="75"/>
-      <c r="AEP84" s="75"/>
-      <c r="AEQ84" s="75"/>
-      <c r="AER84" s="75"/>
-      <c r="AES84" s="75"/>
-      <c r="AET84" s="75"/>
-      <c r="AEU84" s="75"/>
-      <c r="AEV84" s="75"/>
-      <c r="AEW84" s="75"/>
-      <c r="AEX84" s="75"/>
-      <c r="AEY84" s="75"/>
-      <c r="AEZ84" s="75"/>
-      <c r="AFA84" s="75"/>
-      <c r="AFB84" s="75"/>
-      <c r="AFC84" s="75"/>
-      <c r="AFD84" s="75"/>
-      <c r="AFE84" s="75"/>
-      <c r="AFF84" s="75"/>
-      <c r="AFG84" s="75"/>
-      <c r="AFH84" s="75"/>
-      <c r="AFI84" s="75"/>
-      <c r="AFJ84" s="75"/>
-      <c r="AFK84" s="75"/>
-      <c r="AFL84" s="75"/>
-      <c r="AFM84" s="75"/>
-      <c r="AFN84" s="75"/>
-      <c r="AFO84" s="75"/>
-      <c r="AFP84" s="75"/>
-      <c r="AFQ84" s="75"/>
-      <c r="AFR84" s="75"/>
-      <c r="AFS84" s="75"/>
-      <c r="AFT84" s="75"/>
-      <c r="AFU84" s="75"/>
-      <c r="AFV84" s="75"/>
-      <c r="AFW84" s="75"/>
-      <c r="AFX84" s="75"/>
-      <c r="AFY84" s="75"/>
-      <c r="AFZ84" s="75"/>
-      <c r="AGA84" s="75"/>
-      <c r="AGB84" s="75"/>
-      <c r="AGC84" s="75"/>
-      <c r="AGD84" s="75"/>
-      <c r="AGE84" s="75"/>
-      <c r="AGF84" s="75"/>
-      <c r="AGG84" s="75"/>
-      <c r="AGH84" s="75"/>
-      <c r="AGI84" s="75"/>
-      <c r="AGJ84" s="75"/>
-      <c r="AGK84" s="75"/>
-      <c r="AGL84" s="75"/>
-      <c r="AGM84" s="75"/>
-      <c r="AGN84" s="75"/>
-      <c r="AGO84" s="75"/>
-      <c r="AGP84" s="75"/>
-      <c r="AGQ84" s="75"/>
-      <c r="AGR84" s="75"/>
-      <c r="AGS84" s="75"/>
-      <c r="AGT84" s="75"/>
-      <c r="AGU84" s="75"/>
-      <c r="AGV84" s="75"/>
-      <c r="AGW84" s="75"/>
-      <c r="AGX84" s="75"/>
-      <c r="AGY84" s="75"/>
-      <c r="AGZ84" s="75"/>
-      <c r="AHA84" s="75"/>
-      <c r="AHB84" s="75"/>
-      <c r="AHC84" s="75"/>
-      <c r="AHD84" s="75"/>
-      <c r="AHE84" s="75"/>
-      <c r="AHF84" s="75"/>
-      <c r="AHG84" s="75"/>
-      <c r="AHH84" s="75"/>
-      <c r="AHI84" s="75"/>
-      <c r="AHJ84" s="75"/>
-      <c r="AHK84" s="75"/>
-      <c r="AHL84" s="75"/>
-      <c r="AHM84" s="75"/>
-      <c r="AHN84" s="75"/>
-      <c r="AHO84" s="75"/>
-      <c r="AHP84" s="75"/>
-      <c r="AHQ84" s="75"/>
-      <c r="AHR84" s="75"/>
-      <c r="AHS84" s="75"/>
-      <c r="AHT84" s="75"/>
-      <c r="AHU84" s="75"/>
-      <c r="AHV84" s="75"/>
-      <c r="AHW84" s="75"/>
-      <c r="AHX84" s="75"/>
-      <c r="AHY84" s="75"/>
-      <c r="AHZ84" s="75"/>
-      <c r="AIA84" s="75"/>
-      <c r="AIB84" s="75"/>
-      <c r="AIC84" s="75"/>
-      <c r="AID84" s="75"/>
-      <c r="AIE84" s="75"/>
-      <c r="AIF84" s="75"/>
-      <c r="AIG84" s="75"/>
-      <c r="AIH84" s="75"/>
-      <c r="AII84" s="75"/>
-      <c r="AIJ84" s="75"/>
-      <c r="AIK84" s="75"/>
-      <c r="AIL84" s="75"/>
-      <c r="AIM84" s="75"/>
-      <c r="AIN84" s="75"/>
-      <c r="AIO84" s="75"/>
-      <c r="AIP84" s="75"/>
-      <c r="AIQ84" s="75"/>
-      <c r="AIR84" s="75"/>
-      <c r="AIS84" s="75"/>
-      <c r="AIT84" s="75"/>
-      <c r="AIU84" s="75"/>
-      <c r="AIV84" s="75"/>
-      <c r="AIW84" s="75"/>
-      <c r="AIX84" s="75"/>
-      <c r="AIY84" s="75"/>
-      <c r="AIZ84" s="75"/>
-      <c r="AJA84" s="75"/>
-      <c r="AJB84" s="75"/>
-      <c r="AJC84" s="75"/>
-      <c r="AJD84" s="75"/>
-      <c r="AJE84" s="75"/>
-      <c r="AJF84" s="75"/>
-      <c r="AJG84" s="75"/>
-      <c r="AJH84" s="75"/>
-      <c r="AJI84" s="75"/>
-      <c r="AJJ84" s="75"/>
-      <c r="AJK84" s="75"/>
-      <c r="AJL84" s="75"/>
-      <c r="AJM84" s="75"/>
-      <c r="AJN84" s="75"/>
-      <c r="AJO84" s="75"/>
-      <c r="AJP84" s="75"/>
-      <c r="AJQ84" s="75"/>
-      <c r="AJR84" s="75"/>
-      <c r="AJS84" s="75"/>
-      <c r="AJT84" s="75"/>
-      <c r="AJU84" s="75"/>
-      <c r="AJV84" s="75"/>
-      <c r="AJW84" s="75"/>
-      <c r="AJX84" s="75"/>
-      <c r="AJY84" s="75"/>
-      <c r="AJZ84" s="75"/>
-      <c r="AKA84" s="75"/>
-      <c r="AKB84" s="75"/>
-      <c r="AKC84" s="75"/>
-      <c r="AKD84" s="75"/>
-      <c r="AKE84" s="75"/>
-      <c r="AKF84" s="75"/>
-      <c r="AKG84" s="75"/>
-      <c r="AKH84" s="75"/>
-      <c r="AKI84" s="75"/>
-      <c r="AKJ84" s="75"/>
-      <c r="AKK84" s="75"/>
-      <c r="AKL84" s="75"/>
-      <c r="AKM84" s="75"/>
-      <c r="AKN84" s="75"/>
-      <c r="AKO84" s="75"/>
-      <c r="AKP84" s="75"/>
-      <c r="AKQ84" s="75"/>
-      <c r="AKR84" s="75"/>
-      <c r="AKS84" s="75"/>
-      <c r="AKT84" s="75"/>
-      <c r="AKU84" s="75"/>
-      <c r="AKV84" s="75"/>
-      <c r="AKW84" s="75"/>
-      <c r="AKX84" s="75"/>
-      <c r="AKY84" s="75"/>
-      <c r="AKZ84" s="75"/>
-      <c r="ALA84" s="75"/>
-      <c r="ALB84" s="75"/>
-      <c r="ALC84" s="75"/>
-      <c r="ALD84" s="75"/>
-      <c r="ALE84" s="75"/>
-      <c r="ALF84" s="75"/>
-      <c r="ALG84" s="75"/>
-      <c r="ALH84" s="75"/>
-      <c r="ALI84" s="75"/>
-      <c r="ALJ84" s="75"/>
-      <c r="ALK84" s="75"/>
-      <c r="ALL84" s="75"/>
-      <c r="ALM84" s="75"/>
-      <c r="ALN84" s="75"/>
-      <c r="ALO84" s="75"/>
-      <c r="ALP84" s="75"/>
-      <c r="ALQ84" s="75"/>
-      <c r="ALR84" s="75"/>
-      <c r="ALS84" s="75"/>
-      <c r="ALT84" s="75"/>
-      <c r="ALU84" s="75"/>
-      <c r="ALV84" s="75"/>
-      <c r="ALW84" s="75"/>
-      <c r="ALX84" s="75"/>
-      <c r="ALY84" s="75"/>
-      <c r="ALZ84" s="75"/>
-      <c r="AMA84" s="75"/>
-      <c r="AMB84" s="75"/>
-      <c r="AMC84" s="75"/>
-      <c r="AMD84" s="75"/>
-      <c r="AME84" s="75"/>
-      <c r="AMF84" s="75"/>
-      <c r="AMG84" s="75"/>
-      <c r="AMH84" s="75"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="77"/>
+      <c r="L84" s="77"/>
+      <c r="M84" s="77"/>
+      <c r="N84" s="77"/>
+      <c r="O84" s="77"/>
+      <c r="P84" s="77"/>
+      <c r="Q84" s="77"/>
+      <c r="R84" s="77"/>
+      <c r="S84" s="77"/>
+      <c r="T84" s="77"/>
+      <c r="U84" s="77"/>
+      <c r="V84" s="77"/>
+      <c r="W84" s="77"/>
+      <c r="X84" s="77"/>
+      <c r="Y84" s="77"/>
+      <c r="Z84" s="77"/>
+      <c r="AA84" s="77"/>
+      <c r="AB84" s="77"/>
+      <c r="AC84" s="77"/>
+      <c r="AD84" s="77"/>
+      <c r="AE84" s="77"/>
+      <c r="AF84" s="77"/>
+      <c r="AG84" s="77"/>
+      <c r="AH84" s="77"/>
+      <c r="AI84" s="77"/>
+      <c r="AJ84" s="77"/>
+      <c r="AK84" s="77"/>
+      <c r="AL84" s="77"/>
+      <c r="AM84" s="77"/>
+      <c r="AN84" s="77"/>
+      <c r="AO84" s="77"/>
+      <c r="AP84" s="77"/>
+      <c r="AQ84" s="77"/>
+      <c r="AR84" s="77"/>
+      <c r="AS84" s="77"/>
+      <c r="AT84" s="77"/>
+      <c r="AU84" s="77"/>
+      <c r="AV84" s="77"/>
+      <c r="AW84" s="77"/>
+      <c r="AX84" s="77"/>
+      <c r="AY84" s="77"/>
+      <c r="AZ84" s="77"/>
+      <c r="BA84" s="77"/>
+      <c r="BB84" s="77"/>
+      <c r="BC84" s="77"/>
+      <c r="BD84" s="77"/>
+      <c r="BE84" s="77"/>
+      <c r="BF84" s="77"/>
+      <c r="BG84" s="77"/>
+      <c r="BH84" s="77"/>
+      <c r="BI84" s="77"/>
+      <c r="BJ84" s="77"/>
+      <c r="BK84" s="77"/>
+      <c r="BL84" s="77"/>
+      <c r="BM84" s="77"/>
+      <c r="BN84" s="77"/>
+      <c r="BO84" s="77"/>
+      <c r="BP84" s="77"/>
+      <c r="BQ84" s="77"/>
+      <c r="BR84" s="77"/>
+      <c r="BS84" s="77"/>
+      <c r="BT84" s="77"/>
+      <c r="BU84" s="77"/>
+      <c r="BV84" s="77"/>
+      <c r="BW84" s="77"/>
+      <c r="BX84" s="77"/>
+      <c r="BY84" s="77"/>
+      <c r="BZ84" s="77"/>
+      <c r="CA84" s="77"/>
+      <c r="CB84" s="77"/>
+      <c r="CC84" s="77"/>
+      <c r="CD84" s="77"/>
+      <c r="CE84" s="77"/>
+      <c r="CF84" s="77"/>
+      <c r="CG84" s="77"/>
+      <c r="CH84" s="77"/>
+      <c r="CI84" s="77"/>
+      <c r="CJ84" s="77"/>
+      <c r="CK84" s="77"/>
+      <c r="CL84" s="77"/>
+      <c r="CM84" s="77"/>
+      <c r="CN84" s="77"/>
+      <c r="CO84" s="77"/>
+      <c r="CP84" s="77"/>
+      <c r="CQ84" s="77"/>
+      <c r="CR84" s="77"/>
+      <c r="CS84" s="77"/>
+      <c r="CT84" s="77"/>
+      <c r="CU84" s="77"/>
+      <c r="CV84" s="77"/>
+      <c r="CW84" s="77"/>
+      <c r="CX84" s="77"/>
+      <c r="CY84" s="77"/>
+      <c r="CZ84" s="77"/>
+      <c r="DA84" s="77"/>
+      <c r="DB84" s="77"/>
+      <c r="DC84" s="77"/>
+      <c r="DD84" s="77"/>
+      <c r="DE84" s="77"/>
+      <c r="DF84" s="77"/>
+      <c r="DG84" s="77"/>
+      <c r="DH84" s="77"/>
+      <c r="DI84" s="77"/>
+      <c r="DJ84" s="77"/>
+      <c r="DK84" s="77"/>
+      <c r="DL84" s="77"/>
+      <c r="DM84" s="77"/>
+      <c r="DN84" s="77"/>
+      <c r="DO84" s="77"/>
+      <c r="DP84" s="77"/>
+      <c r="DQ84" s="77"/>
+      <c r="DR84" s="77"/>
+      <c r="DS84" s="77"/>
+      <c r="DT84" s="77"/>
+      <c r="DU84" s="77"/>
+      <c r="DV84" s="77"/>
+      <c r="DW84" s="77"/>
+      <c r="DX84" s="77"/>
+      <c r="DY84" s="77"/>
+      <c r="DZ84" s="77"/>
+      <c r="EA84" s="77"/>
+      <c r="EB84" s="77"/>
+      <c r="EC84" s="77"/>
+      <c r="ED84" s="77"/>
+      <c r="EE84" s="77"/>
+      <c r="EF84" s="77"/>
+      <c r="EG84" s="77"/>
+      <c r="EH84" s="77"/>
+      <c r="EI84" s="77"/>
+      <c r="EJ84" s="77"/>
+      <c r="EK84" s="77"/>
+      <c r="EL84" s="77"/>
+      <c r="EM84" s="77"/>
+      <c r="EN84" s="77"/>
+      <c r="EO84" s="77"/>
+      <c r="EP84" s="77"/>
+      <c r="EQ84" s="77"/>
+      <c r="ER84" s="77"/>
+      <c r="ES84" s="77"/>
+      <c r="ET84" s="77"/>
+      <c r="EU84" s="77"/>
+      <c r="EV84" s="77"/>
+      <c r="EW84" s="77"/>
+      <c r="EX84" s="77"/>
+      <c r="EY84" s="77"/>
+      <c r="EZ84" s="77"/>
+      <c r="FA84" s="77"/>
+      <c r="FB84" s="77"/>
+      <c r="FC84" s="77"/>
+      <c r="FD84" s="77"/>
+      <c r="FE84" s="77"/>
+      <c r="FF84" s="77"/>
+      <c r="FG84" s="77"/>
+      <c r="FH84" s="77"/>
+      <c r="FI84" s="77"/>
+      <c r="FJ84" s="77"/>
+      <c r="FK84" s="77"/>
+      <c r="FL84" s="77"/>
+      <c r="FM84" s="77"/>
+      <c r="FN84" s="77"/>
+      <c r="FO84" s="77"/>
+      <c r="FP84" s="77"/>
+      <c r="FQ84" s="77"/>
+      <c r="FR84" s="77"/>
+      <c r="FS84" s="77"/>
+      <c r="FT84" s="77"/>
+      <c r="FU84" s="77"/>
+      <c r="FV84" s="77"/>
+      <c r="FW84" s="77"/>
+      <c r="FX84" s="77"/>
+      <c r="FY84" s="77"/>
+      <c r="FZ84" s="77"/>
+      <c r="GA84" s="77"/>
+      <c r="GB84" s="77"/>
+      <c r="GC84" s="77"/>
+      <c r="GD84" s="77"/>
+      <c r="GE84" s="77"/>
+      <c r="GF84" s="77"/>
+      <c r="GG84" s="77"/>
+      <c r="GH84" s="77"/>
+      <c r="GI84" s="77"/>
+      <c r="GJ84" s="77"/>
+      <c r="GK84" s="77"/>
+      <c r="GL84" s="77"/>
+      <c r="GM84" s="77"/>
+      <c r="GN84" s="77"/>
+      <c r="GO84" s="77"/>
+      <c r="GP84" s="77"/>
+      <c r="GQ84" s="77"/>
+      <c r="GR84" s="77"/>
+      <c r="GS84" s="77"/>
+      <c r="GT84" s="77"/>
+      <c r="GU84" s="77"/>
+      <c r="GV84" s="77"/>
+      <c r="GW84" s="77"/>
+      <c r="GX84" s="77"/>
+      <c r="GY84" s="77"/>
+      <c r="GZ84" s="77"/>
+      <c r="HA84" s="77"/>
+      <c r="HB84" s="77"/>
+      <c r="HC84" s="77"/>
+      <c r="HD84" s="77"/>
+      <c r="HE84" s="77"/>
+      <c r="HF84" s="77"/>
+      <c r="HG84" s="77"/>
+      <c r="HH84" s="77"/>
+      <c r="HI84" s="77"/>
+      <c r="HJ84" s="77"/>
+      <c r="HK84" s="77"/>
+      <c r="HL84" s="77"/>
+      <c r="HM84" s="77"/>
+      <c r="HN84" s="77"/>
+      <c r="HO84" s="77"/>
+      <c r="HP84" s="77"/>
+      <c r="HQ84" s="77"/>
+      <c r="HR84" s="77"/>
+      <c r="HS84" s="77"/>
+      <c r="HT84" s="77"/>
+      <c r="HU84" s="77"/>
+      <c r="HV84" s="77"/>
+      <c r="HW84" s="77"/>
+      <c r="HX84" s="77"/>
+      <c r="HY84" s="77"/>
+      <c r="HZ84" s="77"/>
+      <c r="IA84" s="77"/>
+      <c r="IB84" s="77"/>
+      <c r="IC84" s="77"/>
+      <c r="ID84" s="77"/>
+      <c r="IE84" s="77"/>
+      <c r="IF84" s="77"/>
+      <c r="IG84" s="77"/>
+      <c r="IH84" s="77"/>
+      <c r="II84" s="77"/>
+      <c r="IJ84" s="77"/>
+      <c r="IK84" s="77"/>
+      <c r="IL84" s="77"/>
+      <c r="IM84" s="77"/>
+      <c r="IN84" s="77"/>
+      <c r="IO84" s="77"/>
+      <c r="IP84" s="77"/>
+      <c r="IQ84" s="77"/>
+      <c r="IR84" s="77"/>
+      <c r="IS84" s="77"/>
+      <c r="IT84" s="77"/>
+      <c r="IU84" s="77"/>
+      <c r="IV84" s="77"/>
+      <c r="IW84" s="77"/>
+      <c r="IX84" s="77"/>
+      <c r="IY84" s="77"/>
+      <c r="IZ84" s="77"/>
+      <c r="JA84" s="77"/>
+      <c r="JB84" s="77"/>
+      <c r="JC84" s="77"/>
+      <c r="JD84" s="77"/>
+      <c r="JE84" s="77"/>
+      <c r="JF84" s="77"/>
+      <c r="JG84" s="77"/>
+      <c r="JH84" s="77"/>
+      <c r="JI84" s="77"/>
+      <c r="JJ84" s="77"/>
+      <c r="JK84" s="77"/>
+      <c r="JL84" s="77"/>
+      <c r="JM84" s="77"/>
+      <c r="JN84" s="77"/>
+      <c r="JO84" s="77"/>
+      <c r="JP84" s="77"/>
+      <c r="JQ84" s="77"/>
+      <c r="JR84" s="77"/>
+      <c r="JS84" s="77"/>
+      <c r="JT84" s="77"/>
+      <c r="JU84" s="77"/>
+      <c r="JV84" s="77"/>
+      <c r="JW84" s="77"/>
+      <c r="JX84" s="77"/>
+      <c r="JY84" s="77"/>
+      <c r="JZ84" s="77"/>
+      <c r="KA84" s="77"/>
+      <c r="KB84" s="77"/>
+      <c r="KC84" s="77"/>
+      <c r="KD84" s="77"/>
+      <c r="KE84" s="77"/>
+      <c r="KF84" s="77"/>
+      <c r="KG84" s="77"/>
+      <c r="KH84" s="77"/>
+      <c r="KI84" s="77"/>
+      <c r="KJ84" s="77"/>
+      <c r="KK84" s="77"/>
+      <c r="KL84" s="77"/>
+      <c r="KM84" s="77"/>
+      <c r="KN84" s="77"/>
+      <c r="KO84" s="77"/>
+      <c r="KP84" s="77"/>
+      <c r="KQ84" s="77"/>
+      <c r="KR84" s="77"/>
+      <c r="KS84" s="77"/>
+      <c r="KT84" s="77"/>
+      <c r="KU84" s="77"/>
+      <c r="KV84" s="77"/>
+      <c r="KW84" s="77"/>
+      <c r="KX84" s="77"/>
+      <c r="KY84" s="77"/>
+      <c r="KZ84" s="77"/>
+      <c r="LA84" s="77"/>
+      <c r="LB84" s="77"/>
+      <c r="LC84" s="77"/>
+      <c r="LD84" s="77"/>
+      <c r="LE84" s="77"/>
+      <c r="LF84" s="77"/>
+      <c r="LG84" s="77"/>
+      <c r="LH84" s="77"/>
+      <c r="LI84" s="77"/>
+      <c r="LJ84" s="77"/>
+      <c r="LK84" s="77"/>
+      <c r="LL84" s="77"/>
+      <c r="LM84" s="77"/>
+      <c r="LN84" s="77"/>
+      <c r="LO84" s="77"/>
+      <c r="LP84" s="77"/>
+      <c r="LQ84" s="77"/>
+      <c r="LR84" s="77"/>
+      <c r="LS84" s="77"/>
+      <c r="LT84" s="77"/>
+      <c r="LU84" s="77"/>
+      <c r="LV84" s="77"/>
+      <c r="LW84" s="77"/>
+      <c r="LX84" s="77"/>
+      <c r="LY84" s="77"/>
+      <c r="LZ84" s="77"/>
+      <c r="MA84" s="77"/>
+      <c r="MB84" s="77"/>
+      <c r="MC84" s="77"/>
+      <c r="MD84" s="77"/>
+      <c r="ME84" s="77"/>
+      <c r="MF84" s="77"/>
+      <c r="MG84" s="77"/>
+      <c r="MH84" s="77"/>
+      <c r="MI84" s="77"/>
+      <c r="MJ84" s="77"/>
+      <c r="MK84" s="77"/>
+      <c r="ML84" s="77"/>
+      <c r="MM84" s="77"/>
+      <c r="MN84" s="77"/>
+      <c r="MO84" s="77"/>
+      <c r="MP84" s="77"/>
+      <c r="MQ84" s="77"/>
+      <c r="MR84" s="77"/>
+      <c r="MS84" s="77"/>
+      <c r="MT84" s="77"/>
+      <c r="MU84" s="77"/>
+      <c r="MV84" s="77"/>
+      <c r="MW84" s="77"/>
+      <c r="MX84" s="77"/>
+      <c r="MY84" s="77"/>
+      <c r="MZ84" s="77"/>
+      <c r="NA84" s="77"/>
+      <c r="NB84" s="77"/>
+      <c r="NC84" s="77"/>
+      <c r="ND84" s="77"/>
+      <c r="NE84" s="77"/>
+      <c r="NF84" s="77"/>
+      <c r="NG84" s="77"/>
+      <c r="NH84" s="77"/>
+      <c r="NI84" s="77"/>
+      <c r="NJ84" s="77"/>
+      <c r="NK84" s="77"/>
+      <c r="NL84" s="77"/>
+      <c r="NM84" s="77"/>
+      <c r="NN84" s="77"/>
+      <c r="NO84" s="77"/>
+      <c r="NP84" s="77"/>
+      <c r="NQ84" s="77"/>
+      <c r="NR84" s="77"/>
+      <c r="NS84" s="77"/>
+      <c r="NT84" s="77"/>
+      <c r="NU84" s="77"/>
+      <c r="NV84" s="77"/>
+      <c r="NW84" s="77"/>
+      <c r="NX84" s="77"/>
+      <c r="NY84" s="77"/>
+      <c r="NZ84" s="77"/>
+      <c r="OA84" s="77"/>
+      <c r="OB84" s="77"/>
+      <c r="OC84" s="77"/>
+      <c r="OD84" s="77"/>
+      <c r="OE84" s="77"/>
+      <c r="OF84" s="77"/>
+      <c r="OG84" s="77"/>
+      <c r="OH84" s="77"/>
+      <c r="OI84" s="77"/>
+      <c r="OJ84" s="77"/>
+      <c r="OK84" s="77"/>
+      <c r="OL84" s="77"/>
+      <c r="OM84" s="77"/>
+      <c r="ON84" s="77"/>
+      <c r="OO84" s="77"/>
+      <c r="OP84" s="77"/>
+      <c r="OQ84" s="77"/>
+      <c r="OR84" s="77"/>
+      <c r="OS84" s="77"/>
+      <c r="OT84" s="77"/>
+      <c r="OU84" s="77"/>
+      <c r="OV84" s="77"/>
+      <c r="OW84" s="77"/>
+      <c r="OX84" s="77"/>
+      <c r="OY84" s="77"/>
+      <c r="OZ84" s="77"/>
+      <c r="PA84" s="77"/>
+      <c r="PB84" s="77"/>
+      <c r="PC84" s="77"/>
+      <c r="PD84" s="77"/>
+      <c r="PE84" s="77"/>
+      <c r="PF84" s="77"/>
+      <c r="PG84" s="77"/>
+      <c r="PH84" s="77"/>
+      <c r="PI84" s="77"/>
+      <c r="PJ84" s="77"/>
+      <c r="PK84" s="77"/>
+      <c r="PL84" s="77"/>
+      <c r="PM84" s="77"/>
+      <c r="PN84" s="77"/>
+      <c r="PO84" s="77"/>
+      <c r="PP84" s="77"/>
+      <c r="PQ84" s="77"/>
+      <c r="PR84" s="77"/>
+      <c r="PS84" s="77"/>
+      <c r="PT84" s="77"/>
+      <c r="PU84" s="77"/>
+      <c r="PV84" s="77"/>
+      <c r="PW84" s="77"/>
+      <c r="PX84" s="77"/>
+      <c r="PY84" s="77"/>
+      <c r="PZ84" s="77"/>
+      <c r="QA84" s="77"/>
+      <c r="QB84" s="77"/>
+      <c r="QC84" s="77"/>
+      <c r="QD84" s="77"/>
+      <c r="QE84" s="77"/>
+      <c r="QF84" s="77"/>
+      <c r="QG84" s="77"/>
+      <c r="QH84" s="77"/>
+      <c r="QI84" s="77"/>
+      <c r="QJ84" s="77"/>
+      <c r="QK84" s="77"/>
+      <c r="QL84" s="77"/>
+      <c r="QM84" s="77"/>
+      <c r="QN84" s="77"/>
+      <c r="QO84" s="77"/>
+      <c r="QP84" s="77"/>
+      <c r="QQ84" s="77"/>
+      <c r="QR84" s="77"/>
+      <c r="QS84" s="77"/>
+      <c r="QT84" s="77"/>
+      <c r="QU84" s="77"/>
+      <c r="QV84" s="77"/>
+      <c r="QW84" s="77"/>
+      <c r="QX84" s="77"/>
+      <c r="QY84" s="77"/>
+      <c r="QZ84" s="77"/>
+      <c r="RA84" s="77"/>
+      <c r="RB84" s="77"/>
+      <c r="RC84" s="77"/>
+      <c r="RD84" s="77"/>
+      <c r="RE84" s="77"/>
+      <c r="RF84" s="77"/>
+      <c r="RG84" s="77"/>
+      <c r="RH84" s="77"/>
+      <c r="RI84" s="77"/>
+      <c r="RJ84" s="77"/>
+      <c r="RK84" s="77"/>
+      <c r="RL84" s="77"/>
+      <c r="RM84" s="77"/>
+      <c r="RN84" s="77"/>
+      <c r="RO84" s="77"/>
+      <c r="RP84" s="77"/>
+      <c r="RQ84" s="77"/>
+      <c r="RR84" s="77"/>
+      <c r="RS84" s="77"/>
+      <c r="RT84" s="77"/>
+      <c r="RU84" s="77"/>
+      <c r="RV84" s="77"/>
+      <c r="RW84" s="77"/>
+      <c r="RX84" s="77"/>
+      <c r="RY84" s="77"/>
+      <c r="RZ84" s="77"/>
+      <c r="SA84" s="77"/>
+      <c r="SB84" s="77"/>
+      <c r="SC84" s="77"/>
+      <c r="SD84" s="77"/>
+      <c r="SE84" s="77"/>
+      <c r="SF84" s="77"/>
+      <c r="SG84" s="77"/>
+      <c r="SH84" s="77"/>
+      <c r="SI84" s="77"/>
+      <c r="SJ84" s="77"/>
+      <c r="SK84" s="77"/>
+      <c r="SL84" s="77"/>
+      <c r="SM84" s="77"/>
+      <c r="SN84" s="77"/>
+      <c r="SO84" s="77"/>
+      <c r="SP84" s="77"/>
+      <c r="SQ84" s="77"/>
+      <c r="SR84" s="77"/>
+      <c r="SS84" s="77"/>
+      <c r="ST84" s="77"/>
+      <c r="SU84" s="77"/>
+      <c r="SV84" s="77"/>
+      <c r="SW84" s="77"/>
+      <c r="SX84" s="77"/>
+      <c r="SY84" s="77"/>
+      <c r="SZ84" s="77"/>
+      <c r="TA84" s="77"/>
+      <c r="TB84" s="77"/>
+      <c r="TC84" s="77"/>
+      <c r="TD84" s="77"/>
+      <c r="TE84" s="77"/>
+      <c r="TF84" s="77"/>
+      <c r="TG84" s="77"/>
+      <c r="TH84" s="77"/>
+      <c r="TI84" s="77"/>
+      <c r="TJ84" s="77"/>
+      <c r="TK84" s="77"/>
+      <c r="TL84" s="77"/>
+      <c r="TM84" s="77"/>
+      <c r="TN84" s="77"/>
+      <c r="TO84" s="77"/>
+      <c r="TP84" s="77"/>
+      <c r="TQ84" s="77"/>
+      <c r="TR84" s="77"/>
+      <c r="TS84" s="77"/>
+      <c r="TT84" s="77"/>
+      <c r="TU84" s="77"/>
+      <c r="TV84" s="77"/>
+      <c r="TW84" s="77"/>
+      <c r="TX84" s="77"/>
+      <c r="TY84" s="77"/>
+      <c r="TZ84" s="77"/>
+      <c r="UA84" s="77"/>
+      <c r="UB84" s="77"/>
+      <c r="UC84" s="77"/>
+      <c r="UD84" s="77"/>
+      <c r="UE84" s="77"/>
+      <c r="UF84" s="77"/>
+      <c r="UG84" s="77"/>
+      <c r="UH84" s="77"/>
+      <c r="UI84" s="77"/>
+      <c r="UJ84" s="77"/>
+      <c r="UK84" s="77"/>
+      <c r="UL84" s="77"/>
+      <c r="UM84" s="77"/>
+      <c r="UN84" s="77"/>
+      <c r="UO84" s="77"/>
+      <c r="UP84" s="77"/>
+      <c r="UQ84" s="77"/>
+      <c r="UR84" s="77"/>
+      <c r="US84" s="77"/>
+      <c r="UT84" s="77"/>
+      <c r="UU84" s="77"/>
+      <c r="UV84" s="77"/>
+      <c r="UW84" s="77"/>
+      <c r="UX84" s="77"/>
+      <c r="UY84" s="77"/>
+      <c r="UZ84" s="77"/>
+      <c r="VA84" s="77"/>
+      <c r="VB84" s="77"/>
+      <c r="VC84" s="77"/>
+      <c r="VD84" s="77"/>
+      <c r="VE84" s="77"/>
+      <c r="VF84" s="77"/>
+      <c r="VG84" s="77"/>
+      <c r="VH84" s="77"/>
+      <c r="VI84" s="77"/>
+      <c r="VJ84" s="77"/>
+      <c r="VK84" s="77"/>
+      <c r="VL84" s="77"/>
+      <c r="VM84" s="77"/>
+      <c r="VN84" s="77"/>
+      <c r="VO84" s="77"/>
+      <c r="VP84" s="77"/>
+      <c r="VQ84" s="77"/>
+      <c r="VR84" s="77"/>
+      <c r="VS84" s="77"/>
+      <c r="VT84" s="77"/>
+      <c r="VU84" s="77"/>
+      <c r="VV84" s="77"/>
+      <c r="VW84" s="77"/>
+      <c r="VX84" s="77"/>
+      <c r="VY84" s="77"/>
+      <c r="VZ84" s="77"/>
+      <c r="WA84" s="77"/>
+      <c r="WB84" s="77"/>
+      <c r="WC84" s="77"/>
+      <c r="WD84" s="77"/>
+      <c r="WE84" s="77"/>
+      <c r="WF84" s="77"/>
+      <c r="WG84" s="77"/>
+      <c r="WH84" s="77"/>
+      <c r="WI84" s="77"/>
+      <c r="WJ84" s="77"/>
+      <c r="WK84" s="77"/>
+      <c r="WL84" s="77"/>
+      <c r="WM84" s="77"/>
+      <c r="WN84" s="77"/>
+      <c r="WO84" s="77"/>
+      <c r="WP84" s="77"/>
+      <c r="WQ84" s="77"/>
+      <c r="WR84" s="77"/>
+      <c r="WS84" s="77"/>
+      <c r="WT84" s="77"/>
+      <c r="WU84" s="77"/>
+      <c r="WV84" s="77"/>
+      <c r="WW84" s="77"/>
+      <c r="WX84" s="77"/>
+      <c r="WY84" s="77"/>
+      <c r="WZ84" s="77"/>
+      <c r="XA84" s="77"/>
+      <c r="XB84" s="77"/>
+      <c r="XC84" s="77"/>
+      <c r="XD84" s="77"/>
+      <c r="XE84" s="77"/>
+      <c r="XF84" s="77"/>
+      <c r="XG84" s="77"/>
+      <c r="XH84" s="77"/>
+      <c r="XI84" s="77"/>
+      <c r="XJ84" s="77"/>
+      <c r="XK84" s="77"/>
+      <c r="XL84" s="77"/>
+      <c r="XM84" s="77"/>
+      <c r="XN84" s="77"/>
+      <c r="XO84" s="77"/>
+      <c r="XP84" s="77"/>
+      <c r="XQ84" s="77"/>
+      <c r="XR84" s="77"/>
+      <c r="XS84" s="77"/>
+      <c r="XT84" s="77"/>
+      <c r="XU84" s="77"/>
+      <c r="XV84" s="77"/>
+      <c r="XW84" s="77"/>
+      <c r="XX84" s="77"/>
+      <c r="XY84" s="77"/>
+      <c r="XZ84" s="77"/>
+      <c r="YA84" s="77"/>
+      <c r="YB84" s="77"/>
+      <c r="YC84" s="77"/>
+      <c r="YD84" s="77"/>
+      <c r="YE84" s="77"/>
+      <c r="YF84" s="77"/>
+      <c r="YG84" s="77"/>
+      <c r="YH84" s="77"/>
+      <c r="YI84" s="77"/>
+      <c r="YJ84" s="77"/>
+      <c r="YK84" s="77"/>
+      <c r="YL84" s="77"/>
+      <c r="YM84" s="77"/>
+      <c r="YN84" s="77"/>
+      <c r="YO84" s="77"/>
+      <c r="YP84" s="77"/>
+      <c r="YQ84" s="77"/>
+      <c r="YR84" s="77"/>
+      <c r="YS84" s="77"/>
+      <c r="YT84" s="77"/>
+      <c r="YU84" s="77"/>
+      <c r="YV84" s="77"/>
+      <c r="YW84" s="77"/>
+      <c r="YX84" s="77"/>
+      <c r="YY84" s="77"/>
+      <c r="YZ84" s="77"/>
+      <c r="ZA84" s="77"/>
+      <c r="ZB84" s="77"/>
+      <c r="ZC84" s="77"/>
+      <c r="ZD84" s="77"/>
+      <c r="ZE84" s="77"/>
+      <c r="ZF84" s="77"/>
+      <c r="ZG84" s="77"/>
+      <c r="ZH84" s="77"/>
+      <c r="ZI84" s="77"/>
+      <c r="ZJ84" s="77"/>
+      <c r="ZK84" s="77"/>
+      <c r="ZL84" s="77"/>
+      <c r="ZM84" s="77"/>
+      <c r="ZN84" s="77"/>
+      <c r="ZO84" s="77"/>
+      <c r="ZP84" s="77"/>
+      <c r="ZQ84" s="77"/>
+      <c r="ZR84" s="77"/>
+      <c r="ZS84" s="77"/>
+      <c r="ZT84" s="77"/>
+      <c r="ZU84" s="77"/>
+      <c r="ZV84" s="77"/>
+      <c r="ZW84" s="77"/>
+      <c r="ZX84" s="77"/>
+      <c r="ZY84" s="77"/>
+      <c r="ZZ84" s="77"/>
+      <c r="AAA84" s="77"/>
+      <c r="AAB84" s="77"/>
+      <c r="AAC84" s="77"/>
+      <c r="AAD84" s="77"/>
+      <c r="AAE84" s="77"/>
+      <c r="AAF84" s="77"/>
+      <c r="AAG84" s="77"/>
+      <c r="AAH84" s="77"/>
+      <c r="AAI84" s="77"/>
+      <c r="AAJ84" s="77"/>
+      <c r="AAK84" s="77"/>
+      <c r="AAL84" s="77"/>
+      <c r="AAM84" s="77"/>
+      <c r="AAN84" s="77"/>
+      <c r="AAO84" s="77"/>
+      <c r="AAP84" s="77"/>
+      <c r="AAQ84" s="77"/>
+      <c r="AAR84" s="77"/>
+      <c r="AAS84" s="77"/>
+      <c r="AAT84" s="77"/>
+      <c r="AAU84" s="77"/>
+      <c r="AAV84" s="77"/>
+      <c r="AAW84" s="77"/>
+      <c r="AAX84" s="77"/>
+      <c r="AAY84" s="77"/>
+      <c r="AAZ84" s="77"/>
+      <c r="ABA84" s="77"/>
+      <c r="ABB84" s="77"/>
+      <c r="ABC84" s="77"/>
+      <c r="ABD84" s="77"/>
+      <c r="ABE84" s="77"/>
+      <c r="ABF84" s="77"/>
+      <c r="ABG84" s="77"/>
+      <c r="ABH84" s="77"/>
+      <c r="ABI84" s="77"/>
+      <c r="ABJ84" s="77"/>
+      <c r="ABK84" s="77"/>
+      <c r="ABL84" s="77"/>
+      <c r="ABM84" s="77"/>
+      <c r="ABN84" s="77"/>
+      <c r="ABO84" s="77"/>
+      <c r="ABP84" s="77"/>
+      <c r="ABQ84" s="77"/>
+      <c r="ABR84" s="77"/>
+      <c r="ABS84" s="77"/>
+      <c r="ABT84" s="77"/>
+      <c r="ABU84" s="77"/>
+      <c r="ABV84" s="77"/>
+      <c r="ABW84" s="77"/>
+      <c r="ABX84" s="77"/>
+      <c r="ABY84" s="77"/>
+      <c r="ABZ84" s="77"/>
+      <c r="ACA84" s="77"/>
+      <c r="ACB84" s="77"/>
+      <c r="ACC84" s="77"/>
+      <c r="ACD84" s="77"/>
+      <c r="ACE84" s="77"/>
+      <c r="ACF84" s="77"/>
+      <c r="ACG84" s="77"/>
+      <c r="ACH84" s="77"/>
+      <c r="ACI84" s="77"/>
+      <c r="ACJ84" s="77"/>
+      <c r="ACK84" s="77"/>
+      <c r="ACL84" s="77"/>
+      <c r="ACM84" s="77"/>
+      <c r="ACN84" s="77"/>
+      <c r="ACO84" s="77"/>
+      <c r="ACP84" s="77"/>
+      <c r="ACQ84" s="77"/>
+      <c r="ACR84" s="77"/>
+      <c r="ACS84" s="77"/>
+      <c r="ACT84" s="77"/>
+      <c r="ACU84" s="77"/>
+      <c r="ACV84" s="77"/>
+      <c r="ACW84" s="77"/>
+      <c r="ACX84" s="77"/>
+      <c r="ACY84" s="77"/>
+      <c r="ACZ84" s="77"/>
+      <c r="ADA84" s="77"/>
+      <c r="ADB84" s="77"/>
+      <c r="ADC84" s="77"/>
+      <c r="ADD84" s="77"/>
+      <c r="ADE84" s="77"/>
+      <c r="ADF84" s="77"/>
+      <c r="ADG84" s="77"/>
+      <c r="ADH84" s="77"/>
+      <c r="ADI84" s="77"/>
+      <c r="ADJ84" s="77"/>
+      <c r="ADK84" s="77"/>
+      <c r="ADL84" s="77"/>
+      <c r="ADM84" s="77"/>
+      <c r="ADN84" s="77"/>
+      <c r="ADO84" s="77"/>
+      <c r="ADP84" s="77"/>
+      <c r="ADQ84" s="77"/>
+      <c r="ADR84" s="77"/>
+      <c r="ADS84" s="77"/>
+      <c r="ADT84" s="77"/>
+      <c r="ADU84" s="77"/>
+      <c r="ADV84" s="77"/>
+      <c r="ADW84" s="77"/>
+      <c r="ADX84" s="77"/>
+      <c r="ADY84" s="77"/>
+      <c r="ADZ84" s="77"/>
+      <c r="AEA84" s="77"/>
+      <c r="AEB84" s="77"/>
+      <c r="AEC84" s="77"/>
+      <c r="AED84" s="77"/>
+      <c r="AEE84" s="77"/>
+      <c r="AEF84" s="77"/>
+      <c r="AEG84" s="77"/>
+      <c r="AEH84" s="77"/>
+      <c r="AEI84" s="77"/>
+      <c r="AEJ84" s="77"/>
+      <c r="AEK84" s="77"/>
+      <c r="AEL84" s="77"/>
+      <c r="AEM84" s="77"/>
+      <c r="AEN84" s="77"/>
+      <c r="AEO84" s="77"/>
+      <c r="AEP84" s="77"/>
+      <c r="AEQ84" s="77"/>
+      <c r="AER84" s="77"/>
+      <c r="AES84" s="77"/>
+      <c r="AET84" s="77"/>
+      <c r="AEU84" s="77"/>
+      <c r="AEV84" s="77"/>
+      <c r="AEW84" s="77"/>
+      <c r="AEX84" s="77"/>
+      <c r="AEY84" s="77"/>
+      <c r="AEZ84" s="77"/>
+      <c r="AFA84" s="77"/>
+      <c r="AFB84" s="77"/>
+      <c r="AFC84" s="77"/>
+      <c r="AFD84" s="77"/>
+      <c r="AFE84" s="77"/>
+      <c r="AFF84" s="77"/>
+      <c r="AFG84" s="77"/>
+      <c r="AFH84" s="77"/>
+      <c r="AFI84" s="77"/>
+      <c r="AFJ84" s="77"/>
+      <c r="AFK84" s="77"/>
+      <c r="AFL84" s="77"/>
+      <c r="AFM84" s="77"/>
+      <c r="AFN84" s="77"/>
+      <c r="AFO84" s="77"/>
+      <c r="AFP84" s="77"/>
+      <c r="AFQ84" s="77"/>
+      <c r="AFR84" s="77"/>
+      <c r="AFS84" s="77"/>
+      <c r="AFT84" s="77"/>
+      <c r="AFU84" s="77"/>
+      <c r="AFV84" s="77"/>
+      <c r="AFW84" s="77"/>
+      <c r="AFX84" s="77"/>
+      <c r="AFY84" s="77"/>
+      <c r="AFZ84" s="77"/>
+      <c r="AGA84" s="77"/>
+      <c r="AGB84" s="77"/>
+      <c r="AGC84" s="77"/>
+      <c r="AGD84" s="77"/>
+      <c r="AGE84" s="77"/>
+      <c r="AGF84" s="77"/>
+      <c r="AGG84" s="77"/>
+      <c r="AGH84" s="77"/>
+      <c r="AGI84" s="77"/>
+      <c r="AGJ84" s="77"/>
+      <c r="AGK84" s="77"/>
+      <c r="AGL84" s="77"/>
+      <c r="AGM84" s="77"/>
+      <c r="AGN84" s="77"/>
+      <c r="AGO84" s="77"/>
+      <c r="AGP84" s="77"/>
+      <c r="AGQ84" s="77"/>
+      <c r="AGR84" s="77"/>
+      <c r="AGS84" s="77"/>
+      <c r="AGT84" s="77"/>
+      <c r="AGU84" s="77"/>
+      <c r="AGV84" s="77"/>
+      <c r="AGW84" s="77"/>
+      <c r="AGX84" s="77"/>
+      <c r="AGY84" s="77"/>
+      <c r="AGZ84" s="77"/>
+      <c r="AHA84" s="77"/>
+      <c r="AHB84" s="77"/>
+      <c r="AHC84" s="77"/>
+      <c r="AHD84" s="77"/>
+      <c r="AHE84" s="77"/>
+      <c r="AHF84" s="77"/>
+      <c r="AHG84" s="77"/>
+      <c r="AHH84" s="77"/>
+      <c r="AHI84" s="77"/>
+      <c r="AHJ84" s="77"/>
+      <c r="AHK84" s="77"/>
+      <c r="AHL84" s="77"/>
+      <c r="AHM84" s="77"/>
+      <c r="AHN84" s="77"/>
+      <c r="AHO84" s="77"/>
+      <c r="AHP84" s="77"/>
+      <c r="AHQ84" s="77"/>
+      <c r="AHR84" s="77"/>
+      <c r="AHS84" s="77"/>
+      <c r="AHT84" s="77"/>
+      <c r="AHU84" s="77"/>
+      <c r="AHV84" s="77"/>
+      <c r="AHW84" s="77"/>
+      <c r="AHX84" s="77"/>
+      <c r="AHY84" s="77"/>
+      <c r="AHZ84" s="77"/>
+      <c r="AIA84" s="77"/>
+      <c r="AIB84" s="77"/>
+      <c r="AIC84" s="77"/>
+      <c r="AID84" s="77"/>
+      <c r="AIE84" s="77"/>
+      <c r="AIF84" s="77"/>
+      <c r="AIG84" s="77"/>
+      <c r="AIH84" s="77"/>
+      <c r="AII84" s="77"/>
+      <c r="AIJ84" s="77"/>
+      <c r="AIK84" s="77"/>
+      <c r="AIL84" s="77"/>
+      <c r="AIM84" s="77"/>
+      <c r="AIN84" s="77"/>
+      <c r="AIO84" s="77"/>
+      <c r="AIP84" s="77"/>
+      <c r="AIQ84" s="77"/>
+      <c r="AIR84" s="77"/>
+      <c r="AIS84" s="77"/>
+      <c r="AIT84" s="77"/>
+      <c r="AIU84" s="77"/>
+      <c r="AIV84" s="77"/>
+      <c r="AIW84" s="77"/>
+      <c r="AIX84" s="77"/>
+      <c r="AIY84" s="77"/>
+      <c r="AIZ84" s="77"/>
+      <c r="AJA84" s="77"/>
+      <c r="AJB84" s="77"/>
+      <c r="AJC84" s="77"/>
+      <c r="AJD84" s="77"/>
+      <c r="AJE84" s="77"/>
+      <c r="AJF84" s="77"/>
+      <c r="AJG84" s="77"/>
+      <c r="AJH84" s="77"/>
+      <c r="AJI84" s="77"/>
+      <c r="AJJ84" s="77"/>
+      <c r="AJK84" s="77"/>
+      <c r="AJL84" s="77"/>
+      <c r="AJM84" s="77"/>
+      <c r="AJN84" s="77"/>
+      <c r="AJO84" s="77"/>
+      <c r="AJP84" s="77"/>
+      <c r="AJQ84" s="77"/>
+      <c r="AJR84" s="77"/>
+      <c r="AJS84" s="77"/>
+      <c r="AJT84" s="77"/>
+      <c r="AJU84" s="77"/>
+      <c r="AJV84" s="77"/>
+      <c r="AJW84" s="77"/>
+      <c r="AJX84" s="77"/>
+      <c r="AJY84" s="77"/>
+      <c r="AJZ84" s="77"/>
+      <c r="AKA84" s="77"/>
+      <c r="AKB84" s="77"/>
+      <c r="AKC84" s="77"/>
+      <c r="AKD84" s="77"/>
+      <c r="AKE84" s="77"/>
+      <c r="AKF84" s="77"/>
+      <c r="AKG84" s="77"/>
+      <c r="AKH84" s="77"/>
+      <c r="AKI84" s="77"/>
+      <c r="AKJ84" s="77"/>
+      <c r="AKK84" s="77"/>
+      <c r="AKL84" s="77"/>
+      <c r="AKM84" s="77"/>
+      <c r="AKN84" s="77"/>
+      <c r="AKO84" s="77"/>
+      <c r="AKP84" s="77"/>
+      <c r="AKQ84" s="77"/>
+      <c r="AKR84" s="77"/>
+      <c r="AKS84" s="77"/>
+      <c r="AKT84" s="77"/>
+      <c r="AKU84" s="77"/>
+      <c r="AKV84" s="77"/>
+      <c r="AKW84" s="77"/>
+      <c r="AKX84" s="77"/>
+      <c r="AKY84" s="77"/>
+      <c r="AKZ84" s="77"/>
+      <c r="ALA84" s="77"/>
+      <c r="ALB84" s="77"/>
+      <c r="ALC84" s="77"/>
+      <c r="ALD84" s="77"/>
+      <c r="ALE84" s="77"/>
+      <c r="ALF84" s="77"/>
+      <c r="ALG84" s="77"/>
+      <c r="ALH84" s="77"/>
+      <c r="ALI84" s="77"/>
+      <c r="ALJ84" s="77"/>
+      <c r="ALK84" s="77"/>
+      <c r="ALL84" s="77"/>
+      <c r="ALM84" s="77"/>
+      <c r="ALN84" s="77"/>
+      <c r="ALO84" s="77"/>
+      <c r="ALP84" s="77"/>
+      <c r="ALQ84" s="77"/>
+      <c r="ALR84" s="77"/>
+      <c r="ALS84" s="77"/>
+      <c r="ALT84" s="77"/>
+      <c r="ALU84" s="77"/>
+      <c r="ALV84" s="77"/>
+      <c r="ALW84" s="77"/>
+      <c r="ALX84" s="77"/>
+      <c r="ALY84" s="77"/>
+      <c r="ALZ84" s="77"/>
+      <c r="AMA84" s="77"/>
+      <c r="AMB84" s="77"/>
+      <c r="AMC84" s="77"/>
+      <c r="AMD84" s="77"/>
+      <c r="AME84" s="77"/>
+      <c r="AMF84" s="77"/>
+      <c r="AMG84" s="77"/>
+      <c r="AMH84" s="77"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -20749,7 +20845,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="77" t="s">
+      <c r="A88" s="79" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -23914,10 +24010,10 @@
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="72"/>
+      <c r="E97" s="73"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="78" t="s">
+      <c r="A98" s="80" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -23929,7 +24025,7 @@
       <c r="D98" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="E98" s="70">
+      <c r="E98" s="71">
         <v>0.9686</v>
       </c>
     </row>
@@ -23946,7 +24042,7 @@
       <c r="D99" s="10">
         <v>0.9671612</v>
       </c>
-      <c r="E99" s="72">
+      <c r="E99" s="73">
         <v>0.9687</v>
       </c>
     </row>
@@ -23963,7 +24059,7 @@
       <c r="D100" s="10">
         <v>0.9673732</v>
       </c>
-      <c r="E100" s="72">
+      <c r="E100" s="73">
         <v>0.9686</v>
       </c>
     </row>
@@ -23980,7 +24076,7 @@
       <c r="D101" s="10">
         <v>0.9674291</v>
       </c>
-      <c r="E101" s="72">
+      <c r="E101" s="73">
         <v>0.96939</v>
       </c>
     </row>
@@ -23997,7 +24093,7 @@
       <c r="D102" s="10">
         <v>0.967249</v>
       </c>
-      <c r="E102" s="72"/>
+      <c r="E102" s="73"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
@@ -24012,7 +24108,7 @@
       <c r="D103" s="10">
         <v>0.9673428</v>
       </c>
-      <c r="E103" s="72"/>
+      <c r="E103" s="73"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="19" t="s">
@@ -24047,7 +24143,7 @@
       <c r="D105" s="28">
         <v>0.967788</v>
       </c>
-      <c r="E105" s="72">
+      <c r="E105" s="73">
         <v>0.9683</v>
       </c>
     </row>
@@ -24081,7 +24177,7 @@
       <c r="D107" s="20">
         <v>0.9676965</v>
       </c>
-      <c r="E107" s="69">
+      <c r="E107" s="70">
         <v>0.9689</v>
       </c>
     </row>
@@ -24098,12 +24194,12 @@
       <c r="D108" s="10">
         <v>0.9675807</v>
       </c>
-      <c r="E108" s="69">
+      <c r="E108" s="70">
         <v>0.96939</v>
       </c>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="72"/>
+      <c r="E109" s="73"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
@@ -24118,10 +24214,10 @@
       <c r="D110" s="10">
         <v>0.9673982</v>
       </c>
-      <c r="E110" s="72">
+      <c r="E110" s="73">
         <v>0.9695</v>
       </c>
-      <c r="F110" s="73" t="s">
+      <c r="F110" s="74" t="s">
         <v>170</v>
       </c>
     </row>
@@ -24138,7 +24234,7 @@
       <c r="D111" s="10">
         <v>0.967503</v>
       </c>
-      <c r="E111" s="72">
+      <c r="E111" s="73">
         <v>0.9695</v>
       </c>
     </row>
@@ -24155,7 +24251,7 @@
       <c r="D112" s="10">
         <v>0.9675222</v>
       </c>
-      <c r="E112" s="72">
+      <c r="E112" s="73">
         <v>0.9697</v>
       </c>
     </row>
@@ -24172,15 +24268,15 @@
       <c r="D113" s="10">
         <v>0.9678351</v>
       </c>
-      <c r="E113" s="72">
+      <c r="E113" s="73">
         <v>0.9699</v>
       </c>
-      <c r="F113" s="74" t="s">
+      <c r="F113" s="75" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:5">
-      <c r="A114" s="79" t="s">
+      <c r="A114" s="81" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -24192,12 +24288,12 @@
       <c r="D114" s="10">
         <v>0.9678722</v>
       </c>
-      <c r="E114" s="72">
+      <c r="E114" s="73">
         <v>0.97</v>
       </c>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="72"/>
+      <c r="E115" s="73"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
@@ -24212,7 +24308,7 @@
       <c r="D116" s="10">
         <v>0.9675222</v>
       </c>
-      <c r="E116" s="72">
+      <c r="E116" s="73">
         <v>0.9697</v>
       </c>
     </row>
@@ -24229,7 +24325,7 @@
       <c r="D117" s="10">
         <v>0.9675741</v>
       </c>
-      <c r="E117" s="72">
+      <c r="E117" s="73">
         <v>0.9691</v>
       </c>
     </row>
@@ -24250,62 +24346,79 @@
         <v>0.96979</v>
       </c>
     </row>
-    <row r="119" spans="5:5">
-      <c r="E119" s="72"/>
+    <row r="119" spans="1:6">
+      <c r="A119" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" s="10">
+        <v>0.9962458</v>
+      </c>
+      <c r="D119" s="10">
+        <v>0.9674325</v>
+      </c>
+      <c r="E119" s="73">
+        <v>0.9699</v>
+      </c>
+      <c r="F119" s="76" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="72"/>
+      <c r="E120" s="73"/>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="72"/>
+      <c r="E121" s="73"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="72"/>
+      <c r="E122" s="73"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="72"/>
+      <c r="E123" s="73"/>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="72"/>
+      <c r="E124" s="73"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="72"/>
+      <c r="E125" s="73"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="72"/>
+      <c r="E126" s="73"/>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="72"/>
+      <c r="E127" s="73"/>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="72"/>
+      <c r="E128" s="73"/>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="72"/>
+      <c r="E129" s="73"/>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="72"/>
+      <c r="E130" s="73"/>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="72"/>
+      <c r="E131" s="73"/>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="72"/>
+      <c r="E132" s="73"/>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="72"/>
+      <c r="E133" s="73"/>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="72"/>
+      <c r="E134" s="73"/>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="72"/>
+      <c r="E135" s="73"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="72"/>
+      <c r="E136" s="73"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="72"/>
+      <c r="E137" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <r>
       <rPr>
@@ -1678,6 +1678,114 @@
       <t>！</t>
     </r>
   </si>
+  <si>
+    <t>history_city_hot_statistic</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <r>
+      <t>history_city</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>continent_hot_statistic</t>
+    </r>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>last_order_city_hot</t>
+  </si>
+  <si>
+    <r>
+      <t>last_order_city</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>continent_hot</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>last_order_city</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>country_hot</t>
+    </r>
+  </si>
+  <si>
+    <t>last_order_country_hot</t>
+  </si>
+  <si>
+    <t>last_order_continent_hot</t>
+  </si>
 </sst>
 </file>
 
@@ -2970,7 +3078,7 @@
   <dimension ref="A1:AMH137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -24366,26 +24474,127 @@
         <v>181</v>
       </c>
     </row>
-    <row r="120" spans="5:5">
-      <c r="E120" s="73"/>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C120" s="10">
+        <v>0.9970436</v>
+      </c>
+      <c r="D120" s="10">
+        <v>0.9674582</v>
+      </c>
+      <c r="E120" s="70">
+        <v>0.9697</v>
+      </c>
     </row>
-    <row r="121" spans="5:5">
-      <c r="E121" s="73"/>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" s="10">
+        <v>0.9970948</v>
+      </c>
+      <c r="D121" s="10">
+        <v>0.9676493</v>
+      </c>
+      <c r="E121" s="70">
+        <v>0.9691</v>
+      </c>
     </row>
-    <row r="122" spans="5:5">
-      <c r="E122" s="73"/>
+    <row r="122" spans="1:6">
+      <c r="A122" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B122" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C122" s="28">
+        <v>0.9962342</v>
+      </c>
+      <c r="D122" s="28">
+        <v>0.9676131</v>
+      </c>
+      <c r="E122" s="39">
+        <v>0.9699</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="73"/>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" s="10">
+        <v>0.9966928</v>
+      </c>
+      <c r="D123" s="10">
+        <v>0.9676907</v>
+      </c>
+      <c r="E123" s="73">
+        <v>0.9691</v>
+      </c>
     </row>
-    <row r="124" spans="5:5">
-      <c r="E124" s="73"/>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="10">
+        <v>0.9963831</v>
+      </c>
+      <c r="D124" s="10">
+        <v>0.9676178</v>
+      </c>
+      <c r="E124" s="73">
+        <v>0.9696</v>
+      </c>
     </row>
-    <row r="125" spans="5:5">
-      <c r="E125" s="73"/>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" s="10">
+        <v>0.9965543</v>
+      </c>
+      <c r="D125" s="10">
+        <v>0.9675494</v>
+      </c>
+      <c r="E125" s="73">
+        <v>0.969</v>
+      </c>
     </row>
-    <row r="126" spans="5:5">
-      <c r="E126" s="73"/>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="10">
+        <v>0.9965525</v>
+      </c>
+      <c r="D126" s="10">
+        <v>0.9675756</v>
+      </c>
+      <c r="E126" s="73">
+        <v>0.9696</v>
+      </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" s="73"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
   <si>
     <r>
       <rPr>
@@ -1786,6 +1786,28 @@
   <si>
     <t>last_order_continent_hot</t>
   </si>
+  <si>
+    <t>每年每个月份订单的统计</t>
+  </si>
+  <si>
+    <t>drop 201709,201708,201707, 201701,201705</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <r>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> has_history_flag</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -3077,8 +3099,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -24596,14 +24618,59 @@
         <v>0.9696</v>
       </c>
     </row>
-    <row r="127" spans="5:5">
-      <c r="E127" s="73"/>
+    <row r="127" spans="1:5">
+      <c r="A127" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C127" s="10">
+        <v>0.9971227</v>
+      </c>
+      <c r="D127" s="10">
+        <v>0.967532</v>
+      </c>
+      <c r="E127" s="73">
+        <v>0.9697</v>
+      </c>
     </row>
-    <row r="128" spans="5:5">
-      <c r="E128" s="73"/>
+    <row r="128" spans="1:6">
+      <c r="A128" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C128" s="28">
+        <v>0.9969254</v>
+      </c>
+      <c r="D128" s="28">
+        <v>0.9675227</v>
+      </c>
+      <c r="E128" s="39">
+        <v>0.9699</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="129" spans="5:5">
-      <c r="E129" s="73"/>
+    <row r="129" spans="1:5">
+      <c r="A129" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" s="10">
+        <v>0.9967608</v>
+      </c>
+      <c r="D129" s="10">
+        <v>0.9675508</v>
+      </c>
+      <c r="E129" s="73">
+        <v>0.9697</v>
+      </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" s="73"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
   <si>
     <r>
       <rPr>
@@ -1662,7 +1662,7 @@
       <rPr>
         <b/>
         <sz val="8"/>
-        <color theme="9" tint="-0.25"/>
+        <color rgb="FFFF0000"/>
         <rFont val="DejaVu Sans Mono"/>
         <charset val="134"/>
       </rPr>
@@ -1672,7 +1672,7 @@
       <rPr>
         <b/>
         <sz val="8"/>
-        <color theme="9" tint="-0.25"/>
+        <color rgb="FFFF0000"/>
         <charset val="134"/>
       </rPr>
       <t>！</t>
@@ -1808,6 +1808,26 @@
       <t xml:space="preserve"> has_history_flag</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>fix some bug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> has_good_order</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1821,7 +1841,7 @@
     <numFmt numFmtId="177" formatCode="0.00000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1864,6 +1884,12 @@
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2043,6 +2069,13 @@
       <b/>
       <sz val="8"/>
       <color theme="9" tint="-0.25"/>
+      <name val="DejaVu Sans Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="DejaVu Sans Mono"/>
       <charset val="134"/>
     </font>
@@ -2400,142 +2433,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2758,13 +2791,10 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -3099,8 +3129,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -8415,7 +8445,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -19899,1020 +19929,1020 @@
         <v>0.9686</v>
       </c>
       <c r="H84" s="72"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="77"/>
-      <c r="L84" s="77"/>
-      <c r="M84" s="77"/>
-      <c r="N84" s="77"/>
-      <c r="O84" s="77"/>
-      <c r="P84" s="77"/>
-      <c r="Q84" s="77"/>
-      <c r="R84" s="77"/>
-      <c r="S84" s="77"/>
-      <c r="T84" s="77"/>
-      <c r="U84" s="77"/>
-      <c r="V84" s="77"/>
-      <c r="W84" s="77"/>
-      <c r="X84" s="77"/>
-      <c r="Y84" s="77"/>
-      <c r="Z84" s="77"/>
-      <c r="AA84" s="77"/>
-      <c r="AB84" s="77"/>
-      <c r="AC84" s="77"/>
-      <c r="AD84" s="77"/>
-      <c r="AE84" s="77"/>
-      <c r="AF84" s="77"/>
-      <c r="AG84" s="77"/>
-      <c r="AH84" s="77"/>
-      <c r="AI84" s="77"/>
-      <c r="AJ84" s="77"/>
-      <c r="AK84" s="77"/>
-      <c r="AL84" s="77"/>
-      <c r="AM84" s="77"/>
-      <c r="AN84" s="77"/>
-      <c r="AO84" s="77"/>
-      <c r="AP84" s="77"/>
-      <c r="AQ84" s="77"/>
-      <c r="AR84" s="77"/>
-      <c r="AS84" s="77"/>
-      <c r="AT84" s="77"/>
-      <c r="AU84" s="77"/>
-      <c r="AV84" s="77"/>
-      <c r="AW84" s="77"/>
-      <c r="AX84" s="77"/>
-      <c r="AY84" s="77"/>
-      <c r="AZ84" s="77"/>
-      <c r="BA84" s="77"/>
-      <c r="BB84" s="77"/>
-      <c r="BC84" s="77"/>
-      <c r="BD84" s="77"/>
-      <c r="BE84" s="77"/>
-      <c r="BF84" s="77"/>
-      <c r="BG84" s="77"/>
-      <c r="BH84" s="77"/>
-      <c r="BI84" s="77"/>
-      <c r="BJ84" s="77"/>
-      <c r="BK84" s="77"/>
-      <c r="BL84" s="77"/>
-      <c r="BM84" s="77"/>
-      <c r="BN84" s="77"/>
-      <c r="BO84" s="77"/>
-      <c r="BP84" s="77"/>
-      <c r="BQ84" s="77"/>
-      <c r="BR84" s="77"/>
-      <c r="BS84" s="77"/>
-      <c r="BT84" s="77"/>
-      <c r="BU84" s="77"/>
-      <c r="BV84" s="77"/>
-      <c r="BW84" s="77"/>
-      <c r="BX84" s="77"/>
-      <c r="BY84" s="77"/>
-      <c r="BZ84" s="77"/>
-      <c r="CA84" s="77"/>
-      <c r="CB84" s="77"/>
-      <c r="CC84" s="77"/>
-      <c r="CD84" s="77"/>
-      <c r="CE84" s="77"/>
-      <c r="CF84" s="77"/>
-      <c r="CG84" s="77"/>
-      <c r="CH84" s="77"/>
-      <c r="CI84" s="77"/>
-      <c r="CJ84" s="77"/>
-      <c r="CK84" s="77"/>
-      <c r="CL84" s="77"/>
-      <c r="CM84" s="77"/>
-      <c r="CN84" s="77"/>
-      <c r="CO84" s="77"/>
-      <c r="CP84" s="77"/>
-      <c r="CQ84" s="77"/>
-      <c r="CR84" s="77"/>
-      <c r="CS84" s="77"/>
-      <c r="CT84" s="77"/>
-      <c r="CU84" s="77"/>
-      <c r="CV84" s="77"/>
-      <c r="CW84" s="77"/>
-      <c r="CX84" s="77"/>
-      <c r="CY84" s="77"/>
-      <c r="CZ84" s="77"/>
-      <c r="DA84" s="77"/>
-      <c r="DB84" s="77"/>
-      <c r="DC84" s="77"/>
-      <c r="DD84" s="77"/>
-      <c r="DE84" s="77"/>
-      <c r="DF84" s="77"/>
-      <c r="DG84" s="77"/>
-      <c r="DH84" s="77"/>
-      <c r="DI84" s="77"/>
-      <c r="DJ84" s="77"/>
-      <c r="DK84" s="77"/>
-      <c r="DL84" s="77"/>
-      <c r="DM84" s="77"/>
-      <c r="DN84" s="77"/>
-      <c r="DO84" s="77"/>
-      <c r="DP84" s="77"/>
-      <c r="DQ84" s="77"/>
-      <c r="DR84" s="77"/>
-      <c r="DS84" s="77"/>
-      <c r="DT84" s="77"/>
-      <c r="DU84" s="77"/>
-      <c r="DV84" s="77"/>
-      <c r="DW84" s="77"/>
-      <c r="DX84" s="77"/>
-      <c r="DY84" s="77"/>
-      <c r="DZ84" s="77"/>
-      <c r="EA84" s="77"/>
-      <c r="EB84" s="77"/>
-      <c r="EC84" s="77"/>
-      <c r="ED84" s="77"/>
-      <c r="EE84" s="77"/>
-      <c r="EF84" s="77"/>
-      <c r="EG84" s="77"/>
-      <c r="EH84" s="77"/>
-      <c r="EI84" s="77"/>
-      <c r="EJ84" s="77"/>
-      <c r="EK84" s="77"/>
-      <c r="EL84" s="77"/>
-      <c r="EM84" s="77"/>
-      <c r="EN84" s="77"/>
-      <c r="EO84" s="77"/>
-      <c r="EP84" s="77"/>
-      <c r="EQ84" s="77"/>
-      <c r="ER84" s="77"/>
-      <c r="ES84" s="77"/>
-      <c r="ET84" s="77"/>
-      <c r="EU84" s="77"/>
-      <c r="EV84" s="77"/>
-      <c r="EW84" s="77"/>
-      <c r="EX84" s="77"/>
-      <c r="EY84" s="77"/>
-      <c r="EZ84" s="77"/>
-      <c r="FA84" s="77"/>
-      <c r="FB84" s="77"/>
-      <c r="FC84" s="77"/>
-      <c r="FD84" s="77"/>
-      <c r="FE84" s="77"/>
-      <c r="FF84" s="77"/>
-      <c r="FG84" s="77"/>
-      <c r="FH84" s="77"/>
-      <c r="FI84" s="77"/>
-      <c r="FJ84" s="77"/>
-      <c r="FK84" s="77"/>
-      <c r="FL84" s="77"/>
-      <c r="FM84" s="77"/>
-      <c r="FN84" s="77"/>
-      <c r="FO84" s="77"/>
-      <c r="FP84" s="77"/>
-      <c r="FQ84" s="77"/>
-      <c r="FR84" s="77"/>
-      <c r="FS84" s="77"/>
-      <c r="FT84" s="77"/>
-      <c r="FU84" s="77"/>
-      <c r="FV84" s="77"/>
-      <c r="FW84" s="77"/>
-      <c r="FX84" s="77"/>
-      <c r="FY84" s="77"/>
-      <c r="FZ84" s="77"/>
-      <c r="GA84" s="77"/>
-      <c r="GB84" s="77"/>
-      <c r="GC84" s="77"/>
-      <c r="GD84" s="77"/>
-      <c r="GE84" s="77"/>
-      <c r="GF84" s="77"/>
-      <c r="GG84" s="77"/>
-      <c r="GH84" s="77"/>
-      <c r="GI84" s="77"/>
-      <c r="GJ84" s="77"/>
-      <c r="GK84" s="77"/>
-      <c r="GL84" s="77"/>
-      <c r="GM84" s="77"/>
-      <c r="GN84" s="77"/>
-      <c r="GO84" s="77"/>
-      <c r="GP84" s="77"/>
-      <c r="GQ84" s="77"/>
-      <c r="GR84" s="77"/>
-      <c r="GS84" s="77"/>
-      <c r="GT84" s="77"/>
-      <c r="GU84" s="77"/>
-      <c r="GV84" s="77"/>
-      <c r="GW84" s="77"/>
-      <c r="GX84" s="77"/>
-      <c r="GY84" s="77"/>
-      <c r="GZ84" s="77"/>
-      <c r="HA84" s="77"/>
-      <c r="HB84" s="77"/>
-      <c r="HC84" s="77"/>
-      <c r="HD84" s="77"/>
-      <c r="HE84" s="77"/>
-      <c r="HF84" s="77"/>
-      <c r="HG84" s="77"/>
-      <c r="HH84" s="77"/>
-      <c r="HI84" s="77"/>
-      <c r="HJ84" s="77"/>
-      <c r="HK84" s="77"/>
-      <c r="HL84" s="77"/>
-      <c r="HM84" s="77"/>
-      <c r="HN84" s="77"/>
-      <c r="HO84" s="77"/>
-      <c r="HP84" s="77"/>
-      <c r="HQ84" s="77"/>
-      <c r="HR84" s="77"/>
-      <c r="HS84" s="77"/>
-      <c r="HT84" s="77"/>
-      <c r="HU84" s="77"/>
-      <c r="HV84" s="77"/>
-      <c r="HW84" s="77"/>
-      <c r="HX84" s="77"/>
-      <c r="HY84" s="77"/>
-      <c r="HZ84" s="77"/>
-      <c r="IA84" s="77"/>
-      <c r="IB84" s="77"/>
-      <c r="IC84" s="77"/>
-      <c r="ID84" s="77"/>
-      <c r="IE84" s="77"/>
-      <c r="IF84" s="77"/>
-      <c r="IG84" s="77"/>
-      <c r="IH84" s="77"/>
-      <c r="II84" s="77"/>
-      <c r="IJ84" s="77"/>
-      <c r="IK84" s="77"/>
-      <c r="IL84" s="77"/>
-      <c r="IM84" s="77"/>
-      <c r="IN84" s="77"/>
-      <c r="IO84" s="77"/>
-      <c r="IP84" s="77"/>
-      <c r="IQ84" s="77"/>
-      <c r="IR84" s="77"/>
-      <c r="IS84" s="77"/>
-      <c r="IT84" s="77"/>
-      <c r="IU84" s="77"/>
-      <c r="IV84" s="77"/>
-      <c r="IW84" s="77"/>
-      <c r="IX84" s="77"/>
-      <c r="IY84" s="77"/>
-      <c r="IZ84" s="77"/>
-      <c r="JA84" s="77"/>
-      <c r="JB84" s="77"/>
-      <c r="JC84" s="77"/>
-      <c r="JD84" s="77"/>
-      <c r="JE84" s="77"/>
-      <c r="JF84" s="77"/>
-      <c r="JG84" s="77"/>
-      <c r="JH84" s="77"/>
-      <c r="JI84" s="77"/>
-      <c r="JJ84" s="77"/>
-      <c r="JK84" s="77"/>
-      <c r="JL84" s="77"/>
-      <c r="JM84" s="77"/>
-      <c r="JN84" s="77"/>
-      <c r="JO84" s="77"/>
-      <c r="JP84" s="77"/>
-      <c r="JQ84" s="77"/>
-      <c r="JR84" s="77"/>
-      <c r="JS84" s="77"/>
-      <c r="JT84" s="77"/>
-      <c r="JU84" s="77"/>
-      <c r="JV84" s="77"/>
-      <c r="JW84" s="77"/>
-      <c r="JX84" s="77"/>
-      <c r="JY84" s="77"/>
-      <c r="JZ84" s="77"/>
-      <c r="KA84" s="77"/>
-      <c r="KB84" s="77"/>
-      <c r="KC84" s="77"/>
-      <c r="KD84" s="77"/>
-      <c r="KE84" s="77"/>
-      <c r="KF84" s="77"/>
-      <c r="KG84" s="77"/>
-      <c r="KH84" s="77"/>
-      <c r="KI84" s="77"/>
-      <c r="KJ84" s="77"/>
-      <c r="KK84" s="77"/>
-      <c r="KL84" s="77"/>
-      <c r="KM84" s="77"/>
-      <c r="KN84" s="77"/>
-      <c r="KO84" s="77"/>
-      <c r="KP84" s="77"/>
-      <c r="KQ84" s="77"/>
-      <c r="KR84" s="77"/>
-      <c r="KS84" s="77"/>
-      <c r="KT84" s="77"/>
-      <c r="KU84" s="77"/>
-      <c r="KV84" s="77"/>
-      <c r="KW84" s="77"/>
-      <c r="KX84" s="77"/>
-      <c r="KY84" s="77"/>
-      <c r="KZ84" s="77"/>
-      <c r="LA84" s="77"/>
-      <c r="LB84" s="77"/>
-      <c r="LC84" s="77"/>
-      <c r="LD84" s="77"/>
-      <c r="LE84" s="77"/>
-      <c r="LF84" s="77"/>
-      <c r="LG84" s="77"/>
-      <c r="LH84" s="77"/>
-      <c r="LI84" s="77"/>
-      <c r="LJ84" s="77"/>
-      <c r="LK84" s="77"/>
-      <c r="LL84" s="77"/>
-      <c r="LM84" s="77"/>
-      <c r="LN84" s="77"/>
-      <c r="LO84" s="77"/>
-      <c r="LP84" s="77"/>
-      <c r="LQ84" s="77"/>
-      <c r="LR84" s="77"/>
-      <c r="LS84" s="77"/>
-      <c r="LT84" s="77"/>
-      <c r="LU84" s="77"/>
-      <c r="LV84" s="77"/>
-      <c r="LW84" s="77"/>
-      <c r="LX84" s="77"/>
-      <c r="LY84" s="77"/>
-      <c r="LZ84" s="77"/>
-      <c r="MA84" s="77"/>
-      <c r="MB84" s="77"/>
-      <c r="MC84" s="77"/>
-      <c r="MD84" s="77"/>
-      <c r="ME84" s="77"/>
-      <c r="MF84" s="77"/>
-      <c r="MG84" s="77"/>
-      <c r="MH84" s="77"/>
-      <c r="MI84" s="77"/>
-      <c r="MJ84" s="77"/>
-      <c r="MK84" s="77"/>
-      <c r="ML84" s="77"/>
-      <c r="MM84" s="77"/>
-      <c r="MN84" s="77"/>
-      <c r="MO84" s="77"/>
-      <c r="MP84" s="77"/>
-      <c r="MQ84" s="77"/>
-      <c r="MR84" s="77"/>
-      <c r="MS84" s="77"/>
-      <c r="MT84" s="77"/>
-      <c r="MU84" s="77"/>
-      <c r="MV84" s="77"/>
-      <c r="MW84" s="77"/>
-      <c r="MX84" s="77"/>
-      <c r="MY84" s="77"/>
-      <c r="MZ84" s="77"/>
-      <c r="NA84" s="77"/>
-      <c r="NB84" s="77"/>
-      <c r="NC84" s="77"/>
-      <c r="ND84" s="77"/>
-      <c r="NE84" s="77"/>
-      <c r="NF84" s="77"/>
-      <c r="NG84" s="77"/>
-      <c r="NH84" s="77"/>
-      <c r="NI84" s="77"/>
-      <c r="NJ84" s="77"/>
-      <c r="NK84" s="77"/>
-      <c r="NL84" s="77"/>
-      <c r="NM84" s="77"/>
-      <c r="NN84" s="77"/>
-      <c r="NO84" s="77"/>
-      <c r="NP84" s="77"/>
-      <c r="NQ84" s="77"/>
-      <c r="NR84" s="77"/>
-      <c r="NS84" s="77"/>
-      <c r="NT84" s="77"/>
-      <c r="NU84" s="77"/>
-      <c r="NV84" s="77"/>
-      <c r="NW84" s="77"/>
-      <c r="NX84" s="77"/>
-      <c r="NY84" s="77"/>
-      <c r="NZ84" s="77"/>
-      <c r="OA84" s="77"/>
-      <c r="OB84" s="77"/>
-      <c r="OC84" s="77"/>
-      <c r="OD84" s="77"/>
-      <c r="OE84" s="77"/>
-      <c r="OF84" s="77"/>
-      <c r="OG84" s="77"/>
-      <c r="OH84" s="77"/>
-      <c r="OI84" s="77"/>
-      <c r="OJ84" s="77"/>
-      <c r="OK84" s="77"/>
-      <c r="OL84" s="77"/>
-      <c r="OM84" s="77"/>
-      <c r="ON84" s="77"/>
-      <c r="OO84" s="77"/>
-      <c r="OP84" s="77"/>
-      <c r="OQ84" s="77"/>
-      <c r="OR84" s="77"/>
-      <c r="OS84" s="77"/>
-      <c r="OT84" s="77"/>
-      <c r="OU84" s="77"/>
-      <c r="OV84" s="77"/>
-      <c r="OW84" s="77"/>
-      <c r="OX84" s="77"/>
-      <c r="OY84" s="77"/>
-      <c r="OZ84" s="77"/>
-      <c r="PA84" s="77"/>
-      <c r="PB84" s="77"/>
-      <c r="PC84" s="77"/>
-      <c r="PD84" s="77"/>
-      <c r="PE84" s="77"/>
-      <c r="PF84" s="77"/>
-      <c r="PG84" s="77"/>
-      <c r="PH84" s="77"/>
-      <c r="PI84" s="77"/>
-      <c r="PJ84" s="77"/>
-      <c r="PK84" s="77"/>
-      <c r="PL84" s="77"/>
-      <c r="PM84" s="77"/>
-      <c r="PN84" s="77"/>
-      <c r="PO84" s="77"/>
-      <c r="PP84" s="77"/>
-      <c r="PQ84" s="77"/>
-      <c r="PR84" s="77"/>
-      <c r="PS84" s="77"/>
-      <c r="PT84" s="77"/>
-      <c r="PU84" s="77"/>
-      <c r="PV84" s="77"/>
-      <c r="PW84" s="77"/>
-      <c r="PX84" s="77"/>
-      <c r="PY84" s="77"/>
-      <c r="PZ84" s="77"/>
-      <c r="QA84" s="77"/>
-      <c r="QB84" s="77"/>
-      <c r="QC84" s="77"/>
-      <c r="QD84" s="77"/>
-      <c r="QE84" s="77"/>
-      <c r="QF84" s="77"/>
-      <c r="QG84" s="77"/>
-      <c r="QH84" s="77"/>
-      <c r="QI84" s="77"/>
-      <c r="QJ84" s="77"/>
-      <c r="QK84" s="77"/>
-      <c r="QL84" s="77"/>
-      <c r="QM84" s="77"/>
-      <c r="QN84" s="77"/>
-      <c r="QO84" s="77"/>
-      <c r="QP84" s="77"/>
-      <c r="QQ84" s="77"/>
-      <c r="QR84" s="77"/>
-      <c r="QS84" s="77"/>
-      <c r="QT84" s="77"/>
-      <c r="QU84" s="77"/>
-      <c r="QV84" s="77"/>
-      <c r="QW84" s="77"/>
-      <c r="QX84" s="77"/>
-      <c r="QY84" s="77"/>
-      <c r="QZ84" s="77"/>
-      <c r="RA84" s="77"/>
-      <c r="RB84" s="77"/>
-      <c r="RC84" s="77"/>
-      <c r="RD84" s="77"/>
-      <c r="RE84" s="77"/>
-      <c r="RF84" s="77"/>
-      <c r="RG84" s="77"/>
-      <c r="RH84" s="77"/>
-      <c r="RI84" s="77"/>
-      <c r="RJ84" s="77"/>
-      <c r="RK84" s="77"/>
-      <c r="RL84" s="77"/>
-      <c r="RM84" s="77"/>
-      <c r="RN84" s="77"/>
-      <c r="RO84" s="77"/>
-      <c r="RP84" s="77"/>
-      <c r="RQ84" s="77"/>
-      <c r="RR84" s="77"/>
-      <c r="RS84" s="77"/>
-      <c r="RT84" s="77"/>
-      <c r="RU84" s="77"/>
-      <c r="RV84" s="77"/>
-      <c r="RW84" s="77"/>
-      <c r="RX84" s="77"/>
-      <c r="RY84" s="77"/>
-      <c r="RZ84" s="77"/>
-      <c r="SA84" s="77"/>
-      <c r="SB84" s="77"/>
-      <c r="SC84" s="77"/>
-      <c r="SD84" s="77"/>
-      <c r="SE84" s="77"/>
-      <c r="SF84" s="77"/>
-      <c r="SG84" s="77"/>
-      <c r="SH84" s="77"/>
-      <c r="SI84" s="77"/>
-      <c r="SJ84" s="77"/>
-      <c r="SK84" s="77"/>
-      <c r="SL84" s="77"/>
-      <c r="SM84" s="77"/>
-      <c r="SN84" s="77"/>
-      <c r="SO84" s="77"/>
-      <c r="SP84" s="77"/>
-      <c r="SQ84" s="77"/>
-      <c r="SR84" s="77"/>
-      <c r="SS84" s="77"/>
-      <c r="ST84" s="77"/>
-      <c r="SU84" s="77"/>
-      <c r="SV84" s="77"/>
-      <c r="SW84" s="77"/>
-      <c r="SX84" s="77"/>
-      <c r="SY84" s="77"/>
-      <c r="SZ84" s="77"/>
-      <c r="TA84" s="77"/>
-      <c r="TB84" s="77"/>
-      <c r="TC84" s="77"/>
-      <c r="TD84" s="77"/>
-      <c r="TE84" s="77"/>
-      <c r="TF84" s="77"/>
-      <c r="TG84" s="77"/>
-      <c r="TH84" s="77"/>
-      <c r="TI84" s="77"/>
-      <c r="TJ84" s="77"/>
-      <c r="TK84" s="77"/>
-      <c r="TL84" s="77"/>
-      <c r="TM84" s="77"/>
-      <c r="TN84" s="77"/>
-      <c r="TO84" s="77"/>
-      <c r="TP84" s="77"/>
-      <c r="TQ84" s="77"/>
-      <c r="TR84" s="77"/>
-      <c r="TS84" s="77"/>
-      <c r="TT84" s="77"/>
-      <c r="TU84" s="77"/>
-      <c r="TV84" s="77"/>
-      <c r="TW84" s="77"/>
-      <c r="TX84" s="77"/>
-      <c r="TY84" s="77"/>
-      <c r="TZ84" s="77"/>
-      <c r="UA84" s="77"/>
-      <c r="UB84" s="77"/>
-      <c r="UC84" s="77"/>
-      <c r="UD84" s="77"/>
-      <c r="UE84" s="77"/>
-      <c r="UF84" s="77"/>
-      <c r="UG84" s="77"/>
-      <c r="UH84" s="77"/>
-      <c r="UI84" s="77"/>
-      <c r="UJ84" s="77"/>
-      <c r="UK84" s="77"/>
-      <c r="UL84" s="77"/>
-      <c r="UM84" s="77"/>
-      <c r="UN84" s="77"/>
-      <c r="UO84" s="77"/>
-      <c r="UP84" s="77"/>
-      <c r="UQ84" s="77"/>
-      <c r="UR84" s="77"/>
-      <c r="US84" s="77"/>
-      <c r="UT84" s="77"/>
-      <c r="UU84" s="77"/>
-      <c r="UV84" s="77"/>
-      <c r="UW84" s="77"/>
-      <c r="UX84" s="77"/>
-      <c r="UY84" s="77"/>
-      <c r="UZ84" s="77"/>
-      <c r="VA84" s="77"/>
-      <c r="VB84" s="77"/>
-      <c r="VC84" s="77"/>
-      <c r="VD84" s="77"/>
-      <c r="VE84" s="77"/>
-      <c r="VF84" s="77"/>
-      <c r="VG84" s="77"/>
-      <c r="VH84" s="77"/>
-      <c r="VI84" s="77"/>
-      <c r="VJ84" s="77"/>
-      <c r="VK84" s="77"/>
-      <c r="VL84" s="77"/>
-      <c r="VM84" s="77"/>
-      <c r="VN84" s="77"/>
-      <c r="VO84" s="77"/>
-      <c r="VP84" s="77"/>
-      <c r="VQ84" s="77"/>
-      <c r="VR84" s="77"/>
-      <c r="VS84" s="77"/>
-      <c r="VT84" s="77"/>
-      <c r="VU84" s="77"/>
-      <c r="VV84" s="77"/>
-      <c r="VW84" s="77"/>
-      <c r="VX84" s="77"/>
-      <c r="VY84" s="77"/>
-      <c r="VZ84" s="77"/>
-      <c r="WA84" s="77"/>
-      <c r="WB84" s="77"/>
-      <c r="WC84" s="77"/>
-      <c r="WD84" s="77"/>
-      <c r="WE84" s="77"/>
-      <c r="WF84" s="77"/>
-      <c r="WG84" s="77"/>
-      <c r="WH84" s="77"/>
-      <c r="WI84" s="77"/>
-      <c r="WJ84" s="77"/>
-      <c r="WK84" s="77"/>
-      <c r="WL84" s="77"/>
-      <c r="WM84" s="77"/>
-      <c r="WN84" s="77"/>
-      <c r="WO84" s="77"/>
-      <c r="WP84" s="77"/>
-      <c r="WQ84" s="77"/>
-      <c r="WR84" s="77"/>
-      <c r="WS84" s="77"/>
-      <c r="WT84" s="77"/>
-      <c r="WU84" s="77"/>
-      <c r="WV84" s="77"/>
-      <c r="WW84" s="77"/>
-      <c r="WX84" s="77"/>
-      <c r="WY84" s="77"/>
-      <c r="WZ84" s="77"/>
-      <c r="XA84" s="77"/>
-      <c r="XB84" s="77"/>
-      <c r="XC84" s="77"/>
-      <c r="XD84" s="77"/>
-      <c r="XE84" s="77"/>
-      <c r="XF84" s="77"/>
-      <c r="XG84" s="77"/>
-      <c r="XH84" s="77"/>
-      <c r="XI84" s="77"/>
-      <c r="XJ84" s="77"/>
-      <c r="XK84" s="77"/>
-      <c r="XL84" s="77"/>
-      <c r="XM84" s="77"/>
-      <c r="XN84" s="77"/>
-      <c r="XO84" s="77"/>
-      <c r="XP84" s="77"/>
-      <c r="XQ84" s="77"/>
-      <c r="XR84" s="77"/>
-      <c r="XS84" s="77"/>
-      <c r="XT84" s="77"/>
-      <c r="XU84" s="77"/>
-      <c r="XV84" s="77"/>
-      <c r="XW84" s="77"/>
-      <c r="XX84" s="77"/>
-      <c r="XY84" s="77"/>
-      <c r="XZ84" s="77"/>
-      <c r="YA84" s="77"/>
-      <c r="YB84" s="77"/>
-      <c r="YC84" s="77"/>
-      <c r="YD84" s="77"/>
-      <c r="YE84" s="77"/>
-      <c r="YF84" s="77"/>
-      <c r="YG84" s="77"/>
-      <c r="YH84" s="77"/>
-      <c r="YI84" s="77"/>
-      <c r="YJ84" s="77"/>
-      <c r="YK84" s="77"/>
-      <c r="YL84" s="77"/>
-      <c r="YM84" s="77"/>
-      <c r="YN84" s="77"/>
-      <c r="YO84" s="77"/>
-      <c r="YP84" s="77"/>
-      <c r="YQ84" s="77"/>
-      <c r="YR84" s="77"/>
-      <c r="YS84" s="77"/>
-      <c r="YT84" s="77"/>
-      <c r="YU84" s="77"/>
-      <c r="YV84" s="77"/>
-      <c r="YW84" s="77"/>
-      <c r="YX84" s="77"/>
-      <c r="YY84" s="77"/>
-      <c r="YZ84" s="77"/>
-      <c r="ZA84" s="77"/>
-      <c r="ZB84" s="77"/>
-      <c r="ZC84" s="77"/>
-      <c r="ZD84" s="77"/>
-      <c r="ZE84" s="77"/>
-      <c r="ZF84" s="77"/>
-      <c r="ZG84" s="77"/>
-      <c r="ZH84" s="77"/>
-      <c r="ZI84" s="77"/>
-      <c r="ZJ84" s="77"/>
-      <c r="ZK84" s="77"/>
-      <c r="ZL84" s="77"/>
-      <c r="ZM84" s="77"/>
-      <c r="ZN84" s="77"/>
-      <c r="ZO84" s="77"/>
-      <c r="ZP84" s="77"/>
-      <c r="ZQ84" s="77"/>
-      <c r="ZR84" s="77"/>
-      <c r="ZS84" s="77"/>
-      <c r="ZT84" s="77"/>
-      <c r="ZU84" s="77"/>
-      <c r="ZV84" s="77"/>
-      <c r="ZW84" s="77"/>
-      <c r="ZX84" s="77"/>
-      <c r="ZY84" s="77"/>
-      <c r="ZZ84" s="77"/>
-      <c r="AAA84" s="77"/>
-      <c r="AAB84" s="77"/>
-      <c r="AAC84" s="77"/>
-      <c r="AAD84" s="77"/>
-      <c r="AAE84" s="77"/>
-      <c r="AAF84" s="77"/>
-      <c r="AAG84" s="77"/>
-      <c r="AAH84" s="77"/>
-      <c r="AAI84" s="77"/>
-      <c r="AAJ84" s="77"/>
-      <c r="AAK84" s="77"/>
-      <c r="AAL84" s="77"/>
-      <c r="AAM84" s="77"/>
-      <c r="AAN84" s="77"/>
-      <c r="AAO84" s="77"/>
-      <c r="AAP84" s="77"/>
-      <c r="AAQ84" s="77"/>
-      <c r="AAR84" s="77"/>
-      <c r="AAS84" s="77"/>
-      <c r="AAT84" s="77"/>
-      <c r="AAU84" s="77"/>
-      <c r="AAV84" s="77"/>
-      <c r="AAW84" s="77"/>
-      <c r="AAX84" s="77"/>
-      <c r="AAY84" s="77"/>
-      <c r="AAZ84" s="77"/>
-      <c r="ABA84" s="77"/>
-      <c r="ABB84" s="77"/>
-      <c r="ABC84" s="77"/>
-      <c r="ABD84" s="77"/>
-      <c r="ABE84" s="77"/>
-      <c r="ABF84" s="77"/>
-      <c r="ABG84" s="77"/>
-      <c r="ABH84" s="77"/>
-      <c r="ABI84" s="77"/>
-      <c r="ABJ84" s="77"/>
-      <c r="ABK84" s="77"/>
-      <c r="ABL84" s="77"/>
-      <c r="ABM84" s="77"/>
-      <c r="ABN84" s="77"/>
-      <c r="ABO84" s="77"/>
-      <c r="ABP84" s="77"/>
-      <c r="ABQ84" s="77"/>
-      <c r="ABR84" s="77"/>
-      <c r="ABS84" s="77"/>
-      <c r="ABT84" s="77"/>
-      <c r="ABU84" s="77"/>
-      <c r="ABV84" s="77"/>
-      <c r="ABW84" s="77"/>
-      <c r="ABX84" s="77"/>
-      <c r="ABY84" s="77"/>
-      <c r="ABZ84" s="77"/>
-      <c r="ACA84" s="77"/>
-      <c r="ACB84" s="77"/>
-      <c r="ACC84" s="77"/>
-      <c r="ACD84" s="77"/>
-      <c r="ACE84" s="77"/>
-      <c r="ACF84" s="77"/>
-      <c r="ACG84" s="77"/>
-      <c r="ACH84" s="77"/>
-      <c r="ACI84" s="77"/>
-      <c r="ACJ84" s="77"/>
-      <c r="ACK84" s="77"/>
-      <c r="ACL84" s="77"/>
-      <c r="ACM84" s="77"/>
-      <c r="ACN84" s="77"/>
-      <c r="ACO84" s="77"/>
-      <c r="ACP84" s="77"/>
-      <c r="ACQ84" s="77"/>
-      <c r="ACR84" s="77"/>
-      <c r="ACS84" s="77"/>
-      <c r="ACT84" s="77"/>
-      <c r="ACU84" s="77"/>
-      <c r="ACV84" s="77"/>
-      <c r="ACW84" s="77"/>
-      <c r="ACX84" s="77"/>
-      <c r="ACY84" s="77"/>
-      <c r="ACZ84" s="77"/>
-      <c r="ADA84" s="77"/>
-      <c r="ADB84" s="77"/>
-      <c r="ADC84" s="77"/>
-      <c r="ADD84" s="77"/>
-      <c r="ADE84" s="77"/>
-      <c r="ADF84" s="77"/>
-      <c r="ADG84" s="77"/>
-      <c r="ADH84" s="77"/>
-      <c r="ADI84" s="77"/>
-      <c r="ADJ84" s="77"/>
-      <c r="ADK84" s="77"/>
-      <c r="ADL84" s="77"/>
-      <c r="ADM84" s="77"/>
-      <c r="ADN84" s="77"/>
-      <c r="ADO84" s="77"/>
-      <c r="ADP84" s="77"/>
-      <c r="ADQ84" s="77"/>
-      <c r="ADR84" s="77"/>
-      <c r="ADS84" s="77"/>
-      <c r="ADT84" s="77"/>
-      <c r="ADU84" s="77"/>
-      <c r="ADV84" s="77"/>
-      <c r="ADW84" s="77"/>
-      <c r="ADX84" s="77"/>
-      <c r="ADY84" s="77"/>
-      <c r="ADZ84" s="77"/>
-      <c r="AEA84" s="77"/>
-      <c r="AEB84" s="77"/>
-      <c r="AEC84" s="77"/>
-      <c r="AED84" s="77"/>
-      <c r="AEE84" s="77"/>
-      <c r="AEF84" s="77"/>
-      <c r="AEG84" s="77"/>
-      <c r="AEH84" s="77"/>
-      <c r="AEI84" s="77"/>
-      <c r="AEJ84" s="77"/>
-      <c r="AEK84" s="77"/>
-      <c r="AEL84" s="77"/>
-      <c r="AEM84" s="77"/>
-      <c r="AEN84" s="77"/>
-      <c r="AEO84" s="77"/>
-      <c r="AEP84" s="77"/>
-      <c r="AEQ84" s="77"/>
-      <c r="AER84" s="77"/>
-      <c r="AES84" s="77"/>
-      <c r="AET84" s="77"/>
-      <c r="AEU84" s="77"/>
-      <c r="AEV84" s="77"/>
-      <c r="AEW84" s="77"/>
-      <c r="AEX84" s="77"/>
-      <c r="AEY84" s="77"/>
-      <c r="AEZ84" s="77"/>
-      <c r="AFA84" s="77"/>
-      <c r="AFB84" s="77"/>
-      <c r="AFC84" s="77"/>
-      <c r="AFD84" s="77"/>
-      <c r="AFE84" s="77"/>
-      <c r="AFF84" s="77"/>
-      <c r="AFG84" s="77"/>
-      <c r="AFH84" s="77"/>
-      <c r="AFI84" s="77"/>
-      <c r="AFJ84" s="77"/>
-      <c r="AFK84" s="77"/>
-      <c r="AFL84" s="77"/>
-      <c r="AFM84" s="77"/>
-      <c r="AFN84" s="77"/>
-      <c r="AFO84" s="77"/>
-      <c r="AFP84" s="77"/>
-      <c r="AFQ84" s="77"/>
-      <c r="AFR84" s="77"/>
-      <c r="AFS84" s="77"/>
-      <c r="AFT84" s="77"/>
-      <c r="AFU84" s="77"/>
-      <c r="AFV84" s="77"/>
-      <c r="AFW84" s="77"/>
-      <c r="AFX84" s="77"/>
-      <c r="AFY84" s="77"/>
-      <c r="AFZ84" s="77"/>
-      <c r="AGA84" s="77"/>
-      <c r="AGB84" s="77"/>
-      <c r="AGC84" s="77"/>
-      <c r="AGD84" s="77"/>
-      <c r="AGE84" s="77"/>
-      <c r="AGF84" s="77"/>
-      <c r="AGG84" s="77"/>
-      <c r="AGH84" s="77"/>
-      <c r="AGI84" s="77"/>
-      <c r="AGJ84" s="77"/>
-      <c r="AGK84" s="77"/>
-      <c r="AGL84" s="77"/>
-      <c r="AGM84" s="77"/>
-      <c r="AGN84" s="77"/>
-      <c r="AGO84" s="77"/>
-      <c r="AGP84" s="77"/>
-      <c r="AGQ84" s="77"/>
-      <c r="AGR84" s="77"/>
-      <c r="AGS84" s="77"/>
-      <c r="AGT84" s="77"/>
-      <c r="AGU84" s="77"/>
-      <c r="AGV84" s="77"/>
-      <c r="AGW84" s="77"/>
-      <c r="AGX84" s="77"/>
-      <c r="AGY84" s="77"/>
-      <c r="AGZ84" s="77"/>
-      <c r="AHA84" s="77"/>
-      <c r="AHB84" s="77"/>
-      <c r="AHC84" s="77"/>
-      <c r="AHD84" s="77"/>
-      <c r="AHE84" s="77"/>
-      <c r="AHF84" s="77"/>
-      <c r="AHG84" s="77"/>
-      <c r="AHH84" s="77"/>
-      <c r="AHI84" s="77"/>
-      <c r="AHJ84" s="77"/>
-      <c r="AHK84" s="77"/>
-      <c r="AHL84" s="77"/>
-      <c r="AHM84" s="77"/>
-      <c r="AHN84" s="77"/>
-      <c r="AHO84" s="77"/>
-      <c r="AHP84" s="77"/>
-      <c r="AHQ84" s="77"/>
-      <c r="AHR84" s="77"/>
-      <c r="AHS84" s="77"/>
-      <c r="AHT84" s="77"/>
-      <c r="AHU84" s="77"/>
-      <c r="AHV84" s="77"/>
-      <c r="AHW84" s="77"/>
-      <c r="AHX84" s="77"/>
-      <c r="AHY84" s="77"/>
-      <c r="AHZ84" s="77"/>
-      <c r="AIA84" s="77"/>
-      <c r="AIB84" s="77"/>
-      <c r="AIC84" s="77"/>
-      <c r="AID84" s="77"/>
-      <c r="AIE84" s="77"/>
-      <c r="AIF84" s="77"/>
-      <c r="AIG84" s="77"/>
-      <c r="AIH84" s="77"/>
-      <c r="AII84" s="77"/>
-      <c r="AIJ84" s="77"/>
-      <c r="AIK84" s="77"/>
-      <c r="AIL84" s="77"/>
-      <c r="AIM84" s="77"/>
-      <c r="AIN84" s="77"/>
-      <c r="AIO84" s="77"/>
-      <c r="AIP84" s="77"/>
-      <c r="AIQ84" s="77"/>
-      <c r="AIR84" s="77"/>
-      <c r="AIS84" s="77"/>
-      <c r="AIT84" s="77"/>
-      <c r="AIU84" s="77"/>
-      <c r="AIV84" s="77"/>
-      <c r="AIW84" s="77"/>
-      <c r="AIX84" s="77"/>
-      <c r="AIY84" s="77"/>
-      <c r="AIZ84" s="77"/>
-      <c r="AJA84" s="77"/>
-      <c r="AJB84" s="77"/>
-      <c r="AJC84" s="77"/>
-      <c r="AJD84" s="77"/>
-      <c r="AJE84" s="77"/>
-      <c r="AJF84" s="77"/>
-      <c r="AJG84" s="77"/>
-      <c r="AJH84" s="77"/>
-      <c r="AJI84" s="77"/>
-      <c r="AJJ84" s="77"/>
-      <c r="AJK84" s="77"/>
-      <c r="AJL84" s="77"/>
-      <c r="AJM84" s="77"/>
-      <c r="AJN84" s="77"/>
-      <c r="AJO84" s="77"/>
-      <c r="AJP84" s="77"/>
-      <c r="AJQ84" s="77"/>
-      <c r="AJR84" s="77"/>
-      <c r="AJS84" s="77"/>
-      <c r="AJT84" s="77"/>
-      <c r="AJU84" s="77"/>
-      <c r="AJV84" s="77"/>
-      <c r="AJW84" s="77"/>
-      <c r="AJX84" s="77"/>
-      <c r="AJY84" s="77"/>
-      <c r="AJZ84" s="77"/>
-      <c r="AKA84" s="77"/>
-      <c r="AKB84" s="77"/>
-      <c r="AKC84" s="77"/>
-      <c r="AKD84" s="77"/>
-      <c r="AKE84" s="77"/>
-      <c r="AKF84" s="77"/>
-      <c r="AKG84" s="77"/>
-      <c r="AKH84" s="77"/>
-      <c r="AKI84" s="77"/>
-      <c r="AKJ84" s="77"/>
-      <c r="AKK84" s="77"/>
-      <c r="AKL84" s="77"/>
-      <c r="AKM84" s="77"/>
-      <c r="AKN84" s="77"/>
-      <c r="AKO84" s="77"/>
-      <c r="AKP84" s="77"/>
-      <c r="AKQ84" s="77"/>
-      <c r="AKR84" s="77"/>
-      <c r="AKS84" s="77"/>
-      <c r="AKT84" s="77"/>
-      <c r="AKU84" s="77"/>
-      <c r="AKV84" s="77"/>
-      <c r="AKW84" s="77"/>
-      <c r="AKX84" s="77"/>
-      <c r="AKY84" s="77"/>
-      <c r="AKZ84" s="77"/>
-      <c r="ALA84" s="77"/>
-      <c r="ALB84" s="77"/>
-      <c r="ALC84" s="77"/>
-      <c r="ALD84" s="77"/>
-      <c r="ALE84" s="77"/>
-      <c r="ALF84" s="77"/>
-      <c r="ALG84" s="77"/>
-      <c r="ALH84" s="77"/>
-      <c r="ALI84" s="77"/>
-      <c r="ALJ84" s="77"/>
-      <c r="ALK84" s="77"/>
-      <c r="ALL84" s="77"/>
-      <c r="ALM84" s="77"/>
-      <c r="ALN84" s="77"/>
-      <c r="ALO84" s="77"/>
-      <c r="ALP84" s="77"/>
-      <c r="ALQ84" s="77"/>
-      <c r="ALR84" s="77"/>
-      <c r="ALS84" s="77"/>
-      <c r="ALT84" s="77"/>
-      <c r="ALU84" s="77"/>
-      <c r="ALV84" s="77"/>
-      <c r="ALW84" s="77"/>
-      <c r="ALX84" s="77"/>
-      <c r="ALY84" s="77"/>
-      <c r="ALZ84" s="77"/>
-      <c r="AMA84" s="77"/>
-      <c r="AMB84" s="77"/>
-      <c r="AMC84" s="77"/>
-      <c r="AMD84" s="77"/>
-      <c r="AME84" s="77"/>
-      <c r="AMF84" s="77"/>
-      <c r="AMG84" s="77"/>
-      <c r="AMH84" s="77"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="76"/>
+      <c r="K84" s="76"/>
+      <c r="L84" s="76"/>
+      <c r="M84" s="76"/>
+      <c r="N84" s="76"/>
+      <c r="O84" s="76"/>
+      <c r="P84" s="76"/>
+      <c r="Q84" s="76"/>
+      <c r="R84" s="76"/>
+      <c r="S84" s="76"/>
+      <c r="T84" s="76"/>
+      <c r="U84" s="76"/>
+      <c r="V84" s="76"/>
+      <c r="W84" s="76"/>
+      <c r="X84" s="76"/>
+      <c r="Y84" s="76"/>
+      <c r="Z84" s="76"/>
+      <c r="AA84" s="76"/>
+      <c r="AB84" s="76"/>
+      <c r="AC84" s="76"/>
+      <c r="AD84" s="76"/>
+      <c r="AE84" s="76"/>
+      <c r="AF84" s="76"/>
+      <c r="AG84" s="76"/>
+      <c r="AH84" s="76"/>
+      <c r="AI84" s="76"/>
+      <c r="AJ84" s="76"/>
+      <c r="AK84" s="76"/>
+      <c r="AL84" s="76"/>
+      <c r="AM84" s="76"/>
+      <c r="AN84" s="76"/>
+      <c r="AO84" s="76"/>
+      <c r="AP84" s="76"/>
+      <c r="AQ84" s="76"/>
+      <c r="AR84" s="76"/>
+      <c r="AS84" s="76"/>
+      <c r="AT84" s="76"/>
+      <c r="AU84" s="76"/>
+      <c r="AV84" s="76"/>
+      <c r="AW84" s="76"/>
+      <c r="AX84" s="76"/>
+      <c r="AY84" s="76"/>
+      <c r="AZ84" s="76"/>
+      <c r="BA84" s="76"/>
+      <c r="BB84" s="76"/>
+      <c r="BC84" s="76"/>
+      <c r="BD84" s="76"/>
+      <c r="BE84" s="76"/>
+      <c r="BF84" s="76"/>
+      <c r="BG84" s="76"/>
+      <c r="BH84" s="76"/>
+      <c r="BI84" s="76"/>
+      <c r="BJ84" s="76"/>
+      <c r="BK84" s="76"/>
+      <c r="BL84" s="76"/>
+      <c r="BM84" s="76"/>
+      <c r="BN84" s="76"/>
+      <c r="BO84" s="76"/>
+      <c r="BP84" s="76"/>
+      <c r="BQ84" s="76"/>
+      <c r="BR84" s="76"/>
+      <c r="BS84" s="76"/>
+      <c r="BT84" s="76"/>
+      <c r="BU84" s="76"/>
+      <c r="BV84" s="76"/>
+      <c r="BW84" s="76"/>
+      <c r="BX84" s="76"/>
+      <c r="BY84" s="76"/>
+      <c r="BZ84" s="76"/>
+      <c r="CA84" s="76"/>
+      <c r="CB84" s="76"/>
+      <c r="CC84" s="76"/>
+      <c r="CD84" s="76"/>
+      <c r="CE84" s="76"/>
+      <c r="CF84" s="76"/>
+      <c r="CG84" s="76"/>
+      <c r="CH84" s="76"/>
+      <c r="CI84" s="76"/>
+      <c r="CJ84" s="76"/>
+      <c r="CK84" s="76"/>
+      <c r="CL84" s="76"/>
+      <c r="CM84" s="76"/>
+      <c r="CN84" s="76"/>
+      <c r="CO84" s="76"/>
+      <c r="CP84" s="76"/>
+      <c r="CQ84" s="76"/>
+      <c r="CR84" s="76"/>
+      <c r="CS84" s="76"/>
+      <c r="CT84" s="76"/>
+      <c r="CU84" s="76"/>
+      <c r="CV84" s="76"/>
+      <c r="CW84" s="76"/>
+      <c r="CX84" s="76"/>
+      <c r="CY84" s="76"/>
+      <c r="CZ84" s="76"/>
+      <c r="DA84" s="76"/>
+      <c r="DB84" s="76"/>
+      <c r="DC84" s="76"/>
+      <c r="DD84" s="76"/>
+      <c r="DE84" s="76"/>
+      <c r="DF84" s="76"/>
+      <c r="DG84" s="76"/>
+      <c r="DH84" s="76"/>
+      <c r="DI84" s="76"/>
+      <c r="DJ84" s="76"/>
+      <c r="DK84" s="76"/>
+      <c r="DL84" s="76"/>
+      <c r="DM84" s="76"/>
+      <c r="DN84" s="76"/>
+      <c r="DO84" s="76"/>
+      <c r="DP84" s="76"/>
+      <c r="DQ84" s="76"/>
+      <c r="DR84" s="76"/>
+      <c r="DS84" s="76"/>
+      <c r="DT84" s="76"/>
+      <c r="DU84" s="76"/>
+      <c r="DV84" s="76"/>
+      <c r="DW84" s="76"/>
+      <c r="DX84" s="76"/>
+      <c r="DY84" s="76"/>
+      <c r="DZ84" s="76"/>
+      <c r="EA84" s="76"/>
+      <c r="EB84" s="76"/>
+      <c r="EC84" s="76"/>
+      <c r="ED84" s="76"/>
+      <c r="EE84" s="76"/>
+      <c r="EF84" s="76"/>
+      <c r="EG84" s="76"/>
+      <c r="EH84" s="76"/>
+      <c r="EI84" s="76"/>
+      <c r="EJ84" s="76"/>
+      <c r="EK84" s="76"/>
+      <c r="EL84" s="76"/>
+      <c r="EM84" s="76"/>
+      <c r="EN84" s="76"/>
+      <c r="EO84" s="76"/>
+      <c r="EP84" s="76"/>
+      <c r="EQ84" s="76"/>
+      <c r="ER84" s="76"/>
+      <c r="ES84" s="76"/>
+      <c r="ET84" s="76"/>
+      <c r="EU84" s="76"/>
+      <c r="EV84" s="76"/>
+      <c r="EW84" s="76"/>
+      <c r="EX84" s="76"/>
+      <c r="EY84" s="76"/>
+      <c r="EZ84" s="76"/>
+      <c r="FA84" s="76"/>
+      <c r="FB84" s="76"/>
+      <c r="FC84" s="76"/>
+      <c r="FD84" s="76"/>
+      <c r="FE84" s="76"/>
+      <c r="FF84" s="76"/>
+      <c r="FG84" s="76"/>
+      <c r="FH84" s="76"/>
+      <c r="FI84" s="76"/>
+      <c r="FJ84" s="76"/>
+      <c r="FK84" s="76"/>
+      <c r="FL84" s="76"/>
+      <c r="FM84" s="76"/>
+      <c r="FN84" s="76"/>
+      <c r="FO84" s="76"/>
+      <c r="FP84" s="76"/>
+      <c r="FQ84" s="76"/>
+      <c r="FR84" s="76"/>
+      <c r="FS84" s="76"/>
+      <c r="FT84" s="76"/>
+      <c r="FU84" s="76"/>
+      <c r="FV84" s="76"/>
+      <c r="FW84" s="76"/>
+      <c r="FX84" s="76"/>
+      <c r="FY84" s="76"/>
+      <c r="FZ84" s="76"/>
+      <c r="GA84" s="76"/>
+      <c r="GB84" s="76"/>
+      <c r="GC84" s="76"/>
+      <c r="GD84" s="76"/>
+      <c r="GE84" s="76"/>
+      <c r="GF84" s="76"/>
+      <c r="GG84" s="76"/>
+      <c r="GH84" s="76"/>
+      <c r="GI84" s="76"/>
+      <c r="GJ84" s="76"/>
+      <c r="GK84" s="76"/>
+      <c r="GL84" s="76"/>
+      <c r="GM84" s="76"/>
+      <c r="GN84" s="76"/>
+      <c r="GO84" s="76"/>
+      <c r="GP84" s="76"/>
+      <c r="GQ84" s="76"/>
+      <c r="GR84" s="76"/>
+      <c r="GS84" s="76"/>
+      <c r="GT84" s="76"/>
+      <c r="GU84" s="76"/>
+      <c r="GV84" s="76"/>
+      <c r="GW84" s="76"/>
+      <c r="GX84" s="76"/>
+      <c r="GY84" s="76"/>
+      <c r="GZ84" s="76"/>
+      <c r="HA84" s="76"/>
+      <c r="HB84" s="76"/>
+      <c r="HC84" s="76"/>
+      <c r="HD84" s="76"/>
+      <c r="HE84" s="76"/>
+      <c r="HF84" s="76"/>
+      <c r="HG84" s="76"/>
+      <c r="HH84" s="76"/>
+      <c r="HI84" s="76"/>
+      <c r="HJ84" s="76"/>
+      <c r="HK84" s="76"/>
+      <c r="HL84" s="76"/>
+      <c r="HM84" s="76"/>
+      <c r="HN84" s="76"/>
+      <c r="HO84" s="76"/>
+      <c r="HP84" s="76"/>
+      <c r="HQ84" s="76"/>
+      <c r="HR84" s="76"/>
+      <c r="HS84" s="76"/>
+      <c r="HT84" s="76"/>
+      <c r="HU84" s="76"/>
+      <c r="HV84" s="76"/>
+      <c r="HW84" s="76"/>
+      <c r="HX84" s="76"/>
+      <c r="HY84" s="76"/>
+      <c r="HZ84" s="76"/>
+      <c r="IA84" s="76"/>
+      <c r="IB84" s="76"/>
+      <c r="IC84" s="76"/>
+      <c r="ID84" s="76"/>
+      <c r="IE84" s="76"/>
+      <c r="IF84" s="76"/>
+      <c r="IG84" s="76"/>
+      <c r="IH84" s="76"/>
+      <c r="II84" s="76"/>
+      <c r="IJ84" s="76"/>
+      <c r="IK84" s="76"/>
+      <c r="IL84" s="76"/>
+      <c r="IM84" s="76"/>
+      <c r="IN84" s="76"/>
+      <c r="IO84" s="76"/>
+      <c r="IP84" s="76"/>
+      <c r="IQ84" s="76"/>
+      <c r="IR84" s="76"/>
+      <c r="IS84" s="76"/>
+      <c r="IT84" s="76"/>
+      <c r="IU84" s="76"/>
+      <c r="IV84" s="76"/>
+      <c r="IW84" s="76"/>
+      <c r="IX84" s="76"/>
+      <c r="IY84" s="76"/>
+      <c r="IZ84" s="76"/>
+      <c r="JA84" s="76"/>
+      <c r="JB84" s="76"/>
+      <c r="JC84" s="76"/>
+      <c r="JD84" s="76"/>
+      <c r="JE84" s="76"/>
+      <c r="JF84" s="76"/>
+      <c r="JG84" s="76"/>
+      <c r="JH84" s="76"/>
+      <c r="JI84" s="76"/>
+      <c r="JJ84" s="76"/>
+      <c r="JK84" s="76"/>
+      <c r="JL84" s="76"/>
+      <c r="JM84" s="76"/>
+      <c r="JN84" s="76"/>
+      <c r="JO84" s="76"/>
+      <c r="JP84" s="76"/>
+      <c r="JQ84" s="76"/>
+      <c r="JR84" s="76"/>
+      <c r="JS84" s="76"/>
+      <c r="JT84" s="76"/>
+      <c r="JU84" s="76"/>
+      <c r="JV84" s="76"/>
+      <c r="JW84" s="76"/>
+      <c r="JX84" s="76"/>
+      <c r="JY84" s="76"/>
+      <c r="JZ84" s="76"/>
+      <c r="KA84" s="76"/>
+      <c r="KB84" s="76"/>
+      <c r="KC84" s="76"/>
+      <c r="KD84" s="76"/>
+      <c r="KE84" s="76"/>
+      <c r="KF84" s="76"/>
+      <c r="KG84" s="76"/>
+      <c r="KH84" s="76"/>
+      <c r="KI84" s="76"/>
+      <c r="KJ84" s="76"/>
+      <c r="KK84" s="76"/>
+      <c r="KL84" s="76"/>
+      <c r="KM84" s="76"/>
+      <c r="KN84" s="76"/>
+      <c r="KO84" s="76"/>
+      <c r="KP84" s="76"/>
+      <c r="KQ84" s="76"/>
+      <c r="KR84" s="76"/>
+      <c r="KS84" s="76"/>
+      <c r="KT84" s="76"/>
+      <c r="KU84" s="76"/>
+      <c r="KV84" s="76"/>
+      <c r="KW84" s="76"/>
+      <c r="KX84" s="76"/>
+      <c r="KY84" s="76"/>
+      <c r="KZ84" s="76"/>
+      <c r="LA84" s="76"/>
+      <c r="LB84" s="76"/>
+      <c r="LC84" s="76"/>
+      <c r="LD84" s="76"/>
+      <c r="LE84" s="76"/>
+      <c r="LF84" s="76"/>
+      <c r="LG84" s="76"/>
+      <c r="LH84" s="76"/>
+      <c r="LI84" s="76"/>
+      <c r="LJ84" s="76"/>
+      <c r="LK84" s="76"/>
+      <c r="LL84" s="76"/>
+      <c r="LM84" s="76"/>
+      <c r="LN84" s="76"/>
+      <c r="LO84" s="76"/>
+      <c r="LP84" s="76"/>
+      <c r="LQ84" s="76"/>
+      <c r="LR84" s="76"/>
+      <c r="LS84" s="76"/>
+      <c r="LT84" s="76"/>
+      <c r="LU84" s="76"/>
+      <c r="LV84" s="76"/>
+      <c r="LW84" s="76"/>
+      <c r="LX84" s="76"/>
+      <c r="LY84" s="76"/>
+      <c r="LZ84" s="76"/>
+      <c r="MA84" s="76"/>
+      <c r="MB84" s="76"/>
+      <c r="MC84" s="76"/>
+      <c r="MD84" s="76"/>
+      <c r="ME84" s="76"/>
+      <c r="MF84" s="76"/>
+      <c r="MG84" s="76"/>
+      <c r="MH84" s="76"/>
+      <c r="MI84" s="76"/>
+      <c r="MJ84" s="76"/>
+      <c r="MK84" s="76"/>
+      <c r="ML84" s="76"/>
+      <c r="MM84" s="76"/>
+      <c r="MN84" s="76"/>
+      <c r="MO84" s="76"/>
+      <c r="MP84" s="76"/>
+      <c r="MQ84" s="76"/>
+      <c r="MR84" s="76"/>
+      <c r="MS84" s="76"/>
+      <c r="MT84" s="76"/>
+      <c r="MU84" s="76"/>
+      <c r="MV84" s="76"/>
+      <c r="MW84" s="76"/>
+      <c r="MX84" s="76"/>
+      <c r="MY84" s="76"/>
+      <c r="MZ84" s="76"/>
+      <c r="NA84" s="76"/>
+      <c r="NB84" s="76"/>
+      <c r="NC84" s="76"/>
+      <c r="ND84" s="76"/>
+      <c r="NE84" s="76"/>
+      <c r="NF84" s="76"/>
+      <c r="NG84" s="76"/>
+      <c r="NH84" s="76"/>
+      <c r="NI84" s="76"/>
+      <c r="NJ84" s="76"/>
+      <c r="NK84" s="76"/>
+      <c r="NL84" s="76"/>
+      <c r="NM84" s="76"/>
+      <c r="NN84" s="76"/>
+      <c r="NO84" s="76"/>
+      <c r="NP84" s="76"/>
+      <c r="NQ84" s="76"/>
+      <c r="NR84" s="76"/>
+      <c r="NS84" s="76"/>
+      <c r="NT84" s="76"/>
+      <c r="NU84" s="76"/>
+      <c r="NV84" s="76"/>
+      <c r="NW84" s="76"/>
+      <c r="NX84" s="76"/>
+      <c r="NY84" s="76"/>
+      <c r="NZ84" s="76"/>
+      <c r="OA84" s="76"/>
+      <c r="OB84" s="76"/>
+      <c r="OC84" s="76"/>
+      <c r="OD84" s="76"/>
+      <c r="OE84" s="76"/>
+      <c r="OF84" s="76"/>
+      <c r="OG84" s="76"/>
+      <c r="OH84" s="76"/>
+      <c r="OI84" s="76"/>
+      <c r="OJ84" s="76"/>
+      <c r="OK84" s="76"/>
+      <c r="OL84" s="76"/>
+      <c r="OM84" s="76"/>
+      <c r="ON84" s="76"/>
+      <c r="OO84" s="76"/>
+      <c r="OP84" s="76"/>
+      <c r="OQ84" s="76"/>
+      <c r="OR84" s="76"/>
+      <c r="OS84" s="76"/>
+      <c r="OT84" s="76"/>
+      <c r="OU84" s="76"/>
+      <c r="OV84" s="76"/>
+      <c r="OW84" s="76"/>
+      <c r="OX84" s="76"/>
+      <c r="OY84" s="76"/>
+      <c r="OZ84" s="76"/>
+      <c r="PA84" s="76"/>
+      <c r="PB84" s="76"/>
+      <c r="PC84" s="76"/>
+      <c r="PD84" s="76"/>
+      <c r="PE84" s="76"/>
+      <c r="PF84" s="76"/>
+      <c r="PG84" s="76"/>
+      <c r="PH84" s="76"/>
+      <c r="PI84" s="76"/>
+      <c r="PJ84" s="76"/>
+      <c r="PK84" s="76"/>
+      <c r="PL84" s="76"/>
+      <c r="PM84" s="76"/>
+      <c r="PN84" s="76"/>
+      <c r="PO84" s="76"/>
+      <c r="PP84" s="76"/>
+      <c r="PQ84" s="76"/>
+      <c r="PR84" s="76"/>
+      <c r="PS84" s="76"/>
+      <c r="PT84" s="76"/>
+      <c r="PU84" s="76"/>
+      <c r="PV84" s="76"/>
+      <c r="PW84" s="76"/>
+      <c r="PX84" s="76"/>
+      <c r="PY84" s="76"/>
+      <c r="PZ84" s="76"/>
+      <c r="QA84" s="76"/>
+      <c r="QB84" s="76"/>
+      <c r="QC84" s="76"/>
+      <c r="QD84" s="76"/>
+      <c r="QE84" s="76"/>
+      <c r="QF84" s="76"/>
+      <c r="QG84" s="76"/>
+      <c r="QH84" s="76"/>
+      <c r="QI84" s="76"/>
+      <c r="QJ84" s="76"/>
+      <c r="QK84" s="76"/>
+      <c r="QL84" s="76"/>
+      <c r="QM84" s="76"/>
+      <c r="QN84" s="76"/>
+      <c r="QO84" s="76"/>
+      <c r="QP84" s="76"/>
+      <c r="QQ84" s="76"/>
+      <c r="QR84" s="76"/>
+      <c r="QS84" s="76"/>
+      <c r="QT84" s="76"/>
+      <c r="QU84" s="76"/>
+      <c r="QV84" s="76"/>
+      <c r="QW84" s="76"/>
+      <c r="QX84" s="76"/>
+      <c r="QY84" s="76"/>
+      <c r="QZ84" s="76"/>
+      <c r="RA84" s="76"/>
+      <c r="RB84" s="76"/>
+      <c r="RC84" s="76"/>
+      <c r="RD84" s="76"/>
+      <c r="RE84" s="76"/>
+      <c r="RF84" s="76"/>
+      <c r="RG84" s="76"/>
+      <c r="RH84" s="76"/>
+      <c r="RI84" s="76"/>
+      <c r="RJ84" s="76"/>
+      <c r="RK84" s="76"/>
+      <c r="RL84" s="76"/>
+      <c r="RM84" s="76"/>
+      <c r="RN84" s="76"/>
+      <c r="RO84" s="76"/>
+      <c r="RP84" s="76"/>
+      <c r="RQ84" s="76"/>
+      <c r="RR84" s="76"/>
+      <c r="RS84" s="76"/>
+      <c r="RT84" s="76"/>
+      <c r="RU84" s="76"/>
+      <c r="RV84" s="76"/>
+      <c r="RW84" s="76"/>
+      <c r="RX84" s="76"/>
+      <c r="RY84" s="76"/>
+      <c r="RZ84" s="76"/>
+      <c r="SA84" s="76"/>
+      <c r="SB84" s="76"/>
+      <c r="SC84" s="76"/>
+      <c r="SD84" s="76"/>
+      <c r="SE84" s="76"/>
+      <c r="SF84" s="76"/>
+      <c r="SG84" s="76"/>
+      <c r="SH84" s="76"/>
+      <c r="SI84" s="76"/>
+      <c r="SJ84" s="76"/>
+      <c r="SK84" s="76"/>
+      <c r="SL84" s="76"/>
+      <c r="SM84" s="76"/>
+      <c r="SN84" s="76"/>
+      <c r="SO84" s="76"/>
+      <c r="SP84" s="76"/>
+      <c r="SQ84" s="76"/>
+      <c r="SR84" s="76"/>
+      <c r="SS84" s="76"/>
+      <c r="ST84" s="76"/>
+      <c r="SU84" s="76"/>
+      <c r="SV84" s="76"/>
+      <c r="SW84" s="76"/>
+      <c r="SX84" s="76"/>
+      <c r="SY84" s="76"/>
+      <c r="SZ84" s="76"/>
+      <c r="TA84" s="76"/>
+      <c r="TB84" s="76"/>
+      <c r="TC84" s="76"/>
+      <c r="TD84" s="76"/>
+      <c r="TE84" s="76"/>
+      <c r="TF84" s="76"/>
+      <c r="TG84" s="76"/>
+      <c r="TH84" s="76"/>
+      <c r="TI84" s="76"/>
+      <c r="TJ84" s="76"/>
+      <c r="TK84" s="76"/>
+      <c r="TL84" s="76"/>
+      <c r="TM84" s="76"/>
+      <c r="TN84" s="76"/>
+      <c r="TO84" s="76"/>
+      <c r="TP84" s="76"/>
+      <c r="TQ84" s="76"/>
+      <c r="TR84" s="76"/>
+      <c r="TS84" s="76"/>
+      <c r="TT84" s="76"/>
+      <c r="TU84" s="76"/>
+      <c r="TV84" s="76"/>
+      <c r="TW84" s="76"/>
+      <c r="TX84" s="76"/>
+      <c r="TY84" s="76"/>
+      <c r="TZ84" s="76"/>
+      <c r="UA84" s="76"/>
+      <c r="UB84" s="76"/>
+      <c r="UC84" s="76"/>
+      <c r="UD84" s="76"/>
+      <c r="UE84" s="76"/>
+      <c r="UF84" s="76"/>
+      <c r="UG84" s="76"/>
+      <c r="UH84" s="76"/>
+      <c r="UI84" s="76"/>
+      <c r="UJ84" s="76"/>
+      <c r="UK84" s="76"/>
+      <c r="UL84" s="76"/>
+      <c r="UM84" s="76"/>
+      <c r="UN84" s="76"/>
+      <c r="UO84" s="76"/>
+      <c r="UP84" s="76"/>
+      <c r="UQ84" s="76"/>
+      <c r="UR84" s="76"/>
+      <c r="US84" s="76"/>
+      <c r="UT84" s="76"/>
+      <c r="UU84" s="76"/>
+      <c r="UV84" s="76"/>
+      <c r="UW84" s="76"/>
+      <c r="UX84" s="76"/>
+      <c r="UY84" s="76"/>
+      <c r="UZ84" s="76"/>
+      <c r="VA84" s="76"/>
+      <c r="VB84" s="76"/>
+      <c r="VC84" s="76"/>
+      <c r="VD84" s="76"/>
+      <c r="VE84" s="76"/>
+      <c r="VF84" s="76"/>
+      <c r="VG84" s="76"/>
+      <c r="VH84" s="76"/>
+      <c r="VI84" s="76"/>
+      <c r="VJ84" s="76"/>
+      <c r="VK84" s="76"/>
+      <c r="VL84" s="76"/>
+      <c r="VM84" s="76"/>
+      <c r="VN84" s="76"/>
+      <c r="VO84" s="76"/>
+      <c r="VP84" s="76"/>
+      <c r="VQ84" s="76"/>
+      <c r="VR84" s="76"/>
+      <c r="VS84" s="76"/>
+      <c r="VT84" s="76"/>
+      <c r="VU84" s="76"/>
+      <c r="VV84" s="76"/>
+      <c r="VW84" s="76"/>
+      <c r="VX84" s="76"/>
+      <c r="VY84" s="76"/>
+      <c r="VZ84" s="76"/>
+      <c r="WA84" s="76"/>
+      <c r="WB84" s="76"/>
+      <c r="WC84" s="76"/>
+      <c r="WD84" s="76"/>
+      <c r="WE84" s="76"/>
+      <c r="WF84" s="76"/>
+      <c r="WG84" s="76"/>
+      <c r="WH84" s="76"/>
+      <c r="WI84" s="76"/>
+      <c r="WJ84" s="76"/>
+      <c r="WK84" s="76"/>
+      <c r="WL84" s="76"/>
+      <c r="WM84" s="76"/>
+      <c r="WN84" s="76"/>
+      <c r="WO84" s="76"/>
+      <c r="WP84" s="76"/>
+      <c r="WQ84" s="76"/>
+      <c r="WR84" s="76"/>
+      <c r="WS84" s="76"/>
+      <c r="WT84" s="76"/>
+      <c r="WU84" s="76"/>
+      <c r="WV84" s="76"/>
+      <c r="WW84" s="76"/>
+      <c r="WX84" s="76"/>
+      <c r="WY84" s="76"/>
+      <c r="WZ84" s="76"/>
+      <c r="XA84" s="76"/>
+      <c r="XB84" s="76"/>
+      <c r="XC84" s="76"/>
+      <c r="XD84" s="76"/>
+      <c r="XE84" s="76"/>
+      <c r="XF84" s="76"/>
+      <c r="XG84" s="76"/>
+      <c r="XH84" s="76"/>
+      <c r="XI84" s="76"/>
+      <c r="XJ84" s="76"/>
+      <c r="XK84" s="76"/>
+      <c r="XL84" s="76"/>
+      <c r="XM84" s="76"/>
+      <c r="XN84" s="76"/>
+      <c r="XO84" s="76"/>
+      <c r="XP84" s="76"/>
+      <c r="XQ84" s="76"/>
+      <c r="XR84" s="76"/>
+      <c r="XS84" s="76"/>
+      <c r="XT84" s="76"/>
+      <c r="XU84" s="76"/>
+      <c r="XV84" s="76"/>
+      <c r="XW84" s="76"/>
+      <c r="XX84" s="76"/>
+      <c r="XY84" s="76"/>
+      <c r="XZ84" s="76"/>
+      <c r="YA84" s="76"/>
+      <c r="YB84" s="76"/>
+      <c r="YC84" s="76"/>
+      <c r="YD84" s="76"/>
+      <c r="YE84" s="76"/>
+      <c r="YF84" s="76"/>
+      <c r="YG84" s="76"/>
+      <c r="YH84" s="76"/>
+      <c r="YI84" s="76"/>
+      <c r="YJ84" s="76"/>
+      <c r="YK84" s="76"/>
+      <c r="YL84" s="76"/>
+      <c r="YM84" s="76"/>
+      <c r="YN84" s="76"/>
+      <c r="YO84" s="76"/>
+      <c r="YP84" s="76"/>
+      <c r="YQ84" s="76"/>
+      <c r="YR84" s="76"/>
+      <c r="YS84" s="76"/>
+      <c r="YT84" s="76"/>
+      <c r="YU84" s="76"/>
+      <c r="YV84" s="76"/>
+      <c r="YW84" s="76"/>
+      <c r="YX84" s="76"/>
+      <c r="YY84" s="76"/>
+      <c r="YZ84" s="76"/>
+      <c r="ZA84" s="76"/>
+      <c r="ZB84" s="76"/>
+      <c r="ZC84" s="76"/>
+      <c r="ZD84" s="76"/>
+      <c r="ZE84" s="76"/>
+      <c r="ZF84" s="76"/>
+      <c r="ZG84" s="76"/>
+      <c r="ZH84" s="76"/>
+      <c r="ZI84" s="76"/>
+      <c r="ZJ84" s="76"/>
+      <c r="ZK84" s="76"/>
+      <c r="ZL84" s="76"/>
+      <c r="ZM84" s="76"/>
+      <c r="ZN84" s="76"/>
+      <c r="ZO84" s="76"/>
+      <c r="ZP84" s="76"/>
+      <c r="ZQ84" s="76"/>
+      <c r="ZR84" s="76"/>
+      <c r="ZS84" s="76"/>
+      <c r="ZT84" s="76"/>
+      <c r="ZU84" s="76"/>
+      <c r="ZV84" s="76"/>
+      <c r="ZW84" s="76"/>
+      <c r="ZX84" s="76"/>
+      <c r="ZY84" s="76"/>
+      <c r="ZZ84" s="76"/>
+      <c r="AAA84" s="76"/>
+      <c r="AAB84" s="76"/>
+      <c r="AAC84" s="76"/>
+      <c r="AAD84" s="76"/>
+      <c r="AAE84" s="76"/>
+      <c r="AAF84" s="76"/>
+      <c r="AAG84" s="76"/>
+      <c r="AAH84" s="76"/>
+      <c r="AAI84" s="76"/>
+      <c r="AAJ84" s="76"/>
+      <c r="AAK84" s="76"/>
+      <c r="AAL84" s="76"/>
+      <c r="AAM84" s="76"/>
+      <c r="AAN84" s="76"/>
+      <c r="AAO84" s="76"/>
+      <c r="AAP84" s="76"/>
+      <c r="AAQ84" s="76"/>
+      <c r="AAR84" s="76"/>
+      <c r="AAS84" s="76"/>
+      <c r="AAT84" s="76"/>
+      <c r="AAU84" s="76"/>
+      <c r="AAV84" s="76"/>
+      <c r="AAW84" s="76"/>
+      <c r="AAX84" s="76"/>
+      <c r="AAY84" s="76"/>
+      <c r="AAZ84" s="76"/>
+      <c r="ABA84" s="76"/>
+      <c r="ABB84" s="76"/>
+      <c r="ABC84" s="76"/>
+      <c r="ABD84" s="76"/>
+      <c r="ABE84" s="76"/>
+      <c r="ABF84" s="76"/>
+      <c r="ABG84" s="76"/>
+      <c r="ABH84" s="76"/>
+      <c r="ABI84" s="76"/>
+      <c r="ABJ84" s="76"/>
+      <c r="ABK84" s="76"/>
+      <c r="ABL84" s="76"/>
+      <c r="ABM84" s="76"/>
+      <c r="ABN84" s="76"/>
+      <c r="ABO84" s="76"/>
+      <c r="ABP84" s="76"/>
+      <c r="ABQ84" s="76"/>
+      <c r="ABR84" s="76"/>
+      <c r="ABS84" s="76"/>
+      <c r="ABT84" s="76"/>
+      <c r="ABU84" s="76"/>
+      <c r="ABV84" s="76"/>
+      <c r="ABW84" s="76"/>
+      <c r="ABX84" s="76"/>
+      <c r="ABY84" s="76"/>
+      <c r="ABZ84" s="76"/>
+      <c r="ACA84" s="76"/>
+      <c r="ACB84" s="76"/>
+      <c r="ACC84" s="76"/>
+      <c r="ACD84" s="76"/>
+      <c r="ACE84" s="76"/>
+      <c r="ACF84" s="76"/>
+      <c r="ACG84" s="76"/>
+      <c r="ACH84" s="76"/>
+      <c r="ACI84" s="76"/>
+      <c r="ACJ84" s="76"/>
+      <c r="ACK84" s="76"/>
+      <c r="ACL84" s="76"/>
+      <c r="ACM84" s="76"/>
+      <c r="ACN84" s="76"/>
+      <c r="ACO84" s="76"/>
+      <c r="ACP84" s="76"/>
+      <c r="ACQ84" s="76"/>
+      <c r="ACR84" s="76"/>
+      <c r="ACS84" s="76"/>
+      <c r="ACT84" s="76"/>
+      <c r="ACU84" s="76"/>
+      <c r="ACV84" s="76"/>
+      <c r="ACW84" s="76"/>
+      <c r="ACX84" s="76"/>
+      <c r="ACY84" s="76"/>
+      <c r="ACZ84" s="76"/>
+      <c r="ADA84" s="76"/>
+      <c r="ADB84" s="76"/>
+      <c r="ADC84" s="76"/>
+      <c r="ADD84" s="76"/>
+      <c r="ADE84" s="76"/>
+      <c r="ADF84" s="76"/>
+      <c r="ADG84" s="76"/>
+      <c r="ADH84" s="76"/>
+      <c r="ADI84" s="76"/>
+      <c r="ADJ84" s="76"/>
+      <c r="ADK84" s="76"/>
+      <c r="ADL84" s="76"/>
+      <c r="ADM84" s="76"/>
+      <c r="ADN84" s="76"/>
+      <c r="ADO84" s="76"/>
+      <c r="ADP84" s="76"/>
+      <c r="ADQ84" s="76"/>
+      <c r="ADR84" s="76"/>
+      <c r="ADS84" s="76"/>
+      <c r="ADT84" s="76"/>
+      <c r="ADU84" s="76"/>
+      <c r="ADV84" s="76"/>
+      <c r="ADW84" s="76"/>
+      <c r="ADX84" s="76"/>
+      <c r="ADY84" s="76"/>
+      <c r="ADZ84" s="76"/>
+      <c r="AEA84" s="76"/>
+      <c r="AEB84" s="76"/>
+      <c r="AEC84" s="76"/>
+      <c r="AED84" s="76"/>
+      <c r="AEE84" s="76"/>
+      <c r="AEF84" s="76"/>
+      <c r="AEG84" s="76"/>
+      <c r="AEH84" s="76"/>
+      <c r="AEI84" s="76"/>
+      <c r="AEJ84" s="76"/>
+      <c r="AEK84" s="76"/>
+      <c r="AEL84" s="76"/>
+      <c r="AEM84" s="76"/>
+      <c r="AEN84" s="76"/>
+      <c r="AEO84" s="76"/>
+      <c r="AEP84" s="76"/>
+      <c r="AEQ84" s="76"/>
+      <c r="AER84" s="76"/>
+      <c r="AES84" s="76"/>
+      <c r="AET84" s="76"/>
+      <c r="AEU84" s="76"/>
+      <c r="AEV84" s="76"/>
+      <c r="AEW84" s="76"/>
+      <c r="AEX84" s="76"/>
+      <c r="AEY84" s="76"/>
+      <c r="AEZ84" s="76"/>
+      <c r="AFA84" s="76"/>
+      <c r="AFB84" s="76"/>
+      <c r="AFC84" s="76"/>
+      <c r="AFD84" s="76"/>
+      <c r="AFE84" s="76"/>
+      <c r="AFF84" s="76"/>
+      <c r="AFG84" s="76"/>
+      <c r="AFH84" s="76"/>
+      <c r="AFI84" s="76"/>
+      <c r="AFJ84" s="76"/>
+      <c r="AFK84" s="76"/>
+      <c r="AFL84" s="76"/>
+      <c r="AFM84" s="76"/>
+      <c r="AFN84" s="76"/>
+      <c r="AFO84" s="76"/>
+      <c r="AFP84" s="76"/>
+      <c r="AFQ84" s="76"/>
+      <c r="AFR84" s="76"/>
+      <c r="AFS84" s="76"/>
+      <c r="AFT84" s="76"/>
+      <c r="AFU84" s="76"/>
+      <c r="AFV84" s="76"/>
+      <c r="AFW84" s="76"/>
+      <c r="AFX84" s="76"/>
+      <c r="AFY84" s="76"/>
+      <c r="AFZ84" s="76"/>
+      <c r="AGA84" s="76"/>
+      <c r="AGB84" s="76"/>
+      <c r="AGC84" s="76"/>
+      <c r="AGD84" s="76"/>
+      <c r="AGE84" s="76"/>
+      <c r="AGF84" s="76"/>
+      <c r="AGG84" s="76"/>
+      <c r="AGH84" s="76"/>
+      <c r="AGI84" s="76"/>
+      <c r="AGJ84" s="76"/>
+      <c r="AGK84" s="76"/>
+      <c r="AGL84" s="76"/>
+      <c r="AGM84" s="76"/>
+      <c r="AGN84" s="76"/>
+      <c r="AGO84" s="76"/>
+      <c r="AGP84" s="76"/>
+      <c r="AGQ84" s="76"/>
+      <c r="AGR84" s="76"/>
+      <c r="AGS84" s="76"/>
+      <c r="AGT84" s="76"/>
+      <c r="AGU84" s="76"/>
+      <c r="AGV84" s="76"/>
+      <c r="AGW84" s="76"/>
+      <c r="AGX84" s="76"/>
+      <c r="AGY84" s="76"/>
+      <c r="AGZ84" s="76"/>
+      <c r="AHA84" s="76"/>
+      <c r="AHB84" s="76"/>
+      <c r="AHC84" s="76"/>
+      <c r="AHD84" s="76"/>
+      <c r="AHE84" s="76"/>
+      <c r="AHF84" s="76"/>
+      <c r="AHG84" s="76"/>
+      <c r="AHH84" s="76"/>
+      <c r="AHI84" s="76"/>
+      <c r="AHJ84" s="76"/>
+      <c r="AHK84" s="76"/>
+      <c r="AHL84" s="76"/>
+      <c r="AHM84" s="76"/>
+      <c r="AHN84" s="76"/>
+      <c r="AHO84" s="76"/>
+      <c r="AHP84" s="76"/>
+      <c r="AHQ84" s="76"/>
+      <c r="AHR84" s="76"/>
+      <c r="AHS84" s="76"/>
+      <c r="AHT84" s="76"/>
+      <c r="AHU84" s="76"/>
+      <c r="AHV84" s="76"/>
+      <c r="AHW84" s="76"/>
+      <c r="AHX84" s="76"/>
+      <c r="AHY84" s="76"/>
+      <c r="AHZ84" s="76"/>
+      <c r="AIA84" s="76"/>
+      <c r="AIB84" s="76"/>
+      <c r="AIC84" s="76"/>
+      <c r="AID84" s="76"/>
+      <c r="AIE84" s="76"/>
+      <c r="AIF84" s="76"/>
+      <c r="AIG84" s="76"/>
+      <c r="AIH84" s="76"/>
+      <c r="AII84" s="76"/>
+      <c r="AIJ84" s="76"/>
+      <c r="AIK84" s="76"/>
+      <c r="AIL84" s="76"/>
+      <c r="AIM84" s="76"/>
+      <c r="AIN84" s="76"/>
+      <c r="AIO84" s="76"/>
+      <c r="AIP84" s="76"/>
+      <c r="AIQ84" s="76"/>
+      <c r="AIR84" s="76"/>
+      <c r="AIS84" s="76"/>
+      <c r="AIT84" s="76"/>
+      <c r="AIU84" s="76"/>
+      <c r="AIV84" s="76"/>
+      <c r="AIW84" s="76"/>
+      <c r="AIX84" s="76"/>
+      <c r="AIY84" s="76"/>
+      <c r="AIZ84" s="76"/>
+      <c r="AJA84" s="76"/>
+      <c r="AJB84" s="76"/>
+      <c r="AJC84" s="76"/>
+      <c r="AJD84" s="76"/>
+      <c r="AJE84" s="76"/>
+      <c r="AJF84" s="76"/>
+      <c r="AJG84" s="76"/>
+      <c r="AJH84" s="76"/>
+      <c r="AJI84" s="76"/>
+      <c r="AJJ84" s="76"/>
+      <c r="AJK84" s="76"/>
+      <c r="AJL84" s="76"/>
+      <c r="AJM84" s="76"/>
+      <c r="AJN84" s="76"/>
+      <c r="AJO84" s="76"/>
+      <c r="AJP84" s="76"/>
+      <c r="AJQ84" s="76"/>
+      <c r="AJR84" s="76"/>
+      <c r="AJS84" s="76"/>
+      <c r="AJT84" s="76"/>
+      <c r="AJU84" s="76"/>
+      <c r="AJV84" s="76"/>
+      <c r="AJW84" s="76"/>
+      <c r="AJX84" s="76"/>
+      <c r="AJY84" s="76"/>
+      <c r="AJZ84" s="76"/>
+      <c r="AKA84" s="76"/>
+      <c r="AKB84" s="76"/>
+      <c r="AKC84" s="76"/>
+      <c r="AKD84" s="76"/>
+      <c r="AKE84" s="76"/>
+      <c r="AKF84" s="76"/>
+      <c r="AKG84" s="76"/>
+      <c r="AKH84" s="76"/>
+      <c r="AKI84" s="76"/>
+      <c r="AKJ84" s="76"/>
+      <c r="AKK84" s="76"/>
+      <c r="AKL84" s="76"/>
+      <c r="AKM84" s="76"/>
+      <c r="AKN84" s="76"/>
+      <c r="AKO84" s="76"/>
+      <c r="AKP84" s="76"/>
+      <c r="AKQ84" s="76"/>
+      <c r="AKR84" s="76"/>
+      <c r="AKS84" s="76"/>
+      <c r="AKT84" s="76"/>
+      <c r="AKU84" s="76"/>
+      <c r="AKV84" s="76"/>
+      <c r="AKW84" s="76"/>
+      <c r="AKX84" s="76"/>
+      <c r="AKY84" s="76"/>
+      <c r="AKZ84" s="76"/>
+      <c r="ALA84" s="76"/>
+      <c r="ALB84" s="76"/>
+      <c r="ALC84" s="76"/>
+      <c r="ALD84" s="76"/>
+      <c r="ALE84" s="76"/>
+      <c r="ALF84" s="76"/>
+      <c r="ALG84" s="76"/>
+      <c r="ALH84" s="76"/>
+      <c r="ALI84" s="76"/>
+      <c r="ALJ84" s="76"/>
+      <c r="ALK84" s="76"/>
+      <c r="ALL84" s="76"/>
+      <c r="ALM84" s="76"/>
+      <c r="ALN84" s="76"/>
+      <c r="ALO84" s="76"/>
+      <c r="ALP84" s="76"/>
+      <c r="ALQ84" s="76"/>
+      <c r="ALR84" s="76"/>
+      <c r="ALS84" s="76"/>
+      <c r="ALT84" s="76"/>
+      <c r="ALU84" s="76"/>
+      <c r="ALV84" s="76"/>
+      <c r="ALW84" s="76"/>
+      <c r="ALX84" s="76"/>
+      <c r="ALY84" s="76"/>
+      <c r="ALZ84" s="76"/>
+      <c r="AMA84" s="76"/>
+      <c r="AMB84" s="76"/>
+      <c r="AMC84" s="76"/>
+      <c r="AMD84" s="76"/>
+      <c r="AME84" s="76"/>
+      <c r="AMF84" s="76"/>
+      <c r="AMG84" s="76"/>
+      <c r="AMH84" s="76"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -20975,7 +21005,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="79" t="s">
+      <c r="A88" s="78" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -24143,7 +24173,7 @@
       <c r="E97" s="73"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="80" t="s">
+      <c r="A98" s="79" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -24406,7 +24436,7 @@
       </c>
     </row>
     <row r="114" ht="21" spans="1:5">
-      <c r="A114" s="81" t="s">
+      <c r="A114" s="80" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -24492,7 +24522,7 @@
       <c r="E119" s="73">
         <v>0.9699</v>
       </c>
-      <c r="F119" s="76" t="s">
+      <c r="F119" s="74" t="s">
         <v>181</v>
       </c>
     </row>
@@ -24672,8 +24702,25 @@
         <v>0.9697</v>
       </c>
     </row>
-    <row r="130" spans="5:5">
-      <c r="E130" s="73"/>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C130" s="10">
+        <v>0.9968915</v>
+      </c>
+      <c r="D130" s="10">
+        <v>0.9679763</v>
+      </c>
+      <c r="E130" s="73">
+        <v>0.9699</v>
+      </c>
+      <c r="F130" s="74" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="131" spans="5:5">
       <c r="E131" s="73"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
   <si>
     <r>
       <rPr>
@@ -1656,7 +1656,7 @@
   </si>
   <si>
     <r>
-      <t>规则</t>
+      <t>卡label为1 的概率规则</t>
     </r>
     <r>
       <rPr>
@@ -1827,6 +1827,18 @@
       </rPr>
       <t xml:space="preserve"> has_good_order</t>
     </r>
+  </si>
+  <si>
+    <t>多次订单 &gt;2 并且有精品的老用户multi_order_has_good_order</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>多次订单 &gt;1 并且有精品的老用户multi_order_has_good_order</t>
+  </si>
+  <si>
+    <t>卡label为0 的概率规则 trick！</t>
   </si>
 </sst>
 </file>
@@ -2080,7 +2092,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2132,6 +2144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,99 +2451,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2534,14 +2552,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2550,7 +2568,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2563,12 +2581,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2799,6 +2817,27 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3129,8 +3168,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -3140,7 +3179,7 @@
     <col min="3" max="3" width="10.3" style="10" customWidth="1"/>
     <col min="4" max="4" width="9.325" style="10" customWidth="1"/>
     <col min="5" max="5" width="11.1333333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.8916666666667" style="11" customWidth="1"/>
+    <col min="6" max="6" width="21.475" style="11" customWidth="1"/>
     <col min="7" max="7" width="14.0083333333333" style="12" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="13"/>
     <col min="9" max="1022" width="8.775" style="14"/>
@@ -8445,7 +8484,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="84" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -21005,7 +21044,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="85" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -24173,7 +24212,7 @@
       <c r="E97" s="73"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="79" t="s">
+      <c r="A98" s="86" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -24436,7 +24475,7 @@
       </c>
     </row>
     <row r="114" ht="21" spans="1:5">
-      <c r="A114" s="80" t="s">
+      <c r="A114" s="87" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -24703,32 +24742,64 @@
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="28">
         <v>0.9968915</v>
       </c>
-      <c r="D130" s="10">
+      <c r="D130" s="28">
         <v>0.9679763</v>
       </c>
-      <c r="E130" s="73">
+      <c r="E130" s="39">
         <v>0.9699</v>
       </c>
       <c r="F130" s="74" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="131" spans="5:5">
-      <c r="E131" s="73"/>
+    <row r="131" spans="1:5">
+      <c r="A131" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="B131" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="C131" s="79">
+        <v>0.9971946</v>
+      </c>
+      <c r="D131" s="79">
+        <v>0.9680284</v>
+      </c>
+      <c r="E131" s="82">
+        <v>0.9699</v>
+      </c>
     </row>
-    <row r="132" spans="5:5">
-      <c r="E132" s="73"/>
+    <row r="132" spans="1:6">
+      <c r="A132" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="B132" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" s="81">
+        <v>0.9968852</v>
+      </c>
+      <c r="D132" s="81">
+        <v>0.9680029</v>
+      </c>
+      <c r="E132" s="83">
+        <v>0.97009</v>
+      </c>
+      <c r="F132" s="74" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="133" spans="5:5">
+    <row r="133" spans="1:5">
+      <c r="A133" s="77"/>
       <c r="E133" s="73"/>
     </row>
     <row r="134" spans="5:5">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
   <si>
     <r>
       <rPr>
@@ -1496,11 +1496,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>first</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1525,6 +1531,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>去掉冗余的</t>
     </r>
     <r>
@@ -1548,6 +1559,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加多个</t>
     </r>
     <r>
@@ -1561,6 +1577,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>以及交叉的特征</t>
@@ -1571,6 +1588,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>去掉冗余的</t>
     </r>
     <r>
@@ -1584,6 +1606,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">，只保留
@@ -1603,6 +1626,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>设置</t>
     </r>
     <r>
@@ -1620,6 +1650,7 @@
         <b/>
         <sz val="8"/>
         <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>为</t>
@@ -1639,6 +1670,7 @@
         <b/>
         <sz val="8"/>
         <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>的预测概率为</t>
@@ -1656,6 +1688,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>卡label为1 的概率规则</t>
     </r>
     <r>
@@ -1673,6 +1712,7 @@
         <b/>
         <sz val="8"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>！</t>
@@ -1686,11 +1726,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>history_city</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1706,6 +1752,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1727,11 +1774,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>last_order_city</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1747,6 +1800,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1762,11 +1816,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>last_order_city</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1797,6 +1857,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加</t>
     </r>
     <r>
@@ -1810,11 +1875,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>fix some bug</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，添加</t>
@@ -1840,20 +1911,29 @@
   <si>
     <t>卡label为0 的概率规则 trick！</t>
   </si>
+  <si>
+    <t>actiontype_seq_fft_real_0,1,2</t>
+  </si>
+  <si>
+    <t>actiontype_seq_fft_real_0,1,2,3</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1882,13 +1962,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color theme="9" tint="-0.25"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1900,16 +1977,10 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1922,9 +1993,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1936,17 +2045,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1961,29 +2113,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1992,65 +2122,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2087,12 +2158,19 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="DejaVu Sans Mono"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2149,7 +2227,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2161,19 +2317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2185,19 +2341,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2209,13 +2389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2227,115 +2407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2346,6 +2418,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2367,17 +2498,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2396,197 +2518,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2617,16 +2689,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2647,7 +2719,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2662,7 +2734,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2671,13 +2743,13 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2689,40 +2761,40 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2746,10 +2818,10 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2758,7 +2830,7 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2767,7 +2839,7 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2776,67 +2848,46 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -3168,8 +3219,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -8484,7 +8535,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -18720,7 +18771,7 @@
       <c r="G72" s="35">
         <v>0.96859</v>
       </c>
-      <c r="H72" s="67" t="s">
+      <c r="H72" s="65" t="s">
         <v>125</v>
       </c>
       <c r="I72" s="46"/>
@@ -19760,7 +19811,7 @@
       <c r="G73" s="12">
         <v>0.9684</v>
       </c>
-      <c r="H73" s="68" t="s">
+      <c r="H73" s="66" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19826,7 +19877,7 @@
       <c r="F76" s="20">
         <v>0.9671155</v>
       </c>
-      <c r="G76" s="69">
+      <c r="G76" s="67">
         <v>0.9682</v>
       </c>
     </row>
@@ -19849,7 +19900,7 @@
       <c r="F78" s="57">
         <v>0.9666471</v>
       </c>
-      <c r="G78" s="70">
+      <c r="G78" s="68">
         <v>0.9678</v>
       </c>
     </row>
@@ -19964,1024 +20015,1024 @@
       <c r="F84" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="G84" s="71">
+      <c r="G84" s="69">
         <v>0.9686</v>
       </c>
-      <c r="H84" s="72"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="76"/>
-      <c r="K84" s="76"/>
-      <c r="L84" s="76"/>
-      <c r="M84" s="76"/>
-      <c r="N84" s="76"/>
-      <c r="O84" s="76"/>
-      <c r="P84" s="76"/>
-      <c r="Q84" s="76"/>
-      <c r="R84" s="76"/>
-      <c r="S84" s="76"/>
-      <c r="T84" s="76"/>
-      <c r="U84" s="76"/>
-      <c r="V84" s="76"/>
-      <c r="W84" s="76"/>
-      <c r="X84" s="76"/>
-      <c r="Y84" s="76"/>
-      <c r="Z84" s="76"/>
-      <c r="AA84" s="76"/>
-      <c r="AB84" s="76"/>
-      <c r="AC84" s="76"/>
-      <c r="AD84" s="76"/>
-      <c r="AE84" s="76"/>
-      <c r="AF84" s="76"/>
-      <c r="AG84" s="76"/>
-      <c r="AH84" s="76"/>
-      <c r="AI84" s="76"/>
-      <c r="AJ84" s="76"/>
-      <c r="AK84" s="76"/>
-      <c r="AL84" s="76"/>
-      <c r="AM84" s="76"/>
-      <c r="AN84" s="76"/>
-      <c r="AO84" s="76"/>
-      <c r="AP84" s="76"/>
-      <c r="AQ84" s="76"/>
-      <c r="AR84" s="76"/>
-      <c r="AS84" s="76"/>
-      <c r="AT84" s="76"/>
-      <c r="AU84" s="76"/>
-      <c r="AV84" s="76"/>
-      <c r="AW84" s="76"/>
-      <c r="AX84" s="76"/>
-      <c r="AY84" s="76"/>
-      <c r="AZ84" s="76"/>
-      <c r="BA84" s="76"/>
-      <c r="BB84" s="76"/>
-      <c r="BC84" s="76"/>
-      <c r="BD84" s="76"/>
-      <c r="BE84" s="76"/>
-      <c r="BF84" s="76"/>
-      <c r="BG84" s="76"/>
-      <c r="BH84" s="76"/>
-      <c r="BI84" s="76"/>
-      <c r="BJ84" s="76"/>
-      <c r="BK84" s="76"/>
-      <c r="BL84" s="76"/>
-      <c r="BM84" s="76"/>
-      <c r="BN84" s="76"/>
-      <c r="BO84" s="76"/>
-      <c r="BP84" s="76"/>
-      <c r="BQ84" s="76"/>
-      <c r="BR84" s="76"/>
-      <c r="BS84" s="76"/>
-      <c r="BT84" s="76"/>
-      <c r="BU84" s="76"/>
-      <c r="BV84" s="76"/>
-      <c r="BW84" s="76"/>
-      <c r="BX84" s="76"/>
-      <c r="BY84" s="76"/>
-      <c r="BZ84" s="76"/>
-      <c r="CA84" s="76"/>
-      <c r="CB84" s="76"/>
-      <c r="CC84" s="76"/>
-      <c r="CD84" s="76"/>
-      <c r="CE84" s="76"/>
-      <c r="CF84" s="76"/>
-      <c r="CG84" s="76"/>
-      <c r="CH84" s="76"/>
-      <c r="CI84" s="76"/>
-      <c r="CJ84" s="76"/>
-      <c r="CK84" s="76"/>
-      <c r="CL84" s="76"/>
-      <c r="CM84" s="76"/>
-      <c r="CN84" s="76"/>
-      <c r="CO84" s="76"/>
-      <c r="CP84" s="76"/>
-      <c r="CQ84" s="76"/>
-      <c r="CR84" s="76"/>
-      <c r="CS84" s="76"/>
-      <c r="CT84" s="76"/>
-      <c r="CU84" s="76"/>
-      <c r="CV84" s="76"/>
-      <c r="CW84" s="76"/>
-      <c r="CX84" s="76"/>
-      <c r="CY84" s="76"/>
-      <c r="CZ84" s="76"/>
-      <c r="DA84" s="76"/>
-      <c r="DB84" s="76"/>
-      <c r="DC84" s="76"/>
-      <c r="DD84" s="76"/>
-      <c r="DE84" s="76"/>
-      <c r="DF84" s="76"/>
-      <c r="DG84" s="76"/>
-      <c r="DH84" s="76"/>
-      <c r="DI84" s="76"/>
-      <c r="DJ84" s="76"/>
-      <c r="DK84" s="76"/>
-      <c r="DL84" s="76"/>
-      <c r="DM84" s="76"/>
-      <c r="DN84" s="76"/>
-      <c r="DO84" s="76"/>
-      <c r="DP84" s="76"/>
-      <c r="DQ84" s="76"/>
-      <c r="DR84" s="76"/>
-      <c r="DS84" s="76"/>
-      <c r="DT84" s="76"/>
-      <c r="DU84" s="76"/>
-      <c r="DV84" s="76"/>
-      <c r="DW84" s="76"/>
-      <c r="DX84" s="76"/>
-      <c r="DY84" s="76"/>
-      <c r="DZ84" s="76"/>
-      <c r="EA84" s="76"/>
-      <c r="EB84" s="76"/>
-      <c r="EC84" s="76"/>
-      <c r="ED84" s="76"/>
-      <c r="EE84" s="76"/>
-      <c r="EF84" s="76"/>
-      <c r="EG84" s="76"/>
-      <c r="EH84" s="76"/>
-      <c r="EI84" s="76"/>
-      <c r="EJ84" s="76"/>
-      <c r="EK84" s="76"/>
-      <c r="EL84" s="76"/>
-      <c r="EM84" s="76"/>
-      <c r="EN84" s="76"/>
-      <c r="EO84" s="76"/>
-      <c r="EP84" s="76"/>
-      <c r="EQ84" s="76"/>
-      <c r="ER84" s="76"/>
-      <c r="ES84" s="76"/>
-      <c r="ET84" s="76"/>
-      <c r="EU84" s="76"/>
-      <c r="EV84" s="76"/>
-      <c r="EW84" s="76"/>
-      <c r="EX84" s="76"/>
-      <c r="EY84" s="76"/>
-      <c r="EZ84" s="76"/>
-      <c r="FA84" s="76"/>
-      <c r="FB84" s="76"/>
-      <c r="FC84" s="76"/>
-      <c r="FD84" s="76"/>
-      <c r="FE84" s="76"/>
-      <c r="FF84" s="76"/>
-      <c r="FG84" s="76"/>
-      <c r="FH84" s="76"/>
-      <c r="FI84" s="76"/>
-      <c r="FJ84" s="76"/>
-      <c r="FK84" s="76"/>
-      <c r="FL84" s="76"/>
-      <c r="FM84" s="76"/>
-      <c r="FN84" s="76"/>
-      <c r="FO84" s="76"/>
-      <c r="FP84" s="76"/>
-      <c r="FQ84" s="76"/>
-      <c r="FR84" s="76"/>
-      <c r="FS84" s="76"/>
-      <c r="FT84" s="76"/>
-      <c r="FU84" s="76"/>
-      <c r="FV84" s="76"/>
-      <c r="FW84" s="76"/>
-      <c r="FX84" s="76"/>
-      <c r="FY84" s="76"/>
-      <c r="FZ84" s="76"/>
-      <c r="GA84" s="76"/>
-      <c r="GB84" s="76"/>
-      <c r="GC84" s="76"/>
-      <c r="GD84" s="76"/>
-      <c r="GE84" s="76"/>
-      <c r="GF84" s="76"/>
-      <c r="GG84" s="76"/>
-      <c r="GH84" s="76"/>
-      <c r="GI84" s="76"/>
-      <c r="GJ84" s="76"/>
-      <c r="GK84" s="76"/>
-      <c r="GL84" s="76"/>
-      <c r="GM84" s="76"/>
-      <c r="GN84" s="76"/>
-      <c r="GO84" s="76"/>
-      <c r="GP84" s="76"/>
-      <c r="GQ84" s="76"/>
-      <c r="GR84" s="76"/>
-      <c r="GS84" s="76"/>
-      <c r="GT84" s="76"/>
-      <c r="GU84" s="76"/>
-      <c r="GV84" s="76"/>
-      <c r="GW84" s="76"/>
-      <c r="GX84" s="76"/>
-      <c r="GY84" s="76"/>
-      <c r="GZ84" s="76"/>
-      <c r="HA84" s="76"/>
-      <c r="HB84" s="76"/>
-      <c r="HC84" s="76"/>
-      <c r="HD84" s="76"/>
-      <c r="HE84" s="76"/>
-      <c r="HF84" s="76"/>
-      <c r="HG84" s="76"/>
-      <c r="HH84" s="76"/>
-      <c r="HI84" s="76"/>
-      <c r="HJ84" s="76"/>
-      <c r="HK84" s="76"/>
-      <c r="HL84" s="76"/>
-      <c r="HM84" s="76"/>
-      <c r="HN84" s="76"/>
-      <c r="HO84" s="76"/>
-      <c r="HP84" s="76"/>
-      <c r="HQ84" s="76"/>
-      <c r="HR84" s="76"/>
-      <c r="HS84" s="76"/>
-      <c r="HT84" s="76"/>
-      <c r="HU84" s="76"/>
-      <c r="HV84" s="76"/>
-      <c r="HW84" s="76"/>
-      <c r="HX84" s="76"/>
-      <c r="HY84" s="76"/>
-      <c r="HZ84" s="76"/>
-      <c r="IA84" s="76"/>
-      <c r="IB84" s="76"/>
-      <c r="IC84" s="76"/>
-      <c r="ID84" s="76"/>
-      <c r="IE84" s="76"/>
-      <c r="IF84" s="76"/>
-      <c r="IG84" s="76"/>
-      <c r="IH84" s="76"/>
-      <c r="II84" s="76"/>
-      <c r="IJ84" s="76"/>
-      <c r="IK84" s="76"/>
-      <c r="IL84" s="76"/>
-      <c r="IM84" s="76"/>
-      <c r="IN84" s="76"/>
-      <c r="IO84" s="76"/>
-      <c r="IP84" s="76"/>
-      <c r="IQ84" s="76"/>
-      <c r="IR84" s="76"/>
-      <c r="IS84" s="76"/>
-      <c r="IT84" s="76"/>
-      <c r="IU84" s="76"/>
-      <c r="IV84" s="76"/>
-      <c r="IW84" s="76"/>
-      <c r="IX84" s="76"/>
-      <c r="IY84" s="76"/>
-      <c r="IZ84" s="76"/>
-      <c r="JA84" s="76"/>
-      <c r="JB84" s="76"/>
-      <c r="JC84" s="76"/>
-      <c r="JD84" s="76"/>
-      <c r="JE84" s="76"/>
-      <c r="JF84" s="76"/>
-      <c r="JG84" s="76"/>
-      <c r="JH84" s="76"/>
-      <c r="JI84" s="76"/>
-      <c r="JJ84" s="76"/>
-      <c r="JK84" s="76"/>
-      <c r="JL84" s="76"/>
-      <c r="JM84" s="76"/>
-      <c r="JN84" s="76"/>
-      <c r="JO84" s="76"/>
-      <c r="JP84" s="76"/>
-      <c r="JQ84" s="76"/>
-      <c r="JR84" s="76"/>
-      <c r="JS84" s="76"/>
-      <c r="JT84" s="76"/>
-      <c r="JU84" s="76"/>
-      <c r="JV84" s="76"/>
-      <c r="JW84" s="76"/>
-      <c r="JX84" s="76"/>
-      <c r="JY84" s="76"/>
-      <c r="JZ84" s="76"/>
-      <c r="KA84" s="76"/>
-      <c r="KB84" s="76"/>
-      <c r="KC84" s="76"/>
-      <c r="KD84" s="76"/>
-      <c r="KE84" s="76"/>
-      <c r="KF84" s="76"/>
-      <c r="KG84" s="76"/>
-      <c r="KH84" s="76"/>
-      <c r="KI84" s="76"/>
-      <c r="KJ84" s="76"/>
-      <c r="KK84" s="76"/>
-      <c r="KL84" s="76"/>
-      <c r="KM84" s="76"/>
-      <c r="KN84" s="76"/>
-      <c r="KO84" s="76"/>
-      <c r="KP84" s="76"/>
-      <c r="KQ84" s="76"/>
-      <c r="KR84" s="76"/>
-      <c r="KS84" s="76"/>
-      <c r="KT84" s="76"/>
-      <c r="KU84" s="76"/>
-      <c r="KV84" s="76"/>
-      <c r="KW84" s="76"/>
-      <c r="KX84" s="76"/>
-      <c r="KY84" s="76"/>
-      <c r="KZ84" s="76"/>
-      <c r="LA84" s="76"/>
-      <c r="LB84" s="76"/>
-      <c r="LC84" s="76"/>
-      <c r="LD84" s="76"/>
-      <c r="LE84" s="76"/>
-      <c r="LF84" s="76"/>
-      <c r="LG84" s="76"/>
-      <c r="LH84" s="76"/>
-      <c r="LI84" s="76"/>
-      <c r="LJ84" s="76"/>
-      <c r="LK84" s="76"/>
-      <c r="LL84" s="76"/>
-      <c r="LM84" s="76"/>
-      <c r="LN84" s="76"/>
-      <c r="LO84" s="76"/>
-      <c r="LP84" s="76"/>
-      <c r="LQ84" s="76"/>
-      <c r="LR84" s="76"/>
-      <c r="LS84" s="76"/>
-      <c r="LT84" s="76"/>
-      <c r="LU84" s="76"/>
-      <c r="LV84" s="76"/>
-      <c r="LW84" s="76"/>
-      <c r="LX84" s="76"/>
-      <c r="LY84" s="76"/>
-      <c r="LZ84" s="76"/>
-      <c r="MA84" s="76"/>
-      <c r="MB84" s="76"/>
-      <c r="MC84" s="76"/>
-      <c r="MD84" s="76"/>
-      <c r="ME84" s="76"/>
-      <c r="MF84" s="76"/>
-      <c r="MG84" s="76"/>
-      <c r="MH84" s="76"/>
-      <c r="MI84" s="76"/>
-      <c r="MJ84" s="76"/>
-      <c r="MK84" s="76"/>
-      <c r="ML84" s="76"/>
-      <c r="MM84" s="76"/>
-      <c r="MN84" s="76"/>
-      <c r="MO84" s="76"/>
-      <c r="MP84" s="76"/>
-      <c r="MQ84" s="76"/>
-      <c r="MR84" s="76"/>
-      <c r="MS84" s="76"/>
-      <c r="MT84" s="76"/>
-      <c r="MU84" s="76"/>
-      <c r="MV84" s="76"/>
-      <c r="MW84" s="76"/>
-      <c r="MX84" s="76"/>
-      <c r="MY84" s="76"/>
-      <c r="MZ84" s="76"/>
-      <c r="NA84" s="76"/>
-      <c r="NB84" s="76"/>
-      <c r="NC84" s="76"/>
-      <c r="ND84" s="76"/>
-      <c r="NE84" s="76"/>
-      <c r="NF84" s="76"/>
-      <c r="NG84" s="76"/>
-      <c r="NH84" s="76"/>
-      <c r="NI84" s="76"/>
-      <c r="NJ84" s="76"/>
-      <c r="NK84" s="76"/>
-      <c r="NL84" s="76"/>
-      <c r="NM84" s="76"/>
-      <c r="NN84" s="76"/>
-      <c r="NO84" s="76"/>
-      <c r="NP84" s="76"/>
-      <c r="NQ84" s="76"/>
-      <c r="NR84" s="76"/>
-      <c r="NS84" s="76"/>
-      <c r="NT84" s="76"/>
-      <c r="NU84" s="76"/>
-      <c r="NV84" s="76"/>
-      <c r="NW84" s="76"/>
-      <c r="NX84" s="76"/>
-      <c r="NY84" s="76"/>
-      <c r="NZ84" s="76"/>
-      <c r="OA84" s="76"/>
-      <c r="OB84" s="76"/>
-      <c r="OC84" s="76"/>
-      <c r="OD84" s="76"/>
-      <c r="OE84" s="76"/>
-      <c r="OF84" s="76"/>
-      <c r="OG84" s="76"/>
-      <c r="OH84" s="76"/>
-      <c r="OI84" s="76"/>
-      <c r="OJ84" s="76"/>
-      <c r="OK84" s="76"/>
-      <c r="OL84" s="76"/>
-      <c r="OM84" s="76"/>
-      <c r="ON84" s="76"/>
-      <c r="OO84" s="76"/>
-      <c r="OP84" s="76"/>
-      <c r="OQ84" s="76"/>
-      <c r="OR84" s="76"/>
-      <c r="OS84" s="76"/>
-      <c r="OT84" s="76"/>
-      <c r="OU84" s="76"/>
-      <c r="OV84" s="76"/>
-      <c r="OW84" s="76"/>
-      <c r="OX84" s="76"/>
-      <c r="OY84" s="76"/>
-      <c r="OZ84" s="76"/>
-      <c r="PA84" s="76"/>
-      <c r="PB84" s="76"/>
-      <c r="PC84" s="76"/>
-      <c r="PD84" s="76"/>
-      <c r="PE84" s="76"/>
-      <c r="PF84" s="76"/>
-      <c r="PG84" s="76"/>
-      <c r="PH84" s="76"/>
-      <c r="PI84" s="76"/>
-      <c r="PJ84" s="76"/>
-      <c r="PK84" s="76"/>
-      <c r="PL84" s="76"/>
-      <c r="PM84" s="76"/>
-      <c r="PN84" s="76"/>
-      <c r="PO84" s="76"/>
-      <c r="PP84" s="76"/>
-      <c r="PQ84" s="76"/>
-      <c r="PR84" s="76"/>
-      <c r="PS84" s="76"/>
-      <c r="PT84" s="76"/>
-      <c r="PU84" s="76"/>
-      <c r="PV84" s="76"/>
-      <c r="PW84" s="76"/>
-      <c r="PX84" s="76"/>
-      <c r="PY84" s="76"/>
-      <c r="PZ84" s="76"/>
-      <c r="QA84" s="76"/>
-      <c r="QB84" s="76"/>
-      <c r="QC84" s="76"/>
-      <c r="QD84" s="76"/>
-      <c r="QE84" s="76"/>
-      <c r="QF84" s="76"/>
-      <c r="QG84" s="76"/>
-      <c r="QH84" s="76"/>
-      <c r="QI84" s="76"/>
-      <c r="QJ84" s="76"/>
-      <c r="QK84" s="76"/>
-      <c r="QL84" s="76"/>
-      <c r="QM84" s="76"/>
-      <c r="QN84" s="76"/>
-      <c r="QO84" s="76"/>
-      <c r="QP84" s="76"/>
-      <c r="QQ84" s="76"/>
-      <c r="QR84" s="76"/>
-      <c r="QS84" s="76"/>
-      <c r="QT84" s="76"/>
-      <c r="QU84" s="76"/>
-      <c r="QV84" s="76"/>
-      <c r="QW84" s="76"/>
-      <c r="QX84" s="76"/>
-      <c r="QY84" s="76"/>
-      <c r="QZ84" s="76"/>
-      <c r="RA84" s="76"/>
-      <c r="RB84" s="76"/>
-      <c r="RC84" s="76"/>
-      <c r="RD84" s="76"/>
-      <c r="RE84" s="76"/>
-      <c r="RF84" s="76"/>
-      <c r="RG84" s="76"/>
-      <c r="RH84" s="76"/>
-      <c r="RI84" s="76"/>
-      <c r="RJ84" s="76"/>
-      <c r="RK84" s="76"/>
-      <c r="RL84" s="76"/>
-      <c r="RM84" s="76"/>
-      <c r="RN84" s="76"/>
-      <c r="RO84" s="76"/>
-      <c r="RP84" s="76"/>
-      <c r="RQ84" s="76"/>
-      <c r="RR84" s="76"/>
-      <c r="RS84" s="76"/>
-      <c r="RT84" s="76"/>
-      <c r="RU84" s="76"/>
-      <c r="RV84" s="76"/>
-      <c r="RW84" s="76"/>
-      <c r="RX84" s="76"/>
-      <c r="RY84" s="76"/>
-      <c r="RZ84" s="76"/>
-      <c r="SA84" s="76"/>
-      <c r="SB84" s="76"/>
-      <c r="SC84" s="76"/>
-      <c r="SD84" s="76"/>
-      <c r="SE84" s="76"/>
-      <c r="SF84" s="76"/>
-      <c r="SG84" s="76"/>
-      <c r="SH84" s="76"/>
-      <c r="SI84" s="76"/>
-      <c r="SJ84" s="76"/>
-      <c r="SK84" s="76"/>
-      <c r="SL84" s="76"/>
-      <c r="SM84" s="76"/>
-      <c r="SN84" s="76"/>
-      <c r="SO84" s="76"/>
-      <c r="SP84" s="76"/>
-      <c r="SQ84" s="76"/>
-      <c r="SR84" s="76"/>
-      <c r="SS84" s="76"/>
-      <c r="ST84" s="76"/>
-      <c r="SU84" s="76"/>
-      <c r="SV84" s="76"/>
-      <c r="SW84" s="76"/>
-      <c r="SX84" s="76"/>
-      <c r="SY84" s="76"/>
-      <c r="SZ84" s="76"/>
-      <c r="TA84" s="76"/>
-      <c r="TB84" s="76"/>
-      <c r="TC84" s="76"/>
-      <c r="TD84" s="76"/>
-      <c r="TE84" s="76"/>
-      <c r="TF84" s="76"/>
-      <c r="TG84" s="76"/>
-      <c r="TH84" s="76"/>
-      <c r="TI84" s="76"/>
-      <c r="TJ84" s="76"/>
-      <c r="TK84" s="76"/>
-      <c r="TL84" s="76"/>
-      <c r="TM84" s="76"/>
-      <c r="TN84" s="76"/>
-      <c r="TO84" s="76"/>
-      <c r="TP84" s="76"/>
-      <c r="TQ84" s="76"/>
-      <c r="TR84" s="76"/>
-      <c r="TS84" s="76"/>
-      <c r="TT84" s="76"/>
-      <c r="TU84" s="76"/>
-      <c r="TV84" s="76"/>
-      <c r="TW84" s="76"/>
-      <c r="TX84" s="76"/>
-      <c r="TY84" s="76"/>
-      <c r="TZ84" s="76"/>
-      <c r="UA84" s="76"/>
-      <c r="UB84" s="76"/>
-      <c r="UC84" s="76"/>
-      <c r="UD84" s="76"/>
-      <c r="UE84" s="76"/>
-      <c r="UF84" s="76"/>
-      <c r="UG84" s="76"/>
-      <c r="UH84" s="76"/>
-      <c r="UI84" s="76"/>
-      <c r="UJ84" s="76"/>
-      <c r="UK84" s="76"/>
-      <c r="UL84" s="76"/>
-      <c r="UM84" s="76"/>
-      <c r="UN84" s="76"/>
-      <c r="UO84" s="76"/>
-      <c r="UP84" s="76"/>
-      <c r="UQ84" s="76"/>
-      <c r="UR84" s="76"/>
-      <c r="US84" s="76"/>
-      <c r="UT84" s="76"/>
-      <c r="UU84" s="76"/>
-      <c r="UV84" s="76"/>
-      <c r="UW84" s="76"/>
-      <c r="UX84" s="76"/>
-      <c r="UY84" s="76"/>
-      <c r="UZ84" s="76"/>
-      <c r="VA84" s="76"/>
-      <c r="VB84" s="76"/>
-      <c r="VC84" s="76"/>
-      <c r="VD84" s="76"/>
-      <c r="VE84" s="76"/>
-      <c r="VF84" s="76"/>
-      <c r="VG84" s="76"/>
-      <c r="VH84" s="76"/>
-      <c r="VI84" s="76"/>
-      <c r="VJ84" s="76"/>
-      <c r="VK84" s="76"/>
-      <c r="VL84" s="76"/>
-      <c r="VM84" s="76"/>
-      <c r="VN84" s="76"/>
-      <c r="VO84" s="76"/>
-      <c r="VP84" s="76"/>
-      <c r="VQ84" s="76"/>
-      <c r="VR84" s="76"/>
-      <c r="VS84" s="76"/>
-      <c r="VT84" s="76"/>
-      <c r="VU84" s="76"/>
-      <c r="VV84" s="76"/>
-      <c r="VW84" s="76"/>
-      <c r="VX84" s="76"/>
-      <c r="VY84" s="76"/>
-      <c r="VZ84" s="76"/>
-      <c r="WA84" s="76"/>
-      <c r="WB84" s="76"/>
-      <c r="WC84" s="76"/>
-      <c r="WD84" s="76"/>
-      <c r="WE84" s="76"/>
-      <c r="WF84" s="76"/>
-      <c r="WG84" s="76"/>
-      <c r="WH84" s="76"/>
-      <c r="WI84" s="76"/>
-      <c r="WJ84" s="76"/>
-      <c r="WK84" s="76"/>
-      <c r="WL84" s="76"/>
-      <c r="WM84" s="76"/>
-      <c r="WN84" s="76"/>
-      <c r="WO84" s="76"/>
-      <c r="WP84" s="76"/>
-      <c r="WQ84" s="76"/>
-      <c r="WR84" s="76"/>
-      <c r="WS84" s="76"/>
-      <c r="WT84" s="76"/>
-      <c r="WU84" s="76"/>
-      <c r="WV84" s="76"/>
-      <c r="WW84" s="76"/>
-      <c r="WX84" s="76"/>
-      <c r="WY84" s="76"/>
-      <c r="WZ84" s="76"/>
-      <c r="XA84" s="76"/>
-      <c r="XB84" s="76"/>
-      <c r="XC84" s="76"/>
-      <c r="XD84" s="76"/>
-      <c r="XE84" s="76"/>
-      <c r="XF84" s="76"/>
-      <c r="XG84" s="76"/>
-      <c r="XH84" s="76"/>
-      <c r="XI84" s="76"/>
-      <c r="XJ84" s="76"/>
-      <c r="XK84" s="76"/>
-      <c r="XL84" s="76"/>
-      <c r="XM84" s="76"/>
-      <c r="XN84" s="76"/>
-      <c r="XO84" s="76"/>
-      <c r="XP84" s="76"/>
-      <c r="XQ84" s="76"/>
-      <c r="XR84" s="76"/>
-      <c r="XS84" s="76"/>
-      <c r="XT84" s="76"/>
-      <c r="XU84" s="76"/>
-      <c r="XV84" s="76"/>
-      <c r="XW84" s="76"/>
-      <c r="XX84" s="76"/>
-      <c r="XY84" s="76"/>
-      <c r="XZ84" s="76"/>
-      <c r="YA84" s="76"/>
-      <c r="YB84" s="76"/>
-      <c r="YC84" s="76"/>
-      <c r="YD84" s="76"/>
-      <c r="YE84" s="76"/>
-      <c r="YF84" s="76"/>
-      <c r="YG84" s="76"/>
-      <c r="YH84" s="76"/>
-      <c r="YI84" s="76"/>
-      <c r="YJ84" s="76"/>
-      <c r="YK84" s="76"/>
-      <c r="YL84" s="76"/>
-      <c r="YM84" s="76"/>
-      <c r="YN84" s="76"/>
-      <c r="YO84" s="76"/>
-      <c r="YP84" s="76"/>
-      <c r="YQ84" s="76"/>
-      <c r="YR84" s="76"/>
-      <c r="YS84" s="76"/>
-      <c r="YT84" s="76"/>
-      <c r="YU84" s="76"/>
-      <c r="YV84" s="76"/>
-      <c r="YW84" s="76"/>
-      <c r="YX84" s="76"/>
-      <c r="YY84" s="76"/>
-      <c r="YZ84" s="76"/>
-      <c r="ZA84" s="76"/>
-      <c r="ZB84" s="76"/>
-      <c r="ZC84" s="76"/>
-      <c r="ZD84" s="76"/>
-      <c r="ZE84" s="76"/>
-      <c r="ZF84" s="76"/>
-      <c r="ZG84" s="76"/>
-      <c r="ZH84" s="76"/>
-      <c r="ZI84" s="76"/>
-      <c r="ZJ84" s="76"/>
-      <c r="ZK84" s="76"/>
-      <c r="ZL84" s="76"/>
-      <c r="ZM84" s="76"/>
-      <c r="ZN84" s="76"/>
-      <c r="ZO84" s="76"/>
-      <c r="ZP84" s="76"/>
-      <c r="ZQ84" s="76"/>
-      <c r="ZR84" s="76"/>
-      <c r="ZS84" s="76"/>
-      <c r="ZT84" s="76"/>
-      <c r="ZU84" s="76"/>
-      <c r="ZV84" s="76"/>
-      <c r="ZW84" s="76"/>
-      <c r="ZX84" s="76"/>
-      <c r="ZY84" s="76"/>
-      <c r="ZZ84" s="76"/>
-      <c r="AAA84" s="76"/>
-      <c r="AAB84" s="76"/>
-      <c r="AAC84" s="76"/>
-      <c r="AAD84" s="76"/>
-      <c r="AAE84" s="76"/>
-      <c r="AAF84" s="76"/>
-      <c r="AAG84" s="76"/>
-      <c r="AAH84" s="76"/>
-      <c r="AAI84" s="76"/>
-      <c r="AAJ84" s="76"/>
-      <c r="AAK84" s="76"/>
-      <c r="AAL84" s="76"/>
-      <c r="AAM84" s="76"/>
-      <c r="AAN84" s="76"/>
-      <c r="AAO84" s="76"/>
-      <c r="AAP84" s="76"/>
-      <c r="AAQ84" s="76"/>
-      <c r="AAR84" s="76"/>
-      <c r="AAS84" s="76"/>
-      <c r="AAT84" s="76"/>
-      <c r="AAU84" s="76"/>
-      <c r="AAV84" s="76"/>
-      <c r="AAW84" s="76"/>
-      <c r="AAX84" s="76"/>
-      <c r="AAY84" s="76"/>
-      <c r="AAZ84" s="76"/>
-      <c r="ABA84" s="76"/>
-      <c r="ABB84" s="76"/>
-      <c r="ABC84" s="76"/>
-      <c r="ABD84" s="76"/>
-      <c r="ABE84" s="76"/>
-      <c r="ABF84" s="76"/>
-      <c r="ABG84" s="76"/>
-      <c r="ABH84" s="76"/>
-      <c r="ABI84" s="76"/>
-      <c r="ABJ84" s="76"/>
-      <c r="ABK84" s="76"/>
-      <c r="ABL84" s="76"/>
-      <c r="ABM84" s="76"/>
-      <c r="ABN84" s="76"/>
-      <c r="ABO84" s="76"/>
-      <c r="ABP84" s="76"/>
-      <c r="ABQ84" s="76"/>
-      <c r="ABR84" s="76"/>
-      <c r="ABS84" s="76"/>
-      <c r="ABT84" s="76"/>
-      <c r="ABU84" s="76"/>
-      <c r="ABV84" s="76"/>
-      <c r="ABW84" s="76"/>
-      <c r="ABX84" s="76"/>
-      <c r="ABY84" s="76"/>
-      <c r="ABZ84" s="76"/>
-      <c r="ACA84" s="76"/>
-      <c r="ACB84" s="76"/>
-      <c r="ACC84" s="76"/>
-      <c r="ACD84" s="76"/>
-      <c r="ACE84" s="76"/>
-      <c r="ACF84" s="76"/>
-      <c r="ACG84" s="76"/>
-      <c r="ACH84" s="76"/>
-      <c r="ACI84" s="76"/>
-      <c r="ACJ84" s="76"/>
-      <c r="ACK84" s="76"/>
-      <c r="ACL84" s="76"/>
-      <c r="ACM84" s="76"/>
-      <c r="ACN84" s="76"/>
-      <c r="ACO84" s="76"/>
-      <c r="ACP84" s="76"/>
-      <c r="ACQ84" s="76"/>
-      <c r="ACR84" s="76"/>
-      <c r="ACS84" s="76"/>
-      <c r="ACT84" s="76"/>
-      <c r="ACU84" s="76"/>
-      <c r="ACV84" s="76"/>
-      <c r="ACW84" s="76"/>
-      <c r="ACX84" s="76"/>
-      <c r="ACY84" s="76"/>
-      <c r="ACZ84" s="76"/>
-      <c r="ADA84" s="76"/>
-      <c r="ADB84" s="76"/>
-      <c r="ADC84" s="76"/>
-      <c r="ADD84" s="76"/>
-      <c r="ADE84" s="76"/>
-      <c r="ADF84" s="76"/>
-      <c r="ADG84" s="76"/>
-      <c r="ADH84" s="76"/>
-      <c r="ADI84" s="76"/>
-      <c r="ADJ84" s="76"/>
-      <c r="ADK84" s="76"/>
-      <c r="ADL84" s="76"/>
-      <c r="ADM84" s="76"/>
-      <c r="ADN84" s="76"/>
-      <c r="ADO84" s="76"/>
-      <c r="ADP84" s="76"/>
-      <c r="ADQ84" s="76"/>
-      <c r="ADR84" s="76"/>
-      <c r="ADS84" s="76"/>
-      <c r="ADT84" s="76"/>
-      <c r="ADU84" s="76"/>
-      <c r="ADV84" s="76"/>
-      <c r="ADW84" s="76"/>
-      <c r="ADX84" s="76"/>
-      <c r="ADY84" s="76"/>
-      <c r="ADZ84" s="76"/>
-      <c r="AEA84" s="76"/>
-      <c r="AEB84" s="76"/>
-      <c r="AEC84" s="76"/>
-      <c r="AED84" s="76"/>
-      <c r="AEE84" s="76"/>
-      <c r="AEF84" s="76"/>
-      <c r="AEG84" s="76"/>
-      <c r="AEH84" s="76"/>
-      <c r="AEI84" s="76"/>
-      <c r="AEJ84" s="76"/>
-      <c r="AEK84" s="76"/>
-      <c r="AEL84" s="76"/>
-      <c r="AEM84" s="76"/>
-      <c r="AEN84" s="76"/>
-      <c r="AEO84" s="76"/>
-      <c r="AEP84" s="76"/>
-      <c r="AEQ84" s="76"/>
-      <c r="AER84" s="76"/>
-      <c r="AES84" s="76"/>
-      <c r="AET84" s="76"/>
-      <c r="AEU84" s="76"/>
-      <c r="AEV84" s="76"/>
-      <c r="AEW84" s="76"/>
-      <c r="AEX84" s="76"/>
-      <c r="AEY84" s="76"/>
-      <c r="AEZ84" s="76"/>
-      <c r="AFA84" s="76"/>
-      <c r="AFB84" s="76"/>
-      <c r="AFC84" s="76"/>
-      <c r="AFD84" s="76"/>
-      <c r="AFE84" s="76"/>
-      <c r="AFF84" s="76"/>
-      <c r="AFG84" s="76"/>
-      <c r="AFH84" s="76"/>
-      <c r="AFI84" s="76"/>
-      <c r="AFJ84" s="76"/>
-      <c r="AFK84" s="76"/>
-      <c r="AFL84" s="76"/>
-      <c r="AFM84" s="76"/>
-      <c r="AFN84" s="76"/>
-      <c r="AFO84" s="76"/>
-      <c r="AFP84" s="76"/>
-      <c r="AFQ84" s="76"/>
-      <c r="AFR84" s="76"/>
-      <c r="AFS84" s="76"/>
-      <c r="AFT84" s="76"/>
-      <c r="AFU84" s="76"/>
-      <c r="AFV84" s="76"/>
-      <c r="AFW84" s="76"/>
-      <c r="AFX84" s="76"/>
-      <c r="AFY84" s="76"/>
-      <c r="AFZ84" s="76"/>
-      <c r="AGA84" s="76"/>
-      <c r="AGB84" s="76"/>
-      <c r="AGC84" s="76"/>
-      <c r="AGD84" s="76"/>
-      <c r="AGE84" s="76"/>
-      <c r="AGF84" s="76"/>
-      <c r="AGG84" s="76"/>
-      <c r="AGH84" s="76"/>
-      <c r="AGI84" s="76"/>
-      <c r="AGJ84" s="76"/>
-      <c r="AGK84" s="76"/>
-      <c r="AGL84" s="76"/>
-      <c r="AGM84" s="76"/>
-      <c r="AGN84" s="76"/>
-      <c r="AGO84" s="76"/>
-      <c r="AGP84" s="76"/>
-      <c r="AGQ84" s="76"/>
-      <c r="AGR84" s="76"/>
-      <c r="AGS84" s="76"/>
-      <c r="AGT84" s="76"/>
-      <c r="AGU84" s="76"/>
-      <c r="AGV84" s="76"/>
-      <c r="AGW84" s="76"/>
-      <c r="AGX84" s="76"/>
-      <c r="AGY84" s="76"/>
-      <c r="AGZ84" s="76"/>
-      <c r="AHA84" s="76"/>
-      <c r="AHB84" s="76"/>
-      <c r="AHC84" s="76"/>
-      <c r="AHD84" s="76"/>
-      <c r="AHE84" s="76"/>
-      <c r="AHF84" s="76"/>
-      <c r="AHG84" s="76"/>
-      <c r="AHH84" s="76"/>
-      <c r="AHI84" s="76"/>
-      <c r="AHJ84" s="76"/>
-      <c r="AHK84" s="76"/>
-      <c r="AHL84" s="76"/>
-      <c r="AHM84" s="76"/>
-      <c r="AHN84" s="76"/>
-      <c r="AHO84" s="76"/>
-      <c r="AHP84" s="76"/>
-      <c r="AHQ84" s="76"/>
-      <c r="AHR84" s="76"/>
-      <c r="AHS84" s="76"/>
-      <c r="AHT84" s="76"/>
-      <c r="AHU84" s="76"/>
-      <c r="AHV84" s="76"/>
-      <c r="AHW84" s="76"/>
-      <c r="AHX84" s="76"/>
-      <c r="AHY84" s="76"/>
-      <c r="AHZ84" s="76"/>
-      <c r="AIA84" s="76"/>
-      <c r="AIB84" s="76"/>
-      <c r="AIC84" s="76"/>
-      <c r="AID84" s="76"/>
-      <c r="AIE84" s="76"/>
-      <c r="AIF84" s="76"/>
-      <c r="AIG84" s="76"/>
-      <c r="AIH84" s="76"/>
-      <c r="AII84" s="76"/>
-      <c r="AIJ84" s="76"/>
-      <c r="AIK84" s="76"/>
-      <c r="AIL84" s="76"/>
-      <c r="AIM84" s="76"/>
-      <c r="AIN84" s="76"/>
-      <c r="AIO84" s="76"/>
-      <c r="AIP84" s="76"/>
-      <c r="AIQ84" s="76"/>
-      <c r="AIR84" s="76"/>
-      <c r="AIS84" s="76"/>
-      <c r="AIT84" s="76"/>
-      <c r="AIU84" s="76"/>
-      <c r="AIV84" s="76"/>
-      <c r="AIW84" s="76"/>
-      <c r="AIX84" s="76"/>
-      <c r="AIY84" s="76"/>
-      <c r="AIZ84" s="76"/>
-      <c r="AJA84" s="76"/>
-      <c r="AJB84" s="76"/>
-      <c r="AJC84" s="76"/>
-      <c r="AJD84" s="76"/>
-      <c r="AJE84" s="76"/>
-      <c r="AJF84" s="76"/>
-      <c r="AJG84" s="76"/>
-      <c r="AJH84" s="76"/>
-      <c r="AJI84" s="76"/>
-      <c r="AJJ84" s="76"/>
-      <c r="AJK84" s="76"/>
-      <c r="AJL84" s="76"/>
-      <c r="AJM84" s="76"/>
-      <c r="AJN84" s="76"/>
-      <c r="AJO84" s="76"/>
-      <c r="AJP84" s="76"/>
-      <c r="AJQ84" s="76"/>
-      <c r="AJR84" s="76"/>
-      <c r="AJS84" s="76"/>
-      <c r="AJT84" s="76"/>
-      <c r="AJU84" s="76"/>
-      <c r="AJV84" s="76"/>
-      <c r="AJW84" s="76"/>
-      <c r="AJX84" s="76"/>
-      <c r="AJY84" s="76"/>
-      <c r="AJZ84" s="76"/>
-      <c r="AKA84" s="76"/>
-      <c r="AKB84" s="76"/>
-      <c r="AKC84" s="76"/>
-      <c r="AKD84" s="76"/>
-      <c r="AKE84" s="76"/>
-      <c r="AKF84" s="76"/>
-      <c r="AKG84" s="76"/>
-      <c r="AKH84" s="76"/>
-      <c r="AKI84" s="76"/>
-      <c r="AKJ84" s="76"/>
-      <c r="AKK84" s="76"/>
-      <c r="AKL84" s="76"/>
-      <c r="AKM84" s="76"/>
-      <c r="AKN84" s="76"/>
-      <c r="AKO84" s="76"/>
-      <c r="AKP84" s="76"/>
-      <c r="AKQ84" s="76"/>
-      <c r="AKR84" s="76"/>
-      <c r="AKS84" s="76"/>
-      <c r="AKT84" s="76"/>
-      <c r="AKU84" s="76"/>
-      <c r="AKV84" s="76"/>
-      <c r="AKW84" s="76"/>
-      <c r="AKX84" s="76"/>
-      <c r="AKY84" s="76"/>
-      <c r="AKZ84" s="76"/>
-      <c r="ALA84" s="76"/>
-      <c r="ALB84" s="76"/>
-      <c r="ALC84" s="76"/>
-      <c r="ALD84" s="76"/>
-      <c r="ALE84" s="76"/>
-      <c r="ALF84" s="76"/>
-      <c r="ALG84" s="76"/>
-      <c r="ALH84" s="76"/>
-      <c r="ALI84" s="76"/>
-      <c r="ALJ84" s="76"/>
-      <c r="ALK84" s="76"/>
-      <c r="ALL84" s="76"/>
-      <c r="ALM84" s="76"/>
-      <c r="ALN84" s="76"/>
-      <c r="ALO84" s="76"/>
-      <c r="ALP84" s="76"/>
-      <c r="ALQ84" s="76"/>
-      <c r="ALR84" s="76"/>
-      <c r="ALS84" s="76"/>
-      <c r="ALT84" s="76"/>
-      <c r="ALU84" s="76"/>
-      <c r="ALV84" s="76"/>
-      <c r="ALW84" s="76"/>
-      <c r="ALX84" s="76"/>
-      <c r="ALY84" s="76"/>
-      <c r="ALZ84" s="76"/>
-      <c r="AMA84" s="76"/>
-      <c r="AMB84" s="76"/>
-      <c r="AMC84" s="76"/>
-      <c r="AMD84" s="76"/>
-      <c r="AME84" s="76"/>
-      <c r="AMF84" s="76"/>
-      <c r="AMG84" s="76"/>
-      <c r="AMH84" s="76"/>
+      <c r="H84" s="70"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="74"/>
+      <c r="Q84" s="74"/>
+      <c r="R84" s="74"/>
+      <c r="S84" s="74"/>
+      <c r="T84" s="74"/>
+      <c r="U84" s="74"/>
+      <c r="V84" s="74"/>
+      <c r="W84" s="74"/>
+      <c r="X84" s="74"/>
+      <c r="Y84" s="74"/>
+      <c r="Z84" s="74"/>
+      <c r="AA84" s="74"/>
+      <c r="AB84" s="74"/>
+      <c r="AC84" s="74"/>
+      <c r="AD84" s="74"/>
+      <c r="AE84" s="74"/>
+      <c r="AF84" s="74"/>
+      <c r="AG84" s="74"/>
+      <c r="AH84" s="74"/>
+      <c r="AI84" s="74"/>
+      <c r="AJ84" s="74"/>
+      <c r="AK84" s="74"/>
+      <c r="AL84" s="74"/>
+      <c r="AM84" s="74"/>
+      <c r="AN84" s="74"/>
+      <c r="AO84" s="74"/>
+      <c r="AP84" s="74"/>
+      <c r="AQ84" s="74"/>
+      <c r="AR84" s="74"/>
+      <c r="AS84" s="74"/>
+      <c r="AT84" s="74"/>
+      <c r="AU84" s="74"/>
+      <c r="AV84" s="74"/>
+      <c r="AW84" s="74"/>
+      <c r="AX84" s="74"/>
+      <c r="AY84" s="74"/>
+      <c r="AZ84" s="74"/>
+      <c r="BA84" s="74"/>
+      <c r="BB84" s="74"/>
+      <c r="BC84" s="74"/>
+      <c r="BD84" s="74"/>
+      <c r="BE84" s="74"/>
+      <c r="BF84" s="74"/>
+      <c r="BG84" s="74"/>
+      <c r="BH84" s="74"/>
+      <c r="BI84" s="74"/>
+      <c r="BJ84" s="74"/>
+      <c r="BK84" s="74"/>
+      <c r="BL84" s="74"/>
+      <c r="BM84" s="74"/>
+      <c r="BN84" s="74"/>
+      <c r="BO84" s="74"/>
+      <c r="BP84" s="74"/>
+      <c r="BQ84" s="74"/>
+      <c r="BR84" s="74"/>
+      <c r="BS84" s="74"/>
+      <c r="BT84" s="74"/>
+      <c r="BU84" s="74"/>
+      <c r="BV84" s="74"/>
+      <c r="BW84" s="74"/>
+      <c r="BX84" s="74"/>
+      <c r="BY84" s="74"/>
+      <c r="BZ84" s="74"/>
+      <c r="CA84" s="74"/>
+      <c r="CB84" s="74"/>
+      <c r="CC84" s="74"/>
+      <c r="CD84" s="74"/>
+      <c r="CE84" s="74"/>
+      <c r="CF84" s="74"/>
+      <c r="CG84" s="74"/>
+      <c r="CH84" s="74"/>
+      <c r="CI84" s="74"/>
+      <c r="CJ84" s="74"/>
+      <c r="CK84" s="74"/>
+      <c r="CL84" s="74"/>
+      <c r="CM84" s="74"/>
+      <c r="CN84" s="74"/>
+      <c r="CO84" s="74"/>
+      <c r="CP84" s="74"/>
+      <c r="CQ84" s="74"/>
+      <c r="CR84" s="74"/>
+      <c r="CS84" s="74"/>
+      <c r="CT84" s="74"/>
+      <c r="CU84" s="74"/>
+      <c r="CV84" s="74"/>
+      <c r="CW84" s="74"/>
+      <c r="CX84" s="74"/>
+      <c r="CY84" s="74"/>
+      <c r="CZ84" s="74"/>
+      <c r="DA84" s="74"/>
+      <c r="DB84" s="74"/>
+      <c r="DC84" s="74"/>
+      <c r="DD84" s="74"/>
+      <c r="DE84" s="74"/>
+      <c r="DF84" s="74"/>
+      <c r="DG84" s="74"/>
+      <c r="DH84" s="74"/>
+      <c r="DI84" s="74"/>
+      <c r="DJ84" s="74"/>
+      <c r="DK84" s="74"/>
+      <c r="DL84" s="74"/>
+      <c r="DM84" s="74"/>
+      <c r="DN84" s="74"/>
+      <c r="DO84" s="74"/>
+      <c r="DP84" s="74"/>
+      <c r="DQ84" s="74"/>
+      <c r="DR84" s="74"/>
+      <c r="DS84" s="74"/>
+      <c r="DT84" s="74"/>
+      <c r="DU84" s="74"/>
+      <c r="DV84" s="74"/>
+      <c r="DW84" s="74"/>
+      <c r="DX84" s="74"/>
+      <c r="DY84" s="74"/>
+      <c r="DZ84" s="74"/>
+      <c r="EA84" s="74"/>
+      <c r="EB84" s="74"/>
+      <c r="EC84" s="74"/>
+      <c r="ED84" s="74"/>
+      <c r="EE84" s="74"/>
+      <c r="EF84" s="74"/>
+      <c r="EG84" s="74"/>
+      <c r="EH84" s="74"/>
+      <c r="EI84" s="74"/>
+      <c r="EJ84" s="74"/>
+      <c r="EK84" s="74"/>
+      <c r="EL84" s="74"/>
+      <c r="EM84" s="74"/>
+      <c r="EN84" s="74"/>
+      <c r="EO84" s="74"/>
+      <c r="EP84" s="74"/>
+      <c r="EQ84" s="74"/>
+      <c r="ER84" s="74"/>
+      <c r="ES84" s="74"/>
+      <c r="ET84" s="74"/>
+      <c r="EU84" s="74"/>
+      <c r="EV84" s="74"/>
+      <c r="EW84" s="74"/>
+      <c r="EX84" s="74"/>
+      <c r="EY84" s="74"/>
+      <c r="EZ84" s="74"/>
+      <c r="FA84" s="74"/>
+      <c r="FB84" s="74"/>
+      <c r="FC84" s="74"/>
+      <c r="FD84" s="74"/>
+      <c r="FE84" s="74"/>
+      <c r="FF84" s="74"/>
+      <c r="FG84" s="74"/>
+      <c r="FH84" s="74"/>
+      <c r="FI84" s="74"/>
+      <c r="FJ84" s="74"/>
+      <c r="FK84" s="74"/>
+      <c r="FL84" s="74"/>
+      <c r="FM84" s="74"/>
+      <c r="FN84" s="74"/>
+      <c r="FO84" s="74"/>
+      <c r="FP84" s="74"/>
+      <c r="FQ84" s="74"/>
+      <c r="FR84" s="74"/>
+      <c r="FS84" s="74"/>
+      <c r="FT84" s="74"/>
+      <c r="FU84" s="74"/>
+      <c r="FV84" s="74"/>
+      <c r="FW84" s="74"/>
+      <c r="FX84" s="74"/>
+      <c r="FY84" s="74"/>
+      <c r="FZ84" s="74"/>
+      <c r="GA84" s="74"/>
+      <c r="GB84" s="74"/>
+      <c r="GC84" s="74"/>
+      <c r="GD84" s="74"/>
+      <c r="GE84" s="74"/>
+      <c r="GF84" s="74"/>
+      <c r="GG84" s="74"/>
+      <c r="GH84" s="74"/>
+      <c r="GI84" s="74"/>
+      <c r="GJ84" s="74"/>
+      <c r="GK84" s="74"/>
+      <c r="GL84" s="74"/>
+      <c r="GM84" s="74"/>
+      <c r="GN84" s="74"/>
+      <c r="GO84" s="74"/>
+      <c r="GP84" s="74"/>
+      <c r="GQ84" s="74"/>
+      <c r="GR84" s="74"/>
+      <c r="GS84" s="74"/>
+      <c r="GT84" s="74"/>
+      <c r="GU84" s="74"/>
+      <c r="GV84" s="74"/>
+      <c r="GW84" s="74"/>
+      <c r="GX84" s="74"/>
+      <c r="GY84" s="74"/>
+      <c r="GZ84" s="74"/>
+      <c r="HA84" s="74"/>
+      <c r="HB84" s="74"/>
+      <c r="HC84" s="74"/>
+      <c r="HD84" s="74"/>
+      <c r="HE84" s="74"/>
+      <c r="HF84" s="74"/>
+      <c r="HG84" s="74"/>
+      <c r="HH84" s="74"/>
+      <c r="HI84" s="74"/>
+      <c r="HJ84" s="74"/>
+      <c r="HK84" s="74"/>
+      <c r="HL84" s="74"/>
+      <c r="HM84" s="74"/>
+      <c r="HN84" s="74"/>
+      <c r="HO84" s="74"/>
+      <c r="HP84" s="74"/>
+      <c r="HQ84" s="74"/>
+      <c r="HR84" s="74"/>
+      <c r="HS84" s="74"/>
+      <c r="HT84" s="74"/>
+      <c r="HU84" s="74"/>
+      <c r="HV84" s="74"/>
+      <c r="HW84" s="74"/>
+      <c r="HX84" s="74"/>
+      <c r="HY84" s="74"/>
+      <c r="HZ84" s="74"/>
+      <c r="IA84" s="74"/>
+      <c r="IB84" s="74"/>
+      <c r="IC84" s="74"/>
+      <c r="ID84" s="74"/>
+      <c r="IE84" s="74"/>
+      <c r="IF84" s="74"/>
+      <c r="IG84" s="74"/>
+      <c r="IH84" s="74"/>
+      <c r="II84" s="74"/>
+      <c r="IJ84" s="74"/>
+      <c r="IK84" s="74"/>
+      <c r="IL84" s="74"/>
+      <c r="IM84" s="74"/>
+      <c r="IN84" s="74"/>
+      <c r="IO84" s="74"/>
+      <c r="IP84" s="74"/>
+      <c r="IQ84" s="74"/>
+      <c r="IR84" s="74"/>
+      <c r="IS84" s="74"/>
+      <c r="IT84" s="74"/>
+      <c r="IU84" s="74"/>
+      <c r="IV84" s="74"/>
+      <c r="IW84" s="74"/>
+      <c r="IX84" s="74"/>
+      <c r="IY84" s="74"/>
+      <c r="IZ84" s="74"/>
+      <c r="JA84" s="74"/>
+      <c r="JB84" s="74"/>
+      <c r="JC84" s="74"/>
+      <c r="JD84" s="74"/>
+      <c r="JE84" s="74"/>
+      <c r="JF84" s="74"/>
+      <c r="JG84" s="74"/>
+      <c r="JH84" s="74"/>
+      <c r="JI84" s="74"/>
+      <c r="JJ84" s="74"/>
+      <c r="JK84" s="74"/>
+      <c r="JL84" s="74"/>
+      <c r="JM84" s="74"/>
+      <c r="JN84" s="74"/>
+      <c r="JO84" s="74"/>
+      <c r="JP84" s="74"/>
+      <c r="JQ84" s="74"/>
+      <c r="JR84" s="74"/>
+      <c r="JS84" s="74"/>
+      <c r="JT84" s="74"/>
+      <c r="JU84" s="74"/>
+      <c r="JV84" s="74"/>
+      <c r="JW84" s="74"/>
+      <c r="JX84" s="74"/>
+      <c r="JY84" s="74"/>
+      <c r="JZ84" s="74"/>
+      <c r="KA84" s="74"/>
+      <c r="KB84" s="74"/>
+      <c r="KC84" s="74"/>
+      <c r="KD84" s="74"/>
+      <c r="KE84" s="74"/>
+      <c r="KF84" s="74"/>
+      <c r="KG84" s="74"/>
+      <c r="KH84" s="74"/>
+      <c r="KI84" s="74"/>
+      <c r="KJ84" s="74"/>
+      <c r="KK84" s="74"/>
+      <c r="KL84" s="74"/>
+      <c r="KM84" s="74"/>
+      <c r="KN84" s="74"/>
+      <c r="KO84" s="74"/>
+      <c r="KP84" s="74"/>
+      <c r="KQ84" s="74"/>
+      <c r="KR84" s="74"/>
+      <c r="KS84" s="74"/>
+      <c r="KT84" s="74"/>
+      <c r="KU84" s="74"/>
+      <c r="KV84" s="74"/>
+      <c r="KW84" s="74"/>
+      <c r="KX84" s="74"/>
+      <c r="KY84" s="74"/>
+      <c r="KZ84" s="74"/>
+      <c r="LA84" s="74"/>
+      <c r="LB84" s="74"/>
+      <c r="LC84" s="74"/>
+      <c r="LD84" s="74"/>
+      <c r="LE84" s="74"/>
+      <c r="LF84" s="74"/>
+      <c r="LG84" s="74"/>
+      <c r="LH84" s="74"/>
+      <c r="LI84" s="74"/>
+      <c r="LJ84" s="74"/>
+      <c r="LK84" s="74"/>
+      <c r="LL84" s="74"/>
+      <c r="LM84" s="74"/>
+      <c r="LN84" s="74"/>
+      <c r="LO84" s="74"/>
+      <c r="LP84" s="74"/>
+      <c r="LQ84" s="74"/>
+      <c r="LR84" s="74"/>
+      <c r="LS84" s="74"/>
+      <c r="LT84" s="74"/>
+      <c r="LU84" s="74"/>
+      <c r="LV84" s="74"/>
+      <c r="LW84" s="74"/>
+      <c r="LX84" s="74"/>
+      <c r="LY84" s="74"/>
+      <c r="LZ84" s="74"/>
+      <c r="MA84" s="74"/>
+      <c r="MB84" s="74"/>
+      <c r="MC84" s="74"/>
+      <c r="MD84" s="74"/>
+      <c r="ME84" s="74"/>
+      <c r="MF84" s="74"/>
+      <c r="MG84" s="74"/>
+      <c r="MH84" s="74"/>
+      <c r="MI84" s="74"/>
+      <c r="MJ84" s="74"/>
+      <c r="MK84" s="74"/>
+      <c r="ML84" s="74"/>
+      <c r="MM84" s="74"/>
+      <c r="MN84" s="74"/>
+      <c r="MO84" s="74"/>
+      <c r="MP84" s="74"/>
+      <c r="MQ84" s="74"/>
+      <c r="MR84" s="74"/>
+      <c r="MS84" s="74"/>
+      <c r="MT84" s="74"/>
+      <c r="MU84" s="74"/>
+      <c r="MV84" s="74"/>
+      <c r="MW84" s="74"/>
+      <c r="MX84" s="74"/>
+      <c r="MY84" s="74"/>
+      <c r="MZ84" s="74"/>
+      <c r="NA84" s="74"/>
+      <c r="NB84" s="74"/>
+      <c r="NC84" s="74"/>
+      <c r="ND84" s="74"/>
+      <c r="NE84" s="74"/>
+      <c r="NF84" s="74"/>
+      <c r="NG84" s="74"/>
+      <c r="NH84" s="74"/>
+      <c r="NI84" s="74"/>
+      <c r="NJ84" s="74"/>
+      <c r="NK84" s="74"/>
+      <c r="NL84" s="74"/>
+      <c r="NM84" s="74"/>
+      <c r="NN84" s="74"/>
+      <c r="NO84" s="74"/>
+      <c r="NP84" s="74"/>
+      <c r="NQ84" s="74"/>
+      <c r="NR84" s="74"/>
+      <c r="NS84" s="74"/>
+      <c r="NT84" s="74"/>
+      <c r="NU84" s="74"/>
+      <c r="NV84" s="74"/>
+      <c r="NW84" s="74"/>
+      <c r="NX84" s="74"/>
+      <c r="NY84" s="74"/>
+      <c r="NZ84" s="74"/>
+      <c r="OA84" s="74"/>
+      <c r="OB84" s="74"/>
+      <c r="OC84" s="74"/>
+      <c r="OD84" s="74"/>
+      <c r="OE84" s="74"/>
+      <c r="OF84" s="74"/>
+      <c r="OG84" s="74"/>
+      <c r="OH84" s="74"/>
+      <c r="OI84" s="74"/>
+      <c r="OJ84" s="74"/>
+      <c r="OK84" s="74"/>
+      <c r="OL84" s="74"/>
+      <c r="OM84" s="74"/>
+      <c r="ON84" s="74"/>
+      <c r="OO84" s="74"/>
+      <c r="OP84" s="74"/>
+      <c r="OQ84" s="74"/>
+      <c r="OR84" s="74"/>
+      <c r="OS84" s="74"/>
+      <c r="OT84" s="74"/>
+      <c r="OU84" s="74"/>
+      <c r="OV84" s="74"/>
+      <c r="OW84" s="74"/>
+      <c r="OX84" s="74"/>
+      <c r="OY84" s="74"/>
+      <c r="OZ84" s="74"/>
+      <c r="PA84" s="74"/>
+      <c r="PB84" s="74"/>
+      <c r="PC84" s="74"/>
+      <c r="PD84" s="74"/>
+      <c r="PE84" s="74"/>
+      <c r="PF84" s="74"/>
+      <c r="PG84" s="74"/>
+      <c r="PH84" s="74"/>
+      <c r="PI84" s="74"/>
+      <c r="PJ84" s="74"/>
+      <c r="PK84" s="74"/>
+      <c r="PL84" s="74"/>
+      <c r="PM84" s="74"/>
+      <c r="PN84" s="74"/>
+      <c r="PO84" s="74"/>
+      <c r="PP84" s="74"/>
+      <c r="PQ84" s="74"/>
+      <c r="PR84" s="74"/>
+      <c r="PS84" s="74"/>
+      <c r="PT84" s="74"/>
+      <c r="PU84" s="74"/>
+      <c r="PV84" s="74"/>
+      <c r="PW84" s="74"/>
+      <c r="PX84" s="74"/>
+      <c r="PY84" s="74"/>
+      <c r="PZ84" s="74"/>
+      <c r="QA84" s="74"/>
+      <c r="QB84" s="74"/>
+      <c r="QC84" s="74"/>
+      <c r="QD84" s="74"/>
+      <c r="QE84" s="74"/>
+      <c r="QF84" s="74"/>
+      <c r="QG84" s="74"/>
+      <c r="QH84" s="74"/>
+      <c r="QI84" s="74"/>
+      <c r="QJ84" s="74"/>
+      <c r="QK84" s="74"/>
+      <c r="QL84" s="74"/>
+      <c r="QM84" s="74"/>
+      <c r="QN84" s="74"/>
+      <c r="QO84" s="74"/>
+      <c r="QP84" s="74"/>
+      <c r="QQ84" s="74"/>
+      <c r="QR84" s="74"/>
+      <c r="QS84" s="74"/>
+      <c r="QT84" s="74"/>
+      <c r="QU84" s="74"/>
+      <c r="QV84" s="74"/>
+      <c r="QW84" s="74"/>
+      <c r="QX84" s="74"/>
+      <c r="QY84" s="74"/>
+      <c r="QZ84" s="74"/>
+      <c r="RA84" s="74"/>
+      <c r="RB84" s="74"/>
+      <c r="RC84" s="74"/>
+      <c r="RD84" s="74"/>
+      <c r="RE84" s="74"/>
+      <c r="RF84" s="74"/>
+      <c r="RG84" s="74"/>
+      <c r="RH84" s="74"/>
+      <c r="RI84" s="74"/>
+      <c r="RJ84" s="74"/>
+      <c r="RK84" s="74"/>
+      <c r="RL84" s="74"/>
+      <c r="RM84" s="74"/>
+      <c r="RN84" s="74"/>
+      <c r="RO84" s="74"/>
+      <c r="RP84" s="74"/>
+      <c r="RQ84" s="74"/>
+      <c r="RR84" s="74"/>
+      <c r="RS84" s="74"/>
+      <c r="RT84" s="74"/>
+      <c r="RU84" s="74"/>
+      <c r="RV84" s="74"/>
+      <c r="RW84" s="74"/>
+      <c r="RX84" s="74"/>
+      <c r="RY84" s="74"/>
+      <c r="RZ84" s="74"/>
+      <c r="SA84" s="74"/>
+      <c r="SB84" s="74"/>
+      <c r="SC84" s="74"/>
+      <c r="SD84" s="74"/>
+      <c r="SE84" s="74"/>
+      <c r="SF84" s="74"/>
+      <c r="SG84" s="74"/>
+      <c r="SH84" s="74"/>
+      <c r="SI84" s="74"/>
+      <c r="SJ84" s="74"/>
+      <c r="SK84" s="74"/>
+      <c r="SL84" s="74"/>
+      <c r="SM84" s="74"/>
+      <c r="SN84" s="74"/>
+      <c r="SO84" s="74"/>
+      <c r="SP84" s="74"/>
+      <c r="SQ84" s="74"/>
+      <c r="SR84" s="74"/>
+      <c r="SS84" s="74"/>
+      <c r="ST84" s="74"/>
+      <c r="SU84" s="74"/>
+      <c r="SV84" s="74"/>
+      <c r="SW84" s="74"/>
+      <c r="SX84" s="74"/>
+      <c r="SY84" s="74"/>
+      <c r="SZ84" s="74"/>
+      <c r="TA84" s="74"/>
+      <c r="TB84" s="74"/>
+      <c r="TC84" s="74"/>
+      <c r="TD84" s="74"/>
+      <c r="TE84" s="74"/>
+      <c r="TF84" s="74"/>
+      <c r="TG84" s="74"/>
+      <c r="TH84" s="74"/>
+      <c r="TI84" s="74"/>
+      <c r="TJ84" s="74"/>
+      <c r="TK84" s="74"/>
+      <c r="TL84" s="74"/>
+      <c r="TM84" s="74"/>
+      <c r="TN84" s="74"/>
+      <c r="TO84" s="74"/>
+      <c r="TP84" s="74"/>
+      <c r="TQ84" s="74"/>
+      <c r="TR84" s="74"/>
+      <c r="TS84" s="74"/>
+      <c r="TT84" s="74"/>
+      <c r="TU84" s="74"/>
+      <c r="TV84" s="74"/>
+      <c r="TW84" s="74"/>
+      <c r="TX84" s="74"/>
+      <c r="TY84" s="74"/>
+      <c r="TZ84" s="74"/>
+      <c r="UA84" s="74"/>
+      <c r="UB84" s="74"/>
+      <c r="UC84" s="74"/>
+      <c r="UD84" s="74"/>
+      <c r="UE84" s="74"/>
+      <c r="UF84" s="74"/>
+      <c r="UG84" s="74"/>
+      <c r="UH84" s="74"/>
+      <c r="UI84" s="74"/>
+      <c r="UJ84" s="74"/>
+      <c r="UK84" s="74"/>
+      <c r="UL84" s="74"/>
+      <c r="UM84" s="74"/>
+      <c r="UN84" s="74"/>
+      <c r="UO84" s="74"/>
+      <c r="UP84" s="74"/>
+      <c r="UQ84" s="74"/>
+      <c r="UR84" s="74"/>
+      <c r="US84" s="74"/>
+      <c r="UT84" s="74"/>
+      <c r="UU84" s="74"/>
+      <c r="UV84" s="74"/>
+      <c r="UW84" s="74"/>
+      <c r="UX84" s="74"/>
+      <c r="UY84" s="74"/>
+      <c r="UZ84" s="74"/>
+      <c r="VA84" s="74"/>
+      <c r="VB84" s="74"/>
+      <c r="VC84" s="74"/>
+      <c r="VD84" s="74"/>
+      <c r="VE84" s="74"/>
+      <c r="VF84" s="74"/>
+      <c r="VG84" s="74"/>
+      <c r="VH84" s="74"/>
+      <c r="VI84" s="74"/>
+      <c r="VJ84" s="74"/>
+      <c r="VK84" s="74"/>
+      <c r="VL84" s="74"/>
+      <c r="VM84" s="74"/>
+      <c r="VN84" s="74"/>
+      <c r="VO84" s="74"/>
+      <c r="VP84" s="74"/>
+      <c r="VQ84" s="74"/>
+      <c r="VR84" s="74"/>
+      <c r="VS84" s="74"/>
+      <c r="VT84" s="74"/>
+      <c r="VU84" s="74"/>
+      <c r="VV84" s="74"/>
+      <c r="VW84" s="74"/>
+      <c r="VX84" s="74"/>
+      <c r="VY84" s="74"/>
+      <c r="VZ84" s="74"/>
+      <c r="WA84" s="74"/>
+      <c r="WB84" s="74"/>
+      <c r="WC84" s="74"/>
+      <c r="WD84" s="74"/>
+      <c r="WE84" s="74"/>
+      <c r="WF84" s="74"/>
+      <c r="WG84" s="74"/>
+      <c r="WH84" s="74"/>
+      <c r="WI84" s="74"/>
+      <c r="WJ84" s="74"/>
+      <c r="WK84" s="74"/>
+      <c r="WL84" s="74"/>
+      <c r="WM84" s="74"/>
+      <c r="WN84" s="74"/>
+      <c r="WO84" s="74"/>
+      <c r="WP84" s="74"/>
+      <c r="WQ84" s="74"/>
+      <c r="WR84" s="74"/>
+      <c r="WS84" s="74"/>
+      <c r="WT84" s="74"/>
+      <c r="WU84" s="74"/>
+      <c r="WV84" s="74"/>
+      <c r="WW84" s="74"/>
+      <c r="WX84" s="74"/>
+      <c r="WY84" s="74"/>
+      <c r="WZ84" s="74"/>
+      <c r="XA84" s="74"/>
+      <c r="XB84" s="74"/>
+      <c r="XC84" s="74"/>
+      <c r="XD84" s="74"/>
+      <c r="XE84" s="74"/>
+      <c r="XF84" s="74"/>
+      <c r="XG84" s="74"/>
+      <c r="XH84" s="74"/>
+      <c r="XI84" s="74"/>
+      <c r="XJ84" s="74"/>
+      <c r="XK84" s="74"/>
+      <c r="XL84" s="74"/>
+      <c r="XM84" s="74"/>
+      <c r="XN84" s="74"/>
+      <c r="XO84" s="74"/>
+      <c r="XP84" s="74"/>
+      <c r="XQ84" s="74"/>
+      <c r="XR84" s="74"/>
+      <c r="XS84" s="74"/>
+      <c r="XT84" s="74"/>
+      <c r="XU84" s="74"/>
+      <c r="XV84" s="74"/>
+      <c r="XW84" s="74"/>
+      <c r="XX84" s="74"/>
+      <c r="XY84" s="74"/>
+      <c r="XZ84" s="74"/>
+      <c r="YA84" s="74"/>
+      <c r="YB84" s="74"/>
+      <c r="YC84" s="74"/>
+      <c r="YD84" s="74"/>
+      <c r="YE84" s="74"/>
+      <c r="YF84" s="74"/>
+      <c r="YG84" s="74"/>
+      <c r="YH84" s="74"/>
+      <c r="YI84" s="74"/>
+      <c r="YJ84" s="74"/>
+      <c r="YK84" s="74"/>
+      <c r="YL84" s="74"/>
+      <c r="YM84" s="74"/>
+      <c r="YN84" s="74"/>
+      <c r="YO84" s="74"/>
+      <c r="YP84" s="74"/>
+      <c r="YQ84" s="74"/>
+      <c r="YR84" s="74"/>
+      <c r="YS84" s="74"/>
+      <c r="YT84" s="74"/>
+      <c r="YU84" s="74"/>
+      <c r="YV84" s="74"/>
+      <c r="YW84" s="74"/>
+      <c r="YX84" s="74"/>
+      <c r="YY84" s="74"/>
+      <c r="YZ84" s="74"/>
+      <c r="ZA84" s="74"/>
+      <c r="ZB84" s="74"/>
+      <c r="ZC84" s="74"/>
+      <c r="ZD84" s="74"/>
+      <c r="ZE84" s="74"/>
+      <c r="ZF84" s="74"/>
+      <c r="ZG84" s="74"/>
+      <c r="ZH84" s="74"/>
+      <c r="ZI84" s="74"/>
+      <c r="ZJ84" s="74"/>
+      <c r="ZK84" s="74"/>
+      <c r="ZL84" s="74"/>
+      <c r="ZM84" s="74"/>
+      <c r="ZN84" s="74"/>
+      <c r="ZO84" s="74"/>
+      <c r="ZP84" s="74"/>
+      <c r="ZQ84" s="74"/>
+      <c r="ZR84" s="74"/>
+      <c r="ZS84" s="74"/>
+      <c r="ZT84" s="74"/>
+      <c r="ZU84" s="74"/>
+      <c r="ZV84" s="74"/>
+      <c r="ZW84" s="74"/>
+      <c r="ZX84" s="74"/>
+      <c r="ZY84" s="74"/>
+      <c r="ZZ84" s="74"/>
+      <c r="AAA84" s="74"/>
+      <c r="AAB84" s="74"/>
+      <c r="AAC84" s="74"/>
+      <c r="AAD84" s="74"/>
+      <c r="AAE84" s="74"/>
+      <c r="AAF84" s="74"/>
+      <c r="AAG84" s="74"/>
+      <c r="AAH84" s="74"/>
+      <c r="AAI84" s="74"/>
+      <c r="AAJ84" s="74"/>
+      <c r="AAK84" s="74"/>
+      <c r="AAL84" s="74"/>
+      <c r="AAM84" s="74"/>
+      <c r="AAN84" s="74"/>
+      <c r="AAO84" s="74"/>
+      <c r="AAP84" s="74"/>
+      <c r="AAQ84" s="74"/>
+      <c r="AAR84" s="74"/>
+      <c r="AAS84" s="74"/>
+      <c r="AAT84" s="74"/>
+      <c r="AAU84" s="74"/>
+      <c r="AAV84" s="74"/>
+      <c r="AAW84" s="74"/>
+      <c r="AAX84" s="74"/>
+      <c r="AAY84" s="74"/>
+      <c r="AAZ84" s="74"/>
+      <c r="ABA84" s="74"/>
+      <c r="ABB84" s="74"/>
+      <c r="ABC84" s="74"/>
+      <c r="ABD84" s="74"/>
+      <c r="ABE84" s="74"/>
+      <c r="ABF84" s="74"/>
+      <c r="ABG84" s="74"/>
+      <c r="ABH84" s="74"/>
+      <c r="ABI84" s="74"/>
+      <c r="ABJ84" s="74"/>
+      <c r="ABK84" s="74"/>
+      <c r="ABL84" s="74"/>
+      <c r="ABM84" s="74"/>
+      <c r="ABN84" s="74"/>
+      <c r="ABO84" s="74"/>
+      <c r="ABP84" s="74"/>
+      <c r="ABQ84" s="74"/>
+      <c r="ABR84" s="74"/>
+      <c r="ABS84" s="74"/>
+      <c r="ABT84" s="74"/>
+      <c r="ABU84" s="74"/>
+      <c r="ABV84" s="74"/>
+      <c r="ABW84" s="74"/>
+      <c r="ABX84" s="74"/>
+      <c r="ABY84" s="74"/>
+      <c r="ABZ84" s="74"/>
+      <c r="ACA84" s="74"/>
+      <c r="ACB84" s="74"/>
+      <c r="ACC84" s="74"/>
+      <c r="ACD84" s="74"/>
+      <c r="ACE84" s="74"/>
+      <c r="ACF84" s="74"/>
+      <c r="ACG84" s="74"/>
+      <c r="ACH84" s="74"/>
+      <c r="ACI84" s="74"/>
+      <c r="ACJ84" s="74"/>
+      <c r="ACK84" s="74"/>
+      <c r="ACL84" s="74"/>
+      <c r="ACM84" s="74"/>
+      <c r="ACN84" s="74"/>
+      <c r="ACO84" s="74"/>
+      <c r="ACP84" s="74"/>
+      <c r="ACQ84" s="74"/>
+      <c r="ACR84" s="74"/>
+      <c r="ACS84" s="74"/>
+      <c r="ACT84" s="74"/>
+      <c r="ACU84" s="74"/>
+      <c r="ACV84" s="74"/>
+      <c r="ACW84" s="74"/>
+      <c r="ACX84" s="74"/>
+      <c r="ACY84" s="74"/>
+      <c r="ACZ84" s="74"/>
+      <c r="ADA84" s="74"/>
+      <c r="ADB84" s="74"/>
+      <c r="ADC84" s="74"/>
+      <c r="ADD84" s="74"/>
+      <c r="ADE84" s="74"/>
+      <c r="ADF84" s="74"/>
+      <c r="ADG84" s="74"/>
+      <c r="ADH84" s="74"/>
+      <c r="ADI84" s="74"/>
+      <c r="ADJ84" s="74"/>
+      <c r="ADK84" s="74"/>
+      <c r="ADL84" s="74"/>
+      <c r="ADM84" s="74"/>
+      <c r="ADN84" s="74"/>
+      <c r="ADO84" s="74"/>
+      <c r="ADP84" s="74"/>
+      <c r="ADQ84" s="74"/>
+      <c r="ADR84" s="74"/>
+      <c r="ADS84" s="74"/>
+      <c r="ADT84" s="74"/>
+      <c r="ADU84" s="74"/>
+      <c r="ADV84" s="74"/>
+      <c r="ADW84" s="74"/>
+      <c r="ADX84" s="74"/>
+      <c r="ADY84" s="74"/>
+      <c r="ADZ84" s="74"/>
+      <c r="AEA84" s="74"/>
+      <c r="AEB84" s="74"/>
+      <c r="AEC84" s="74"/>
+      <c r="AED84" s="74"/>
+      <c r="AEE84" s="74"/>
+      <c r="AEF84" s="74"/>
+      <c r="AEG84" s="74"/>
+      <c r="AEH84" s="74"/>
+      <c r="AEI84" s="74"/>
+      <c r="AEJ84" s="74"/>
+      <c r="AEK84" s="74"/>
+      <c r="AEL84" s="74"/>
+      <c r="AEM84" s="74"/>
+      <c r="AEN84" s="74"/>
+      <c r="AEO84" s="74"/>
+      <c r="AEP84" s="74"/>
+      <c r="AEQ84" s="74"/>
+      <c r="AER84" s="74"/>
+      <c r="AES84" s="74"/>
+      <c r="AET84" s="74"/>
+      <c r="AEU84" s="74"/>
+      <c r="AEV84" s="74"/>
+      <c r="AEW84" s="74"/>
+      <c r="AEX84" s="74"/>
+      <c r="AEY84" s="74"/>
+      <c r="AEZ84" s="74"/>
+      <c r="AFA84" s="74"/>
+      <c r="AFB84" s="74"/>
+      <c r="AFC84" s="74"/>
+      <c r="AFD84" s="74"/>
+      <c r="AFE84" s="74"/>
+      <c r="AFF84" s="74"/>
+      <c r="AFG84" s="74"/>
+      <c r="AFH84" s="74"/>
+      <c r="AFI84" s="74"/>
+      <c r="AFJ84" s="74"/>
+      <c r="AFK84" s="74"/>
+      <c r="AFL84" s="74"/>
+      <c r="AFM84" s="74"/>
+      <c r="AFN84" s="74"/>
+      <c r="AFO84" s="74"/>
+      <c r="AFP84" s="74"/>
+      <c r="AFQ84" s="74"/>
+      <c r="AFR84" s="74"/>
+      <c r="AFS84" s="74"/>
+      <c r="AFT84" s="74"/>
+      <c r="AFU84" s="74"/>
+      <c r="AFV84" s="74"/>
+      <c r="AFW84" s="74"/>
+      <c r="AFX84" s="74"/>
+      <c r="AFY84" s="74"/>
+      <c r="AFZ84" s="74"/>
+      <c r="AGA84" s="74"/>
+      <c r="AGB84" s="74"/>
+      <c r="AGC84" s="74"/>
+      <c r="AGD84" s="74"/>
+      <c r="AGE84" s="74"/>
+      <c r="AGF84" s="74"/>
+      <c r="AGG84" s="74"/>
+      <c r="AGH84" s="74"/>
+      <c r="AGI84" s="74"/>
+      <c r="AGJ84" s="74"/>
+      <c r="AGK84" s="74"/>
+      <c r="AGL84" s="74"/>
+      <c r="AGM84" s="74"/>
+      <c r="AGN84" s="74"/>
+      <c r="AGO84" s="74"/>
+      <c r="AGP84" s="74"/>
+      <c r="AGQ84" s="74"/>
+      <c r="AGR84" s="74"/>
+      <c r="AGS84" s="74"/>
+      <c r="AGT84" s="74"/>
+      <c r="AGU84" s="74"/>
+      <c r="AGV84" s="74"/>
+      <c r="AGW84" s="74"/>
+      <c r="AGX84" s="74"/>
+      <c r="AGY84" s="74"/>
+      <c r="AGZ84" s="74"/>
+      <c r="AHA84" s="74"/>
+      <c r="AHB84" s="74"/>
+      <c r="AHC84" s="74"/>
+      <c r="AHD84" s="74"/>
+      <c r="AHE84" s="74"/>
+      <c r="AHF84" s="74"/>
+      <c r="AHG84" s="74"/>
+      <c r="AHH84" s="74"/>
+      <c r="AHI84" s="74"/>
+      <c r="AHJ84" s="74"/>
+      <c r="AHK84" s="74"/>
+      <c r="AHL84" s="74"/>
+      <c r="AHM84" s="74"/>
+      <c r="AHN84" s="74"/>
+      <c r="AHO84" s="74"/>
+      <c r="AHP84" s="74"/>
+      <c r="AHQ84" s="74"/>
+      <c r="AHR84" s="74"/>
+      <c r="AHS84" s="74"/>
+      <c r="AHT84" s="74"/>
+      <c r="AHU84" s="74"/>
+      <c r="AHV84" s="74"/>
+      <c r="AHW84" s="74"/>
+      <c r="AHX84" s="74"/>
+      <c r="AHY84" s="74"/>
+      <c r="AHZ84" s="74"/>
+      <c r="AIA84" s="74"/>
+      <c r="AIB84" s="74"/>
+      <c r="AIC84" s="74"/>
+      <c r="AID84" s="74"/>
+      <c r="AIE84" s="74"/>
+      <c r="AIF84" s="74"/>
+      <c r="AIG84" s="74"/>
+      <c r="AIH84" s="74"/>
+      <c r="AII84" s="74"/>
+      <c r="AIJ84" s="74"/>
+      <c r="AIK84" s="74"/>
+      <c r="AIL84" s="74"/>
+      <c r="AIM84" s="74"/>
+      <c r="AIN84" s="74"/>
+      <c r="AIO84" s="74"/>
+      <c r="AIP84" s="74"/>
+      <c r="AIQ84" s="74"/>
+      <c r="AIR84" s="74"/>
+      <c r="AIS84" s="74"/>
+      <c r="AIT84" s="74"/>
+      <c r="AIU84" s="74"/>
+      <c r="AIV84" s="74"/>
+      <c r="AIW84" s="74"/>
+      <c r="AIX84" s="74"/>
+      <c r="AIY84" s="74"/>
+      <c r="AIZ84" s="74"/>
+      <c r="AJA84" s="74"/>
+      <c r="AJB84" s="74"/>
+      <c r="AJC84" s="74"/>
+      <c r="AJD84" s="74"/>
+      <c r="AJE84" s="74"/>
+      <c r="AJF84" s="74"/>
+      <c r="AJG84" s="74"/>
+      <c r="AJH84" s="74"/>
+      <c r="AJI84" s="74"/>
+      <c r="AJJ84" s="74"/>
+      <c r="AJK84" s="74"/>
+      <c r="AJL84" s="74"/>
+      <c r="AJM84" s="74"/>
+      <c r="AJN84" s="74"/>
+      <c r="AJO84" s="74"/>
+      <c r="AJP84" s="74"/>
+      <c r="AJQ84" s="74"/>
+      <c r="AJR84" s="74"/>
+      <c r="AJS84" s="74"/>
+      <c r="AJT84" s="74"/>
+      <c r="AJU84" s="74"/>
+      <c r="AJV84" s="74"/>
+      <c r="AJW84" s="74"/>
+      <c r="AJX84" s="74"/>
+      <c r="AJY84" s="74"/>
+      <c r="AJZ84" s="74"/>
+      <c r="AKA84" s="74"/>
+      <c r="AKB84" s="74"/>
+      <c r="AKC84" s="74"/>
+      <c r="AKD84" s="74"/>
+      <c r="AKE84" s="74"/>
+      <c r="AKF84" s="74"/>
+      <c r="AKG84" s="74"/>
+      <c r="AKH84" s="74"/>
+      <c r="AKI84" s="74"/>
+      <c r="AKJ84" s="74"/>
+      <c r="AKK84" s="74"/>
+      <c r="AKL84" s="74"/>
+      <c r="AKM84" s="74"/>
+      <c r="AKN84" s="74"/>
+      <c r="AKO84" s="74"/>
+      <c r="AKP84" s="74"/>
+      <c r="AKQ84" s="74"/>
+      <c r="AKR84" s="74"/>
+      <c r="AKS84" s="74"/>
+      <c r="AKT84" s="74"/>
+      <c r="AKU84" s="74"/>
+      <c r="AKV84" s="74"/>
+      <c r="AKW84" s="74"/>
+      <c r="AKX84" s="74"/>
+      <c r="AKY84" s="74"/>
+      <c r="AKZ84" s="74"/>
+      <c r="ALA84" s="74"/>
+      <c r="ALB84" s="74"/>
+      <c r="ALC84" s="74"/>
+      <c r="ALD84" s="74"/>
+      <c r="ALE84" s="74"/>
+      <c r="ALF84" s="74"/>
+      <c r="ALG84" s="74"/>
+      <c r="ALH84" s="74"/>
+      <c r="ALI84" s="74"/>
+      <c r="ALJ84" s="74"/>
+      <c r="ALK84" s="74"/>
+      <c r="ALL84" s="74"/>
+      <c r="ALM84" s="74"/>
+      <c r="ALN84" s="74"/>
+      <c r="ALO84" s="74"/>
+      <c r="ALP84" s="74"/>
+      <c r="ALQ84" s="74"/>
+      <c r="ALR84" s="74"/>
+      <c r="ALS84" s="74"/>
+      <c r="ALT84" s="74"/>
+      <c r="ALU84" s="74"/>
+      <c r="ALV84" s="74"/>
+      <c r="ALW84" s="74"/>
+      <c r="ALX84" s="74"/>
+      <c r="ALY84" s="74"/>
+      <c r="ALZ84" s="74"/>
+      <c r="AMA84" s="74"/>
+      <c r="AMB84" s="74"/>
+      <c r="AMC84" s="74"/>
+      <c r="AMD84" s="74"/>
+      <c r="AME84" s="74"/>
+      <c r="AMF84" s="74"/>
+      <c r="AMG84" s="74"/>
+      <c r="AMH84" s="74"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -21044,7 +21095,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="85" t="s">
+      <c r="A88" s="78" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -24209,10 +24260,10 @@
       </c>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="73"/>
+      <c r="E97" s="71"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="86" t="s">
+      <c r="A98" s="79" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -24224,7 +24275,7 @@
       <c r="D98" s="60">
         <v>0.9673051</v>
       </c>
-      <c r="E98" s="71">
+      <c r="E98" s="69">
         <v>0.9686</v>
       </c>
     </row>
@@ -24241,7 +24292,7 @@
       <c r="D99" s="10">
         <v>0.9671612</v>
       </c>
-      <c r="E99" s="73">
+      <c r="E99" s="71">
         <v>0.9687</v>
       </c>
     </row>
@@ -24258,7 +24309,7 @@
       <c r="D100" s="10">
         <v>0.9673732</v>
       </c>
-      <c r="E100" s="73">
+      <c r="E100" s="71">
         <v>0.9686</v>
       </c>
     </row>
@@ -24275,7 +24326,7 @@
       <c r="D101" s="10">
         <v>0.9674291</v>
       </c>
-      <c r="E101" s="73">
+      <c r="E101" s="71">
         <v>0.96939</v>
       </c>
     </row>
@@ -24292,7 +24343,7 @@
       <c r="D102" s="10">
         <v>0.967249</v>
       </c>
-      <c r="E102" s="73"/>
+      <c r="E102" s="71"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
@@ -24307,7 +24358,7 @@
       <c r="D103" s="10">
         <v>0.9673428</v>
       </c>
-      <c r="E103" s="73"/>
+      <c r="E103" s="71"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="19" t="s">
@@ -24342,7 +24393,7 @@
       <c r="D105" s="28">
         <v>0.967788</v>
       </c>
-      <c r="E105" s="73">
+      <c r="E105" s="71">
         <v>0.9683</v>
       </c>
     </row>
@@ -24376,7 +24427,7 @@
       <c r="D107" s="20">
         <v>0.9676965</v>
       </c>
-      <c r="E107" s="70">
+      <c r="E107" s="68">
         <v>0.9689</v>
       </c>
     </row>
@@ -24393,12 +24444,12 @@
       <c r="D108" s="10">
         <v>0.9675807</v>
       </c>
-      <c r="E108" s="70">
+      <c r="E108" s="68">
         <v>0.96939</v>
       </c>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="73"/>
+      <c r="E109" s="71"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
@@ -24413,10 +24464,10 @@
       <c r="D110" s="10">
         <v>0.9673982</v>
       </c>
-      <c r="E110" s="73">
+      <c r="E110" s="71">
         <v>0.9695</v>
       </c>
-      <c r="F110" s="74" t="s">
+      <c r="F110" s="72" t="s">
         <v>170</v>
       </c>
     </row>
@@ -24433,12 +24484,12 @@
       <c r="D111" s="10">
         <v>0.967503</v>
       </c>
-      <c r="E111" s="73">
+      <c r="E111" s="71">
         <v>0.9695</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="63" t="s">
+      <c r="A112" s="31" t="s">
         <v>172</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -24450,7 +24501,7 @@
       <c r="D112" s="10">
         <v>0.9675222</v>
       </c>
-      <c r="E112" s="73">
+      <c r="E112" s="71">
         <v>0.9697</v>
       </c>
     </row>
@@ -24467,15 +24518,15 @@
       <c r="D113" s="10">
         <v>0.9678351</v>
       </c>
-      <c r="E113" s="73">
+      <c r="E113" s="71">
         <v>0.9699</v>
       </c>
-      <c r="F113" s="75" t="s">
+      <c r="F113" s="73" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:5">
-      <c r="A114" s="87" t="s">
+      <c r="A114" s="80" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -24487,12 +24538,12 @@
       <c r="D114" s="10">
         <v>0.9678722</v>
       </c>
-      <c r="E114" s="73">
+      <c r="E114" s="71">
         <v>0.97</v>
       </c>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="73"/>
+      <c r="E115" s="71"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
@@ -24507,12 +24558,12 @@
       <c r="D116" s="10">
         <v>0.9675222</v>
       </c>
-      <c r="E116" s="73">
+      <c r="E116" s="71">
         <v>0.9697</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="64" t="s">
+      <c r="A117" s="15" t="s">
         <v>176</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -24524,12 +24575,12 @@
       <c r="D117" s="10">
         <v>0.9675741</v>
       </c>
-      <c r="E117" s="73">
+      <c r="E117" s="71">
         <v>0.9691</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:5">
-      <c r="A118" s="65" t="s">
+      <c r="A118" s="63" t="s">
         <v>178</v>
       </c>
       <c r="B118" s="27" t="s">
@@ -24546,7 +24597,7 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="66" t="s">
+      <c r="A119" s="64" t="s">
         <v>180</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -24558,10 +24609,10 @@
       <c r="D119" s="10">
         <v>0.9674325</v>
       </c>
-      <c r="E119" s="73">
+      <c r="E119" s="71">
         <v>0.9699</v>
       </c>
-      <c r="F119" s="74" t="s">
+      <c r="F119" s="72" t="s">
         <v>181</v>
       </c>
     </row>
@@ -24578,7 +24629,7 @@
       <c r="D120" s="10">
         <v>0.9674582</v>
       </c>
-      <c r="E120" s="70">
+      <c r="E120" s="68">
         <v>0.9697</v>
       </c>
     </row>
@@ -24595,7 +24646,7 @@
       <c r="D121" s="10">
         <v>0.9676493</v>
       </c>
-      <c r="E121" s="70">
+      <c r="E121" s="68">
         <v>0.9691</v>
       </c>
     </row>
@@ -24632,7 +24683,7 @@
       <c r="D123" s="10">
         <v>0.9676907</v>
       </c>
-      <c r="E123" s="73">
+      <c r="E123" s="71">
         <v>0.9691</v>
       </c>
     </row>
@@ -24649,7 +24700,7 @@
       <c r="D124" s="10">
         <v>0.9676178</v>
       </c>
-      <c r="E124" s="73">
+      <c r="E124" s="71">
         <v>0.9696</v>
       </c>
     </row>
@@ -24666,7 +24717,7 @@
       <c r="D125" s="10">
         <v>0.9675494</v>
       </c>
-      <c r="E125" s="73">
+      <c r="E125" s="71">
         <v>0.969</v>
       </c>
     </row>
@@ -24683,12 +24734,12 @@
       <c r="D126" s="10">
         <v>0.9675756</v>
       </c>
-      <c r="E126" s="73">
+      <c r="E126" s="71">
         <v>0.9696</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="64" t="s">
+      <c r="A127" s="15" t="s">
         <v>191</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -24700,7 +24751,7 @@
       <c r="D127" s="10">
         <v>0.967532</v>
       </c>
-      <c r="E127" s="73">
+      <c r="E127" s="71">
         <v>0.9697</v>
       </c>
     </row>
@@ -24725,7 +24776,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="64" t="s">
+      <c r="A129" s="15" t="s">
         <v>194</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -24737,7 +24788,7 @@
       <c r="D129" s="10">
         <v>0.9675508</v>
       </c>
-      <c r="E129" s="73">
+      <c r="E129" s="71">
         <v>0.9697</v>
       </c>
     </row>
@@ -24757,62 +24808,89 @@
       <c r="E130" s="39">
         <v>0.9699</v>
       </c>
-      <c r="F130" s="74" t="s">
+      <c r="F130" s="72" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="77" t="s">
+      <c r="A131" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="B131" s="78" t="s">
+      <c r="B131" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="C131" s="79">
+      <c r="C131" s="11">
         <v>0.9971946</v>
       </c>
-      <c r="D131" s="79">
+      <c r="D131" s="11">
         <v>0.9680284</v>
       </c>
-      <c r="E131" s="82">
+      <c r="E131" s="43">
         <v>0.9699</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="63" t="s">
+      <c r="A132" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="B132" s="80" t="s">
+      <c r="B132" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C132" s="81">
+      <c r="C132" s="20">
         <v>0.9968852</v>
       </c>
-      <c r="D132" s="81">
+      <c r="D132" s="20">
         <v>0.9680029</v>
       </c>
-      <c r="E132" s="83">
+      <c r="E132" s="35">
         <v>0.97009</v>
       </c>
-      <c r="F132" s="74" t="s">
+      <c r="F132" s="72" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="77"/>
-      <c r="E133" s="73"/>
+      <c r="A133" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" s="10">
+        <v>0.99639</v>
+      </c>
+      <c r="D133" s="10">
+        <v>0.9679873</v>
+      </c>
+      <c r="E133" s="71">
+        <v>0.9703</v>
+      </c>
     </row>
-    <row r="134" spans="5:5">
-      <c r="E134" s="73"/>
+    <row r="134" spans="1:5">
+      <c r="A134" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C134" s="10">
+        <v>0.9966941</v>
+      </c>
+      <c r="D134" s="10">
+        <v>0.9679752</v>
+      </c>
+      <c r="E134" s="71">
+        <v>0.9701</v>
+      </c>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="73"/>
+      <c r="E135" s="71"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="73"/>
+      <c r="E136" s="71"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="73"/>
+      <c r="E137" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
   <si>
     <r>
       <rPr>
@@ -1920,20 +1920,38 @@
   <si>
     <t>341</t>
   </si>
+  <si>
+    <t>action_type_seq_dwt ca0, ca1, ca2, cd0, cd1, cd2</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>小波变换并没有什么用</t>
+  </si>
+  <si>
+    <t>order_time_seq_fft</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>action_time_seq_fft _real_0,1,2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1969,6 +1987,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
@@ -1976,8 +1999,88 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1992,69 +2095,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2068,18 +2118,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2099,29 +2149,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2170,7 +2197,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2227,25 +2254,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2257,19 +2284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2281,79 +2302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2371,13 +2320,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2389,25 +2368,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,65 +2451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2498,8 +2472,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2518,147 +2507,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2854,10 +2887,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2875,7 +2908,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2888,6 +2921,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -3217,10 +3262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH137"/>
+  <dimension ref="A1:AMH138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -8535,7 +8580,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="81" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -21095,7 +21140,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="82" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -24263,7 +24308,7 @@
       <c r="E97" s="71"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="79" t="s">
+      <c r="A98" s="83" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -24526,7 +24571,7 @@
       </c>
     </row>
     <row r="114" ht="21" spans="1:5">
-      <c r="A114" s="80" t="s">
+      <c r="A114" s="84" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -24883,14 +24928,62 @@
         <v>0.9701</v>
       </c>
     </row>
-    <row r="135" spans="5:5">
-      <c r="E135" s="71"/>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C135" s="10">
+        <v>0.9971458</v>
+      </c>
+      <c r="D135" s="10">
+        <v>0.9679243</v>
+      </c>
+      <c r="E135" s="71">
+        <v>0.9701</v>
+      </c>
+      <c r="F135" s="79" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="136" spans="5:5">
-      <c r="E136" s="71"/>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C136" s="10">
+        <v>0.9957196</v>
+      </c>
+      <c r="D136" s="10">
+        <v>0.9679023</v>
+      </c>
+      <c r="E136" s="71">
+        <v>0.9701</v>
+      </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" s="71"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B138" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C138" s="78">
+        <v>0.99639</v>
+      </c>
+      <c r="D138" s="78">
+        <v>0.9679873</v>
+      </c>
+      <c r="E138" s="80">
+        <v>0.9703</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
   <si>
     <r>
       <rPr>
@@ -1938,20 +1938,23 @@
   <si>
     <t>action_time_seq_fft _real_0,1,2</t>
   </si>
+  <si>
+    <t>operate_2_train_comment_features</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1987,11 +1990,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
@@ -1999,28 +1997,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2041,14 +2020,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2056,8 +2027,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2068,6 +2040,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2095,14 +2074,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -2110,11 +2081,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2126,15 +2111,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2142,13 +2143,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2197,7 +2191,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2254,19 +2248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2278,7 +2266,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2290,97 +2380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2398,13 +2398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2416,31 +2410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2493,28 +2481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2536,9 +2507,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2556,142 +2544,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2887,10 +2875,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2908,7 +2896,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2921,18 +2909,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -3262,10 +3238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH138"/>
+  <dimension ref="A1:AMH209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -8580,7 +8556,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -21140,7 +21116,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="82" t="s">
+      <c r="A88" s="78" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -24308,7 +24284,7 @@
       <c r="E97" s="71"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="83" t="s">
+      <c r="A98" s="79" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -24571,7 +24547,7 @@
       </c>
     </row>
     <row r="114" ht="21" spans="1:5">
-      <c r="A114" s="84" t="s">
+      <c r="A114" s="80" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -24944,7 +24920,7 @@
       <c r="E135" s="71">
         <v>0.9701</v>
       </c>
-      <c r="F135" s="79" t="s">
+      <c r="F135" s="73" t="s">
         <v>205</v>
       </c>
     </row>
@@ -24972,18 +24948,245 @@
       <c r="A138" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="B138" s="77" t="s">
+      <c r="B138" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C138" s="78">
+      <c r="C138" s="20">
         <v>0.99639</v>
       </c>
-      <c r="D138" s="78">
+      <c r="D138" s="20">
         <v>0.9679873</v>
       </c>
-      <c r="E138" s="80">
+      <c r="E138" s="35">
         <v>0.9703</v>
       </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C139" s="10">
+        <v>0.9962954</v>
+      </c>
+      <c r="D139" s="10">
+        <v>0.9685778</v>
+      </c>
+      <c r="E139" s="71">
+        <v>0.97079</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5">
+      <c r="E140" s="71"/>
+    </row>
+    <row r="141" spans="5:5">
+      <c r="E141" s="71"/>
+    </row>
+    <row r="142" spans="5:5">
+      <c r="E142" s="71"/>
+    </row>
+    <row r="143" spans="5:5">
+      <c r="E143" s="71"/>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" s="71"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="71"/>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="71"/>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" s="71"/>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" s="71"/>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="71"/>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" s="71"/>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="71"/>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="71"/>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" s="71"/>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="71"/>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="71"/>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" s="71"/>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" s="71"/>
+    </row>
+    <row r="158" spans="5:5">
+      <c r="E158" s="71"/>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" s="71"/>
+    </row>
+    <row r="160" spans="5:5">
+      <c r="E160" s="71"/>
+    </row>
+    <row r="161" spans="5:5">
+      <c r="E161" s="71"/>
+    </row>
+    <row r="162" spans="5:5">
+      <c r="E162" s="71"/>
+    </row>
+    <row r="163" spans="5:5">
+      <c r="E163" s="71"/>
+    </row>
+    <row r="164" spans="5:5">
+      <c r="E164" s="71"/>
+    </row>
+    <row r="165" spans="5:5">
+      <c r="E165" s="71"/>
+    </row>
+    <row r="166" spans="5:5">
+      <c r="E166" s="71"/>
+    </row>
+    <row r="167" spans="5:5">
+      <c r="E167" s="71"/>
+    </row>
+    <row r="168" spans="5:5">
+      <c r="E168" s="71"/>
+    </row>
+    <row r="169" spans="5:5">
+      <c r="E169" s="71"/>
+    </row>
+    <row r="170" spans="5:5">
+      <c r="E170" s="71"/>
+    </row>
+    <row r="171" spans="5:5">
+      <c r="E171" s="71"/>
+    </row>
+    <row r="172" spans="5:5">
+      <c r="E172" s="71"/>
+    </row>
+    <row r="173" spans="5:5">
+      <c r="E173" s="71"/>
+    </row>
+    <row r="174" spans="5:5">
+      <c r="E174" s="71"/>
+    </row>
+    <row r="175" spans="5:5">
+      <c r="E175" s="71"/>
+    </row>
+    <row r="176" spans="5:5">
+      <c r="E176" s="71"/>
+    </row>
+    <row r="177" spans="5:5">
+      <c r="E177" s="71"/>
+    </row>
+    <row r="178" spans="5:5">
+      <c r="E178" s="71"/>
+    </row>
+    <row r="179" spans="5:5">
+      <c r="E179" s="71"/>
+    </row>
+    <row r="180" spans="5:5">
+      <c r="E180" s="71"/>
+    </row>
+    <row r="181" spans="5:5">
+      <c r="E181" s="71"/>
+    </row>
+    <row r="182" spans="5:5">
+      <c r="E182" s="71"/>
+    </row>
+    <row r="183" spans="5:5">
+      <c r="E183" s="71"/>
+    </row>
+    <row r="184" spans="5:5">
+      <c r="E184" s="71"/>
+    </row>
+    <row r="185" spans="5:5">
+      <c r="E185" s="71"/>
+    </row>
+    <row r="186" spans="5:5">
+      <c r="E186" s="71"/>
+    </row>
+    <row r="187" spans="5:5">
+      <c r="E187" s="71"/>
+    </row>
+    <row r="188" spans="5:5">
+      <c r="E188" s="71"/>
+    </row>
+    <row r="189" spans="5:5">
+      <c r="E189" s="71"/>
+    </row>
+    <row r="190" spans="5:5">
+      <c r="E190" s="71"/>
+    </row>
+    <row r="191" spans="5:5">
+      <c r="E191" s="71"/>
+    </row>
+    <row r="192" spans="5:5">
+      <c r="E192" s="71"/>
+    </row>
+    <row r="193" spans="5:5">
+      <c r="E193" s="71"/>
+    </row>
+    <row r="194" spans="5:5">
+      <c r="E194" s="71"/>
+    </row>
+    <row r="195" spans="5:5">
+      <c r="E195" s="71"/>
+    </row>
+    <row r="196" spans="5:5">
+      <c r="E196" s="71"/>
+    </row>
+    <row r="197" spans="5:5">
+      <c r="E197" s="71"/>
+    </row>
+    <row r="198" spans="5:5">
+      <c r="E198" s="71"/>
+    </row>
+    <row r="199" spans="5:5">
+      <c r="E199" s="71"/>
+    </row>
+    <row r="200" spans="5:5">
+      <c r="E200" s="71"/>
+    </row>
+    <row r="201" spans="5:5">
+      <c r="E201" s="71"/>
+    </row>
+    <row r="202" spans="5:5">
+      <c r="E202" s="71"/>
+    </row>
+    <row r="203" spans="5:5">
+      <c r="E203" s="71"/>
+    </row>
+    <row r="204" spans="5:5">
+      <c r="E204" s="71"/>
+    </row>
+    <row r="205" spans="5:5">
+      <c r="E205" s="71"/>
+    </row>
+    <row r="206" spans="5:5">
+      <c r="E206" s="71"/>
+    </row>
+    <row r="207" spans="5:5">
+      <c r="E207" s="71"/>
+    </row>
+    <row r="208" spans="5:5">
+      <c r="E208" s="71"/>
+    </row>
+    <row r="209" spans="5:5">
+      <c r="E209" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <r>
       <rPr>
@@ -1941,20 +1941,64 @@
   <si>
     <t>operate_2_train_comment_features</t>
   </si>
+  <si>
+    <r>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wxr comment_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reformat code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> wxr_train_user_info_features</t>
+    </r>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
     <numFmt numFmtId="177" formatCode="0.0000000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1997,12 +2041,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2013,9 +2053,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2024,6 +2064,20 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2036,7 +2090,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2044,7 +2098,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2058,8 +2112,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2075,45 +2167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2128,23 +2182,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2248,13 +2296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2266,13 +2308,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2290,73 +2356,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2374,7 +2386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2386,13 +2398,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2404,13 +2452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2422,7 +2464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2439,6 +2487,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2460,80 +2582,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2544,142 +2592,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2909,6 +2957,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -3241,7 +3292,7 @@
   <dimension ref="A1:AMH209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -8556,7 +8607,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -21116,7 +21167,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="78" t="s">
+      <c r="A88" s="79" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -24284,7 +24335,7 @@
       <c r="E97" s="71"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="79" t="s">
+      <c r="A98" s="80" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -24547,7 +24598,7 @@
       </c>
     </row>
     <row r="114" ht="21" spans="1:5">
-      <c r="A114" s="80" t="s">
+      <c r="A114" s="81" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -24978,11 +25029,39 @@
         <v>0.97079</v>
       </c>
     </row>
-    <row r="140" spans="5:5">
-      <c r="E140" s="71"/>
+    <row r="140" spans="1:5">
+      <c r="A140" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C140" s="10">
+        <v>0.9961105</v>
+      </c>
+      <c r="D140" s="10">
+        <v>0.9686166</v>
+      </c>
+      <c r="E140" s="71">
+        <v>0.9713</v>
+      </c>
     </row>
-    <row r="141" spans="5:5">
-      <c r="E141" s="71"/>
+    <row r="141" spans="1:5">
+      <c r="A141" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" s="10">
+        <v>0.9958772</v>
+      </c>
+      <c r="D141" s="10">
+        <v>0.9685893</v>
+      </c>
+      <c r="E141" s="71">
+        <v>0.9711</v>
+      </c>
     </row>
     <row r="142" spans="5:5">
       <c r="E142" s="71"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13305" tabRatio="993"/>
+    <workbookView windowWidth="20385" windowHeight="8625" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="特征选取" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
   <si>
     <r>
       <rPr>
@@ -1943,6 +1943,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加</t>
     </r>
     <r>
@@ -1956,6 +1961,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1971,6 +1977,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加</t>
     </r>
     <r>
@@ -1985,6 +1996,66 @@
   <si>
     <t>352</t>
   </si>
+  <si>
+    <r>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 19 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> baseline_features</t>
+    </r>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <r>
+      <t>wxr_operate_4_train_order_history_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18</t>
+    </r>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>wxr_operate_3_train_action_features</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
 </sst>
 </file>
 
@@ -1992,11 +2063,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2045,6 +2116,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2053,7 +2147,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2067,15 +2169,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2105,6 +2201,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2121,15 +2225,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2142,30 +2245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2173,24 +2252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2296,7 +2367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2308,13 +2385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2326,19 +2403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2356,7 +2421,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,7 +2505,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2380,103 +2547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,17 +2561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2538,6 +2609,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2553,37 +2644,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2592,137 +2663,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3291,8 +3362,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -25030,24 +25101,24 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="77" t="s">
+      <c r="A140" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C140" s="10">
+      <c r="C140" s="20">
         <v>0.9961105</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D140" s="20">
         <v>0.9686166</v>
       </c>
-      <c r="E140" s="71">
+      <c r="E140" s="35">
         <v>0.9713</v>
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="77" t="s">
+      <c r="A141" s="15" t="s">
         <v>211</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -25063,14 +25134,56 @@
         <v>0.9711</v>
       </c>
     </row>
-    <row r="142" spans="5:5">
-      <c r="E142" s="71"/>
+    <row r="142" spans="1:5">
+      <c r="A142" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C142" s="10">
+        <v>0.9967822</v>
+      </c>
+      <c r="D142" s="10">
+        <v>0.9687088</v>
+      </c>
+      <c r="E142" s="71">
+        <v>0.9702</v>
+      </c>
     </row>
-    <row r="143" spans="5:5">
-      <c r="E143" s="71"/>
+    <row r="143" spans="1:5">
+      <c r="A143" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C143" s="28">
+        <v>0.9963515</v>
+      </c>
+      <c r="D143" s="28">
+        <v>0.9686302</v>
+      </c>
+      <c r="E143" s="39">
+        <v>0.9713</v>
+      </c>
     </row>
-    <row r="144" spans="5:5">
-      <c r="E144" s="71"/>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C144" s="10">
+        <v>0.9960942</v>
+      </c>
+      <c r="D144" s="10">
+        <v>0.9686654</v>
+      </c>
+      <c r="E144" s="71">
+        <v>0.9714</v>
+      </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" s="71"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
   <si>
     <r>
       <rPr>
@@ -2056,6 +2056,37 @@
   <si>
     <t>378</t>
   </si>
+  <si>
+    <r>
+      <t>融合其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> baseline_features</t>
+    </r>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
 </sst>
 </file>
 
@@ -3363,7 +3394,7 @@
   <dimension ref="A1:AMH209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -25185,8 +25216,22 @@
         <v>0.9714</v>
       </c>
     </row>
-    <row r="145" spans="5:5">
-      <c r="E145" s="71"/>
+    <row r="145" spans="1:5">
+      <c r="A145" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C145" s="10">
+        <v>0.9973612</v>
+      </c>
+      <c r="D145" s="10">
+        <v>0.9688768</v>
+      </c>
+      <c r="E145" s="71">
+        <v>0.9703</v>
+      </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" s="71"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8625" tabRatio="993"/>
+    <workbookView windowWidth="20385" windowHeight="7275" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="特征选取" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
   <si>
     <r>
       <rPr>
@@ -1998,6 +1998,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加</t>
     </r>
     <r>
@@ -2011,6 +2016,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>个</t>
@@ -2029,11 +2035,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>wxr_operate_4_train_order_history_features</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -2058,6 +2070,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>融合其他</t>
     </r>
     <r>
@@ -2071,6 +2088,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>个</t>
@@ -2087,18 +2105,53 @@
   <si>
     <t>388</t>
   </si>
+  <si>
+    <t>fix wxr comment feature bug</t>
+  </si>
+  <si>
+    <r>
+      <t>添加额外两个特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+browse_num_after_last_order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>open_num_after_last_order</t>
+    </r>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2148,15 +2201,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2164,7 +2218,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2178,7 +2232,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2192,17 +2277,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2218,65 +2330,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2285,16 +2338,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2398,31 +2451,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2434,25 +2493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2464,7 +2511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2482,13 +2529,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2500,7 +2607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,73 +2631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2592,26 +2645,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2640,26 +2693,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2675,17 +2708,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2694,137 +2747,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2860,16 +2913,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2890,7 +2943,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2905,7 +2958,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2914,13 +2967,13 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2932,40 +2985,40 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2989,10 +3042,10 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3001,7 +3054,7 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3010,7 +3063,7 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3025,31 +3078,31 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -3062,7 +3115,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3393,8 +3446,8 @@
   <sheetPr/>
   <dimension ref="A1:AMH209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -25166,7 +25219,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="77" t="s">
+      <c r="A142" s="15" t="s">
         <v>213</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -25200,24 +25253,24 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="C144" s="10">
+      <c r="C144" s="28">
         <v>0.9960942</v>
       </c>
-      <c r="D144" s="10">
+      <c r="D144" s="28">
         <v>0.9686654</v>
       </c>
-      <c r="E144" s="71">
+      <c r="E144" s="39">
         <v>0.9714</v>
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="77" t="s">
+      <c r="A145" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -25233,11 +25286,42 @@
         <v>0.9703</v>
       </c>
     </row>
-    <row r="146" spans="5:5">
-      <c r="E146" s="71"/>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C146" s="10">
+        <v>0.9975073</v>
+      </c>
+      <c r="D146" s="10">
+        <v>0.9687168</v>
+      </c>
+      <c r="E146" s="71">
+        <v>0.97119</v>
+      </c>
     </row>
-    <row r="147" spans="5:5">
-      <c r="E147" s="71"/>
+    <row r="147" ht="31.5" spans="1:6">
+      <c r="A147" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C147" s="10">
+        <v>0.9964838</v>
+      </c>
+      <c r="D147" s="10">
+        <v>0.9685926</v>
+      </c>
+      <c r="E147" s="71">
+        <v>0.9714</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" s="71"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7275" tabRatio="993"/>
+    <workbookView windowWidth="28695" windowHeight="13305" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="特征选取" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
   <si>
     <r>
       <rPr>
@@ -2124,6 +2124,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -2140,17 +2141,26 @@
   <si>
     <t>380</t>
   </si>
+  <si>
+    <t>basic_user_action_features排序特征，去掉原始特征</t>
+  </si>
+  <si>
+    <t>basic_user_action_features排序特征，保留原始特征</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
@@ -2201,6 +2211,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2216,25 +2241,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2255,43 +2280,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2299,22 +2287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2336,18 +2309,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2451,19 +2461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,7 +2479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,7 +2515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2499,25 +2533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2529,19 +2563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2559,7 +2581,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2571,67 +2641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2645,26 +2655,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2710,15 +2720,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2728,17 +2729,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2747,142 +2757,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2913,16 +2923,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2943,7 +2953,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2958,7 +2968,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2967,13 +2977,13 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2985,40 +2995,40 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -3042,10 +3052,10 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3054,7 +3064,7 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3063,7 +3073,7 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3078,31 +3088,31 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -3114,8 +3124,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3444,10 +3457,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH209"/>
+  <dimension ref="A1:AMH208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -8762,7 +8775,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="79" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -21322,7 +21335,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="79" t="s">
+      <c r="A88" s="80" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -24490,7 +24503,7 @@
       <c r="E97" s="71"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="80" t="s">
+      <c r="A98" s="81" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -24753,7 +24766,7 @@
       </c>
     </row>
     <row r="114" ht="21" spans="1:5">
-      <c r="A114" s="81" t="s">
+      <c r="A114" s="82" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -25307,32 +25320,62 @@
       <c r="A147" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="C147" s="10">
+      <c r="C147" s="28">
         <v>0.9964838</v>
       </c>
-      <c r="D147" s="10">
+      <c r="D147" s="28">
         <v>0.9685926</v>
       </c>
-      <c r="E147" s="71">
+      <c r="E147" s="39">
         <v>0.9714</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="F147" s="28" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="5:5">
-      <c r="E148" s="71"/>
+    <row r="148" spans="1:5">
+      <c r="A148" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" s="10">
+        <v>0.9962425</v>
+      </c>
+      <c r="D148" s="10">
+        <v>0.9686641</v>
+      </c>
+      <c r="E148" s="71">
+        <v>0.9709</v>
+      </c>
     </row>
-    <row r="149" spans="5:5">
-      <c r="E149" s="71"/>
+    <row r="149" spans="1:5">
+      <c r="A149" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C149" s="10">
+        <v>0.9964066</v>
+      </c>
+      <c r="D149" s="10">
+        <v>0.9686754</v>
+      </c>
+      <c r="E149" s="71">
+        <v>0.9714</v>
+      </c>
     </row>
-    <row r="150" spans="5:5">
+    <row r="150" spans="1:5">
+      <c r="A150" s="78"/>
       <c r="E150" s="71"/>
     </row>
-    <row r="151" spans="5:5">
+    <row r="151" spans="1:5">
+      <c r="A151" s="78"/>
       <c r="E151" s="71"/>
     </row>
     <row r="152" spans="5:5">
@@ -25506,9 +25549,6 @@
     <row r="208" spans="5:5">
       <c r="E208" s="71"/>
     </row>
-    <row r="209" spans="5:5">
-      <c r="E209" s="71"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A32:G32"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241">
   <si>
     <r>
       <rPr>
@@ -2150,6 +2150,161 @@
   <si>
     <t>417</t>
   </si>
+  <si>
+    <t>new baseline, 我不知道改了什么</t>
+  </si>
+  <si>
+    <t>特征离散化</t>
+  </si>
+  <si>
+    <r>
+      <t>basic_user_action_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>basic_user_action_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>action_history_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; 1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0.85</t>
+    </r>
+  </si>
+  <si>
+    <t>连续特征离散化处理</t>
+  </si>
+  <si>
+    <r>
+      <t>eta: 0.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>num_boost_round=1000</t>
+    </r>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>browse_product_ratio</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>browse_product2_ratio</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>fillin_form5_ratio</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
 </sst>
 </file>
 
@@ -2163,7 +2318,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2207,6 +2362,11 @@
     </font>
     <font>
       <sz val="8"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2757,142 +2917,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3128,6 +3288,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
@@ -3457,10 +3620,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AMH208"/>
+  <dimension ref="A1:AMH206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -8775,7 +8938,7 @@
       <c r="AMH13" s="47"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1022">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="80" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -21335,7 +21498,7 @@
       </c>
     </row>
     <row r="88" s="6" customFormat="1" spans="1:1022">
-      <c r="A88" s="80" t="s">
+      <c r="A88" s="81" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -24503,7 +24666,7 @@
       <c r="E97" s="71"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="81" t="s">
+      <c r="A98" s="82" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -24766,7 +24929,7 @@
       </c>
     </row>
     <row r="114" ht="21" spans="1:5">
-      <c r="A114" s="82" t="s">
+      <c r="A114" s="83" t="s">
         <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -25371,23 +25534,70 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="78"/>
+      <c r="A150" s="79"/>
       <c r="E150" s="71"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="78"/>
-      <c r="E151" s="71"/>
+      <c r="A151" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C151" s="10">
+        <v>0.9966108</v>
+      </c>
+      <c r="D151" s="10">
+        <v>0.9686677</v>
+      </c>
+      <c r="E151" s="71">
+        <v>0.97149</v>
+      </c>
     </row>
-    <row r="152" spans="5:5">
+    <row r="152" spans="1:5">
+      <c r="A152" s="78" t="s">
+        <v>228</v>
+      </c>
       <c r="E152" s="71"/>
     </row>
-    <row r="153" spans="5:5">
-      <c r="E153" s="71"/>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C153" s="10">
+        <v>0.9968718</v>
+      </c>
+      <c r="D153" s="10">
+        <v>0.9686728</v>
+      </c>
     </row>
-    <row r="154" spans="5:5">
-      <c r="E154" s="71"/>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C154" s="10">
+        <v>0.9968439</v>
+      </c>
+      <c r="D154" s="10">
+        <v>0.9687487</v>
+      </c>
+      <c r="E154" s="71">
+        <v>0.97149</v>
+      </c>
     </row>
-    <row r="155" spans="5:5">
+    <row r="155" spans="1:5">
+      <c r="A155" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="E155" s="71"/>
     </row>
     <row r="156" spans="5:5">
@@ -25423,19 +25633,75 @@
     <row r="166" spans="5:5">
       <c r="E166" s="71"/>
     </row>
-    <row r="167" spans="5:5">
-      <c r="E167" s="71"/>
+    <row r="167" spans="1:5">
+      <c r="A167" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="5:5">
+    <row r="168" spans="1:5">
+      <c r="A168" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C168" s="10">
+        <v>0.9965687</v>
+      </c>
+      <c r="D168" s="10">
+        <v>0.9678254</v>
+      </c>
       <c r="E168" s="71"/>
     </row>
-    <row r="169" spans="5:5">
+    <row r="169" spans="1:5">
+      <c r="A169" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C169" s="10">
+        <v>0.9980355</v>
+      </c>
+      <c r="D169" s="10">
+        <v>0.9681056</v>
+      </c>
       <c r="E169" s="71"/>
     </row>
-    <row r="170" spans="5:5">
+    <row r="170" spans="1:5">
+      <c r="A170" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C170" s="10">
+        <v>0.9966559</v>
+      </c>
+      <c r="D170" s="10">
+        <v>0.9681643</v>
+      </c>
       <c r="E170" s="71"/>
     </row>
-    <row r="171" spans="5:5">
+    <row r="171" spans="1:5">
+      <c r="A171" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C171" s="10">
+        <v>0.997926</v>
+      </c>
+      <c r="D171" s="10">
+        <v>0.9681989</v>
+      </c>
       <c r="E171" s="71"/>
     </row>
     <row r="172" spans="5:5">
@@ -25543,15 +25809,10 @@
     <row r="206" spans="5:5">
       <c r="E206" s="71"/>
     </row>
-    <row r="207" spans="5:5">
-      <c r="E207" s="71"/>
-    </row>
-    <row r="208" spans="5:5">
-      <c r="E208" s="71"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B167:E167"/>
   </mergeCells>
   <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/Feature Engineering.xlsx
+++ b/Feature Engineering.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244">
   <si>
     <r>
       <rPr>
@@ -2110,6 +2110,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>添加额外两个特征</t>
     </r>
     <r>
@@ -2158,11 +2163,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>basic_user_action_features</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -2178,6 +2189,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -2193,11 +2205,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>basic_user_action_features</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -2213,6 +2231,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -2228,11 +2247,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>action_history_features</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -2248,6 +2273,7 @@
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -2262,15 +2288,45 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
+      <t>basic_user_action_features</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>离散化测试</t>
+    </r>
+  </si>
+  <si>
+    <t>add someother features</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
     <t>连续特征离散化处理</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>eta: 0.05</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -2312,13 +2368,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2361,15 +2417,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2378,8 +2425,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2396,6 +2444,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2431,23 +2494,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2461,6 +2509,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2469,24 +2539,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2503,21 +2565,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2627,7 +2674,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2639,61 +2716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2705,19 +2734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,49 +2746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2789,7 +2764,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2801,7 +2824,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2830,11 +2877,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2843,7 +2896,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2864,16 +2917,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2892,23 +2945,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2917,115 +2964,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3034,25 +3081,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" bor